--- a/acs/elections_with_tracts.xlsx
+++ b/acs/elections_with_tracts.xlsx
@@ -4318,7 +4318,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[4200, 4100, 600, 900, 200, 300, 1000]</t>
+          <t>['50_007_004200', '50_007_004100', '50_007_000600', '50_007_000900', '50_007_000200', '50_007_000300', '50_007_001000']</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -4374,7 +4374,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[4200, 3600, 3900, 2502, 4100, 600, 900, 300, 1000]</t>
+          <t>['50_007_004200', '50_007_003600', '50_007_003900', '50_007_002502', '50_007_004100', '50_007_000600', '50_007_000900', '50_007_000300', '50_007_001000']</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -4430,7 +4430,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>[3600, 3900, 3304, 800, 900, 1100, 1000]</t>
+          <t>['50_007_003600', '50_007_003900', '50_007_003304', '50_007_000800', '50_007_000900', '50_007_001100', '50_007_001000']</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -4522,7 +4522,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>[1102, 700, 800, 900, 1000, 1204, 1104, 1103, 201, 1203, 1205]</t>
+          <t>['35_013_001102', '35_013_000700', '35_013_000800', '35_013_000900', '35_013_001000', '35_013_001204', '35_013_001104', '35_013_001103', '35_013_000201', '35_013_001203', '35_013_001205']</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -4576,7 +4576,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[1500, 1102, 300, 500, 600, 202, 201, 103]</t>
+          <t>['35_013_001500', '35_013_001102', '35_013_000300', '35_013_000500', '35_013_000600', '35_013_000202', '35_013_000201', '35_013_000103']</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -14152,7 +14152,7 @@
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
-          <t>[952900, 950900, 952100, 952300, 951200, 951300, 951400, 951100, 950100, 952700, 950700, 951700, 950600, 950400, 950200, 952600, 952400, 952500, 951600, 950300, 951000, 951800, 951900, 952000, 956300, 956400, 955300, 955400, 955900, 955500, 956500, 955100, 955800, 956100, 955700, 956200, 955600, 990000, 965100, 965900, 966300, 966500, 965300, 966400, 966100, 965200, 966600, 21500, 200, 300, 400, 500, 600, 700, 900, 20500, 8001, 4100, 4200, 4300, 27000, 11000, 25500, 26500, 9000, 14000, 15000, 12500, 31000, 28000, 13500, 15500, 22500, 2000, 10000, 12000, 28500, 24500, 18000, 29000, 30000, 13000, 7100, 7200, 6200, 6100, 6300, 3000, 5000, 940000, 31300, 31100, 31200, 965700, 965400, 966200, 965800, 966000, 965504, 965503, 990000, 966700, 46001, 46002, 41000, 44000, 47000, 45000, 43000, 42000, 22500, 970601, 970101, 970602, 970102, 971200, 971400, 971300, 971000, 971100, 965301, 965302, 966700, 966600, 966000, 966900, 967000, 966500, 965900, 966800, 965800, 966300, 966100, 965700, 966200, 965600, 966400, 966100, 966900, 966200, 966300, 966500, 965600, 966400, 965800, 965900, 966600, 965500, 966800, 966000, 965700, 965100, 966700, 965400, 18000, 17000, 25000, 15500, 13000, 14000, 12000, 11000, 15000, 14500, 10900, 21000, 20000, 10600, 22000, 16000, 23002, 10801, 20500, 970301, 970100, 970200, 960302, 960301, 960600, 960700, 960900, 960400, 960800, 960500, 970300, 42000, 43000, 20500, 40000, 44000, 41500, 20800, 20700, 41000, 20300, 20400, 46000, 20600, 45000, 30100, 20200, 20900, 10800, 10100, 10400, 10200, 10700, 10500, 30200, 10600, 10300, 46500, 20100, 11500, 14000, 13000, 16500, 16000, 15000, 10802, 24200]</t>
+          <t>['23_003_952900', '23_003_950900', '23_003_952100', '23_003_952300', '23_003_951200', '23_003_951300', '23_003_951400', '23_003_951100', '23_003_950100', '23_003_952700', '23_003_950700', '23_003_951700', '23_003_950600', '23_003_950400', '23_003_950200', '23_003_952600', '23_003_952400', '23_003_952500', '23_003_951600', '23_003_950300', '23_003_951000', '23_003_951800', '23_003_951900', '23_003_952000', '23_029_956300', '23_029_956400', '23_029_955300', '23_029_955400', '23_029_955900', '23_029_955500', '23_029_956500', '23_029_955100', '23_029_955800', '23_029_956100', '23_029_955700', '23_029_956200', '23_029_955600', '23_029_990000', '23_009_965100', '23_009_965900', '23_009_966300', '23_009_966500', '23_009_965300', '23_009_966400', '23_009_966100', '23_009_965200', '23_009_966600', '23_019_021500', '23_019_000200', '23_019_000300', '23_019_000400', '23_019_000500', '23_019_000600', '23_019_000700', '23_019_000900', '23_019_020500', '23_019_008001', '23_019_004100', '23_019_004200', '23_019_004300', '23_019_027000', '23_019_011000', '23_019_025500', '23_019_026500', '23_019_009000', '23_019_014000', '23_019_015000', '23_019_012500', '23_019_031000', '23_019_028000', '23_019_013500', '23_019_015500', '23_019_022500', '23_019_002000', '23_019_010000', '23_019_012000', '23_019_028500', '23_019_024500', '23_019_018000', '23_019_029000', '23_019_030000', '23_019_013000', '23_019_007100', '23_019_007200', '23_019_006200', '23_019_006100', '23_019_006300', '23_019_003000', '23_019_005000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965800', '23_009_966000', '23_009_965504', '23_009_965503', '23_009_990000', '23_009_966700', '23_027_046001', '23_027_046002', '23_027_041000', '23_027_044000', '23_027_047000', '23_027_045000', '23_027_043000', '23_027_042000', '23_031_022500', '23_007_970601', '23_007_970101', '23_007_970602', '23_007_970102', '23_007_971200', '23_007_971400', '23_007_971300', '23_007_971000', '23_007_971100', '23_025_965301', '23_025_965302', '23_025_966700', '23_025_966600', '23_025_966000', '23_025_966900', '23_025_967000', '23_025_966500', '23_025_965900', '23_025_966800', '23_025_965800', '23_025_966300', '23_025_966100', '23_025_965700', '23_025_966200', '23_025_965600', '23_025_966400', '23_017_966100', '23_017_966900', '23_017_966200', '23_017_966300', '23_017_966500', '23_017_965600', '23_017_966400', '23_017_965800', '23_017_965900', '23_017_966600', '23_017_965500', '23_017_966800', '23_017_966000', '23_017_965700', '23_017_965100', '23_017_966700', '23_017_965400', '23_011_018000', '23_011_017000', '23_011_025000', '23_011_015500', '23_011_013000', '23_011_014000', '23_011_012000', '23_011_011000', '23_011_015000', '23_011_014500', '23_011_010900', '23_011_021000', '23_011_020000', '23_011_010600', '23_011_022000', '23_011_016000', '23_011_023002', '23_011_010801', '23_011_020500', '23_023_970301', '23_023_970100', '23_023_970200', '23_021_960302', '23_021_960301', '23_021_960600', '23_021_960700', '23_021_960900', '23_021_960400', '23_021_960800', '23_021_960500', '23_013_970300', '23_001_042000', '23_001_043000', '23_001_020500', '23_001_040000', '23_001_044000', '23_001_041500', '23_001_020800', '23_001_020700', '23_001_041000', '23_001_020300', '23_001_020400', '23_001_046000', '23_001_020600', '23_001_045000', '23_001_030100', '23_001_020200', '23_001_020900', '23_001_010800', '23_001_010100', '23_001_010400', '23_001_010200', '23_001_010700', '23_001_010500', '23_001_030200', '23_001_010600', '23_001_010300', '23_001_046500', '23_001_020100', '23_005_011500', '23_005_014000', '23_005_013000', '23_005_016500', '23_005_016000', '23_005_015000', '23_011_010802', '23_011_024200']</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -14202,7 +14202,7 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
-          <t>[3000, 4100, 4300, 5000, 6100, 6300, 11000, 12000, 43000, 13000, 18000, 9000, 20500, 2000, 8001, 13500, 22500, 29000, 960800, 960700, 960600, 960400, 960500, 960900, 966800, 966600, 965800, 966900, 965100, 965600, 966100, 966300, 965500, 966700, 965400, 965700, 966402, 966002, 966401, 966001, 970200, 966500, 11000, 24500, 31000, 400, 500, 600, 20500, 22000, 965300, 965100, 965800, 966300, 966400, 966600, 965700, 965400, 966200, 965900, 965900, 966200, 966100, 40000, 46000, 46500, 990000, 10100, 10300, 10400, 970302, 970301, 10500, 20100, 20200, 20500, 20600, 20900, 45000, 41000, 43000, 41500, 30200, 10600, 42000, 30100, 20700, 10700, 10200, 10800, 970101, 970601, 970301, 970100, 22500, 14500, 18000, 28500, 28000, 300, 10900, 27000, 15500, 6200, 700, 15000, 14000, 12500, 7100, 4200, 26500, 900, 7200, 30000, 21500, 25500, 10000, 200, 965504, 965503, 966700, 966000, 966500, 956200, 956400, 955400, 955900, 45000, 41000, 42000, 44000, 47000, 966100, 970102, 965700, 966702, 966601, 966602, 966701, 966802, 966801, 966900, 971202, 971201, 20303, 20301, 20802, 20801, 20402, 20302, 20401, 15000, 952700, 952600, 952900, 952300, 950400, 951400, 950700, 950600, 950100, 951800, 952000, 951900, 951200, 950300, 970602, 950900, 951000, 951100, 965900, 965600, 966200, 966000, 967000, 951600, 951700, 13000, 21000, 16000, 12000, 17000, 10801, 20000, 15500, 952400, 952500, 950200, 951300, 952100, 16001, 14001, 13001, 966400, 965200, 965800, 966500, 955100, 955500, 955800, 956100, 956500, 955700, 955600, 956300, 955300, 44000, 940000, 31300, 31100, 31200, 966300, 23002, 14002, 14001, 10601, 25001, 25002, 10804, 10803, 24202, 10602, 971000, 971300, 971100, 971400, 46002, 46001, 960301, 960302, 11500, 15000, 16500, 965302, 965301, 990000]</t>
+          <t>['23_019_003000', '23_019_004100', '23_019_004300', '23_019_005000', '23_019_006100', '23_019_006300', '23_019_011000', '23_019_012000', '23_027_043000', '23_019_013000', '23_019_018000', '23_019_009000', '23_019_020500', '23_019_002000', '23_019_008001', '23_019_013500', '23_019_022500', '23_019_029000', '23_021_960800', '23_021_960700', '23_021_960600', '23_021_960400', '23_021_960500', '23_021_960900', '23_017_966800', '23_017_966600', '23_017_965800', '23_017_966900', '23_017_965100', '23_017_965600', '23_017_966100', '23_017_966300', '23_017_965500', '23_017_966700', '23_017_965400', '23_017_965700', '23_017_966402', '23_017_966002', '23_017_966401', '23_017_966001', '23_023_970200', '23_017_966500', '23_011_011000', '23_019_024500', '23_019_031000', '23_019_000400', '23_019_000500', '23_019_000600', '23_011_020500', '23_011_022000', '23_009_965300', '23_009_965100', '23_009_965800', '23_009_966300', '23_009_966400', '23_009_966600', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965900', '23_017_965900', '23_017_966200', '23_009_966100', '23_001_040000', '23_001_046000', '23_001_046500', '23_029_990000', '23_001_010100', '23_001_010300', '23_001_010400', '23_013_970302', '23_013_970301', '23_001_010500', '23_001_020100', '23_001_020200', '23_001_020500', '23_001_020600', '23_001_020900', '23_001_045000', '23_001_041000', '23_001_043000', '23_001_041500', '23_001_030200', '23_001_010600', '23_001_042000', '23_001_030100', '23_001_020700', '23_001_010700', '23_001_010200', '23_001_010800', '23_007_970101', '23_007_970601', '23_023_970301', '23_023_970100', '23_031_022500', '23_011_014500', '23_011_018000', '23_019_028500', '23_019_028000', '23_019_000300', '23_011_010900', '23_019_027000', '23_019_015500', '23_019_006200', '23_019_000700', '23_019_015000', '23_019_014000', '23_019_012500', '23_019_007100', '23_019_004200', '23_019_026500', '23_019_000900', '23_019_007200', '23_019_030000', '23_019_021500', '23_019_025500', '23_019_010000', '23_019_000200', '23_009_965504', '23_009_965503', '23_009_966700', '23_009_966000', '23_009_966500', '23_029_956200', '23_029_956400', '23_029_955400', '23_029_955900', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966100', '23_007_970102', '23_025_965700', '23_025_966702', '23_025_966601', '23_025_966602', '23_025_966701', '23_025_966802', '23_025_966801', '23_025_966900', '23_007_971202', '23_007_971201', '23_001_020303', '23_001_020301', '23_001_020802', '23_001_020801', '23_001_020402', '23_001_020302', '23_001_020401', '23_011_015000', '23_003_952700', '23_003_952600', '23_003_952900', '23_003_952300', '23_003_950400', '23_003_951400', '23_003_950700', '23_003_950600', '23_003_950100', '23_003_951800', '23_003_952000', '23_003_951900', '23_003_951200', '23_003_950300', '23_007_970602', '23_003_950900', '23_003_951000', '23_003_951100', '23_025_965900', '23_025_965600', '23_025_966200', '23_025_966000', '23_025_967000', '23_003_951600', '23_003_951700', '23_011_013000', '23_011_021000', '23_011_016000', '23_011_012000', '23_011_017000', '23_011_010801', '23_011_020000', '23_011_015500', '23_003_952400', '23_003_952500', '23_003_950200', '23_003_951300', '23_003_952100', '23_005_016001', '23_005_014001', '23_005_013001', '23_025_966400', '23_009_965200', '23_025_965800', '23_025_966500', '23_029_955100', '23_029_955500', '23_029_955800', '23_029_956100', '23_029_956500', '23_029_955700', '23_029_955600', '23_029_956300', '23_029_955300', '23_001_044000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_025_966300', '23_011_023002', '23_011_014002', '23_011_014001', '23_011_010601', '23_011_025001', '23_011_025002', '23_011_010804', '23_011_010803', '23_011_024202', '23_011_010602', '23_007_971000', '23_007_971300', '23_007_971100', '23_007_971400', '23_027_046002', '23_027_046001', '23_021_960301', '23_021_960302', '23_005_011500', '23_005_015000', '23_005_016500', '23_025_965302', '23_025_965301', '23_009_990000']</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -14252,7 +14252,7 @@
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
-          <t>[952900, 950900, 952100, 952300, 951200, 951300, 951400, 951100, 950100, 952700, 950700, 951700, 950600, 950400, 950200, 952600, 952400, 952500, 951600, 950300, 951000, 951800, 951900, 952000, 956300, 956400, 955300, 955400, 955900, 955500, 956500, 955100, 955800, 956100, 955700, 956200, 955600, 990000, 965100, 965900, 966300, 966500, 965300, 966400, 966100, 965200, 966600, 21500, 200, 300, 400, 500, 600, 700, 900, 20500, 8001, 4100, 4200, 4300, 27000, 11000, 25500, 26500, 9000, 14000, 15000, 12500, 31000, 28000, 13500, 15500, 22500, 2000, 10000, 12000, 28500, 24500, 18000, 29000, 30000, 13000, 7100, 7200, 6200, 6100, 6300, 3000, 5000, 940000, 31300, 31100, 31200, 965700, 965400, 966200, 965800, 966000, 965504, 965503, 990000, 966700, 46001, 46002, 41000, 44000, 47000, 45000, 43000, 42000, 22500, 970601, 970101, 970602, 970102, 971200, 971400, 971300, 971000, 971100, 965301, 965302, 966700, 966600, 966000, 966900, 967000, 966500, 965900, 966800, 965800, 966300, 966100, 965700, 966200, 965600, 966400, 966100, 966900, 966200, 966300, 966500, 965600, 966400, 965800, 965900, 966600, 965500, 966800, 966000, 965700, 965100, 966700, 965400, 18000, 17000, 25000, 15500, 13000, 14000, 12000, 11000, 15000, 14500, 10900, 21000, 20000, 10600, 22000, 16000, 23002, 10801, 20500, 970301, 970100, 970200, 960302, 960301, 960600, 960700, 960900, 960400, 960800, 960500, 970300, 42000, 43000, 20500, 40000, 44000, 41500, 20800, 20700, 41000, 20300, 20400, 46000, 20600, 45000, 30100, 20200, 20900, 10800, 10100, 10400, 10200, 10700, 10500, 30200, 10600, 10300, 46500, 20100, 11500, 14000, 13000, 16500, 16000, 15000, 10802, 24200]</t>
+          <t>['23_003_952900', '23_003_950900', '23_003_952100', '23_003_952300', '23_003_951200', '23_003_951300', '23_003_951400', '23_003_951100', '23_003_950100', '23_003_952700', '23_003_950700', '23_003_951700', '23_003_950600', '23_003_950400', '23_003_950200', '23_003_952600', '23_003_952400', '23_003_952500', '23_003_951600', '23_003_950300', '23_003_951000', '23_003_951800', '23_003_951900', '23_003_952000', '23_029_956300', '23_029_956400', '23_029_955300', '23_029_955400', '23_029_955900', '23_029_955500', '23_029_956500', '23_029_955100', '23_029_955800', '23_029_956100', '23_029_955700', '23_029_956200', '23_029_955600', '23_029_990000', '23_009_965100', '23_009_965900', '23_009_966300', '23_009_966500', '23_009_965300', '23_009_966400', '23_009_966100', '23_009_965200', '23_009_966600', '23_019_021500', '23_019_000200', '23_019_000300', '23_019_000400', '23_019_000500', '23_019_000600', '23_019_000700', '23_019_000900', '23_019_020500', '23_019_008001', '23_019_004100', '23_019_004200', '23_019_004300', '23_019_027000', '23_019_011000', '23_019_025500', '23_019_026500', '23_019_009000', '23_019_014000', '23_019_015000', '23_019_012500', '23_019_031000', '23_019_028000', '23_019_013500', '23_019_015500', '23_019_022500', '23_019_002000', '23_019_010000', '23_019_012000', '23_019_028500', '23_019_024500', '23_019_018000', '23_019_029000', '23_019_030000', '23_019_013000', '23_019_007100', '23_019_007200', '23_019_006200', '23_019_006100', '23_019_006300', '23_019_003000', '23_019_005000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965800', '23_009_966000', '23_009_965504', '23_009_965503', '23_009_990000', '23_009_966700', '23_027_046001', '23_027_046002', '23_027_041000', '23_027_044000', '23_027_047000', '23_027_045000', '23_027_043000', '23_027_042000', '23_031_022500', '23_007_970601', '23_007_970101', '23_007_970602', '23_007_970102', '23_007_971200', '23_007_971400', '23_007_971300', '23_007_971000', '23_007_971100', '23_025_965301', '23_025_965302', '23_025_966700', '23_025_966600', '23_025_966000', '23_025_966900', '23_025_967000', '23_025_966500', '23_025_965900', '23_025_966800', '23_025_965800', '23_025_966300', '23_025_966100', '23_025_965700', '23_025_966200', '23_025_965600', '23_025_966400', '23_017_966100', '23_017_966900', '23_017_966200', '23_017_966300', '23_017_966500', '23_017_965600', '23_017_966400', '23_017_965800', '23_017_965900', '23_017_966600', '23_017_965500', '23_017_966800', '23_017_966000', '23_017_965700', '23_017_965100', '23_017_966700', '23_017_965400', '23_011_018000', '23_011_017000', '23_011_025000', '23_011_015500', '23_011_013000', '23_011_014000', '23_011_012000', '23_011_011000', '23_011_015000', '23_011_014500', '23_011_010900', '23_011_021000', '23_011_020000', '23_011_010600', '23_011_022000', '23_011_016000', '23_011_023002', '23_011_010801', '23_011_020500', '23_023_970301', '23_023_970100', '23_023_970200', '23_021_960302', '23_021_960301', '23_021_960600', '23_021_960700', '23_021_960900', '23_021_960400', '23_021_960800', '23_021_960500', '23_013_970300', '23_001_042000', '23_001_043000', '23_001_020500', '23_001_040000', '23_001_044000', '23_001_041500', '23_001_020800', '23_001_020700', '23_001_041000', '23_001_020300', '23_001_020400', '23_001_046000', '23_001_020600', '23_001_045000', '23_001_030100', '23_001_020200', '23_001_020900', '23_001_010800', '23_001_010100', '23_001_010400', '23_001_010200', '23_001_010700', '23_001_010500', '23_001_030200', '23_001_010600', '23_001_010300', '23_001_046500', '23_001_020100', '23_005_011500', '23_005_014000', '23_005_013000', '23_005_016500', '23_005_016000', '23_005_015000', '23_011_010802', '23_011_024200']</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -14302,7 +14302,7 @@
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>[11300, 3000, 4100, 4300, 5000, 6100, 6300, 11000, 12000, 43000, 13000, 18000, 9000, 20500, 2000, 8001, 13500, 22500, 29000, 960800, 960700, 960600, 960400, 960500, 960900, 966800, 966600, 965800, 966900, 965100, 965600, 966100, 966300, 965500, 966700, 965400, 965700, 966402, 966002, 966401, 966001, 970200, 966500, 11000, 23001, 24101, 970200, 24500, 31000, 400, 500, 600, 19000, 20500, 22000, 965300, 965100, 965800, 966300, 966400, 966600, 965700, 965400, 966200, 965900, 965900, 966200, 966100, 40000, 46000, 46500, 990000, 10100, 10300, 10400, 970302, 970301, 10500, 20100, 20200, 20500, 20600, 20900, 45000, 41000, 43000, 41500, 30200, 10600, 42000, 30100, 20700, 10700, 10200, 10800, 4501, 970101, 970601, 970301, 970100, 22500, 24102, 14500, 18000, 28500, 28000, 300, 10900, 27000, 15500, 6200, 700, 15000, 14000, 12500, 7100, 4200, 26500, 900, 7200, 30000, 21500, 25500, 10000, 200, 965504, 965503, 966700, 971100, 966000, 966500, 956200, 956400, 955400, 955900, 45000, 41000, 42000, 44000, 47000, 966100, 970102, 965700, 966702, 966601, 966602, 966701, 966802, 966801, 966900, 971202, 971201, 20303, 20301, 20802, 20801, 20402, 20302, 20401, 15000, 952700, 952600, 952900, 952300, 950400, 951400, 950700, 950600, 950100, 951800, 952000, 951900, 951200, 950300, 970602, 950900, 951000, 951100, 965900, 965600, 966200, 966000, 967000, 951600, 951700, 10300, 13000, 21000, 16000, 10200, 12000, 10500, 17000, 10801, 10100, 20000, 15500, 10700, 952400, 952500, 950200, 951300, 952100, 16002, 16001, 12001, 14001, 13001, 966400, 965200, 965800, 966500, 955100, 955500, 955800, 956100, 956500, 955700, 955600, 956300, 955300, 44000, 940000, 31300, 31100, 31200, 966300, 23002, 14002, 14001, 10601, 25001, 25002, 10804, 10803, 24202, 10602, 971000, 971300, 971100, 971400, 46002, 46001, 960301, 960302, 990000, 11500, 15000, 16500, 10400, 965302, 965301, 975100, 990000]</t>
+          <t>['23_005_011300', '23_019_003000', '23_019_004100', '23_019_004300', '23_019_005000', '23_019_006100', '23_019_006300', '23_019_011000', '23_019_012000', '23_027_043000', '23_019_013000', '23_019_018000', '23_019_009000', '23_019_020500', '23_019_002000', '23_019_008001', '23_019_013500', '23_019_022500', '23_019_029000', '23_021_960800', '23_021_960700', '23_021_960600', '23_021_960400', '23_021_960500', '23_021_960900', '23_017_966800', '23_017_966600', '23_017_965800', '23_017_966900', '23_017_965100', '23_017_965600', '23_017_966100', '23_017_966300', '23_017_965500', '23_017_966700', '23_017_965400', '23_017_965700', '23_017_966402', '23_017_966002', '23_017_966401', '23_017_966001', '23_023_970200', '23_017_966500', '23_011_011000', '23_011_023001', '23_011_024101', '23_013_970200', '23_019_024500', '23_019_031000', '23_019_000400', '23_019_000500', '23_019_000600', '23_011_019000', '23_011_020500', '23_011_022000', '23_009_965300', '23_009_965100', '23_009_965800', '23_009_966300', '23_009_966400', '23_009_966600', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965900', '23_017_965900', '23_017_966200', '23_009_966100', '23_001_040000', '23_001_046000', '23_001_046500', '23_029_990000', '23_001_010100', '23_001_010300', '23_001_010400', '23_013_970302', '23_013_970301', '23_001_010500', '23_001_020100', '23_001_020200', '23_001_020500', '23_001_020600', '23_001_020900', '23_001_045000', '23_001_041000', '23_001_043000', '23_001_041500', '23_001_030200', '23_001_010600', '23_001_042000', '23_001_030100', '23_001_020700', '23_001_010700', '23_001_010200', '23_001_010800', '23_005_004501', '23_007_970101', '23_007_970601', '23_023_970301', '23_023_970100', '23_031_022500', '23_011_024102', '23_011_014500', '23_011_018000', '23_019_028500', '23_019_028000', '23_019_000300', '23_011_010900', '23_019_027000', '23_019_015500', '23_019_006200', '23_019_000700', '23_019_015000', '23_019_014000', '23_019_012500', '23_019_007100', '23_019_004200', '23_019_026500', '23_019_000900', '23_019_007200', '23_019_030000', '23_019_021500', '23_019_025500', '23_019_010000', '23_019_000200', '23_009_965504', '23_009_965503', '23_009_966700', '23_013_971100', '23_009_966000', '23_009_966500', '23_029_956200', '23_029_956400', '23_029_955400', '23_029_955900', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966100', '23_007_970102', '23_025_965700', '23_025_966702', '23_025_966601', '23_025_966602', '23_025_966701', '23_025_966802', '23_025_966801', '23_025_966900', '23_007_971202', '23_007_971201', '23_001_020303', '23_001_020301', '23_001_020802', '23_001_020801', '23_001_020402', '23_001_020302', '23_001_020401', '23_011_015000', '23_003_952700', '23_003_952600', '23_003_952900', '23_003_952300', '23_003_950400', '23_003_951400', '23_003_950700', '23_003_950600', '23_003_950100', '23_003_951800', '23_003_952000', '23_003_951900', '23_003_951200', '23_003_950300', '23_007_970602', '23_003_950900', '23_003_951000', '23_003_951100', '23_025_965900', '23_025_965600', '23_025_966200', '23_025_966000', '23_025_967000', '23_003_951600', '23_003_951700', '23_011_010300', '23_011_013000', '23_011_021000', '23_011_016000', '23_011_010200', '23_011_012000', '23_011_010500', '23_011_017000', '23_011_010801', '23_011_010100', '23_011_020000', '23_011_015500', '23_011_010700', '23_003_952400', '23_003_952500', '23_003_950200', '23_003_951300', '23_003_952100', '23_005_016002', '23_005_016001', '23_005_012001', '23_005_014001', '23_005_013001', '23_025_966400', '23_009_965200', '23_025_965800', '23_025_966500', '23_029_955100', '23_029_955500', '23_029_955800', '23_029_956100', '23_029_956500', '23_029_955700', '23_029_955600', '23_029_956300', '23_029_955300', '23_001_044000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_025_966300', '23_011_023002', '23_011_014002', '23_011_014001', '23_011_010601', '23_011_025001', '23_011_025002', '23_011_010804', '23_011_010803', '23_011_024202', '23_011_010602', '23_007_971000', '23_007_971300', '23_007_971100', '23_007_971400', '23_027_046002', '23_027_046001', '23_021_960301', '23_021_960302', '23_013_990000', '23_005_011500', '23_005_015000', '23_005_016500', '23_011_010400', '23_025_965302', '23_025_965301', '23_015_975100', '23_009_990000']</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -15162,7 +15162,7 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>[400, 102, 101, 300, 200, 200, 300, 300, 940100, 100]</t>
+          <t>['02_130_000400', '02_130_000102', '02_130_000101', '02_275_000300', '02_195_000200', '02_130_000200', '02_130_000300', '02_198_000300', '02_198_940100', '02_198_000100']</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -15212,7 +15212,7 @@
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
-          <t>[2811, 2712, 2711, 2812, 2823, 2822, 2714, 2713, 2305, 300, 200, 2502, 2601, 2501, 2821]</t>
+          <t>['02_020_002811', '02_020_002712', '02_020_002711', '02_020_002812', '02_020_002823', '02_020_002822', '02_020_002714', '02_020_002713', '02_020_002305', '02_122_000300', '02_122_000200', '02_020_002502', '02_020_002601', '02_020_002501', '02_020_002821']</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -15262,7 +15262,7 @@
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
-          <t>[2811, 2813, 2712, 2812, 2823, 2603, 2822, 980000, 2713, 2601, 2821]</t>
+          <t>['02_020_002811', '02_020_002813', '02_020_002712', '02_020_002812', '02_020_002823', '02_020_002603', '02_020_002822', '02_020_980000', '02_020_002713', '02_020_002601', '02_020_002821']</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -15312,7 +15312,7 @@
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
-          <t>[2602, 2811, 2813, 1732, 2812, 2603, 980000, 980200, 1802, 2601, 1602, 1701, 1801]</t>
+          <t>['02_020_002602', '02_020_002811', '02_020_002813', '02_020_001732', '02_020_002812', '02_020_002603', '02_020_980000', '02_020_980200', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001801']</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -15362,7 +15362,7 @@
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>[2712, 2711, 2305, 2304, 2302, 2502, 1802, 1900, 2601, 2400, 1500, 2501, 1801]</t>
+          <t>['02_020_002712', '02_020_002711', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_002601', '02_020_002400', '02_020_001500', '02_020_002501', '02_020_001801']</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -15412,7 +15412,7 @@
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
-          <t>[1300, 902, 1000, 1401, 1402, 2302, 1601, 2502, 1802, 1900, 1602, 2000, 2100, 2400, 1500, 2202, 2501, 1801]</t>
+          <t>['02_020_001300', '02_020_000902', '02_020_001000', '02_020_001401', '02_020_001402', '02_020_002302', '02_020_001601', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_001602', '02_020_002000', '02_020_002100', '02_020_002400', '02_020_001500', '02_020_002202', '02_020_002501', '02_020_001801']</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -15462,7 +15462,7 @@
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
-          <t>[2712, 2711, 2301, 2714, 2713, 2305, 2304, 200, 2302]</t>
+          <t>['02_020_002712', '02_020_002711', '02_020_002301', '02_020_002714', '02_020_002713', '02_020_002305', '02_020_002304', '02_122_000200', '02_020_002302']</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -15512,7 +15512,7 @@
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
-          <t>[604, 1300, 2711, 1200, 1100, 2301, 2305, 2304, 200, 502, 2302, 2100, 2400, 2201, 2202, 2501, 500]</t>
+          <t>['02_170_000604', '02_020_001300', '02_020_002711', '02_020_001200', '02_020_001100', '02_020_002301', '02_020_002305', '02_020_002304', '02_122_000200', '02_170_000502', '02_020_002302', '02_020_002100', '02_020_002400', '02_020_002201', '02_020_002202', '02_020_002501', '02_020_000500']</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -15562,7 +15562,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>[1300, 902, 901, 1200, 1000, 1100, 1401, 1402, 1601, 2000, 2100, 1500, 2202]</t>
+          <t>['02_020_001300', '02_020_000902', '02_020_000901', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_001401', '02_020_001402', '02_020_001601', '02_020_002000', '02_020_002100', '02_020_001500', '02_020_002202']</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -15612,7 +15612,7 @@
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>[604, 1300, 703, 801, 702, 901, 701, 204, 1200, 1000, 1100, 980100, 601, 602, 980200, 500]</t>
+          <t>['02_170_000604', '02_020_001300', '02_020_000703', '02_020_000801', '02_020_000702', '02_020_000901', '02_020_000701', '02_020_000204', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_980100', '02_020_000601', '02_020_000602', '02_020_980200', '02_020_000500']</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -15662,7 +15662,7 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>[801, 802, 902, 901, 980100, 601, 602, 1601, 1602, 1500]</t>
+          <t>['02_020_000801', '02_020_000802', '02_020_000902', '02_020_000901', '02_020_980100', '02_020_000601', '02_020_000602', '02_020_001601', '02_020_001602', '02_020_001500']</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -15712,7 +15712,7 @@
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>[102, 100, 100, 200, 300, 200, 400, 100, 600, 100, 500, 200, 100, 100, 200]</t>
+          <t>['02_130_000102', '02_100_000100', '02_066_000100', '02_063_000200', '02_275_000300', '02_195_000200', '02_105_000400', '02_282_000100', '02_110_000600', '02_110_000100', '02_110_000500', '02_220_000200', '02_220_000100', '02_198_000100', '02_198_000200']</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -15762,7 +15762,7 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>[2602, 801, 802, 701, 980000, 1601, 1802, 2601, 1602, 1701, 1702, 1500, 1801]</t>
+          <t>['02_020_002602', '02_020_000801', '02_020_000802', '02_020_000701', '02_020_980000', '02_020_001601', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001702', '02_020_001500', '02_020_001801']</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -15812,7 +15812,7 @@
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
-          <t>[703, 801, 802, 1732, 702, 701, 980000, 980200, 1701, 1702, 1731]</t>
+          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_001732', '02_020_000702', '02_020_000701', '02_020_980000', '02_020_980200', '02_020_001701', '02_020_001702', '02_020_001731']</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -15862,7 +15862,7 @@
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
-          <t>[703, 801, 802, 702, 701, 602, 980200, 1702, 1731]</t>
+          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_000702', '02_020_000701', '02_020_000602', '02_020_980200', '02_020_001702', '02_020_001731']</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -15912,7 +15912,7 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>[2813, 703, 1732, 102, 202, 204, 2823, 101, 2900, 205, 980000, 206, 980200, 201, 1731]</t>
+          <t>['02_020_002813', '02_020_000703', '02_020_001732', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_002823', '02_020_000101', '02_020_002900', '02_020_000205', '02_020_980000', '02_020_000206', '02_020_980200', '02_020_000201', '02_020_001731']</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -15962,7 +15962,7 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>[604, 601, 300, 102, 202, 204, 101, 2900, 980100, 206, 980200, 201, 200, 1300]</t>
+          <t>['02_170_000604', '02_170_000601', '02_063_000300', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_000101', '02_020_002900', '02_020_980100', '02_020_000206', '02_020_980200', '02_020_000201', '02_170_000200', '02_170_001300']</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -16012,7 +16012,7 @@
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
-          <t>[1201, 601, 101, 1202, 1100, 200, 1300, 300]</t>
+          <t>['02_170_001201', '02_170_000601', '02_020_000101', '02_170_001202', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -16062,7 +16062,7 @@
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
-          <t>[1004, 701, 604, 703, 401, 1201, 601, 102, 101, 980200, 501, 1202, 603, 1100, 1300, 900]</t>
+          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000703', '02_170_000401', '02_170_001201', '02_170_000601', '02_020_000102', '02_020_000101', '02_020_980200', '02_170_000501', '02_170_001202', '02_170_000603', '02_170_001100', '02_170_001300', '02_170_000900']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -16112,7 +16112,7 @@
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
-          <t>[1004, 701, 604, 705, 703, 402, 401, 706, 601, 501, 1003, 603, 800, 900]</t>
+          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000705', '02_170_000703', '02_170_000402', '02_170_000401', '02_170_000706', '02_170_000601', '02_170_000501', '02_170_001003', '02_170_000603', '02_170_000800', '02_170_000900']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -16162,7 +16162,7 @@
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
-          <t>[1004, 705, 703, 1001, 706, 601, 1003, 1100, 800, 900]</t>
+          <t>['02_170_001004', '02_170_000705', '02_170_000703', '02_170_001001', '02_170_000706', '02_170_000601', '02_170_001003', '02_170_001100', '02_170_000800', '02_170_000900']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -16212,7 +16212,7 @@
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
-          <t>[1004, 102, 705, 101, 402, 1001, 706, 300, 100, 200, 101, 2900, 1003, 400, 100, 1100, 200, 1300, 300]</t>
+          <t>['02_170_001004', '02_170_000102', '02_170_000705', '02_170_000101', '02_170_000402', '02_170_001001', '02_170_000706', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_000101', '02_020_002900', '02_170_001003', '02_240_000400', '02_068_000100', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -16262,7 +16262,7 @@
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
-          <t>[701, 102, 604, 101, 703, 402, 401, 706, 601, 1300, 2301, 980100, 980200, 501, 603, 300, 100, 200, 980000, 502, 400, 400, 200, 100, 300, 500]</t>
+          <t>['02_170_000701', '02_170_000102', '02_170_000604', '02_170_000101', '02_170_000703', '02_170_000402', '02_170_000401', '02_170_000706', '02_170_000601', '02_020_001300', '02_020_002301', '02_020_980100', '02_020_980200', '02_170_000501', '02_170_000603', '02_050_000300', '02_122_000100', '02_122_000200', '02_090_980000', '02_170_000502', '02_240_000400', '02_290_000400', '02_290_000200', '02_068_000100', '02_170_000300', '02_020_000500']</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -16312,7 +16312,7 @@
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
-          <t>[100, 300, 400, 700, 1300, 500, 600, 1200, 200, 1000, 800, 980000]</t>
+          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_000700', '02_090_001300', '02_090_000500', '02_090_000600', '02_090_001200', '02_090_000200', '02_090_001000', '02_090_000800', '02_090_980000']</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -16362,7 +16362,7 @@
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>[100, 300, 400, 1300, 500, 1200, 1600, 1000, 980000, 1402, 1401]</t>
+          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_001300', '02_090_000500', '02_090_001200', '02_090_001600', '02_090_001000', '02_090_980000', '02_090_001402', '02_090_001401']</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -16412,7 +16412,7 @@
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
-          <t>[1700, 1200, 1600, 980000, 980100, 1501, 1902, 1402, 1502, 1401]</t>
+          <t>['02_090_001700', '02_090_001200', '02_090_001600', '02_090_980000', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001402', '02_090_001502', '02_090_001401']</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -16462,7 +16462,7 @@
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
-          <t>[100, 1700, 1300, 600, 1200, 1600, 980000, 400, 980100, 1501, 1902, 1502, 1901, 100]</t>
+          <t>['02_240_000100', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_001200', '02_090_001600', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001502', '02_090_001901', '02_290_000100']</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -16512,7 +16512,7 @@
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
-          <t>[700, 1700, 1300, 600, 200, 1600, 900, 1000, 800, 980000, 400, 980100, 1402, 1901, 200, 100]</t>
+          <t>['02_090_000700', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_000200', '02_090_001600', '02_090_000900', '02_090_001000', '02_090_000800', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001402', '02_090_001901', '02_290_000200', '02_068_000100']</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -16562,7 +16562,7 @@
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
-          <t>[100, 200, 100, 100, 400, 300, 100]</t>
+          <t>['02_180_000100', '02_180_000200', '02_050_000100', '02_158_000100', '02_290_000400', '02_290_000300', '02_188_000100']</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -16612,7 +16612,7 @@
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
-          <t>[200, 400, 300, 400, 600, 100, 200, 500]</t>
+          <t>['02_195_000200', '02_105_000400', '02_110_000300', '02_110_000400', '02_110_000600', '02_110_000100', '02_110_000200', '02_110_000500']</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -16662,7 +16662,7 @@
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
-          <t>[300, 100, 200, 2900, 300, 400, 1200, 1300, 100, 100, 400, 300, 500, 200]</t>
+          <t>['02_063_000300', '02_066_000100', '02_063_000200', '02_020_002900', '02_122_000300', '02_122_000400', '02_122_001200', '02_122_001300', '02_282_000100', '02_150_000100', '02_150_000400', '02_150_000300', '02_150_000500', '02_150_000200']</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -16712,7 +16712,7 @@
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
-          <t>[701, 702, 1000, 800, 100, 900, 1100, 400, 1200, 1300]</t>
+          <t>['02_122_000701', '02_122_000702', '02_122_001000', '02_122_000800', '02_122_000100', '02_122_000900', '02_122_001100', '02_122_000400', '02_122_001200', '02_122_001300']</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -16762,7 +16762,7 @@
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
-          <t>[701, 702, 100, 400, 500, 600, 200]</t>
+          <t>['02_122_000701', '02_122_000702', '02_122_000100', '02_122_000400', '02_122_000500', '02_122_000600', '02_122_000200']</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -16812,7 +16812,7 @@
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
-          <t>[2813, 300, 204, 2812, 2823, 101, 2822, 2900, 980000, 2713, 980200, 300, 2821]</t>
+          <t>['02_020_002813', '02_063_000300', '02_020_000204', '02_020_002812', '02_020_002823', '02_020_000101', '02_020_002822', '02_020_002900', '02_020_980000', '02_020_002713', '02_020_980200', '02_122_000300', '02_020_002821']</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -16862,7 +16862,7 @@
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
-          <t>[1500, 1700, 1800, 1900, 2001, 2002, 2102, 2200]</t>
+          <t>['23_005_001500', '23_005_001700', '23_005_001800', '23_005_001900', '23_005_002001', '23_005_002002', '23_005_002102', '23_005_002200']</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -16912,7 +16912,7 @@
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
-          <t>[4402, 4600, 4501, 4502, 4202, 2400, 11500, 4401]</t>
+          <t>['23_005_004402', '23_005_004600', '23_005_004501', '23_005_004502', '23_005_004202', '23_005_002400', '23_005_011500', '23_005_004401']</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -16962,7 +16962,7 @@
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>[11300, 40000, 4501, 970302, 970301, 4502, 11205, 11204, 11203, 11206]</t>
+          <t>['23_005_011300', '23_001_040000', '23_005_004501', '23_023_970302', '23_023_970301', '23_005_004502', '23_005_011205', '23_005_011204', '23_005_011203', '23_005_011206']</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -17012,7 +17012,7 @@
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
-          <t>[971000, 990000, 975500, 975300, 975600, 975700, 975400, 975200, 975100]</t>
+          <t>['23_013_971000', '23_015_990000', '23_015_975500', '23_015_975300', '23_015_975600', '23_015_975700', '23_015_975400', '23_015_975200', '23_015_975100']</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -19738,7 +19738,7 @@
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
-          <t>[400, 102, 101, 100, 100, 200, 300, 200, 400, 200, 300, 100, 600, 500, 200, 100, 300, 940100, 100, 200]</t>
+          <t>['02_130_000400', '02_130_000102', '02_130_000101', '02_100_000100', '02_066_000100', '02_063_000200', '02_275_000300', '02_195_000200', '02_105_000400', '02_130_000200', '02_130_000300', '02_282_000100', '02_110_000600', '02_110_000500', '02_220_000200', '02_220_000100', '02_198_000300', '02_198_940100', '02_198_000100', '02_198_000200']</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -19790,7 +19790,7 @@
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
-          <t>[701, 702, 300, 100, 200, 2900, 1000, 800, 900, 1100, 300, 400, 1200, 1300, 100, 100, 400, 300, 500, 200]</t>
+          <t>['02_122_000701', '02_122_000702', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_002900', '02_122_001000', '02_122_000800', '02_122_000900', '02_122_001100', '02_122_000300', '02_122_000400', '02_122_001200', '02_122_001300', '02_282_000100', '02_150_000100', '02_150_000400', '02_150_000300', '02_150_000500', '02_150_000200']</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -19842,7 +19842,7 @@
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
-          <t>[701, 702, 300, 2900, 300, 400, 500, 600, 200, 1300]</t>
+          <t>['02_122_000701', '02_122_000702', '02_063_000300', '02_020_002900', '02_122_000300', '02_122_000400', '02_122_000500', '02_122_000600', '02_122_000200', '02_122_001300']</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -19894,7 +19894,7 @@
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
-          <t>[2811, 2813, 300, 2712, 2711, 204, 2812, 2823, 101, 2822, 2900, 980000, 2714, 2713, 980200, 2305, 300, 2502, 2601, 2501, 2821]</t>
+          <t>['02_020_002811', '02_020_002813', '02_063_000300', '02_020_002712', '02_020_002711', '02_020_000204', '02_020_002812', '02_020_002823', '02_020_000101', '02_020_002822', '02_020_002900', '02_020_980000', '02_020_002714', '02_020_002713', '02_020_980200', '02_020_002305', '02_122_000300', '02_020_002502', '02_020_002601', '02_020_002501', '02_020_002821']</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -19946,7 +19946,7 @@
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
-          <t>[2602, 2811, 2813, 1732, 2712, 2812, 2823, 2603, 2822, 980000, 2713, 980200, 1802, 2601, 1602, 1701, 1801, 2821]</t>
+          <t>['02_020_002602', '02_020_002811', '02_020_002813', '02_020_001732', '02_020_002712', '02_020_002812', '02_020_002823', '02_020_002603', '02_020_002822', '02_020_980000', '02_020_002713', '02_020_980200', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001801', '02_020_002821']</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -19998,7 +19998,7 @@
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
-          <t>[1300, 902, 2712, 2711, 1000, 1401, 1402, 2305, 2304, 2302, 1601, 2502, 1802, 1900, 2601, 1602, 2000, 2100, 2400, 1500, 2202, 2501, 1801]</t>
+          <t>['02_020_001300', '02_020_000902', '02_020_002712', '02_020_002711', '02_020_001000', '02_020_001401', '02_020_001402', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_001601', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_002601', '02_020_001602', '02_020_002000', '02_020_002100', '02_020_002400', '02_020_001500', '02_020_002202', '02_020_002501', '02_020_001801']</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -20050,7 +20050,7 @@
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
-          <t>[1300, 2712, 2711, 1200, 2301, 2714, 2305, 2304, 2302, 2100, 2400, 2201, 2202, 2501]</t>
+          <t>['02_020_001300', '02_020_002712', '02_020_002711', '02_020_001200', '02_020_002301', '02_020_002714', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_002100', '02_020_002400', '02_020_002201', '02_020_002202', '02_020_002501']</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -20102,7 +20102,7 @@
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
-          <t>[1300, 703, 801, 902, 702, 901, 701, 204, 1200, 1000, 1100, 980100, 1401, 601, 602, 980200, 1402, 1601, 2000, 2100, 1500, 2202, 500]</t>
+          <t>['02_020_001300', '02_020_000703', '02_020_000801', '02_020_000902', '02_020_000702', '02_020_000901', '02_020_000701', '02_020_000204', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_980100', '02_020_001401', '02_020_000601', '02_020_000602', '02_020_980200', '02_020_001402', '02_020_001601', '02_020_002000', '02_020_002100', '02_020_001500', '02_020_002202', '02_020_000500']</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -20154,7 +20154,7 @@
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>[2602, 801, 802, 902, 901, 701, 980100, 980000, 601, 602, 1601, 1802, 2601, 1602, 1701, 1702, 1500, 1801]</t>
+          <t>['02_020_002602', '02_020_000801', '02_020_000802', '02_020_000902', '02_020_000901', '02_020_000701', '02_020_980100', '02_020_980000', '02_020_000601', '02_020_000602', '02_020_001601', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001702', '02_020_001500', '02_020_001801']</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -20206,7 +20206,7 @@
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
-          <t>[703, 801, 802, 1732, 702, 701, 980000, 602, 980200, 1701, 1702, 1731]</t>
+          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_001732', '02_020_000702', '02_020_000701', '02_020_980000', '02_020_000602', '02_020_980200', '02_020_001701', '02_020_001702', '02_020_001731']</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -20258,7 +20258,7 @@
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
-          <t>[2813, 601, 300, 703, 1732, 102, 202, 204, 2823, 101, 2900, 980100, 205, 980000, 206, 980200, 201, 200, 1300, 1731]</t>
+          <t>['02_020_002813', '02_170_000601', '02_063_000300', '02_020_000703', '02_020_001732', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_002823', '02_020_000101', '02_020_002900', '02_020_980100', '02_020_000205', '02_020_980000', '02_020_000206', '02_020_980200', '02_020_000201', '02_170_000200', '02_170_001300', '02_020_001731']</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -20310,7 +20310,7 @@
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
-          <t>[1004, 701, 604, 703, 401, 1201, 601, 101, 501, 1202, 603, 1100, 200, 1300, 300, 900]</t>
+          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000703', '02_170_000401', '02_170_001201', '02_170_000601', '02_020_000101', '02_170_000501', '02_170_001202', '02_170_000603', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300', '02_170_000900']</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -20362,7 +20362,7 @@
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
-          <t>[1004, 701, 604, 705, 703, 402, 1001, 401, 706, 601, 501, 1003, 603, 1100, 800, 900]</t>
+          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000705', '02_170_000703', '02_170_000402', '02_170_001001', '02_170_000401', '02_170_000706', '02_170_000601', '02_170_000501', '02_170_001003', '02_170_000603', '02_170_001100', '02_170_000800', '02_170_000900']</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -20414,7 +20414,7 @@
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
-          <t>[1004, 701, 102, 604, 705, 101, 703, 402, 1001, 401, 706, 300, 100, 200, 101, 2900, 501, 1003, 603, 300, 100, 980000, 502, 400, 400, 200, 100, 1100, 200, 1300, 300]</t>
+          <t>['02_170_001004', '02_170_000701', '02_170_000102', '02_170_000604', '02_170_000705', '02_170_000101', '02_170_000703', '02_170_000402', '02_170_001001', '02_170_000401', '02_170_000706', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_000101', '02_020_002900', '02_170_000501', '02_170_001003', '02_170_000603', '02_050_000300', '02_122_000100', '02_090_980000', '02_170_000502', '02_240_000400', '02_290_000400', '02_290_000200', '02_068_000100', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -20466,7 +20466,7 @@
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
-          <t>[100, 300, 400, 700, 1300, 500, 600, 1200, 200, 1600, 1000, 800, 980000, 1402, 1401]</t>
+          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_000700', '02_090_001300', '02_090_000500', '02_090_000600', '02_090_001200', '02_090_000200', '02_090_001600', '02_090_001000', '02_090_000800', '02_090_980000', '02_090_001402', '02_090_001401']</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -20518,7 +20518,7 @@
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
-          <t>[100, 1700, 1300, 600, 1200, 1600, 980000, 400, 980100, 1501, 1902, 1402, 1502, 1901, 1401, 100]</t>
+          <t>['02_240_000100', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_001200', '02_090_001600', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001402', '02_090_001502', '02_090_001901', '02_090_001401', '02_290_000100']</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -20570,7 +20570,7 @@
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
-          <t>[100, 101, 100, 300, 100, 200, 200, 300, 700, 1700, 1300, 600, 200, 1600, 900, 1000, 800, 980000, 400, 100, 100, 980100, 1902, 1402, 1901, 400, 100, 200, 300, 100, 200, 100]</t>
+          <t>['02_240_000100', '02_170_000101', '02_180_000100', '02_063_000300', '02_066_000100', '02_063_000200', '02_185_000200', '02_050_000300', '02_090_000700', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_000200', '02_090_001600', '02_090_000900', '02_090_001000', '02_090_000800', '02_090_980000', '02_240_000400', '02_158_000100', '02_282_000100', '02_090_980100', '02_090_001902', '02_090_001402', '02_090_001901', '02_290_000400', '02_290_000100', '02_290_000200', '02_290_000300', '02_068_000100', '02_170_000200', '02_188_000100']</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -20622,7 +20622,7 @@
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
-          <t>[101, 100, 200, 300, 100, 100, 1200, 100, 200, 100, 100, 200, 100, 400, 100, 100]</t>
+          <t>['02_170_000101', '02_013_000100', '02_050_000200', '02_050_000300', '02_050_000100', '02_122_000100', '02_122_001200', '02_164_000100', '02_016_000200', '02_016_000100', '02_158_000100', '02_070_000200', '02_070_000100', '02_290_000400', '02_150_000100', '02_060_000100']</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -20672,7 +20672,7 @@
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
-          <t>[3000, 12000, 43000, 2000, 970200, 19000, 20500, 965300, 965400, 970302, 970301, 12500, 971100, 45000, 41000, 42000, 44000, 47000, 966000, 21000, 20000, 965800, 46002, 46001, 975100]</t>
+          <t>['23_019_003000', '23_019_012000', '23_027_043000', '23_019_002000', '23_013_970200', '23_011_019000', '23_011_020500', '23_009_965300', '23_009_965400', '23_013_970302', '23_013_970301', '23_019_012500', '23_013_971100', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966000', '23_011_021000', '23_011_020000', '23_025_965800', '23_027_046002', '23_027_046001', '23_015_975100']</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">

--- a/acs/elections_with_tracts.xlsx
+++ b/acs/elections_with_tracts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L410"/>
+  <dimension ref="A1:J410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,10 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tract_filename</t>
+          <t>tracts</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>place_code</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tracts</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>percents</t>
         </is>
@@ -532,8 +522,6 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -572,8 +560,6 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -612,8 +598,6 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,8 +636,6 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -692,8 +674,6 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -732,8 +712,6 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -772,8 +750,6 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -808,8 +784,6 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -844,8 +818,6 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,8 +852,6 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -916,8 +886,6 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -952,8 +920,6 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -988,8 +954,6 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1024,8 +988,6 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1060,8 +1022,6 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1096,8 +1056,6 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1132,8 +1090,6 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1168,8 +1124,6 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1204,8 +1158,6 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1240,8 +1192,6 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1276,8 +1226,6 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1312,8 +1260,6 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1348,8 +1294,6 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1384,8 +1328,6 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1420,8 +1362,6 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1456,8 +1396,6 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1492,8 +1430,6 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1528,8 +1464,6 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1564,8 +1498,6 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1600,8 +1532,6 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1640,8 +1570,6 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1676,8 +1604,6 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1712,8 +1638,6 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1748,8 +1672,6 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1784,8 +1706,6 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1820,8 +1740,6 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1856,8 +1774,6 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1892,8 +1808,6 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1928,8 +1842,6 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1964,8 +1876,6 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2000,8 +1910,6 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2036,8 +1944,6 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2072,8 +1978,6 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2108,8 +2012,6 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2144,8 +2046,6 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2180,8 +2080,6 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2216,8 +2114,6 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2252,8 +2148,6 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2288,8 +2182,6 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2324,8 +2216,6 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2360,8 +2250,6 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2396,8 +2284,6 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2432,8 +2318,6 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2468,8 +2352,6 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2504,8 +2386,6 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2540,8 +2420,6 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2576,8 +2454,6 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2612,8 +2488,6 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2648,8 +2522,6 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2684,8 +2556,6 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2720,8 +2590,6 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2756,8 +2624,6 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2792,8 +2658,6 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2828,8 +2692,6 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2864,8 +2726,6 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2900,8 +2760,6 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2936,8 +2794,6 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2972,8 +2828,6 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3014,18 +2868,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>[423000, 423500, 422800, 422900, 423602, 422300, 423400, 422600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>[0.9863959900222339, 0.09954103299477636, 0.10054247023717736, 0.9997932207642696, 0.049897747248389884, 0.0066189297709134875, 0.10402056987177544, 0.005597559190027622, 0.8933613494780847, 0.004809620832461251]</t>
+          <t>06_001_422400, 06_001_422300, 06_001_421700, 06_001_423500, 06_001_422800, 06_001_423602, 06_001_423000, 06_001_422600, 06_001_422900, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0.8959146638358644, 0.007147169403565304, 0.0038906035604100737, 0.0991080754683137, 0.10096369076951611, 0.0508511311382636, 0.9861050019341006, 0.002622810654645276, 1.0000000000000002, 0.10386411144385971</t>
         </is>
       </c>
     </row>
@@ -3068,18 +2916,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>[421800, 420400, 422100, 422200, 422000, 420500, 422300, 421900, 420600, 422400]</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>[0.2897100982447431, 0.001545630906237761, 0.9972029099604585, 0.9959723250126931, 0.4349319718430535, 0.003085476245047053, 0.787353485613182, 0.9152253641990368, 0.0007495792532747299, 0.0011647009147272168]</t>
+          <t>06_001_422200, 06_001_422400, 06_001_422300, 06_001_420400, 06_001_421800, 06_001_422000, 06_001_421900, 06_001_420600, 06_001_422100, 06_001_423100, 06_001_420500</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.9963084989162369, 0.0011620138428508448, 0.7869448616222134, 0.0004236917510046274, 0.29144486762287997, 0.23390667473129956, 0.9146824729841725, 0.00027430077805764983, 0.9976861532928043, 2.3443186173136577e-07, 0.001521216492635183</t>
         </is>
       </c>
     </row>
@@ -3122,18 +2964,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>[421800, 423000, 422200, 423500, 423100, 422800, 422900, 423602, 422300, 423400, 422600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>[0.03766547875700598, 0.990018193296573, 0.001335383787289767, 0.09952548154727754, 0.08428575225240634, 0.15241052796802862, 0.9998840648351452, 0.0006433539244272383, 0.21264651438675752, 0.0020623404833309254, 0.006041975364390522, 0.9031360644959179, 0.21729631332899702]</t>
+          <t>06_001_422200, 06_001_422400, 06_001_422300, 06_001_421800, 06_001_421700, 06_001_423500, 06_001_422800, 06_001_423602, 06_001_423100, 06_001_423000, 06_001_422600, 06_001_422900, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.0011097449135162591, 0.906035199287081, 0.2130551383777924, 0.037757687937505044, 0.21834221275197463, 0.09904919979581206, 0.15233057019801477, 0.00044762156620333464, 0.08427773014604278, 0.9899269999644622, 0.003085901495725873, 1.0000000000000002, 0.0017708485662709696</t>
         </is>
       </c>
     </row>
@@ -3176,18 +3012,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>[422500, 423700, 423601, 422700, 422800, 422900, 423602, 423902, 423800, 422600, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>[0.18267063601353756, 1.4764121624782485e-05, 0.5601823214090599, 0.006182522234422918, 0.8474751920844982, 0.00011593516491620588, 0.8791152551432947, 0.9804720416435485, 0.0033116127266848818, 0.43843519354230975, 0.0018883414303743113, 0.19231297916809995, 0.005600354071843144]</t>
+          <t>06_001_423800, 06_001_422500, 06_001_400500, 06_001_422800, 06_001_423700, 06_001_423602, 06_001_423601, 06_001_400200, 06_001_400400, 06_001_423902, 06_001_423901, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.004859133187055347, 0.17586343954304084, 0.0014465477956200894, 0.8475705329029315, 1.4225699714007913e-05, 0.8791257733118172, 0.5665639293116732, 0.0002666249395750595, 0.0008554545674623952, 0.9715250602107541, 0.19137730904963077, 0.005639516352217708, 0.43610913599677503</t>
         </is>
       </c>
     </row>
@@ -3230,18 +3060,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>[422500, 423700, 423601, 422700, 421600, 400200, 404300, 422800, 423602, 423902, 423800, 422600, 400100]</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>[0.03893056565185746, 0.9976921359659479, 0.22276232862967804, 0.9871225694368537, 0.00435207116584343, 7.557580505410505e-05, 0.0033689845098002916, 0.00011427994776627347, 0.1180785462555539, 0.004132341915334226, 0.9936714845731283, 0.5487333489117697, 0.003951234847034471]</t>
+          <t>06_001_423800, 06_001_422500, 06_001_421600, 06_001_404300, 06_001_422800, 06_001_423700, 06_001_423602, 06_001_423601, 06_001_400200, 06_001_400100, 06_001_423902, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.9923059442255447, 0.03767673404941949, 0.0023337580023792413, 0.005076597223445875, 9.889689907376185e-05, 0.9892311413710079, 0.11918467971309038, 0.22002505671819514, 0.011677357051293212, 0.002772179133831232, 0.0036023918232486267, 0.9943598576590309, 0.5446692901977529</t>
         </is>
       </c>
     </row>
@@ -3284,18 +3108,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>[422000, 423200, 400800, 424001, 423000, 423100, 424002, 423300, 423400, 425103, 422300, 422100, 422200]</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>[0.2878368954962686, 1.0000000000000004, 0.005212022707100119, 0.011406441742543792, 0.01389497827005669, 0.9999999999999989, 0.9994784359921596, 0.9999999999999994, 0.01138816119677284, 1.140386062478224e-05, 8.422101806639886e-05, 0.0040264361355869666, 0.006276571102208835]</t>
+          <t>06_001_422000, 06_001_423200, 06_001_400800, 06_001_424001, 06_001_423000, 06_001_423100, 06_001_424002, 06_001_423300, 06_001_423400, 06_001_425103, 06_001_422300, 06_001_422100, 06_001_422200</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.2878368954962686, 1.0000000000000004, 0.005212022707100119, 0.011406441742543792, 0.01389497827005669, 0.9999999999999989, 0.9994784359921596, 0.9999999999999994, 0.01138816119677284, 1.140386062478224e-05, 8.422101806639886e-05, 0.0040264361355869666, 0.006276571102208835</t>
         </is>
       </c>
     </row>
@@ -3338,18 +3156,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>[400500, 400700, 423902, 423601, 423901, 424001, 423500, 423602, 423400]</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>[0.00041221843616959247, 0.0012312450432862426, 0.0029086676569905854, 0.44460745074459496, 0.6608204638188306, 0.9879741375231399, 0.9009705195683164, 0.3993876667645053, 0.8847523045522253]</t>
+          <t>06_001_400500, 06_001_400700, 06_001_423902, 06_001_423601, 06_001_423901, 06_001_424001, 06_001_423500, 06_001_423602, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.00041221843616959247, 0.0012312450432862426, 0.0029086676569905854, 0.44460745074459496, 0.6608204638188306, 0.9879741375231399, 0.9009705195683164, 0.3993876667645053, 0.8847523045522253</t>
         </is>
       </c>
     </row>
@@ -3392,18 +3204,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>[392000, 421200, 421300, 421500, 421600, 420100, 420600, 421100, 421400, 421700, 421800, 421900, 391000]</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>[0.04209565983963918, 0.999502801722031, 0.9946502004855889, 0.0006323486946706828, 0.0011117431991254914, 0.0017969030304308645, 0.00026547925258680656, 0.0034064385390410452, 0.9985209444625983, 0.9954578838742822, 0.987748704746818, 0.0006567677721536902, 0.0008632332311441118]</t>
+          <t>06_013_392000, 06_001_421200, 06_001_421300, 06_001_421500, 06_001_421600, 06_001_420100, 06_001_420600, 06_001_421100, 06_001_421400, 06_001_421700, 06_001_421800, 06_001_421900, 06_013_391000</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.04209565983963918, 0.999502801722031, 0.9946502004855889, 0.0006323486946706828, 0.0011117431991254914, 0.0017969030304308645, 0.00026547925258680656, 0.0034064385390410452, 0.9985209444625983, 0.9954578838742822, 0.987748704746818, 0.0006567677721536902, 0.0008632332311441118</t>
         </is>
       </c>
     </row>
@@ -3446,18 +3252,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>[392000, 354001, 400100, 421200, 421500, 421600, 356002, 421100, 421400, 421700, 422500, 422400, 982100]</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>[0.00010230158862609476, 2.15657531922014e-05, 6.252465688421987e-06, 0.0004971982779489129, 0.9973029873072885, 0.9976720326001537, 4.023838412316996e-05, 0.9941224938559089, 0.0014790555374287245, 0.0006275641566769379, 0.9997529749549185, 0.09701402095826714, 0.45118834509597144]</t>
+          <t>06_013_392000, 06_013_354001, 06_001_400100, 06_001_421200, 06_001_421500, 06_001_421600, 06_013_356002, 06_001_421100, 06_001_421400, 06_001_421700, 06_001_422500, 06_001_422400, 06_001_982100</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0.00010230158862609476, 2.15657531922014e-05, 6.252465688421987e-06, 0.0004971982779489129, 0.9973029873072885, 0.9976720326001537, 4.023838412316996e-05, 0.9941224938559089, 0.0014790555374287245, 0.0006275641566769379, 0.9997529749549185, 0.09701402095826714, 0.45118834509597144</t>
         </is>
       </c>
     </row>
@@ -3500,18 +3300,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>[421800, 420400, 422100, 422200, 422000, 421300, 420500, 422300, 421900, 420600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>[0.010775661633169162, 0.0013992747743226208, 0.9954841112135374, 0.9933820900587544, 0.4512920936284628, 0.00021560516349355475, 0.004108774128748186, 0.9932971738561023, 0.9888391834264042, 0.0008589497918304983, 0.006757009189299434, 2.3778287885484235e-05]</t>
+          <t>06_001_422200, 06_001_422400, 06_001_422300, 06_001_420400, 06_001_421800, 06_001_421700, 06_001_422000, 06_001_421900, 06_001_420600, 06_001_421300, 06_001_990000, 06_001_422100, 06_001_420500</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.9937216895775107, 0.007068638715127452, 0.9927686100402239, 0.0005884190991710279, 0.012238980435543298, 2.394617712047931e-05, 0.26161794526216, 0.9853660782733938, 0.0005647486955948089, 0.002102814881683834, 3.1651889105736396e-09, 0.9959625316071599, 0.00260859571926889</t>
         </is>
       </c>
     </row>
@@ -3554,18 +3348,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>[422500, 423700, 422700, 422800, 422900, 423602, 422600]</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>[0.005924862829293292, 0.0006545866080766603, 0.44770329298469297, 0.8994575297627502, 0.0002067792357589644, 0.09932804301953294, 0.49078402281654226]</t>
+          <t>06_001_422500, 06_001_422800, 06_001_423700, 06_001_423602, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.0002498119252302383, 0.8990363092304856, 0.0004968649960489796, 0.10005248537029456, 0.4417988912135978, 0.48957841177942607</t>
         </is>
       </c>
     </row>
@@ -3608,18 +3396,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>[423700, 423601, 422700, 423500, 400200, 404300, 423602, 423902, 423800, 422600, 400100, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>[0.9968414118610065, 0.5546035853738653, 0.5497824569257878, 6.61274229941649e-06, 0.0017016470576200037, 0.0030449094100582497, 0.4524172626756326, 0.9917921132621487, 0.9966114367186952, 0.050759454304024704, 0.004413382925512965, 0.011415473912865102, 0.33941553774533745, 0.021492540027039292]</t>
+          <t>06_001_423800, 06_001_404300, 06_001_400500, 06_001_423700, 06_001_423602, 06_001_423601, 06_001_400200, 06_001_400100, 06_001_400400, 06_001_423902, 06_001_423901, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0.9967231635806094, 0.004747540296964618, 0.011090167654152511, 0.9860475994381361, 0.4483553655062628, 0.556550424497035, 0.013547768103955584, 0.00378855178929788, 0.01261084807274042, 0.9913657580239439, 0.34084615399378604, 0.557951134619622, 0.047179483387626335</t>
         </is>
       </c>
     </row>
@@ -3662,18 +3444,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>[400700, 423200, 424001, 423000, 422100, 422200, 422000, 425101, 423100, 424002, 423400, 400800, 423300, 425102]</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>[2.4908117408011718e-05, 1.0, 0.07475599642788022, 0.009981806703419178, 0.0027970900394837534, 0.0026922911998242213, 0.4097571536661698, 2.3730620064121406e-06, 0.9157142477476156, 0.9685718693285961, 0.010762134901689245, 0.0021009379242473408, 1.0, 3.784238385222971e-05]</t>
+          <t>06_001_422200, 06_001_422000, 06_001_425103, 06_001_425102, 06_001_425101, 06_001_424001, 06_001_423300, 06_001_423200, 06_001_400800, 06_001_400700, 06_001_422100, 06_001_424002, 06_001_423100, 06_001_423000, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.0025817561702605346, 0.21587000872284867, 0.009667141486620595, 0.014569842402857823, 0.00046875220153292225, 0.07338059217276566, 0.9999999999999992, 1.0000000000000002, 0.011790990500166496, 0.0009839834255481951, 0.002313846707196774, 0.9700288842320858, 0.9157220354220771, 0.010073000035548618, 0.010815152711590203</t>
         </is>
       </c>
     </row>
@@ -3716,18 +3492,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>[400700, 423601, 424001, 423500, 423602, 423902, 423400, 400500, 423901]</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>[7.865552821718784e-05, 0.21705534996111872, 0.924317969535589, 0.9004745184528531, 0.002162844676673441, 0.0012349093677267663, 0.9871755246149396, 0.00042730057344102424, 0.797884248490942]</t>
+          <t>06_001_423500, 06_001_424001, 06_001_400500, 06_001_423602, 06_001_423601, 06_001_400700, 06_001_423902, 06_001_423901, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.9009508002041845, 0.9076017795446312, 0.004454071357217367, 0.0012419254089018666, 0.21341101397012383, 0.009170427904079518, 0.001222573581633598, 0.8023915773645752, 0.987413998722135</t>
         </is>
       </c>
     </row>
@@ -3770,18 +3540,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>[421800, 421400, 421600, 421300, 421200, 391000, 421100, 421500, 392000, 421900, 420600, 421700]</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>[0.672624422998332, 0.9959110635758839, 0.0010188523436585378, 0.9705094542030309, 0.9730268908913727, 0.0018080223382943449, 0.015442432130887194, 0.0009029615817398704, 0.03459673786875791, 0.07609265861452344, 0.006725497122004688, 0.748925534679396]</t>
+          <t>06_013_392000, 06_013_391000, 06_001_421600, 06_001_421800, 06_001_421700, 06_001_421200, 06_001_421100, 06_001_421900, 06_001_420600, 06_001_421300, 06_001_421500, 06_001_421400</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0.045014856282508516, 0.0011489631841268772, 0.0013367928491419734, 0.670797444439624, 0.7479055367153346, 0.9730184396396856, 0.004749965277075924, 0.0727063642209008, 0.006595530398434199, 0.9703137785411079, 0.001087105666016282, 0.999220656351117</t>
         </is>
       </c>
     </row>
@@ -3824,18 +3588,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>[422500, 421400, 356002, 421600, 421200, 354001, 421100, 421500, 392000, 422600, 400100, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>[0.7783987983347725, 0.004088936424229114, 0.00038187237921470316, 0.9875847578066816, 0.002871186413936858, 9.418035573663646e-05, 0.9779275434548439, 0.9884447809858479, 0.0021336621157689362, 0.004405304184089782, 0.0002108280846854613, 0.09569923458948561, 0.03377815199144563]</t>
+          <t>06_013_392000, 06_013_354001, 06_013_356002, 06_001_422400, 06_001_422500, 06_001_421600, 06_001_421700, 06_001_421200, 06_001_421100, 06_001_421500, 06_001_421400, 06_001_400100, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0.0015863009749991352, 3.980469026499476e-05, 0.0001940194040796686, 0.09280278687005732, 0.7864598264075255, 0.9855574133104584, 0.03375225053269306, 0.00018644211348855386, 0.995121046752875, 0.9943096412228561, 0.0007793436488587031, 1.772862500469658e-05, 0.00693535491980831</t>
         </is>
       </c>
     </row>
@@ -3878,18 +3636,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>[421800, 420400, 422100, 422200, 422000, 421300, 420500, 422300, 421900, 420600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>[0.010775661633169162, 0.0013992747743226208, 0.9954841112135374, 0.9933820900587544, 0.4512920936284628, 0.00021560516349355475, 0.004108774128748186, 0.9932971738561023, 0.9888391834264042, 0.0008589497918304983, 0.006757009189299434, 2.3778287885484235e-05]</t>
+          <t>06_001_422200, 06_001_422400, 06_001_422300, 06_001_420400, 06_001_421800, 06_001_421700, 06_001_422000, 06_001_421900, 06_001_420600, 06_001_421300, 06_001_990000, 06_001_422100, 06_001_420500</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0.9937216895775107, 0.007068638715127452, 0.9927686100402239, 0.0005884190991710279, 0.012238980435543298, 2.394617712047931e-05, 0.26161794526216, 0.9853660782733938, 0.0005647486955948089, 0.002102814881683834, 3.1651889105736396e-09, 0.9959625316071599, 0.00260859571926889</t>
         </is>
       </c>
     </row>
@@ -3932,18 +3684,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>[423000, 423500, 422800, 422900, 423602, 422300, 423400, 422600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>[0.9863959900222339, 0.09954103299477636, 0.10054247023717736, 0.9997932207642696, 0.049897747248389884, 0.0066189297709134875, 0.10402056987177544, 0.005597559190027622, 0.8933613494780847, 0.004809620832461251]</t>
+          <t>06_001_422400, 06_001_422300, 06_001_421700, 06_001_423500, 06_001_422800, 06_001_423602, 06_001_423000, 06_001_422600, 06_001_422900, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0.8959146638358644, 0.007147169403565304, 0.0038906035604100737, 0.0991080754683137, 0.10096369076951611, 0.0508511311382636, 0.9861050019341006, 0.002622810654645276, 1.0000000000000002, 0.10386411144385971</t>
         </is>
       </c>
     </row>
@@ -3986,18 +3732,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>[422500, 423700, 422700, 422800, 422900, 423602, 422600]</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>[0.005924862829293292, 0.0006545866080766603, 0.44770329298469297, 0.8994575297627502, 0.0002067792357589644, 0.09932804301953294, 0.49078402281654226]</t>
+          <t>06_001_422500, 06_001_422800, 06_001_423700, 06_001_423602, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.0002498119252302383, 0.8990363092304856, 0.0004968649960489796, 0.10005248537029456, 0.4417988912135978, 0.48957841177942607</t>
         </is>
       </c>
     </row>
@@ -4040,18 +3780,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>[423700, 423601, 422700, 423500, 400200, 404300, 423602, 423902, 423800, 422600, 400100, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>[0.9968414118610065, 0.5546035853738653, 0.5497824569257878, 6.61274229941649e-06, 0.0017016470576200037, 0.0030449094100582497, 0.4524172626756326, 0.9917921132621487, 0.9966114367186952, 0.050759454304024704, 0.004413382925512965, 0.011415473912865102, 0.33941553774533745, 0.021492540027039292]</t>
+          <t>06_001_423800, 06_001_404300, 06_001_400500, 06_001_423700, 06_001_423602, 06_001_423601, 06_001_400200, 06_001_400100, 06_001_400400, 06_001_423902, 06_001_423901, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.9967231635806094, 0.004747540296964618, 0.011090167654152511, 0.9860475994381361, 0.4483553655062628, 0.556550424497035, 0.013547768103955584, 0.00378855178929788, 0.01261084807274042, 0.9913657580239439, 0.34084615399378604, 0.557951134619622, 0.047179483387626335</t>
         </is>
       </c>
     </row>
@@ -4094,18 +3828,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>[400700, 423200, 424001, 423000, 422100, 422200, 422000, 423100, 424002, 422300, 423400, 400800, 423300]</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>[9.170065315275849e-05, 1.0, 0.011154976550556738, 0.013604009977769041, 0.004515888786640754, 0.006617909941204123, 0.5156384698994085, 0.9999999999999997, 0.9724135711049054, 8.389637321556544e-05, 0.011334820865688629, 0.00474013993557575, 1.0]</t>
+          <t>06_001_422200, 06_001_422300, 06_001_422000, 06_001_425103, 06_001_425102, 06_001_425101, 06_001_424001, 06_001_423300, 06_001_423200, 06_001_400800, 06_001_400700, 06_001_422100, 06_001_424002, 06_001_423100, 06_001_423000, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.0062783104224957715, 8.422055620631954e-05, 0.28654681152296185, 0.006799394241913022, 0.012068919617232906, 0.0001075718947141168, 0.011212495100212825, 0.9999999999999992, 1.0000000000000002, 0.015140715557606642, 0.00020603719666803974, 0.004037468392834997, 0.9711021429594142, 0.9999999999999997, 0.013894998065898969, 0.011389171522759763</t>
         </is>
       </c>
     </row>
@@ -4148,18 +3876,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>[400700, 423601, 424001, 423500, 423602, 423902, 423400, 400500, 423901]</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>[0.0011869734571975951, 0.4453964146266515, 0.988438243443585, 0.9004523542630186, 0.3983569470557062, 0.002812948422624076, 0.8846446092625608, 0.00039250733193344693, 0.6457175451348884]</t>
+          <t>06_001_423500, 06_001_424001, 06_001_400500, 06_001_423602, 06_001_423601, 06_001_400700, 06_001_423902, 06_001_423901, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0.900891924531699, 0.9709322918476826, 0.003004003026937615, 0.4007410179851964, 0.44344957550297187, 0.010664061464825247, 0.002683016895250141, 0.6501773443510077, 0.8847467170333744</t>
         </is>
       </c>
     </row>
@@ -4202,18 +3924,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>[421800, 421400, 421600, 421300, 421200, 391000, 421100, 421500, 392000, 421900, 420600, 421700]</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>[0.9892243383669251, 0.9944101968421052, 0.0007881586693476835, 0.975269685599834, 0.9700753212945364, 0.0012642308486642702, 0.014432384223414746, 0.0006749053683149436, 0.03379813348074526, 0.0013044161922064479, 0.003425869958041171, 0.994202324690198]</t>
+          <t>06_013_392000, 06_013_391000, 06_001_421600, 06_001_421800, 06_001_421700, 06_001_421200, 06_001_421100, 06_001_421900, 06_001_420600, 06_001_421300, 06_001_421500, 06_001_421400</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.04462747285247424, 0.0007514563727584111, 0.0011068694535544931, 0.9877610195644753, 0.995460404917392, 0.9697306733558755, 0.003404270854717997, 0.0006545203145215535, 0.003458918846512755, 0.9730451455314668, 0.0006268197779950728, 0.9985200811087193</t>
         </is>
       </c>
     </row>
@@ -4256,18 +3972,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>[422500, 421400, 356002, 421600, 421200, 354001, 421100, 421500, 392000, 422600, 400100, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>[0.9940751371709563, 0.0055898031578732665, 0.0002501721326060769, 0.9903113294355118, 0.0032804595522240155, 7.339016681343833e-05, 0.9748256222239584, 0.9837787543304379, 0.0007828209722399846, 0.4520210891035299, 0.0001142232126146144, 0.09988164133264318, 0.0009642761893586075]</t>
+          <t>06_013_392000, 06_013_354001, 06_013_356002, 06_001_422400, 06_001_422500, 06_001_421600, 06_001_421700, 06_001_421200, 06_001_421100, 06_001_421500, 06_001_421400, 06_001_400100, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.00010397652730137419, 1.8374751908700383e-05, 3.874548548911433e-05, 0.09701669744901158, 0.9997501880747678, 0.9858130849893076, 0.0006250453450789477, 0.000482607328527201, 0.9941292446780401, 0.9907142585179556, 0.0014799188913227135, 5.515269198669694e-06, 0.4527541743835135</t>
         </is>
       </c>
     </row>
@@ -4312,18 +4022,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>vermont_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>['50_007_004200', '50_007_004100', '50_007_000600', '50_007_000900', '50_007_000200', '50_007_000300', '50_007_001000']</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>[0.9999509034757865, 0.0005375764716726717, 0.0008325971633641427, 7.412566787142259e-06, 0.0005511885970706353, 0.5517444957441647, 0.2509713639636632]</t>
+          <t>50_007_004200, 50_007_004100, 50_007_000600, 50_007_000900, 50_007_000200, 50_007_000300, 50_007_001000</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.9999509034757865, 0.0005375764716726717, 0.0008325971633641427, 7.412566787142259e-06, 0.0005511885970706353, 0.5517444957441647, 0.2509713639636632</t>
         </is>
       </c>
     </row>
@@ -4368,18 +4072,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>vermont_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>['50_007_004200', '50_007_003600', '50_007_003900', '50_007_002502', '50_007_004100', '50_007_000600', '50_007_000900', '50_007_000300', '50_007_001000']</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>[4.909652422861771e-05, 0.00014918375076293841, 0.31652528498228233, 4.506883624286268e-07, 0.9994624235282912, 0.9579415507525523, 0.23972240717681437, 0.005025640421381913, 0.00014396074504105925]</t>
+          <t>50_007_004200, 50_007_003600, 50_007_003900, 50_007_002502, 50_007_004100, 50_007_000600, 50_007_000900, 50_007_000300, 50_007_001000</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>4.909652422861771e-05, 0.00014918375076293841, 0.31652528498228233, 4.506883624286268e-07, 0.9994624235282912, 0.9579415507525523, 0.23972240717681437, 0.005025640421381913, 0.00014396074504105925</t>
         </is>
       </c>
     </row>
@@ -4424,18 +4122,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>vermont_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>['50_007_003600', '50_007_003900', '50_007_003304', '50_007_000800', '50_007_000900', '50_007_001100', '50_007_001000']</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>[5.45644803373707e-06, 0.6830256774311925, 5.564720647262682e-07, 0.9992883929513514, 0.7602701802564065, 0.7983461048083227, 0.29703785482810496]</t>
+          <t>50_007_003600, 50_007_003900, 50_007_003304, 50_007_000800, 50_007_000900, 50_007_001100, 50_007_001000</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>5.45644803373707e-06, 0.6830256774311925, 5.564720647262682e-07, 0.9992883929513514, 0.7602701802564065, 0.7983461048083227, 0.29703785482810496</t>
         </is>
       </c>
     </row>
@@ -4474,8 +4166,6 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4516,18 +4206,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>new mexico_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>['35_013_001102', '35_013_000700', '35_013_000800', '35_013_000900', '35_013_001000', '35_013_001204', '35_013_001104', '35_013_001103', '35_013_000201', '35_013_001203', '35_013_001205']</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>[0.03432450650109937, 0.0004465548310368344, 1.0000000000000004, 0.7236413927621453, 0.09864540780741832, 0.006333002104559036, 0.14589087680158042, 0.030978703543585978, 0.00016111656337326616, 0.29688494466655835, 0.44287043396290715]</t>
+          <t>35_013_001102, 35_013_000700, 35_013_000800, 35_013_000900, 35_013_001000, 35_013_001204, 35_013_001104, 35_013_001103, 35_013_000201, 35_013_001203, 35_013_001205</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0.03432450650109937, 0.0004465548310368344, 1.0000000000000004, 0.7236413927621453, 0.09864540780741832, 0.006333002104559036, 0.14589087680158042, 0.030978703543585978, 0.00016111656337326616, 0.29688494466655835, 0.44287043396290715</t>
         </is>
       </c>
     </row>
@@ -4570,18 +4254,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>new mexico_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>['35_013_001500', '35_013_001102', '35_013_000300', '35_013_000500', '35_013_000600', '35_013_000202', '35_013_000201', '35_013_000103']</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>[0.03588125647286076, 0.013024755144285123, 0.8201211334752021, 0.8593388425101108, 0.18965634095528836, 0.34530010369429587, 0.9507018722272118, 0.1699240005942059]</t>
+          <t>35_013_001500, 35_013_001102, 35_013_000300, 35_013_000500, 35_013_000600, 35_013_000202, 35_013_000201, 35_013_000103</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0.03588125647286076, 0.013024755144285123, 0.8201211334752021, 0.8593388425101108, 0.18965634095528836, 0.34530010369429587, 0.9507018722272118, 0.1699240005942059</t>
         </is>
       </c>
     </row>
@@ -4624,18 +4302,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>[104400, 105400, 105700, 106200, 105600, 106900, 107500, 126102, 104801, 104802, 125900, 126000, 105204, 106400, 5901, 5902, 8300, 8400, 7801, 106000, 125800]</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>[1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08]</t>
+          <t>27_053_104400, 27_053_105400, 27_053_105700, 27_053_106200, 27_053_105600, 27_053_106900, 27_053_107500, 27_053_126102, 27_053_104801, 27_053_104802, 27_053_125900, 27_053_126000, 27_053_105204, 27_053_106400, 27_053_005901, 27_053_005902, 27_053_008300, 27_053_008400, 27_053_007801, 27_053_106000, 27_053_125800</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08</t>
         </is>
       </c>
     </row>
@@ -4678,18 +4350,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>[100400, 100500, 100900, 102600, 103100, 51400, 51502, 41302, 42002, 30100, 51501, 41103, 104001, 101200, 2400, 101900, 601, 603, 1100, 1700, 20101, 20102, 104002, 102500, 101600, 101800, 41301]</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>[2.65672307536351e-10, 0.9999999644942321, 3.9199195252087325e-09, 0.7728008248651971, 2.4453314125547988e-09, 1.5486159864377615e-09, 8.996000409760285e-09, 1.5758451289549447e-17, 5.36630906745088e-08, 7.686015201859065e-17, 6.149293024089221e-09, 9.339077827417117e-18, 2.6636532188817238e-08, 0.9999999893703201, 4.420604625854762e-08, 0.9999999999999992, 0.9999999918393139, 0.9999999922858397, 0.9999999999999998, 0.9999999824572039, 8.679030114540868e-09, 1.851889824717736e-08, 0.9670472788639843, 0.837615586947614, 1.470418399898923e-09, 0.9999999987580679, 5.165093340494517e-09]</t>
+          <t>27_053_100400, 27_053_100500, 27_053_100900, 27_053_102600, 27_053_103100, 27_003_051400, 27_003_051502, 27_123_041302, 27_123_042002, 27_123_030100, 27_003_051501, 27_123_041103, 27_053_104001, 27_053_101200, 27_053_002400, 27_053_101900, 27_053_000601, 27_053_000603, 27_053_001100, 27_053_001700, 27_053_020101, 27_053_020102, 27_053_104002, 27_053_102500, 27_053_101600, 27_053_101800, 27_123_041301</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2.65672307536351e-10, 0.9999999644942321, 3.9199195252087325e-09, 0.7728008248651971, 2.4453314125547988e-09, 1.5486159864377615e-09, 8.996000409760285e-09, 1.5758451289549447e-17, 5.36630906745088e-08, 7.686015201859065e-17, 6.149293024089221e-09, 9.339077827417117e-18, 2.6636532188817238e-08, 0.9999999893703201, 4.420604625854762e-08, 0.9999999999999992, 0.9999999918393139, 0.9999999922858397, 0.9999999999999998, 0.9999999824572039, 8.679030114540868e-09, 1.851889824717736e-08, 0.9670472788639843, 0.837615586947614, 1.470418399898923e-09, 0.9999999987580679, 5.165093340494517e-09</t>
         </is>
       </c>
     </row>
@@ -4732,18 +4398,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>[105500, 105700, 106500, 105600, 106600, 106900, 107000, 109100, 108000, 109300, 109900, 126000, 106700, 5902, 6800, 7700, 8200, 8300, 8100, 109200, 7801]</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>[9.84311982464558e-10, 3.102161740370261e-08, 4.078214744098905e-11, 4.026222180097482e-08, 4.67410897918868e-12, 0.9999999922734462, 1.0, 0.016288171362965537, 0.897423416718072, 3.6825234970510173e-09, 1.0693062348132424e-08, 0.004239344996607891, 0.999999920013587, 0.007028851747739098, 0.9999999399893614, 0.9999999666036592, 1.1212604291156215e-08, 1.7378417347978326e-08, 0.9999999853081035, 0.6657904680005654, 0.9999999867951449]</t>
+          <t>27_053_105500, 27_053_105700, 27_053_106500, 27_053_105600, 27_053_106600, 27_053_106900, 27_053_107000, 27_053_109100, 27_053_108000, 27_053_109300, 27_053_109900, 27_053_126000, 27_053_106700, 27_053_005902, 27_053_006800, 27_053_007700, 27_053_008200, 27_053_008300, 27_053_008100, 27_053_109200, 27_053_007801</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>9.84311982464558e-10, 3.102161740370261e-08, 4.078214744098905e-11, 4.026222180097482e-08, 4.67410897918868e-12, 0.9999999922734462, 1.0, 0.016288171362965537, 0.897423416718072, 3.6825234970510173e-09, 1.0693062348132424e-08, 0.004239344996607891, 0.999999920013587, 0.007028851747739098, 0.9999999399893614, 0.9999999666036592, 1.1212604291156215e-08, 1.7378417347978326e-08, 0.9999999853081035, 0.6657904680005654, 0.9999999867951449</t>
         </is>
       </c>
     </row>
@@ -4786,18 +4446,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>[111100, 111400, 111500, 111600, 110100, 110800, 24400, 24700, 110900, 11000, 11703, 11704, 11800, 11998, 12003, 12101, 12102, 980000]</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>[0.051881068183430315, 2.008939365257134e-09, 0.9878502324897683, 0.7184182350169863, 3.451168054408146e-10, 0.32126890749003445, 3.65535988055033e-08, 7.532277094289304e-09, 1.3212922179835715e-09, 0.83563724831335, 0.9999999999999999, 0.999999979123597, 0.8511569104913752, 1.8272247164621524e-08, 0.9904113116921094, 0.9999999802212244, 1.8333768306728493e-08, 5.596962499295054e-09]</t>
+          <t>27_053_111100, 27_053_111400, 27_053_111500, 27_053_111600, 27_053_110100, 27_053_110800, 27_053_024400, 27_053_024700, 27_053_110900, 27_053_011000, 27_053_011703, 27_053_011704, 27_053_011800, 27_053_011998, 27_053_012003, 27_053_012101, 27_053_012102, 27_053_980000</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0.051881068183430315, 2.008939365257134e-09, 0.9878502324897683, 0.7184182350169863, 3.451168054408146e-10, 0.32126890749003445, 3.65535988055033e-08, 7.532277094289304e-09, 1.3212922179835715e-09, 0.83563724831335, 0.9999999999999999, 0.999999979123597, 0.8511569104913752, 1.8272247164621524e-08, 0.9904113116921094, 0.9999999802212244, 1.8333768306728493e-08, 5.596962499295054e-09</t>
         </is>
       </c>
     </row>
@@ -4840,18 +4494,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>[111100, 107400, 107500, 107600, 108700, 108800, 108900, 109000, 109700, 110100, 110200, 37601, 110400, 110500, 11800, 11998, 12101, 980100, 43002, 43001, 108600, 12102, 980000, 125600]</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>[0.9481189271810677, 1.251088697352282e-08, 1.3836292887666777e-09, 0.9999999714580048, 0.34975442899832826, 0.1738771111989492, 0.6075270961801343, 0.9999999987045439, 0.30829806762348827, 0.4428504467701779, 0.9999999999999998, 1.2273215409587772e-08, 0.999999992251425, 0.9999999932633977, 0.14884308950862074, 0.9999999785778206, 1.6162030978144286e-09, 1.3709746373003378e-08, 3.3445924766713944e-08, 1.9963379025163132e-08, 2.942738053435113e-08, 0.9999999587289953, 2.4356909634574864e-09, 2.611561293895982e-10]</t>
+          <t>27_053_111100, 27_053_107400, 27_053_107500, 27_053_107600, 27_053_108700, 27_053_108800, 27_053_108900, 27_053_109000, 27_053_109700, 27_053_110100, 27_053_110200, 27_123_037601, 27_053_110400, 27_053_110500, 27_053_011800, 27_053_011998, 27_053_012101, 27_053_980100, 27_123_043002, 27_123_043001, 27_053_108600, 27_053_012102, 27_053_980000, 27_053_125600</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0.9481189271810677, 1.251088697352282e-08, 1.3836292887666777e-09, 0.9999999714580048, 0.34975442899832826, 0.1738771111989492, 0.6075270961801343, 0.9999999987045439, 0.30829806762348827, 0.4428504467701779, 0.9999999999999998, 1.2273215409587772e-08, 0.999999992251425, 0.9999999932633977, 0.14884308950862074, 0.9999999785778206, 1.6162030978144286e-09, 1.3709746373003378e-08, 3.3445924766713944e-08, 1.9963379025163132e-08, 2.942738053435113e-08, 0.9999999587289953, 2.4356909634574864e-09, 2.611561293895982e-10</t>
         </is>
       </c>
     </row>
@@ -4894,18 +4542,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>[111200, 111300, 111400, 111500, 109100, 108000, 109300, 109800, 109900, 110800, 23600, 23802, 24400, 23100, 10700, 10600, 12001, 12003, 24100, 109200]</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>[0.9999999629886981, 0.9999999939721289, 0.9999999979910491, 0.0063601237733431955, 0.2516902872064637, 8.595305316701355e-10, 1.6839971114442424e-08, 0.9999999657797531, 0.7828856921869475, 3.5776585751517184e-08, 1.7820233074556699e-09, 9.07010962996855e-09, 4.573042997887569e-11, 9.907684891925356e-10, 0.9999999999999999, 1.0000000000000002, 0.9999999797641506, 0.009588685851157623, 1.7553728374431327e-08, 0.3342095286577153]</t>
+          <t>27_053_111200, 27_053_111300, 27_053_111400, 27_053_111500, 27_053_109100, 27_053_108000, 27_053_109300, 27_053_109800, 27_053_109900, 27_053_110800, 27_053_023600, 27_053_023802, 27_053_024400, 27_053_023100, 27_053_010700, 27_053_010600, 27_053_012001, 27_053_012003, 27_053_024100, 27_053_109200</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0.9999999629886981, 0.9999999939721289, 0.9999999979910491, 0.0063601237733431955, 0.2516902872064637, 8.595305316701355e-10, 1.6839971114442424e-08, 0.9999999657797531, 0.7828856921869475, 3.5776585751517184e-08, 1.7820233074556699e-09, 9.07010962996855e-09, 4.573042997887569e-11, 9.907684891925356e-10, 0.9999999999999999, 1.0000000000000002, 0.9999999797641506, 0.009588685851157623, 1.7553728374431327e-08, 0.3342095286577153</t>
         </is>
       </c>
     </row>
@@ -4948,18 +4590,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>[106200, 107400, 107500, 107600, 30100, 3802, 104001, 104902, 104901, 104802, 125900, 103900, 106400, 104002, 3801, 43002, 31900, 33200, 125600]</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>[3.742821110394416e-08, 3.830784369208335e-08, 0.8946868164025511, 1.5452316035047996e-08, 3.1729333317726066e-09, 0.9999999996167565, 0.9999999731583631, 1.0, 1.0000000000000002, 0.803849644324828, 0.011624720899950302, 1.0000000000000002, 0.6747992351999, 2.2313018785022456e-09, 0.04298227000976226, 5.941117774128411e-09, 7.729293779276006e-09, 1.0247407277020826e-08, 0.9999999984879654]</t>
+          <t>27_053_106200, 27_053_107400, 27_053_107500, 27_053_107600, 27_123_030100, 27_053_003802, 27_053_104001, 27_053_104902, 27_053_104901, 27_053_104802, 27_053_125900, 27_053_103900, 27_053_106400, 27_053_104002, 27_053_003801, 27_123_043002, 27_123_031900, 27_123_033200, 27_053_125600</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>3.742821110394416e-08, 3.830784369208335e-08, 0.8946868164025511, 1.5452316035047996e-08, 3.1729333317726066e-09, 0.9999999996167565, 0.9999999731583631, 1.0, 1.0000000000000002, 0.803849644324828, 0.011624720899950302, 1.0000000000000002, 0.6747992351999, 2.2313018785022456e-09, 0.04298227000976226, 5.941117774128411e-09, 7.729293779276006e-09, 1.0247407277020826e-08, 0.9999999984879654</t>
         </is>
       </c>
     </row>
@@ -5002,18 +4638,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>[102600, 103000, 103100, 103600, 103700, 105400, 3802, 126202, 126102, 126101, 104001, 104801, 126201, 126300, 104802, 2400, 1700, 5901, 104002, 3801, 102500, 101800]</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>[0.22719915818100966, 0.9999999864031389, 0.9999999975546625, 1.0, 1.0, 0.025939427979661308, 3.832522670909683e-10, 0.9760547299636728, 0.651678203138432, 0.9999999999999996, 7.247162384910879e-11, 3.903579266359728e-08, 0.20095741065596331, 7.890956322205187e-10, 1.929120107491618e-08, 0.9999999260810848, 7.728214242855007e-09, 8.742014251547826e-09, 0.03295271797751822, 0.9570177299902407, 0.16238441305239545, 1.2419364852304886e-09]</t>
+          <t>27_053_102600, 27_053_103000, 27_053_103100, 27_053_103600, 27_053_103700, 27_053_105400, 27_053_003802, 27_053_126202, 27_053_126102, 27_053_126101, 27_053_104001, 27_053_104801, 27_053_126201, 27_053_126300, 27_053_104802, 27_053_002400, 27_053_001700, 27_053_005901, 27_053_104002, 27_053_003801, 27_053_102500, 27_053_101800</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.22719915818100966, 0.9999999864031389, 0.9999999975546625, 1.0, 1.0, 0.025939427979661308, 3.832522670909683e-10, 0.9760547299636728, 0.651678203138432, 0.9999999999999996, 7.247162384910879e-11, 3.903579266359728e-08, 0.20095741065596331, 7.890956322205187e-10, 1.929120107491618e-08, 0.9999999260810848, 7.728214242855007e-09, 8.742014251547826e-09, 0.03295271797751822, 0.9570177299902407, 0.16238441305239545, 1.2419364852304886e-09</t>
         </is>
       </c>
     </row>
@@ -5056,18 +4686,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>[100200, 100400, 100500, 100900, 51206, 21200, 21400, 101300, 101, 102, 300, 20400, 20500, 100700, 100800, 101600, 102000, 125700]</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>[0.9999999851929415, 0.999999999734329, 2.0020679562040147e-08, 0.9999999955337986, 9.479593363031937e-09, 2.4168576442852816e-09, 1.0920271939192761e-09, 0.7629401448646349, 0.9999999757595706, 0.9999999907101639, 0.9999999593870482, 1.8772965770371675e-09, 1.4968241550360494e-08, 0.9999999435932648, 0.9999999967708753, 5.612710357087217e-08, 0.2504521088155292, 2.0236280252869924e-08]</t>
+          <t>27_053_100200, 27_053_100400, 27_053_100500, 27_053_100900, 27_003_051206, 27_053_021200, 27_053_021400, 27_053_101300, 27_053_000101, 27_053_000102, 27_053_000300, 27_053_020400, 27_053_020500, 27_053_100700, 27_053_100800, 27_053_101600, 27_053_102000, 27_053_125700</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0.9999999851929415, 0.999999999734329, 2.0020679562040147e-08, 0.9999999955337986, 9.479593363031937e-09, 2.4168576442852816e-09, 1.0920271939192761e-09, 0.7629401448646349, 0.9999999757595706, 0.9999999907101639, 0.9999999593870482, 1.8772965770371675e-09, 1.4968241550360494e-08, 0.9999999435932648, 0.9999999967708753, 5.612710357087217e-08, 0.2504521088155292, 2.0236280252869924e-08</t>
         </is>
       </c>
     </row>
@@ -5110,18 +4734,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>[100900, 102100, 102800, 103000, 103400, 104100, 104400, 105100, 105500, 126202, 126201, 126300, 21700, 2400, 101300, 1700, 2200, 3200, 3300, 2700, 100700, 100800, 101600, 102000, 125700]</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>[5.463394586603951e-10, 1.0, 1.0, 1.3596905461070904e-08, 0.9999999999999997, 0.9999999707548013, 1.931817428544355e-08, 0.0007449218010132886, 2.8036704935786853e-09, 0.023945270036258036, 0.7911138646082351, 0.9999999992109085, 6.703176394135223e-11, 2.9712909660319662e-08, 0.23705985513543446, 9.81473394316282e-09, 0.9999999999999994, 0.9999999289390616, 1.0000000000000007, 0.9999999559563928, 3.635810083915448e-09, 3.2290674274488673e-09, 0.9999999424023145, 0.7495478327568861, 0.9999999797637382]</t>
+          <t>27_053_100900, 27_053_102100, 27_053_102800, 27_053_103000, 27_053_103400, 27_053_104100, 27_053_104400, 27_053_105100, 27_053_105500, 27_053_126202, 27_053_126201, 27_053_126300, 27_053_021700, 27_053_002400, 27_053_101300, 27_053_001700, 27_053_002200, 27_053_003200, 27_053_003300, 27_053_002700, 27_053_100700, 27_053_100800, 27_053_101600, 27_053_102000, 27_053_125700</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>5.463394586603951e-10, 1.0, 1.0, 1.3596905461070904e-08, 0.9999999999999997, 0.9999999707548013, 1.931817428544355e-08, 0.0007449218010132886, 2.8036704935786853e-09, 0.023945270036258036, 0.7911138646082351, 0.9999999992109085, 6.703176394135223e-11, 2.9712909660319662e-08, 0.23705985513543446, 9.81473394316282e-09, 0.9999999999999994, 0.9999999289390616, 1.0000000000000007, 0.9999999559563928, 3.635810083915448e-09, 3.2290674274488673e-09, 0.9999999424023145, 0.7495478327568861, 0.9999999797637382</t>
         </is>
       </c>
     </row>
@@ -5164,18 +4782,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>[104400, 105400, 105700, 106200, 105600, 106900, 107500, 126102, 104801, 104802, 125900, 126000, 105204, 106400, 5901, 5902, 8300, 8400, 7801, 106000, 125800]</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>[1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08]</t>
+          <t>27_053_104400, 27_053_105400, 27_053_105700, 27_053_106200, 27_053_105600, 27_053_106900, 27_053_107500, 27_053_126102, 27_053_104801, 27_053_104802, 27_053_125900, 27_053_126000, 27_053_105204, 27_053_106400, 27_053_005901, 27_053_005902, 27_053_008300, 27_053_008400, 27_053_007801, 27_053_106000, 27_053_125800</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08</t>
         </is>
       </c>
     </row>
@@ -5218,18 +4830,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>[104100, 104400, 105100, 105400, 105500, 105700, 106500, 105600, 106600, 109100, 108000, 109800, 109900, 126102, 126201, 21800, 105204, 105201, 22801, 22802, 22901, 106700, 5901, 6800, 7700]</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>[1.5282781074562813e-08, 0.9999999796475257, 0.9992550536577351, 9.383399891228525e-08, 0.9999999962120065, 4.435992149747591e-08, 0.999999993763927, 0.9999999284390264, 0.9999999999953268, 0.7320215308206148, 0.10257658242240858, 5.845616745598939e-09, 5.649840765784507e-10, 0.3483217918040256, 0.007928724735848163, 2.3177433234305833e-09, 0.9999999860886701, 1.0000000000000004, 2.0042279279397118e-09, 6.348596709559675e-10, 9.496654083078392e-10, 7.998638763941061e-08, 0.00583421519120463, 6.001064049507356e-08, 6.829560202569462e-09]</t>
+          <t>27_053_104100, 27_053_104400, 27_053_105100, 27_053_105400, 27_053_105500, 27_053_105700, 27_053_106500, 27_053_105600, 27_053_106600, 27_053_109100, 27_053_108000, 27_053_109800, 27_053_109900, 27_053_126102, 27_053_126201, 27_053_021800, 27_053_105204, 27_053_105201, 27_053_022801, 27_053_022802, 27_053_022901, 27_053_106700, 27_053_005901, 27_053_006800, 27_053_007700</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>1.5282781074562813e-08, 0.9999999796475257, 0.9992550536577351, 9.383399891228525e-08, 0.9999999962120065, 4.435992149747591e-08, 0.999999993763927, 0.9999999284390264, 0.9999999999953268, 0.7320215308206148, 0.10257658242240858, 5.845616745598939e-09, 5.649840765784507e-10, 0.3483217918040256, 0.007928724735848163, 2.3177433234305833e-09, 0.9999999860886701, 1.0000000000000004, 2.0042279279397118e-09, 6.348596709559675e-10, 9.496654083078392e-10, 7.998638763941061e-08, 0.00583421519120463, 6.001064049507356e-08, 6.829560202569462e-09</t>
         </is>
       </c>
     </row>
@@ -5272,18 +4878,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>[111100, 111500, 111600, 110000, 109300, 109700, 109900, 110100, 126000, 110800, 110900, 9500, 109400, 7700, 8200, 8300, 8400, 9600, 11000, 8100, 109200]</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>[4.635506977975504e-09, 0.00578964373689796, 0.2815817649830113, 0.9999999999999996, 0.9999999794774398, 9.29008319942337e-09, 0.21711429655501008, 0.5571495386826577, 1.5781095309390754e-11, 0.6787310567333892, 0.9999999986787449, 0.7495510323081138, 0.9999999961749277, 2.6566782677668606e-08, 0.9999999887874695, 0.9999999636541613, 0.3337903827959142, 0.5707453710233967, 0.16436275168662193, 1.4691757151477331e-08, 3.341804170024827e-09]</t>
+          <t>27_053_111100, 27_053_111500, 27_053_111600, 27_053_110000, 27_053_109300, 27_053_109700, 27_053_109900, 27_053_110100, 27_053_126000, 27_053_110800, 27_053_110900, 27_053_009500, 27_053_109400, 27_053_007700, 27_053_008200, 27_053_008300, 27_053_008400, 27_053_009600, 27_053_011000, 27_053_008100, 27_053_109200</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>4.635506977975504e-09, 0.00578964373689796, 0.2815817649830113, 0.9999999999999996, 0.9999999794774398, 9.29008319942337e-09, 0.21711429655501008, 0.5571495386826577, 1.5781095309390754e-11, 0.6787310567333892, 0.9999999986787449, 0.7495510323081138, 0.9999999961749277, 2.6566782677668606e-08, 0.9999999887874695, 0.9999999636541613, 0.3337903827959142, 0.5707453710233967, 0.16436275168662193, 1.4691757151477331e-08, 3.341804170024827e-09</t>
         </is>
       </c>
     </row>
@@ -5326,18 +4926,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>[107400, 107500, 107600, 108700, 108800, 108900, 109700, 110100, 125900, 126000, 110400, 9500, 109400, 5902, 8400, 8500, 9600, 108600, 106000, 125800]</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>[0.9999999491811336, 0.10531315739397427, 3.484528203280683e-09, 0.6502455710016495, 0.8261228888010521, 0.3924729038199026, 0.6917019230865732, 1.4201999817333694e-08, 0.9853732982209444, 6.557367911675107e-10, 7.74856306169997e-09, 0.2504489676918289, 3.825146464390418e-09, 6.248724311394363e-09, 0.6662095805812596, 0.9999999999999999, 0.4292546289765776, 0.9999999705726068, 1.526829009454857e-08, 0.999999958155319]</t>
+          <t>27_053_107400, 27_053_107500, 27_053_107600, 27_053_108700, 27_053_108800, 27_053_108900, 27_053_109700, 27_053_110100, 27_053_125900, 27_053_126000, 27_053_110400, 27_053_009500, 27_053_109400, 27_053_005902, 27_053_008400, 27_053_008500, 27_053_009600, 27_053_108600, 27_053_106000, 27_053_125800</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0.9999999491811336, 0.10531315739397427, 3.484528203280683e-09, 0.6502455710016495, 0.8261228888010521, 0.3924729038199026, 0.6917019230865732, 1.4201999817333694e-08, 0.9853732982209444, 6.557367911675107e-10, 7.74856306169997e-09, 0.2504489676918289, 3.825146464390418e-09, 6.248724311394363e-09, 0.6662095805812596, 0.9999999999999999, 0.4292546289765776, 0.9999999705726068, 1.526829009454857e-08, 0.999999958155319</t>
         </is>
       </c>
     </row>
@@ -5380,18 +4974,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>[20101, 20102, 101900, 103100, 104000, 2400, 100500, 100400, 100900, 101200, 603, 601, 101600, 1100, 102500, 1700, 102600, 101800]</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>[1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351]</t>
+          <t>27_123_041103, 27_123_042002, 27_123_041301, 27_123_030100, 27_053_020101, 27_053_020102, 27_053_101900, 27_053_103100, 27_053_104000, 27_053_002400, 27_053_100500, 27_053_100400, 27_053_100900, 27_053_101200, 27_053_000603, 27_053_000601, 27_053_101600, 27_053_001100, 27_053_102500, 27_053_001700, 27_053_102600, 27_053_101800, 27_003_051400, 27_003_051501, 27_003_051502</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>9.332052281831136e-18, 6.283329947436996e-06, 2.801525883503404e-15, 7.697737560039136e-17, 1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351, 4.400758764229673e-07, 6.149293024089223e-09, 6.983080853799253e-08</t>
         </is>
       </c>
     </row>
@@ -5434,18 +5022,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>[125700, 126200, 103000, 2200, 2400, 104100, 2700, 104400, 103400, 3200, 21700, 21800, 3300, 105100, 105500, 100700, 100900, 100800, 101300, 101600, 102000, 102100, 1700, 102300, 102800, 102900]</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>[0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0]</t>
+          <t>27_053_125700, 27_053_126200, 27_053_103000, 27_053_002200, 27_053_002400, 27_053_104100, 27_053_002700, 27_053_104400, 27_053_103400, 27_053_003200, 27_053_021700, 27_053_021800, 27_053_003300, 27_053_105100, 27_053_105500, 27_053_100700, 27_053_100900, 27_053_100800, 27_053_101300, 27_053_101600, 27_053_102000, 27_053_102100, 27_053_001700, 27_053_102300, 27_053_102800, 27_053_102900</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0</t>
         </is>
       </c>
     </row>
@@ -5488,18 +5070,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>[5902, 125900, 126000, 125800, 108700, 106000, 107500, 107600, 108600, 8400, 8500, 108900, 108800, 109700, 109400, 9500, 9600, 107400, 110100, 110200, 110400]</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>[6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09]</t>
+          <t>27_053_005902, 27_053_125900, 27_053_126000, 27_053_125800, 27_053_108700, 27_053_106000, 27_053_107500, 27_053_107600, 27_053_108600, 27_053_008400, 27_053_008500, 27_053_108900, 27_053_108800, 27_053_109700, 27_053_109400, 27_053_009500, 27_053_009600, 27_053_107400, 27_053_110100, 27_053_110200, 27_053_110400</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09</t>
         </is>
       </c>
     </row>
@@ -5542,18 +5118,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>[109900, 110800, 10700, 106700, 105600, 105500, 106600, 106500, 6800, 108000, 7700, 7801, 7802, 8100, 8200, 8300, 109100, 109200, 109300, 109400, 107000]</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>[0.2647350761742012, 6.1441874698605714e-09, 0.00025658967509615275, 0.960130250441588, 0.0005109770317998618, 0.00014711736686507661, 0.9970785218759535, 0.05372652810744943, 1.2597175986668368e-05, 0.999964942470492, 0.47142537861081946, 7.459274754617497e-05, 6.278434420097036e-07, 0.999999952356196, 0.9998403521441754, 0.4177089081052306, 0.16412275392761533, 0.9992910820063513, 0.49844199246113047, 2.4930986033855932e-08, 6.784659636601718e-05]</t>
+          <t>27_053_109900, 27_053_110800, 27_053_010700, 27_053_106700, 27_053_105600, 27_053_105500, 27_053_106600, 27_053_106500, 27_053_006800, 27_053_108000, 27_053_007700, 27_053_007801, 27_053_007802, 27_053_008100, 27_053_008200, 27_053_008300, 27_053_109100, 27_053_109200, 27_053_109300, 27_053_109400, 27_053_107000</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>0.2647350761742012, 6.1441874698605714e-09, 0.00025658967509615275, 0.960130250441588, 0.0005109770317998618, 0.00014711736686507661, 0.9970785218759535, 0.05372652810744943, 1.2597175986668368e-05, 0.999964942470492, 0.47142537861081946, 7.459274754617497e-05, 6.278434420097036e-07, 0.999999952356196, 0.9998403521441754, 0.4177089081052306, 0.16412275392761533, 0.9992910820063513, 0.49844199246113047, 2.4930986033855932e-08, 6.784659636601718e-05</t>
         </is>
       </c>
     </row>
@@ -5596,18 +5166,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>[109900, 110800, 10700, 11000, 111400, 111500, 11703, 11704, 11800, 11998, 12003, 12001, 12101, 12102, 24901, 110900, 111600]</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>[7.306304144617264e-06, 0.8267770525671131, 0.0002810340678726812, 0.6680113991306332, 0.0004507916477027524, 0.9905510759308098, 0.9998827215173448, 0.7400080424594764, 0.17377390907104723, 3.4929464494600746e-08, 0.9714663355626616, 0.000739524223541885, 0.45800604758199676, 4.736986208665943e-05, 5.991619485987677e-05, 0.0001771144855163568, 0.7137259153575359]</t>
+          <t>27_053_109900, 27_053_110800, 27_053_010700, 27_053_011000, 27_053_111400, 27_053_111500, 27_053_011703, 27_053_011704, 27_053_011800, 27_053_011998, 27_053_012003, 27_053_012001, 27_053_012101, 27_053_012102, 27_053_024901, 27_053_110900, 27_053_111600</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>7.306304144617264e-06, 0.8267770525671131, 0.0002810340678726812, 0.6680113991306332, 0.0004507916477027524, 0.9905510759308098, 0.9998827215173448, 0.7400080424594764, 0.17377390907104723, 3.4929464494600746e-08, 0.9714663355626616, 0.000739524223541885, 0.45800604758199676, 4.736986208665943e-05, 5.991619485987677e-05, 0.0001771144855163568, 0.7137259153575359</t>
         </is>
       </c>
     </row>
@@ -5650,18 +5214,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>[110100, 110200, 110500, 110400, 11000, 11703, 11800, 11998, 12101, 12102, 108700, 107600, 108900, 109000, 108800, 109700, 111100, 25000]</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>[0.41876547412466575, 0.8110882923685143, 0.9768250065202035, 0.9999708771075599, 0.0012295811879718872, 6.015429817909825e-06, 0.8262260909279009, 0.9998725813095533, 5.907007364152216e-05, 0.7106680974371493, 4.364072339299996e-05, 0.5686425082314333, 0.10206236659346427, 0.9713268810541239, 0.0015122118930371103, 6.789422159419015e-05, 0.9999742737186429, 3.459005045576698e-05]</t>
+          <t>27_123_037601, 27_123_034800, 27_053_110100, 27_053_110200, 27_053_110500, 27_053_110400, 27_053_011000, 27_053_011703, 27_053_011800, 27_053_011998, 27_053_012101, 27_053_012102, 27_053_108700, 27_053_107600, 27_053_108900, 27_053_109000, 27_053_108800, 27_053_109700, 27_053_111100, 27_053_025000</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>0.005010502962779569, 0.015000916728777975, 0.41876547412466575, 0.8110882923685143, 0.9768250065202035, 0.9999708771075599, 0.0012295811879718872, 6.015429817909825e-06, 0.8262260909279009, 0.9998725813095533, 5.907007364152216e-05, 0.7106680974371493, 4.364072339299996e-05, 0.5686425082314333, 0.10206236659346427, 0.9713268810541239, 0.0015122118930371103, 6.789422159419015e-05, 0.9999742737186429, 3.459005045576698e-05</t>
         </is>
       </c>
     </row>
@@ -5704,18 +5262,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>[109900, 110800, 10600, 10700, 111200, 111300, 111400, 111500, 12003, 12001, 22802, 22901, 23100, 23600, 23802, 109800, 106500, 108000, 109100]</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>[0.5195383581212006, 9.267827101566871e-05, 1.0, 0.9994623762571285, 0.999918627649069, 1.0000000000000002, 0.9995492083522769, 3.170659860133203e-05, 0.0007989585682034434, 0.9945496459741172, 0.00028720432112145045, 0.00019996240212414446, 0.00016657049749956831, 0.00017975142481258365, 0.00021463999095669407, 0.9999756932482475, 0.018658663896337673, 3.505752948618931e-05, 0.8342581327803321]</t>
+          <t>27_053_109900, 27_053_110800, 27_053_010600, 27_053_010700, 27_053_111200, 27_053_111300, 27_053_111400, 27_053_111500, 27_053_012003, 27_053_012001, 27_053_022802, 27_053_022901, 27_053_023100, 27_053_023600, 27_053_023802, 27_053_109800, 27_053_106500, 27_053_108000, 27_053_109100</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>0.5195383581212006, 9.267827101566871e-05, 1.0, 0.9994623762571285, 0.999918627649069, 1.0000000000000002, 0.9995492083522769, 3.170659860133203e-05, 0.0007989585682034434, 0.9945496459741172, 0.00028720432112145045, 0.00019996240212414446, 0.00016657049749956831, 0.00017975142481258365, 0.00021463999095669407, 0.9999756932482475, 0.018658663896337673, 3.505752948618931e-05, 0.8342581327803321</t>
         </is>
       </c>
     </row>
@@ -5758,18 +5310,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>[20101, 20102, 101900, 103100, 104000, 2400, 102, 100500, 100400, 101200, 603, 601, 1100, 102500, 1700, 102600, 101800, 100900]</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>[0.00035776110801404064, 0.009938463490402791, 1.0000000000000002, 0.0007668122969345709, 0.580532887285699, 0.0002645430290960209, 0.002477190748951489, 0.9906091152882879, 0.006984890030219389, 0.9995585283393706, 0.9998843588382946, 0.9999999659033841, 1.0, 0.8369402768818568, 0.20860303430198496, 0.7578393404249095, 0.9999552107246006, 0.0017627833056351426]</t>
+          <t>27_123_041103, 27_123_042002, 27_123_041301, 27_053_020101, 27_053_020102, 27_053_101900, 27_053_103100, 27_053_104000, 27_053_002400, 27_053_000102, 27_053_100500, 27_053_100400, 27_053_101200, 27_053_000603, 27_053_000601, 27_053_001100, 27_053_102500, 27_053_001700, 27_053_102600, 27_053_101800, 27_053_100900, 27_003_051400, 27_003_051501, 27_003_051502, 27_003_051206</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2.9377389936763162e-09, 0.00040948081600601064, 2.575048048019952e-08, 0.00035776110801404064, 0.009938463490402791, 1.0000000000000002, 0.0007668122969345709, 0.580532887285699, 0.0002645430290960209, 0.002477190748951489, 0.9906091152882879, 0.006984890030219389, 0.9995585283393706, 0.9998843588382946, 0.9999999659033841, 1.0, 0.8369402768818568, 0.20860303430198496, 0.7578393404249095, 0.9999552107246006, 0.0017627833056351426, 0.0006175660316222716, 4.0913652001358766e-05, 0.00037406669758404033, 0.0008900609040012232</t>
         </is>
       </c>
     </row>
@@ -5812,18 +5358,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>[104800, 106400, 103900, 104000, 104700, 104900, 105000, 3800, 106200, 5901, 7301, 107500, 107600, 107400]</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>[0.991785476422288, 0.9999999999999998, 0.00271032304009899, 0.38980821505125274, 0.00022993495427498105, 0.990218579141516, 0.9999812450071236, 0.00023147186028779233, 0.7509472107782058, 0.021099779608845484, 0.005104555220351069, 0.8595258701612734, 0.42844866417379984, 0.09355269549784738]</t>
+          <t>27_123_031900, 27_123_030100, 27_123_042002, 27_123_033200, 27_123_034800, 27_053_104800, 27_053_106400, 27_053_103900, 27_053_104000, 27_053_104700, 27_053_104900, 27_053_105000, 27_053_003800, 27_053_106200, 27_053_005901, 27_053_007301, 27_053_107500, 27_053_107600, 27_053_107400</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>6.640613286733949e-05, 9.496243508378479e-05, 6.9986869693429e-07, 0.00033273685881326674, 0.011281147289210685, 0.991785476422288, 0.9999999999999998, 0.00271032304009899, 0.38980821505125274, 0.00022993495427498105, 0.990218579141516, 0.9999812450071236, 0.00023147186028779233, 0.7509472107782058, 0.021099779608845484, 0.005104555220351069, 0.8595258701612734, 0.42844866417379984, 0.09355269549784738</t>
         </is>
       </c>
     </row>
@@ -5866,18 +5406,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>[104800, 103000, 103100, 103600, 2200, 103900, 104000, 2400, 103700, 104600, 104700, 104900, 3800, 100500, 100400, 3502, 101500, 101600, 102500, 102100, 1700, 102300, 102600, 101800, 102900, 100900]</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>[0.0005581261145794267, 0.9578681961806658, 0.9992331877030844, 0.9993700041884975, 0.999996893999715, 0.9972896769598943, 0.029192651382966697, 0.9997354569708607, 0.9999999999999998, 0.006877310569685033, 0.017507610948956514, 0.009781420858476523, 0.9922999818663085, 0.009327589283072021, 0.0005543642266185046, 0.002923229778590442, 0.12379876549935277, 0.9999895606648831, 0.16305972311818703, 0.0013231378487050002, 0.7913969656980051, 0.4653548326570167, 0.23986022687209974, 4.478927538426933e-05, 0.0004154672130842906, 0.8113765423646023]</t>
+          <t>27_053_104800, 27_053_103000, 27_053_103100, 27_053_103600, 27_053_002200, 27_053_103900, 27_053_104000, 27_053_002400, 27_053_103700, 27_053_104600, 27_053_104700, 27_053_104900, 27_053_003800, 27_053_100500, 27_053_100400, 27_053_003502, 27_053_101500, 27_053_101600, 27_053_102500, 27_053_102100, 27_053_001700, 27_053_102300, 27_053_102600, 27_053_101800, 27_053_102900, 27_053_100900</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>0.0005581261145794267, 0.9578681961806658, 0.9992331877030844, 0.9993700041884975, 0.999996893999715, 0.9972896769598943, 0.029192651382966697, 0.9997354569708607, 0.9999999999999998, 0.006877310569685033, 0.017507610948956514, 0.009781420858476523, 0.9922999818663085, 0.009327589283072021, 0.0005543642266185046, 0.002923229778590442, 0.12379876549935277, 0.9999895606648831, 0.16305972311818703, 0.0013231378487050002, 0.7913969656980051, 0.4653548326570167, 0.23986022687209974, 4.478927538426933e-05, 0.0004154672130842906, 0.8113765423646023</t>
         </is>
       </c>
     </row>
@@ -5920,18 +5454,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>[20400, 20500, 21200, 21400, 100200, 101, 102, 100400, 100700, 300, 101400, 101300, 101500, 101600, 102000, 100900, 100800]</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>[0.0004326173995324472, 0.0005176190441440994, 0.004432626679438356, 2.952051527977461e-05, 0.9790336812568746, 0.9971032635200198, 0.9963949204618711, 0.992460745743176, 0.9995151579717494, 0.9999733058394283, 0.20846724503192451, 0.7988792169839812, 0.0002900439432342934, 7.150508419525628e-08, 0.006685050445588673, 0.18685876303017313, 0.9998985591578106]</t>
+          <t>27_053_020400, 27_053_020500, 27_053_021200, 27_053_021400, 27_053_100200, 27_053_000101, 27_053_000102, 27_053_100400, 27_053_100700, 27_053_000300, 27_053_101400, 27_053_101300, 27_053_101500, 27_053_101600, 27_053_102000, 27_053_100900, 27_053_100800, 27_003_051206</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>0.0004326173995324472, 0.0005176190441440994, 0.004432626679438356, 2.952051527977461e-05, 0.9790336812568746, 0.9971032635200198, 0.9963949204618711, 0.992460745743176, 0.9995151579717494, 0.9999733058394283, 0.20846724503192451, 0.7988792169839812, 0.0002900439432342934, 7.150508419525628e-08, 0.006685050445588673, 0.18685876303017313, 0.9998985591578106, 0.008696273577913416</t>
         </is>
       </c>
     </row>
@@ -5974,18 +5502,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>[21400, 103000, 2200, 3501, 104100, 2700, 21700, 21800, 103400, 3200, 3300, 105100, 105500, 3502, 101400, 101300, 101500, 101600, 102000, 102100, 102300, 102800, 102900, 100900, 100800]</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>[9.656009456474698e-05, 0.02831781302312104, 3.1060004053703284e-06, 0.7103258204426528, 0.9997447822039538, 0.9998414192043245, 0.0004251743773388846, 0.00266873578033898, 1.0000000000000004, 0.997321096866965, 1.0, 0.0020939542723867133, 0.00035594110140465114, 0.0018738477991745736, 0.791532754967912, 0.20112078301602743, 0.8759111905574691, 1.0367830018976e-05, 0.9833848954696155, 0.9986768621512572, 0.5338324766099338, 0.9999999999999999, 0.9995845327868639, 1.911299631051085e-06, 0.00010144084218610473]</t>
+          <t>27_053_021400, 27_053_103000, 27_053_002200, 27_053_003501, 27_053_104100, 27_053_002700, 27_053_021700, 27_053_021800, 27_053_103400, 27_053_003200, 27_053_003300, 27_053_105100, 27_053_105500, 27_053_003502, 27_053_101400, 27_053_101300, 27_053_101500, 27_053_101600, 27_053_102000, 27_053_102100, 27_053_102300, 27_053_102800, 27_053_102900, 27_053_100900, 27_053_100800</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>9.656009456474698e-05, 0.02831781302312104, 3.1060004053703284e-06, 0.7103258204426528, 0.9997447822039538, 0.9998414192043245, 0.0004251743773388846, 0.00266873578033898, 1.0000000000000004, 0.997321096866965, 1.0, 0.0020939542723867133, 0.00035594110140465114, 0.0018738477991745736, 0.791532754967912, 0.20112078301602743, 0.8759111905574691, 1.0367830018976e-05, 0.9833848954696155, 0.9986768621512572, 0.5338324766099338, 0.9999999999999999, 0.9995845327868639, 1.911299631051085e-06, 0.00010144084218610473</t>
         </is>
       </c>
     </row>
@@ -6028,18 +5550,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>[104800, 5902, 105700, 106700, 106900, 105200, 105600, 106200, 107100, 5901, 106000, 6800, 7700, 7801, 7802, 8100, 8200, 8300, 8400, 107200, 107000]</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>[0.0010879957171651773, 0.998345052680997, 0.9999998489191065, 0.0002616349417323619, 1.0, 0.0009169303608413006, 0.4300036153272275, 0.1850363361474291, 0.9965603054130043, 0.020411530341878557, 0.8275131868923191, 0.9999874028238455, 0.5285746213891505, 0.9999254072525815, 0.9986388467148836, 4.764372142584443e-08, 0.00015964785588873075, 1.4372633500996853e-05, 0.00010195542889184476, 0.0005139345141170862, 0.9999321534036012]</t>
+          <t>27_053_104800, 27_053_005902, 27_053_105700, 27_053_106700, 27_053_106900, 27_053_105200, 27_053_105600, 27_053_106200, 27_053_107100, 27_053_005901, 27_053_106000, 27_053_006800, 27_053_007700, 27_053_007801, 27_053_007802, 27_053_008100, 27_053_008200, 27_053_008300, 27_053_008400, 27_053_107200, 27_053_107000</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0.0010879957171651773, 0.998345052680997, 0.9999998489191065, 0.0002616349417323619, 1.0, 0.0009169303608413006, 0.4300036153272275, 0.1850363361474291, 0.9965603054130043, 0.020411530341878557, 0.8275131868923191, 0.9999874028238455, 0.5285746213891505, 0.9999254072525815, 0.9986388467148836, 4.764372142584443e-08, 0.00015964785588873075, 1.4372633500996853e-05, 0.00010195542889184476, 0.0005139345141170862, 0.9999321534036012</t>
         </is>
       </c>
     </row>
@@ -6082,18 +5598,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>[104800, 5902, 22000, 22801, 22802, 105700, 106700, 103000, 103600, 3501, 104100, 21800, 104400, 104600, 104700, 105100, 105200, 3800, 105600, 105400, 105500, 5901, 106000, 106600, 106500, 3502, 102300]</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>[0.006568401746007169, 0.0016537638252877081, 0.0017762733014929516, 0.00637152682867379, 3.78354863690871e-06, 1.510808987247827e-07, 0.03960811461679047, 0.013813990796180139, 0.0006299958114553139, 0.2896741795566813, 0.0002549959498838723, 0.001513276918432413, 1.0, 0.9931226894303126, 0.9822624540967132, 0.9967603588070433, 0.9990830696391574, 0.007468546273446131, 0.5694854076409763, 1.0, 0.9994969415317464, 0.9584886900492045, 0.000515917150453638, 0.0029214781239986173, 0.9275998508767656, 0.9952029224223156, 0.0008126907330654685]</t>
+          <t>27_053_104800, 27_053_005902, 27_053_022000, 27_053_022801, 27_053_022802, 27_053_105700, 27_053_106700, 27_053_103000, 27_053_103600, 27_053_003501, 27_053_104100, 27_053_021800, 27_053_104400, 27_053_104600, 27_053_104700, 27_053_105100, 27_053_105200, 27_053_003800, 27_053_105600, 27_053_105400, 27_053_105500, 27_053_005901, 27_053_106000, 27_053_106600, 27_053_106500, 27_053_003502, 27_053_102300</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0.006568401746007169, 0.0016537638252877081, 0.0017762733014929516, 0.00637152682867379, 3.78354863690871e-06, 1.510808987247827e-07, 0.03960811461679047, 0.013813990796180139, 0.0006299958114553139, 0.2896741795566813, 0.0002549959498838723, 0.001513276918432413, 1.0, 0.9931226894303126, 0.9822624540967132, 0.9967603588070433, 0.9990830696391574, 0.007468546273446131, 0.5694854076409763, 1.0, 0.9994969415317464, 0.9584886900492045, 0.000515917150453638, 0.0029214781239986173, 0.9275998508767656, 0.9952029224223156, 0.0008126907330654685</t>
         </is>
       </c>
     </row>
@@ -6136,18 +5646,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>[109900, 110100, 110800, 11000, 111500, 11703, 110900, 111600, 7900, 7802, 8300, 8400, 8500, 109200, 109300, 109700, 110000, 109400, 9500, 9600, 111100]</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>[0.21571925940044032, 0.5573759224365663, 0.1731302630176538, 0.33075901968136034, 0.009417217470605643, 0.00011126305283701658, 0.9998228855145488, 0.2862740846424642, 7.894418817944553e-05, 0.00019952039005196153, 0.5822767192612059, 0.9998980445712159, 0.6367806823603493, 0.0007089179936055601, 0.5015580075388865, 0.0002623347736774467, 1.0, 0.9999999750690245, 1.0, 0.9998896923769423, 2.5726281346891924e-05]</t>
+          <t>27_053_109900, 27_053_110100, 27_053_110800, 27_053_011000, 27_053_111500, 27_053_011703, 27_053_110900, 27_053_111600, 27_053_007900, 27_053_007802, 27_053_008300, 27_053_008400, 27_053_008500, 27_053_109200, 27_053_109300, 27_053_109700, 27_053_110000, 27_053_109400, 27_053_009500, 27_053_009600, 27_053_111100</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>0.21571925940044032, 0.5573759224365663, 0.1731302630176538, 0.33075901968136034, 0.009417217470605643, 0.00011126305283701658, 0.9998228855145488, 0.2862740846424642, 7.894418817944553e-05, 0.00019952039005196153, 0.5822767192612059, 0.9998980445712159, 0.6367806823603493, 0.0007089179936055601, 0.5015580075388865, 0.0002623347736774467, 1.0, 0.9999999750690245, 1.0, 0.9998896923769423, 2.5726281346891924e-05</t>
         </is>
       </c>
     </row>
@@ -6190,18 +5694,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>[110100, 110200, 110400, 5902, 106200, 107100, 108700, 106000, 7302, 7301, 107500, 107600, 108600, 7900, 7802, 8500, 108900, 108800, 109700, 9600, 107200, 107400]</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>[0.02385860343875202, 0.1889117076315132, 2.9122892447798943e-05, 1.1834937826123378e-06, 0.0640164530743672, 0.0034396945870143144, 0.9999563592766476, 0.17197089595718515, 1.0000000000000002, 0.9948954447795902, 0.14047412983875432, 7.736209347867875e-05, 1.0000000000000004, 0.9999210558118596, 0.0011610050515516292, 0.36321931772043003, 0.8979376334065361, 0.9984877881069549, 0.9996697709116025, 0.00011030762311389733, 0.9994860654859101, 0.9064473045020321]</t>
+          <t>27_053_110100, 27_053_110200, 27_053_110400, 27_053_005902, 27_053_106200, 27_053_107100, 27_053_108700, 27_053_106000, 27_053_007302, 27_053_007301, 27_053_107500, 27_053_107600, 27_053_108600, 27_053_007900, 27_053_007802, 27_053_008500, 27_053_108900, 27_053_108800, 27_053_109700, 27_053_009600, 27_053_107200, 27_053_107400</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>0.02385860343875202, 0.1889117076315132, 2.9122892447798943e-05, 1.1834937826123378e-06, 0.0640164530743672, 0.0034396945870143144, 0.9999563592766476, 0.17197089595718515, 1.0000000000000002, 0.9948954447795902, 0.14047412983875432, 7.736209347867875e-05, 1.0000000000000004, 0.9999210558118596, 0.0011610050515516292, 0.36321931772043003, 0.8979376334065361, 0.9984877881069549, 0.9996697709116025, 0.00011030762311389733, 0.9994860654859101, 0.9064473045020321</t>
         </is>
       </c>
     </row>
@@ -6244,18 +5742,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>[126000, 105700, 106700, 106900, 105600, 105500, 106600, 6800, 108000, 7700, 7801, 8100, 8200, 8300, 109100, 109200, 109300, 107000, 109900]</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>[0.014179958690689842, 1.6372108053021672e-06, 0.995815056453645, 0.9918161533792595, 0.000583625659204062, 0.004020757249915007, 4.634070343042592e-12, 0.9999992277415305, 0.9027527898240132, 0.9999999666036586, 0.9999999999999999, 0.9999999853081041, 1.1212604291156217e-08, 1.737859383771984e-08, 0.014580563534249854, 0.6657904680005656, 3.7183171169526336e-09, 1.0, 0.0006202900391125828]</t>
+          <t>27_053_126000, 27_053_105700, 27_053_106700, 27_053_106900, 27_053_105600, 27_053_105500, 27_053_106600, 27_053_006800, 27_053_108000, 27_053_007700, 27_053_007801, 27_053_008100, 27_053_008200, 27_053_008300, 27_053_109100, 27_053_109200, 27_053_109300, 27_053_107000, 27_053_109900</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>0.014179958690689842, 1.6372108053021672e-06, 0.995815056453645, 0.9918161533792595, 0.000583625659204062, 0.004020757249915007, 4.634070343042592e-12, 0.9999992277415305, 0.9027527898240132, 0.9999999666036586, 0.9999999999999999, 0.9999999853081041, 1.1212604291156217e-08, 1.737859383771984e-08, 0.014580563534249854, 0.6657904680005656, 3.7183171169526336e-09, 1.0, 0.0006202900391125828</t>
         </is>
       </c>
     </row>
@@ -6298,18 +5790,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>[12101, 12102, 24400, 24700, 24901, 110900, 111600, 111100, 110100, 110800, 11000, 111400, 111500, 11703, 11704, 11800, 11998, 12003]</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>[0.4588098693559743, 1.383765934543603e-06, 0.01487209149237685, 0.004960192910503212, 0.00020028637781361575, 1.2999958236364537e-09, 0.7176225522558706, 0.053465854314247475, 3.4511680544081456e-10, 0.3256071972088235, 0.8358933118740979, 2.008939365257134e-09, 0.9935661301010241, 0.9999999999999993, 0.7294885452343802, 0.851189340901316, 1.8842133498017343e-08, 0.9953484748062621]</t>
+          <t>27_053_012101, 27_053_012102, 27_053_024400, 27_053_024700, 27_053_024901, 27_053_110900, 27_053_111600, 27_053_111100, 27_053_110100, 27_053_110800, 27_053_011000, 27_053_111400, 27_053_111500, 27_053_011703, 27_053_011704, 27_053_011800, 27_053_011998, 27_053_012003</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>0.4588098693559743, 1.383765934543603e-06, 0.01487209149237685, 0.004960192910503212, 0.00020028637781361575, 1.2999958236364537e-09, 0.7176225522558706, 0.053465854314247475, 3.4511680544081456e-10, 0.3256071972088235, 0.8358933118740979, 2.008939365257134e-09, 0.9935661301010241, 0.9999999999999993, 0.7294885452343802, 0.851189340901316, 1.8842133498017343e-08, 0.9953484748062621</t>
         </is>
       </c>
     </row>
@@ -6352,18 +5838,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>[12101, 12102, 125600, 108700, 107500, 107600, 108600, 108900, 109000, 108800, 109700, 111100, 107400, 980000, 110100, 110200, 110500, 110400, 11800, 11998]</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>[6.855839339830034e-10, 0.719855325378128, 2.5987169052182894e-10, 0.3504545327784966, 1.3567063425659018e-09, 0.9976982656100741, 2.9427380534351153e-08, 0.6075270961801345, 0.9999993948686094, 0.1735802787004511, 0.30829806762348827, 0.9465341410682032, 1.2766914362653308e-08, 4.810212932634604e-07, 0.4428504467701778, 0.9999994335369431, 0.9980260078080666, 0.9999999922511368, 0.14881065909868055, 0.9999402346796432]</t>
+          <t>27_123_037601, 27_123_043000, 27_053_012101, 27_053_012102, 27_053_125600, 27_053_108700, 27_053_107500, 27_053_107600, 27_053_108600, 27_053_108900, 27_053_109000, 27_053_108800, 27_053_109700, 27_053_111100, 27_053_107400, 27_053_980000, 27_053_110100, 27_053_110200, 27_053_110500, 27_053_110400, 27_053_011800, 27_053_011998</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>0.0036711390100738757, 0.013195573744350448, 6.855839339830034e-10, 0.719855325378128, 2.5987169052182894e-10, 0.3504545327784966, 1.3567063425659018e-09, 0.9976982656100741, 2.9427380534351153e-08, 0.6075270961801345, 0.9999993948686094, 0.1735802787004511, 0.30829806762348827, 0.9465341410682032, 1.2766914362653308e-08, 4.810212932634604e-07, 0.4428504467701778, 0.9999994335369431, 0.9980260078080666, 0.9999999922511368, 0.14881065909868055, 0.9999402346796432</t>
         </is>
       </c>
     </row>
@@ -6406,18 +5886,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>[12001, 24005, 24100, 24400, 22901, 23100, 23600, 23802, 109800, 108000, 109100, 109200, 109300, 109900, 110800, 10600, 10700, 111200, 111300, 111400, 111500, 12003]</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>[0.9998815211214253, 4.931228208563902e-08, 0.010527143597313318, 1.5346460613408615e-10, 7.838771770943674e-07, 6.24175242884272e-07, 1.7979568813487813e-09, 1.0598239304294768e-06, 0.9999988339679441, 8.585998949290797e-10, 0.25318581043149024, 0.3342095286577152, 1.700365330841006e-08, 0.7833358596493739, 3.625984450581948e-08, 1.0, 1.0, 0.9999999629886493, 0.9999999939721244, 0.999999997991049, 0.0026846885104971725, 0.004643168449789377]</t>
+          <t>27_053_012001, 27_053_024005, 27_053_024100, 27_053_024400, 27_053_022901, 27_053_023100, 27_053_023600, 27_053_023802, 27_053_109800, 27_053_108000, 27_053_109100, 27_053_109200, 27_053_109300, 27_053_109900, 27_053_110800, 27_053_010600, 27_053_010700, 27_053_111200, 27_053_111300, 27_053_111400, 27_053_111500, 27_053_012003</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>0.9998815211214253, 4.931228208563902e-08, 0.010527143597313318, 1.5346460613408615e-10, 7.838771770943674e-07, 6.24175242884272e-07, 1.7979568813487813e-09, 1.0598239304294768e-06, 0.9999988339679441, 8.585998949290797e-10, 0.25318581043149024, 0.3342095286577152, 1.700365330841006e-08, 0.7833358596493739, 3.625984450581948e-08, 1.0, 1.0, 0.9999999629886493, 0.9999999939721244, 0.999999997991049, 0.0026846885104971725, 0.004643168449789377</t>
         </is>
       </c>
     </row>
@@ -6460,18 +5934,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>[20101, 20102, 101900, 103100, 104000, 2400, 100500, 100400, 100900, 101200, 603, 601, 101600, 1100, 102500, 1700, 102600, 101800]</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>[1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351]</t>
+          <t>27_123_041103, 27_123_042002, 27_123_041301, 27_123_030100, 27_053_020101, 27_053_020102, 27_053_101900, 27_053_103100, 27_053_104000, 27_053_002400, 27_053_100500, 27_053_100400, 27_053_100900, 27_053_101200, 27_053_000603, 27_053_000601, 27_053_101600, 27_053_001100, 27_053_102500, 27_053_001700, 27_053_102600, 27_053_101800, 27_003_051400, 27_003_051501, 27_003_051502</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>9.332052281831136e-18, 6.283329947436996e-06, 2.801525883503404e-15, 7.697737560039136e-17, 1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351, 4.400758764229673e-07, 6.149293024089223e-09, 6.983080853799253e-08</t>
         </is>
       </c>
     </row>
@@ -6514,18 +5982,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>[126200, 126100, 103000, 103100, 103600, 104000, 2400, 103700, 3800, 105400, 5901, 102500, 1700, 102300, 102600, 101800]</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>[0.4706012240295949, 0.7049673771710893, 0.9999702559323108, 0.9999999975444243, 0.9999999999999997, 0.022414604559121976, 0.9999546125843072, 0.9999999999999998, 0.6255713447736643, 0.02708812499204498, 0.0006626850708305121, 0.16320850177212526, 0.0018965955464723678, 1.429707527115575e-07, 0.23653078708081074, 1.2417688603507542e-09]</t>
+          <t>27_053_126200, 27_053_126100, 27_053_103000, 27_053_103100, 27_053_103600, 27_053_104000, 27_053_002400, 27_053_103700, 27_053_003800, 27_053_105400, 27_053_005901, 27_053_102500, 27_053_001700, 27_053_102300, 27_053_102600, 27_053_101800</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>0.4706012240295949, 0.7049673771710893, 0.9999702559323108, 0.9999999975444243, 0.9999999999999997, 0.022414604559121976, 0.9999546125843072, 0.9999999999999998, 0.6255713447736643, 0.02708812499204498, 0.0006626850708305121, 0.16320850177212526, 0.0018965955464723678, 1.429707527115575e-07, 0.23653078708081074, 1.2417688603507542e-09</t>
         </is>
       </c>
     </row>
@@ -6568,18 +6030,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>[20400, 20500, 21200, 21400, 125700, 100200, 101, 102, 100500, 100400, 100700, 300, 100900, 100800, 101300, 101600, 102000]</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>[3.338906684043667e-07, 2.2503889746546973e-07, 0.0031627525856046403, 0.0005870196935288642, 1.885660953695151e-06, 0.9739829865155292, 0.9973419340752752, 0.999998973640138, 1.9992461082064234e-08, 0.9999999997342626, 0.9997401658627811, 0.9999999593870484, 0.9999993392000328, 0.9999999967708755, 0.7573479735523267, 5.433846545656407e-08, 0.2595041306246351]</t>
+          <t>27_053_020400, 27_053_020500, 27_053_021200, 27_053_021400, 27_053_125700, 27_053_100200, 27_053_000101, 27_053_000102, 27_053_100500, 27_053_100400, 27_053_100700, 27_053_000300, 27_053_100900, 27_053_100800, 27_053_101300, 27_053_101600, 27_053_102000, 27_003_051206</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>3.338906684043667e-07, 2.2503889746546973e-07, 0.0031627525856046403, 0.0005870196935288642, 1.885660953695151e-06, 0.9739829865155292, 0.9973419340752752, 0.999998973640138, 1.9992461082064234e-08, 0.9999999997342626, 0.9997401658627811, 0.9999999593870484, 0.9999993392000328, 0.9999999967708755, 0.7573479735523267, 5.433846545656407e-08, 0.2595041306246351, 9.51384392715401e-09</t>
         </is>
       </c>
     </row>
@@ -6622,18 +6078,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>[125700, 126200, 103000, 2200, 2400, 104100, 2700, 104400, 103400, 3200, 21700, 21800, 3300, 105100, 105500, 100700, 100900, 100800, 101300, 101600, 102000, 102100, 1700, 102300, 102800, 102900]</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>[0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0]</t>
+          <t>27_053_125700, 27_053_126200, 27_053_103000, 27_053_002200, 27_053_002400, 27_053_104100, 27_053_002700, 27_053_104400, 27_053_103400, 27_053_003200, 27_053_021700, 27_053_021800, 27_053_003300, 27_053_105100, 27_053_105500, 27_053_100700, 27_053_100900, 27_053_100800, 27_053_101300, 27_053_101600, 27_053_102000, 27_053_102100, 27_053_001700, 27_053_102300, 27_053_102800, 27_053_102900</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0</t>
         </is>
       </c>
     </row>
@@ -6676,18 +6126,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>[5902, 104800, 105204, 125900, 126000, 125800, 126100, 105700, 106400, 106900, 104400, 104900, 105600, 106200, 105400, 5901, 106000, 107500, 8300, 8400]</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>[0.9999999935088997, 0.37801527861760226, 0.02761701297116706, 0.004208980655993217, 0.985820040643122, 4.1844699378398835e-08, 0.006894369130444439, 0.9999983627892153, 0.32283698984640147, 0.008183846620729195, 0.0003520336994105533, 1.1961038648050838e-10, 3.161190600858937e-08, 0.9891539485474161, 0.9679176180859062, 0.9993373149291909, 0.9999999850049264, 7.087816237805567e-07, 1.8967718487190625e-08, 3.6623314475502e-08]</t>
+          <t>27_053_005902, 27_053_104800, 27_053_105204, 27_053_125900, 27_053_126000, 27_053_125800, 27_053_126100, 27_053_105700, 27_053_106400, 27_053_106900, 27_053_104400, 27_053_104900, 27_053_105600, 27_053_106200, 27_053_105400, 27_053_005901, 27_053_106000, 27_053_107500, 27_053_008300, 27_053_008400</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0.9999999935088997, 0.37801527861760226, 0.02761701297116706, 0.004208980655993217, 0.985820040643122, 4.1844699378398835e-08, 0.006894369130444439, 0.9999983627892153, 0.32283698984640147, 0.008183846620729195, 0.0003520336994105533, 1.1961038648050838e-10, 3.161190600858937e-08, 0.9891539485474161, 0.9679176180859062, 0.9993373149291909, 0.9999999850049264, 7.087816237805567e-07, 1.8967718487190625e-08, 3.6623314475502e-08</t>
         </is>
       </c>
     </row>
@@ -6730,18 +6174,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>[105204, 105201, 22000, 126200, 126100, 22801, 22802, 22901, 106700, 104100, 104400, 21800, 105100, 105600, 105400, 109800, 105500, 106600, 106500, 6800, 108000, 7700, 109100, 109900]</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>[0.9723829870288663, 1.0000000000000004, 0.0012946281508589028, 0.0016658785565436905, 0.28557136667060284, 0.002862347092496932, 0.00015090384061404729, 0.000249940307096157, 0.004184943546382751, 1.6033728150433606e-06, 0.9952630428150456, 0.000640532730533815, 0.997639455900535, 0.9994163427288266, 0.004994256921983121, 1.1447159341154269e-06, 0.9951453165320533, 0.9999999999953678, 0.9993306218112001, 7.722584711086594e-07, 0.09724720931738409, 6.829560202572792e-09, 0.7321398063088419, 0.00030427150485763514]</t>
+          <t>27_053_105204, 27_053_105201, 27_053_022000, 27_053_126200, 27_053_126100, 27_053_022801, 27_053_022802, 27_053_022901, 27_053_106700, 27_053_104100, 27_053_104400, 27_053_021800, 27_053_105100, 27_053_105600, 27_053_105400, 27_053_109800, 27_053_105500, 27_053_106600, 27_053_106500, 27_053_006800, 27_053_108000, 27_053_007700, 27_053_109100, 27_053_109900</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>0.9723829870288663, 1.0000000000000004, 0.0012946281508589028, 0.0016658785565436905, 0.28557136667060284, 0.002862347092496932, 0.00015090384061404729, 0.000249940307096157, 0.004184943546382751, 1.6033728150433606e-06, 0.9952630428150456, 0.000640532730533815, 0.997639455900535, 0.9994163427288266, 0.004994256921983121, 1.1447159341154269e-06, 0.9951453165320533, 0.9999999999953678, 0.9993306218112001, 7.722584711086594e-07, 0.09724720931738409, 6.829560202572792e-09, 0.7321398063088419, 0.00030427150485763514</t>
         </is>
       </c>
     </row>
@@ -6784,18 +6222,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>[126000, 110900, 111600, 7700, 8100, 8200, 8300, 8400, 109200, 109300, 109700, 109400, 9500, 9600, 111100, 110000, 109900, 110100, 110800, 11000, 111500]</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>[1.5654906414310474e-11, 0.9999999987000403, 0.28237744774412854, 2.656678267766859e-08, 1.469175715148594e-08, 0.9999999887874697, 0.9999999636537925, 0.33379491621747676, 3.3418041700248274e-09, 0.9999999792779632, 9.290083199429726e-09, 0.9999999962460414, 0.7495508234521506, 0.5707456456059813, 4.617555282825733e-09, 1.0, 0.2157395788066537, 0.5571495386826579, 0.6743927665313457, 0.16410668812587284, 0.0037491813884818407]</t>
+          <t>27_053_126000, 27_053_110900, 27_053_111600, 27_053_007700, 27_053_008100, 27_053_008200, 27_053_008300, 27_053_008400, 27_053_109200, 27_053_109300, 27_053_109700, 27_053_109400, 27_053_009500, 27_053_009600, 27_053_111100, 27_053_110000, 27_053_109900, 27_053_110100, 27_053_110800, 27_053_011000, 27_053_111500</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>1.5654906414310474e-11, 0.9999999987000403, 0.28237744774412854, 2.656678267766859e-08, 1.469175715148594e-08, 0.9999999887874697, 0.9999999636537925, 0.33379491621747676, 3.3418041700248274e-09, 0.9999999792779632, 9.290083199429726e-09, 0.9999999962460414, 0.7495508234521506, 0.5707456456059813, 4.617555282825733e-09, 1.0, 0.2157395788066537, 0.5571495386826579, 0.6743927665313457, 0.16410668812587284, 0.0037491813884818407</t>
         </is>
       </c>
     </row>
@@ -6838,18 +6270,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>[5902, 125900, 126000, 125800, 108700, 106000, 107500, 107600, 108600, 8400, 8500, 108900, 108800, 109700, 109400, 9500, 9600, 107400, 110100, 110200, 110400]</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>[6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09]</t>
+          <t>27_053_005902, 27_053_125900, 27_053_126000, 27_053_125800, 27_053_108700, 27_053_106000, 27_053_107500, 27_053_107600, 27_053_108600, 27_053_008400, 27_053_008500, 27_053_108900, 27_053_108800, 27_053_109700, 27_053_109400, 27_053_009500, 27_053_009600, 27_053_107400, 27_053_110100, 27_053_110200, 27_053_110400</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09</t>
         </is>
       </c>
     </row>
@@ -6890,22 +6316,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6944,22 +6356,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6998,22 +6396,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7052,22 +6436,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7106,22 +6476,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7160,22 +6516,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7214,22 +6556,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7268,22 +6596,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7322,22 +6636,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7376,22 +6676,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7430,22 +6716,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7484,22 +6756,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7538,22 +6796,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7592,22 +6836,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7646,22 +6876,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7700,22 +6916,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7754,22 +6956,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7808,22 +6996,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7862,22 +7036,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7916,22 +7076,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7970,22 +7116,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8024,22 +7156,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8078,22 +7196,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8132,22 +7236,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8186,22 +7276,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8240,22 +7316,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8294,22 +7356,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8348,22 +7396,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8402,22 +7436,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8456,22 +7476,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8510,22 +7516,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8564,22 +7556,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8618,22 +7596,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8672,22 +7636,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8726,22 +7676,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8780,22 +7716,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8834,22 +7756,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8888,22 +7796,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8942,22 +7836,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8996,22 +7876,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9050,22 +7916,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9104,22 +7956,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9158,22 +7996,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9212,22 +8036,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9266,22 +8076,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9320,22 +8116,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9374,22 +8156,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9428,22 +8196,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9482,22 +8236,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9536,22 +8276,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9590,22 +8316,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9644,22 +8356,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9698,22 +8396,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9754,18 +8438,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>[405000, 403300, 405401, 403900, 406100, 405700, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>[0.44892901688369646, 0.4860443219627527, 1.0, 0.9614218534734278, 0.006246681943513278, 0.42716732859389106, 0.7301875375370571, 0.07386450709824258, 0.0003558713564433113, 0.00037986518468984925, 0.000816199710589858, 1.0, 0.12292428028382218, 0.9887989302384722, 0.7217635439807267, 0.9917195162230201, 0.965110899130757, 0.004842168321197998, 0.7881097170131135, 0.06995574665824546, 0.9914983863211025, 0.9999999999999999, 0.9932307963502839, 0.12839039219229662, 0.0024505301492987706, 0.9925872439747344, 0.05255546479841337, 1.0, 0.33262755923613835, 1.0584676909892966e-05]</t>
+          <t>06_001_405800, 06_001_405000, 06_001_405200, 06_001_403702, 06_001_405500, 06_001_403600, 06_001_403800, 06_001_427300, 06_001_403300, 06_001_427200, 06_001_405902, 06_001_983200, 06_001_405700, 06_001_405600, 06_001_404900, 06_001_403900, 06_001_403000, 06_001_406100, 06_001_403400, 06_001_426100, 06_001_405901, 06_001_405402, 06_001_405100, 06_001_405401, 06_001_405302, 06_001_405301, 06_001_426200, 06_001_406000</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>0.9952880623076337, 0.4378001181667679, 0.7847996203331418, 0.04542214846687625, 1.0000000000000002, 0.1320573417385416, 0.9850241105829701, 0.06462175558780911, 0.49077297438426537, 0.10091813795598943, 0.9999999999999999, 2.6105571985622473e-05, 0.4292787837107661, 0.9873103067811967, 0.00022522891163629573, 0.9529190044600623, 0.9674748391119764, 0.0020295329905437543, 0.06806484793622208, 3.7036027812494794e-09, 0.9952446864687264, 1.0000000000000002, 0.984850702384667, 0.9999999999999991, 0.7295141656242969, 0.348053315026737, 4.552120587293933e-07, 0.7335640624663884</t>
         </is>
       </c>
     </row>
@@ -9808,18 +8486,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>[0.7645935973321921, 0.6051995434386682, 0.9788964128519579, 0.9998619152754435, 0.0004070274593684326, 0.9970452673752833, 0.10464123487881022, 0.01156552989184899, 0.12484092157187544, 0.9997176928528252, 0.22396852451477223, 0.99891819645774, 0.8652205961895646, 0.15661427450695206, 0.0029940024042560283, 0.7949380516082937, 0.2170941280860057, 0.004933188299563975, 0.0011003421866174008, 0.15860436607921663, 0.0006646815243906276, 0.9518975244578656, 0.9999999999999999, 0.03984052360928679, 1.0000000000000002, 0.3743142943374305, 0.9863459607967624, 0.11024574671034577, 1.0000000000000004, 0.013941000447866912]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>0.0010627951810134944, 0.0032080397254399384, 0.993112484386575, 0.0007475180264288983, 0.9768473329237397, 0.0046865704888829724, 0.21643572257431073, 0.15797562042945423, 0.15387895627562354, 1.0000000000000002, 0.8567996227969332, 1.0000000000000016, 0.7949353764356766, 0.999856825323569, 0.9971579848201868, 0.01429700673269928, 0.03994289435815528, 0.9947709841951301, 0.10117740112736485, 7.940893419061824e-06, 0.004739592986611635, 0.3728272133471886, 0.10994418133286858, 0.6065121781936023, 0.7686769910093971, 0.9925747496879975, 0.9528231915931671, 0.2234250900543962, 1.0, 0.1252607257949974</t>
         </is>
       </c>
     </row>
@@ -9862,18 +8534,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 407000, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9940288312251222, 0.0020317003369639763, 0.0081767422394515, 0.49004362017135744, 0.20270497932548565, 0.00013808472456259066, 1.0, 0.6267215454644371, 0.0066874897365231094, 1.0, 0.13477940381050368, 0.8433857254929633, 0.01727177655208233, 0.7829058719140024, 0.9748511444408519, 0.026153772976961313, 0.43961375917380885, 0.0018219683818578955, 1.0000000000000002, 0.3717979962153727, 0.9601594763905816, 0.01321694128434464, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407000, 06_001_407500, 06_001_409900, 06_001_408900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>0.48476821111441337, 0.004975039697081066, 0.003367581038624064, 0.9999999999999998, 0.9999999999999996, 0.20360320312677593, 0.9774894338168824, 1.0000000000000007, 1.0, 0.7835642774256821, 0.4401746928546635, 0.8461210437243714, 0.14320037720307371, 0.016976825902408243, 0.00014317467643169216, 0.9600571056418401, 0.0037130378989467033, 0.0066021870784924355, 0.36782909526796337, 0.016090165369109077, 0.003407639375664441, 0.6301285236889191, 0.9995195311643544, 0.9999999999999999</t>
         </is>
       </c>
     </row>
@@ -9916,18 +8582,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>[354001, 401400, 400500, 404501, 403900, 404000, 400600, 400100, 426100, 422000, 400900, 400700, 400800, 400200, 400300, 423902, 404200, 421600, 400400, 401000, 404400, 401200, 401300, 401100, 353001, 423901, 423700, 423800, 424001, 424002, 426200, 425104, 404102, 425103, 404101, 404300, 403501]</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>[0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06]</t>
+          <t>06_013_354001, 06_001_401400, 06_001_400500, 06_001_404501, 06_001_403900, 06_001_404000, 06_001_400600, 06_001_400100, 06_001_426100, 06_001_422000, 06_001_400900, 06_001_400700, 06_001_400800, 06_001_400200, 06_001_400300, 06_001_423902, 06_001_404200, 06_001_421600, 06_001_400400, 06_001_401000, 06_001_404400, 06_001_401200, 06_001_401300, 06_001_401100, 06_013_353001, 06_001_423901, 06_001_423700, 06_001_423800, 06_001_424001, 06_001_424002, 06_001_426200, 06_001_425104, 06_001_404102, 06_001_425103, 06_001_404101, 06_001_404300, 06_001_403501</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06</t>
         </is>
       </c>
     </row>
@@ -9970,18 +8630,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>[401400, 401500, 402400, 401600, 402200, 402500, 402600, 402700, 403000, 403100, 403900, 404000, 403600, 406000, 401800, 401000, 401200, 401300, 401100, 402900, 427300, 401700, 983200, 410500, 425104, 981900, 428700, 403701, 982000, 403702, 425101, 403502, 403401, 403402, 403302, 402801, 402802, 403301, 405200, 990000, 990200, 403501]</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>[0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759]</t>
+          <t>06_001_401400, 06_001_401500, 06_001_402400, 06_001_401600, 06_001_402200, 06_001_402500, 06_001_402600, 06_001_402700, 06_001_403000, 06_001_403100, 06_001_403900, 06_001_404000, 06_001_403600, 06_001_406000, 06_001_401800, 06_001_401000, 06_001_401200, 06_001_401300, 06_001_401100, 06_001_402900, 06_001_427300, 06_001_401700, 06_001_983200, 06_001_410500, 06_001_425104, 06_001_981900, 06_001_428700, 06_001_403701, 06_001_982000, 06_001_403702, 06_001_425101, 06_001_403502, 06_001_403401, 06_001_403402, 06_001_403302, 06_001_402801, 06_001_402802, 06_001_403301, 06_001_405200, 06_001_990000, 06_075_990200, 06_001_403501</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759</t>
         </is>
       </c>
     </row>
@@ -10024,18 +8678,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>[409000, 426100, 405000, 406000, 407500, 408700, 408800, 407200, 407300, 407400, 407600, 427100, 427200, 406500, 406601, 405600, 406400, 405700, 405800, 404700, 404800, 404900, 406602, 407101, 407102, 406201, 406202, 406300, 406100]</t>
-        </is>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>[0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101]</t>
+          <t>06_001_409000, 06_001_426100, 06_001_405000, 06_001_406000, 06_001_407500, 06_001_408700, 06_001_408800, 06_001_407200, 06_001_407300, 06_001_407400, 06_001_407600, 06_001_427100, 06_001_427200, 06_001_406500, 06_001_406601, 06_001_405600, 06_001_406400, 06_001_405700, 06_001_405800, 06_001_404700, 06_001_404800, 06_001_404900, 06_001_406602, 06_001_407101, 06_001_407102, 06_001_406201, 06_001_406202, 06_001_406300, 06_001_406100</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101</t>
         </is>
       </c>
     </row>
@@ -10078,18 +8726,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>[410000, 432800, 409000, 409800, 408100, 410300, 409900, 408300, 409200, 409300, 408500, 408600, 408800, 408900, 409100, 409400, 409500, 409600, 409700, 410100, 410200, 410400, 407300, 428301, 432100, 430400, 433400, 430102, 432200, 432300, 432700, 432502, 990100, 990000, 432400]</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>[0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261]</t>
+          <t>06_001_410000, 06_001_432800, 06_001_409000, 06_001_409800, 06_001_408100, 06_001_410300, 06_001_409900, 06_001_408300, 06_001_409200, 06_001_409300, 06_001_408500, 06_001_408600, 06_001_408800, 06_001_408900, 06_001_409100, 06_001_409400, 06_001_409500, 06_001_409600, 06_001_409700, 06_001_410100, 06_001_410200, 06_001_410400, 06_001_407300, 06_001_428301, 06_001_432100, 06_001_430400, 06_001_433400, 06_001_430102, 06_001_432200, 06_001_432300, 06_001_432700, 06_001_432502, 06_081_990100, 06_001_990000, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261</t>
         </is>
       </c>
     </row>
@@ -10132,18 +8774,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>[402900, 405000, 403300, 405401, 403900, 406100, 405700, 404000, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 406400, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>[0.0004999497275502113, 0.49863585293245516, 0.4858514297698514, 1.0, 0.9987668969721312, 0.004724218362421146, 0.42150372211992154, 0.0016857449174700815, 0.7243164529541289, 0.15792098592982368, 0.0001872956113276651, 0.0027054803100405363, 0.0015957614900758623, 1.0, 0.10648623467539323, 0.9874504505049675, 0.9963304091068981, 0.9971933424007746, 0.9709093150691882, 0.007436566736748314, 0.9999991476924319, 0.011282786161414435, 0.9996797271803898, 0.9999999999999999, 0.9973402770218983, 0.0028439953747610505, 0.005670683863005139, 0.9956559817414493, 0.2151532534283385, 1.0, 4.425473547037609e-09, 0.9964913749893776, 0.00016370775906020236]</t>
+          <t>06_001_405800, 06_001_402900, 06_001_405000, 06_001_405200, 06_001_403702, 06_001_405500, 06_001_403600, 06_001_403800, 06_001_427300, 06_001_403300, 06_001_406300, 06_001_427200, 06_001_405902, 06_001_983200, 06_001_405700, 06_001_405600, 06_001_404900, 06_001_406201, 06_001_403900, 06_001_403000, 06_001_406100, 06_001_403400, 06_001_426100, 06_001_405901, 06_001_405402, 06_001_404000, 06_001_405100, 06_001_405401, 06_001_405302, 06_001_405301, 06_001_426200, 06_001_406000</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
     </row>
@@ -10186,18 +8822,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>[0.7677292811622569, 0.4878513641825002, 0.9875376727646378, 0.9999999999999999, 0.0013002576386151583, 0.9994196817902945, 0.0343692404845977, 0.0036141994136472317, 0.15227970869144272, 0.9946933827419492, 0.45190103534390486, 0.9973412159111323, 0.8653970758995685, 0.0052912416775965105, 0.0034409974255693453, 0.5764479705398784, 0.12378770134065104, 0.0063408794050916865, 0.0015485555719296463, 0.1633593692005633, 0.00014963309253527605, 0.999771354049716, 0.9999999999999999, 0.0796154101334587, 1.0000000000000002, 0.3756858239392752, 0.9884702074019383, 0.11177113229951395, 1.0000000000000004, 4.240015250145095e-06]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
     </row>
@@ -10240,18 +8870,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409000, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>[0.9999827045210273, 0.994308186917521, 4.4661900667418554e-05, 0.006075786241988535, 0.2861474234149392, 0.20437778708245594, 0.9999998755945416, 0.6232914417410853, 9.319125075570363e-05, 0.9998436596898741, 0.13460292410043967, 0.9947087583223345, 0.2362410598575429, 0.8762122986592544, 0.9907343149304814, 0.025977144002550884, 0.4363877858902382, 0.0004213552431639612, 1.0000000000000002, 1.984418283882492e-06, 0.3707235533165565, 0.9203795706572192, 0.01061615781161689, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407500, 06_001_409900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
     </row>
@@ -10294,18 +8918,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 403600, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 404502, 401100, 425104, 423800, 422600, 400100, 400800, 401200, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>[8.108544361627887e-05, 0.013812172951728242, 1.0000000000000002, 1.0, 0.9997175244314838, 0.005203684315170878, 0.004312486902487608, 0.0042931082233909615, 0.992062648036296, 0.9980779162368354, 0.0009432222363002836, 0.948870355376314, 0.00015148367872345393, 0.008881876189025983, 0.9982870009037823, 0.0023039623444210864, 0.0028028762152057193, 6.528512258157975e-06, 0.00019656834224763496, 0.7704347310246301, 0.9986627440618165, 0.9964681151240459, 0.0071908945579712965, 0.035903831202976105, 0.9888273767207144, 0.9999999937752034, 0.005498848901854908, 0.01464034145770446, 0.008089361797761764, 0.04604019315987436, 0.8407680826044995, 0.030546016845849767, 0.0028738792749451276, 3.021589114891565e-05, 0.9846245072264328, 0.994449593364898, 0.9085580501752115, 0.9997453284368248, 0.015978863821291548, 0.9958405820623568]</t>
+          <t>06_013_354001, 06_013_353001, 06_001_423800, 06_001_421600, 06_001_404300, 06_001_425103, 06_001_404102, 06_001_404501, 06_001_424001, 06_001_403501, 06_001_403600, 06_001_400500, 06_001_423700, 06_001_425104, 06_001_401300, 06_001_404200, 06_001_403900, 06_001_400600, 06_001_426100, 06_001_400800, 06_001_404000, 06_001_400700, 06_001_400200, 06_001_400300, 06_001_404101, 06_001_401100, 06_001_401400, 06_001_404502, 06_001_426200, 06_001_401000, 06_001_400900, 06_001_400100, 06_001_404400, 06_001_400400, 06_001_401200, 06_001_423902, 06_001_423901, 06_001_424002, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>0.014696611122848353, 0.005030362273846488, 0.0028318223805199327, 0.002684398779517433, 0.994760884632867, 0.007026289953628835, 0.9999999947898024, 0.004493804394021167, 0.017620070334289684, 0.006738376431197547, 0.00018522633118634943, 0.9971116248390315, 0.01618011059289278, 0.022306701564252084, 9.439148932459096e-05, 0.9874644890510079, 0.0064239404802395985, 1.0000000000000007, 0.0024603391880098323, 0.9852659489062447, 0.9434900352039545, 0.9877417101648296, 0.9861028142876566, 0.9999999999999997, 0.9948239859199954, 0.8380022117928736, 0.004561300071685791, 0.045786739079560816, 0.002504211647361193, 0.9993926450405061, 0.9735873844760757, 0.9850083083226198, 0.7701520394635946, 0.9980947826892871, 0.9086246526957307, 0.024036287718993743, 0.010577661024551032, 0.03258096695276012, 0.00017404507978708433, 0.007128817371318812</t>
         </is>
       </c>
     </row>
@@ -10348,18 +8966,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 17902, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 0.04925135571359105, 0.9992497039443016, 0.9999999999999998, 0.9999189145562911, 0.5139556780373109, 0.00020075771346711783, 0.994796315684734, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 0.01180872740393969, 1.0, 0.9999999999999998, 0.004452239746500897, 0.9261354929017194, 0.9971971237849557, 0.8768791513738948, 0.9999999999999996, 1.0, 0.2782364560191839, 1.0, 0.03488910086935647, 1.0000000000000002, 0.27417102515272274, 0.21189028298671833, 0.033284627494764935, 0.9997419374624053, 0.15923191739547352, 8.784094243099689e-05, 0.9999999999999996, 0.9474445352016585, 0.09144194982491595, 0.6673724407643923, 0.9999894153231295]</t>
+          <t>06_001_402900, 06_001_402200, 06_001_405200, 06_001_403702, 06_001_403701, 06_001_403502, 06_001_403501, 06_001_428700, 06_001_981900, 06_001_403600, 06_001_427300, 06_001_403100, 06_001_403300, 06_001_425104, 06_001_410500, 06_001_983200, 06_001_982000, 06_001_402500, 06_001_401300, 06_001_402700, 06_001_403000, 06_001_403400, 06_001_401600, 06_001_402400, 06_001_402800, 06_001_401800, 06_001_402600, 06_001_404000, 06_001_401500, 06_001_405302, 06_001_405301, 06_001_990000, 06_001_401100, 06_001_401400, 06_001_406000, 06_001_401000, 06_001_401200, 06_001_401700, 06_075_017902</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>0.9999999999999998, 1.0000000000000007, 0.2152003796668561, 0.9545778515330581, 1.0, 0.9999999999999998, 0.9932616235687987, 0.03777243320466729, 1.0000000000000009, 0.8677574319302781, 0.033560411657890386, 1.0000000000000004, 0.5092270256157329, 0.0042002882635206115, 1.0000000000000002, 0.9999738944280142, 1.0, 1.0000000000000004, 0.9999056085106456, 1.0000000000000002, 0.03252516088801953, 0.9319351520637771, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.006806481329788015, 0.9997867169868059, 0.2704858343756534, 0.6519466849733234, 0.03539559412975538, 0.16199778820715693, 0.9954386999283149, 0.003924654573319967, 0.0004052623256769898, 0.09137534730426908, 0.9677157491620743, 0.04267586814465963</t>
         </is>
       </c>
     </row>
@@ -10402,18 +9014,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>[406601, 405000, 406602, 407300, 406100, 405700, 404700, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 428301, 406300, 407600, 406202, 405100, 407400, 405901, 409000, 427200, 407102, 406201, 407101, 405800, 406400]</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>[0.23540640266772153, 0.5497024752693102, 0.3948004565615807, 0.4842929423487521, 0.9937533180564817, 0.5728326714061863, 0.0001429729449257285, 0.04609872592682563, 0.9999999999999997, 0.26536022271642684, 0.8949595823096742, 0.00031078166367081003, 0.8751590784281726, 0.01120106976153418, 0.00028230714706211854, 2.5736251112413705e-05, 0.9951578316789268, 0.18779017183963181, 0.9999999999999998, 0.0018644331036478078, 0.4017818747471255, 0.006769203649743787, 0.0018531227793883952, 0.0487733469864914, 0.6256857056625664, 0.9975494698507898, 0.8897542532895898, 0.007412756025164851, 0.9860589995519746]</t>
+          <t>06_001_405800, 06_001_407300, 06_001_405000, 06_001_409000, 06_001_407400, 06_001_427100, 06_001_407600, 06_001_406300, 06_001_427200, 06_001_406202, 06_001_404800, 06_001_406400, 06_001_405700, 06_001_405600, 06_001_404700, 06_001_404900, 06_001_406201, 06_001_406100, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_405901, 06_001_407200, 06_001_406000, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>0.004711937692338354, 0.4887322319766512, 0.5535479150538906, 0.001588352692283609, 0.4018496867158882, 0.009068279544011527, 0.18808779766192243, 1.0000000000000009, 0.04187921326680131, 0.9999999999999997, 0.002842015179801912, 0.9857029932673116, 0.5707212162892621, 0.01268969321880255, 1.2395538817160178e-05, 0.8981779823454001, 1.0000000000000002, 0.9939000792143817, 1.150443299756236e-07, 0.6271727866528022, 0.8900558186671315, 0.3934878218063907, 0.23132300899060138, 0.00475531353127123, 1.0000000000000002, 0.2625112829603036, 0.8747392742050064</t>
         </is>
       </c>
     </row>
@@ -10456,18 +9062,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>[410400, 408300, 409500, 409900, 407300, 409700, 408800, 410200, 432400, 409100, 410000, 410300, 408900, 409200, 410100, 432502, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>[0.9996644218110333, 0.0059711687749702674, 0.9979682996631221, 0.9918071992521879, 0.025663437479815934, 0.7972950206744407, 0.3732784545355358, 0.9998173882034194, 0.019151235726654867, 1.0, 0.9184047907226011, 1.0000000000000002, 0.993312510263488, 0.9806545207207364, 0.9999196764677503, 0.00705355752482992, 0.021227082233637888, 0.0012241060153903231, 0.9738462270230294, 0.0610951738914894, 0.0012068399726919978, 0.9956131822847882, 0.9702879937328869, 0.6282020037845263, 0.0013771031367038687, 0.000671669394001139, 1.0, 0.0014030294100334838]</t>
+          <t>06_081_990100, 06_001_432200, 06_001_407300, 06_001_430102, 06_001_410300, 06_001_409400, 06_001_409000, 06_001_409700, 06_001_408100, 06_001_428301, 06_001_409100, 06_001_410000, 06_001_410400, 06_001_409900, 06_001_410200, 06_001_432800, 06_001_408900, 06_001_410100, 06_001_432502, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_990000, 06_001_408800, 06_001_409200, 06_001_432300, 06_001_409300, 06_001_408300, 06_001_432400, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>1.3665280109173466e-05, 0.0008407266239658177, 0.02459553982269143, 6.15095392641679e-05, 1.0000000000000004, 1.0000000000000004, 0.9683791755711295, 0.7963967968732273, 6.477941319269415e-06, 0.053393686509186945, 1.0000000000000004, 0.8952271556865586, 0.9999772994042383, 0.979183543644267, 0.9998240965522985, 0.003380754294167634, 0.9933978129215112, 0.9997593509575978, 3.3962346957954694e-05, 0.6321709047320416, 0.9839098346308706, 0.9965923606243321, 0.2684011219594302, 0.3698714763110789, 0.9757785131907507, 0.004487644352867498, 0.9972969991686669, 0.0004804688356651006, 0.018349581497950226, 0.023104188687024983</t>
         </is>
       </c>
     </row>
@@ -10510,18 +9110,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>[402900, 405000, 403300, 405401, 403900, 406100, 405700, 404000, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 406400, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>[0.0004999497275502113, 0.49863585293245516, 0.4858514297698514, 1.0, 0.9987668969721312, 0.004724218362421146, 0.42150372211992154, 0.0016857449174700815, 0.7243164529541289, 0.15792098592982368, 0.0001872956113276651, 0.0027054803100405363, 0.0015957614900758623, 1.0, 0.10648623467539323, 0.9874504505049675, 0.9963304091068981, 0.9971933424007746, 0.9709093150691882, 0.007436566736748314, 0.9999991476924319, 0.011282786161414435, 0.9996797271803898, 0.9999999999999999, 0.9973402770218983, 0.0028439953747610505, 0.005670683863005139, 0.9956559817414493, 0.2151532534283385, 1.0, 4.425473547037609e-09, 0.9964913749893776, 0.00016370775906020236]</t>
+          <t>06_001_405800, 06_001_402900, 06_001_405000, 06_001_405200, 06_001_403702, 06_001_405500, 06_001_403600, 06_001_403800, 06_001_427300, 06_001_403300, 06_001_406300, 06_001_427200, 06_001_405902, 06_001_983200, 06_001_405700, 06_001_405600, 06_001_404900, 06_001_406201, 06_001_403900, 06_001_403000, 06_001_406100, 06_001_403400, 06_001_426100, 06_001_405901, 06_001_405402, 06_001_404000, 06_001_405100, 06_001_405401, 06_001_405302, 06_001_405301, 06_001_426200, 06_001_406000</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
     </row>
@@ -10564,18 +9158,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>[0.7677292811622569, 0.4878513641825002, 0.9875376727646378, 0.9999999999999999, 0.0013002576386151583, 0.9994196817902945, 0.0343692404845977, 0.0036141994136472317, 0.15227970869144272, 0.9946933827419492, 0.45190103534390486, 0.9973412159111323, 0.8653970758995685, 0.0052912416775965105, 0.0034409974255693453, 0.5764479705398784, 0.12378770134065104, 0.0063408794050916865, 0.0015485555719296463, 0.1633593692005633, 0.00014963309253527605, 0.999771354049716, 0.9999999999999999, 0.0796154101334587, 1.0000000000000002, 0.3756858239392752, 0.9884702074019383, 0.11177113229951395, 1.0000000000000004, 4.240015250145095e-06]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
     </row>
@@ -10618,18 +9206,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409000, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>[0.9999827045210273, 0.994308186917521, 4.4661900667418554e-05, 0.006075786241988535, 0.2861474234149392, 0.20437778708245594, 0.9999998755945416, 0.6232914417410853, 9.319125075570363e-05, 0.9998436596898741, 0.13460292410043967, 0.9947087583223345, 0.2362410598575429, 0.8762122986592544, 0.9907343149304814, 0.025977144002550884, 0.4363877858902382, 0.0004213552431639612, 1.0000000000000002, 1.984418283882492e-06, 0.3707235533165565, 0.9203795706572192, 0.01061615781161689, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407500, 06_001_409900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
     </row>
@@ -10672,18 +9254,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 401100, 425104, 423800, 400100, 400800, 401200, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>[2.656209932681672e-05, 0.01112123489363668, 1.0000000000000002, 1.0, 0.9977244426022931, 0.002952584727418623, 0.00026767918881271286, 0.0019107257353898047, 0.9970257984630003, 0.9992411667912338, 0.003022693754780759, 0.9680351080719733, 0.0004576310444903695, 0.012895325220125693, 0.9991369618634541, 0.004587311345210553, 1.3595576217647143e-08, 2.590665602298652e-05, 0.5470567456152344, 0.9984706035248687, 0.9964772950395623, 0.0013424026365416633, 0.03218910294001414, 0.9958706707417351, 0.9999999999999999, 0.0020897682144825204, 0.007188464292424194, 0.01797643756265914, 0.8342022863835278, 0.006525690020902253, 0.0026608621812159194, 0.9916029318356501, 0.9926343779854776, 0.9062776786431412, 0.999529996946345, 0.015989876772205595, 0.997581286700642]</t>
+          <t>06_013_354001, 06_013_353001, 06_001_423800, 06_001_421600, 06_001_404300, 06_001_425103, 06_001_404102, 06_001_404501, 06_001_424001, 06_001_403501, 06_001_400500, 06_001_423700, 06_001_425104, 06_001_401300, 06_001_404200, 06_001_403900, 06_001_400600, 06_001_426100, 06_001_400800, 06_001_404000, 06_001_400700, 06_001_401500, 06_001_400200, 06_001_400300, 06_001_404101, 06_001_401100, 06_001_401400, 06_001_426200, 06_001_401000, 06_001_400900, 06_001_400100, 06_001_404400, 06_001_400400, 06_001_401200, 06_001_423902, 06_001_423901, 06_001_424002, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>0.0067887205079617055, 0.0015391255728193192, 0.0020552173694893166, 0.002680472593695675, 0.9947700098967562, 0.0013036741774581574, 1.0000000000000002, 0.0005993884095856405, 0.01931626062404116, 2.6182091213769463e-06, 0.9960514126878179, 0.02531315565161337, 0.005634643724556976, 6.991874059631552e-06, 0.9936781052052928, 0.0011873331042474493, 1.0000000000000007, 0.0044628337844955885, 0.981938027986616, 0.9762498585231889, 0.9879093703428604, 2.0664788211457506e-05, 0.9858031592111738, 0.9999999999999997, 0.9976728213953011, 0.8314362094571293, 0.00024251822271030292, 0.004397440709882871, 0.991497511432827, 0.9812135951851498, 0.9918698878032208, 0.5467439193823153, 0.9985930776454361, 0.9064150840599814, 0.036445388889006856, 0.011963736718719427, 0.03215493905107363, 0.004475913618253192, 0.006397957003133912</t>
         </is>
       </c>
     </row>
@@ -10726,18 +9302,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 403900, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>[0.9995000502724857, 1.0, 0.0253306837873711, 0.9996341558474179, 0.9999999999999998, 0.9999734379005675, 0.5141485702300945, 0.0012191281292634267, 0.9970474152727935, 0.9999999999999998, 0.000589477744066462, 1.0, 1.0, 0.9999999999999998, 0.9995900384245058, 0.03027914701030403, 1.0, 0.9999999999999998, 0.0011003194203217295, 0.842079014070031, 0.9999999864044794, 0.893513765324486, 0.999978748455835, 1.0, 0.0036695908932477973, 1.0, 0.02909068493069756, 1.0000000000000002, 8.523077183612521e-07, 0.0030561554299491337, 0.9970874836287933, 0.16579771361665702, 0.0016275722910100705, 0.9999999999999996, 0.7848467465713239, 0.09372232135680356, 0.003508625010712741, 0.9961816118836267]</t>
+          <t>06_001_402900, 06_001_402200, 06_001_405200, 06_001_403702, 06_001_403701, 06_001_403502, 06_001_403501, 06_001_428700, 06_001_981900, 06_001_403600, 06_001_427300, 06_001_403100, 06_001_403300, 06_001_425104, 06_001_410500, 06_001_983200, 06_001_982000, 06_001_402500, 06_001_401300, 06_001_402700, 06_001_403900, 06_001_403000, 06_001_403400, 06_001_401600, 06_001_402400, 06_001_402800, 06_001_401800, 06_001_402600, 06_001_404000, 06_001_401500, 06_001_990000, 06_001_401100, 06_001_401400, 06_001_406000, 06_001_401000, 06_001_401200, 06_001_401700, 06_075_017902</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>0.9999775267963873, 1.0000000000000007, 9.55664440407178e-07, 0.8045967547440328, 1.0, 0.9999999999999998, 0.9999973817908929, 0.019749243196765794, 0.9891519237905889, 0.8859566876617134, 0.003082019355126612, 1.0000000000000004, 0.5105950861278049, 0.004161178477387086, 1.0000000000000002, 0.9782634868157625, 0.9995919690720226, 1.0000000000000004, 0.9999930081259307, 1.0000000000000002, 7.44717627738628e-05, 0.025879207965284697, 0.8403073967360203, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.01827835898736466, 0.999206580894849, 0.03380514233231011, 0.1685637905428793, 0.999757481777288, 0.0011246725436768823, 3.167127921880509e-05, 0.09358491594001864, 0.9631774290340557, 2.221911384119028e-05</t>
         </is>
       </c>
     </row>
@@ -10780,18 +9350,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>[406601, 405000, 406602, 407300, 406100, 405700, 408700, 404700, 408800, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 406300, 407600, 406202, 407400, 405901, 409000, 427200, 407500, 407102, 406201, 407101, 405800, 406400]</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>[0.23227071883764688, 0.5010254794742202, 0.5121486358176096, 0.6871348099812029, 0.9919093290425203, 0.5784962778800438, 1.2440552408659218e-07, 0.00014512105496026562, 0.0005224128254900748, 0.00016848831826374484, 0.9999999999999997, 0.2709636051965051, 0.9653726721550996, 3.895245878793784e-05, 0.8477202913086438, 0.012549549495068268, 0.005306617257858696, 0.9925634332629887, 0.18731096960271862, 0.9999999999999998, 0.40025284490916957, 0.002659722978040269, 0.00022690254096742625, 0.013260592417478838, 5.019209249383257e-06, 0.6243141760606364, 0.9943293161372108, 0.8882288677006079, 0.004344018258693942, 0.9999957555592354]</t>
+          <t>06_001_405800, 06_001_407300, 06_001_405000, 06_001_409000, 06_001_408700, 06_001_407400, 06_001_427100, 06_001_407600, 06_001_406300, 06_001_427200, 06_001_406202, 06_001_404800, 06_001_406400, 06_001_405700, 06_001_405600, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_406201, 06_001_406100, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_407200, 06_001_408800, 06_001_406000, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>8.131151498200891e-05, 0.681097803525554, 0.5013290407176527, 0.00014880324660171364, 1.262814850403896e-07, 0.39993838067849724, 2.1792518141814564e-06, 0.18761087952481248, 0.9984885515205657, 0.010751439978086067, 0.9999999999999997, 0.0026978699299492906, 0.9999972886713988, 0.57694024336863, 0.014046258597891277, 0.00010561105151224253, 5.134783543136277e-06, 0.9719253971701786, 0.9975019472717495, 0.9814152136362709, 6.759349948789213e-08, 0.6257852059000748, 0.8885609747819786, 0.5117493707375023, 0.22812829855554553, 1.0000000000000002, 0.0007063584443686103, 0.26352978056923343, 0.847381754678294</t>
         </is>
       </c>
     </row>
@@ -10834,18 +9398,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>[410400, 408600, 408300, 409500, 409900, 407300, 409700, 408800, 430400, 410200, 432400, 409100, 410000, 410300, 408900, 432700, 409200, 410100, 432502, 408500, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>[0.9999248830771386, 1.7295479037207908e-05, 0.005691813082554984, 0.9999553380992199, 0.9927720174013653, 0.025273013853144483, 0.7956222129176046, 0.37618614543318385, 0.00037014235429576846, 1.0, 0.0027721275430710904, 1.0, 0.9939318350694749, 1.0000000000000002, 0.999906808749302, 1.1449734166373166e-05, 0.9828536924412588, 0.9999999999999993, 0.0074222227939128365, 0.00015634031004601367, 0.002211363708426982, 0.0019577360449498614, 0.9740228559973743, 0.00963000516489857, 0.0004179181992460182, 0.9961274735203688, 0.99767417190505, 0.629276446683574, 0.0017004386052384877, 0.001322049330742177, 1.0, 0.0015856808739012848]</t>
+          <t>06_081_990100, 06_001_432200, 06_001_407300, 06_001_430102, 06_001_410300, 06_001_409400, 06_001_409000, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_428301, 06_001_409100, 06_001_410000, 06_001_410400, 06_001_409900, 06_001_410200, 06_001_430400, 06_001_432800, 06_001_408900, 06_001_410100, 06_001_432502, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_990000, 06_001_408800, 06_001_409200, 06_001_432700, 06_001_432300, 06_001_409300, 06_001_408300, 06_001_432400, 06_001_432100, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>8.423374311592529e-05, 0.00165875609493979, 0.024194917817344657, 0.0004223440120539605, 1.0000000000000004, 1.0000000000000004, 0.9891925664292057, 0.00011690761259118062, 0.794712721211581, 4.999566107763076e-05, 0.06729587734991234, 1.0000000000000004, 0.9580983620613143, 0.9999999999999998, 0.9620559925452943, 0.9999999999999992, 0.0038010496594105122, 0.0034430248701252768, 1.0000000000000002, 0.9998976502178915, 0.0005822471271876824, 0.6318002946917548, 0.9841869995496813, 0.9998747506510213, 0.2755325802534351, 0.3727769004151381, 0.9777668368562132, 7.64377439686442e-06, 0.005047772746822691, 0.997585548744643, 8.559335906251925e-05, 0.005436440140424442, 0.022254206261718857, 3.6348652515142584e-05</t>
         </is>
       </c>
     </row>
@@ -10888,18 +9446,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>[407900, 404501, 426100, 408100, 404502, 406800, 404200, 407500, 404400, 404600, 406700, 352202, 353001, 407800, 407000, 407400, 407600, 407700, 406900, 430102, 406500, 406601, 406400, 404700, 404800, 404900, 406602, 407101, 407102, 408000]</t>
-        </is>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>[0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443]</t>
+          <t>06_001_407900, 06_001_404501, 06_001_426100, 06_001_408100, 06_001_404502, 06_001_406800, 06_001_404200, 06_001_407500, 06_001_404400, 06_001_404600, 06_001_406700, 06_013_352202, 06_013_353001, 06_001_407800, 06_001_407000, 06_001_407400, 06_001_407600, 06_001_407700, 06_001_406900, 06_001_430102, 06_001_406500, 06_001_406601, 06_001_406400, 06_001_404700, 06_001_404800, 06_001_404900, 06_001_406602, 06_001_407101, 06_001_407102, 06_001_408000</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443</t>
         </is>
       </c>
     </row>
@@ -10942,18 +9494,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>[407900, 409800, 408100, 409900, 407500, 408300, 408200, 408400, 408500, 408600, 408700, 408800, 409500, 409600, 409700, 407800, 407300, 407400, 407600, 407700, 430102, 408000]</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>[0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05]</t>
+          <t>06_001_407900, 06_001_409800, 06_001_408100, 06_001_409900, 06_001_407500, 06_001_408300, 06_001_408200, 06_001_408400, 06_001_408500, 06_001_408600, 06_001_408700, 06_001_408800, 06_001_409500, 06_001_409600, 06_001_409700, 06_001_407800, 06_001_407300, 06_001_407400, 06_001_407600, 06_001_407700, 06_001_430102, 06_001_408000</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05</t>
         </is>
       </c>
     </row>
@@ -10996,18 +9542,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>[17101, 30102, 17000, 20300, 20900, 21800, 20700, 16900, 21200, 25403, 21700, 30700, 16700, 30600, 25500, 21000, 16802, 21600, 20600, 20100, 20200, 21300, 20500, 21100, 31100, 25300, 20800, 16600, 20401, 20402, 25401, 30500, 16801, 21400, 21500]</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>[0.3503896735514401, 0.023008799123136213, 1.0000000000000002, 0.9999999999999998, 2.6537000532297432e-08, 0.9990469733472814, 0.99998701777258, 0.9999999999999999, 1.0, 0.1005635634034962, 0.990273589398339, 0.047264554352751974, 0.5346540103522195, 0.0017623741855611035, 0.22960506959774646, 0.9992741999348456, 0.04609084787675142, 0.9999999999999998, 0.9999999999999998, 9.181000456505437e-05, 0.9767428083557762, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.10475204081545338, 0.07430764571091997, 3.0140319011620847e-05, 0.002619477700113977, 0.9971881854967231, 0.9629085355436405, 0.11916578525990915, 0.022888378719583543, 0.3797904090267644, 0.9999999999999998, 0.9841075073642729]</t>
+          <t>06_075_020402, 06_075_020401, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_031100, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030102, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_025403, 06_075_025300, 06_075_021800, 06_075_021700, 06_075_021600, 06_075_021500, 06_075_021400, 06_075_021300, 06_075_021200, 06_075_021100, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700, 06_075_020600, 06_075_020500, 06_075_020300, 06_075_020200, 06_075_020100, 06_075_017000, 06_075_016900, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>0.9999999442528883, 0.9999999927053078, 0.3692399307331839, 0.05274866631508789, 0.38979016136921685, 0.10476621348265346, 0.04217690321425691, 3.079395909939545e-09, 2.3094663320158384e-08, 0.025604998450001103, 4.689493804718978e-10, 0.22781070652827204, 0.12098433403733597, 0.09836804764151758, 0.07156972729952414, 0.9999999940858396, 0.9999999827998205, 1.0000000000000007, 0.9821714184844458, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999889698798, 2.9424547925814018e-08, 1.738590239859295e-08, 0.9999999644538484, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.9754794582051448, 2.1743388005457102e-08, 1.0000000000000002, 1.0000000000000004, 0.5384893405878782, 3.398841643592467e-09</t>
         </is>
       </c>
     </row>
@@ -11050,18 +9590,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>[26303, 26302, 26301, 26200, 31400, 26004, 31300, 26003, 26100, 60501, 33202, 31200, 26001, 26002, 25600, 31100, 25500, 31000, 25403, 30900, 25700, 25402]</t>
-        </is>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>[0.9999998285458631, 0.7972642961315073, 1.0000000000000004, 0.9999998376285542, 1.0000000000000004, 1.0, 0.7967023586771204, 0.9999993763127057, 0.9999999978950804, 1.1253327639875116e-07, 2.4038283984622432e-08, 0.9999996214481146, 1.0, 0.9999996905769362, 0.4376433219387634, 0.009206813304101261, 0.8143924706417089, 9.690141796811057e-09, 0.04177515626747946, 8.065851824374495e-08, 2.7510241803787617e-08, 6.582203262406357e-09]</t>
+          <t>06_081_600400, 06_081_600900, 06_081_600300, 06_075_026302, 06_081_600700, 06_075_060501, 06_075_033202, 06_075_031400, 06_075_031300, 06_075_031200, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_026303, 06_075_026200, 06_075_026100, 06_075_026003, 06_075_026301, 06_075_026004, 06_075_026001, 06_075_025700, 06_075_025600, 06_075_025500, 06_075_026002, 06_075_025403</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>0.0005602061175329288, 3.8444063437472435e-07, 0.0005586086056338702, 0.7842263095208227, 0.004022931670598173, 0.0023485870422829407, 1.562701010514177e-07, 0.9999999999999998, 0.7820194961950478, 0.9941797363290262, 0.017220601657677814, 0.000317398755831252, 1.1799689587402985e-05, 0.9860917642195737, 0.9982929502053794, 0.9998639559120752, 0.9999779635110253, 1.0000000000000002, 1.0000000000000004, 1.0, 7.826328143038642e-08, 0.4477733210016135, 0.8006185696434037, 0.998118870472423, 0.011804791402687215</t>
         </is>
       </c>
     </row>
@@ -11104,18 +9638,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>[15600, 15700, 15800, 15900, 16000, 15400, 42700, 42600, 15500, 15300, 40200, 15100, 42800, 15200, 40100, 13300, 13400, 11100, 13500, 13200, 11000, 13100, 13000, 10900, 12800, 12900, 10300, 12700, 12600, 10100, 60100, 10200]</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>[3.227321802937716e-07, 0.2594549027593552, 0.05223648319264765, 2.992598955828577e-08, 0.04699887448032189, 0.978839373749286, 0.09432257793474577, 5.313105298553834e-10, 0.050687714810928104, 0.06740386956372953, 0.36268924271503983, 0.9999973136791364, 0.9597625247663688, 8.491718716308437e-07, 0.4722050958912371, 0.9999999999999072, 0.9999998661942128, 5.498051945112921e-08, 0.9999998197912605, 1.0000000000000002, 1.3999336027600456e-08, 0.9999993490206444, 0.9999997530789335, 0.1841522632764399, 0.9999999999999996, 1.0000000000000004, 2.322695262066221e-07, 0.9999992948202432, 0.999999147779305, 3.382108227860237e-09, 0.9999999459693532, 0.9086609297330719]</t>
+          <t>06_075_012800, 06_075_012700, 06_075_012600, 06_075_012200, 06_075_012000, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010300, 06_075_010200, 06_075_060200, 06_075_060100, 06_075_042800, 06_075_042700, 06_075_042600, 06_075_040200, 06_075_040100, 06_075_016000, 06_075_015900, 06_075_015800, 06_075_015700, 06_075_015600, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013300, 06_075_013200, 06_075_013100, 06_075_013000, 06_075_012900</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>1.0000000000000002, 0.6867040819702476, 0.5895727322533277, 0.002922180399366483, 0.013524923666608393, 0.01378269598886616, 0.013669417879382402, 0.1985152695173839, 2.548763778191257e-05, 0.5837973125437702, 0.0022705329942490893, 0.22421655807031263, 0.621595238865661, 0.09584046991557975, 3.302127563200247e-05, 0.3594472607344193, 0.47582031966612637, 0.04795291927723393, 9.820116855877749e-08, 0.0535476764072527, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999985855508108, 0.9999999704312119, 1.0</t>
         </is>
       </c>
     </row>
@@ -11158,18 +9686,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>[12200, 12300, 12000, 12100, 15100, 11900, 11100, 17602, 11800, 11700, 11200, 11000, 11300, 13100, 11400, 11500, 10800, 13000, 10900, 10600, 10700, 10400, 10500, 10300, 10100, 10200]</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>[8.485739349921681e-07, 0.08355283625534811, 0.9999998567081017, 0.999999627475922, 1.404406145579764e-06, 1.0000000000000002, 0.9999999450195615, 2.4021171893647554e-07, 0.9999999999999999, 0.8572473643369581, 1.0000000000000004, 0.9999999860005161, 0.9999999999999997, 4.855624528508222e-07, 1.0, 0.9999999999999998, 1.0000000000000002, 2.4692103988865795e-07, 0.8158477367237896, 0.9999999999999994, 0.9999999999999997, 1.0, 0.999999455911033, 0.9999997677305855, 0.9947897248816817, 0.08068209747911617]</t>
+          <t>06_075_012300, 06_075_012200, 06_075_012100, 06_075_012000, 06_075_011900, 06_075_011800, 06_075_011700, 06_075_011500, 06_075_011400, 06_075_011300, 06_075_011200, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010800, 06_075_010700, 06_075_010600, 06_075_010500, 06_075_010400, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_017602, 06_075_015100, 06_075_013100, 06_075_013000</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>0.08355767118207177, 5.2826552385443266e-05, 0.9999820832863671, 0.9864732080552313, 1.0, 0.9999999999999996, 0.8608793360406464, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9862173040109711, 0.9863305821208065, 0.8014847304825179, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.5801636941237702, 0.9999999999999994, 0.9999745123621877, 0.05158677853637685, 0.5374008645960721, 0.007476291705122512, 9.666433859826426e-09, 2.6660324483794444e-08, 2.9568769163473905e-08</t>
         </is>
       </c>
     </row>
@@ -11212,18 +9734,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>[30500, 30301, 30102, 32600, 30201, 30202, 30101, 17100, 20200, 16600, 16700, 20100, 16500, 60300, 16800, 16400, 16300, 16200, 16100, 15700, 15800, 15900, 15400, 15500, 15300, 15100, 15200, 13400, 13500, 13100]</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>[1.2886007445635226e-09, 1.5325712343551347e-08, 0.14992287087894646, 4.022728456034608e-08, 0.6697619448446712, 0.7785687904394742, 0.9601627998617767, 0.8097631366468561, 5.370796547771715e-08, 0.9999999089834879, 0.46153751800100756, 1.2663330947888727e-10, 0.8746890588771665, 0.038282807170180115, 0.5013426831023877, 1.0, 0.9999999999999998, 0.4444421027109083, 0.7497290240920965, 0.1692138184524163, 0.9477635168073593, 0.6688158916528681, 0.02116050286425601, 0.9493122443669669, 0.932596130436176, 4.5568878412553214e-07, 0.9999991508281477, 1.3380580312598096e-07, 1.8020885426464244e-07, 1.654167904037796e-07]</t>
+          <t>06_075_060300, 06_075_016200, 06_075_032600, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020400, 06_075_020200, 06_075_020100, 06_075_017100, 06_075_016800, 06_075_016700, 06_075_016600, 06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_015900, 06_075_015800, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013100</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>0.018702469473304527, 0.45006430073764064, 0.0023304507041978805, 1.2553460605282223e-06, 2.514664070173659e-06, 0.7735093668677678, 0.15025012894624332, 0.9574990617506335, 0.6657529107595235, 4.4210189342696106e-06, 0.0011016441477576734, 0.0008848163156563995, 0.8097292189801456, 0.5046965486929511, 0.46154576309990397, 0.9999727890897248, 0.8747037267243013, 1.0000000000000002, 0.9999999999999999, 0.7496957822723437, 0.6772490944111489, 0.9464523235927322, 0.168145053194678, 0.9502125976412075, 0.021405124783285337, 0.9325223050505831, 0.9999343448530771, 5.349063532834948e-05, 2.4861156312483876e-05, 2.9994121425208322e-05, 1.3877889293075367e-06</t>
         </is>
       </c>
     </row>
@@ -11266,18 +9782,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>[26200, 31300, 26100, 33202, 31200, 33201, 31100, 25500, 31000, 33100, 30900, 30700, 33000, 30800, 21700, 30600, 35400, 35300, 30400, 32800, 30302, 30500, 30301, 20400, 30102, 32600, 30201, 30202, 30101, 60400]</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>[4.8175489469451924e-08, 0.2032976277698168, 2.1049888293806834e-09, 0.9999999759617535, 3.785518457329771e-07, 1.0000000000000002, 0.8195958061002814, 0.045287102738888384, 0.9999999903098641, 0.999999919941768, 0.9999999193415163, 0.9472021198682262, 3.2283181568237644e-08, 0.999999985112401, 1.315088623012906e-07, 0.9999998525717294, 3.201646058280927e-08, 1.8496748679183465e-08, 0.9999999662802401, 2.7946617348636494e-08, 0.9999999974180489, 0.9999994191416189, 0.999999984542378, 3.6697333301785003e-07, 0.8244816790515784, 1.3297134245066057e-08, 0.3302377213617389, 0.2214308070450242, 0.0398367185220966, 0.9195440622197754]</t>
+          <t>06_081_600900, 06_075_060400, 06_081_600700, 06_075_035400, 06_075_035300, 06_075_033202, 06_075_033100, 06_075_033000, 06_075_032800, 06_075_032600, 06_075_031300, 06_075_031200, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_030800, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030400, 06_075_030302, 06_075_033201, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_026200, 06_075_026100, 06_075_025500, 06_075_021700, 06_075_020400, 06_075_017100</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>0.003678513223257328, 0.020815619205977375, 6.244765122744792e-05, 0.00014861927837297128, 1.073994613515223e-05, 0.999999843729889, 0.9853576828881371, 1.8454555898348927e-06, 1.36909290265415e-08, 0.0014572093437458405, 0.21798048163494232, 0.005820263670967138, 0.7990180898125481, 0.9996826012441752, 0.9999882001013296, 0.9955154919632166, 0.946328515526617, 0.999997837320424, 0.9999675091014878, 0.9968384273367843, 0.9928130222574598, 1.0000000000000002, 0.9966726583545342, 0.2204044555299451, 0.8241495906958175, 0.03990147474782368, 0.32748162015985327, 0.00010887338374777711, 0.0001360440879429569, 0.06800251115377277, 0.001041804000941857, 5.814808714126219e-05, 1.193459805538256e-05</t>
         </is>
       </c>
     </row>
@@ -11320,18 +9830,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>[60501, 25900, 26002, 22902, 25600, 31100, 22903, 25500, 25403, 25700, 23001, 21000, 25402, 25401, 21800, 20900, 21500, 25300, 25200, 25100, 22901, 22803, 22802, 20700, 20800, 22801]</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>[2.0958043040974636e-07, 0.28985378711169135, 2.755394178252792e-07, 0.9999999999999998, 0.5623566498168437, 1.269449679936128e-08, 0.5475845695711888, 0.13127991639526548, 0.9582248434306532, 0.7525987397773185, 2.34598615088221e-08, 0.34261020241636575, 0.9999999934178107, 0.9999999508863092, 6.266968133305152e-07, 0.9999999999999998, 0.029993483184697998, 0.9999998199881471, 0.9999999999999996, 0.7814778698136435, 1.0, 1.0000000000000002, 0.15619768516277607, 5.556435572227905e-07, 0.8192835192665154, 0.3629449210112297]</t>
+          <t>06_075_060501, 06_075_031100, 06_075_025900, 06_075_025700, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_026002, 06_075_025403, 06_075_025300, 06_075_025200, 06_075_025100, 06_075_025402, 06_075_022903, 06_075_022902, 06_075_023001, 06_075_022802, 06_075_022803, 06_075_022901, 06_075_022801, 06_075_021800, 06_075_021500, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>0.001783850156906822, 0.002643023130547252, 0.28854135581563006, 0.7553313559977397, 0.5522265585579604, 0.1271546136721747, 0.9776456772271344, 3.3720807063464685e-05, 0.9796588550147642, 0.9856558837844838, 0.9999999999999996, 0.8105765700498042, 1.0000000000000002, 0.5496634730287496, 1.0000000000000002, 0.001226511936716951, 0.1563138256962083, 0.9999999999999999, 0.9999999999999999, 0.36295625213942495, 0.002007124740964328, 0.031476993989880686, 0.3436607974404455, 1.0000000000000004, 0.8192279812381297, 4.431504297410721e-05</t>
         </is>
       </c>
     </row>
@@ -11374,18 +9878,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>[26002, 980900, 25900, 22702, 23300, 26402, 22704, 25600, 25100, 18000, 25702, 26403, 60502, 26401, 61000, 23003, 17700, 23001, 26302, 26003, 17902, 23200, 23102, 61400, 22802, 23400, 23103, 22600, 980600, 60700, 61200, 25800, 26404, 22903, 600300, 980501, 25701]</t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>[0.0018036598845970206, 0.9323473324154401, 0.7186327541727144, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 1.9668228128328185e-09, 0.20299183780576027, 0.0005310455248790997, 0.5479230190884743, 0.9954786867185914, 0.9849617267990038, 1.0, 0.9436972153645737, 0.9999999999999998, 0.14656028264912285, 0.994109111670189, 0.21061505989374535, 7.505299015746078e-05, 0.0005882175603211977, 0.9999999999999999, 1.0, 0.9999999999999999, 0.671927130452813, 0.9999999997722205, 0.9652946554947305, 0.7592632877072937, 0.7240665502974807, 0.16648522066003735, 0.9999999999999997, 1.0, 0.9796158024252836, 0.45308979178412684, 0.0009424319698369979, 0.9865845789286146, 0.002558982867425936]</t>
+          <t>06_081_600300, 06_081_600200, 06_075_980600, 06_075_980501, 06_075_980900, 06_075_061400, 06_075_061200, 06_075_025702, 06_075_025701, 06_075_022704, 06_075_023103, 06_075_023003, 06_075_061000, 06_075_060700, 06_075_060502, 06_075_026404, 06_075_026403, 06_075_026401, 06_075_026302, 06_075_026402, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025600, 06_075_026002, 06_075_025100, 06_075_023400, 06_075_023300, 06_075_023200, 06_075_023102, 06_075_022903, 06_075_023001, 06_075_022802, 06_075_022702, 06_075_022600, 06_075_018000, 06_075_017902, 06_075_017700</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>0.0009473703160673454, 5.0843150249553224e-05, 0.5162919599382572, 0.9958421268834251, 0.9152485981682388, 1.000000000000001, 0.9999999999999997, 0.5310943136871525, 4.28378153967726e-06, 0.9999999999999996, 0.9997821500072693, 0.9999999999999996, 0.7243893683303861, 0.15549114875740488, 0.985806147470016, 0.9814132073917041, 0.9891182293311891, 1.0000000000000002, 0.2082235256651318, 1.0000000000000002, 2.203648895755565e-05, 0.7114586441843345, 0.9999999999999993, 1.204405741768022e-07, 0.0018474087202782123, 0.19020520525548792, 0.9999999985128273, 1.0, 0.999998179570648, 1.0, 0.45035676637988803, 0.9987734880631961, 0.6707140488070455, 1.0, 0.7040073441290113, 1.1804898920888583e-06, 1.3996638192843645e-06, 0.1457330174530293</t>
         </is>
       </c>
     </row>
@@ -11428,18 +9926,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>[12902, 13102, 15400, 12602, 15900, 13000, 15500, 15300, 12601, 11100, 13500, 15600, 42800, 15100, 12901, 10900, 13101, 16000, 11000, 12800, 40200, 13300, 13200, 10200, 15700, 10300, 42700, 42601, 15802, 60100, 42602, 12000, 15801, 40100, 12700, 15200, 12202, 980200, 13400]</t>
-        </is>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9999977677233484, 0.9766872291926934, 0.6505881272403039, 1.6165321486879198e-06, 1.0000000000000002, 0.04871727835058228, 0.06741020095054094, 0.9999999999999998, 0.015247792806129368, 0.9999934895768813, 0.01115681333491451, 0.9325018280864694, 0.9942132104755486, 1.0, 0.1984452467329439, 0.9999999999999998, 0.04921878998399779, 0.012579411539554842, 0.9999999999999999, 0.3623119209274478, 1.0, 1.0000000000000002, 0.6430813226836065, 0.2610731235339033, 5.5945992719349474e-05, 0.09544684965951533, 0.0006384138395602992, 6.985976526120924e-08, 0.9846567896579081, 9.742232932906607e-05, 0.010360886259670708, 0.0789184120008444, 0.47696937141651624, 0.8415789048671987, 8.240110258391754e-05, 0.0020152401334098944, 8.072175139240467e-06, 0.9999597747914097]</t>
+          <t>06_075_016000, 06_075_015900, 06_075_015700, 06_075_015600, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013300, 06_075_013200, 06_075_013000, 06_075_012800, 06_075_012700, 06_075_012000, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_980200, 06_075_010300, 06_075_010200, 06_075_042602, 06_075_042601, 06_075_015802, 06_075_015801, 06_075_013102, 06_075_013101, 06_075_012902, 06_075_012901, 06_075_012602, 06_075_012601, 06_075_012202, 06_075_060100, 06_075_042800, 06_075_042700, 06_075_040200, 06_075_040100</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>0.04795291927723393, 9.820116855877749e-08, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999999704312119, 1.0, 0.6868642235394803, 0.013524923666608393, 0.01378269598886616, 0.01364256373757466, 0.1988899002584167, 0.0022705329942490893, 2.548763778191257e-05, 0.5837973125437702, 1.322334025784424e-05, 5.5434532209227696e-05, 1.036043019815659e-05, 0.08014930114739369, 0.9999976025083366, 0.9999999380273352, 1.0000000000000004, 1.0000000000000002, 0.5298747876147453, 0.9999999999999998, 0.0058212306754607335, 0.23233594936138177, 0.621595238865661, 0.09584046991557975, 0.3594472607344193, 0.47582031966612637</t>
         </is>
       </c>
     </row>
@@ -11482,18 +9974,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>[15900, 12502, 12301, 20700, 15100, 12501, 22801, 18000, 12302, 12402, 16000, 16802, 16100, 17601, 20100, 17700, 20200, 12100, 17802, 20800, 17902, 124200, 16200, 12201, 12401, 61500, 22802, 17801, 10500, 12000, 22600, 11700, 60700, 12202]</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>[0.325460447994506, 0.9999999999999999, 0.9999850546877732, 2.203083028722285e-06, 0.003949724545432595, 1.0, 0.6369076514690094, 0.9994689544751567, 0.83332264827743, 1.0, 0.9507812100158946, 0.18163423146493649, 0.25031204299345766, 0.9999999999999996, 0.9993571271208755, 0.8534397173509475, 0.543610441659675, 1.2069632966376836e-05, 1.0, 0.181142070793377, 0.8365775280384712, 1.6482027011629049e-06, 0.5493252070543557, 0.9999641949715842, 1.0, 0.8477250020643776, 0.16941768763746318, 1.0, 0.003805891728419423, 0.00011850568465871276, 0.005486039417038175, 0.13100067556779144, 0.5817783301994891, 0.9979836337334496]</t>
+          <t>06_041_124200, 06_001_428700, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015100, 06_075_012100, 06_075_012000, 06_075_011700, 06_075_012502, 06_075_012302, 06_075_012301, 06_075_010500, 06_075_061500, 06_075_017802, 06_075_017801, 06_075_016802, 06_075_012501, 06_075_012402, 06_075_012401, 06_075_012202, 06_075_012201, 06_075_060700, 06_075_016200, 06_075_022802, 06_075_022801, 06_075_022600, 06_075_020800, 06_075_020700, 06_075_020200, 06_075_018000, 06_075_017902, 06_075_017700, 06_075_020100, 06_075_017601</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2.7272035703410395e-06, 4.69133582885777e-06, 0.25030421772761796, 0.9520470807225342, 0.3227508073877951, 0.0049589398181131075, 1.791671365328498e-05, 1.8682785283884724e-06, 0.13899679911096022, 0.9999999999999999, 0.8333428750281314, 0.9999941014629681, 0.0011707142259919545, 0.788212197155555, 1.0000000000000002, 1.0, 0.17702003327762347, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 0.9941070506754337, 0.9999662162746694, 0.5457828750825512, 0.5499356992624037, 0.17297212549667756, 0.637043747860637, 0.001421298114768862, 0.18072694064746342, 5.577998845456339e-06, 0.5452401559827512, 0.999998819510081, 0.02019985256500383, 0.854266982546996, 0.9991151836843436, 0.9999999999999998</t>
         </is>
       </c>
     </row>
@@ -11536,18 +10022,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>[17101, 30102, 17000, 20300, 21800, 20700, 16900, 21200, 25403, 21700, 30700, 16700, 30600, 25500, 21000, 16802, 21600, 20600, 20200, 21300, 20500, 21100, 31100, 25300, 20800, 16600, 20401, 20402, 25401, 30500, 16801, 21400, 21500]</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>[0.3504317373016723, 0.02300467924909543, 1.0000000000000002, 0.9999999999999998, 0.9983002968235121, 0.9999494549944786, 0.9999999999999999, 1.0, 0.008604954524285491, 0.9895444054923278, 0.0586750437663736, 0.5346426504410579, 0.0012292394220253854, 0.004719706890287985, 0.6549148191929639, 0.1397302765416583, 0.9999999999999998, 0.9999999999999998, 0.4556325251341306, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.18075663626437427, 0.013418640598351995, 5.9383074001873955e-05, 0.0026059979233639787, 0.9971761742263193, 0.9628894881589326, 0.024566861198264612, 0.02287406198191177, 0.6417524734121831, 0.9999999999999998, 0.9717434259705673]</t>
+          <t>06_075_020402, 06_075_020401, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_031100, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030102, 06_075_025500, 06_075_025401, 06_075_025403, 06_075_025300, 06_075_021800, 06_075_021700, 06_075_021600, 06_075_021500, 06_075_021400, 06_075_021300, 06_075_021200, 06_075_021100, 06_075_021000, 06_075_020800, 06_075_020700, 06_075_020600, 06_075_020500, 06_075_020300, 06_075_020200, 06_075_017000, 06_075_016900, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>0.9999120887316741, 0.9999832483873673, 0.3692923122045043, 0.1442490540790922, 0.6607035791313025, 0.18112057262784806, 0.0536714844733811, 2.1626795759445063e-06, 3.123555236327859e-05, 0.02560028035799882, 0.004224252134100763, 0.02235432277285865, 0.007855843463863536, 0.01434411621552429, 0.9979928752590292, 0.9989581959990711, 1.0000000000000007, 0.9685230060101149, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.6563392025595292, 4.507811446792069e-05, 0.9999501069580897, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.45365819986958006, 1.0000000000000002, 1.0000000000000004, 0.5384542369000975, 4.286303031858021e-06</t>
         </is>
       </c>
     </row>
@@ -11590,18 +10070,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>[13102, 10700, 11902, 10800, 11100, 11200, 12301, 11300, 11800, 11901, 15100, 12501, 10900, 12302, 13101, 11000, 10100, 17601, 10200, 12100, 10600, 10300, 12201, 61500, 10500, 12000, 11700, 61100, 12202, 10400]</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>[0.00027889680098904933, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 0.9841988219164414, 1.0, 0.427081771797297, 1.0000000000000002, 0.9999999999999999, 1.0, 0.0005465517098994035, 0.14036703744231765, 0.7297623587154082, 0.6650121515820437, 0.0033018358280516597, 0.9987927579038667, 0.6964049196993827, 0.002750421563841411, 0.0013075667969283898, 1.0, 0.9999999999999998, 0.6955034541789076, 5.2208881236875836e-05, 0.0037364364281560433, 0.6677396228847994, 0.977262597633914, 1.0000000000000004, 1.0, 0.07779829804748979, 1.0000000000000002]</t>
+          <t>06_075_015100, 06_075_013000, 06_075_012100, 06_075_012000, 06_075_011800, 06_075_011700, 06_075_011300, 06_075_011200, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010800, 06_075_010700, 06_075_010600, 06_075_012302, 06_075_012301, 06_075_010500, 06_075_010400, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_061500, 06_075_061100, 06_075_013102, 06_075_013101, 06_075_012501, 06_075_012202, 06_075_012201, 06_075_011902, 06_075_011901, 06_075_017601</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>1.39384295802706e-09, 1.1823193442196314e-15, 0.9999999999999999, 0.972207407787741, 0.9999999999999996, 0.9999999698220089, 1.0000000000000002, 0.9999999999999998, 0.9859783305284809, 0.9999999843968951, 0.7289175586644654, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.6649915637320186, 0.4264521644748218, 0.5813202305512056, 0.9999999999999994, 0.6877021601394369, 6.688963103740043e-09, 0.5451383485364958, 0.0007419192886877325, 0.9999999999999998, 1.132282085195434e-09, 1.9639044161724208e-08, 0.13639051636410718, 0.07838925617155307, 6.012959914298065e-08, 1.0, 1.0, 7.192665466775722e-09</t>
         </is>
       </c>
     </row>
@@ -11644,18 +10118,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>[15600, 47802, 47902, 32700, 47903, 42700, 47902, 47801, 15401, 15401, 47701, 47902, 45100, 47902, 45100, 32700, 47702, 47903, 42800, 47801, 980300, 47902, 42700, 47702, 42601, 47600, 32602, 40200, 32700, 15702, 15600, 15702, 42602, 15600, 47902, 42602, 40100, 40100, 32601, 42602, 40200, 47903, 47600, 47904, 42602, 35201, 47902, 42700, 45100, 47701, 47902, 47600, 15701, 47902, 32601, 15402, 980300, 47902, 42601, 40200, 40200, 980300, 47702, 42602, 15702, 42602, 40200, 47600, 15600, 47801, 16500, 40200, 47902, 42700, 15702, 47904, 42601, 980300, 16500, 47802, 47903, 45201, 40100, 42800, 15600, 45201, 15401, 47802, 47801, 47802, 47701, 47701, 47904, 47600, 47801, 42602, 45100, 47701, 47801, 32602, 47802, 47600, 47701, 40200, 47902, 40200, 47802, 47802, 47702, 47701, 47600, 15600, 980300, 35202, 35101, 47801, 47801, 40200, 15701, 980300, 40200, 47802, 35202, 47902, 47702, 47701, 47600, 47701, 40200, 47903, 45202, 15600, 47902, 45201, 47904, 42700, 40200, 45201, 15401, 15701, 42602, 42602, 42602, 40200, 15600, 47600, 15701, 15701, 47600, 35101, 45202, 45201, 47600, 980300, 47802, 45202, 15702, 47600, 980300, 47702, 40100, 40100, 40200, 45202, 47902, 40200, 47702, 47801, 40200, 42700, 42800, 980300, 47600, 42602, 980300, 15701, 47802, 32700, 32601, 47904, 47801, 15701, 40200, 47701, 15401, 42601, 980300, 42601, 980200, 47802, 45100, 42700, 47801, 45201, 47702, 47701, 47902, 45100, 40100, 40200, 45202, 47903, 47903, 16500, 15701, 45201, 42601, 47600, 47801, 42602, 42700, 42700, 47801, 45100, 47903, 47904, 45100, 42800, 980300, 47701, 47903, 15600, 980300, 42602, 47600, 40200, 47802, 15701, 42700, 47903, 40100, 45100, 45201, 47902, 47903, 45202, 45100, 16500, 47801, 47701, 15701, 42601, 47902, 47902, 45202, 45100, 47802, 47600, 45100, 980300, 980300, 45201, 47902, 47600, 15600, 35202, 40100, 47903, 980200, 47600, 45202, 16500, 15401, 15701, 15701, 47903, 47903, 47802, 40100, 47701, 42700, 47701, 47600, 16500, 47903, 42602, 15401, 47904, 47600, 15600, 15701, 47902, 40100, 15600, 47902, 47902, 47802, 42800, 42800, 45202, 47702, 980300, 40200, 15401, 42602, 15600, 47600, 15702, 15701, 40100, 32700, 15701, 47802, 15401, 42601, 47904, 45201, 15701, 47904, 45100, 47702, 45100, 32601, 40200, 980300, 980300, 42700, 42700, 42800, 15701, 15701, 47904, 47802, 40200, 35101, 47702, 35201, 15701, 47904, 47802, 980300, 40100, 40100, 45201, 42601, 16500, 47903, 980300, 980300, 980200, 980300, 980300, 47702, 980300, 45100, 42800, 42700, 40200, 15600, 42601, 42602, 47902, 47904, 32700, 40100, 42601, 45201, 47801, 42700, 45100, 40100, 45202, 35202, 35202, 47904, 47903, 47903, 16500, 42800, 47600, 40100, 42800, 980300, 15701, 980300, 42602, 45201, 980300, 45202, 42700, 47702, 15701, 47902, 47903, 45201, 35101, 42602, 980300, 47702, 47702, 15701, 45100, 42700, 15600, 47702, 47802, 15600, 47600, 47600, 15701, 980300, 980300, 32601, 980300, 980300, 980300, 980300, 47701, 15701, 45100, 47701, 980300, 47600, 47702, 47600, 47903, 45100, 47904, 32700, 47802, 40100, 40100, 42700, 40200, 47702, 15600, 15401, 15401, 47904, 47904, 35101, 42601, 32700, 42700, 42800, 32601, 47903, 40200, 42601, 15600, 47701, 42601, 980300, 47801, 42700, 47600, 32601, 45201, 980300, 35101, 42602, 45201, 42602, 47600, 47902, 980300, 32700, 15701, 980200, 35202, 45201, 42800, 16500, 45201, 47802, 35101, 40100, 47902, 47600, 47903, 35202, 45201, 45100, 40100, 42700, 47801, 47600, 47801, 45201, 45202, 980300, 42602, 47600, 42601, 47801, 15701, 42800, 47904, 47801, 47600, 47801]</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9999999999999998, 1.0000000000000002, 0.0017615661684235169, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 6.558442427247715e-11, 0.0006272468152074726, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 0.0022129634640223827, 1.0, 0.9999999999999998, 1.0803298504794796e-07, 1.0, 0.9999998434146714, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.002459219389270603, 0.9999999397585119, 0.0026180473130144066, 2.2319785763068441e-10, 1.0000000000000002, 0.04198039217066763, 0.9999998958208812, 0.9941847198747636, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.0025689599693886097, 1.0, 0.9999999645327742, 1.0, 1.0, 0.9999999999999998, 1.0, 0.0015485011021140749, 0.9999999999999999, 1.0, 1.0, 1.0000000000000004, 1.0, 0.9999999999999994, 1.0, 1.0, 0.05531628618786227, 1.7323289046120743e-07, 0.9999992198540559, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 5.891227177642673e-08, 0.9999999333447501, 1.0, 1.0000000000000004, 1.0, 0.9999999999999998, 0.999728334087048, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 0.025706339365864868, 1.0000000000000002, 1.0000000000000002, 0.9999857153336978, 2.6688228470838024e-09, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999862646468, 0.0009515331756580007, 1.0000000000000002, 1.0, 0.0006810668260652581, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.0021028532285178227, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 0.9999999999999997, 1.0000000000000002, 0.0024351851135789838, 0.0021937651692231787, 0.9999999999999998, 1.0, 0.9999999195944669, 0.9981392915322143, 0.999292923809778, 0.9999424660973657, 1.0, 0.0045775976040682825, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 1.0, 2.6860781791957285e-08, 1.0, 0.0004424440108789925, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999912668908337, 1.0, 0.003222952776143444, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999930626544, 0.9999999999999999, 0.9999999999999998, 0.9675268851193146, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000009908, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 0.000137486556366056, 0.9999999434962651, 1.0, 0.9999999999569967, 4.998122493222805e-05, 1.0, 1.0000000000000002, 0.0017524406943404968, 0.0015264286161361424, 0.9999999226611855, 1.0, 1.0, 0.9999999623020134, 1.0, 5.167933215247088e-08, 1.0, 1.0000000000000002, 1.0, 0.9999999999999994, 1.0, 1.0, 0.9999999970071596, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9998997231042723, 0.9999246957322809, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999566695912, 0.9999999910651618, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 4.762872262603144e-08, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999245331377, 1.0, 0.9999996496811852, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 5.251714425462733e-09, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9931463432271034, 3.361914724821137e-08, 1.0, 1.0, 0.9999999999999998, 1.0, 0.0019006921875212275, 0.9999998387353494, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.999728997700471, 0.004315499546426032, 0.9999999449302193, 0.9999998894234481, 1.0, 1.0, 1.0, 1.2146736447402813e-07, 0.9999999999999998, 0.999999992903657, 1.0000000000000002, 0.9999999999999998, 4.3960102542542417e-14, 1.0, 1.0, 4.196412494456901e-08, 1.0, 1.0, 1.0, 0.9955352998953644, 1.0000000000000002, 2.4425055890219623e-08, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 0.9999999999999999, 8.643361072064027e-08, 0.0003770694811864942, 1.0, 1.0, 1.0, 0.9999999999999998, 0.004971160566163645, 1.0, 1.0, 1.0, 3.9616415333840684e-08, 0.9999999999999999, 1.5921464938962095e-07, 0.0016924896174097192, 0.9950708611527102, 1.0, 8.865644723341957e-13, 1.0, 0.9999999999999996, 1.0000000000000002, 0.9999999999992362, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 0.0029290440120317974, 0.9999998150438894, 0.9999998721369963, 1.0, 1.0, 1.0000000000000002, 3.981513861497315e-07, 1.0000000000000002, 0.9999999999999996, 1.0000000000000002, 0.9999999999999998, 0.9999998498056085, 0.0027764250848314564, 1.0000000000000002, 0.0026177830863570004, 0.9999999999999999, 1.0, 1.0000000000000002, 1.3747919882663854e-08, 5.5560767342649734e-08, 0.9999999999999998, 1.0, 0.9999999999999998, 7.796581435350279e-08, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.999999952975723, 1.0, 0.9998945282597502, 1.0000000000000002, 1.2667428591154936e-08, 0.9999998428193734, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 0.0023236920475595163, 0.9999999091051216, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.0018898676138504648, 0.0020230521006213203, 1.0, 1.0, 1.0, 3.480108533510581e-09, 0.00037961635182892395, 0.9999999999999999, 0.9999999999999998, 5.874714251524107e-14, 0.9999999882068578, 1.0, 0.9999999999999997, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999997916018958, 1.0, 0.9958183786506352, 1.0, 1.0, 1.0, 0.0018996269196322644, 0.9999999255667164, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 0.9965825738798016, 0.0001842261416944202, 1.0, 0.002386797529036654, 1.0000000000000004, 1.0000000000000002, 0.9999999999999997, 0.9999999950065, 1.0, 1.0, 1.0, 1.0, 0.9999999487366122, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.0022871120176106412, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999998329862784, 0.9999998051287721, 1.0, 0.9969711033714359, 0.0011310543693749035, 0.0021704778116431473, 1.0000000000000002, 1.0, 0.0017647424255749086, 0.999999884350756, 0.002951410413425959, 1.0, 5.017720080259981e-08, 0.0022505571154546188, 0.9999999999999998, 0.9999999999999999, 1.0, 0.9914815337520411, 1.0, 1.0, 1.0000000000000004, 1.0, 2.0908881868618235e-07, 0.9999999999999999, 0.002577085363000514, 0.9999999999999998, 0.9999999999999993, 0.0019290765723354057, 0.9999954323989704, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 6.552924478079786e-08, 0.001916231730821984, 1.0000000000000002, 0.9999998788547324, 0.0023044111623653986, 1.0, 3.4160675623450014e-08, 2.9267041957787496e-07, 1.0000000000000002, 0.9999999999999998, 0.001890557345438128, 1.2187384221402948e-07, 1.0, 0.9999999999999997, 1.0, 0.00266912548001432, 1.0, 1.0000000000000002, 1.0, 0.9999999259929698, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 0.999999931450407, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 6.4971170640141e-08, 0.9999999999999996, 0.9999999999999998, 1.0, 0.9999999999999998]</t>
+          <t>06_075_032602, 06_075_042601, 06_075_042602, 06_075_047801, 06_075_980300, 06_075_980200, 06_075_047702, 06_075_035202, 06_075_016500, 06_075_045100, 06_075_015600, 06_075_032601, 06_075_047802, 06_075_047701, 06_075_032700, 06_075_035201, 06_075_040100, 06_075_040200, 06_075_042700, 06_075_042800, 06_075_047600, 06_075_047902, 06_075_045201, 06_075_015701, 06_075_015402, 06_075_015702, 06_075_047904, 06_075_047903, 06_075_035101, 06_075_045202, 06_075_015401</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>0.00019606476091163242, 0.9999999922935916, 0.9999998303662034, 0.9999999999999999, 0.7514594292600965, 0.5665588993306157, 0.9999999999999998, 0.0008111706281571227, 0.12527478208633902, 1.0, 0.9984416093598913, 0.0008299118777242553, 1.0, 1.0, 0.000440450178096436, 0.0005525362134017973, 0.5236534811408179, 0.8200989918979252, 0.9525677696476097, 9.239920317298804e-05, 1.0000000000000004, 1.0, 1.0000000000000002, 0.9994189671588307, 1.1093189443350076e-08, 0.010594443071258453, 0.15433763527285146, 1.0, 0.000734214679100972, 1.0000000000000002, 0.0009458615383339103</t>
         </is>
       </c>
     </row>
@@ -11698,18 +10166,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>[26004, 31402, 31401, 26303, 26002, 26201, 26201, 25501, 25501, 26302, 980501, 26302, 26100, 26201, 26302, 25501, 26302, 25501, 31302, 26201, 26303, 31401, 25501, 25501, 26004, 26301, 26004, 26003, 25501, 26202, 25502, 26302, 31302, 26202, 31202, 25600, 31202, 26202, 26100, 25502, 25502, 26003, 26100, 31202, 26302, 980501, 25502, 31301, 26201, 26100, 26202, 26001, 26004, 31302, 26001, 31401, 31402, 25501, 31302, 31201, 26002, 25600, 31201, 26302, 26303, 26004, 30900, 26001, 26004, 31202, 31301, 31402, 26100, 26302, 26301, 25502, 26301, 26001, 31201, 31302, 26003, 26001, 26202, 60502, 26301, 25502, 31202, 25403, 31202, 26302, 25502, 26202, 30900, 26302, 26201, 26100, 26301, 26100, 25600, 26100, 26004, 31301, 26100, 25502, 26001, 26004, 26001, 31302, 31302, 26303, 25502, 26100, 26100, 980501, 25501, 26303, 26202, 26303, 26100, 26002, 26303, 26100, 25600, 26001, 25502, 26001, 31302, 31301, 26001, 26302, 26004, 26303, 26100, 25502, 31401, 26202, 25502, 25502, 31302, 31301, 26302, 31202, 26100, 26004, 31202, 25600, 26100, 31301, 26201, 26100, 25501, 26100, 26100, 26100, 26002, 26301, 31402, 26301, 26100, 26202, 31302, 31301, 31401, 31202, 26303, 26100, 26100, 26201, 30900, 26201, 26303, 31201, 31202, 26202, 26001, 25502, 26004, 26002, 31201, 25501, 26001, 25600, 26100, 31401, 26100, 25501, 25501, 26302, 26301, 26001, 31201, 31402, 26301, 31302, 30900, 31201, 26100, 26302, 31301, 31301, 26302, 26301, 31301, 26303, 25502, 31301, 26301, 31302, 26201, 31202, 31202, 26302, 31402, 25600, 25600, 26302, 31302, 31201, 26003, 25502, 26100, 26303, 25501, 26301, 25502, 26302, 31401, 31402, 31301, 26302, 31402, 26201, 31402, 26002, 31201, 26301, 26001, 25600, 26004, 31301, 25501, 26202, 31301, 26302, 26004, 31201, 26003, 980501, 26004, 26301, 30900, 25501, 25501, 26301, 26003, 26302, 26303, 25502, 25502, 26202, 25502, 31302, 26201, 26001, 26201, 26301, 26003, 26303, 31402, 26201, 26303, 26301, 26002, 26303, 26003, 31302, 25501, 26302, 31301, 26002, 26202, 26202, 31302, 31301, 26302, 31301, 31202, 25600, 26202, 26004, 31301, 26002, 31202, 31301, 25600, 30900, 26100, 25501, 26303, 31201, 26001, 26202, 26100, 26301, 26302, 26002, 31201, 31402, 26202, 26002, 31302, 26100, 31401, 25501, 31302, 26302, 26004, 31402, 26003, 31201, 26201, 26100, 31302, 26004, 26303, 26100, 26301, 26002, 26004, 26001, 26100, 26100, 31301, 26001, 26002, 26301, 26301, 25600, 26100, 31402, 26003, 25501, 31201, 31401, 26002, 26303, 26003, 26202, 25502, 31301, 26004, 26100, 31301, 31202, 31202, 26003, 26201, 31301, 26201, 26201, 26100, 26201, 31202, 26002, 26003, 26302, 31302, 26202, 26302, 26302, 26303, 26100, 31201, 31301, 26202, 31402, 26004, 26002, 26004, 26301, 26002, 30900, 26003, 26003, 30900, 26001, 31301, 26302, 26303, 31201, 26301, 26301, 26301, 26301, 26201, 26100, 31202, 25502, 25600, 26201, 26201, 31402, 26003, 25501, 25403, 26100, 31201, 26302, 26301, 26303, 26100, 25600, 31402, 26001, 31402, 980501, 25502, 26302, 26004, 60502, 26002, 26201, 25501, 26303, 25502, 26302, 26100, 30900, 26003, 31201, 26301, 26003, 26004, 26303, 25600, 25502, 25501, 26202, 26303, 31202, 31302, 26002, 25600, 25600, 26003, 25501, 31301, 26301, 31201, 26201, 31301, 26001, 26003, 26001, 26100, 26002, 26301, 31401, 31302, 26201, 26100, 26301, 26100, 26004, 26003, 26301, 31402, 26100, 31302, 26202, 26201, 26303, 26201, 26004, 25600, 26001, 26001, 26302, 26302, 31301, 26301, 31100, 25502, 26003, 31302, 31201, 26302, 31401, 25600, 31302, 26302, 26301, 30900, 26301, 26100, 31202, 31401, 26001, 26003, 26201, 26002, 25501, 25600, 26100, 26100, 26302, 25600, 26301, 26002, 26301, 25600, 31201, 26201, 26302, 31301, 25600, 31302, 31201, 26303, 25502, 25502]</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 0.00011042917764200951, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.1010286232746043e-07, 0.9999999107554587, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 1.0, 0.9999898359524041, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999998, 0.8309225682224969, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 0.9999999999999997, 1.5619080921760186e-07, 2.622882492835265e-14, 1.0, 1.0, 1.0, 1.0, 0.9999709100133303, 1.0, 1.0, 0.9997458022870492, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 4.0695271850663005e-08, 4.831268448865626e-05, 0.9999998030839138, 0.0032798502968023075, 0.9998006936486455, 0.9999114724704934, 0.9999999999999998, 3.055008347089911e-07, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 0.15943516609908356, 1.0, 1.0, 0.9801763866036526, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 8.338885742808457e-07, 0.9999999999999999, 0.1713038373293271, 1.0, 1.190713568850018e-08, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 1.0, 6.608264832473748e-08, 0.9997609164676302, 0.9999402344031945, 1.0, 0.9999999999999996, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.14237569809602058, 0.999847742555267, 0.6645587010231704, 1.0, 0.9999999999999998, 0.3327167491852249, 0.9999999999999997, 0.9999999999999999, 0.9999999999999999, 0.9961807121575809, 1.0, 0.9999999999999999, 0.9999800949979024, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 0.9953984217558902, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999802777190533, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999997, 0.20746078316996963, 1.0, 0.9999999999999999, 0.9489314554525967, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 8.366202979094295e-08, 0.9999999999999999, 0.9999999983022201, 0.9998692380213162, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999798905544, 5.959762218002801e-05, 0.9998878793520498, 0.9998358640829703, 0.9998962813449758, 0.38143833538925886, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.999999947245367, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.8824452995228136, 0.000132746469853595, 0.9999997917971414, 1.0, 0.9880562156898484, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.8891688395105577, 0.9999999570758327, 1.0, 0.9999998943670776, 0.9999999999999999, 1.0, 0.9995355021718417, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 9.052564141402454e-09, 1.0, 1.0, 0.000621336723454542, 0.9999998204304118, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9177868209795778, 0.5849884466697175, 0.9999999999999992, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.0006228013324562727, 1.0, 1.0000000000000002, 1.2393490565081467e-07, 1.0, 0.7610865224120612, 1.0, 1.0, 0.7845748667458683, 0.9999999999999999, 1.0, 0.9999999429531188, 0.9999999999999999, 9.11039890502887e-09, 1.0000000000000002, 1.0000000000000004, 1.5424512117872586e-08, 0.9999999603640678, 0.9999999999999997, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999998359736888, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.9999999999999997, 1.0, 1.0, 0.9999999615844696, 1.0, 0.9999991005013504, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000013, 1.00000000000119, 0.9999999999999999, 2.0952906885805624e-07, 1.0, 1.0, 1.0, 0.9999998980737693, 1.0000000000000002, 0.9999998600968079, 0.9999999601713231, 9.917832298980381e-08, 0.9999999999999997, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999620163355, 0.9999999999999999, 0.006803810133670177, 1.0000000000000002, 1.0, 0.9999999765571642, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 2.282503442748705e-11, 0.9999999999999999, 1.0, 1.0, 0.9904737438381351, 0.9999999960315241, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 1.0, 0.9997315663030975, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9965000341756869, 1.0, 2.8917120392327568e-05, 1.0000000000000002, 1.0, 0.682642005126023, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 0.9999999492323639, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999991246, 1.0, 0.9999999999999999, 0.9999999709205444, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.999999940662463, 0.9998033909020537, 1.0, 1.0000000000000002, 0.9999999006671565, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 0.7847382002405624, 1.0, 1.0, 1.0000000000000002, 0.9997099912572419, 0.9999999999999998, 4.351105552740031e-08, 1.0, 0.9999999999999999, 1.0, 1.0, 0.00017693486663703656, 1.0, 0.9999999999999999, 0.9999998440694545, 2.0415722900686576e-07, 0.9999939982153883, 1.0000000000000002, 1.671950449577909e-05, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999998162233253, 0.9999999999999996, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999995703896396, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9999997920392759, 1.0, 1.0000000000000002, 1.0, 0.9615343117079578, 1.0000000000000002, 1.3914221146847046e-07, 1.0000000000000002, 0.9999999317015593, 1.0, 0.9999999999999999, 0.99999997502878, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.0036927249398919443, 0.9999996322226836, 0.9999999588607502, 1.0, 0.12433213719900428, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0000000000000004, 0.0003791130102614738, 1.0000000000000002, 0.999999935155616, 0.9999999999999999, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 0.9999998363198986, 1.0, 1.0000000000000002, 0.9999999994782027, 1.0000000000000002, 4.598451494402262e-08, 0.9999974832902426, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999998, 1.1245533467507775e-07, 1.0, 0.9999999999999999, 0.016268450614050568, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 2.405960177179617e-07, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 7.255150419827522e-08, 0.9999916460651658, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9543476303453485, 1.0, 1.0, 9.967395625564883e-09, 1.0, 0.9999999556697912, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 1.177975617293375e-05, 1.0000000000000002, 1.0, 0.9999999724958711, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999998003206619, 0.9999999999999999, 1.0, 0.9999999457922333, 1.36668950201876e-05, 1.0, 4.1044064899682226e-08, 0.9980210228570221, 0.5936486371313571, 1.6597466451035212e-07]</t>
+          <t>06_075_980501, 06_081_600701, 06_075_031201, 06_075_031202, 06_075_025403, 06_075_025600, 06_075_026002, 06_075_026004, 06_075_026001, 06_075_026003, 06_075_060502, 06_075_031301, 06_075_031302, 06_081_600402, 06_081_600401, 06_075_030900, 06_075_031100, 06_081_600300, 06_075_026100, 06_075_026301, 06_075_026302, 06_075_026303, 06_075_026201, 06_075_026202, 06_075_031401, 06_075_025501, 06_075_025502, 06_075_031402</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>0.0468831683624687, 5.856712034652565e-06, 0.5488997782404826, 0.9251329600297425, 3.727503339114578e-09, 0.4491124224701535, 0.9138553351607864, 1.0, 1.0000000000000002, 0.9987482731348012, 0.006564594054421796, 0.9806861021014225, 0.6376664069531052, 3.369098170447348e-08, 1.1526108749960796e-08, 5.579580140962745e-06, 9.853849569835398e-09, 1.3067590561369628e-07, 0.9999999969590873, 0.9999999999999997, 0.9411309839127501, 0.9999000450661315, 0.9999653187805547, 1.0000000000000004, 1.0, 0.9894338582663031, 0.5113847365656466, 1.0000000000000002</t>
         </is>
       </c>
     </row>
@@ -11752,18 +10214,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>[61101, 10800, 11700, 10102, 10300, 10800, 61501, 10800, 11700, 11902, 11700, 11102, 10902, 10500, 10702, 12204, 11700, 10800, 61101, 61101, 12302, 11700, 10600, 11700, 10300, 10600, 12302, 10702, 10500, 11700, 10500, 10401, 11002, 61101, 12100, 10300, 61101, 11101, 11002, 10600, 12302, 10902, 11300, 11902, 10402, 61101, 61507, 11001, 10300, 10101, 11902, 11102, 12301, 12302, 10701, 12001, 10300, 11101, 61501, 11700, 61101, 10201, 10600, 11700, 10500, 10300, 11300, 10500, 10902, 10702, 10300, 10300, 10500, 11800, 10800, 11700, 10600, 10702, 12002, 12001, 10101, 13101, 10402, 10600, 10500, 10500, 10500, 12001, 10901, 11901, 10500, 10600, 11700, 10701, 10300, 10701, 10402, 17602, 61501, 10901, 12503, 10600, 10901, 10500, 11700, 10402, 12100, 10402, 10902, 11901, 11102, 10300, 10101, 10600, 12002, 10500, 10500, 10101, 11800, 11800, 11700, 10202, 10800, 12503, 10800, 10402, 12302, 10500, 11200, 11101, 10901, 11700, 11700, 10500, 10702, 10800, 10101, 10701, 10702, 61102, 11300, 11102, 10800, 61101, 10902, 10102, 61507, 61101, 12100, 10101, 12002, 10500, 10600, 11200, 10402, 10402, 11200, 61101, 11700, 11300, 10701, 10600, 10701, 11700, 10500, 10800, 10102, 11902, 10401, 11102, 17602, 10500, 10800, 10101, 11700, 11700, 11700, 11700, 61507, 10402, 61102, 10101, 10101, 10101, 10300, 10101, 61101, 11700, 10600, 10401, 12301, 10901, 10300, 10800, 10600, 10401, 61507, 10300, 12503, 11002, 61101, 10800, 11700, 61101, 10600, 11102, 10500, 10800, 12100, 11200, 10702, 11800, 11700, 11901, 12302, 10402, 13101, 10300, 10500, 10101, 61101, 12202, 10101, 11700, 12204, 10500, 12001, 10901, 61101, 10401, 11200, 10300, 12001, 10500, 61101, 12100, 12302, 61101, 10101, 11300, 11700, 10401, 11200, 10702, 10500, 10101, 10500, 10800, 11700, 10101, 10500, 12100, 11800, 11700, 11800, 11102, 10300, 12001, 12002, 11300, 11102, 10600, 12002, 10901, 12302, 11700, 10800, 10500, 61101, 10902, 10902, 10300, 12302, 11700, 12100, 11001, 61101, 61101, 61101, 10101, 10401, 10101, 11200, 61507, 11102, 11700, 11001, 61101, 11700, 11700, 10101, 11700, 12503, 11300, 11200, 61101, 10202, 11001, 10202, 10600, 12203, 10600, 10300, 11200, 10800, 61101, 10500, 11002, 10401, 10500, 11902, 11700, 13101, 10600, 11101, 10901, 61501, 11700, 11902, 10800, 11700, 11002, 12002, 10800, 61102, 11001, 10701, 12301, 11001, 11102, 10701, 11700, 61101, 11200, 10901, 10800, 12002, 10401, 11700, 10101, 61101, 10101, 10101, 12002, 12503, 11700, 11700, 10402, 12302, 10600, 12001, 12301, 12100, 11902, 10101, 10300, 10701, 10101, 11300, 10401, 11101, 12202, 10101, 10102, 10901, 10500, 10500, 10300, 61101, 61501, 11700, 11002, 61101, 10102, 10300, 10600, 61101, 13101, 10901, 11700, 10800, 11200, 10101, 61102, 10402, 10901, 10800, 11700, 11200, 11002, 10401, 10401, 61101, 10500, 10701, 10401, 11200, 11200, 12202, 12302, 11700, 11002, 11200, 10600, 11901, 10901, 11800, 11700, 10702, 61501, 10600, 11300, 10102, 11002, 61101, 10101, 11002, 61101, 61102, 11102, 11300, 10101, 10800, 10500, 11300, 11700, 12301, 11101, 10101, 10500, 10500, 10402, 10102, 11002, 10600, 11700, 10402, 12202, 61101, 10402, 11102, 61102, 11200, 10600, 11700, 61101, 61102, 61501, 10600, 11700, 13101, 11700, 11700, 10902, 10300, 11700, 10101, 11001, 11200, 10300, 11200, 11700, 11101, 12001, 10500, 10102, 10800, 61102, 11001, 10702, 11200, 12302, 11300, 10101, 11902, 10500, 11102, 11700, 10101, 11101, 10300, 11300, 10600, 11200, 10800, 10300, 11700, 61102, 10101, 10701, 10600, 10800, 11700, 10300]</t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 0.9999997221071625, 1.0, 1.0, 1.0000000000000002, 0.001958136154495171, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.00010998813127595666, 0.9999999999999999, 1.0, 8.84560796144534e-15, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999995593421799, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 6.356336174177037e-08, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 0.997248427309968, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.8883141725831556, 1.0, 1.0, 1.0, 1.0, 1.695733114950322e-08, 1.0000000000000002, 0.035809018854748666, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999996797225863, 2.7219072395814736e-15, 1.0, 1.0, 2.2979561866395913e-07, 0.9938887474911942, 0.0239049213351073, 1.0, 1.0, 2.7833698866200187e-08, 0.9999999999999997, 0.9999999999383439, 0.9999999999999999, 0.9999998140679421, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.0454834875178867, 0.9989473510374428, 1.0, 0.021429207638356613, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999998170232793, 9.246138543057478e-05, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 0.999999794919488, 1.0000000000000002, 0.9999999999999999, 0.02891518602698679, 0.0019573273463266132, 0.9999999999999999, 4.016288509286023e-11, 0.9999999999999999, 5.1685320956688845e-08, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.0923118671191614, 1.1275488053727348e-07, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999995897961635, 2.0152212648614286e-07, 1.0, 0.9999194727473314, 1.0, 1.0, 0.9999997794314903, 1.0, 1.0, 0.9939074021971154, 0.9999997249493228, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 0.8907373558908459, 1.0, 0.0019072588345583543, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999976281, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000022906, 9.795789706189235e-08, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.00010273646126643081, 1.0, 0.9999999999999999, 0.9659040797783093, 1.0, 0.9999999999999999, 2.9190821617447286e-07, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999997773629344, 0.9999999694889355, 0.9999997431488316, 0.9999999999999998, 1.0, 1.0000000000000002, 1.1645442937028495e-07, 1.3961596265680081e-08, 1.0000000000000515, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 2.213679496904421e-10, 1.0, 1.0000000000000002, 1.0, 1.0, 9.67988888691344e-08, 1.0, 1.0, 7.210024190456745e-05, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 2.380150294490075e-09, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999680269821916, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999859995673, 1.0000000000000002, 1.0000000000000002, 0.999999692359557, 0.9999999999999999, 0.14138516219561428, 1.0, 0.04674535969417971, 0.9999999326844222, 1.0, 1.0, 1.0, 1.0, 0.9999997296116687, 1.5195785164383645e-07, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.8887354302410756, 2.4609305389593344e-07, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 0.0073151663714259565, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999998214388186, 1.0, 1.0, 1.0, 3.162317369402713e-07, 1.0, 1.0114511376095105e-07, 0.9999999999999999, 5.049687015409142e-09, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0000000000000004, 0.999999847843971, 1.0000000000000002, 1.0, 8.422657429051076e-09, 0.9999999999999998, 1.0, 1.0, 0.04862193571703052, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0, 0.059878758555680894, 1.0, 1.0000000000000004, 0.9941097920126769, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999994240308651, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9990937724345098, 1.0879694732387329e-07, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 6.821539570775636e-08, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999999999999997, 1.0000000000000002, 0.9999999999999999, 0.9999999242369525, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 0.9997466087353255, 0.9999998098350662, 1.0, 0.0019219521147562776, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 6.289308855143444e-08, 6.951437487451606e-08, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 2.0532074218064715e-07, 0.999737564541719, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999994, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9374524396225642, 0.9999999999999999, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 0.9964665307400685, 1.0, 1.0, 0.04716728983009875, 1.0, 1.0000000000000002, 0.9999999999999997, 0.9998957835916014, 1.0000000000000002, 1.0, 0.9999996011801, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999999, 0.03692106168794594, 1.0000000000000002, 1.0, 0.9999999995291945, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.003269183803418866, 0.9999999999999999, 1.0, 0.014498705042696897, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999997632489362, 1.0, 0.999999992671239, 1.0, 0.04616639613290404, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 0.9936067236203509, 1.0, 1.0000000000000002, 1.0000000000005622, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9999999732792542, 1.0000000000000002, 1.0000000000027771, 0.9999999999999998, 1.0, 0.9999999999999996, 1.0, 0.9999999999985114, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999996, 0.9999999999999997, 1.0]</t>
+          <t>06_075_012302, 06_075_011902, 06_075_012202, 06_075_013101, 06_075_010300, 06_075_010500, 06_075_010600, 06_075_010800, 06_075_011200, 06_075_011300, 06_075_011700, 06_075_011800, 06_075_012100, 06_075_011901, 06_075_012301, 06_075_012503, 06_075_017602, 06_075_012001, 06_075_010101, 06_075_010102, 06_075_010202, 06_075_061507, 06_075_010402, 06_075_061101, 06_075_061102, 06_075_061501, 06_075_010901, 06_075_012204, 06_075_010902, 06_075_011001, 06_075_011102, 06_075_012002, 06_075_010401, 06_075_010701, 06_075_010702, 06_075_011002, 06_075_012203, 06_075_010201, 06_075_011101</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>0.6649553250525312, 1.0, 0.07673669654047693, 0.0029823381520410514, 0.6877263738830216, 0.5812790493395131, 0.9999999999999997, 1.0, 1.0, 0.9999999999999999, 0.9999999845370723, 1.0, 1.0000000000000002, 1.0, 0.426472956543704, 0.1671435012977322, 0.0051162284949151145, 0.9697633542865904, 0.518211654594882, 0.9999999999999998, 7.966005717556141e-09, 0.0003223230603252624, 0.9999999999999998, 0.9999999999999998, 1.0, 0.01115427901509165, 0.7486295309419768, 2.4101957255307212e-05, 0.7090556675380066, 0.9983980512453096, 0.9704549786222264, 0.9708066985768877, 1.0, 1.0000000000000004, 1.0, 0.9991990450396493, 1.6852956621537207e-09, 2.272453827653987e-09, 0.9984135267531726</t>
         </is>
       </c>
     </row>
@@ -11806,18 +10262,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>[16000, 16802, 16400, 15900, 16102, 15500, 16200, 30500, 15802, 15201, 20101, 17102, 16102, 15801, 15702, 16200, 30102, 15201, 17102, 16400, 16300, 16700, 16602, 15801, 30101, 16200, 15500, 15702, 20101, 30102, 30202, 16700, 30202, 30102, 15801, 20101, 30101, 20401, 15500, 15500, 16200, 16801, 16801, 16400, 17101, 30202, 16802, 16500, 30201, 16000, 15801, 32601, 16802, 16300, 980300, 16101, 30101, 16700, 16602, 15900, 16400, 16000, 16101, 15802, 15702, 16700, 30101, 30101, 16102, 16500, 15702, 16601, 17102, 16400, 16200, 16802, 15702, 15801, 30102, 980300, 15300, 16500, 16801, 30102, 16802, 16700, 16101, 17102, 17102, 15802, 17101, 16602, 16101, 17101, 16400, 16300, 16400, 15702, 17101, 15702, 16802, 15300, 30102, 16200, 15900, 16102, 16601, 17101, 16801, 16801, 30201, 17700, 16400, 30202, 15702, 16200, 16802, 15500, 980300, 16801, 17102, 15900, 15300, 15401, 15300, 16200, 12405, 16700, 12406, 16102, 16700, 16700, 980300, 16400, 15100, 30102, 12405, 16602, 15802, 16500, 16300, 12202, 17102, 30202, 30202, 30102, 16400, 15702, 16400, 15701, 16300, 15300, 30201, 17101, 15900, 30101, 15201, 980300, 980300, 16200, 15202, 15802, 12405, 30102, 16300, 16801, 30101, 16300, 15900, 16300, 30201, 16802, 12202, 15802, 17102, 30101, 30101, 980300, 30101, 17102, 980300, 16300, 15900, 16700, 30202, 16802, 15202, 16200, 12406, 16000, 20202, 15801, 980300, 17101, 15202, 16601, 15900, 16101, 16102, 17102, 30102, 17102, 16000, 16300, 16602, 15202, 30102, 16602, 16500, 15802, 16200, 16500, 16300, 15701, 16700, 16802, 16400, 16601, 16801, 16801, 15202, 16802, 16500, 15202, 16200, 15401, 30102, 980300, 16601, 15202, 30102, 15702, 15500, 15500, 15300, 16200, 16801, 16200, 15801, 16700, 16400, 30102, 15500, 16801, 16101, 16000, 15201, 16300, 16700, 15801, 15802, 16801, 16300, 15802, 16500, 15801, 15100, 16801, 16602, 12406, 16300, 16300, 16602, 16400, 16802, 30101, 17102, 30102, 16000, 15300, 15202, 15900, 16400, 16700, 15300, 16300, 20202, 980300, 980300, 16000, 17102, 16500, 30202, 16602, 16500, 15801, 16200, 15702, 15802, 30102, 15500, 30101, 16500, 17102, 15701, 12405, 16300, 16500, 15500, 30202, 15100, 16300, 16102, 16601, 16500, 30102, 30201, 15100, 15801, 12405, 30102, 15801, 30101, 15500, 30101, 16801, 16802, 30102, 17101, 15801, 20101, 16500, 15801, 16500, 17101, 15100, 16200, 16200, 15900, 15300, 16101, 16801, 15801, 13500, 30102, 15702, 16300, 16400, 15100, 16700, 30101, 16200, 16802, 30201, 30201, 16200, 15201, 16000, 15900, 12002, 15201, 30301, 16200, 16200, 16700, 15802, 17102, 17102, 15202, 16802, 980300, 30202, 30202, 16500, 15202, 15802, 16200, 16200, 16601, 16700, 16102, 16700, 16802, 30202, 17102, 30102, 16602, 16000, 16601, 12202, 15500, 15401, 16802, 16000, 16400, 30101, 15801, 17101, 16500, 16300, 16101, 16000, 15702, 17102, 17101, 16000, 30202, 16500, 16200, 16102, 15500, 980300, 17102, 15802, 16802, 16802, 30101, 15500, 15202, 16400, 30102, 16101, 12202, 30301, 16601, 15202, 16601, 16601, 16500, 17102, 16500, 16000, 15201, 15500, 30101, 30102, 15801, 15802, 30102, 30101, 15500, 16802, 15202, 17101, 980300, 17101, 980300, 30202, 980300, 16601, 15802, 16801, 15801, 15801, 15500, 15900, 15801, 12202, 15900, 15401, 15201, 30202, 15801, 30202, 30102, 30201, 16500, 16200, 16000, 15100, 17102, 15500, 30201, 15801, 16102, 17101, 16500, 16200, 16000, 17101, 16802, 16801, 15702, 16500, 15100, 16801, 980300, 15500, 30102, 15202, 30202, 15900, 16601, 16802, 16802, 16500, 16700, 15900, 30101, 16400, 30201, 30201, 15802, 15500, 12405, 30101, 12202, 16601, 30201, 30201, 30201, 16300, 16700, 15900, 15802, 15801, 15801, 30101, 30202, 16801, 15401, 17101, 16101, 16200, 16802, 12202, 30101, 16700]</t>
-        </is>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 0.9821826773963463, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 7.086141972960283e-08, 0.9999999999999999, 0.9999997635330204, 0.009810646790113165, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 0.9999997863019282, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 7.082665762818818e-07, 0.99999990657405, 1.0000000000000002, 0.9999999999457906, 0.999999999776173, 0.004491635040880893, 0.9999996530426556, 1.0000000000001275, 6.387408845937357e-05, 0.03754623993925838, 1.0, 0.9999999999999998, 0.0027461123988144318, 1.0000000000000002, 1.2495163487105501e-08, 0.9999999999999999, 0.9999998563533441, 0.9878684258227344, 0.9999999999999999, 4.702991785970501e-08, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.04166769476973968, 1.0, 0.9999999999999999, 0.010079086742362598, 1.0, 0.9999999999999998, 7.801458484307129e-07, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999996, 1.0, 0.9962715112359116, 1.0, 1.0000000000000002, 0.9999999410849674, 1.0, 1.0, 0.9999999999999998, 1.0, 0.0002716659152549929, 1.0000000000000004, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999998823042466, 0.9999999999999999, 3.7940868120410165e-11, 0.9999999999999997, 1.0, 1.4284666258418679e-05, 0.00015413346944759962, 0.9999999973315508, 0.9999999208057365, 0.018283205098092326, 0.9999999929433504, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999798112564, 1.0, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0, 5.768075543434934e-08, 1.0, 6.369635043697035e-06, 8.473065297055706e-08, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999961919, 1.000000000003777, 1.0, 0.999870623012395, 0.007587044510721531, 1.0, 0.9999999999999998, 1.963946623432331e-10, 0.9999999999999999, 1.0000000000000002, 1.0, 0.000707068144782575, 0.9999998997368746, 1.0000000000000002, 1.0, 0.9999998402268525, 1.3201048101345533e-07, 1.5872268192497625e-07, 1.0000000000000002, 0.0006695949922895027, 1.0000000000000002, 0.010548842251263603, 1.0000000000000002, 7.799109281464286e-08, 1.0000000000000002, 1.0000000000000002, 1.0, 0.98267003255423, 0.9999999528402443, 0.054898858420849794, 0.9999999999999999, 1.0, 1.0, 1.0, 0.0796063416806939, 1.0, 0.9999997357272999, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 8.733108853602961e-06, 0.9999999999999999, 2.749839538024609e-07, 1.0000000000000004, 9.838311170536133e-09, 1.0, 1.0, 0.9999999999999998, 1.0, 6.937193011496372e-09, 0.9990799043189648, 0.9999998005233807, 1.0, 0.052741816841754906, 4.281836642185206e-08, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 0.8092819324377929, 1.6418462316971853e-05, 0.08039175189597463, 0.9999999999999998, 1.0, 0.9999999595436794, 1.0, 5.6503760367107696e-08, 1.0, 0.9999999999999999, 0.9999500187750576, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999993925437839, 1.0000000000000002, 0.004003884617451101, 0.999999999996953, 0.017318249301770696, 1.0000000000000002, 1.0, 0.9999997546043651, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9157592678017089, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999997161, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 0.00010027689568863945, 1.0000000000000002, 7.530426954018478e-05, 0.0002983139624223812, 1.0000000000000002, 1.0, 1.0, 0.9999996541657626, 1.0000000000000002, 1.1233346727291923e-07, 0.9999999999965081, 1.0, 0.9999997477166668, 1.0, 1.2574817492030695e-07, 8.885841561935452e-08, 1.0, 0.9999999999999999, 0.9999999996030414, 0.9999999778604324, 0.9999996976518625, 1.0, 0.9999980794244612, 2.006010793525525e-07, 1.0000000000000002, 0.9999999999997832, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999995697821027, 0.99999994735441, 1.0, 1.0, 1.0, 0.9999998558489778, 1.0, 1.2070541655626916e-09, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 0.9999999947462372, 1.0, 1.0, 8.046404390245169e-08, 1.0, 0.006824358765560427, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999998958586607, 1.0, 0.9999999999999999, 1.0, 0.9999999999983082, 1.8313376549928304e-07, 1.0000000000000002, 0.001840203754862112, 0.006853656772894728, 0.9999999663808485, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 0.8471579730337065, 1.0000000000000002, 1.0, 0.0002710022972342742, 1.0000000000000002, 5.506940518008553e-08, 0.2131340879234728, 1.0000000000000002, 1.0000000000004379, 0.9999998864861969, 0.037687344392197876, 5.5843799929141816e-11, 1.0, 1.0, 1.0, 1.0, 0.9999997255496069, 0.9999999999999998, 0.00014792530963326494, 5.104457691149522e-07, 0.03014742374276212, 1.0000000000000002, 0.9999999966429395, 1.0, 1.0, 0.9999999999999998, 0.9999996982606316, 1.0000000000000002, 0.9999999794359117, 2.516764114898788e-08, 1.0, 0.0016623833756346897, 0.9999999999999998, 1.0, 1.0, 4.3919070501363354e-07, 0.00027809784944416127, 1.0, 1.0, 1.0, 1.1313133087667103e-07, 1.0, 0.9999996489921407, 1.0, 3.170561639616784e-08, 3.09632976378808e-07, 0.9999998427974025, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999430901, 0.9999999131729478, 1.0000000000000002, 1.0, 1.0, 0.819885769795932, 0.9687869317053651, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.00048411191287207536, 1.0, 1.976791581063822e-15, 1.0, 0.9999999999999999, 0.9999999075535377, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 0.9999999862520274, 1.0, 1.0, 0.9999999220354528, 4.7069988826952417e-08, 1.0, 1.0, 0.9999999999999999, 0.9999997843638733, 1.0, 1.0, 2.1718952385733252e-07, 0.9718597677033073, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.1934566031196892e-11, 3.138951413860934e-07, 4.140778384470907e-08, 1.0, 0.9999999153328156, 0.9999999999999999, 0.9999999999999998, 0.564789620173636, 0.9999999839499588, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 5.072479577410712e-08, 1.0000000000000002, 0.03955779288434414, 0.9999999965213284, 1.0, 1.0, 1.0, 1.1792989289651218e-08, 1.0000000000000002, 0.9999999323150012, 0.9739478408491364, 1.0000000000000002, 1.0, 1.0, 0.999999999999095, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 0.0020805440654138646, 8.446965845777356e-08, 1.0, 0.9999997877802593, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999997433489409, 0.9999999999969507, 1.0000000000000002, 0.8605464217149229, 1.0000000000000002, 1.0000000000000002, 9.16152767613352e-09, 1.0, 1.0, 1.0, 1.0, 1.9301056744986902e-07, 0.9998157720067694, 0.9999993939791293, 4.993528859908765e-09, 1.0, 5.1263293133937705e-08, 0.9999999999999999, 1.0, 0.999999962243166, 1.0000000000000002, 2.1718278619809764e-07, 0.999999981360785, 1.0, 1.0, 0.9386712408399583, 1.0, 0.9999995412928919, 4.409135761710549e-07, 0.04095852389869052, 1.0000000000000002, 1.0, 1.0000000000000002, 0.002857324010628168, 0.9999999999999999, 0.9722123486582274, 1.0, 0.00030088931593618714, 1.0, 1.0, 0.7947675721357017, 0.9999999979604197, 1.0, 0.9999999834515525, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999507456111, 0.9999996950573683, 1.0, 0.9999997442791165, 1.0000000000000002, 0.999999970158805, 2.411026388908178e-07, 0.9999999344707294, 0.9999977732952635, 0.009181535572113072, 1.0, 1.0000000000000004, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9991082540691668, 0.999999707330881, 0.9999999940956622, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.0019327026409726223, 1.0, 1.0, 0.04655008402686448, 1.0, 0.0805423524383442, 0.9999999797553826, 0.9999999999231892, 1.0, 1.0, 1.0, 0.9999997988879188, 1.0, 1.00000000000034, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999156251347, 6.920055593082217e-08, 0.9999999956661719, 0.9999999995211815, 1.0000000000000002, 1.0, 0.9999999999999999, 0.07801663159614956, 1.0, 0.9999998990458459]</t>
+          <t>06_075_017102, 06_075_016801, 06_075_012202, 06_075_015801, 06_075_016802, 06_075_017101, 06_075_980300, 06_075_030202, 06_075_016500, 06_075_015300, 06_075_013500, 06_075_015100, 06_075_015900, 06_075_016000, 06_075_016200, 06_075_016300, 06_075_016400, 06_075_015500, 06_075_016700, 06_075_015802, 06_075_032601, 06_075_017700, 06_075_020401, 06_075_030101, 06_075_030102, 06_075_030201, 06_075_030301, 06_075_030500, 06_075_012405, 06_075_020101, 06_075_015701, 06_075_015702, 06_075_016602, 06_075_016601, 06_075_016101, 06_075_016102, 06_075_012406, 06_075_015401, 06_075_015202, 06_075_015201, 06_075_012002, 06_075_020202</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>0.9999999999999999, 0.6110547993985652, 0.045600034260255794, 0.9197076940493801, 0.9469467893361851, 0.6307897446345837, 0.18799713347162383, 0.7849368541257905, 0.8747252179137829, 0.13147070594173743, 2.060593090130075e-09, 0.21751483401356558, 0.9999999999999996, 0.9996522702658136, 0.9976154356130925, 0.9999999999999999, 1.0, 0.950655495550452, 0.4615130525448093, 0.9999999938259896, 2.547864988161464e-05, 2.8760987514004142e-05, 5.519397589203856e-10, 0.9605746503847863, 0.31907139579070937, 0.45737217252766166, 2.1938961541869e-09, 4.13920518212435e-09, 0.0025863665705420573, 0.0007852731852930123, 5.472500917490268e-06, 0.39348987982562866, 1.0000000000000002, 0.9999999942877545, 0.9999999999999999, 1.0000000000000004, 0.00309596917204823, 0.0726943741991946, 0.7458021157054827, 0.8308013643084596, 7.39936818234793e-06, 0.0005569587021135835</t>
         </is>
       </c>
     </row>
@@ -11860,18 +10310,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>[30900, 30301, 33201, 31100, 30900, 30700, 33204, 30700, 35300, 30301, 30500, 30500, 30301, 30302, 30301, 31000, 30800, 60400, 30600, 31000, 30800, 31100, 30400, 33203, 31100, 30400, 30800, 31100, 30900, 30900, 33100, 33001, 30102, 33100, 30800, 30500, 30400, 30301, 30800, 30600, 30302, 30800, 30600, 30800, 30600, 30101, 30301, 30700, 30800, 31100, 25501, 30102, 30400, 30700, 30600, 30900, 30301, 30700, 30302, 30301, 30600, 30202, 33100, 30202, 30800, 30400, 31100, 31000, 30900, 33204, 31100, 33204, 30600, 31201, 31100, 30600, 31100, 30900, 31000, 30800, 30800, 60400, 30900, 25502, 60400, 30201, 30102, 30900, 30900, 31100, 30900, 30400, 30302, 30900, 31100, 30302, 31000, 30900, 31100, 31100, 33201, 30900, 30900, 30900, 33001, 30102, 30800, 31100, 30101, 33204, 31201, 31000, 30900, 30400, 33100, 30700, 30900, 31201, 31100, 30900, 30302, 30301, 30400, 30700, 30700, 30400, 30900, 30800, 30900, 30600, 30102, 60400, 30900, 30301, 30102, 30400, 31000, 30600, 33100, 30800, 31201, 30900, 30700, 30800, 30400, 30900, 33203, 30301, 30800, 30800, 30600, 30800, 30900, 30800, 31100, 31100, 30900, 30900, 35400, 31302, 31100, 30900, 30102, 30400, 30302, 35300, 33201, 30700, 33204, 30302, 30900, 30302, 30900, 30302, 30400, 30900, 21700, 33100, 30900, 30700, 32601, 30500, 33204, 30301, 33100, 30102, 30900, 33100, 30800, 20402, 30102, 33100, 30900, 30400, 30800, 31302, 25502, 31302, 30102, 30700, 31100, 30600, 30900, 33203, 30900, 31000, 31000, 30800, 30700, 30302, 30600, 31000, 30600, 31201, 30600, 30900, 33100, 30202, 33100, 30301, 30800, 31100, 31000, 35400, 30301, 33203, 30900, 33100, 30102, 33100, 33001, 30600, 30800, 35400, 30800, 31100, 30500, 30301, 33203, 30400, 31000, 30700, 33100, 31302, 31201, 30800, 30900, 30900, 31100, 30900, 30302, 30700, 31000, 30600, 33001, 30600, 30400, 30400, 31100, 30900, 30201, 33100, 33100, 31201, 30800, 30800, 31000, 30500, 33204, 30201, 30600, 21700, 30102, 30900, 30900, 33203, 30900, 30101, 30600, 33204, 33201, 30900, 30301, 30700, 31100, 31100, 30900, 30800, 31301, 30400, 33201, 30500, 30900, 30302, 30900, 30301, 30600, 30800, 30301, 30900, 30500, 30800, 30400, 33100, 31100, 31302, 33203, 30700, 33204, 33100, 30900, 33204, 60400, 32602, 30800, 33100, 30302, 33100, 31100, 33203, 30600, 33100, 33100, 33203, 25502, 31201, 30301, 30900, 31000, 31100, 30400, 30700, 30900, 30900, 31201, 31202, 31000, 30900, 30400, 30102, 31302, 31100, 30800, 31100, 30400, 30302, 31100, 33204, 31000, 30800, 30800, 32602, 30700, 31000, 30102, 35300, 31100, 30301, 30400, 30800, 30700, 31000, 30900, 30800, 30301, 30900, 30600, 33100, 30301, 31302, 33100, 30900, 31201, 31100, 30700, 30400, 30102, 30600, 30302, 30302, 30302, 30102, 30102, 30700, 31000, 30900, 31100, 31301, 31301, 30900, 21700, 30301, 33201, 30301, 30900, 25502, 60400, 30700, 30900, 30900, 31302, 31201, 21700, 30900, 30900, 25502, 30700, 30302, 21700, 30600, 33204, 30600, 30600, 30900, 30900, 31100, 30900, 30700, 30400, 30700, 31000, 31000, 30900, 31201, 30700, 20402, 31301, 30400, 33100, 35400, 30800, 31301, 32801, 30500, 33204, 30500, 30900, 31201, 30301, 33100, 33204, 33001, 30700, 30900, 32802, 30201, 30400, 30900, 30900, 30800, 25501, 30800, 30800, 30900, 30500, 30302, 33100, 30400, 33100, 30700, 30800, 30800, 30400, 30400, 30102, 30800, 33203, 30400, 30900, 33100, 30700, 33203, 30400, 33100, 30600, 30302, 30900, 30900, 30700, 30900, 30302, 33201, 30301, 31100, 31301, 33204, 30400, 30202, 30800, 30102, 60400, 30302, 30102, 31301, 30900, 30400, 31000, 31000, 30800, 30301, 31000, 31100, 30800, 30700, 30302, 33001, 30900, 30900, 30900, 30900, 31000, 30900, 33001, 30301, 30500, 33201, 30800, 31100, 33100, 33100, 33100, 33100, 30400, 30900, 30302, 31100, 31201, 30201, 30600, 30800, 30700, 33201, 31302, 30900, 30302, 33100, 30101, 30900, 30301, 31201, 30700, 30201, 33204, 31100, 30400, 30302, 30500, 30700, 30600, 31000, 30900, 30800, 31301, 31000, 30900, 30900, 33100, 30900, 30302, 30301, 30400, 30700, 30700, 30700, 33100, 30900, 30302, 30301, 31201, 30600, 30900, 30301, 30302, 30301, 31000, 30900, 31000, 30301, 30700, 31100, 31301, 31000, 31302, 30700, 30800, 30700, 30400, 31100, 30700, 33100, 30800, 30301, 30900, 30800, 30900, 30400, 30600, 30400, 35300, 31301, 33100, 30102, 30400, 30302, 33100, 30500, 26201, 31000, 31000, 30800, 31100, 30900, 31302, 30700, 30900, 33203, 30600, 30400, 30301, 30800, 30900, 30900, 30800, 30800, 31201, 30800, 30900, 30800, 30800, 31100, 31100, 33204, 30900, 30400, 30600, 33100, 33204, 30600, 30900, 31000, 31302, 30900, 30302, 30900, 30302, 33100, 30500, 30301, 33201, 33100, 33100, 31000, 30700, 60400, 30700, 31201, 33100, 30301, 30102, 30700, 30302, 30900, 30800, 31100, 30800, 31100, 33100, 30800, 31100, 30302, 30202, 30700, 31100, 30900, 30900, 30700, 30302, 30301, 30700, 30302, 30800, 30301, 31201, 31100, 30201, 33100, 30301, 30301, 30900, 30301, 30301, 31000, 33100, 30900, 33201, 30900, 30700, 30102, 30900, 30700, 33203, 33204, 30102, 31302, 30900, 30800, 30900, 30800, 30900, 31100, 31201, 33002, 33001, 30800, 30400, 30900, 30900, 30102, 30500, 30800, 30900, 30500, 60400, 30800, 30800, 30900, 30301, 31100, 30400, 31000, 33201, 33203, 30500, 31302, 31000, 33002, 33100, 31201, 30800, 31100, 30400, 30400, 31000, 30800, 30400, 31302, 30302, 33203, 30301, 30500, 31000, 30800, 31100, 30900, 30202, 30201, 31100, 31301, 30302, 30400, 30400, 31201, 30600, 30900, 33201, 33001, 30302, 30400, 31100, 30900, 30900, 33203, 30201, 21700, 30800, 31100, 31000, 30500, 30301, 30800, 31100, 30800, 30800, 31100, 30900, 30800, 31100, 33204, 30700, 31000, 60400, 30500, 30700, 30301, 31302, 30800, 33100, 30400, 30700, 33100, 35400, 33201, 30102, 33100, 31100, 30800, 31000, 33203, 30400, 30400, 30700, 30600, 30102, 30900, 30900, 30700, 30700, 30400, 31100, 30800, 30400, 30400, 31000, 31000, 30400, 30600, 30302, 35300, 30800, 31302, 30900, 33204, 30700, 26100, 20401, 30600, 30900, 31000, 33100, 31000, 33100, 33203, 33203, 30900, 30400, 30302, 31100, 31201, 30800, 30900, 30202, 31201, 30900, 30900, 31301, 30800, 31201, 31000, 31000, 31100, 31100]</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9950700781620313, 0.9999999999999996, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 3.7421313162152446e-08, 0.9999999999999999, 0.9999998927510406, 0.9999311454671919, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9579026415830247, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0, 3.1791919609859005e-08, 0.9999999999999998, 0.9999999999999982, 0.9999999999999998, 1.0, 1.0, 0.9882346389265216, 9.024174650516814e-12, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999998950805923, 1.0, 1.0, 1.0000000000000002, 1.0, 0.8397045442161519, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 9.342441112449403e-08, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 5.4237605696973314e-08, 0.16907743177749332, 1.0, 0.9999999999999998, 0.9999958501055662, 1.0000000000000007, 1.0, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 1.0, 1.0000000000000009, 1.5459926056115603e-14, 0.9975582546817408, 0.962453760060773, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9987320171997178, 1.0, 0.9122929828309123, 0.9843941019392713, 0.9583323052303327, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999996, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 0.9999999999999999, 1.0, 1.9308937480627562e-07, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999593010077, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9989815912012768, 1.0000000000000007, 0.9967201497036952, 1.0, 1.0, 0.9701998140731158, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999996945000604, 1.0, 1.0, 1.0, 0.981716794901916, 0.9992442881794633, 1.0, 1.000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9959342960447278, 1.0000000000000002, 0.0198236133957852, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999988, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 1.0, 0.9999999999999997, 0.9999999339179094, 2.9960449056999033e-09, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0000000000000002, 1.0, 1.0, 2.318518784198026e-08, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 0.008781511544652848, 1.0, 1.0000000000000002, 1.0000000000000002, 0.0013559169869757936, 0.9999598812162709, 0.9999999999999999, 1.0, 0.9999999999999997, 0.9999999999999997, 1.0, 0.9926832275779043, 0.9999999999999997, 1.7065142924436467e-07, 0.9999999999999997, 1.0, 1.0, 1.0000000000000002, 1.0, 0.8576242958262885, 0.335441298976893, 1.0, 4.715816152337253e-08, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 2.642741357132135e-07, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.1484288473265436e-07, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 1.0, 0.00010938321589070064, 1.0, 0.9075724460798216, 0.0031705567219688143, 1.0, 1.0, 0.9999999999999994, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999988777261567, 1.0, 0.0046015782458742865, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000004, 0.0020678465623997218, 0.9999999999999994, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000004, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999456145068, 0.9999999999999999, 0.1907180675603398, 1.0000000000000002, 0.005448244540851761, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999999999999, 4.045912424542513e-08, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 3.088984427675077e-08, 0.9999999999999998, 1.0000000000000002, 1.6953519536295516e-09, 1.0000000000000002, 1.0, 0.9999999999999996, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999999, 0.9999998896419713, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 0.9999999999999996, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.8193290572053454, 0.034785801298809094, 1.0000000000000004, 0.9999999999999998, 0.841478953198314, 0.9999999999999997, 1.0, 0.9999999999999997, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 9.103572942725349e-09, 1.0000000000000002, 0.9999999999999998, 0.9999404023777646, 1.0, 1.0000000000000002, 0.9999999999999977, 1.0, 0.9999999999999998, 0.9999999999999999, 0.0001037186525197718, 0.6185616646112571, 1.0, 1.0000000000000002, 1.0, 0.08424073219894523, 0.9999999999999999, 1.0000000000000004, 0.9102405637120381, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999998868373039, 0.9999999999999997, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.032785537538835355, 0.9999999999999998, 1.0000000000000002, 1.0, 6.642473390753778e-08, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 0.11755470047713555, 1.0, 0.9998672535303782, 2.0820785942992976e-07, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999111409438, 1.0000000000000004, 0.7873658746712229, 0.9999999999999997, 0.9999999999999999, 1.0000000000000002, 2.2139239948543358e-08, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999327304114, 0.11083116048905821, 1.0563794368272462e-07, 0.9999999999999999, 0.08003822583745608, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.4323125326782722, 1.0000000000000029, 0.9999999999999999, 1.0, 1.0, 0.9993786632765873, 1.7956735203827968e-07, 0.0002504773378148053, 0.9999999999999999, 0.9999999999999996, 3.2001634315401833e-07, 7.078523912239845e-08, 1.0, 0.9856673315790205, 0.9999999999999999, 1.0000000000000004, 0.9999999999999998, 0.9871615974376623, 1.0000000000000002, 1.0, 1.0, 0.9999999999999997, 1.0, 1.0, 0.9999999993893137, 1.0, 1.0000000000000002, 1.0, 0.9993771986678996, 1.0, 1.3367845708727415e-07, 0.23891347758800788, 0.9999999999999998, 0.9999999999999992, 8.837730381139398e-08, 0.9999999999999998, 0.21542513325432572, 1.1825414448226129e-06, 1.0000000000000002, 1.0, 1.0, 1.0, 5.704501762871558e-08, 1.0000000000000009, 0.9968362336806521, 0.9999999999999999, 3.908756206445482e-08, 0.9999999999999998, 1.0, 0.0021006536526568136, 1.0, 1.0, 0.9999999999999998, 0.9999999845758147, 1.0000000000000002, 3.9636014992566134e-08, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9773436232401854, 0.8071044223487224, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.15284202696639926, 1.0, 0.9999999999999999, 1.0, 1.0, 0.977920359135282, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 1.0, 1.0, 1.0, 3.677859730043804e-13, 1.0000000000000002, 1.0, 0.9623126556077741, 1.0, 0.9999999999999999, 0.983131114636627, 1.0, 2.7444790213703774e-07, 1.3989758848019384e-07, 0.9999999008217443, 1.0000000000000002, 0.9999999999999993, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 1.808151923909492e-08, 1.0000000000000004, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.4212433140867158e-07, 1.0, 0.9999999246475076, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9961015236759078, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000007, 1.0000000000000002, 0.9931961898676402, 0.9270382399957522, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999800023368, 1.0, 1.0000000000000004, 0.9808152962622583, 8.682680014482092e-08, 0.9999999999999998, 1.0000000000000004, 3.96947139908993e-09, 0.9999999999999999, 0.18006195653930884, 1.0000000000000002, 0.999999882056209, 0.9999999999999996, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.0034999658243380443, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999987774, 1.0, 1.0000000000000002, 0.9999997516992389, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 5.077028334818747e-08, 1.0000000000000002, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 2.9077591861866128e-08, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0000000000000007, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.7926179670859993e-09, 5.934028140406394e-08, 0.9999999801628238, 1.0000000000000004, 1.0000000000000004, 1.0000000000000002, 0.9999999173225372, 1.0000000000000002, 6.51998671982811e-08, 1.0000000000000002, 0.9999999999999996, 0.009633202511460296, 1.0, 1.0, 0.21526179975945967, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 1.0000000000000002, 0.9999999564915673, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999997958427721, 0.9999999999999998, 1.0, 0.9999832804941929, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.999998544570213, 0.9999999999999999, 1.8377651485630952e-07, 1.0, 1.0, 0.9999999999999998, 8.514732348005472e-07, 0.9999999999999997, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 0.9604422071155618, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 6.829620658217113e-08, 1.0000000000000002, 1.0, 0.9973805952371493, 1.0, 0.9999999155322744, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 0.1394535782850494, 1.0000000000000002, 0.9999999999999973, 1.0000000000000002, 1.0, 4.925171503030872e-09, 0.9878818835917478, 0.9999999999999998, 1.0, 0.9996208869896767, 0.9999999999999998, 1.0, 0.9999999999999999, 6.484368709496941e-08, 3.6793028447922944e-05, 3.873618099030288e-08, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999982935169455, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 2.3537032260773402e-07, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999994, 1.0, 1.0, 9.381987634819572e-05, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999998, 0.999999967269544, 1.0000000000000002, 0.7760585632628764, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 1.0000000000000002, 0.9999461662140225, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 0.9590414760974453, 0.9589696062376917, 1.0, 5.218010603325825e-10, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999540132867, 1.0, 0.9999999999999998, 1.0000000000000002, 4.172618459914201e-08, 1.0, 0.9999999999999999, 0.9999997246854218, 0.9999999999999999, 0.9880971867342927, 1.0000000000000007, 0.20523242786564122, 0.5615830291046573, 0.9999999999999999, 1.0, 1.0, 0.9999999999999334, 0.9999999999999999, 0.9999999999999999, 0.9999996427750568, 0.9666937091057889, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.1850994226240834e-07, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 0.9999999999999992, 0.9883951930714667, 0.9837315493867739, 1.0, 1.0000000000000002, 0.015806191734686618, 1.0000000000000004, 0.9977455159487019, 8.132922283831604e-09, 1.0000000000000002, 0.9908184644284949, 0.9980663816015599, 1.0, 1.0, 1.0000000000000002, 1.0, 0.7501921886725376, 1.0, 1.0000000000000002, 0.9800817232185144, 1.0, 0.9999999999999999, 1.0, 0.9999999471677647, 1.0257922521365352e-07, 1.0, 0.9999999274483986, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 1.1451867732730453e-07, 1.0, 0.045652369654639806, 0.9999999900319477, 0.9999999999999999, 1.0, 4.4329808630860516e-08, 9.213910245432108e-08, 1.0, 1.0, 1.0, 0.9378552311544152, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999991, 8.437809417645046e-08, 1.9968211848448183e-07, 1.0, 1.0, 5.4207080407580756e-08, 1.0000000000000002, 0.999999958957316, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 6.764133879896346e-08]</t>
+          <t>06_075_032801, 06_075_031201, 06_075_031202, 06_075_032602, 06_075_032802, 06_075_033203, 06_075_033204, 06_075_030202, 06_075_020402, 06_075_031301, 06_075_031302, 06_075_032601, 06_075_030900, 06_075_031100, 06_075_031000, 06_075_033100, 06_075_033201, 06_075_035300, 06_075_035400, 06_075_021700, 06_081_600900, 06_075_026100, 06_075_060400, 06_075_020401, 06_075_030101, 06_075_030102, 06_075_030201, 06_075_030301, 06_075_030302, 06_075_030400, 06_075_030500, 06_075_030600, 06_075_030700, 06_075_030800, 06_075_026201, 06_075_033001, 06_075_033002, 06_075_025501, 06_075_025502</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>3.853084924803317e-08, 0.45110022175953535, 0.07486703997036837, 0.002851486057129346, 6.249969176587883e-05, 0.9999999999999996, 1.0000000000000002, 0.21506314587425146, 5.364562674172068e-08, 0.01931389789856373, 0.3621675120532764, 6.732448645964522e-05, 0.9999722893809505, 0.8998326755823369, 1.0, 0.997632005834956, 1.0000000000000002, 3.191824268866986e-09, 9.47461703964722e-06, 0.0026207888175786976, 2.9621258527246663e-09, 3.0408657277025467e-09, 0.8310232542246073, 6.731478009755762e-09, 0.03942534961516738, 0.6553075449194238, 0.3198522891902081, 0.9999546449753585, 0.9979567049673386, 0.9957575658583232, 0.9999828346127062, 0.9990685113138076, 0.9586424973438393, 0.9965820761761954, 1.1146315696691826e-08, 3.1553924936454346e-05, 2.9591130971242883e-05, 0.010566141733724081, 0.03471282218211583</t>
         </is>
       </c>
     </row>
@@ -11914,18 +10358,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>[25100, 25702, 17700, 25702, 25402, 22901, 26002, 25300, 25701, 22901, 23300, 22901, 25800, 17700, 25402, 22803, 25402, 25100, 25900, 25100, 25701, 25300, 25200, 20701, 20900, 25100, 20102, 20900, 25900, 20801, 22803, 20900, 25800, 25600, 22901, 17700, 25702, 17700, 20802, 20802, 20202, 25403, 22801, 25701, 22902, 25701, 25200, 25200, 25701, 25401, 25502, 20702, 25200, 25402, 980501, 25702, 20201, 20101, 25300, 25401, 22802, 17700, 22801, 22801, 25800, 25402, 22903, 25100, 25900, 22803, 25401, 20101, 25300, 25200, 20900, 25900, 17700, 25900, 26002, 25600, 20101, 20102, 25702, 25200, 22902, 25702, 25600, 17700, 25600, 17700, 22901, 25701, 20101, 25403, 22803, 20101, 25800, 25403, 25600, 25300, 25100, 17700, 25401, 25100, 25100, 25403, 20101, 20900, 22801, 22801, 22801, 25402, 25200, 22901, 20900, 25401, 25702, 25900, 25900, 25701, 25701, 25300, 25300, 25403, 25200, 22902, 25900, 20102, 20101, 25200, 25701, 25402, 20900, 22801, 22802, 25401, 25300, 25403, 25900, 20900, 20202, 980501, 25701, 25401, 25600, 22802, 17700, 25403, 25100, 25100, 25200, 25402, 25200, 20802, 20801, 22801, 17700, 20101, 20202, 22801, 17700, 25300, 25403, 25702, 25300, 25300, 20900, 25100, 25900, 25100, 20701, 25900, 25100, 25600, 25702, 20101, 22801, 20900, 25402, 25200, 20900, 17700, 22803, 25701, 25401, 22901, 25702, 22801, 17700, 17700, 21500, 25702, 25600, 20900, 20801, 25600, 25200, 22901, 22903, 25600, 25401, 20900, 22801, 22801, 17700, 25200, 25402, 25200, 25402, 25100, 20102, 22902, 23300, 25702, 20702, 20801, 25402, 20202, 25701, 22903, 22801, 20102, 25200, 20900, 21000, 20201, 25401, 25701, 25401, 21000, 22801, 17700, 22801, 25702, 25403, 25402, 20802, 25300, 22901, 25200, 25600, 980900, 25900, 25402, 25702, 25600, 25300, 25900, 25402, 25701, 25403, 25701, 25701, 17700, 17700, 20801, 25600, 25800, 25900, 22901, 25300, 25702, 25200, 22801, 25701, 25800, 25900, 25702, 22903, 25401, 25701, 25900, 22902, 20900, 20102, 25100, 25600, 25100, 25800, 20900, 20102, 980900, 25402, 25402, 25100, 22801, 22803, 25100, 25600, 20802, 25300, 25800, 25200, 25100, 25100, 25200, 25900, 25403, 25402, 20900, 25200, 17700, 25702, 25702, 25701, 22801, 22902, 22903, 25300, 25600, 25300, 25702, 25701, 20102, 20101, 17700, 20900, 17700, 20802, 17700, 22903, 22901, 25100, 25100, 25702, 23001, 22801, 20102, 25701, 25402, 25403, 25100, 25300, 25702, 22802, 25402, 20101, 25300, 25402, 25702, 25900, 25403, 22901, 25600, 26002, 25401, 25403, 25701, 22903, 25900, 25300, 22903, 20101, 20102, 25600, 17700, 26002, 25401, 25100, 25401, 20802, 25403, 25702, 25702, 20801, 25403, 25600, 22902, 25600, 25600, 20801, 25702, 25600, 20101, 22801, 25800, 25403, 25702, 25100, 25900, 25702, 22902, 22803, 25300, 20201, 25100, 25200, 26002, 20202, 980900, 22903, 25401, 25800, 25402, 22803, 26003, 25701, 25300, 22801, 20101, 25401, 25300, 25402, 25403, 25200, 25200, 25701, 26002, 25900, 25702, 21000, 20101, 21800, 22901, 22901, 22801, 25200, 20900, 26002, 25702, 25600, 25402, 20701, 25403, 17700, 25300, 25100, 25401, 25300, 22803, 25200, 20801, 22903, 25100, 21000, 26003, 25200, 22801, 25300, 25701, 25300, 20801, 22901, 22801, 25702, 22803, 22803, 25402, 25200, 980900, 25403, 20701, 20801, 22801, 25401, 25402, 25701, 25402, 25800, 25200, 20900, 25300, 25300, 26002, 25100, 22901, 25702, 25300, 26002, 25600, 22901, 22801, 25401, 25200, 25403, 22902, 25200, 25401, 25702, 25100, 20802, 22903, 22801, 22801, 25200, 17700, 22801, 25300, 25200, 25701, 25402, 25600, 25701, 25701, 25200, 25701, 25300, 25403, 22901, 20900, 25900, 25100, 25402, 25402, 25403, 25402, 25100, 25100, 20101, 25701, 20900, 25100, 25100, 20802, 20900, 20102, 20900, 25200, 980501, 25403, 22802, 25200, 22801, 25502, 22803, 20801, 22803, 22803, 25100, 20101, 25100, 25402, 25900, 25402, 25900, 25900, 25300, 20900, 25200, 20802, 17700, 980501, 25401, 25300, 25300, 20801, 25600, 20102, 25300, 22803, 22801, 17700, 22802, 25402, 25702, 25900, 25401, 25100, 25600, 22901, 25702, 25403, 25403, 25200, 20900, 25900, 25200, 22901, 22902, 25403, 26002, 17700, 25402, 25200, 25100, 20102, 22902, 20900, 25403, 25200, 17700, 22801, 20900, 25403, 25900, 22801, 25100, 22901, 20801, 20802, 25100, 22902, 25600, 25200, 22901, 25900, 25702, 25300, 22803, 25200, 25600, 25402, 25701, 25701, 25300, 25300, 25402, 980900, 22903, 22901, 25701, 25800, 25401, 25403, 22801, 25401, 20801, 20102, 25600, 25600, 17700, 25701, 22803, 23001, 20701, 17700, 25200, 25100, 20802, 22801, 25600, 25402, 22803, 25402]</t>
-        </is>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 0.999889570819182, 1.0, 1.0, 0.9999999999999999, 9.269918251358382e-08, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.892726605239721e-07, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.12180448627236196, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.9025755506499764e-07, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 4.280332057701156e-08, 3.021745644147031e-09, 1.0, 1.0000000000000002, 1.288074035981698e-05, 0.9999998782259284, 3.4005439631284266e-07, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.03193702572610818, 0.6232253832691725, 1.0, 0.9999999999999999, 0.7363237410898017, 1.0, 1.0000000000000002, 1.0, 0.939065451001597, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999997066523529, 1.0, 1.0000000000000002, 1.0, 0.9999516873156793, 1.9691452047902444e-07, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.00024178628264847558, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 0.9999999077166214, 1.0, 1.0, 0.2411861378168901, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999473509618, 0.9999998440335808, 0.9999998727870432, 1.0, 0.9999999146960722, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0, 2.832420370408036e-11, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.2672065808751035e-07, 1.0000000000000002, 0.9999909299619928, 1.0, 1.0, 1.0, 3.7864746248735374e-08, 0.014618337716282716, 1.0, 1.0000000000000002, 1.0, 0.9999999999981642, 0.02517737898864551, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999999999997, 1.0, 1.0, 0.9999999945783589, 1.0000000000000002, 0.9999999239644858, 0.8037999131988497, 9.927501965338593e-05, 0.9999996338604248, 1.0000000000000002, 0.6442406011543249, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999996, 0.9999999999999999, 1.0, 4.16801280962789e-08, 0.8416720392121928, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999992050613, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9999999933424468, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999556066105, 0.006082546825920852, 1.0, 0.999999916334402, 0.9999999999999999, 0.9999999951158165, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 2.4990199863117532e-08, 0.9999997984586148, 0.9999998751523416, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.6839209928055264e-15, 1.0, 5.91872028313891e-08, 1.0, 1.0, 1.0808869203560487e-05, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0, 1.3563789825360105e-09, 2.444387792008663e-05, 0.9999999999999999, 1.0, 2.0890159186299994e-07, 0.007021199982792458, 1.0000000000000002, 1.0000000000000004, 0.9999999992729716, 4.874303179447847e-07, 1.0000000000000004, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 7.571483430084041e-07, 4.3255971969071867e-10, 0.9999999999999998, 1.0, 5.2754558523597515e-08, 4.823800019663215e-08, 0.838745106399486, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9905437604568766, 0.9999998989612516, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 5.623572031401952e-07, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.15177797689258918, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999909466116, 0.9999999717751791, 0.9986863903816761, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999047781428, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.2351232666521345e-07, 1.0, 0.9999998760719124, 1.0, 1.0, 1.0, 0.9999999980427728, 0.0007863294255281444, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.256052474489288e-08, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 0.0013160395362608506, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999981553, 0.9999999999999999, 1.0, 0.9999999999999999, 0.0004337525769650257, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 8.994883095230765e-07, 1.2617309491451826e-07, 0.9999999999999998, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999984071053951, 0.9999998433039438, 1.0, 0.999999790469262, 0.9999999999999999, 1.0192631774495102e-07, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.3332447716942263, 1.0, 0.04455344126748974, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999997874248813, 0.9999999999999998, 0.34762870062003703, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 2.4488525350828724e-05, 1.0000000000000002, 1.0000000000000002, 2.3442800167253143e-08, 2.8884181771165434e-08, 0.13631440503363657, 0.9999999535320583, 0.9999999999999999, 0.9969683711784839, 1.0, 1.0, 0.00952625615963822, 1.0, 1.0, 8.459021898781714e-06, 0.3760389972494354, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000004, 0.00026843369662816026, 1.0000000000000002, 1.0, 2.6318068175585555e-07, 1.0, 3.39237862858843e-07, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999710828801703, 0.9999999999999999, 0.3173579948737996, 1.0, 8.009002241044973e-08, 0.9999999999999998, 1.3326795554568445e-08, 1.0, 1.0000000000000002, 0.9999999666522057, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 0.01042785116672547, 0.9999999999999999, 7.465336974046214e-08, 5.73232844292678e-14, 1.0, 0.00013486891034806138, 1.0, 0.9999999999999999, 0.9999997870510856, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 0.16888254996099272, 1.0, 6.023239578187271e-08, 1.0000000000000002, 0.999999994019955, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.9999998976275399, 1.0, 0.9999999999999998, 0.9998230651338851, 0.8671333096734012, 0.9999999999999999, 1.0000000000000002, 0.9707860483482027, 1.5593124514845633e-07, 0.9999999999999999, 1.0, 1.0, 0.9999999639347106, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 5.46794889396554e-09, 1.0, 0.9999998541863584, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0000000000000007, 0.9997235207255324, 1.0, 2.0796003613267709e-07, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999998608579808, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0000000000000002, 9.964295058326392e-14, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999997, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 0.9963072637177558, 1.0, 0.018336601215121363, 1.0, 0.9999999999999999, 8.799181041935182e-05, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999998757, 0.3256744849660471, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.00012654788954785123, 0.9999999999999999, 0.9999999999999997, 1.0, 0.9999999999999999, 0.9734125943721273, 1.0000000000000002, 0.9815726713148718, 0.00013450242975860972, 1.0, 1.0, 0.9999999999999999, 0.06159959775249111, 1.0000000000000002, 1.0, 0.9685155236422177, 0.9999999994297537, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.6368239651671964e-07, 0.9999999999999997, 0.9999999895816147, 1.0000000000000002, 1.0000000000000004, 1.0, 1.0, 0.0025516199123022183, 1.0, 1.0, 0.9999999999999999, 0.9984600950158533, 0.9999998875517006, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 2.3991396936848556e-08, 0.9999999999981746, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999997594035552, 1.0, 1.0000000000000002, 1.0000000000000002, 0.999678086327095, 1.0, 1.0, 0.002088974644649243, 0.999999701147618, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000004, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999882202441216, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.09110782631455656, 1.8847660722904166e-07, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 0.9999997318448688, 5.1500839633434946e-09, 0.9999863331051498, 0.9999999999999998, 1.0, 1.0000000000000002]</t>
+          <t>06_075_980501, 06_075_025702, 06_075_025701, 06_075_023300, 06_075_022901, 06_075_022803, 06_075_025403, 06_075_025200, 06_075_025300, 06_075_025402, 06_075_025600, 06_075_025800, 06_075_025900, 06_075_026002, 06_075_026003, 06_075_025401, 06_075_022801, 06_075_980900, 06_075_025100, 06_075_017700, 06_075_020900, 06_075_021000, 06_075_021500, 06_075_021800, 06_075_022802, 06_075_022902, 06_075_022903, 06_075_023001, 06_075_020101, 06_075_020102, 06_075_020802, 06_075_020801, 06_075_020702, 06_075_025502, 06_075_020701, 06_075_020202, 06_075_020201</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>0.4150921558583796, 0.8383276594316736, 0.999957235579097, 4.524892978368659e-10, 1.0, 1.0, 0.9008829528348343, 0.9999999999999998, 0.9036340961452826, 1.0000000000000002, 0.5508875770726624, 0.5392275365814369, 0.8790015811290667, 0.0861446648391349, 0.0002500574154398565, 0.8789069553587342, 0.8315747352693293, 0.004912667137202665, 0.9927467821032201, 0.4288447187831393, 0.9999999742846046, 0.0003686400838029496, 0.00015585274086618803, 5.7465157284266015e-09, 0.16731850411902469, 1.0000000000000002, 0.536866927712505, 0.0028644574610266977, 0.4897753013577819, 0.9999999998427965, 0.9999999664135797, 0.9999999934077876, 9.062264052088303e-09, 1.5510832393625675e-06, 5.335793718326368e-08, 5.112423292082677e-06, 2.723629326209748e-06</t>
         </is>
       </c>
     </row>
@@ -11968,18 +10406,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>[47702, 35202, 35201, 35100, 32700, 32600, 30201, 30202, 30101, 16500, 60300, 47701, 47600, 45200, 45100, 15600, 47902, 47800, 15700, 15400, 47901, 42700, 42600, 40200, 42800, 60200, 40100, 13300]</t>
-        </is>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.9791729466821483e-07, 1.0672831390308583e-07, 1.242745281842515e-07, 7.285795556988959e-08, 2.1551332459054945e-07, 2.4552993764463875e-07, 4.0251567330001987e-07, 4.816161612689539e-07, 0.12531094112284305, 0.9617171470783074, 1.0, 1.0, 1.0, 0.9999999999999998, 0.99999967726781, 1.0, 1.0000000000000002, 0.5713312787882094, 1.2338654626664707e-07, 0.9799683677138581, 0.9056774220652511, 0.9999999994687471, 0.637310757284968, 0.040237358372764404, 0.9999998637746467, 0.5277949041086405, 5.916691748509399e-14]</t>
+          <t>06_075_060300, 06_075_060200, 06_075_047901, 06_075_047800, 06_075_047702, 06_075_047902, 06_075_047600, 06_075_045200, 06_075_045100, 06_075_042800, 06_075_042700, 06_075_042600, 06_075_040200, 06_075_040100, 06_075_035201, 06_075_047701, 06_075_035100, 06_075_035202, 06_075_032700, 06_075_032600, 06_075_030202, 06_075_030101, 06_075_030201, 06_075_017100, 06_075_016600, 06_075_016500, 06_075_015700, 06_075_015600, 06_075_015400</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>0.46183249925665054, 0.5652964101704423, 0.03337201134930216, 0.9999999999999997, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 0.02385337613755366, 0.9041595300844872, 0.9999669787244155, 0.6405527392654806, 0.5241796803340776, 4.740962335156381e-05, 1.0000000000000004, 0.0029846319625312307, 0.007223585739261771, 0.004059901095816842, 0.003897939391780687, 0.00608617760206481, 0.0025994635015389373, 0.00676545002829536, 2.8877222585445968e-08, 2.292460714537566e-05, 0.12529627327572837, 0.5677539621508799, 0.9898848095795153, 2.078809553941499e-05</t>
         </is>
       </c>
     </row>
@@ -12022,18 +10454,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>[26303, 26302, 26301, 26200, 31400, 26004, 31300, 26003, 26100, 60501, 33202, 31200, 26001, 26002, 25600, 31100, 25500, 31000, 25403, 30900, 25700, 25402]</t>
-        </is>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>[0.9999998285458631, 0.7972642961315073, 1.0000000000000004, 0.9999998376285542, 1.0000000000000004, 1.0, 0.7967023586771204, 0.9999993763127057, 0.9999999978950804, 1.1253327639875116e-07, 2.4038283984622432e-08, 0.9999996214481146, 1.0, 0.9999996905769362, 0.4376433219387634, 0.009206813304101261, 0.8143924706417089, 9.690141796811057e-09, 0.04177515626747946, 8.065851824374495e-08, 2.7510241803787617e-08, 6.582203262406357e-09]</t>
+          <t>06_081_600400, 06_081_600900, 06_081_600300, 06_075_026302, 06_081_600700, 06_075_060501, 06_075_033202, 06_075_031400, 06_075_031300, 06_075_031200, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_026303, 06_075_026200, 06_075_026100, 06_075_026003, 06_075_026301, 06_075_026004, 06_075_026001, 06_075_025700, 06_075_025600, 06_075_025500, 06_075_026002, 06_075_025403</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>0.0005602061175329288, 3.8444063437472435e-07, 0.0005586086056338702, 0.7842263095208227, 0.004022931670598173, 0.0023485870422829407, 1.562701010514177e-07, 0.9999999999999998, 0.7820194961950478, 0.9941797363290262, 0.017220601657677814, 0.000317398755831252, 1.1799689587402985e-05, 0.9860917642195737, 0.9982929502053794, 0.9998639559120752, 0.9999779635110253, 1.0000000000000002, 1.0000000000000004, 1.0, 7.826328143038642e-08, 0.4477733210016135, 0.8006185696434037, 0.998118870472423, 0.011804791402687215</t>
         </is>
       </c>
     </row>
@@ -12076,18 +10502,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>[12200, 12300, 12000, 12100, 15100, 11900, 11100, 17602, 11800, 11700, 11200, 11000, 11300, 13100, 11400, 11500, 10800, 13000, 10900, 10600, 10700, 10400, 10500, 10300, 10100, 10200]</t>
-        </is>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>[8.485739349921681e-07, 0.08355283625534811, 0.9999998567081017, 0.999999627475922, 1.404406145579764e-06, 1.0000000000000002, 0.9999999450195615, 2.4021171893647554e-07, 0.9999999999999999, 0.8572473643369581, 1.0000000000000004, 0.9999999860005161, 0.9999999999999997, 4.855624528508222e-07, 1.0, 0.9999999999999998, 1.0000000000000002, 2.4692103988865795e-07, 0.8158477367237896, 0.9999999999999994, 0.9999999999999997, 1.0, 0.999999455911033, 0.9999997677305855, 0.9947897248816817, 0.08068209747911617]</t>
+          <t>06_075_012300, 06_075_012200, 06_075_012100, 06_075_012000, 06_075_011900, 06_075_011800, 06_075_011700, 06_075_011500, 06_075_011400, 06_075_011300, 06_075_011200, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010800, 06_075_010700, 06_075_010600, 06_075_010500, 06_075_010400, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_017602, 06_075_015100, 06_075_013100, 06_075_013000</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>0.08355767118207177, 5.2826552385443266e-05, 0.9999820832863671, 0.9864732080552313, 1.0, 0.9999999999999996, 0.8608793360406464, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9862173040109711, 0.9863305821208065, 0.8014847304825179, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.5801636941237702, 0.9999999999999994, 0.9999745123621877, 0.05158677853637685, 0.5374008645960721, 0.007476291705122512, 9.666433859826426e-09, 2.6660324483794444e-08, 2.9568769163473905e-08</t>
         </is>
       </c>
     </row>
@@ -12130,18 +10550,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>[33100, 33000, 30800, 35400, 35300, 30400, 32900, 32800, 30302, 35202, 30301, 35201, 35100, 32700, 32600, 30201, 60300, 60400]</t>
-        </is>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>[8.00582885335393e-08, 0.9999999677168215, 1.4887570496155803e-08, 0.9999999265867084, 0.9999999815032304, 3.3719693364476575e-08, 1.0000000000000002, 0.9999999720533819, 2.582010391976267e-09, 0.9999998020827292, 1.3194792432927332e-10, 0.9999998021698749, 0.9999998757254915, 0.9999999271419879, 0.9999997309622313, 8.826352380394594e-08, 3.326199008659661e-08, 5.2961727721790056e-09]</t>
+          <t>06_075_060400, 06_075_060300, 06_075_035400, 06_075_035300, 06_075_035201, 06_075_035100, 06_075_035202, 06_075_033100, 06_075_033000, 06_075_032900, 06_075_032800, 06_075_032700, 06_075_032600, 06_075_030900, 06_075_030800, 06_075_030400, 06_075_030302, 06_075_030301, 06_075_030201</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>3.492938156577059e-05, 0.0003440494961896735, 0.0990319169837985, 0.999989260053867, 0.08125616401140826, 0.9970153680374659, 0.9927764142607594, 0.014642317111853398, 0.9999981545444211, 1.0, 0.9999999863090635, 0.9959400989041888, 0.9923144005602594, 2.090775948011001e-10, 0.004484508036782533, 0.003161572663221444, 0.007186977742549558, 0.00332482698137748, 1.905251887626598e-08</t>
         </is>
       </c>
     </row>
@@ -12184,18 +10598,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>[30500, 30301, 30102, 32600, 30201, 30202, 30101, 17100, 20200, 16600, 16700, 20100, 16500, 60300, 16800, 16400, 16300, 16200, 16100, 15700, 15800, 15900, 15400, 15500, 15300, 15100, 15200, 13400, 13500, 13100]</t>
-        </is>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>[1.2886007445635226e-09, 1.5325712343551347e-08, 0.14992287087894646, 4.022728456034608e-08, 0.6697619448446712, 0.7785687904394742, 0.9601627998617767, 0.8097631366468561, 5.370796547771715e-08, 0.9999999089834879, 0.46153751800100756, 1.2663330947888727e-10, 0.8746890588771665, 0.038282807170180115, 0.5013426831023877, 1.0, 0.9999999999999998, 0.4444421027109083, 0.7497290240920965, 0.1692138184524163, 0.9477635168073593, 0.6688158916528681, 0.02116050286425601, 0.9493122443669669, 0.932596130436176, 4.5568878412553214e-07, 0.9999991508281477, 1.3380580312598096e-07, 1.8020885426464244e-07, 1.654167904037796e-07]</t>
+          <t>06_075_060300, 06_075_016200, 06_075_032600, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020400, 06_075_020200, 06_075_020100, 06_075_017100, 06_075_016800, 06_075_016700, 06_075_016600, 06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_015900, 06_075_015800, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013100</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>0.018702469473304527, 0.45006430073764064, 0.0023304507041978805, 1.2553460605282223e-06, 2.514664070173659e-06, 0.7735093668677678, 0.15025012894624332, 0.9574990617506335, 0.6657529107595235, 4.4210189342696106e-06, 0.0011016441477576734, 0.0008848163156563995, 0.8097292189801456, 0.5046965486929511, 0.46154576309990397, 0.9999727890897248, 0.8747037267243013, 1.0000000000000002, 0.9999999999999999, 0.7496957822723437, 0.6772490944111489, 0.9464523235927322, 0.168145053194678, 0.9502125976412075, 0.021405124783285337, 0.9325223050505831, 0.9999343448530771, 5.349063532834948e-05, 2.4861156312483876e-05, 2.9994121425208322e-05, 1.3877889293075367e-06</t>
         </is>
       </c>
     </row>
@@ -12238,18 +10646,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>[26200, 31300, 26100, 33202, 31200, 33201, 31100, 25500, 31000, 33100, 30900, 30700, 33000, 30800, 21700, 30600, 35400, 35300, 30400, 32800, 30302, 30500, 30301, 20400, 30102, 32600, 30201, 30202, 30101, 60400]</t>
-        </is>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>[4.8175489469451924e-08, 0.2032976277698168, 2.1049888293806834e-09, 0.9999999759617535, 3.785518457329771e-07, 1.0000000000000002, 0.8195958061002814, 0.045287102738888384, 0.9999999903098641, 0.999999919941768, 0.9999999193415163, 0.9472021198682262, 3.2283181568237644e-08, 0.999999985112401, 1.315088623012906e-07, 0.9999998525717294, 3.201646058280927e-08, 1.8496748679183465e-08, 0.9999999662802401, 2.7946617348636494e-08, 0.9999999974180489, 0.9999994191416189, 0.999999984542378, 3.6697333301785003e-07, 0.8244816790515784, 1.3297134245066057e-08, 0.3302377213617389, 0.2214308070450242, 0.0398367185220966, 0.9195440622197754]</t>
+          <t>06_081_600900, 06_075_060400, 06_081_600700, 06_075_035400, 06_075_035300, 06_075_033202, 06_075_033100, 06_075_033000, 06_075_032800, 06_075_032600, 06_075_031300, 06_075_031200, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_030800, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030400, 06_075_030302, 06_075_033201, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_026200, 06_075_026100, 06_075_025500, 06_075_021700, 06_075_020400, 06_075_017100</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>0.003678513223257328, 0.020815619205977375, 6.244765122744792e-05, 0.00014861927837297128, 1.073994613515223e-05, 0.999999843729889, 0.9853576828881371, 1.8454555898348927e-06, 1.36909290265415e-08, 0.0014572093437458405, 0.21798048163494232, 0.005820263670967138, 0.7990180898125481, 0.9996826012441752, 0.9999882001013296, 0.9955154919632166, 0.946328515526617, 0.999997837320424, 0.9999675091014878, 0.9968384273367843, 0.9928130222574598, 1.0000000000000002, 0.9966726583545342, 0.2204044555299451, 0.8241495906958175, 0.03990147474782368, 0.32748162015985327, 0.00010887338374777711, 0.0001360440879429569, 0.06800251115377277, 0.001041804000941857, 5.814808714126219e-05, 1.193459805538256e-05</t>
         </is>
       </c>
     </row>
@@ -12292,18 +10694,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>[60501, 25900, 26002, 22902, 25600, 31100, 22903, 25500, 25403, 25700, 23001, 21000, 25402, 25401, 21800, 20900, 21500, 25300, 25200, 25100, 22901, 22803, 22802, 20700, 20800, 22801]</t>
-        </is>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>[2.0958043040974636e-07, 0.28985378711169135, 2.755394178252792e-07, 0.9999999999999998, 0.5623566498168437, 1.269449679936128e-08, 0.5475845695711888, 0.13127991639526548, 0.9582248434306532, 0.7525987397773185, 2.34598615088221e-08, 0.34261020241636575, 0.9999999934178107, 0.9999999508863092, 6.266968133305152e-07, 0.9999999999999998, 0.029993483184697998, 0.9999998199881471, 0.9999999999999996, 0.7814778698136435, 1.0, 1.0000000000000002, 0.15619768516277607, 5.556435572227905e-07, 0.8192835192665154, 0.3629449210112297]</t>
+          <t>06_075_060501, 06_075_031100, 06_075_025900, 06_075_025700, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_026002, 06_075_025403, 06_075_025300, 06_075_025200, 06_075_025100, 06_075_025402, 06_075_022903, 06_075_022902, 06_075_023001, 06_075_022802, 06_075_022803, 06_075_022901, 06_075_022801, 06_075_021800, 06_075_021500, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>0.001783850156906822, 0.002643023130547252, 0.28854135581563006, 0.7553313559977397, 0.5522265585579604, 0.1271546136721747, 0.9776456772271344, 3.3720807063464685e-05, 0.9796588550147642, 0.9856558837844838, 0.9999999999999996, 0.8105765700498042, 1.0000000000000002, 0.5496634730287496, 1.0000000000000002, 0.001226511936716951, 0.1563138256962083, 0.9999999999999999, 0.9999999999999999, 0.36295625213942495, 0.002007124740964328, 0.031476993989880686, 0.3436607974404455, 1.0000000000000004, 0.8192279812381297, 4.431504297410721e-05</t>
         </is>
       </c>
     </row>
@@ -12346,18 +10742,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>[980900, 25900, 22702, 23300, 26402, 22704, 25100, 22801, 18000, 25702, 26403, 60502, 26401, 61000, 23003, 17700, 23001, 26302, 600200, 26003, 17902, 23200, 23102, 61400, 22802, 23400, 23103, 22600, 980600, 60700, 600100, 61200, 25800, 26404, 22903, 600300, 980501, 25701]</t>
-        </is>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>[0.9541337047096656, 0.08205340222252351, 0.9973152582351738, 0.9998446840769719, 1.0, 0.9999999999999999, 0.015593055248312036, 0.168387444435099, 0.000533535997422388, 0.15022637236538885, 0.9999999999995897, 0.9987122440634052, 1.0, 0.9348537494012299, 0.9999999999999998, 0.31419567605251625, 0.9999971667616924, 0.06791337228904139, 0.00246952868186794, 5.493292718125376e-14, 0.0371378859460394, 0.9999999999999999, 1.0, 0.9999999999999999, 0.8311686956084939, 1.0, 0.985909581792332, 0.7033361196279405, 0.9099364677408528, 0.16812158632633975, 6.206975306268883e-05, 0.9999999999999997, 0.43600279076131926, 0.9953351903418999, 0.46281101421878845, 2.9035889082891546e-06, 0.5689536749005686, 0.008520695567292935]</t>
+          <t>06_081_600300, 06_081_600100, 06_081_990100, 06_081_600200, 06_001_428700, 06_075_980600, 06_075_980501, 06_075_980900, 06_075_061400, 06_075_061200, 06_075_025702, 06_075_025701, 06_075_022704, 06_075_023103, 06_075_023003, 06_075_061000, 06_075_060700, 06_075_060502, 06_075_026404, 06_075_026403, 06_075_026401, 06_075_026302, 06_075_026402, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025100, 06_075_023400, 06_075_023300, 06_075_023200, 06_075_023102, 06_075_022903, 06_075_023001, 06_075_022802, 06_075_022801, 06_075_022702, 06_075_022600, 06_075_018000, 06_075_017902, 06_075_017700</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>7.82608375236971e-10, 5.150266095558116e-10, 1.5839352327020704e-19, 1.8072136925279527e-08, 5.464441751786319e-10, 0.8301472587517849, 0.5682577760838867, 0.9352586148479021, 1.000000000000001, 0.9999999999999997, 0.161672612619973, 4.592013543867641e-09, 0.9999999999999996, 0.9999999812651014, 0.9999999999999996, 0.714900583997029, 0.15700829807939118, 0.9999999829592576, 0.9999999727476271, 0.9999999894956436, 1.0000000000000002, 0.06080487915946273, 1.0000000000000002, 6.897293387591404e-09, 0.08187895311895288, 0.44018483376348794, 0.010596904623180282, 1.0000000000000004, 0.9999999995498952, 0.9999999999999993, 1.0, 0.45959495820175067, 0.9973890942506592, 0.8337640588829556, 0.16835207564557408, 0.9999999999237039, 0.652307490015752, 1.6900784319730027e-08, 0.002322938598844952, 0.3115380846452916</t>
         </is>
       </c>
     </row>
@@ -12400,18 +10790,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>[47702, 35202, 35201, 35100, 32700, 32600, 30201, 30202, 30101, 16500, 60300, 47701, 47600, 45200, 45100, 15600, 47902, 47800, 15700, 15400, 47901, 42700, 42600, 40200, 42800, 60200, 40100, 13300]</t>
-        </is>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.9791729466821483e-07, 1.0672831390308583e-07, 1.242745281842515e-07, 7.285795556988959e-08, 2.1551332459054945e-07, 2.4552993764463875e-07, 4.0251567330001987e-07, 4.816161612689539e-07, 0.12531094112284305, 0.9617171470783074, 1.0, 1.0, 1.0, 0.9999999999999998, 0.99999967726781, 1.0, 1.0000000000000002, 0.5713312787882094, 1.2338654626664707e-07, 0.9799683677138581, 0.9056774220652511, 0.9999999994687471, 0.637310757284968, 0.040237358372764404, 0.9999998637746467, 0.5277949041086405, 5.916691748509399e-14]</t>
+          <t>06_075_060300, 06_075_060200, 06_075_047901, 06_075_047800, 06_075_047702, 06_075_047902, 06_075_047600, 06_075_045200, 06_075_045100, 06_075_042800, 06_075_042700, 06_075_042600, 06_075_040200, 06_075_040100, 06_075_035201, 06_075_047701, 06_075_035100, 06_075_035202, 06_075_032700, 06_075_032600, 06_075_030202, 06_075_030101, 06_075_030201, 06_075_017100, 06_075_016600, 06_075_016500, 06_075_015700, 06_075_015600, 06_075_015400</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>0.46183249925665054, 0.5652964101704423, 0.03337201134930216, 0.9999999999999997, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 0.02385337613755366, 0.9041595300844872, 0.9999669787244155, 0.6405527392654806, 0.5241796803340776, 4.740962335156381e-05, 1.0000000000000004, 0.0029846319625312307, 0.007223585739261771, 0.004059901095816842, 0.003897939391780687, 0.00608617760206481, 0.0025994635015389373, 0.00676545002829536, 2.8877222585445968e-08, 2.292460714537566e-05, 0.12529627327572837, 0.5677539621508799, 0.9898848095795153, 2.078809553941499e-05</t>
         </is>
       </c>
     </row>
@@ -12454,18 +10838,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>[15400, 15900, 15500, 15300, 17101, 30102, 15100, 16700, 12402, 16000, 16802, 16300, 16100, 20100, 20200, 30301, 30201, 15700, 32601, 16600, 20401, 15802, 16200, 980300, 30202, 16500, 15801, 15200, 30500, 30101, 12202, 16801, 17102, 16400]</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>[0.039249406236476735, 1.0, 0.9513550180918946, 0.13149945240993816, 0.6496103264485782, 0.31811631870640245, 0.22397547196828924, 0.46534598964780766, 0.0027915213975890476, 0.9979134414228938, 0.9523763492704165, 1.0000000000000002, 1.0, 0.0023135267718168815, 0.0005038482861706632, 2.344831993305904e-06, 0.4572617200881441, 0.16936574286054476, 2.5054847213869786e-05, 0.9973805223001853, 0.0012394114630412635, 0.9999999999998359, 0.9986384376252717, 0.20276752737010867, 0.7828678778792417, 0.8746111583440483, 0.9212817116361691, 0.7741005560198502, 2.3212106047801395e-14, 0.9630294577951277, 0.024792107315557407, 0.6202095909730109, 0.9999999999999998, 1.0]</t>
+          <t>06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_980300, 06_075_020401, 06_075_017102, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_015802, 06_075_015801, 06_075_012402, 06_075_012202, 06_075_016200, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020200, 06_075_020100, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
     </row>
@@ -12508,18 +10886,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>[15400, 15900, 15500, 15300, 17101, 30102, 15100, 16700, 12402, 16000, 16802, 16300, 16100, 20100, 20200, 30301, 30201, 15700, 32601, 16600, 20401, 15802, 16200, 980300, 30202, 16500, 15801, 15200, 30500, 30101, 12202, 16801, 17102, 16400]</t>
-        </is>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>[0.039249406236476735, 1.0, 0.9513550180918946, 0.13149945240993816, 0.6496103264485782, 0.31811631870640245, 0.22397547196828924, 0.46534598964780766, 0.0027915213975890476, 0.9979134414228938, 0.9523763492704165, 1.0000000000000002, 1.0, 0.0023135267718168815, 0.0005038482861706632, 2.344831993305904e-06, 0.4572617200881441, 0.16936574286054476, 2.5054847213869786e-05, 0.9973805223001853, 0.0012394114630412635, 0.9999999999998359, 0.9986384376252717, 0.20276752737010867, 0.7828678778792417, 0.8746111583440483, 0.9212817116361691, 0.7741005560198502, 2.3212106047801395e-14, 0.9630294577951277, 0.024792107315557407, 0.6202095909730109, 0.9999999999999998, 1.0]</t>
+          <t>06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_980300, 06_075_020401, 06_075_017102, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_015802, 06_075_015801, 06_075_012402, 06_075_012202, 06_075_016200, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020200, 06_075_020100, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
     </row>
@@ -12562,18 +10934,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>[30800, 30400, 33201, 32801, 33203, 30102, 30900, 31201, 31000, 21700, 30700, 30600, 31301, 25500, 35400, 30301, 32602, 31100, 30201, 31202, 32601, 20401, 600900, 30302, 20402, 31302, 30202, 33204, 26100, 30500, 30101, 33000, 60400, 35300, 32802, 600700, 33100]</t>
-        </is>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>[0.9968624625577887, 0.9957479989963995, 1.0000000000000002, 3.853410446004411e-08, 1.0, 0.6588748821704932, 0.9999805585648691, 0.4467441872620379, 0.9999890666895423, 0.00972641060172156, 0.9527354456471615, 0.9982376258144131, 0.022055927023985383, 0.02208938602727872, 0.0005850826769853205, 0.9999522175055976, 0.0028521429117076428, 0.8889785382545498, 0.3199281973420035, 0.07481250766039427, 6.731478170152874e-05, 0.001572403040117181, 0.0010393110885090853, 0.9990482051773661, 0.03709146445642281, 0.3557190179864703, 0.2171321221204138, 1.0, 2.1073886435715068e-14, 0.9771116212803466, 0.036970542204975934, 0.0029197468901213455, 0.9986940469882599, 0.000779304100451451, 0.0005184392419698907, 3.207420202880103e-10, 0.9988581317582322]</t>
+          <t>06_081_600900, 06_081_600700, 06_075_033204, 06_075_033203, 06_075_032802, 06_075_032801, 06_075_032602, 06_075_032601, 06_075_031302, 06_075_031301, 06_075_031202, 06_075_031201, 06_075_020402, 06_075_020401, 06_075_060400, 06_075_035400, 06_075_035300, 06_075_033100, 06_075_033000, 06_075_031400, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_030800, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030400, 06_075_030302, 06_075_033201, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_026200, 06_075_026100, 06_075_025500, 06_075_021700</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>1.23080216240313e-08, 6.174778222291653e-11, 1.0, 0.9999999999999795, 1.6440364284765158e-09, 8.519572020152519e-09, 1.2454262395433648e-09, 1.1856539078974096e-09, 0.361932849771584, 0.018779744304839623, 0.0745922813692526, 0.4502216002556249, 5.574707535133124e-08, 6.74190795843121e-09, 0.8341991836556645, 0.0015002848337283578, 4.593250961738084e-09, 0.9999999719710455, 1.5997966526947506e-08, 1.0008836792875836e-15, 0.8952337767162254, 1.0000000000000009, 0.9999999920384115, 0.9980439959457964, 0.9578230967857638, 0.9999999969206312, 0.9999999727714125, 0.9977687986812899, 0.9999999812134479, 1.0000000000000002, 0.9999999888615884, 0.2158684833804301, 0.6555233770743977, 0.03986175558868292, 0.3207171205216631, 6.291338887688731e-09, 3.0412681569947005e-09, 0.02225933382048277, 1.720017219139685e-08</t>
         </is>
       </c>
     </row>
@@ -12616,18 +10982,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>[980900, 25900, 22702, 23300, 26402, 22704, 25100, 22801, 18000, 25702, 26403, 60502, 26401, 61000, 23003, 17700, 23001, 26302, 600200, 26003, 17902, 23200, 23102, 61400, 22802, 23400, 23103, 22600, 980600, 60700, 600100, 61200, 25800, 26404, 22903, 600300, 980501, 25701]</t>
-        </is>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>[0.9541337047096656, 0.08205340222252351, 0.9973152582351738, 0.9998446840769719, 1.0, 0.9999999999999999, 0.015593055248312036, 0.168387444435099, 0.000533535997422388, 0.15022637236538885, 0.9999999999995897, 0.9987122440634052, 1.0, 0.9348537494012299, 0.9999999999999998, 0.31419567605251625, 0.9999971667616924, 0.06791337228904139, 0.00246952868186794, 5.493292718125376e-14, 0.0371378859460394, 0.9999999999999999, 1.0, 0.9999999999999999, 0.8311686956084939, 1.0, 0.985909581792332, 0.7033361196279405, 0.9099364677408528, 0.16812158632633975, 6.206975306268883e-05, 0.9999999999999997, 0.43600279076131926, 0.9953351903418999, 0.46281101421878845, 2.9035889082891546e-06, 0.5689536749005686, 0.008520695567292935]</t>
+          <t>06_081_600300, 06_081_600100, 06_081_990100, 06_081_600200, 06_001_428700, 06_075_980600, 06_075_980501, 06_075_980900, 06_075_061400, 06_075_061200, 06_075_025702, 06_075_025701, 06_075_022704, 06_075_023103, 06_075_023003, 06_075_061000, 06_075_060700, 06_075_060502, 06_075_026404, 06_075_026403, 06_075_026401, 06_075_026302, 06_075_026402, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025100, 06_075_023400, 06_075_023300, 06_075_023200, 06_075_023102, 06_075_022903, 06_075_023001, 06_075_022802, 06_075_022801, 06_075_022702, 06_075_022600, 06_075_018000, 06_075_017902, 06_075_017700</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>7.82608375236971e-10, 5.150266095558116e-10, 1.5839352327020704e-19, 1.8072136925279527e-08, 5.464441751786319e-10, 0.8301472587517849, 0.5682577760838867, 0.9352586148479021, 1.000000000000001, 0.9999999999999997, 0.161672612619973, 4.592013543867641e-09, 0.9999999999999996, 0.9999999812651014, 0.9999999999999996, 0.714900583997029, 0.15700829807939118, 0.9999999829592576, 0.9999999727476271, 0.9999999894956436, 1.0000000000000002, 0.06080487915946273, 1.0000000000000002, 6.897293387591404e-09, 0.08187895311895288, 0.44018483376348794, 0.010596904623180282, 1.0000000000000004, 0.9999999995498952, 0.9999999999999993, 1.0, 0.45959495820175067, 0.9973890942506592, 0.8337640588829556, 0.16835207564557408, 0.9999999999237039, 0.652307490015752, 1.6900784319730027e-08, 0.002322938598844952, 0.3115380846452916</t>
         </is>
       </c>
     </row>
@@ -12670,18 +11030,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>[12902, 13102, 15400, 12602, 13000, 15500, 15300, 12601, 11100, 13500, 15600, 42800, 15100, 12901, 10900, 13101, 11000, 12800, 40200, 10100, 13300, 13200, 10200, 15700, 10300, 42700, 42601, 15802, 60100, 42602, 12000, 15801, 40100, 12700, 15200, 980200, 13400]</t>
-        </is>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9997211031989386, 0.9521243664109622, 0.6620699426053496, 1.0000000000000002, 0.048644981908121984, 0.8685005475900018, 0.9999999999999998, 0.01580117808424216, 1.0000000000000002, 0.001612557180920563, 0.9742165222409146, 0.7754058044205872, 1.0, 0.27023764128458205, 0.9966981641717495, 0.001207242095655827, 0.9999999999999999, 0.18257542004291344, 0.0012440976880340102, 1.0, 1.0000000000000002, 0.7040946653846224, 0.2570442024645387, 0.30449654582152164, 0.04740733045155976, 0.000585206603528466, 1.7418896797287724e-13, 0.9820927388144628, 0.00011280256135516822, 0.022659835757704257, 0.07871828836370218, 0.47695153279201763, 0.8587113864701957, 0.22589944398023395, 0.00014297288204123985, 1.0000000000000002]</t>
+          <t>06_075_015700, 06_075_015600, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013300, 06_075_013200, 06_075_013000, 06_075_012800, 06_075_012700, 06_075_012000, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_980200, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_042602, 06_075_042601, 06_075_015802, 06_075_015801, 06_075_013102, 06_075_013101, 06_075_012902, 06_075_012901, 06_075_012602, 06_075_012601, 06_075_012202, 06_075_060100, 06_075_042800, 06_075_042700, 06_075_040200, 06_075_040100</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>0.25463819044508834, 1.6825920088282957e-08, 0.049709177179209425, 0.960380482016589, 0.8685395011131354, 0.22587348616935124, 0.77499231001648, 0.9999999979392749, 1.0000000000000007, 1.0000000000000004, 0.9999999999999996, 1.0000000000000375, 1.0, 0.7002163487990717, 0.02779258399037725, 0.014021669471574495, 1.5603182654003104e-08, 0.2710824413355344, 0.004760348155603582, 0.31229783986054277, 0.6419060435390419, 0.00036741684942847777, 1.853810266465584e-08, 7.690631572211525e-09, 6.1737614984724005e-09, 0.07995787940013144, 0.9999999988676777, 0.9999999803607477, 1.0000000000000004, 1.0000000000000002, 0.5368176901769761, 0.9999999999999998, 2.029612933700371e-14, 0.23171113021253092, 0.6455526989136756, 0.0475868390296002, 0.17958033219172934, 0.4757870037113913</t>
         </is>
       </c>
     </row>
@@ -12724,18 +11078,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>[30800, 32901, 30400, 32801, 35100, 35400, 30301, 32902, 32602, 32700, 30201, 32601, 30302, 35201, 980300, 33000, 60400, 35300, 32802, 33100, 35202]</t>
-        </is>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>[0.003137537442156936, 1.0000000000000004, 0.004252001003593022, 0.9999999614659099, 0.9994364250424136, 0.9937455641064341, 4.5437662400211246e-05, 1.0000000000000002, 0.996997183418587, 0.9995029748200308, 0.2228100825699032, 0.9986077122128451, 0.000951794822712365, 0.9972807636807056, 0.0001434860463707882, 0.9970802531098729, 0.00037811205542686834, 0.9992206958995438, 0.9994815607580634, 0.0011418682416765046, 0.9960805328055136]</t>
+          <t>06_075_980300, 06_075_032902, 06_075_032901, 06_075_032802, 06_075_032801, 06_075_032602, 06_075_032601, 06_075_060400, 06_075_035400, 06_075_035300, 06_075_035201, 06_075_035100, 06_075_035202, 06_075_033100, 06_075_033000, 06_075_032700, 06_075_030800, 06_075_030400, 06_075_030302, 06_075_030301, 06_075_030201</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>6.0720712007671886e-09, 0.9999999999999999, 1.0000000000000004, 0.9999999983559021, 0.9999999914804492, 0.9999999920875406, 0.9999999743385498, 2.2371248923666546e-09, 0.6482262993187362, 0.9999999954067027, 0.5984183522877564, 0.9999999957252708, 0.9999999867098602, 2.8028960620429124e-08, 0.999999984002066, 0.9999999883699774, 0.0019560040541877067, 0.0022312013187347694, 1.878656647410079e-08, 8.944576897171723e-09, 0.22147526302559659</t>
         </is>
       </c>
     </row>
@@ -12778,18 +11126,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>[22702, 12502, 12301, 15100, 12501, 18000, 12302, 12402, 16000, 16802, 17601, 20100, 17700, 20200, 17802, 17902, 16200, 12201, 12401, 61500, 17801, 10500, 12000, 22600, 60700, 12202]</t>
-        </is>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>[0.002684741764952483, 0.9999999999999999, 0.5729182282020362, 7.217190160643546e-05, 0.8596329625579682, 0.999466464002512, 0.33498784841830104, 0.997208478602172, 0.0020865585773687436, 0.0015328028522301833, 0.9972495784360855, 0.3572915262955247, 0.252675775599801, 0.02271991628788309, 1.0, 0.7843833164783205, 0.0013615623751226354, 0.9999477911194119, 1.0, 0.8479499129067045, 1.0, 0.0028084583689574304, 7.756660847200089e-05, 0.08592049272023533, 0.6283856269718294, 0.897409594635605]</t>
+          <t>06_075_016000, 06_075_012000, 06_075_011700, 06_075_012502, 06_075_012302, 06_075_012301, 06_075_010500, 06_075_061500, 06_075_017802, 06_075_017801, 06_075_016802, 06_075_012501, 06_075_012402, 06_075_012401, 06_075_012202, 06_075_012201, 06_075_060700, 06_075_016200, 06_075_022702, 06_075_022600, 06_075_020200, 06_075_018000, 06_075_017902, 06_075_017700, 06_075_020100, 06_075_017601</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>3.540543567446052e-08, 8.222037307764334e-09, 3.0177966012030266e-08, 0.9999999999999999, 0.3350084362682432, 0.5735478355248408, 2.0259044240701145e-09, 0.7900946108628609, 1.0000000000000002, 1.0, 1.0513288790601469e-08, 0.8636094836359111, 0.999999971813381, 0.9999999999999998, 0.8956295218890403, 0.9999999398705108, 0.5893110375948764, 1.6533421624521877e-08, 7.629249144794464e-11, 0.07561533573391449, 0.024520499003874457, 0.9999999830991595, 0.021166430333464895, 0.259277318780501, 0.34997702612594966, 0.9999999928073215</t>
         </is>
       </c>
     </row>
@@ -12832,18 +11174,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>[17101, 30102, 17000, 20300, 20900, 21800, 20700, 16900, 21200, 25403, 21700, 30700, 16700, 30600, 25500, 21000, 16802, 21600, 20600, 20100, 20200, 21300, 20500, 21100, 31100, 25300, 20800, 16600, 20401, 20402, 25401, 30500, 16801, 21400, 21500]</t>
-        </is>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>[0.3503896735514401, 0.023008799123136213, 1.0000000000000002, 0.9999999999999998, 2.6537000532297432e-08, 0.9990469733472814, 0.99998701777258, 0.9999999999999999, 1.0, 0.1005635634034962, 0.990273589398339, 0.047264554352751974, 0.5346540103522195, 0.0017623741855611035, 0.22960506959774646, 0.9992741999348456, 0.04609084787675142, 0.9999999999999998, 0.9999999999999998, 9.181000456505437e-05, 0.9767428083557762, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.10475204081545338, 0.07430764571091997, 3.0140319011620847e-05, 0.002619477700113977, 0.9971881854967231, 0.9629085355436405, 0.11916578525990915, 0.022888378719583543, 0.3797904090267644, 0.9999999999999998, 0.9841075073642729]</t>
+          <t>06_075_020402, 06_075_020401, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_031100, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030102, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_025403, 06_075_025300, 06_075_021800, 06_075_021700, 06_075_021600, 06_075_021500, 06_075_021400, 06_075_021300, 06_075_021200, 06_075_021100, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700, 06_075_020600, 06_075_020500, 06_075_020300, 06_075_020200, 06_075_020100, 06_075_017000, 06_075_016900, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>0.9999999442528883, 0.9999999927053078, 0.3692399307331839, 0.05274866631508789, 0.38979016136921685, 0.10476621348265346, 0.04217690321425691, 3.079395909939545e-09, 2.3094663320158384e-08, 0.025604998450001103, 4.689493804718978e-10, 0.22781070652827204, 0.12098433403733597, 0.09836804764151758, 0.07156972729952414, 0.9999999940858396, 0.9999999827998205, 1.0000000000000007, 0.9821714184844458, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999889698798, 2.9424547925814018e-08, 1.738590239859295e-08, 0.9999999644538484, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.9754794582051448, 2.1743388005457102e-08, 1.0000000000000002, 1.0000000000000004, 0.5384893405878782, 3.398841643592467e-09</t>
         </is>
       </c>
     </row>
@@ -12886,18 +11222,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>[26404, 60502, 26403, 26401, 26302, 26402, 61000, 23003, 26003, 60501, 25800, 23400, 25900, 26002, 23300, 25600, 60600, 23200, 22903, 25700, 23002, 23001, 23102, 23101, 23103, 25100, 22702, 60900, 22802, 22703, 22701, 22600, 17700, 18000, 60700]</t>
-        </is>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>[0.9999997843435608, 0.9999999974578859, 0.9999998784208393, 0.9999999999999998, 0.20273561913273563, 1.0000000000000002, 0.999999832860487, 0.9999999999999999, 6.236873384906382e-07, 0.9999996778862711, 1.0000000000000002, 0.9999999568617461, 0.710146212888362, 3.388360384065689e-08, 1.0, 2.8244560817408987e-08, 0.9999996034667435, 0.9999999742922895, 0.4524154304288397, 0.24740123501636477, 1.0000000000000002, 0.9999999765401505, 1.0000000000000002, 0.9999999999999997, 0.9999994591236624, 0.21852213074985177, 0.9999999999999999, 0.9363835322791788, 0.6709280014746979, 1.0, 1.0, 0.9950599670014846, 0.14623119919470096, 1.7961903326208063e-07, 0.22152350324266656]</t>
+          <t>06_081_600200, 06_081_600300, 06_075_026302, 06_075_023103, 06_075_023003, 06_075_022701, 06_075_061000, 06_075_060900, 06_075_060700, 06_075_060501, 06_075_060600, 06_075_060502, 06_075_026404, 06_075_026403, 06_075_026401, 06_075_026402, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025700, 06_075_025600, 06_075_026002, 06_075_025100, 06_075_023400, 06_075_023300, 06_075_023200, 06_075_023102, 06_075_023101, 06_075_023002, 06_075_022903, 06_075_023001, 06_075_022802, 06_075_022703, 06_075_022702, 06_075_022600, 06_075_018000, 06_075_017902, 06_075_017700</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>5.073828226923904e-05, 0.0009464932948255446, 0.20821757575967023, 0.9997821500072693, 0.9999999999999996, 1.0, 0.7242088808271367, 0.9152606736695402, 0.1553693738903094, 0.9958675628008427, 0.5162919599382572, 0.985806147470016, 0.9820223049511797, 0.9888147679737231, 1.0, 1.0000000000000002, 2.203648895755565e-05, 0.7114586441843345, 0.9999999999999996, 0.24466856574390236, 1.204405741768022e-07, 0.0018474087202782123, 0.1894234352658154, 0.9999999985128273, 1.0000000000000002, 0.999998179570648, 1.0, 1.0, 0.9999999999999999, 0.45033652697126264, 0.9987734880631961, 0.6707140488070455, 1.000000000000001, 1.0, 0.7040073441290113, 1.1804898920888583e-06, 1.3996638192843645e-06, 0.1457330174530293</t>
         </is>
       </c>
     </row>
@@ -12940,18 +11270,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>[15600, 15700, 15800, 15900, 16000, 15400, 42700, 42600, 15500, 15300, 40200, 15100, 42800, 15200, 40100, 13300, 13400, 11100, 13500, 13200, 11000, 13100, 13000, 10900, 12800, 12900, 10300, 12700, 12600, 10100, 60100, 10200]</t>
-        </is>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>[3.227321802937716e-07, 0.2594549027593552, 0.05223648319264765, 2.992598955828577e-08, 0.04699887448032189, 0.978839373749286, 0.09432257793474577, 5.313105298553834e-10, 0.050687714810928104, 0.06740386956372953, 0.36268924271503983, 0.9999973136791364, 0.9597625247663688, 8.491718716308437e-07, 0.4722050958912371, 0.9999999999999072, 0.9999998661942128, 5.498051945112921e-08, 0.9999998197912605, 1.0000000000000002, 1.3999336027600456e-08, 0.9999993490206444, 0.9999997530789335, 0.1841522632764399, 0.9999999999999996, 1.0000000000000004, 2.322695262066221e-07, 0.9999992948202432, 0.999999147779305, 3.382108227860237e-09, 0.9999999459693532, 0.9086609297330719]</t>
+          <t>06_075_012800, 06_075_012700, 06_075_012600, 06_075_012200, 06_075_012000, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010300, 06_075_010200, 06_075_060200, 06_075_060100, 06_075_042800, 06_075_042700, 06_075_042600, 06_075_040200, 06_075_040100, 06_075_016000, 06_075_015900, 06_075_015800, 06_075_015700, 06_075_015600, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013300, 06_075_013200, 06_075_013100, 06_075_013000, 06_075_012900</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>1.0000000000000002, 0.6867040819702476, 0.5895727322533277, 0.002922180399366483, 0.013524923666608393, 0.01378269598886616, 0.013669417879382402, 0.1985152695173839, 2.548763778191257e-05, 0.5837973125437702, 0.0022705329942490893, 0.22421655807031263, 0.621595238865661, 0.09584046991557975, 3.302127563200247e-05, 0.3594472607344193, 0.47582031966612637, 0.04795291927723393, 9.820116855877749e-08, 0.0535476764072527, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999985855508108, 0.9999999704312119, 1.0</t>
         </is>
       </c>
     </row>
@@ -12994,18 +11318,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>[33100, 33000, 30800, 35400, 35300, 30400, 32900, 32800, 30302, 35202, 30301, 35201, 35100, 32700, 32600, 30201, 60300, 60400]</t>
-        </is>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>[8.00582885335393e-08, 0.9999999677168215, 1.4887570496155803e-08, 0.9999999265867084, 0.9999999815032304, 3.3719693364476575e-08, 1.0000000000000002, 0.9999999720533819, 2.582010391976267e-09, 0.9999998020827292, 1.3194792432927332e-10, 0.9999998021698749, 0.9999998757254915, 0.9999999271419879, 0.9999997309622313, 8.826352380394594e-08, 3.326199008659661e-08, 5.2961727721790056e-09]</t>
+          <t>06_075_060400, 06_075_060300, 06_075_035400, 06_075_035300, 06_075_035201, 06_075_035100, 06_075_035202, 06_075_033100, 06_075_033000, 06_075_032900, 06_075_032800, 06_075_032700, 06_075_032600, 06_075_030900, 06_075_030800, 06_075_030400, 06_075_030302, 06_075_030301, 06_075_030201</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>3.492938156577059e-05, 0.0003440494961896735, 0.0990319169837985, 0.999989260053867, 0.08125616401140826, 0.9970153680374659, 0.9927764142607594, 0.014642317111853398, 0.9999981545444211, 1.0, 0.9999999863090635, 0.9959400989041888, 0.9923144005602594, 2.090775948011001e-10, 0.004484508036782533, 0.003161572663221444, 0.007186977742549558, 0.00332482698137748, 1.905251887626598e-08</t>
         </is>
       </c>
     </row>
@@ -13048,18 +11366,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>[17902, 12200, 22802, 20700, 20800, 22801, 22600, 20200, 20100, 16800, 17700, 16200, 18000, 17901, 60700, 16100, 12400, 17800, 12500, 15900, 16000, 17601, 12300, 15500, 12000, 12100, 15100, 17602, 11700, 10500]</t>
-        </is>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>[0.9999997128013355, 0.9999991514261519, 0.1728743133625883, 1.8757732280891174e-07, 0.18071628862190364, 0.6370550789887279, 1.1815627771935368e-07, 0.5412983072541794, 0.9999999998733551, 0.08922590200324786, 0.8537688008052672, 0.5555578972891386, 0.9999998203810383, 0.9978673026433493, 0.7784760873145722, 0.25027097590775566, 0.9999999999999996, 1.0000000000000002, 1.0000000000000002, 0.3311840784211066, 0.9530011255198583, 1.0, 0.9164471637445738, 4.082212085800909e-08, 1.43291762671182e-07, 3.725241827345968e-07, 8.262258805351708e-07, 0.9999996961266184, 0.14275263566313734, 1.4840505986026708e-07]</t>
+          <t>06_041_124200, 06_001_427500, 06_075_012500, 06_075_012400, 06_075_012300, 06_075_012200, 06_075_012100, 06_075_012000, 06_075_011700, 06_075_010500, 06_075_060700, 06_075_016200, 06_075_022802, 06_075_022801, 06_075_022600, 06_075_020800, 06_075_020700, 06_075_020200, 06_075_018000, 06_075_017902, 06_075_017901, 06_075_017800, 06_075_017700, 06_075_020100, 06_075_017601, 06_075_017602, 06_075_016800, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015100</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>1.9624489541486458e-06, 3.722047252574471e-06, 1.0000000000000002, 1.0000000000000002, 0.9164423288180478, 0.9970249930479257, 1.791671365328498e-05, 1.8682785283884724e-06, 0.1391206639593229, 0.0011707142259919545, 0.5461386009901761, 0.5499356992624037, 0.17297212549667756, 0.637043747860637, 0.001421298114768862, 0.18072694064746342, 5.577998845456339e-06, 0.5452401559827512, 0.999998819510081, 0.02019985256500383, 0.744092939647741, 1.0, 0.854266982546996, 0.9991151836843436, 0.9999999999999998, 0.8917967138141932, 0.08625857666528208, 0.25030421772761796, 0.9520470807225342, 0.3227508073877951, 0.0049589398181131075</t>
         </is>
       </c>
     </row>
@@ -13102,18 +11414,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>[31100, 25500, 25403, 21000, 25401, 21800, 30700, 21700, 30600, 21500, 25300, 21600, 21200, 21300, 21400, 21100, 30500, 20400, 20500, 20600, 20700, 20800, 30102, 20300, 17000, 16900, 17100, 20200, 16600, 16700, 16800]</t>
-        </is>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>[0.17119736790112886, 0.009040510224056317, 3.018277239073729e-10, 0.6573897975836624, 4.911367307678139e-08, 0.9999993733031873, 0.052797880131814016, 0.9999998684911139, 1.4742824716939408e-07, 0.9700065168153092, 1.800119331964403e-07, 0.9999999999999996, 1.0000000000000002, 0.9999999999999998, 1.0000000000000007, 1.0000000000000002, 5.795697598556511e-07, 0.999999633026678, 1.0, 1.0000000000000004, 0.9999992567792718, 1.9211148482577846e-07, 0.025595450069457452, 0.9999999999999999, 0.9999999999999997, 0.9999999999999998, 0.19023686335310427, 0.458701639037813, 9.101650074891728e-08, 0.53846248199904, 0.4094314148944013]</t>
+          <t>06_075_031100, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030102, 06_075_025500, 06_075_025401, 06_075_025403, 06_075_025300, 06_075_021800, 06_075_021700, 06_075_021600, 06_075_021500, 06_075_021400, 06_075_021300, 06_075_021200, 06_075_021100, 06_075_021000, 06_075_020800, 06_075_020700, 06_075_020600, 06_075_020500, 06_075_020400, 06_075_020300, 06_075_020200, 06_075_017100, 06_075_017000, 06_075_016900, 06_075_016800, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>0.18111828539920496, 0.0536714844733811, 2.1626795759445063e-06, 3.123555236327859e-05, 0.02560028035799882, 0.004224305530641646, 0.02235432277285865, 0.008536353582491654, 0.01434411621552429, 0.9979928752590292, 0.9989581959990711, 1.0000000000000007, 0.9685230060101149, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.6563392025595292, 4.507811446792069e-05, 0.9999501069580897, 0.9999999999999994, 1.0000000000000002, 0.9999374308939697, 1.0000000000000004, 0.45365819986958006, 0.1902588175446095, 1.0000000000000002, 1.0000000000000004, 0.4090448746417062, 0.5384542369000975, 4.286303031858021e-06</t>
         </is>
       </c>
     </row>
@@ -13156,18 +11462,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>[15400, 47701, 45100, 15600, 42800, 35100, 47901, 47702, 45200, 40200, 47802, 32602, 32700, 15700, 42700, 32601, 42601, 47600, 35201, 980300, 16500, 42602, 40100, 47902, 47801, 980200, 35202]</t>
-        </is>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>[0.008626227352576923, 1.0, 1.0, 0.9983874428194933, 0.00014466641835344347, 0.0005635749575310478, 0.9766803471390583, 1.0, 1.0000000000000002, 0.8174245799572591, 1.0000000000000004, 0.00015067366979157684, 0.0004970251799885492, 0.573590054674836, 0.9525926695483729, 0.0012999181581304117, 0.9994147933964368, 1.0000000000000002, 9.072711825450593e-05, 0.797088986583568, 0.12538884165574163, 0.9998871974386809, 0.5230484672076363, 1.0, 1.0, 0.9781988782080754, 0.003919467194233107]</t>
+          <t>06_075_016500, 06_075_015700, 06_075_015600, 06_075_015400, 06_075_980200, 06_075_980300, 06_075_047802, 06_075_047801, 06_075_042602, 06_075_042601, 06_075_032602, 06_075_032601, 06_075_047901, 06_075_047702, 06_075_047902, 06_075_047600, 06_075_045200, 06_075_045100, 06_075_042800, 06_075_042700, 06_075_040200, 06_075_040100, 06_075_035201, 06_075_047701, 06_075_035100, 06_075_035202, 06_075_032700</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>0.12530141940039907, 0.5772190736098574, 0.9999999831741031, 2.197721220934028e-08, 0.5628130343595993, 0.7507276274931243, 0.9999999999999996, 1.0000000000000004, 0.999999981461788, 0.9999999923094957, 6.6671570907729515e-09, 2.447594417307049e-08, 0.2173338633692003, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 1.3516351858918917e-08, 0.952413160970442, 0.8204196678081741, 0.5242129962888987, 2.394184788349008e-10, 1.0000000000000004, 4.2747242855328626e-09, 1.329019860952305e-08, 1.1630024341210757e-08</t>
         </is>
       </c>
     </row>
@@ -13210,18 +11510,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>[600402, 26002, 30900, 26303, 31201, 25600, 31000, 25403, 31400, 31301, 25500, 26200, 60502, 31100, 26301, 26302, 31202, 26003, 31302, 600401, 26001, 26100, 600700, 26004, 600300, 980501, 25701]</t>
-        </is>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>[0.00018029051748552668, 0.9135081705091144, 1.9441435181186303e-05, 0.9942307457469325, 0.5532558127378162, 0.4614252283135491, 1.0933310535376212e-05, 3.842687257795206e-14, 0.9999999999999998, 0.9779440729759717, 0.748305544374891, 0.9989738399302789, 0.0012877559366089083, 0.006269420930143888, 1.0000000000000004, 0.9320788723045402, 0.9251874923396057, 0.9999950504827623, 0.644280981689629, 0.0006974117221687217, 1.0, 0.999999999999901, 0.002226878336297157, 0.9999999999999998, 0.0001645485150187959, 0.04970081714775639, 3.3999726716434097e-16]</t>
+          <t>06_081_600300, 06_081_600401, 06_081_600402, 06_081_600700, 06_075_980501, 06_075_033203, 06_075_031302, 06_075_031301, 06_075_031202, 06_075_031201, 06_075_025701, 06_075_060502, 06_075_031400, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_026303, 06_075_026302, 06_075_026200, 06_075_026100, 06_075_026003, 06_075_026301, 06_075_026004, 06_075_026001, 06_075_025600, 06_075_025500, 06_075_026002, 06_075_025403</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>6.4445784386910725e-09, 2.756346831251103e-08, 1.14538521603769e-09, 1.7518723733033037e-08, 0.04546421850383271, 3.821357670568186e-15, 0.638067148809159, 0.9812202556951443, 0.9254077186309255, 0.5497783997443514, 1.356702760105693e-09, 5.3607371513563965e-09, 1.0000000000000082, 9.80106985358536e-09, 4.2807910088825806e-17, 7.961589292139455e-09, 0.9999996075926446, 0.9391951051567823, 0.9999999753148883, 0.9999999969586851, 0.9999999931026581, 1.0000000000000002, 1.0000000000000004, 1.0, 0.46099744267420534, 0.7499299587951711, 0.9138920294210329, 3.7021102283031094e-09</t>
         </is>
       </c>
     </row>
@@ -13264,18 +11558,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>[13102, 10700, 11902, 10800, 11100, 11200, 12301, 11300, 11800, 11901, 15100, 12501, 10900, 12302, 13101, 11000, 10100, 17601, 10200, 12100, 10600, 10300, 12201, 61500, 10500, 12000, 11700, 61100, 12202, 10400]</t>
-        </is>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>[0.00027889680098904933, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 0.9841988219164414, 1.0, 0.427081771797297, 1.0000000000000002, 0.9999999999999999, 1.0, 0.0005465517098994035, 0.14036703744231765, 0.7297623587154082, 0.6650121515820437, 0.0033018358280516597, 0.9987927579038667, 0.6964049196993827, 0.002750421563841411, 0.0013075667969283898, 1.0, 0.9999999999999998, 0.6955034541789076, 5.2208881236875836e-05, 0.0037364364281560433, 0.6677396228847994, 0.977262597633914, 1.0000000000000004, 1.0, 0.07779829804748979, 1.0000000000000002]</t>
+          <t>06_075_015100, 06_075_013000, 06_075_012100, 06_075_012000, 06_075_011800, 06_075_011700, 06_075_011300, 06_075_011200, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010800, 06_075_010700, 06_075_010600, 06_075_012302, 06_075_012301, 06_075_010500, 06_075_010400, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_061500, 06_075_061100, 06_075_013102, 06_075_013101, 06_075_012501, 06_075_012202, 06_075_012201, 06_075_011902, 06_075_011901, 06_075_017601</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>1.39384295802706e-09, 1.1823193442196314e-15, 0.9999999999999999, 0.972207407787741, 0.9999999999999996, 0.9999999698220089, 1.0000000000000002, 0.9999999999999998, 0.9859783305284809, 0.9999999843968951, 0.7289175586644654, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.6649915637320186, 0.4264521644748218, 0.5813202305512056, 0.9999999999999994, 0.6877021601394369, 6.688963103740043e-09, 0.5451383485364958, 0.0007419192886877325, 0.9999999999999998, 1.132282085195434e-09, 1.9639044161724208e-08, 0.13639051636410718, 0.07838925617155307, 6.012959914298065e-08, 1.0, 1.0, 7.192665466775722e-09</t>
         </is>
       </c>
     </row>
@@ -13318,18 +11606,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>[15400, 15900, 15500, 15300, 17101, 30102, 15100, 16700, 12402, 16000, 16802, 16300, 16100, 20100, 20200, 30301, 30201, 15700, 32601, 16600, 20401, 15802, 16200, 980300, 30202, 16500, 15801, 15200, 30500, 30101, 12202, 16801, 17102, 16400]</t>
-        </is>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>[0.039249406236476735, 1.0, 0.9513550180918946, 0.13149945240993816, 0.6496103264485782, 0.31811631870640245, 0.22397547196828924, 0.46534598964780766, 0.0027915213975890476, 0.9979134414228938, 0.9523763492704165, 1.0000000000000002, 1.0, 0.0023135267718168815, 0.0005038482861706632, 2.344831993305904e-06, 0.4572617200881441, 0.16936574286054476, 2.5054847213869786e-05, 0.9973805223001853, 0.0012394114630412635, 0.9999999999998359, 0.9986384376252717, 0.20276752737010867, 0.7828678778792417, 0.8746111583440483, 0.9212817116361691, 0.7741005560198502, 2.3212106047801395e-14, 0.9630294577951277, 0.024792107315557407, 0.6202095909730109, 0.9999999999999998, 1.0]</t>
+          <t>06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_980300, 06_075_020401, 06_075_017102, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_015802, 06_075_015801, 06_075_012402, 06_075_012202, 06_075_016200, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020200, 06_075_020100, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
     </row>
@@ -13372,18 +11654,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>[30800, 30400, 33201, 32801, 33203, 30102, 30900, 31201, 31000, 21700, 30700, 30600, 31301, 25500, 35400, 30301, 32602, 31100, 30201, 31202, 32601, 20401, 600900, 30302, 20402, 31302, 30202, 33204, 26100, 30500, 30101, 33000, 60400, 35300, 32802, 600700, 33100]</t>
-        </is>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>[0.9968624625577887, 0.9957479989963995, 1.0000000000000002, 3.853410446004411e-08, 1.0, 0.6588748821704932, 0.9999805585648691, 0.4467441872620379, 0.9999890666895423, 0.00972641060172156, 0.9527354456471615, 0.9982376258144131, 0.022055927023985383, 0.02208938602727872, 0.0005850826769853205, 0.9999522175055976, 0.0028521429117076428, 0.8889785382545498, 0.3199281973420035, 0.07481250766039427, 6.731478170152874e-05, 0.001572403040117181, 0.0010393110885090853, 0.9990482051773661, 0.03709146445642281, 0.3557190179864703, 0.2171321221204138, 1.0, 2.1073886435715068e-14, 0.9771116212803466, 0.036970542204975934, 0.0029197468901213455, 0.9986940469882599, 0.000779304100451451, 0.0005184392419698907, 3.207420202880103e-10, 0.9988581317582322]</t>
+          <t>06_081_600900, 06_081_600700, 06_075_033204, 06_075_033203, 06_075_032802, 06_075_032801, 06_075_032602, 06_075_032601, 06_075_031302, 06_075_031301, 06_075_031202, 06_075_031201, 06_075_020402, 06_075_020401, 06_075_060400, 06_075_035400, 06_075_035300, 06_075_033100, 06_075_033000, 06_075_031400, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_030800, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030400, 06_075_030302, 06_075_033201, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_026200, 06_075_026100, 06_075_025500, 06_075_021700</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>1.23080216240313e-08, 6.174778222291653e-11, 1.0, 0.9999999999999795, 1.6440364284765158e-09, 8.519572020152519e-09, 1.2454262395433648e-09, 1.1856539078974096e-09, 0.361932849771584, 0.018779744304839623, 0.0745922813692526, 0.4502216002556249, 5.574707535133124e-08, 6.74190795843121e-09, 0.8341991836556645, 0.0015002848337283578, 4.593250961738084e-09, 0.9999999719710455, 1.5997966526947506e-08, 1.0008836792875836e-15, 0.8952337767162254, 1.0000000000000009, 0.9999999920384115, 0.9980439959457964, 0.9578230967857638, 0.9999999969206312, 0.9999999727714125, 0.9977687986812899, 0.9999999812134479, 1.0000000000000002, 0.9999999888615884, 0.2158684833804301, 0.6555233770743977, 0.03986175558868292, 0.3207171205216631, 6.291338887688731e-09, 3.0412681569947005e-09, 0.02225933382048277, 1.720017219139685e-08</t>
         </is>
       </c>
     </row>
@@ -13426,18 +11702,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>[26002, 980900, 25900, 22803, 23300, 20900, 25600, 25100, 21800, 20700, 25403, 22801, 25500, 21000, 25702, 20100, 17700, 20200, 23001, 25300, 20800, 26003, 22902, 25200, 22802, 22901, 25401, 25402, 25800, 22903, 980501, 21500, 25701]</t>
-        </is>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>[0.08649182949066445, 0.0030345805989809094, 0.9179465977773891, 1.0000000000000002, 0.00015531592295446887, 0.9999999734631793, 0.5385747716864131, 0.9844069447517783, 0.0009530266527328824, 1.298222777155273e-05, 0.8994364365962783, 0.8316125555647039, 6.795122573550258e-15, 0.0007258000649407885, 0.8497736276344792, 0.6403031369280235, 0.4331285483479583, 3.3427070219455464e-05, 2.833238328773556e-06, 0.9256923542893116, 0.9999698596807062, 4.9495173206653214e-06, 0.9999999999999998, 1.0000000000000002, 0.1688313043916307, 0.9999999999999998, 0.8808342147402644, 0.9999999999999997, 0.5639972092391777, 0.537188985781263, 0.38134550795164945, 0.015892492635525387, 0.9914793044328567]</t>
+          <t>06_075_980501, 06_075_980900, 06_075_025702, 06_075_025701, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_026002, 06_075_025403, 06_075_025300, 06_075_025200, 06_075_025100, 06_075_023300, 06_075_025402, 06_075_022903, 06_075_022902, 06_075_023001, 06_075_022802, 06_075_022803, 06_075_022901, 06_075_022801, 06_075_021800, 06_075_021500, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700, 06_075_020200, 06_075_017700, 06_075_020100</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>0.3862780054123279, 0.004241637181312673, 0.8383273873800532, 0.9999999940512277, 1.2492223901074526e-14, 0.9181210468810728, 0.5598151662365514, 0.5390025568568767, 8.561284399205526e-10, 0.8790156659627197, 0.0861079705788287, 0.9016319486562788, 0.9284302727006385, 0.9999999999999996, 0.9894030953767958, 4.5007352160841604e-10, 1.0000000000000002, 0.5404050417982472, 1.0000000000000002, 0.0026109057493458993, 0.16623594111703902, 0.9999999999999999, 0.9999999999999999, 0.8316479243544003, 5.914104869222674e-09, 0.017828581515534913, 1.1030122238193852e-08, 0.9999999705753733, 0.999999982613939, 3.554634914373174e-08, 3.750780995772918e-08, 0.4291845965741962, 0.6500229394834417</t>
         </is>
       </c>
     </row>
@@ -13480,18 +11750,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>[23001, 26401, 61200, 61000, 26403, 23003, 23001, 61000, 60702, 60702, 26403, 23001, 23300, 61401, 23300, 26404, 61000, 23001, 980501, 23103, 980600, 17700, 26401, 26404, 26302, 22702, 25100, 23200, 23200, 980900, 22704, 980600, 25800, 61401, 26402, 980900, 22704, 60502, 22704, 23103, 980600, 980600, 22704, 61200, 61200, 22704, 22600, 980900, 22802, 980600, 22704, 23400, 23102, 61200, 23200, 26402, 980501, 60502, 980900, 61200, 980600, 23200, 25800, 23001, 22600, 22802, 22600, 25800, 61000, 61402, 25900, 22600, 26401, 60502, 980600, 61200, 23001, 22600, 26403, 60502, 26401, 23001, 23200, 61000, 980900, 23300, 60702, 22702, 22702, 17700, 26402, 23200, 23001, 61200, 980900, 61000, 22600, 22702, 17700, 23001, 61000, 22600, 22600, 22600, 22600, 23400, 23001, 22802, 26402, 25800, 61401, 61000, 61000, 17700, 26402, 23001, 60502, 61401, 23103, 23200, 22702, 25702, 23200, 61200, 26401, 22704, 980600, 23400, 22704, 980900, 61402, 26404, 980600, 23300, 22702, 61200, 26404, 23300, 26402, 23200, 22600, 23001, 25900, 26403, 980600, 61000, 23200, 61000, 23400, 22704, 61200, 980900, 61401, 23400, 60702, 60702, 980900, 23300, 23001, 22704, 22702, 22702, 61000, 23200, 26402, 980900, 23003, 61000, 23400, 22704, 26403, 980501, 26402, 23003, 980600, 22704, 22802, 23003, 980900, 23003, 23200, 980600, 60702, 23400, 61200, 26402, 23103, 60502, 23003, 26403, 23400, 23200, 980900, 26404, 22600, 61000, 23102, 22802, 22600, 23400, 60502, 25100, 23200, 23400, 61000, 22600, 25900, 61000, 22704, 26402, 61200, 60702, 61402, 23102, 26404, 61000, 23400, 23200, 23400, 23400, 23102, 25800, 61000, 61200, 980900, 980900, 25800, 60701, 980900, 26402, 23001, 61401, 22702, 23400, 980600, 61402, 23003, 61200, 23300, 22704, 61200, 22903, 26402, 980900, 23200, 61000, 23102, 26403, 22702, 22802, 23103, 980900, 980900, 22704, 26402, 60502, 980600, 26403, 61000, 980600, 22704, 22802, 25702, 23102, 980900, 61000, 60702, 980900, 980900, 25900, 23103, 23200, 22704, 61401, 23003, 23200, 25900, 22702, 60702, 61000, 61200, 26401, 61000, 22600, 22702, 23001, 61000, 26402, 61401, 25800, 26403, 26401, 23003, 23001, 26402, 26401, 26401, 23001, 23102, 26302, 61000, 61000, 980900, 980600, 23300, 26402, 980900, 26403, 980900, 26403, 980600, 26402, 61402, 26401, 61401, 23400, 26403, 25800, 23200, 22903, 23103, 61000, 26302, 980600, 23003, 980900, 980900, 23001, 61401, 23001, 26402, 23300, 23200, 23200, 23300, 26401, 23103, 22600, 980900, 61200, 61200, 23102, 61200, 980900, 980501, 22903, 60702, 17700, 23001, 22600, 61000, 980900, 22600, 23001, 22702, 980900, 980900, 23200, 23200, 23400, 980501, 23400, 23300, 61000, 23001, 23200, 26401, 23001, 980900, 23001, 23200, 23400, 23200, 22704, 60502, 26401, 22704, 23200, 23102, 26401, 22802, 61000, 60702, 26402, 980600, 61401, 980900, 980900, 22600, 60702, 22903, 980900, 23400, 26402, 980900, 61200, 23102, 23200, 26302, 60702, 23400, 22600, 980900, 22802, 61000, 980900, 23400, 980600, 22702, 980900, 23300, 61402, 23300, 23003, 25900, 61401, 25702, 23003, 61401, 22702, 980600, 22702, 23400, 61200, 22702, 23300, 23001, 25800, 980900, 61401, 22600, 980900, 23300, 23400, 61000, 980900, 60702, 61200, 980900, 22702, 26403, 61000, 980900, 23400, 22903, 25900, 980900, 23300, 980600, 23001, 23001, 26404, 23200, 23103, 61000, 23200, 22704, 23001, 22600, 22702, 61200, 26401, 26404, 980600, 60702, 61401, 23103, 61402, 22702, 980900, 980900, 26402, 23400, 23200, 61000, 23001, 61402, 23400, 26402, 25800, 23102, 23200, 26402, 23400, 61200, 23102, 23400, 22903, 22704, 980600, 980600, 23200, 980900, 22600, 23003, 23003, 61401, 22600, 22704, 22600, 60702, 26403, 61401, 22704, 23102, 60701, 23003, 980900, 26401, 26404, 980600, 61401, 61401, 61401, 22704, 61200, 26402, 61401, 23001, 23003, 22600, 22702, 23001, 60702, 980900, 980900, 23400, 22704, 22600, 23300, 26403, 980900, 25100, 23400, 23003, 22802, 61200, 980600, 23400, 25900, 23200, 26003, 22600, 23102, 25702, 22802, 980900, 22600, 22704, 980900, 26402, 26403, 23001, 25701, 61000, 23400, 23200, 23200, 26003, 23300, 23103, 61000, 23102, 22600, 23001, 61401, 22903, 26401, 23300, 26402, 23001, 980900, 61000, 23200, 23103, 980900, 22802, 980900, 22600, 23200, 23300, 26401, 980501, 23200, 22600, 23001, 26404, 980900, 980900, 60702, 22802, 23200, 23300, 23001, 60502, 22704, 25100, 980900, 22702, 23200, 23300, 23003, 22903, 22600, 980900, 61402, 23300, 23200, 61200, 61000, 61200, 22903, 980501, 23003, 23003, 26404, 61000, 980600, 26401, 23400, 26403, 22704, 61401, 980900, 22600, 22704, 22600, 61200, 23300, 61401, 61401, 23400, 23400, 26404, 25702, 26403, 61402, 23400, 980900, 23200, 22704, 980900, 26402, 25900, 22600, 23300, 23102, 23003, 22903, 22600, 60502, 980600, 17700, 980600, 61401, 23102, 26403, 61000, 22903, 980600, 26402, 22702, 980900, 23102, 980900, 61000, 980900, 61402, 23300, 23003, 22704, 23003, 980600, 61000, 61200, 22704, 22702, 23103, 61200, 26404, 980900, 980600, 25900, 26402, 26402, 23001, 980600, 26401, 23001, 23001, 980900, 22600, 22903, 61200, 980600, 980900, 980900, 26402, 61200, 23400, 23001, 26404, 22704, 23200, 22704, 23001, 61200, 980501, 61401, 26404, 23300, 22802]</t>
-        </is>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>[0.9999999999999999, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 0.9999999360955796, 0.999999939259456, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999907241461, 1.0, 1.0000000000000002, 0.9999999314516137, 1.0000000000000002, 1.0000000000000002, 1.0760376728987073e-08, 1.0, 0.9999999999999999, 2.4211014788374947e-09, 1.0, 1.4493718520692693e-07, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999957476553, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9535183750801504, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999817475255, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 4.7434729467483655e-08, 0.9622092440343321, 0.9999999999999997, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 0.9999999221380224, 0.9999999999999998, 1.3965342536353354e-07, 1.0000000000000002, 0.9999999999999999, 2.1311616963824725e-08, 0.9999999999999999, 1.0, 1.0, 0.9999999999999997, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9471621990261575, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0000000000000004, 1.2441008037743525e-07, 1.0, 0.9999999999999999, 0.9999997017160065, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0818601731791596e-08, 0.9999999600838974, 0.8537058685484383, 0.9980444555157306, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999621771206, 1.0000000000000002, 0.9999999942414064, 0.9999999999999998, 0.9999999999999999, 0.9999999999999997, 0.9999999438007108, 1.0, 1.0000000000000002, 0.9931716669339427, 1.0000000000000002, 1.0, 1.0, 1.0, 1.9468434375348525e-07, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000004, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999934682021, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9978936367662951, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999996997946734, 1.0, 1.0000000000000002, 0.9796399263046144, 1.0, 7.97622040179389e-08, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 5.3369375158141415e-09, 1.0, 1.0000000000000002, 1.0, 0.9999993944191609, 0.9534564670913548, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.9999999904045861, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 3.4027932677005764e-08, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.1697092036273896e-08, 1.0, 1.0, 1.0, 0.9999999999999996, 6.39008099419737e-08, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000013, 0.9736281217180132, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 6.147552312424986e-09, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.999999986517367, 1.0000000000000004, 1.0, 0.9999999205971687, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999993, 1.0, 1.0, 0.9999999725867692, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999999999999999, 0.9999999999999998, 1.0000000000000004, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 9.94338645409775e-09, 0.9999999999999997, 0.8691129438820361, 1.0000000000000002, 0.9999998139745577, 1.0, 0.9999999999999997, 1.0000000000017917, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 3.7271294612412935e-09, 1.0000000000000002, 0.9999998636906686, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999985898520091, 1.0, 1.0000000000000002, 0.9999999999999997, 4.0018114971716374e-08, 1.0, 0.9999999999999999, 1.0000000000000009, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9999999999999993, 1.322997437448678e-07, 1.0, 0.9999999999999996, 1.0, 1.0000000000000004, 0.9999999999999996, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 0.9999999729914651, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999799104788, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.49561511682144427, 1.0, 2.0520518487091817e-09, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999997999, 1.0, 1.0000000000000002, 0.999977326713574, 3.533591208201435e-08, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 3.264361852450886e-07, 0.9999999607712836, 0.9999999999999998, 0.9999999788878225, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999971523168, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999175957319, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999991, 1.0000000000000002, 4.458876576613244e-09, 1.0000000000000004, 0.9999999501003797, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9999999999999999, 8.83761648431987e-08, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999994, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 1.1806356390645409e-07, 1.29805038178878e-08, 1.0, 0.999999997619889, 0.9999999999999998, 6.024507782866006e-08, 1.0000000000000004, 1.0, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 2.479367336771023e-08, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0000000000000007, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.9999999181024609, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999869862911, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.999999954971636, 1.0, 9.998613903309136e-09, 0.9999994557222583, 0.9939661026538219, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 0.9999999999999998, 0.9999999999999999, 1.0, 0.9999999835804846, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 4.6900568953824025e-09, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999918475643, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999440286842, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 3.0354584957503834e-08, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 0.999999945205182, 0.8801240934826698, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 3.286200392304772e-09, 1.0000000000000004, 0.9999999634354112, 0.9999999999999999, 0.9610536715033624, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.2612792867812392e-07, 1.0, 1.0, 0.9999999760195402, 1.0, 1.0, 1.0000000000000002, 0.9613893727939844, 1.0000000000000002, 5.600484416375149e-08, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999681896112, 1.0000000000000002, 4.6750025203835894e-09, 1.0, 0.9999999999999999, 4.879917414606863e-07, 1.0, 1.0, 2.4510373029264825e-08, 1.0, 0.9999999625118142, 1.0, 1.0, 1.0000000000000002, 5.116244045913097e-08, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 3.1463713549037363e-07, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999953841747219, 0.8690723126590035, 1.0, 1.0, 1.0, 5.019670746394368e-08, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 1.9523963452965498e-08, 1.0000000000000002, 1.0, 1.0000000000000002, 1.1531224286022783e-09, 0.9999999999999998, 1.0000000000000004, 4.44190624155345e-08, 0.9999999653745215, 1.0, 1.0000000000000002, 1.0, 0.9999998119350433, 1.0000000000000002, 6.337105422167252e-08, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 0.8869190517179185, 0.9999999999999996, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.9823276337048729, 0.9999999999999998, 0.9999998977311647, 3.627058942301258e-08, 1.0000000000000002, 1.0000000000000002, 0.8823199847936114, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9793310292146141, 2.2837641812779908e-08, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999994, 0.9999999999999998, 1.0, 1.0, 0.9999997949563643, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000007, 1.0, 1.0265467417921296e-07, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 0.9999999999999997, 0.999999823935494, 1.0, 0.9999999999999997, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 1.0, 0.9999999999999998, 1.0, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9591581370508147, 1.0, 0.9999992091995742, 1.0, 1.0, 0.9999999999999997, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 0.9999999978570809, 1.0, 1.6509910242183349e-07, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.9999999762506208, 0.9947822159195697, 1.0, 1.0, 0.9999999999999998, 0.9999999646044346, 1.0, 0.9999999960890724, 1.0000000000000002, 0.9972394867302489, 1.0, 1.9209583619479636e-07]</t>
+          <t>06_075_980501, 06_075_025702, 06_075_022704, 06_075_025701, 06_075_061200, 06_075_023102, 06_075_023200, 06_075_023300, 06_075_022702, 06_075_025800, 06_075_061000, 06_075_025900, 06_075_026003, 06_075_026404, 06_075_060502, 06_075_023103, 06_075_980900, 06_075_023400, 06_075_025100, 06_081_600200, 06_075_017700, 06_075_022600, 06_075_022802, 06_075_022903, 06_075_023001, 06_075_023003, 06_075_026302, 06_075_026401, 06_075_026402, 06_075_026403, 06_075_061402, 06_075_980600, 06_081_600100, 06_075_061401, 06_075_060702, 06_075_060701, 06_075_990200</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>0.5296448579769638, 2.6254678775358282e-08, 0.9999999999999998, 7.913630067302182e-09, 0.9999999999999996, 1.0000000000000002, 0.9999999999999796, 0.9999999958983022, 0.9999999936056178, 0.5219253190666969, 0.7128243619216079, 0.1057581644981432, 8.824992074380399e-09, 0.9817294814247994, 0.9419600582523978, 0.7508544777993751, 0.9344974748040086, 0.9999999972573774, 2.3571682368261797e-08, 0.0013335149636708975, 0.04106796678417421, 0.6140668038060986, 0.6702792209681512, 0.3187006347322847, 0.9999999892885812, 0.9999999999999997, 2.3603353446125804e-09, 1.0000000000000007, 1.0, 0.9865808333768226, 0.9999999999999998, 0.526661397174801, 1.6160232970360707e-06, 0.9999999989810482, 0.24794401142272657, 3.434927456165515e-10, 4.2299987544390704e-13</t>
         </is>
       </c>
     </row>
@@ -13534,18 +11798,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>[35300, 30301, 35102, 32700, 32801, 35400, 35300, 32901, 35101, 32801, 35400, 35400, 32901, 32602, 33002, 32700, 35400, 32802, 35102, 35400, 33100, 33001, 33100, 33001, 33001, 980300, 35400, 30302, 33002, 32700, 35102, 32601, 32602, 32602, 33002, 32700, 32801, 32802, 35300, 32902, 32801, 32802, 32700, 35201, 32700, 32700, 32902, 33100, 32801, 32601, 33002, 32802, 32801, 32901, 35201, 35300, 35201, 60400, 33002, 35201, 35400, 32601, 35300, 32902, 980300, 35400, 35400, 35201, 30900, 980300, 33201, 35102, 35400, 32700, 33001, 33002, 32801, 32601, 35201, 32902, 33100, 33002, 35300, 33001, 32801, 32901, 30302, 33002, 33001, 32901, 32902, 980300, 35201, 35201, 32601, 32700, 30900, 60400, 35300, 35102, 33001, 35300, 32602, 32602, 33100, 35102, 32801, 35101, 35201, 32602, 35400, 32602, 32902, 32901, 32902, 35300, 33201, 35300, 35102, 32902, 33001, 32802, 33100, 32601, 35300, 980300, 35202, 35101, 32602, 35102, 33002, 33100, 980300, 32601, 35400, 32700, 33002, 33100, 32901, 33001, 33002, 35202, 33100, 35300, 35300, 32801, 35400, 32602, 33002, 35400, 35300, 32700, 33100, 33002, 33100, 33001, 35201, 32602, 35400, 35300, 33100, 35201, 33100, 33001, 30800, 35101, 35400, 35101, 35300, 35300, 33100, 32602, 33002, 35300, 35400, 32901, 32601, 35300, 32901, 32802, 33001, 32802, 33002, 35400, 33001, 32601, 35400, 33100, 33100, 32901, 35300, 32901, 35101, 32801, 32601, 32700, 33002, 35300, 35201, 35400, 32700, 32700, 33002, 35400, 32601, 47904, 35202, 33001, 33100, 32901, 35400, 33100, 33002, 980300, 35300, 35101, 32602, 32602, 35300, 32601, 32901, 33100, 35102, 30302, 33100, 33002, 32700, 33100, 33100, 35102, 35201, 32901, 32700, 32901, 980401, 30800, 33001, 32602, 32902, 32801, 35400, 32902, 35300, 35300, 32700, 32901, 35102, 32902, 35400, 35201, 980401, 35201, 33100, 35300, 32901, 35300, 32802, 32802, 32901, 33100, 33002, 32902, 35300, 980300, 30302, 35400, 35201, 32801, 32901, 33002, 32700, 32901, 32601, 35400, 35102, 35102, 32700, 32700, 32902, 35400, 32902, 35101, 32601, 35400, 35101, 35102, 35300, 35202, 32902, 35400, 32602, 33100, 35400, 33001, 32902, 32802, 32902, 32700, 35300, 32801, 33002, 32901, 32700, 33002, 33100, 33001, 33002, 35102, 35400, 32802, 32700, 32901, 32700, 33002, 35400, 32802, 35201, 33100, 33002, 33100, 35202, 32801, 32601, 35300, 35101, 33001, 32802, 33100, 35102, 35102, 33100, 35102, 32700, 35300, 32700, 35300, 35201, 32901, 35102, 35300, 32700, 35201, 32902, 32901, 33001, 33001, 35300, 35400, 35201, 32801, 33001, 32802, 32802, 33201, 33100, 33100, 33100, 33100, 35300, 35102, 32901, 35202, 35202, 30201, 32901, 980300, 35201, 33001, 33201, 32700, 32700, 35300, 32801, 33100, 32601, 35102, 35201, 35300, 32601, 980300, 35300, 980300, 32700, 33100, 33001, 35201, 33001, 32801, 32802, 32601, 33100, 35101, 35102, 35300, 35300, 33001, 35101, 32700, 32802, 32801, 32902, 35201, 35400, 32700, 35101, 35102, 33001, 35202, 33100, 32700, 35300, 32602, 33100, 33100, 32601, 33001, 30800, 35102, 35300, 33002, 980300, 35102, 35400, 35400, 32700, 33002, 35400, 35300, 35102, 980300, 32700, 32801, 32802, 32602, 33001, 32901, 35102, 33100, 32700, 32802, 33001, 33100, 35102, 33100, 33100, 35300, 32700, 35400, 33100, 35202, 35202, 35300, 35202, 33100, 32902, 980300, 35202, 33100, 32602, 32902, 33001, 32602, 32700, 35101, 33100, 35201, 32602, 35300, 35202, 35101, 32901, 980300, 32802, 33001, 32602, 32801, 35400, 32700, 32902, 35202, 32602, 35202, 35201, 33002, 32902, 33001, 32602, 35201, 32602, 980300, 60400, 32601, 35201, 980300, 35300, 32802, 980300, 980300, 33002, 33201, 33002, 33100, 35400, 30800, 33001, 32902, 32700, 32902, 35101, 35300, 32801, 33002, 32700, 35101, 35201, 32700, 32601, 33001, 30201, 30900, 35102, 33001, 32700, 32802, 32901, 35400, 32901, 32801, 33001, 35300, 32601, 35400, 35101, 980300, 35101, 33001, 35201, 35202, 33002, 30301, 33100, 30400, 32700, 33100, 35400, 35400, 35300, 33201, 32801, 32902, 35202, 33100, 32901, 32901, 35202, 33001, 30400, 32901, 32901, 35101, 33001, 35202, 32801, 32802, 32801, 30201, 35300, 32700, 35202, 35300, 33001, 35101, 33100, 35201, 32802, 33100, 32700, 35400, 35400, 32901, 35102, 32802, 32802, 32901, 980300, 32902, 33002, 32602, 35201]</t>
-        </is>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 6.112321265476542e-07, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999381549559, 1.0, 1.0, 0.9999998705186139, 1.0, 1.0, 1.0000000000000002, 1.0000000000000004, 0.999999999999999, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999996, 0.9999999999999998, 1.6478775238200876e-06, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000004, 1.7938451284532892e-08, 1.0, 1.0000000000000002, 1.0, 0.9999999607934266, 1.0, 1.0, 0.9999998992852341, 0.9999999999999998, 1.0, 1.0, 4.372362778381716e-07, 2.955451871051201e-08, 1.7469519071498963e-08, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 2.0954594320275894e-08, 1.0, 1.0, 1.0, 1.0, 4.7919271567855134e-08, 1.0, 1.0, 1.0, 1.0000000000000002, 6.280553941350992e-07, 6.855221065643906e-09, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999925520314, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999971359042, 8.669208319525604e-08, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999997764878036, 1.0, 0.9999999714061512, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.9999997483111328, 0.9999999774310592, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 0.9999998419929115, 0.9999999999999997, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999436717989, 0.9999999999999998, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 0.9999998653387294, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999752401669, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0662255728223749e-07, 1.0000000000000002, 0.999999523535272, 1.0, 1.0, 1.0000000000000002, 0.9999998985500832, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999999999998, 1.3421848778876385e-10, 0.9999999999999998, 1.0000000000000004, 0.9999999999999998, 1.0, 0.9999998603280011, 1.0, 1.0, 4.256061200144271e-08, 1.0, 0.9999999999999998, 1.0, 0.9999999922774169, 0.9999999999999998, 1.0, 1.0, 0.9999999618702639, 0.9999999999999998, 1.0524423120305464e-08, 0.9999998949357273, 1.0, 1.0, 0.9999999605833161, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 8.215623728478951e-08, 1.0000000000000002, 0.9999998620237989, 1.0000000000000002, 0.9999998729668039, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 3.402252611024536e-07, 2.606863786847607e-06, 1.0000000000000002, 1.0000000000000002, 0.999999604480888, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999104483769, 1.0, 0.9999999587096086, 0.9999999760473787, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.999999806281663, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999953939627, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000004, 0.9999999083589806, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999301186221, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.5894344664251184e-07, 1.0, 4.7410609960223645e-08, 1.0, 0.9999999999999998, 2.196090679411575e-08, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999969702534, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 0.9999999746114858, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 0.9999998912623776, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999996, 1.0, 1.0000000000000002, 0.9999999202630842, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 2.9165657315973132e-08, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999877781732, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0000000000000009, 1.0, 1.0, 1.0, 1.0, 1.0, 1.3044168689197625e-07, 5.823049398067438e-09, 1.0, 0.9999999999999998, 3.7769971975457344e-08, 1.0000000000000002, 1.0, 1.568563786432398e-08, 0.9999999795169711, 1.0, 9.193188467897888e-11, 0.999999987272646, 0.9999999707096706, 1.0, 6.224859229299993e-08, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999998498763671, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 1.0, 1.5466194747759527e-07, 5.332371171127226e-07, 0.9999999999999996, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0000000000000004, 1.0, 1.0000000000000002, 1.219903991616331e-08, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999996, 2.8588798028920543e-07, 1.0000000000000002, 3.325319704471108e-07, 1.0, 1.0, 0.9999996305426775, 1.0, 1.0000000000000002, 0.9999998306850247, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9999999949279901, 1.0, 0.9999999999999998, 1.0, 1.0, 3.5434807301621464e-07, 0.9999999999999998, 1.0, 0.9999999999999993, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 3.593974155829662e-07, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 0.999999963052735, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999998936634459, 0.9999999999999998, 1.0, 1.0, 1.0]</t>
+          <t>06_075_032801, 06_075_032602, 06_075_032802, 06_075_032901, 06_075_980300, 06_075_980401, 06_075_035202, 06_075_032601, 06_075_032902, 06_075_030900, 06_075_032700, 06_075_033100, 06_075_033201, 06_075_035201, 06_075_035300, 06_075_035400, 06_075_060400, 06_075_030201, 06_075_030301, 06_075_030302, 06_075_030400, 06_075_030800, 06_075_035102, 06_075_033001, 06_075_033002, 06_075_047904, 06_075_035101</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>0.9999999726008113, 0.9999999938584451, 0.9999999931291227, 1.0000000000000009, 0.3508607661934953, 0.9999999974528508, 1.0, 0.999999997281031, 0.9999999999999996, 2.7771417711087996e-09, 1.0000000000000002, 0.9999999792655473, 0.24625245011586014, 0.5986396509934473, 0.9999999978293214, 0.6489383309658736, 4.736827092069486e-09, 3.645694550768815e-08, 2.4863117353818128e-09, 1.4978817059680594e-08, 2.0230349031240954e-09, 6.383727484500913e-10, 1.0000000000000002, 0.9999999999999999, 0.9999999873838338, 7.771780016896535e-12, 0.9999999999999998</t>
         </is>
       </c>
     </row>
@@ -13588,18 +11846,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>[61501, 17903, 11700, 16802, 61501, 60702, 60702, 17801, 60701, 61502, 20101, 60703, 61507, 18000, 12405, 61501, 17903, 60701, 17804, 17804, 61501, 60702, 17700, 12405, 17700, 17903, 60703, 61508, 17700, 20101, 18000, 17804, 60703, 61504, 17700, 17700, 61501, 61501, 11700, 18000, 17804, 17700, 20101, 18000, 60702, 22600, 17700, 61501, 17602, 61507, 17903, 60702, 60701, 16802, 20101, 60701, 17700, 17804, 17603, 17700, 17804, 20101, 17903, 60702, 17700, 17903, 17603, 61501, 16802, 18000, 60702, 17903, 61508, 17700, 11700, 61506, 12405, 17700, 17602, 17700, 60701, 17903, 61501, 11700, 61501, 17700, 17903, 17903, 12405, 17801, 61503, 61503, 60703, 17602, 16802, 17903, 61501, 12503, 17801, 61502, 61503, 17700, 61502, 60701, 18000, 16802, 17603, 60702, 17803, 18000, 17803, 17903, 61501, 17604, 60702, 12405, 17903, 17903, 17804, 61508, 11700, 60701, 12503, 18000, 17700, 61501, 61507, 61506, 60702, 20101, 17602, 61501, 17700, 60702, 61502, 20101, 20202, 61503, 17700, 17903, 60703, 22600, 60701, 17903, 60701, 61501, 18000, 17602, 17903, 17700, 61506, 60701, 12405, 17603, 60701, 20101, 61507, 60702, 17603, 17903, 60702, 18000, 17603, 60701, 18000, 17700, 18000, 61502, 17700, 12504, 17903, 61501, 60701, 17803, 17801, 61506, 61502, 60703, 60703, 17602, 60702, 61504, 17602, 12405, 20202, 18000, 17903, 18000, 17700, 61508, 17603, 61507, 61507, 61507, 17903, 17803, 17903, 17700, 61501, 12503, 17700, 60702, 60701, 61503, 12503, 17903, 60701, 60702, 20101, 61507, 17603, 17700, 16802, 17803, 17801, 61503, 17903, 17903, 17804, 17602, 60701, 17803, 17801, 18000, 60703, 17903, 61508, 17602, 18000, 17700, 17602, 18000, 60703, 17700, 17903, 17604, 17903, 12504, 22600, 17700, 61502, 17602, 17700, 17804, 17700, 12405, 61501, 20101, 17903, 16802, 61508, 17700, 60701, 60702, 17903, 61501, 60702, 20202, 10500, 17903, 11700, 61503, 17903, 20101, 60702, 18000, 17804, 60702, 17903, 17903, 18000, 18000, 18000, 17804, 17602, 60702, 17803, 22600, 61502, 18000, 17804, 18000, 12405, 61507, 17804, 17903, 17903, 17903, 60701, 60702, 17804, 20101, 17903, 17602, 60703, 17903, 16200, 60702, 17903, 18000, 12405, 61501, 17804, 60703, 18000, 18000, 17903, 61507, 61508, 60701, 17903, 16802, 61501, 60702, 60701, 16200, 20101, 17801, 61508, 61504, 11700, 17801, 61507, 20101, 61502, 60702, 60701, 60702, 11700, 17803, 17602, 60701, 17602, 17700, 60701, 61501, 18000, 17903, 17602, 17801, 17903, 18000, 17903, 16802, 61501, 20101, 18000, 61503, 17903, 17903, 60702, 17602, 18000, 18000, 60701, 18000, 61503, 17603, 61507, 17602, 16802, 60701, 17700, 61503, 60702, 60703, 17603, 10500, 17804, 61506, 60701, 61507, 61501, 16802, 60701, 60701, 61502, 17700, 20101, 22600, 61501, 60701, 60701, 18000, 60701, 17700, 60702, 17903, 16802, 17700, 61501, 60701, 17603, 17903, 61502, 61508, 61503, 18000, 17903, 60702, 61501, 17804, 17903, 17801, 20101, 17603, 17801, 16802, 18000, 17603, 17603, 22600, 10500, 17801, 18000, 61501, 60702, 60702, 17604, 17903, 17804, 17803, 61501, 17903, 17700, 18000, 17903, 16200, 18000, 60703, 17903, 18000, 17803, 61501, 17804, 17804, 17603, 17603, 60702, 17700, 61501, 61506, 17603, 17804, 17700, 18000, 18000, 17903, 22702, 60703, 17602, 17602, 61507, 17804, 12405, 18000, 18000, 61505, 16802, 11700, 17700, 61507, 61502, 61502, 60701, 18000, 17804, 60701, 18000, 17604, 61506, 17803, 17903, 17700, 61502, 61501, 18000, 18000, 17604, 61503, 18000, 20101, 12405]</t>
-        </is>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.0, 6.378054003083808e-07, 0.9999999773362211, 0.9999999929332032, 6.390409255789365e-08, 6.074259866010184e-08, 1.0, 0.7614829541505057, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999997938074529, 1.0, 0.9999999999662952, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0982005586678513e-07, 0.9999998669906432, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 1.0, 1.5133112607193075e-07, 0.9999999999999998, 1.0, 8.161001610785569e-11, 0.9999999999999999, 1.0, 0.9999999999999999, 1.8252622495570268e-08, 0.9999999999999999, 1.0, 1.0, 0.9999994233313398, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999260860343, 5.385776133856551e-07, 1.0, 0.9999999416418207, 1.0000000000000002, 1.0, 1.0, 1.0, 1.1832163901362472e-07, 1.0, 1.0, 7.107745014907464e-08, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 6.697704803052412e-08, 1.0000000000000002, 0.9999998755897899, 1.0, 0.8229500895727038, 5.4937157517234566e-08, 1.984669652075564e-07, 1.0000000000000002, 5.7098600861710895e-08, 0.999999993223067, 1.0, 0.9999999891838194, 0.9999999999999999, 1.0, 1.0, 5.4728089323607676e-14, 1.0, 5.620000366826424e-08, 1.0, 0.9999999999999998, 0.999999940289829, 1.0000000000000002, 1.0, 1.0, 0.999999998395071, 0.9999999503918644, 2.0276101852727003e-07, 0.8792682326399773, 0.9999999996573593, 1.1397262608752824e-10, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 3.719190659552578e-14, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999602364, 6.533902471944338e-09, 0.9999999999183677, 0.9164512201380531, 0.9999999999999998, 1.0, 1.0, 5.624147390841334e-07, 1.0000000000000004, 7.321706159085502e-09, 1.0000000000000004, 0.9999992376257968, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999946631474, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 0.9999994221778191, 4.213432282092998e-14, 0.9999999999999998, 1.1173539801757706e-07, 0.9999999999999999, 0.9999999999999999, 9.595583595879772e-09, 1.0, 0.9999999999999997, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999997828831403, 1.0000000000000002, 0.9999999999999999, 2.9849513405948523e-07, 0.9999999999999997, 0.9999999361017822, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999938530973, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.2641529225040174e-08, 4.037561042833199e-07, 1.0, 1.0, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999998673051501, 3.406263547751479e-07, 3.814896549375835e-07, 1.0000000000000002, 0.9992245534696945, 0.9999999999999998, 0.9999999671615197, 0.9999999999999998, 0.9999999999999998, 0.9999996887126488, 0.9999999972918766, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999987728356293, 0.9999999999999999, 5.06930944114751e-10, 1.0000000000000002, 1.8602519125901649e-07, 1.0000000000000002, 1.0, 4.562698185241645e-08, 0.9999999999999996, 1.0000000000000002, 1.363086529429758e-07, 0.9999999999999999, 0.9999999660183028, 1.0000000000000002, 3.584981984401767e-07, 9.085918732351757e-09, 0.9999999999999999, 0.9999999999999999, 1.0, 0.999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 0.9999998052602415, 0.9999999999999999, 2.492382359476056e-07, 0.9999999646641514, 2.111029098206375e-08, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.8674479402644253e-07, 5.43294423265438e-08, 1.0, 1.0, 0.9876155889381947, 0.99999997389487, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999999, 0.9999999999999997, 1.0, 0.9999999282521521, 2.8847544283947967e-07, 0.8709204445849603, 1.490240715470912e-07, 1.0000000000000002, 1.0, 1.0000000000000004, 4.9898611480888306e-08, 1.0, 1.0, 0.9999999116234299, 0.9999999999999997, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999870219586, 1.0000000000000002, 2.3792692919979317e-09, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 1.582052915776235e-08, 0.9999999989825947, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000004, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.6284980397386665e-08, 1.3013220356577535e-08, 0.9999999999999998, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999836931961, 1.0, 1.0, 0.9999998087213164, 0.9999999983634765, 1.0, 0.9999999999999998, 1.0, 8.153132348114943e-10, 1.0, 0.9999999999999999, 1.7032096796018344e-07, 0.9999999999999998, 0.9999999953096828, 1.0, 0.9999999999999998, 2.922339980029634e-07, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 6.342615547253896e-08, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999996, 0.999999840475357, 1.0, 1.0000000000018505, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 5.4793832635550976e-08, 1.0, 0.9999999999999999, 1.0, 0.9999999967137151, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999257357051, 1.0000000000000002, 0.9999999999999996, 1.0, 0.9999998738686591, 1.0000000000000002, 1.0, 1.1286528684934616e-07, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999982347547, 3.772667247885005e-07, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 0.9999999754884958, 1.0, 0.9999999999999993, 0.9999999999999998, 1.0, 1.0, 0.9999999822508935, 1.0000000000000002, 0.90992347757221, 5.606937574655236e-07, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 0.9999999555789015, 0.9999995716276756, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999995687638372, 1.0, 1.0, 0.9999998724236284, 0.9999999999999999, 1.0, 1.0, 2.9017651142958938e-09, 6.743712778434319e-10, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 3.2206044788180735e-07, 0.9999999999991795, 0.9999999999999994, 0.9999996060558057, 1.0000000000000002, 1.0, 1.0, 1.0000000000000004, 1.0, 0.99999997107813, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 0.9999998973474983, 1.0, 1.0, 1.0, 1.0000000000000002, 3.825187759452194e-09, 1.0000000000000002, 0.9999999999999997, 1.0, 1.760652862164886e-07, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 3.980976131175485e-14, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 1.126698443190967e-07, 1.0, 0.9999999999999996, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999846131195, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999504, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999988045283]</t>
+          <t>06_041_124200, 06_075_016802, 06_075_017801, 06_075_022702, 06_075_018000, 06_075_010500, 06_075_011700, 06_075_016200, 06_001_428700, 06_075_017700, 06_075_022600, 06_075_012405, 06_075_020101, 06_075_017603, 06_075_017803, 06_075_012503, 06_075_017804, 06_075_017602, 06_075_061503, 06_075_060703, 06_075_061502, 06_075_017903, 06_075_012504, 06_075_060702, 06_075_060701, 06_075_061504, 06_075_061507, 06_075_990200, 06_075_061501, 06_075_061506, 06_075_061505, 06_075_017604, 06_075_020202, 06_075_061508</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>5.60910274738587e-17, 0.29774108567938523, 1.0000000000000004, 6.3944231940780735e-09, 0.9999999999999939, 3.974627211686486e-09, 3.5579405432373345e-08, 0.055215427353061536, 2.3656784119826415e-08, 0.4012396850647824, 0.07440925631117028, 0.24281836650066424, 0.5204123652536593, 1.0, 1.0, 4.801560280441653e-09, 0.9999999999999993, 0.9999999807040596, 1.0, 0.9999999998445662, 0.9999999999999997, 0.4928998246630482, 1.443150602786804e-07, 0.7520559885772353, 0.5920508875334386, 0.9999999999999997, 0.5318038051292602, 4.310311585690832e-08, 0.9999999951576324, 0.9999999999999997, 1.0000000000000002, 0.9999999627599756, 0.03572367067246711, 0.5658483420411731</t>
         </is>
       </c>
     </row>
@@ -13642,18 +11894,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>[25403, 17101, 20300, 21700, 21700, 20300, 16900, 21800, 16900, 30500, 21700, 30500, 21400, 21800, 21500, 20702, 20401, 25502, 21700, 17102, 20601, 16900, 21400, 21400, 17000, 31100, 21800, 30102, 17102, 20401, 30500, 21000, 20601, 21800, 21700, 21400, 20500, 21000, 21400, 31100, 30102, 21300, 25502, 30700, 20401, 20602, 16700, 30102, 20401, 21700, 20401, 21300, 21400, 20500, 20401, 20202, 21300, 20701, 16801, 21600, 21100, 17101, 20402, 21800, 17000, 21400, 25502, 16802, 20601, 21400, 20402, 20702, 20401, 25403, 21700, 20202, 20500, 20300, 20401, 20702, 21700, 20300, 25401, 21500, 21800, 20402, 16601, 17102, 21100, 21100, 30700, 20402, 20401, 30102, 25502, 21800, 16801, 20402, 20500, 20401, 25502, 16802, 21100, 21100, 21100, 17102, 21700, 17102, 16900, 21400, 21800, 21200, 17101, 16602, 17101, 25403, 20101, 21200, 21000, 20300, 16900, 16900, 21500, 21800, 21600, 21700, 21400, 21200, 21600, 21300, 17101, 21800, 25401, 21300, 20401, 21800, 30102, 21400, 21700, 16900, 20201, 20202, 21100, 21400, 21100, 20601, 17000, 17101, 20601, 30500, 20601, 21000, 21800, 21700, 20401, 21200, 20402, 16801, 17102, 21700, 20402, 20602, 20402, 17000, 16900, 17000, 25300, 21100, 21800, 21800, 16700, 21300, 20401, 20602, 21200, 20202, 17000, 20300, 21000, 21500, 21600, 17101, 20602, 20401, 17102, 20500, 21000, 21600, 17000, 21600, 21100, 21200, 20602, 20202, 30102, 21700, 21300, 20402, 25300, 21400, 21800, 20500, 20401, 17101, 30101, 30700, 21500, 17000, 17000, 21500, 20701, 21000, 21400, 30102, 21300, 21400, 20101, 20402, 20300, 17000, 30101, 20401, 20402, 20702, 21600, 21000, 16802, 25401, 21700, 21400, 17102, 21500, 25502, 17000, 17000, 21500, 21600, 16900, 31100, 21500, 17000, 20300, 20601, 20202, 21700, 30101, 17102, 980300, 17000, 20701, 20300, 21700, 21700, 21100, 21100, 20402, 30500, 21800, 21500, 21800, 21600, 20402, 20401, 21800, 20202, 21500, 21400, 21500, 21000, 20601, 17101, 20900, 21000, 25502, 25502, 20401, 25401, 21400, 20500, 21000, 20201, 20701, 20602, 17102, 21400, 21800, 20300, 30102, 21800, 17102, 20500, 20201, 31100, 30102, 21500, 20402, 21800, 20601, 21800, 21800, 21100, 21100, 21400, 21000, 21100, 16700, 21400, 17000, 20702, 16801, 25502, 21400, 21500, 21300, 21400, 30102, 20401, 20500, 20500, 17000, 31100, 21600, 21400, 21700, 21200, 21200, 20401, 25502, 21100, 30102, 25300, 21000, 21700, 20602, 20401, 30700, 21300, 21700, 21100, 30600, 16700, 21500, 20401, 20402, 20500, 20601, 21500, 20500, 16801, 21500, 20402, 21400, 20300, 21100, 21600, 20602, 21400, 21300, 17000, 25502, 17102, 30102, 20401, 20300, 21200, 16900, 21600, 16700, 21500, 20601, 21200, 21200, 16801, 20202, 21500, 20300, 17102, 21800, 21500, 20402, 30102, 21500, 20601, 25401, 17102, 16900, 17000, 17000, 20602, 20401, 17000, 20602, 21600, 21600, 16801, 21200, 21700, 21800, 21400, 21500, 21700, 21300, 17000, 21700, 25300, 20402, 30102, 21800, 21600, 21200, 20201, 20402, 25403, 16801, 20401, 20601, 30102, 17101, 30700, 17000, 21600, 17101, 30500, 20601, 20500, 21800, 20701, 16801, 20300, 21600, 21700, 21600, 30102, 21500, 20202, 20202, 20601, 21600, 25502, 16700, 25502, 20500, 31100, 25502, 16900, 20201, 21100, 21700, 20701, 21200, 21800, 17000, 21400, 21600, 21300, 21500, 21200, 20300, 21200, 20602, 21700, 20201, 30700, 20701, 17000, 21700, 31100, 20401, 20401, 16700, 17102, 17102, 20601, 21000, 21800, 20101, 21100, 20401, 20202, 16601, 21800, 21000, 20601, 16900, 20701, 21400, 21500, 21100, 16700, 16802, 21800, 17000, 20402, 17102, 21300, 21200, 30102, 21200, 20402, 20401, 21600, 21100, 21700, 21700, 21800, 21700, 21600, 21600, 21200, 16900, 20402, 25300, 20602, 21800, 20602, 20401, 21200, 17101, 21500, 20300, 17000, 30700, 21700, 21300, 17102, 17101, 20300, 17000, 20300, 20602, 20202, 21100, 21500, 21800, 16700, 17102, 20602, 25300, 25403, 16802, 21200, 20402, 21100, 30102, 20201, 21700, 21200, 21000, 20602, 17102, 21700, 25502, 21000, 21300, 25502, 16900, 20500, 21100, 20300, 30101, 21000, 21500, 30102, 21100, 31100, 21400, 25502, 21700, 30102, 17000, 30101, 20101, 20300, 21800, 16802, 21500, 20701, 20402, 21100, 17101, 21100, 20402, 16700, 17101, 20401, 21000, 30500, 20401, 25300, 31100, 20900, 21700, 20601, 21600, 16601, 25300, 20300, 17000, 20401, 25300, 21700, 20500, 20300, 25300, 31100, 30500, 25502, 21400, 16900, 21700, 21100, 20702, 30102, 21200, 20300, 21800, 21300, 31100, 20602, 17102, 20500, 21200, 25403, 21500, 21700, 21700, 21400, 21600, 31100, 17101, 20402, 17000, 25401, 31100, 21100, 16802, 21100, 21100, 21400, 16801, 20402, 21100, 21500, 20202, 30102, 21800, 21600, 21100, 20500, 20402, 21300, 21000, 30600, 21000, 30700, 21000, 21800, 30101, 21400, 21500, 21400, 21300, 21600, 20402, 20402, 25502, 16601, 17000, 20401, 20202, 20401, 21500, 20500, 21700, 17101, 16700, 21700, 20202, 21400, 21800, 21300, 21500, 21600, 21500, 20701, 30101, 16801, 20701, 21400, 17101, 21500, 20701, 21800, 31100, 21600, 16700, 21600, 25502]</t>
-        </is>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>[0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 4.1927764046888615e-08, 1.0, 7.816892166594268e-08, 1.0000000000000002, 1.0, 1.0, 0.999999923140208, 1.0, 7.052401929794126e-07, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999998763674176, 1.0000000000000007, 0.9999998339751787, 1.0, 1.0000000000000002, 8.822493603305426e-08, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 8.98757663252369e-08, 1.0, 0.9999999689602408, 1.0000000000000002, 1.0, 0.999999933875629, 6.55693229009119e-08, 1.0, 1.0, 0.9999997967949389, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999994, 0.9999999999999998, 0.9999999999999998, 1.0, 8.609302502493672e-08, 0.9999999999999999, 0.9999999829353944, 0.9999998918349962, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.99999997438582, 3.391017761239847e-08, 0.9999999999999998, 0.9999999999999999, 1.0, 8.987495368914676e-10, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 0.99999987921061, 1.0, 0.9999999999999999, 0.9999999999999996, 7.07746846791532e-08, 0.9999999999999989, 1.0, 5.2703883038457704e-08, 1.0, 1.0, 1.0, 8.673248526544081e-08, 0.9999999999999998, 1.0, 1.0, 1.5350372069226485e-07, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000004, 1.0000000000000002, 1.9727487825526673e-08, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.999999888910309, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.2936549663026342e-07, 1.0476253267941032e-07, 0.9999998719920693, 6.435677408713131e-08, 6.891733947779701e-15, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999980916, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999992953893649, 1.0, 1.5618911920493086e-07, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 3.041101867744267e-08, 1.0, 3.2854268016184067e-09, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.408688468304078e-07, 0.9999999526186935, 0.9999999999999993, 0.9999999999999999, 1.0000000000000002, 0.9999998872788406, 1.0000000000000002, 1.0000000000000002, 0.9999999999999993, 8.596150645504236e-08, 1.0, 1.0, 1.0000000000000002, 0.999999985978335, 1.0, 1.0, 1.0, 0.9999999999999999, 1.5038003925110933e-07, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999998488133299, 0.9999999752625657, 0.9999999999999998, 0.9999999999999998, 1.0000000000000007, 0.9999985965238865, 1.0, 0.9999999999999997, 0.9999999999999999, 1.0, 1.0, 6.885785721555533e-08, 7.871923514580352e-08, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 4.166269516482172e-09, 0.9999998191924745, 1.0, 1.0000000000000004, 1.0000000000000002, 0.9999999999999998, 6.8542211130525e-09, 1.0000000000000002, 1.0, 1.0000000000000002, 0.999999916374827, 1.0, 0.9999999999999999, 1.0, 1.0, 1.4369306685141702e-07, 1.0000000000000002, 1.0060541286340835e-07, 0.9999989011728128, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0399048835699891e-07, 1.0000000000000004, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999297140162, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0000000000000007, 4.8605581822706274e-08, 0.9999999118269012, 3.975673835644896e-08, 0.9999999999999999, 0.9999996073873538, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 3.62953214620752e-08, 1.0, 1.0, 1.0, 1.0000000000000007, 1.0000000000000004, 0.9999999999999998, 1.0, 0.9999996185098009, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 0.9999999989400744, 7.830032088689629e-08, 0.9999996636360113, 0.9999997690644913, 0.9999999731915322, 0.9999999999999998, 0.9999998049247858, 1.0, 1.0, 0.9999998882934844, 1.0000000000000002, 0.9999999489003722, 1.0, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 6.288924582735148e-08, 1.0, 0.9999997795911734, 1.0000000000000002, 4.0523277375142626e-07, 9.039434298805972e-09, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999809356992, 0.9999999999999998, 0.9999998718857531, 1.0, 0.9999999999999998, 0.9999998869776554, 8.428346874634245e-08, 1.0000000000000004, 1.0, 0.9999999999999998, 0.9999999999999997, 0.9999999999999999, 0.9999997493511508, 1.0000000000000004, 1.0000000000000002, 1.0, 1.0, 5.3290583996587487e-08, 0.9999999999999998, 0.9999999999999999, 0.9999991908413083, 1.0, 1.0, 1.0, 7.119119828361564e-07, 0.9999999999999999, 0.9999999999999997, 3.227424401864104e-08, 0.9999999999999999, 0.9999999976239935, 1.0000000000000002, 1.0000000000000002, 0.9999998091527404, 1.0000000000000002, 0.9999992542390036, 1.0, 9.491603868563215e-08, 0.9999999645003074, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999998981120254, 1.0000000000000002, 0.9999999287006969, 0.9999999999999998, 0.9999998556090378, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 1.0, 1.676735417058279e-07, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.5024607016157574e-14, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 7.174700774101703e-08, 1.0, 1.0, 0.9999999999999999, 0.9999999999999996, 0.9999999999999999, 0.9999999999999998, 0.9999998857595566, 0.9999999999999998, 1.0000000000000002, 0.9999998452726215, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 0.9999999999999996, 0.999999913485365, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999996, 0.9999999999999999, 1.0, 1.0, 2.45475977293141e-07, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.8910411431980678e-07, 1.0, 0.999999915720199, 1.4423267718509505e-07, 1.0000000000000002, 0.9999999999999999, 1.0000000000000182, 0.9999999131490087, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.5005403188647875e-07, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999432598414, 2.996944665697481e-07, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999999999996, 0.9999999565848888, 9.562943949129105e-08, 2.142269178342684e-08, 1.0000000000000002, 1.0000000000000009, 1.0, 5.843331019903761e-10, 1.0, 1.0000000000000002, 1.3989105100391143e-08, 1.0000000000000007, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 1.0, 0.9999999999999999, 0.9999999999999997, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.999999997983776, 1.429811864178644e-07, 7.392887750813282e-08, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 6.113291234263856e-08, 1.0000000000000002, 0.9999997166059288, 1.0, 0.9999999694460346, 1.0000000000000002, 1.5283332764486676e-14, 1.0000000000000002, 1.0, 2.1843972033249924e-07, 3.645772691664813e-07, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 2.0006829682275735e-08, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999065869166, 7.42638129654191e-08, 1.0000000000000002, 1.0, 1.0000000000000007, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999999999996, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 0.9999989291840156, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9999997754115256, 1.0000000000000002, 1.0, 0.999999905742911, 0.9999999178594456, 0.9999999999999997, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.073815780576949e-07, 0.9999997740772905, 0.9999994393099813, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 2.3029842776920478e-07, 0.9999999999999997, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 4.0032955822589873e-07, 1.0000000000000002, 1.0, 0.9999999999999997, 0.9999999999999999, 1.0, 0.9999999999999996, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 5.251576917722762e-08, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999990631089, 0.9999999999999998, 0.9999998846653063, 1.0000000000000002, 0.9999998964915855, 3.175364283994326e-07, 0.9999999999999998, 1.0, 1.2581689549388134e-08, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999997, 0.9999999999999999, 0.9999995564329699, 1.0, 1.0000000000000002, 4.091489966996581e-08, 1.0000000000000002, 0.9999992117150658, 0.9999996543435545, 9.841919626615885e-08, 1.0, 1.0, 0.9999999999999999, 7.847852332569169e-08, 2.6611157916967855e-08, 1.0, 1.0, 0.9999999999999998, 4.4536918384998534e-08, 0.9999999999999997, 1.0, 1.0, 0.9999990295009972, 1.0, 1.7071017340455216e-07, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999986359644, 0.9999998528744921, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 4.5692176820211774e-08, 1.0, 1.0, 1.0000000000000002, 1.0, 1.7369845121125742e-07, 0.9999999999999999, 0.9999988222374312, 1.0000000000000002, 1.0, 1.0000000000000002, 6.01456524520254e-08, 9.58731077449107e-08, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.9999999816780818, 0.9999999999999998, 3.8401446852980625e-08, 1.0, 1.0, 0.9999999999999998, 0.9999998433595109, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999660500049, 1.2160220552737828e-09, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 5.5928426133559394e-08, 1.0000000000000002, 0.9999999825512101, 3.0498590821828067e-07, 1.0000000000000002, 0.9999999744611887, 1.0, 0.9999999999999999, 1.0, 1.0, 1.000000000000001, 0.9999999999999999, 1.0000000000000004, 0.9999999698434167, 2.583486805097943e-07, 1.0000000000000002, 0.9999999291628066, 1.0, 1.0000000000000002, 1.0000000000000004, 1.0, 0.9999999999999999, 0.9999999999999992, 4.800216475991692e-08, 1.0, 0.9999999655965552, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9999999999999993, 0.9999999999999999, 2.9702376557289566e-08, 1.6420830116961966e-07, 0.9999996602861627, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999998857215978, 1.0, 1.0253537440182202e-07, 1.0, 6.565566720629862e-07]</t>
+          <t>06_075_017102, 06_075_016801, 06_075_016802, 06_075_017101, 06_075_980300, 06_075_025403, 06_075_025300, 06_075_020500, 06_075_025401, 06_075_016700, 06_075_020402, 06_075_031100, 06_075_020300, 06_075_020900, 06_075_021000, 06_075_021100, 06_075_021200, 06_075_021300, 06_075_021400, 06_075_021500, 06_075_021600, 06_075_021700, 06_075_021800, 06_075_020602, 06_075_016900, 06_075_017000, 06_075_020401, 06_075_030101, 06_075_030102, 06_075_030500, 06_075_030600, 06_075_030700, 06_075_020101, 06_075_016602, 06_075_016601, 06_075_020702, 06_075_025502, 06_075_020701, 06_075_020202, 06_075_020601, 06_075_020201</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>0.9999999613217856, 0.3889451651638642, 0.1296132314514425, 0.8049242454119978, 1.0855822496783398e-09, 0.10127338279258809, 0.02139387355785361, 0.9999999999999999, 0.12109304446521692, 0.5384942482028349, 0.999999959251646, 0.10016730295468634, 0.9999999999999997, 4.9071712670249856e-09, 0.7810812428260658, 0.9999999999999999, 1.0000000000000002, 1.0000000000000004, 0.9999999999999997, 0.9999999951231366, 1.0000000000000007, 0.9999999883488183, 1.0000000000000002, 0.9999999999999996, 1.0000000000000002, 1.0, 0.9999999948248055, 0.24400698359191395, 0.2154010765572063, 1.757609074745589e-08, 2.8536994187391266e-09, 0.04133637042024577, 1.4527350812545293e-09, 1.179832281854025e-08, 3.914800165766859e-08, 0.48557675444651166, 0.23890140929613637, 0.4964476060508153, 0.6051248595472776, 1.0000000000000007, 0.5075834828373995</t>
         </is>
       </c>
     </row>
@@ -13696,18 +11942,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>[432800, 433700, 433200, 433000, 433102, 433600, 433104, 433801, 433802, 432700, 433103]</t>
-        </is>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>[6.159201370597147e-05, 0.0035482507016996586, 0.16750813740997203, 0.9755085499063275, 0.9841408420141058, 4.134602672609955e-05, 0.11472506429058199, 0.005307951930600092, 0.1038241727792592, 0.006111591857263106, 0.9867076599378362]</t>
+          <t>06_001_432800, 06_001_433700, 06_001_433200, 06_001_433000, 06_001_433102, 06_001_433600, 06_001_433104, 06_001_433801, 06_001_433802, 06_001_432700, 06_001_433103</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>6.159201370597147e-05, 0.0035482507016996586, 0.16750813740997203, 0.9755085499063275, 0.9841408420141058, 4.134602672609955e-05, 0.11472506429058199, 0.005307951930600092, 0.1038241727792592, 0.006111591857263106, 0.9867076599378362</t>
         </is>
       </c>
     </row>
@@ -13750,18 +11990,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>[433700, 433200, 433300, 433400, 433500, 435800, 435900, 433600]</t>
-        </is>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>[2.0293740325646934e-05, 0.0017291521440315322, 0.10133786990793338, 0.390755362959512, 0.9983138784060183, 0.005595431490497871, 0.0011247217041280234, 0.9946359789295568]</t>
+          <t>06_001_433700, 06_001_433200, 06_001_433300, 06_001_433400, 06_001_433500, 06_001_435800, 06_001_435900, 06_001_433600</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2.0293740325646934e-05, 0.0017291521440315322, 0.10133786990793338, 0.390755362959512, 0.9983138784060183, 0.005595431490497871, 0.0011247217041280234, 0.9946359789295568</t>
         </is>
       </c>
     </row>
@@ -13800,8 +12034,6 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -13838,8 +12070,6 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13876,8 +12106,6 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -13916,8 +12144,6 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -13956,8 +12182,6 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -13991,11 +12215,13 @@
       <c r="G275" t="n">
         <v>2022</v>
       </c>
-      <c r="H275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14029,11 +12255,13 @@
       <c r="G276" t="n">
         <v>2022</v>
       </c>
-      <c r="H276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14067,11 +12295,13 @@
       <c r="G277" t="n">
         <v>2022</v>
       </c>
-      <c r="H277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14105,11 +12335,13 @@
       <c r="G278" t="n">
         <v>2022</v>
       </c>
-      <c r="H278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14146,18 +12378,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>maine_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>['23_003_952900', '23_003_950900', '23_003_952100', '23_003_952300', '23_003_951200', '23_003_951300', '23_003_951400', '23_003_951100', '23_003_950100', '23_003_952700', '23_003_950700', '23_003_951700', '23_003_950600', '23_003_950400', '23_003_950200', '23_003_952600', '23_003_952400', '23_003_952500', '23_003_951600', '23_003_950300', '23_003_951000', '23_003_951800', '23_003_951900', '23_003_952000', '23_029_956300', '23_029_956400', '23_029_955300', '23_029_955400', '23_029_955900', '23_029_955500', '23_029_956500', '23_029_955100', '23_029_955800', '23_029_956100', '23_029_955700', '23_029_956200', '23_029_955600', '23_029_990000', '23_009_965100', '23_009_965900', '23_009_966300', '23_009_966500', '23_009_965300', '23_009_966400', '23_009_966100', '23_009_965200', '23_009_966600', '23_019_021500', '23_019_000200', '23_019_000300', '23_019_000400', '23_019_000500', '23_019_000600', '23_019_000700', '23_019_000900', '23_019_020500', '23_019_008001', '23_019_004100', '23_019_004200', '23_019_004300', '23_019_027000', '23_019_011000', '23_019_025500', '23_019_026500', '23_019_009000', '23_019_014000', '23_019_015000', '23_019_012500', '23_019_031000', '23_019_028000', '23_019_013500', '23_019_015500', '23_019_022500', '23_019_002000', '23_019_010000', '23_019_012000', '23_019_028500', '23_019_024500', '23_019_018000', '23_019_029000', '23_019_030000', '23_019_013000', '23_019_007100', '23_019_007200', '23_019_006200', '23_019_006100', '23_019_006300', '23_019_003000', '23_019_005000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965800', '23_009_966000', '23_009_965504', '23_009_965503', '23_009_990000', '23_009_966700', '23_027_046001', '23_027_046002', '23_027_041000', '23_027_044000', '23_027_047000', '23_027_045000', '23_027_043000', '23_027_042000', '23_031_022500', '23_007_970601', '23_007_970101', '23_007_970602', '23_007_970102', '23_007_971200', '23_007_971400', '23_007_971300', '23_007_971000', '23_007_971100', '23_025_965301', '23_025_965302', '23_025_966700', '23_025_966600', '23_025_966000', '23_025_966900', '23_025_967000', '23_025_966500', '23_025_965900', '23_025_966800', '23_025_965800', '23_025_966300', '23_025_966100', '23_025_965700', '23_025_966200', '23_025_965600', '23_025_966400', '23_017_966100', '23_017_966900', '23_017_966200', '23_017_966300', '23_017_966500', '23_017_965600', '23_017_966400', '23_017_965800', '23_017_965900', '23_017_966600', '23_017_965500', '23_017_966800', '23_017_966000', '23_017_965700', '23_017_965100', '23_017_966700', '23_017_965400', '23_011_018000', '23_011_017000', '23_011_025000', '23_011_015500', '23_011_013000', '23_011_014000', '23_011_012000', '23_011_011000', '23_011_015000', '23_011_014500', '23_011_010900', '23_011_021000', '23_011_020000', '23_011_010600', '23_011_022000', '23_011_016000', '23_011_023002', '23_011_010801', '23_011_020500', '23_023_970301', '23_023_970100', '23_023_970200', '23_021_960302', '23_021_960301', '23_021_960600', '23_021_960700', '23_021_960900', '23_021_960400', '23_021_960800', '23_021_960500', '23_013_970300', '23_001_042000', '23_001_043000', '23_001_020500', '23_001_040000', '23_001_044000', '23_001_041500', '23_001_020800', '23_001_020700', '23_001_041000', '23_001_020300', '23_001_020400', '23_001_046000', '23_001_020600', '23_001_045000', '23_001_030100', '23_001_020200', '23_001_020900', '23_001_010800', '23_001_010100', '23_001_010400', '23_001_010200', '23_001_010700', '23_001_010500', '23_001_030200', '23_001_010600', '23_001_010300', '23_001_046500', '23_001_020100', '23_005_011500', '23_005_014000', '23_005_013000', '23_005_016500', '23_005_016000', '23_005_015000', '23_011_010802', '23_011_024200']</t>
-        </is>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>[0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334]</t>
+          <t>23_003_952900, 23_003_950900, 23_003_952100, 23_003_952300, 23_003_951200, 23_003_951300, 23_003_951400, 23_003_951100, 23_003_950100, 23_003_952700, 23_003_950700, 23_003_951700, 23_003_950600, 23_003_950400, 23_003_950200, 23_003_952600, 23_003_952400, 23_003_952500, 23_003_951600, 23_003_950300, 23_003_951000, 23_003_951800, 23_003_951900, 23_003_952000, 23_029_956300, 23_029_956400, 23_029_955300, 23_029_955400, 23_029_955900, 23_029_955500, 23_029_956500, 23_029_955100, 23_029_955800, 23_029_956100, 23_029_955700, 23_029_956200, 23_029_955600, 23_029_990000, 23_009_965100, 23_009_965900, 23_009_966300, 23_009_966500, 23_009_965300, 23_009_966400, 23_009_966100, 23_009_965200, 23_009_966600, 23_019_021500, 23_019_000200, 23_019_000300, 23_019_000400, 23_019_000500, 23_019_000600, 23_019_000700, 23_019_000900, 23_019_020500, 23_019_008001, 23_019_004100, 23_019_004200, 23_019_004300, 23_019_027000, 23_019_011000, 23_019_025500, 23_019_026500, 23_019_009000, 23_019_014000, 23_019_015000, 23_019_012500, 23_019_031000, 23_019_028000, 23_019_013500, 23_019_015500, 23_019_022500, 23_019_002000, 23_019_010000, 23_019_012000, 23_019_028500, 23_019_024500, 23_019_018000, 23_019_029000, 23_019_030000, 23_019_013000, 23_019_007100, 23_019_007200, 23_019_006200, 23_019_006100, 23_019_006300, 23_019_003000, 23_019_005000, 23_019_940000, 23_019_031300, 23_019_031100, 23_019_031200, 23_009_965700, 23_009_965400, 23_009_966200, 23_009_965800, 23_009_966000, 23_009_965504, 23_009_965503, 23_009_990000, 23_009_966700, 23_027_046001, 23_027_046002, 23_027_041000, 23_027_044000, 23_027_047000, 23_027_045000, 23_027_043000, 23_027_042000, 23_031_022500, 23_007_970601, 23_007_970101, 23_007_970602, 23_007_970102, 23_007_971200, 23_007_971400, 23_007_971300, 23_007_971000, 23_007_971100, 23_025_965301, 23_025_965302, 23_025_966700, 23_025_966600, 23_025_966000, 23_025_966900, 23_025_967000, 23_025_966500, 23_025_965900, 23_025_966800, 23_025_965800, 23_025_966300, 23_025_966100, 23_025_965700, 23_025_966200, 23_025_965600, 23_025_966400, 23_017_966100, 23_017_966900, 23_017_966200, 23_017_966300, 23_017_966500, 23_017_965600, 23_017_966400, 23_017_965800, 23_017_965900, 23_017_966600, 23_017_965500, 23_017_966800, 23_017_966000, 23_017_965700, 23_017_965100, 23_017_966700, 23_017_965400, 23_011_018000, 23_011_017000, 23_011_025000, 23_011_015500, 23_011_013000, 23_011_014000, 23_011_012000, 23_011_011000, 23_011_015000, 23_011_014500, 23_011_010900, 23_011_021000, 23_011_020000, 23_011_010600, 23_011_022000, 23_011_016000, 23_011_023002, 23_011_010801, 23_011_020500, 23_023_970301, 23_023_970100, 23_023_970200, 23_021_960302, 23_021_960301, 23_021_960600, 23_021_960700, 23_021_960900, 23_021_960400, 23_021_960800, 23_021_960500, 23_013_970300, 23_001_042000, 23_001_043000, 23_001_020500, 23_001_040000, 23_001_044000, 23_001_041500, 23_001_020800, 23_001_020700, 23_001_041000, 23_001_020300, 23_001_020400, 23_001_046000, 23_001_020600, 23_001_045000, 23_001_030100, 23_001_020200, 23_001_020900, 23_001_010800, 23_001_010100, 23_001_010400, 23_001_010200, 23_001_010700, 23_001_010500, 23_001_030200, 23_001_010600, 23_001_010300, 23_001_046500, 23_001_020100, 23_005_011500, 23_005_014000, 23_005_013000, 23_005_016500, 23_005_016000, 23_005_015000, 23_011_010802, 23_011_024200</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334</t>
         </is>
       </c>
     </row>
@@ -14196,18 +12422,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>['23_019_003000', '23_019_004100', '23_019_004300', '23_019_005000', '23_019_006100', '23_019_006300', '23_019_011000', '23_019_012000', '23_027_043000', '23_019_013000', '23_019_018000', '23_019_009000', '23_019_020500', '23_019_002000', '23_019_008001', '23_019_013500', '23_019_022500', '23_019_029000', '23_021_960800', '23_021_960700', '23_021_960600', '23_021_960400', '23_021_960500', '23_021_960900', '23_017_966800', '23_017_966600', '23_017_965800', '23_017_966900', '23_017_965100', '23_017_965600', '23_017_966100', '23_017_966300', '23_017_965500', '23_017_966700', '23_017_965400', '23_017_965700', '23_017_966402', '23_017_966002', '23_017_966401', '23_017_966001', '23_023_970200', '23_017_966500', '23_011_011000', '23_019_024500', '23_019_031000', '23_019_000400', '23_019_000500', '23_019_000600', '23_011_020500', '23_011_022000', '23_009_965300', '23_009_965100', '23_009_965800', '23_009_966300', '23_009_966400', '23_009_966600', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965900', '23_017_965900', '23_017_966200', '23_009_966100', '23_001_040000', '23_001_046000', '23_001_046500', '23_029_990000', '23_001_010100', '23_001_010300', '23_001_010400', '23_013_970302', '23_013_970301', '23_001_010500', '23_001_020100', '23_001_020200', '23_001_020500', '23_001_020600', '23_001_020900', '23_001_045000', '23_001_041000', '23_001_043000', '23_001_041500', '23_001_030200', '23_001_010600', '23_001_042000', '23_001_030100', '23_001_020700', '23_001_010700', '23_001_010200', '23_001_010800', '23_007_970101', '23_007_970601', '23_023_970301', '23_023_970100', '23_031_022500', '23_011_014500', '23_011_018000', '23_019_028500', '23_019_028000', '23_019_000300', '23_011_010900', '23_019_027000', '23_019_015500', '23_019_006200', '23_019_000700', '23_019_015000', '23_019_014000', '23_019_012500', '23_019_007100', '23_019_004200', '23_019_026500', '23_019_000900', '23_019_007200', '23_019_030000', '23_019_021500', '23_019_025500', '23_019_010000', '23_019_000200', '23_009_965504', '23_009_965503', '23_009_966700', '23_009_966000', '23_009_966500', '23_029_956200', '23_029_956400', '23_029_955400', '23_029_955900', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966100', '23_007_970102', '23_025_965700', '23_025_966702', '23_025_966601', '23_025_966602', '23_025_966701', '23_025_966802', '23_025_966801', '23_025_966900', '23_007_971202', '23_007_971201', '23_001_020303', '23_001_020301', '23_001_020802', '23_001_020801', '23_001_020402', '23_001_020302', '23_001_020401', '23_011_015000', '23_003_952700', '23_003_952600', '23_003_952900', '23_003_952300', '23_003_950400', '23_003_951400', '23_003_950700', '23_003_950600', '23_003_950100', '23_003_951800', '23_003_952000', '23_003_951900', '23_003_951200', '23_003_950300', '23_007_970602', '23_003_950900', '23_003_951000', '23_003_951100', '23_025_965900', '23_025_965600', '23_025_966200', '23_025_966000', '23_025_967000', '23_003_951600', '23_003_951700', '23_011_013000', '23_011_021000', '23_011_016000', '23_011_012000', '23_011_017000', '23_011_010801', '23_011_020000', '23_011_015500', '23_003_952400', '23_003_952500', '23_003_950200', '23_003_951300', '23_003_952100', '23_005_016001', '23_005_014001', '23_005_013001', '23_025_966400', '23_009_965200', '23_025_965800', '23_025_966500', '23_029_955100', '23_029_955500', '23_029_955800', '23_029_956100', '23_029_956500', '23_029_955700', '23_029_955600', '23_029_956300', '23_029_955300', '23_001_044000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_025_966300', '23_011_023002', '23_011_014002', '23_011_014001', '23_011_010601', '23_011_025001', '23_011_025002', '23_011_010804', '23_011_010803', '23_011_024202', '23_011_010602', '23_007_971000', '23_007_971300', '23_007_971100', '23_007_971400', '23_027_046002', '23_027_046001', '23_021_960301', '23_021_960302', '23_005_011500', '23_005_015000', '23_005_016500', '23_025_965302', '23_025_965301', '23_009_990000']</t>
-        </is>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>[0.9663043363306808, 0.7505667873082772, 0.9713212000512369, 0.9742808081011962, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.8966338060296479, 1.0000000000000002, 0.999999999999999, 0.9997928462628966, 1.0, 0.9814662501737864, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999863514315134, 0.9999473617774237, 0.9999999999999998, 0.9998674278533124, 0.9999551397770621, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999698062837823, 1.0000000000000049, 1.0, 0.9999999999999998, 0.9999933789351425, 0.9999015192595667, 0.9999999999999999, 7.793106370309182e-06, 0.9999874507966937, 0.9580126270432264, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 0.9999494775436094, 0.9998776979433256, 0.9537854673767906, 0.9999982455153932, 0.5466976552833144, 0.748651282128489, 0.7369470014825773, 0.24339072976529533, 0.8193807408788655, 0.933571216986734, 0.25436743245608184, 0.6874527023686692, 1.0000000000000004, 0.9999999999999984, 0.4403379262053426, 0.9998462973420816, 0.9999999999999998, 0.9999844466768819, 0.0003536797635059751, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.8239883676988308e-06, 1.6030596955131596e-06, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9998916885317355, 1.0000000000000018, 0.9999999999999977, 0.9997837462718513, 0.9999252432249954, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999422232978118, 0.9999999999999989, 1.0000000000000027, 1.0000000000000007, 1.0000000000000013, 3.197435675244247e-05, 1.4078938663692692e-06, 3.554523700937084e-06, 0.9999702038389309, 1.936421954469073e-06, 0.9999999999999978, 1.0000000000000013, 0.9362797956720695, 0.9862897210637414, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 0.9867195826263704, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.940391273598292, 0.9998860167270581, 0.9517669875262196, 0.7190546782663371, 0.7118296092781069, 0.6315290956512366, 0.9832293067374841, 0.6775838956437111, 0.9999902371417246, 0.9788752497224295, 0.9999595823388986, 0.9595587896946338, 0.7781288816718219, 0.527709586844627, 1.0, 0.9999999999999978, 0.999897367332977, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999999, 0.999976395973493, 0.9999046272921395, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.9856235302128006e-05, 1.0000000000000002, 1.0000000000000004, 0.9999792007719922, 0.99998595592735, 0.9999929032211285, 1.0, 0.9999842042505085, 0.9996092531062535, 0.9999582326413597, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 1.0000000000000004, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999998, 1.0000000000000007, 0.9999072073638232, 0.9995403495636942, 0.9999976012707188, 0.9999999999999986, 0.9999720663580904, 0.9998818278881358, 0.9998772783086501, 5.108519163014025e-05, 3.550275317742141e-05, 0.9999605103140785, 0.9996334613211372, 1.0, 0.9999990057691701, 1.000000000000001, 0.9999903972711457, 0.00010289574513866717, 1.1319258523951266e-05, 2.1497909970001796e-06, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999945128918512, 0.9112695117019104, 0.6458237214734136, 0.6697330400382036, 0.7707977349942895, 0.29523149278700483, 0.8036013508437112, 0.6141182314145707, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 1.7729043780334337e-05, 0.00015042456329505187, 7.238443916308097e-05, 0.058863853428445856, 0.9999927961619122, 0.9929985459246862, 0.9999046345578845, 0.00030500504881935807, 0.0001792602069238537, 6.626736435495618e-05, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999986, 0.9999442078354388, 0.9999999999999981, 1.0000000000000067, 2.028212656568091e-06, 5.51583658899966e-05, 2.6188035576468984e-05, 0.9999546091306126, 1.0000000000000004, 3.682874222910186e-05]</t>
+          <t>23_019_003000, 23_019_004100, 23_019_004300, 23_019_005000, 23_019_006100, 23_019_006300, 23_019_011000, 23_019_012000, 23_027_043000, 23_019_013000, 23_019_018000, 23_019_009000, 23_019_020500, 23_019_002000, 23_019_008001, 23_019_013500, 23_019_022500, 23_019_029000, 23_021_960800, 23_021_960700, 23_021_960600, 23_021_960400, 23_021_960500, 23_021_960900, 23_017_966800, 23_017_966600, 23_017_965800, 23_017_966900, 23_017_965100, 23_017_965600, 23_017_966100, 23_017_966300, 23_017_965500, 23_017_966700, 23_017_965400, 23_017_965700, 23_017_966402, 23_017_966002, 23_017_966401, 23_017_966001, 23_023_970200, 23_017_966500, 23_011_011000, 23_019_024500, 23_019_031000, 23_019_000400, 23_019_000500, 23_019_000600, 23_011_020500, 23_011_022000, 23_009_965300, 23_009_965100, 23_009_965800, 23_009_966300, 23_009_966400, 23_009_966600, 23_009_965700, 23_009_965400, 23_009_966200, 23_009_965900, 23_017_965900, 23_017_966200, 23_009_966100, 23_001_040000, 23_001_046000, 23_001_046500, 23_029_990000, 23_001_010100, 23_001_010300, 23_001_010400, 23_013_970302, 23_013_970301, 23_001_010500, 23_001_020100, 23_001_020200, 23_001_020500, 23_001_020600, 23_001_020900, 23_001_045000, 23_001_041000, 23_001_043000, 23_001_041500, 23_001_030200, 23_001_010600, 23_001_042000, 23_001_030100, 23_001_020700, 23_001_010700, 23_001_010200, 23_001_010800, 23_007_970101, 23_007_970601, 23_023_970301, 23_023_970100, 23_031_022500, 23_011_014500, 23_011_018000, 23_019_028500, 23_019_028000, 23_019_000300, 23_011_010900, 23_019_027000, 23_019_015500, 23_019_006200, 23_019_000700, 23_019_015000, 23_019_014000, 23_019_012500, 23_019_007100, 23_019_004200, 23_019_026500, 23_019_000900, 23_019_007200, 23_019_030000, 23_019_021500, 23_019_025500, 23_019_010000, 23_019_000200, 23_009_965504, 23_009_965503, 23_009_966700, 23_009_966000, 23_009_966500, 23_029_956200, 23_029_956400, 23_029_955400, 23_029_955900, 23_027_045000, 23_027_041000, 23_027_042000, 23_027_044000, 23_027_047000, 23_025_966100, 23_007_970102, 23_025_965700, 23_025_966702, 23_025_966601, 23_025_966602, 23_025_966701, 23_025_966802, 23_025_966801, 23_025_966900, 23_007_971202, 23_007_971201, 23_001_020303, 23_001_020301, 23_001_020802, 23_001_020801, 23_001_020402, 23_001_020302, 23_001_020401, 23_011_015000, 23_003_952700, 23_003_952600, 23_003_952900, 23_003_952300, 23_003_950400, 23_003_951400, 23_003_950700, 23_003_950600, 23_003_950100, 23_003_951800, 23_003_952000, 23_003_951900, 23_003_951200, 23_003_950300, 23_007_970602, 23_003_950900, 23_003_951000, 23_003_951100, 23_025_965900, 23_025_965600, 23_025_966200, 23_025_966000, 23_025_967000, 23_003_951600, 23_003_951700, 23_011_013000, 23_011_021000, 23_011_016000, 23_011_012000, 23_011_017000, 23_011_010801, 23_011_020000, 23_011_015500, 23_003_952400, 23_003_952500, 23_003_950200, 23_003_951300, 23_003_952100, 23_005_016001, 23_005_014001, 23_005_013001, 23_025_966400, 23_009_965200, 23_025_965800, 23_025_966500, 23_029_955100, 23_029_955500, 23_029_955800, 23_029_956100, 23_029_956500, 23_029_955700, 23_029_955600, 23_029_956300, 23_029_955300, 23_001_044000, 23_019_940000, 23_019_031300, 23_019_031100, 23_019_031200, 23_025_966300, 23_011_023002, 23_011_014002, 23_011_014001, 23_011_010601, 23_011_025001, 23_011_025002, 23_011_010804, 23_011_010803, 23_011_024202, 23_011_010602, 23_007_971000, 23_007_971300, 23_007_971100, 23_007_971400, 23_027_046002, 23_027_046001, 23_021_960301, 23_021_960302, 23_005_011500, 23_005_015000, 23_005_016500, 23_025_965302, 23_025_965301, 23_009_990000</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>0.9663043363306808, 0.7505667873082772, 0.9713212000512369, 0.9742808081011962, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.8966338060296479, 1.0000000000000002, 0.999999999999999, 0.9997928462628966, 1.0, 0.9814662501737864, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999863514315134, 0.9999473617774237, 0.9999999999999998, 0.9998674278533124, 0.9999551397770621, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999698062837823, 1.0000000000000049, 1.0, 0.9999999999999998, 0.9999933789351425, 0.9999015192595667, 0.9999999999999999, 7.793106370309182e-06, 0.9999874507966937, 0.9580126270432264, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 0.9999494775436094, 0.9998776979433256, 0.9537854673767906, 0.9999982455153932, 0.5466976552833144, 0.748651282128489, 0.7369470014825773, 0.24339072976529533, 0.8193807408788655, 0.933571216986734, 0.25436743245608184, 0.6874527023686692, 1.0000000000000004, 0.9999999999999984, 0.4403379262053426, 0.9998462973420816, 0.9999999999999998, 0.9999844466768819, 0.0003536797635059751, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.8239883676988308e-06, 1.6030596955131596e-06, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9998916885317355, 1.0000000000000018, 0.9999999999999977, 0.9997837462718513, 0.9999252432249954, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999422232978118, 0.9999999999999989, 1.0000000000000027, 1.0000000000000007, 1.0000000000000013, 3.197435675244247e-05, 1.4078938663692692e-06, 3.554523700937084e-06, 0.9999702038389309, 1.936421954469073e-06, 0.9999999999999978, 1.0000000000000013, 0.9362797956720695, 0.9862897210637414, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 0.9867195826263704, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.940391273598292, 0.9998860167270581, 0.9517669875262196, 0.7190546782663371, 0.7118296092781069, 0.6315290956512366, 0.9832293067374841, 0.6775838956437111, 0.9999902371417246, 0.9788752497224295, 0.9999595823388986, 0.9595587896946338, 0.7781288816718219, 0.527709586844627, 1.0, 0.9999999999999978, 0.999897367332977, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999999, 0.999976395973493, 0.9999046272921395, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.9856235302128006e-05, 1.0000000000000002, 1.0000000000000004, 0.9999792007719922, 0.99998595592735, 0.9999929032211285, 1.0, 0.9999842042505085, 0.9996092531062535, 0.9999582326413597, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 1.0000000000000004, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999998, 1.0000000000000007, 0.9999072073638232, 0.9995403495636942, 0.9999976012707188, 0.9999999999999986, 0.9999720663580904, 0.9998818278881358, 0.9998772783086501, 5.108519163014025e-05, 3.550275317742141e-05, 0.9999605103140785, 0.9996334613211372, 1.0, 0.9999990057691701, 1.000000000000001, 0.9999903972711457, 0.00010289574513866717, 1.1319258523951266e-05, 2.1497909970001796e-06, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999945128918512, 0.9112695117019104, 0.6458237214734136, 0.6697330400382036, 0.7707977349942895, 0.29523149278700483, 0.8036013508437112, 0.6141182314145707, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 1.7729043780334337e-05, 0.00015042456329505187, 7.238443916308097e-05, 0.058863853428445856, 0.9999927961619122, 0.9929985459246862, 0.9999046345578845, 0.00030500504881935807, 0.0001792602069238537, 6.626736435495618e-05, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999986, 0.9999442078354388, 0.9999999999999981, 1.0000000000000067, 2.028212656568091e-06, 5.51583658899966e-05, 2.6188035576468984e-05, 0.9999546091306126, 1.0000000000000004, 3.682874222910186e-05</t>
         </is>
       </c>
     </row>
@@ -14246,18 +12466,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>maine_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>['23_003_952900', '23_003_950900', '23_003_952100', '23_003_952300', '23_003_951200', '23_003_951300', '23_003_951400', '23_003_951100', '23_003_950100', '23_003_952700', '23_003_950700', '23_003_951700', '23_003_950600', '23_003_950400', '23_003_950200', '23_003_952600', '23_003_952400', '23_003_952500', '23_003_951600', '23_003_950300', '23_003_951000', '23_003_951800', '23_003_951900', '23_003_952000', '23_029_956300', '23_029_956400', '23_029_955300', '23_029_955400', '23_029_955900', '23_029_955500', '23_029_956500', '23_029_955100', '23_029_955800', '23_029_956100', '23_029_955700', '23_029_956200', '23_029_955600', '23_029_990000', '23_009_965100', '23_009_965900', '23_009_966300', '23_009_966500', '23_009_965300', '23_009_966400', '23_009_966100', '23_009_965200', '23_009_966600', '23_019_021500', '23_019_000200', '23_019_000300', '23_019_000400', '23_019_000500', '23_019_000600', '23_019_000700', '23_019_000900', '23_019_020500', '23_019_008001', '23_019_004100', '23_019_004200', '23_019_004300', '23_019_027000', '23_019_011000', '23_019_025500', '23_019_026500', '23_019_009000', '23_019_014000', '23_019_015000', '23_019_012500', '23_019_031000', '23_019_028000', '23_019_013500', '23_019_015500', '23_019_022500', '23_019_002000', '23_019_010000', '23_019_012000', '23_019_028500', '23_019_024500', '23_019_018000', '23_019_029000', '23_019_030000', '23_019_013000', '23_019_007100', '23_019_007200', '23_019_006200', '23_019_006100', '23_019_006300', '23_019_003000', '23_019_005000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965800', '23_009_966000', '23_009_965504', '23_009_965503', '23_009_990000', '23_009_966700', '23_027_046001', '23_027_046002', '23_027_041000', '23_027_044000', '23_027_047000', '23_027_045000', '23_027_043000', '23_027_042000', '23_031_022500', '23_007_970601', '23_007_970101', '23_007_970602', '23_007_970102', '23_007_971200', '23_007_971400', '23_007_971300', '23_007_971000', '23_007_971100', '23_025_965301', '23_025_965302', '23_025_966700', '23_025_966600', '23_025_966000', '23_025_966900', '23_025_967000', '23_025_966500', '23_025_965900', '23_025_966800', '23_025_965800', '23_025_966300', '23_025_966100', '23_025_965700', '23_025_966200', '23_025_965600', '23_025_966400', '23_017_966100', '23_017_966900', '23_017_966200', '23_017_966300', '23_017_966500', '23_017_965600', '23_017_966400', '23_017_965800', '23_017_965900', '23_017_966600', '23_017_965500', '23_017_966800', '23_017_966000', '23_017_965700', '23_017_965100', '23_017_966700', '23_017_965400', '23_011_018000', '23_011_017000', '23_011_025000', '23_011_015500', '23_011_013000', '23_011_014000', '23_011_012000', '23_011_011000', '23_011_015000', '23_011_014500', '23_011_010900', '23_011_021000', '23_011_020000', '23_011_010600', '23_011_022000', '23_011_016000', '23_011_023002', '23_011_010801', '23_011_020500', '23_023_970301', '23_023_970100', '23_023_970200', '23_021_960302', '23_021_960301', '23_021_960600', '23_021_960700', '23_021_960900', '23_021_960400', '23_021_960800', '23_021_960500', '23_013_970300', '23_001_042000', '23_001_043000', '23_001_020500', '23_001_040000', '23_001_044000', '23_001_041500', '23_001_020800', '23_001_020700', '23_001_041000', '23_001_020300', '23_001_020400', '23_001_046000', '23_001_020600', '23_001_045000', '23_001_030100', '23_001_020200', '23_001_020900', '23_001_010800', '23_001_010100', '23_001_010400', '23_001_010200', '23_001_010700', '23_001_010500', '23_001_030200', '23_001_010600', '23_001_010300', '23_001_046500', '23_001_020100', '23_005_011500', '23_005_014000', '23_005_013000', '23_005_016500', '23_005_016000', '23_005_015000', '23_011_010802', '23_011_024200']</t>
-        </is>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>[0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334]</t>
+          <t>23_003_952900, 23_003_950900, 23_003_952100, 23_003_952300, 23_003_951200, 23_003_951300, 23_003_951400, 23_003_951100, 23_003_950100, 23_003_952700, 23_003_950700, 23_003_951700, 23_003_950600, 23_003_950400, 23_003_950200, 23_003_952600, 23_003_952400, 23_003_952500, 23_003_951600, 23_003_950300, 23_003_951000, 23_003_951800, 23_003_951900, 23_003_952000, 23_029_956300, 23_029_956400, 23_029_955300, 23_029_955400, 23_029_955900, 23_029_955500, 23_029_956500, 23_029_955100, 23_029_955800, 23_029_956100, 23_029_955700, 23_029_956200, 23_029_955600, 23_029_990000, 23_009_965100, 23_009_965900, 23_009_966300, 23_009_966500, 23_009_965300, 23_009_966400, 23_009_966100, 23_009_965200, 23_009_966600, 23_019_021500, 23_019_000200, 23_019_000300, 23_019_000400, 23_019_000500, 23_019_000600, 23_019_000700, 23_019_000900, 23_019_020500, 23_019_008001, 23_019_004100, 23_019_004200, 23_019_004300, 23_019_027000, 23_019_011000, 23_019_025500, 23_019_026500, 23_019_009000, 23_019_014000, 23_019_015000, 23_019_012500, 23_019_031000, 23_019_028000, 23_019_013500, 23_019_015500, 23_019_022500, 23_019_002000, 23_019_010000, 23_019_012000, 23_019_028500, 23_019_024500, 23_019_018000, 23_019_029000, 23_019_030000, 23_019_013000, 23_019_007100, 23_019_007200, 23_019_006200, 23_019_006100, 23_019_006300, 23_019_003000, 23_019_005000, 23_019_940000, 23_019_031300, 23_019_031100, 23_019_031200, 23_009_965700, 23_009_965400, 23_009_966200, 23_009_965800, 23_009_966000, 23_009_965504, 23_009_965503, 23_009_990000, 23_009_966700, 23_027_046001, 23_027_046002, 23_027_041000, 23_027_044000, 23_027_047000, 23_027_045000, 23_027_043000, 23_027_042000, 23_031_022500, 23_007_970601, 23_007_970101, 23_007_970602, 23_007_970102, 23_007_971200, 23_007_971400, 23_007_971300, 23_007_971000, 23_007_971100, 23_025_965301, 23_025_965302, 23_025_966700, 23_025_966600, 23_025_966000, 23_025_966900, 23_025_967000, 23_025_966500, 23_025_965900, 23_025_966800, 23_025_965800, 23_025_966300, 23_025_966100, 23_025_965700, 23_025_966200, 23_025_965600, 23_025_966400, 23_017_966100, 23_017_966900, 23_017_966200, 23_017_966300, 23_017_966500, 23_017_965600, 23_017_966400, 23_017_965800, 23_017_965900, 23_017_966600, 23_017_965500, 23_017_966800, 23_017_966000, 23_017_965700, 23_017_965100, 23_017_966700, 23_017_965400, 23_011_018000, 23_011_017000, 23_011_025000, 23_011_015500, 23_011_013000, 23_011_014000, 23_011_012000, 23_011_011000, 23_011_015000, 23_011_014500, 23_011_010900, 23_011_021000, 23_011_020000, 23_011_010600, 23_011_022000, 23_011_016000, 23_011_023002, 23_011_010801, 23_011_020500, 23_023_970301, 23_023_970100, 23_023_970200, 23_021_960302, 23_021_960301, 23_021_960600, 23_021_960700, 23_021_960900, 23_021_960400, 23_021_960800, 23_021_960500, 23_013_970300, 23_001_042000, 23_001_043000, 23_001_020500, 23_001_040000, 23_001_044000, 23_001_041500, 23_001_020800, 23_001_020700, 23_001_041000, 23_001_020300, 23_001_020400, 23_001_046000, 23_001_020600, 23_001_045000, 23_001_030100, 23_001_020200, 23_001_020900, 23_001_010800, 23_001_010100, 23_001_010400, 23_001_010200, 23_001_010700, 23_001_010500, 23_001_030200, 23_001_010600, 23_001_010300, 23_001_046500, 23_001_020100, 23_005_011500, 23_005_014000, 23_005_013000, 23_005_016500, 23_005_016000, 23_005_015000, 23_011_010802, 23_011_024200</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334</t>
         </is>
       </c>
     </row>
@@ -14296,18 +12510,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>['23_005_011300', '23_019_003000', '23_019_004100', '23_019_004300', '23_019_005000', '23_019_006100', '23_019_006300', '23_019_011000', '23_019_012000', '23_027_043000', '23_019_013000', '23_019_018000', '23_019_009000', '23_019_020500', '23_019_002000', '23_019_008001', '23_019_013500', '23_019_022500', '23_019_029000', '23_021_960800', '23_021_960700', '23_021_960600', '23_021_960400', '23_021_960500', '23_021_960900', '23_017_966800', '23_017_966600', '23_017_965800', '23_017_966900', '23_017_965100', '23_017_965600', '23_017_966100', '23_017_966300', '23_017_965500', '23_017_966700', '23_017_965400', '23_017_965700', '23_017_966402', '23_017_966002', '23_017_966401', '23_017_966001', '23_023_970200', '23_017_966500', '23_011_011000', '23_011_023001', '23_011_024101', '23_013_970200', '23_019_024500', '23_019_031000', '23_019_000400', '23_019_000500', '23_019_000600', '23_011_019000', '23_011_020500', '23_011_022000', '23_009_965300', '23_009_965100', '23_009_965800', '23_009_966300', '23_009_966400', '23_009_966600', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965900', '23_017_965900', '23_017_966200', '23_009_966100', '23_001_040000', '23_001_046000', '23_001_046500', '23_029_990000', '23_001_010100', '23_001_010300', '23_001_010400', '23_013_970302', '23_013_970301', '23_001_010500', '23_001_020100', '23_001_020200', '23_001_020500', '23_001_020600', '23_001_020900', '23_001_045000', '23_001_041000', '23_001_043000', '23_001_041500', '23_001_030200', '23_001_010600', '23_001_042000', '23_001_030100', '23_001_020700', '23_001_010700', '23_001_010200', '23_001_010800', '23_005_004501', '23_007_970101', '23_007_970601', '23_023_970301', '23_023_970100', '23_031_022500', '23_011_024102', '23_011_014500', '23_011_018000', '23_019_028500', '23_019_028000', '23_019_000300', '23_011_010900', '23_019_027000', '23_019_015500', '23_019_006200', '23_019_000700', '23_019_015000', '23_019_014000', '23_019_012500', '23_019_007100', '23_019_004200', '23_019_026500', '23_019_000900', '23_019_007200', '23_019_030000', '23_019_021500', '23_019_025500', '23_019_010000', '23_019_000200', '23_009_965504', '23_009_965503', '23_009_966700', '23_013_971100', '23_009_966000', '23_009_966500', '23_029_956200', '23_029_956400', '23_029_955400', '23_029_955900', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966100', '23_007_970102', '23_025_965700', '23_025_966702', '23_025_966601', '23_025_966602', '23_025_966701', '23_025_966802', '23_025_966801', '23_025_966900', '23_007_971202', '23_007_971201', '23_001_020303', '23_001_020301', '23_001_020802', '23_001_020801', '23_001_020402', '23_001_020302', '23_001_020401', '23_011_015000', '23_003_952700', '23_003_952600', '23_003_952900', '23_003_952300', '23_003_950400', '23_003_951400', '23_003_950700', '23_003_950600', '23_003_950100', '23_003_951800', '23_003_952000', '23_003_951900', '23_003_951200', '23_003_950300', '23_007_970602', '23_003_950900', '23_003_951000', '23_003_951100', '23_025_965900', '23_025_965600', '23_025_966200', '23_025_966000', '23_025_967000', '23_003_951600', '23_003_951700', '23_011_010300', '23_011_013000', '23_011_021000', '23_011_016000', '23_011_010200', '23_011_012000', '23_011_010500', '23_011_017000', '23_011_010801', '23_011_010100', '23_011_020000', '23_011_015500', '23_011_010700', '23_003_952400', '23_003_952500', '23_003_950200', '23_003_951300', '23_003_952100', '23_005_016002', '23_005_016001', '23_005_012001', '23_005_014001', '23_005_013001', '23_025_966400', '23_009_965200', '23_025_965800', '23_025_966500', '23_029_955100', '23_029_955500', '23_029_955800', '23_029_956100', '23_029_956500', '23_029_955700', '23_029_955600', '23_029_956300', '23_029_955300', '23_001_044000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_025_966300', '23_011_023002', '23_011_014002', '23_011_014001', '23_011_010601', '23_011_025001', '23_011_025002', '23_011_010804', '23_011_010803', '23_011_024202', '23_011_010602', '23_007_971000', '23_007_971300', '23_007_971100', '23_007_971400', '23_027_046002', '23_027_046001', '23_021_960301', '23_021_960302', '23_013_990000', '23_005_011500', '23_005_015000', '23_005_016500', '23_011_010400', '23_025_965302', '23_025_965301', '23_015_975100', '23_009_990000']</t>
-        </is>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>[0.0, 0.9999999999999979, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.9999999999999997, 1.0000000000000002, 0.999999999999999, 1.0000000000000016, 1.0, 0.9999999999999996, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999999999999859, 0.9999999999999805, 0.9999999999999998, 0.9999999999999385, 0.9999999999999982, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999999999999862, 1.0000000000000049, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999698, 0.9999999999999999, 6.986550796260793e-08, 0.9999999999999989, 0.9999999999999057, 0.0, 2.3682750738558972e-14, 6.5149369379307136e-15, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 3.5032408379114745e-15, 4.708837146703246e-14, 6.476372311317856e-16, 0.9999999999999991, 1.000000000000003, 1.0, 1.0000000000000004, 1.000000000000001, 0.9999999999999848, 1.0000000000000016, 1.000000000000001, 0.9999999999999997, 0.9999999999999994, 1.0000000000000004, 0.9999999999999984, 0.9999999999999999, 0.9999999999999352, 0.9999999999999998, 0.9999999999999677, 0.9999999999999456, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 4.733890918853177e-15, 1.2833968757635731e-14, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9999999999999707, 1.0000000000000018, 0.9999999999999977, 0.9999999999998529, 0.999999999999992, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999999999999898, 0.9999999999999989, 1.0000000000000027, 7.718452531328538e-15, 1.0000000000000007, 1.0000000000000013, 7.813816734827614e-15, 3.841802682698125e-15, 3.559230499005212e-15, 0.0, 1.0000000000000016, 1.2543960329895892e-14, 0.9999999999999978, 1.0000000000000013, 1.0000000000000009, 0.999999999999953, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 1.0, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.9999999999999988, 1.0000000000000004, 1.000000000000001, 0.9999999999999987, 1.9918692883156888e-16, 0.9999999999999993, 0.9999999999999982, 1.0000000000000018, 0.9999999999999999, 0.9999999999999669, 1.0000000000000027, 0.9999999999999883, 0.9999999999999999, 1.0000000000000004, 0.9999999999999929, 1.0, 0.9999999999999836, 0.9999999999999973, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999915, 0.9999999999999869, 0.9999999999998983, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 0.9999999999999919, 0.999999999999997, 0.9999999999999958, 1.0, 0.9999999999999957, 0.999999999999999, 1.000000000000001, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 0.9999999999999952, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999959, 1.0000000000000007, 0.9999999999999885, 0.9999999999999751, 1.0000000000000004, 0.9999999999999638, 3.067981643821837e-14, 1.0000000000000016, 0.9999999999999993, 4.496744806460998e-15, 0.9999999999999811, 0.9999999999999575, 0.999999999999993, 0.9999999999999746, 2.8405876691725625e-14, 0.9999999999999978, 1.0000000000000002, 0.999999999999968, 1.0, 0.9999999999999819, 1.000000000000001, 0.9999999999999809, 4.209596544835508e-16, 2.2234568146072795e-14, 5.346000322144643e-15, 2.3394757908147327e-14, 1.358241184757557e-14, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999999999999928, 0.9999999999999843, 0.999999999999998, 1.0000000000000013, 0.9999999999999989, 0.9999999999998983, 0.9999999999999648, 1.0000000000000029, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 0.0, 0.9999999999999957, 1.0000000000000018, 0.0626129824716832, 0.9999999999999971, 0.9999999999997929, 4.603027704102831e-14, 0.9999999999998938, 3.4705500367340843e-14, 0.9999999999999774, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999915, 0.9999999999999852, 0.9999999999999981, 1.0000000000000067, 2.3118531826965038e-15, 1.556899117489692e-14, 5.1266680654109904e-14, 6.7609728920660174e-15, 0.9999999999999998, 1.0000000000000022, 1.0000000000000004, 7.522545041801663e-16, 0.9999999999999546]</t>
+          <t>23_005_011300, 23_019_003000, 23_019_004100, 23_019_004300, 23_019_005000, 23_019_006100, 23_019_006300, 23_019_011000, 23_019_012000, 23_027_043000, 23_019_013000, 23_019_018000, 23_019_009000, 23_019_020500, 23_019_002000, 23_019_008001, 23_019_013500, 23_019_022500, 23_019_029000, 23_021_960800, 23_021_960700, 23_021_960600, 23_021_960400, 23_021_960500, 23_021_960900, 23_017_966800, 23_017_966600, 23_017_965800, 23_017_966900, 23_017_965100, 23_017_965600, 23_017_966100, 23_017_966300, 23_017_965500, 23_017_966700, 23_017_965400, 23_017_965700, 23_017_966402, 23_017_966002, 23_017_966401, 23_017_966001, 23_023_970200, 23_017_966500, 23_011_011000, 23_011_023001, 23_011_024101, 23_013_970200, 23_019_024500, 23_019_031000, 23_019_000400, 23_019_000500, 23_019_000600, 23_011_019000, 23_011_020500, 23_011_022000, 23_009_965300, 23_009_965100, 23_009_965800, 23_009_966300, 23_009_966400, 23_009_966600, 23_009_965700, 23_009_965400, 23_009_966200, 23_009_965900, 23_017_965900, 23_017_966200, 23_009_966100, 23_001_040000, 23_001_046000, 23_001_046500, 23_029_990000, 23_001_010100, 23_001_010300, 23_001_010400, 23_013_970302, 23_013_970301, 23_001_010500, 23_001_020100, 23_001_020200, 23_001_020500, 23_001_020600, 23_001_020900, 23_001_045000, 23_001_041000, 23_001_043000, 23_001_041500, 23_001_030200, 23_001_010600, 23_001_042000, 23_001_030100, 23_001_020700, 23_001_010700, 23_001_010200, 23_001_010800, 23_005_004501, 23_007_970101, 23_007_970601, 23_023_970301, 23_023_970100, 23_031_022500, 23_011_024102, 23_011_014500, 23_011_018000, 23_019_028500, 23_019_028000, 23_019_000300, 23_011_010900, 23_019_027000, 23_019_015500, 23_019_006200, 23_019_000700, 23_019_015000, 23_019_014000, 23_019_012500, 23_019_007100, 23_019_004200, 23_019_026500, 23_019_000900, 23_019_007200, 23_019_030000, 23_019_021500, 23_019_025500, 23_019_010000, 23_019_000200, 23_009_965504, 23_009_965503, 23_009_966700, 23_013_971100, 23_009_966000, 23_009_966500, 23_029_956200, 23_029_956400, 23_029_955400, 23_029_955900, 23_027_045000, 23_027_041000, 23_027_042000, 23_027_044000, 23_027_047000, 23_025_966100, 23_007_970102, 23_025_965700, 23_025_966702, 23_025_966601, 23_025_966602, 23_025_966701, 23_025_966802, 23_025_966801, 23_025_966900, 23_007_971202, 23_007_971201, 23_001_020303, 23_001_020301, 23_001_020802, 23_001_020801, 23_001_020402, 23_001_020302, 23_001_020401, 23_011_015000, 23_003_952700, 23_003_952600, 23_003_952900, 23_003_952300, 23_003_950400, 23_003_951400, 23_003_950700, 23_003_950600, 23_003_950100, 23_003_951800, 23_003_952000, 23_003_951900, 23_003_951200, 23_003_950300, 23_007_970602, 23_003_950900, 23_003_951000, 23_003_951100, 23_025_965900, 23_025_965600, 23_025_966200, 23_025_966000, 23_025_967000, 23_003_951600, 23_003_951700, 23_011_010300, 23_011_013000, 23_011_021000, 23_011_016000, 23_011_010200, 23_011_012000, 23_011_010500, 23_011_017000, 23_011_010801, 23_011_010100, 23_011_020000, 23_011_015500, 23_011_010700, 23_003_952400, 23_003_952500, 23_003_950200, 23_003_951300, 23_003_952100, 23_005_016002, 23_005_016001, 23_005_012001, 23_005_014001, 23_005_013001, 23_025_966400, 23_009_965200, 23_025_965800, 23_025_966500, 23_029_955100, 23_029_955500, 23_029_955800, 23_029_956100, 23_029_956500, 23_029_955700, 23_029_955600, 23_029_956300, 23_029_955300, 23_001_044000, 23_019_940000, 23_019_031300, 23_019_031100, 23_019_031200, 23_025_966300, 23_011_023002, 23_011_014002, 23_011_014001, 23_011_010601, 23_011_025001, 23_011_025002, 23_011_010804, 23_011_010803, 23_011_024202, 23_011_010602, 23_007_971000, 23_007_971300, 23_007_971100, 23_007_971400, 23_027_046002, 23_027_046001, 23_021_960301, 23_021_960302, 23_013_990000, 23_005_011500, 23_005_015000, 23_005_016500, 23_011_010400, 23_025_965302, 23_025_965301, 23_015_975100, 23_009_990000</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>0.0, 0.9999999999999979, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.9999999999999997, 1.0000000000000002, 0.999999999999999, 1.0000000000000016, 1.0, 0.9999999999999996, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999999999999859, 0.9999999999999805, 0.9999999999999998, 0.9999999999999385, 0.9999999999999982, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999999999999862, 1.0000000000000049, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999698, 0.9999999999999999, 6.986550796260793e-08, 0.9999999999999989, 0.9999999999999057, 0.0, 2.3682750738558972e-14, 6.5149369379307136e-15, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 3.5032408379114745e-15, 4.708837146703246e-14, 6.476372311317856e-16, 0.9999999999999991, 1.000000000000003, 1.0, 1.0000000000000004, 1.000000000000001, 0.9999999999999848, 1.0000000000000016, 1.000000000000001, 0.9999999999999997, 0.9999999999999994, 1.0000000000000004, 0.9999999999999984, 0.9999999999999999, 0.9999999999999352, 0.9999999999999998, 0.9999999999999677, 0.9999999999999456, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 4.733890918853177e-15, 1.2833968757635731e-14, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9999999999999707, 1.0000000000000018, 0.9999999999999977, 0.9999999999998529, 0.999999999999992, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999999999999898, 0.9999999999999989, 1.0000000000000027, 7.718452531328538e-15, 1.0000000000000007, 1.0000000000000013, 7.813816734827614e-15, 3.841802682698125e-15, 3.559230499005212e-15, 0.0, 1.0000000000000016, 1.2543960329895892e-14, 0.9999999999999978, 1.0000000000000013, 1.0000000000000009, 0.999999999999953, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 1.0, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.9999999999999988, 1.0000000000000004, 1.000000000000001, 0.9999999999999987, 1.9918692883156888e-16, 0.9999999999999993, 0.9999999999999982, 1.0000000000000018, 0.9999999999999999, 0.9999999999999669, 1.0000000000000027, 0.9999999999999883, 0.9999999999999999, 1.0000000000000004, 0.9999999999999929, 1.0, 0.9999999999999836, 0.9999999999999973, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999915, 0.9999999999999869, 0.9999999999998983, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 0.9999999999999919, 0.999999999999997, 0.9999999999999958, 1.0, 0.9999999999999957, 0.999999999999999, 1.000000000000001, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 0.9999999999999952, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999959, 1.0000000000000007, 0.9999999999999885, 0.9999999999999751, 1.0000000000000004, 0.9999999999999638, 3.067981643821837e-14, 1.0000000000000016, 0.9999999999999993, 4.496744806460998e-15, 0.9999999999999811, 0.9999999999999575, 0.999999999999993, 0.9999999999999746, 2.8405876691725625e-14, 0.9999999999999978, 1.0000000000000002, 0.999999999999968, 1.0, 0.9999999999999819, 1.000000000000001, 0.9999999999999809, 4.209596544835508e-16, 2.2234568146072795e-14, 5.346000322144643e-15, 2.3394757908147327e-14, 1.358241184757557e-14, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999999999999928, 0.9999999999999843, 0.999999999999998, 1.0000000000000013, 0.9999999999999989, 0.9999999999998983, 0.9999999999999648, 1.0000000000000029, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 0.0, 0.9999999999999957, 1.0000000000000018, 0.0626129824716832, 0.9999999999999971, 0.9999999999997929, 4.603027704102831e-14, 0.9999999999998938, 3.4705500367340843e-14, 0.9999999999999774, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999915, 0.9999999999999852, 0.9999999999999981, 1.0000000000000067, 2.3118531826965038e-15, 1.556899117489692e-14, 5.1266680654109904e-14, 6.7609728920660174e-15, 0.9999999999999998, 1.0000000000000022, 1.0000000000000004, 7.522545041801663e-16, 0.9999999999999546</t>
         </is>
       </c>
     </row>
@@ -14344,8 +12552,6 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -14380,8 +12586,6 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -14416,8 +12620,6 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -14456,22 +12658,8 @@
           <t>pierce_county_council_2002.csv</t>
         </is>
       </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>washington_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14512,18 +12700,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>[432501, 430400, 433104, 410000, 432700, 433000, 432600, 432100, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>[0.005544905161868597, 0.0013039090472615562, 0.8634348033974911, 0.0038228392297908784, 0.9913519286340088, 0.01662298576586445, 0.7924231146357251, 0.0045114765142064885, 0.014334773237405268, 0.43043568759516365]</t>
+          <t>06_001_410000, 06_001_433104, 06_001_430400, 06_001_432800, 06_001_433103, 06_001_432501, 06_001_433000, 06_001_432700, 06_001_432600, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
     </row>
@@ -14566,18 +12748,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>[410400, 410200, 410000, 432700, 409200, 410100, 432502, 432600, 432100, 409300, 432300, 432200]</t>
-        </is>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>[0.0003256444881375276, 4.247353688978054e-05, 0.00018104671855711155, 0.005980203591215113, 0.005405397052643691, 5.084661999645565e-05, 0.015687113405229006, 0.202268825783068, 0.9860520862169958, 0.004714458696468333, 0.9986394042041989, 0.9993528785267684]</t>
+          <t>06_001_432200, 06_001_410000, 06_001_410400, 06_001_410200, 06_001_410100, 06_001_432502, 06_001_409200, 06_001_432700, 06_001_432600, 06_001_432300, 06_001_409300, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
     </row>
@@ -14620,18 +12796,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>[432501, 430400, 433104, 410000, 432700, 433000, 432600, 432100, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>[0.005544905161868597, 0.0013039090472615562, 0.8634348033974911, 0.0038228392297908784, 0.9913519286340088, 0.01662298576586445, 0.7924231146357251, 0.0045114765142064885, 0.014334773237405268, 0.43043568759516365]</t>
+          <t>06_001_410000, 06_001_433104, 06_001_430400, 06_001_432800, 06_001_433103, 06_001_432501, 06_001_433000, 06_001_432700, 06_001_432600, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
     </row>
@@ -14674,18 +12844,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>[433400, 432501, 433104, 432400, 433200, 432502, 433102, 432600, 433300, 433103]</t>
-        </is>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>[0.1405611517171908, 0.637280465424566, 0.015156188966695442, 0.1171419528314025, 0.8255667321425231, 0.0016587129129447653, 0.01293025688345191, 0.00530805958106821, 0.9013211058884908, 0.0114472797456758]</t>
+          <t>06_001_433400, 06_001_433200, 06_001_433104, 06_001_433103, 06_001_432502, 06_001_432501, 06_001_433300, 06_001_433102, 06_001_432600, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>0.10904871380141931, 0.8241916863443685, 0.015511211814849404, 0.011580707686451992, 0.0029253464453381155, 0.6348227812712134, 0.8980882159143337, 0.01306144917213371, 0.005530939353932098, 0.10797729699763957</t>
         </is>
       </c>
     </row>
@@ -14728,18 +12892,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>[410400, 410200, 410000, 432700, 409200, 410100, 432502, 432600, 432100, 409300, 432300, 432200]</t>
-        </is>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>[0.0003256444881375276, 4.247353688978054e-05, 0.00018104671855711155, 0.005980203591215113, 0.005405397052643691, 5.084661999645565e-05, 0.015687113405229006, 0.202268825783068, 0.9860520862169958, 0.004714458696468333, 0.9986394042041989, 0.9993528785267684]</t>
+          <t>06_001_432200, 06_001_410000, 06_001_410400, 06_001_410200, 06_001_410100, 06_001_432502, 06_001_409200, 06_001_432700, 06_001_432600, 06_001_432300, 06_001_409300, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
     </row>
@@ -14782,18 +12940,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>[433700, 433800, 433104, 433200, 432700, 433000, 433102, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>[0.005588870087866759, 0.10596707456802083, 0.12140900763565411, 0.16660758444912868, 0.002664375324994108, 0.9760944751073387, 0.9833414829392908, 0.97421794701705, 0.00011859214779143585]</t>
+          <t>06_001_433800, 06_001_433200, 06_001_433700, 06_001_433104, 06_001_432800, 06_001_433103, 06_001_433000, 06_001_432700, 06_001_433102</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>0.10418773207773581, 0.16713590061875666, 0.00420936050936455, 0.11472506429058199, 6.52186811334703e-05, 0.9866671973437536, 0.9756273536634036, 0.006111804431154338, 0.9831541207108767</t>
         </is>
       </c>
     </row>
@@ -14836,18 +12988,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>[433400, 435900, 433700, 435800, 433500, 433200, 433300, 433600]</t>
-        </is>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>[0.591937771045043, 0.007986121857065301, 0.0002020379028304976, 0.007574522252646808, 0.9979108934720566, 0.006891739616530451, 0.0986788941114862, 0.9923762576585452]</t>
+          <t>06_001_433500, 06_001_435900, 06_001_433400, 06_001_433200, 06_001_433700, 06_001_435800, 06_001_433300, 06_001_433600</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>0.9982930687730528, 0.0017496448715522382, 0.4668515499120042, 0.007733394077361819, 0.00017202025946795794, 0.0031520715190233137, 0.10191178408566515, 0.9887174329920856</t>
         </is>
       </c>
     </row>
@@ -14890,18 +13036,12 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>[433400, 432501, 432400, 409200, 432502, 409000]</t>
-        </is>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>[0.24889332920922216, 0.3571746294136652, 0.8426957848286628, 0.012939785818287817, 0.9756086763423168, 0.001022795767493851]</t>
+          <t>06_001_433400, 06_001_409000, 06_001_432502, 06_001_432501, 06_001_409200, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>0.19753415510080718, 0.0027385031079892887, 0.9814315759237271, 0.3597614793264385, 0.014204771302103309, 0.7808972989047726</t>
         </is>
       </c>
     </row>
@@ -14944,18 +13084,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>[432501, 430400, 433104, 410000, 432700, 433000, 432600, 432100, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>[0.005544905161868597, 0.0013039090472615562, 0.8634348033974911, 0.0038228392297908784, 0.9913519286340088, 0.01662298576586445, 0.7924231146357251, 0.0045114765142064885, 0.014334773237405268, 0.43043568759516365]</t>
+          <t>06_001_410000, 06_001_433104, 06_001_430400, 06_001_432800, 06_001_433103, 06_001_432501, 06_001_433000, 06_001_432700, 06_001_432600, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
     </row>
@@ -14998,18 +13132,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>[433400, 432501, 433104, 432400, 433200, 432502, 433102, 432600, 433300, 433103]</t>
-        </is>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>[0.1405611517171908, 0.637280465424566, 0.015156188966695442, 0.1171419528314025, 0.8255667321425231, 0.0016587129129447653, 0.01293025688345191, 0.00530805958106821, 0.9013211058884908, 0.0114472797456758]</t>
+          <t>06_001_433400, 06_001_433200, 06_001_433104, 06_001_433103, 06_001_432502, 06_001_432501, 06_001_433300, 06_001_433102, 06_001_432600, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>0.10904871380141931, 0.8241916863443685, 0.015511211814849404, 0.011580707686451992, 0.0029253464453381155, 0.6348227812712134, 0.8980882159143337, 0.01306144917213371, 0.005530939353932098, 0.10797729699763957</t>
         </is>
       </c>
     </row>
@@ -15052,18 +13180,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>[410400, 410200, 410000, 432700, 409200, 410100, 432502, 432600, 432100, 409300, 432300, 432200]</t>
-        </is>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>[0.0003256444881375276, 4.247353688978054e-05, 0.00018104671855711155, 0.005980203591215113, 0.005405397052643691, 5.084661999645565e-05, 0.015687113405229006, 0.202268825783068, 0.9860520862169958, 0.004714458696468333, 0.9986394042041989, 0.9993528785267684]</t>
+          <t>06_001_432200, 06_001_410000, 06_001_410400, 06_001_410200, 06_001_410100, 06_001_432502, 06_001_409200, 06_001_432700, 06_001_432600, 06_001_432300, 06_001_409300, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
     </row>
@@ -15106,18 +13228,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>[433700, 433800, 433104, 433200, 432700, 433000, 433102, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>[0.005588870087866759, 0.10596707456802083, 0.12140900763565411, 0.16660758444912868, 0.002664375324994108, 0.9760944751073387, 0.9833414829392908, 0.97421794701705, 0.00011859214779143585]</t>
+          <t>06_001_433800, 06_001_433200, 06_001_433700, 06_001_433104, 06_001_432800, 06_001_433103, 06_001_433000, 06_001_432700, 06_001_433102</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>0.10418773207773581, 0.16713590061875666, 0.00420936050936455, 0.11472506429058199, 6.52186811334703e-05, 0.9866671973437536, 0.9756273536634036, 0.006111804431154338, 0.9831541207108767</t>
         </is>
       </c>
     </row>
@@ -15156,18 +13272,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>['02_130_000400', '02_130_000102', '02_130_000101', '02_275_000300', '02_195_000200', '02_130_000200', '02_130_000300', '02_198_000300', '02_198_940100', '02_198_000100']</t>
-        </is>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>[0.9999999999999997, 0.9999999931285483, 1.0000000000000044, 0.9999992921568132, 3.696719279810121e-10, 1.0000000000000007, 1.0000000000000007, 0.9999967358406063, 1.0000000000000002, 0.0166736680005695]</t>
+          <t>02_130_000400, 02_130_000102, 02_130_000101, 02_275_000300, 02_195_000200, 02_130_000200, 02_130_000300, 02_198_000300, 02_198_940100, 02_198_000100</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>0.9999999999999997, 0.9999999931285483, 1.0000000000000044, 0.9999992921568132, 3.696719279810121e-10, 1.0000000000000007, 1.0000000000000007, 0.9999967358406063, 1.0000000000000002, 0.0166736680005695</t>
         </is>
       </c>
     </row>
@@ -15206,18 +13316,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>['02_020_002811', '02_020_002712', '02_020_002711', '02_020_002812', '02_020_002823', '02_020_002822', '02_020_002714', '02_020_002713', '02_020_002305', '02_122_000300', '02_122_000200', '02_020_002502', '02_020_002601', '02_020_002501', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>[0.0, 0.9999999999999347, 6.779763853104436e-14, 2.510483247297599e-15, 6.839156761223688e-16, 1.5631695767342513e-15, 0.9999999999999908, 0.8433822514183643, 9.817946380059217e-14, 0.0, 1.1158724429087465e-16, 5.944535742869982e-14, 0.004114356548918011, 0.00022555208877358227, 4.828793468082754e-14]</t>
+          <t>02_020_002811, 02_020_002712, 02_020_002711, 02_020_002812, 02_020_002823, 02_020_002822, 02_020_002714, 02_020_002713, 02_020_002305, 02_122_000300, 02_122_000200, 02_020_002502, 02_020_002601, 02_020_002501, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>0.0, 0.9999999999999347, 6.779763853104436e-14, 2.510483247297599e-15, 6.839156761223688e-16, 1.5631695767342513e-15, 0.9999999999999908, 0.8433822514183643, 9.817946380059217e-14, 0.0, 1.1158724429087465e-16, 5.944535742869982e-14, 0.004114356548918011, 0.00022555208877358227, 4.828793468082754e-14</t>
         </is>
       </c>
     </row>
@@ -15256,18 +13360,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>['02_020_002811', '02_020_002813', '02_020_002712', '02_020_002812', '02_020_002823', '02_020_002603', '02_020_002822', '02_020_980000', '02_020_002713', '02_020_002601', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>[0.9999999999999672, 0.12056466553206284, 5.4667213161670604e-14, 0.8253793411867443, 0.0, 2.128375784237673e-13, 2.847901418021467e-15, 3.356888626843005e-14, 0.0, 2.094934713247383e-14, 0.0011605695976699489]</t>
+          <t>02_020_002811, 02_020_002813, 02_020_002712, 02_020_002812, 02_020_002823, 02_020_002603, 02_020_002822, 02_020_980000, 02_020_002713, 02_020_002601, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>0.9999999999999672, 0.12056466553206284, 5.4667213161670604e-14, 0.8253793411867443, 0.0, 2.128375784237673e-13, 2.847901418021467e-15, 3.356888626843005e-14, 0.0, 2.094934713247383e-14, 0.0011605695976699489</t>
         </is>
       </c>
     </row>
@@ -15306,18 +13404,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>['02_020_002602', '02_020_002811', '02_020_002813', '02_020_001732', '02_020_002812', '02_020_002603', '02_020_980000', '02_020_980200', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>[1.0000000000000013, 8.096701601358873e-15, 6.402565370822275e-16, 3.271444141972544e-13, 0.1746206588131474, 0.9999999999997876, 0.9999999999999086, 2.9122844725185043e-16, 0.003330274979037435, 0.9841698079539918, 1.0533907163482417e-13, 2.562430747400834e-13, 8.946330526330108e-14]</t>
+          <t>02_020_002602, 02_020_002811, 02_020_002813, 02_020_001732, 02_020_002812, 02_020_002603, 02_020_980000, 02_020_980200, 02_020_001802, 02_020_002601, 02_020_001602, 02_020_001701, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>1.0000000000000013, 8.096701601358873e-15, 6.402565370822275e-16, 3.271444141972544e-13, 0.1746206588131474, 0.9999999999997876, 0.9999999999999086, 2.9122844725185043e-16, 0.003330274979037435, 0.9841698079539918, 1.0533907163482417e-13, 2.562430747400834e-13, 8.946330526330108e-14</t>
         </is>
       </c>
     </row>
@@ -15356,18 +13448,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>['02_020_002712', '02_020_002711', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_002601', '02_020_002400', '02_020_001500', '02_020_002501', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>[7.563915917903973e-18, 0.0, 0.9085851627015096, 1.351297300479528e-13, 2.040296974351561e-13, 0.9999999999999404, 3.2397849824902e-14, 0.25254309502119526, 0.011715835497069676, 2.363474153672371e-13, 7.984878640546991e-14, 0.9997744479112183, 0.999999999999792]</t>
+          <t>02_020_002712, 02_020_002711, 02_020_002305, 02_020_002304, 02_020_002302, 02_020_002502, 02_020_001802, 02_020_001900, 02_020_002601, 02_020_002400, 02_020_001500, 02_020_002501, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>7.563915917903973e-18, 0.0, 0.9085851627015096, 1.351297300479528e-13, 2.040296974351561e-13, 0.9999999999999404, 3.2397849824902e-14, 0.25254309502119526, 0.011715835497069676, 2.363474153672371e-13, 7.984878640546991e-14, 0.9997744479112183, 0.999999999999792</t>
         </is>
       </c>
     </row>
@@ -15406,18 +13492,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_000902', '02_020_001000', '02_020_001401', '02_020_001402', '02_020_002302', '02_020_001601', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_001602', '02_020_002000', '02_020_002100', '02_020_002400', '02_020_001500', '02_020_002202', '02_020_002501', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>[2.6160809096794118e-14, 0.11847262473047523, 0.0, 0.5649866791767769, 9.646730048865098e-13, 1.5585452073794385e-15, 2.8180061645569387e-14, 0.0, 1.7530550457121424e-16, 0.7474569049788103, 6.582128184947375e-15, 1.0, 0.9126455348526529, 0.6749766546931687, 0.99999999999974, 0.11823708366426153, 3.724621214111093e-17, 1.462413060639627e-16]</t>
+          <t>02_020_001300, 02_020_000902, 02_020_001000, 02_020_001401, 02_020_001402, 02_020_002302, 02_020_001601, 02_020_002502, 02_020_001802, 02_020_001900, 02_020_001602, 02_020_002000, 02_020_002100, 02_020_002400, 02_020_001500, 02_020_002202, 02_020_002501, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>2.6160809096794118e-14, 0.11847262473047523, 0.0, 0.5649866791767769, 9.646730048865098e-13, 1.5585452073794385e-15, 2.8180061645569387e-14, 0.0, 1.7530550457121424e-16, 0.7474569049788103, 6.582128184947375e-15, 1.0, 0.9126455348526529, 0.6749766546931687, 0.99999999999974, 0.11823708366426153, 3.724621214111093e-17, 1.462413060639627e-16</t>
         </is>
       </c>
     </row>
@@ -15456,18 +13536,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>['02_020_002712', '02_020_002711', '02_020_002301', '02_020_002714', '02_020_002713', '02_020_002305', '02_020_002304', '02_122_000200', '02_020_002302']</t>
-        </is>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>[1.5801406647388543e-14, 0.9999999999999114, 0.01811690891338983, 3.170987323835905e-14, 0.0, 0.0914148372983976, 0.9999999999998611, 2.6713853255212207e-17, 1.349241399352795e-13]</t>
+          <t>02_020_002712, 02_020_002711, 02_020_002301, 02_020_002714, 02_020_002713, 02_020_002305, 02_020_002304, 02_122_000200, 02_020_002302</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>1.5801406647388543e-14, 0.9999999999999114, 0.01811690891338983, 3.170987323835905e-14, 0.0, 0.0914148372983976, 0.9999999999998611, 2.6713853255212207e-17, 1.349241399352795e-13</t>
         </is>
       </c>
     </row>
@@ -15506,18 +13580,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>['02_170_000604', '02_020_001300', '02_020_002711', '02_020_001200', '02_020_001100', '02_020_002301', '02_020_002305', '02_020_002304', '02_122_000200', '02_170_000502', '02_020_002302', '02_020_002100', '02_020_002400', '02_020_002201', '02_020_002202', '02_020_002501', '02_020_000500']</t>
-        </is>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>[7.768016064013373e-15, 0.8813093784067558, 0.0, 0.3320120758756879, 0.0, 0.981883091086593, 0.0, 0.0, 1.8696777122168437e-16, 2.5191366197104766e-15, 0.9999999999996627, 0.08735446514734686, 0.325023345306591, 1.000000000000001, 0.8817629163357388, 6.606520751809835e-15, 6.5286366408926e-14]</t>
+          <t>02_170_000604, 02_020_001300, 02_020_002711, 02_020_001200, 02_020_001100, 02_020_002301, 02_020_002305, 02_020_002304, 02_122_000200, 02_170_000502, 02_020_002302, 02_020_002100, 02_020_002400, 02_020_002201, 02_020_002202, 02_020_002501, 02_020_000500</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>7.768016064013373e-15, 0.8813093784067558, 0.0, 0.3320120758756879, 0.0, 0.981883091086593, 0.0, 0.0, 1.8696777122168437e-16, 2.5191366197104766e-15, 0.9999999999996627, 0.08735446514734686, 0.325023345306591, 1.000000000000001, 0.8817629163357388, 6.606520751809835e-15, 6.5286366408926e-14</t>
         </is>
       </c>
     </row>
@@ -15556,18 +13624,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_000902', '02_020_000901', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_001401', '02_020_001402', '02_020_001601', '02_020_002000', '02_020_002100', '02_020_001500', '02_020_002202']</t>
-        </is>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>[0.11869062159321583, 0.8815273752695287, 0.5448664101885903, 0.6679879241242521, 0.9587800235930151, 0.6046333390626247, 0.43501332082322236, 0.9999999999991511, 1.0819523219574484e-16, 0.0, 0.0, 4.128969865585293e-16, 0.0]</t>
+          <t>02_020_001300, 02_020_000902, 02_020_000901, 02_020_001200, 02_020_001000, 02_020_001100, 02_020_001401, 02_020_001402, 02_020_001601, 02_020_002000, 02_020_002100, 02_020_001500, 02_020_002202</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>0.11869062159321583, 0.8815273752695287, 0.5448664101885903, 0.6679879241242521, 0.9587800235930151, 0.6046333390626247, 0.43501332082322236, 0.9999999999991511, 1.0819523219574484e-16, 0.0, 0.0, 4.128969865585293e-16, 0.0</t>
         </is>
       </c>
     </row>
@@ -15606,18 +13668,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>['02_170_000604', '02_020_001300', '02_020_000703', '02_020_000801', '02_020_000702', '02_020_000901', '02_020_000701', '02_020_000204', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_980100', '02_020_000601', '02_020_000602', '02_020_980200', '02_020_000500']</t>
-        </is>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>[9.3316756226602e-15, 1.2565046064506582e-15, 0.6384164150297452, 0.019394972920743415, 0.0720430951530303, 0.07491360210541509, 0.03318075538927135, 0.0021128584923866744, 5.864164453589073e-14, 0.041219976406984965, 0.3953666609373748, 0.9999999999999877, 0.7023647448968876, 4.7931532267390197e-14, 0.11314854148146254, 0.9999999999999356]</t>
+          <t>02_170_000604, 02_020_001300, 02_020_000703, 02_020_000801, 02_020_000702, 02_020_000901, 02_020_000701, 02_020_000204, 02_020_001200, 02_020_001000, 02_020_001100, 02_020_980100, 02_020_000601, 02_020_000602, 02_020_980200, 02_020_000500</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>9.3316756226602e-15, 1.2565046064506582e-15, 0.6384164150297452, 0.019394972920743415, 0.0720430951530303, 0.07491360210541509, 0.03318075538927135, 0.0021128584923866744, 5.864164453589073e-14, 0.041219976406984965, 0.3953666609373748, 0.9999999999999877, 0.7023647448968876, 4.7931532267390197e-14, 0.11314854148146254, 0.9999999999999356</t>
         </is>
       </c>
     </row>
@@ -15656,18 +13712,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>['02_020_000801', '02_020_000802', '02_020_000902', '02_020_000901', '02_020_980100', '02_020_000601', '02_020_000602', '02_020_001601', '02_020_001602', '02_020_001500']</t>
-        </is>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>[0.4698744454970508, 0.1990536600722746, 0.0, 0.38021998770599463, 8.624950679645991e-15, 0.29763525510311256, 0.9999999999999469, 0.9527798201591077, 1.9081958944266102e-15, 6.496397213079174e-14]</t>
+          <t>02_020_000801, 02_020_000802, 02_020_000902, 02_020_000901, 02_020_980100, 02_020_000601, 02_020_000602, 02_020_001601, 02_020_001602, 02_020_001500</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>0.4698744454970508, 0.1990536600722746, 0.0, 0.38021998770599463, 8.624950679645991e-15, 0.29763525510311256, 0.9999999999999469, 0.9527798201591077, 1.9081958944266102e-15, 6.496397213079174e-14</t>
         </is>
       </c>
     </row>
@@ -15706,18 +13756,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>['02_130_000102', '02_100_000100', '02_066_000100', '02_063_000200', '02_275_000300', '02_195_000200', '02_105_000400', '02_282_000100', '02_110_000600', '02_110_000100', '02_110_000500', '02_220_000200', '02_220_000100', '02_198_000100', '02_198_000200']</t>
-        </is>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>[5.170071621586615e-16, 1.0677518253802163e-15, 1.142698169075141e-16, 1.7517255523101062e-15, 9.873399096108837e-16, 0.9999869254798902, 0.7919502091670534, 0.9999862103625182, 0.0, 3.3397261339608898e-15, 3.659969371930428e-15, 1.0000000000000002, 0.9999999999999949, 0.9833263319994279, 1.0000000000000029]</t>
+          <t>02_130_000102, 02_100_000100, 02_066_000100, 02_063_000200, 02_275_000300, 02_195_000200, 02_105_000400, 02_282_000100, 02_110_000600, 02_110_000100, 02_110_000500, 02_220_000200, 02_220_000100, 02_198_000100, 02_198_000200</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>5.170071621586615e-16, 1.0677518253802163e-15, 1.142698169075141e-16, 1.7517255523101062e-15, 9.873399096108837e-16, 0.9999869254798902, 0.7919502091670534, 0.9999862103625182, 0.0, 3.3397261339608898e-15, 3.659969371930428e-15, 1.0000000000000002, 0.9999999999999949, 0.9833263319994279, 1.0000000000000029</t>
         </is>
       </c>
     </row>
@@ -15756,18 +13800,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>['02_020_002602', '02_020_000801', '02_020_000802', '02_020_000701', '02_020_980000', '02_020_001601', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001702', '02_020_001500', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>[6.422330949344263e-17, 7.9443902821104e-14, 0.8009463399277259, 0.0, 3.618598704441686e-17, 0.04722017984086448, 0.9966697250209166, 0.0, 0.9999999999998841, 0.4997589173860252, 0.2549643259460965, 7.950781729490365e-14, 1.1815111447666696e-13]</t>
+          <t>02_020_002602, 02_020_000801, 02_020_000802, 02_020_000701, 02_020_980000, 02_020_001601, 02_020_001802, 02_020_002601, 02_020_001602, 02_020_001701, 02_020_001702, 02_020_001500, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>6.422330949344263e-17, 7.9443902821104e-14, 0.8009463399277259, 0.0, 3.618598704441686e-17, 0.04722017984086448, 0.9966697250209166, 0.0, 0.9999999999998841, 0.4997589173860252, 0.2549643259460965, 7.950781729490365e-14, 1.1815111447666696e-13</t>
         </is>
       </c>
     </row>
@@ -15806,18 +13844,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_001732', '02_020_000702', '02_020_000701', '02_020_980000', '02_020_980200', '02_020_001701', '02_020_001702', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>[0.029385931395816908, 0.0, 0.0, 0.9999999999996183, 1.8501318518346816e-13, 1.2159501947720193e-13, 2.0226559269517739e-16, 5.928580674736622e-18, 0.5002410826137191, 0.745035674053916, 0.9999999999997957]</t>
+          <t>02_020_000703, 02_020_000801, 02_020_000802, 02_020_001732, 02_020_000702, 02_020_000701, 02_020_980000, 02_020_980200, 02_020_001701, 02_020_001702, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>0.029385931395816908, 0.0, 0.0, 0.9999999999996183, 1.8501318518346816e-13, 1.2159501947720193e-13, 2.0226559269517739e-16, 5.928580674736622e-18, 0.5002410826137191, 0.745035674053916, 0.9999999999997957</t>
         </is>
       </c>
     </row>
@@ -15856,18 +13888,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_000702', '02_020_000701', '02_020_000602', '02_020_980200', '02_020_001702', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>[0.33219765357433095, 0.5107305815821267, 0.0, 0.9279569048467848, 0.9668192446105905, 0.0, 7.952841797024768e-18, 2.4405194747119865e-19, 9.273818046500048e-17]</t>
+          <t>02_020_000703, 02_020_000801, 02_020_000802, 02_020_000702, 02_020_000701, 02_020_000602, 02_020_980200, 02_020_001702, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>0.33219765357433095, 0.5107305815821267, 0.0, 0.9279569048467848, 0.9668192446105905, 0.0, 7.952841797024768e-18, 2.4405194747119865e-19, 9.273818046500048e-17</t>
         </is>
       </c>
     </row>
@@ -15906,18 +13932,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>['02_020_002813', '02_020_000703', '02_020_001732', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_002823', '02_020_000101', '02_020_002900', '02_020_000205', '02_020_980000', '02_020_000206', '02_020_980200', '02_020_000201', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>[2.0536043560632786e-14, 9.316307870735097e-14, 4.6488023831501805e-14, 3.475371956341428e-14, 0.31231526277688576, 0.9467317357002065, 0.0, 1.0765671932596768e-15, 0.11694983897645601, 0.9999999999999999, 2.2973738555650582e-14, 0.5473291333166664, 0.41213091695899245, 0.16862755284967687, 2.0327341450454188e-13]</t>
+          <t>02_020_002813, 02_020_000703, 02_020_001732, 02_020_000102, 02_020_000202, 02_020_000204, 02_020_002823, 02_020_000101, 02_020_002900, 02_020_000205, 02_020_980000, 02_020_000206, 02_020_980200, 02_020_000201, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>2.0536043560632786e-14, 9.316307870735097e-14, 4.6488023831501805e-14, 3.475371956341428e-14, 0.31231526277688576, 0.9467317357002065, 0.0, 1.0765671932596768e-15, 0.11694983897645601, 0.9999999999999999, 2.2973738555650582e-14, 0.5473291333166664, 0.41213091695899245, 0.16862755284967687, 2.0327341450454188e-13</t>
         </is>
       </c>
     </row>
@@ -15956,18 +13976,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>['02_170_000604', '02_170_000601', '02_063_000300', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_000101', '02_020_002900', '02_020_980100', '02_020_000206', '02_020_980200', '02_020_000201', '02_170_000200', '02_170_001300']</t>
-        </is>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>[2.7890912269404463e-15, 2.2008921559810908e-14, 6.598907606417912e-17, 0.9999999999999684, 0.6876847372231152, 1.1569075445207169e-14, 0.9082137497658274, 0.0, 5.45771329907272e-15, 0.45267086668333656, 0.47472054155953, 0.8313724471503244, 3.77648784380618e-17, 2.7054197051178567e-14]</t>
+          <t>02_170_000604, 02_170_000601, 02_063_000300, 02_020_000102, 02_020_000202, 02_020_000204, 02_020_000101, 02_020_002900, 02_020_980100, 02_020_000206, 02_020_980200, 02_020_000201, 02_170_000200, 02_170_001300</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>2.7890912269404463e-15, 2.2008921559810908e-14, 6.598907606417912e-17, 0.9999999999999684, 0.6876847372231152, 1.1569075445207169e-14, 0.9082137497658274, 0.0, 5.45771329907272e-15, 0.45267086668333656, 0.47472054155953, 0.8313724471503244, 3.77648784380618e-17, 2.7054197051178567e-14</t>
         </is>
       </c>
     </row>
@@ -16006,18 +14020,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>['02_170_001201', '02_170_000601', '02_020_000101', '02_170_001202', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
-        </is>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>[0.9935401014233817, 1.6824100510478304e-15, 6.946434748000058e-16, 0.7872802728814088, 0.09570240809888833, 0.00015756558770533205, 0.9999999999999559, 0.027320380237243078]</t>
+          <t>02_170_001201, 02_170_000601, 02_020_000101, 02_170_001202, 02_170_001100, 02_170_000200, 02_170_001300, 02_170_000300</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>0.9935401014233817, 1.6824100510478304e-15, 6.946434748000058e-16, 0.7872802728814088, 0.09570240809888833, 0.00015756558770533205, 0.9999999999999559, 0.027320380237243078</t>
         </is>
       </c>
     </row>
@@ -16056,18 +14064,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000703', '02_170_000401', '02_170_001201', '02_170_000601', '02_020_000102', '02_020_000101', '02_020_980200', '02_170_000501', '02_170_001202', '02_170_000603', '02_170_001100', '02_170_001300', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>[4.314408299348218e-14, 0.19944842127175852, 0.02749590130700152, 5.588628330772135e-15, 4.917986425980879e-15, 0.00645989857662021, 0.9994077621746533, 0.0, 0.0, 0.0, 0.061547124451694496, 0.21271972711859063, 0.5766760420568411, 0.612467658383614, 6.487026647259754e-16, 1.5551938368206332e-13]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000604, 02_170_000703, 02_170_000401, 02_170_001201, 02_170_000601, 02_020_000102, 02_020_000101, 02_020_980200, 02_170_000501, 02_170_001202, 02_170_000603, 02_170_001100, 02_170_001300, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>4.314408299348218e-14, 0.19944842127175852, 0.02749590130700152, 5.588628330772135e-15, 4.917986425980879e-15, 0.00645989857662021, 0.9994077621746533, 0.0, 0.0, 0.0, 0.061547124451694496, 0.21271972711859063, 0.5766760420568411, 0.612467658383614, 6.487026647259754e-16, 1.5551938368206332e-13</t>
         </is>
       </c>
     </row>
@@ -16106,18 +14108,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000705', '02_170_000703', '02_170_000402', '02_170_000401', '02_170_000706', '02_170_000601', '02_170_000501', '02_170_001003', '02_170_000603', '02_170_000800', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>[0.022125636160567626, 0.8005515787282085, 0.0, 0.05961735232825232, 0.999999999999979, 1.1460194768339564e-15, 7.080517753438292e-15, 0.024098708760131673, 0.000592237825316174, 5.895014095717637e-16, 1.2200236379774772e-14, 0.11445524751106048, 0.9998361878552425, 0.9999999999998264]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000604, 02_170_000705, 02_170_000703, 02_170_000402, 02_170_000401, 02_170_000706, 02_170_000601, 02_170_000501, 02_170_001003, 02_170_000603, 02_170_000800, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>0.022125636160567626, 0.8005515787282085, 0.0, 0.05961735232825232, 0.999999999999979, 1.1460194768339564e-15, 7.080517753438292e-15, 0.024098708760131673, 0.000592237825316174, 5.895014095717637e-16, 1.2200236379774772e-14, 0.11445524751106048, 0.9998361878552425, 0.9999999999998264</t>
         </is>
       </c>
     </row>
@@ -16156,18 +14152,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000705', '02_170_000703', '02_170_001001', '02_170_000706', '02_170_000601', '02_170_001003', '02_170_001100', '02_170_000800', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>[0.9778743638393887, 0.9403826476717478, 1.2204882720220887e-14, 9.287171805527289e-14, 0.12908398834675308, 0.0, 0.9999999999999887, 0.13388202215699926, 0.0001638121447570509, 1.621765485704958e-14]</t>
+          <t>02_170_001004, 02_170_000705, 02_170_000703, 02_170_001001, 02_170_000706, 02_170_000601, 02_170_001003, 02_170_001100, 02_170_000800, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>0.9778743638393887, 0.9403826476717478, 1.2204882720220887e-14, 9.287171805527289e-14, 0.12908398834675308, 0.0, 0.9999999999999887, 0.13388202215699926, 0.0001638121447570509, 1.621765485704958e-14</t>
         </is>
       </c>
     </row>
@@ -16206,18 +14196,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000102', '02_170_000705', '02_170_000101', '02_170_000402', '02_170_001001', '02_170_000706', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_000101', '02_020_002900', '02_170_001003', '02_240_000400', '02_068_000100', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
-        </is>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>[0.0, 0.8055873674466489, 7.231585513522465e-17, 0.2780218223472537, 5.131271390108449e-15, 0.999999999999907, 0.15698856948878992, 0.3574494008095216, 0.12607036948554465, 0.0010317358308498967, 8.299183208895974e-16, 6.269800448302538e-15, 4.520462338239662e-16, 4.83699926263995e-16, 1.0022495340064277e-15, 0.15794791136049885, 0.9998424344122918, 1.5473765052647264e-14, 0.9726796197627554]</t>
+          <t>02_170_001004, 02_170_000102, 02_170_000705, 02_170_000101, 02_170_000402, 02_170_001001, 02_170_000706, 02_063_000300, 02_066_000100, 02_063_000200, 02_020_000101, 02_020_002900, 02_170_001003, 02_240_000400, 02_068_000100, 02_170_001100, 02_170_000200, 02_170_001300, 02_170_000300</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>0.0, 0.8055873674466489, 7.231585513522465e-17, 0.2780218223472537, 5.131271390108449e-15, 0.999999999999907, 0.15698856948878992, 0.3574494008095216, 0.12607036948554465, 0.0010317358308498967, 8.299183208895974e-16, 6.269800448302538e-15, 4.520462338239662e-16, 4.83699926263995e-16, 1.0022495340064277e-15, 0.15794791136049885, 0.9998424344122918, 1.5473765052647264e-14, 0.9726796197627554</t>
         </is>
       </c>
     </row>
@@ -16256,18 +14240,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>['02_170_000701', '02_170_000102', '02_170_000604', '02_170_000101', '02_170_000703', '02_170_000402', '02_170_000401', '02_170_000706', '02_170_000601', '02_020_001300', '02_020_002301', '02_020_980100', '02_020_980200', '02_170_000501', '02_170_000603', '02_050_000300', '02_122_000100', '02_122_000200', '02_090_980000', '02_170_000502', '02_240_000400', '02_290_000400', '02_290_000200', '02_068_000100', '02_170_000300', '02_020_000500']</t>
-        </is>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>[2.954262257985173e-14, 0.19441263255335656, 0.9725040986929793, 0.7219781776527462, 5.566084397943012e-15, 0.9999999999999937, 0.9999999999999891, 0.6898287334043239, 7.375457410951723e-15, 0.0, 0.0, 0.0, 0.0, 0.9384528755483036, 0.3088687104320975, 5.2701182292987535e-17, 1.0258262431437238e-16, 0.0, 7.126536690564203e-15, 0.9999999999999968, 1.2662116468459005e-19, 7.076021537407795e-16, 6.568495257431327e-16, 0.9999999999999979, 1.9697128452062837e-15, 0.0]</t>
+          <t>02_170_000701, 02_170_000102, 02_170_000604, 02_170_000101, 02_170_000703, 02_170_000402, 02_170_000401, 02_170_000706, 02_170_000601, 02_020_001300, 02_020_002301, 02_020_980100, 02_020_980200, 02_170_000501, 02_170_000603, 02_050_000300, 02_122_000100, 02_122_000200, 02_090_980000, 02_170_000502, 02_240_000400, 02_290_000400, 02_290_000200, 02_068_000100, 02_170_000300, 02_020_000500</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>2.954262257985173e-14, 0.19441263255335656, 0.9725040986929793, 0.7219781776527462, 5.566084397943012e-15, 0.9999999999999937, 0.9999999999999891, 0.6898287334043239, 7.375457410951723e-15, 0.0, 0.0, 0.0, 0.0, 0.9384528755483036, 0.3088687104320975, 5.2701182292987535e-17, 1.0258262431437238e-16, 0.0, 7.126536690564203e-15, 0.9999999999999968, 1.2662116468459005e-19, 7.076021537407795e-16, 6.568495257431327e-16, 0.9999999999999979, 1.9697128452062837e-15, 0.0</t>
         </is>
       </c>
     </row>
@@ -16306,18 +14284,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_000700', '02_090_001300', '02_090_000500', '02_090_000600', '02_090_001200', '02_090_000200', '02_090_001000', '02_090_000800', '02_090_980000']</t>
-        </is>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>[0.9248944034447876, 0.985905235474897, 0.0, 0.4654207127061782, 0.03182422356279333, 0.999999999999936, 0.7547075335601432, 1.4509424582911622e-15, 1.0000000000000004, 0.0823742691327421, 2.852685829369444e-14, 5.078184995264309e-17]</t>
+          <t>02_090_000100, 02_090_000300, 02_090_000400, 02_090_000700, 02_090_001300, 02_090_000500, 02_090_000600, 02_090_001200, 02_090_000200, 02_090_001000, 02_090_000800, 02_090_980000</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>0.9248944034447876, 0.985905235474897, 0.0, 0.4654207127061782, 0.03182422356279333, 0.999999999999936, 0.7547075335601432, 1.4509424582911622e-15, 1.0000000000000004, 0.0823742691327421, 2.852685829369444e-14, 5.078184995264309e-17</t>
         </is>
       </c>
     </row>
@@ -16356,18 +14328,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_001300', '02_090_000500', '02_090_001200', '02_090_001600', '02_090_001000', '02_090_980000', '02_090_001402', '02_090_001401']</t>
-        </is>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>[0.07510559655521225, 0.014094764525103156, 1.0000000000000004, 7.193548252196579e-15, 6.451709787124933e-14, 0.08202398379989954, 0.006860614110264715, 0.013905187083993652, 0.01768779157075195, 0.5392860138139894, 0.3264440896093007]</t>
+          <t>02_090_000100, 02_090_000300, 02_090_000400, 02_090_001300, 02_090_000500, 02_090_001200, 02_090_001600, 02_090_001000, 02_090_980000, 02_090_001402, 02_090_001401</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>0.07510559655521225, 0.014094764525103156, 1.0000000000000004, 7.193548252196579e-15, 6.451709787124933e-14, 0.08202398379989954, 0.006860614110264715, 0.013905187083993652, 0.01768779157075195, 0.5392860138139894, 0.3264440896093007</t>
         </is>
       </c>
     </row>
@@ -16406,18 +14372,12 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>['02_090_001700', '02_090_001200', '02_090_001600', '02_090_980000', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001402', '02_090_001502', '02_090_001401']</t>
-        </is>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>[7.151572689721793e-17, 0.24780657736209957, 0.9372476197958335, 0.00043329269307350164, 2.4456032724011763e-16, 0.939866763511668, 0.012668213834240378, 0.14775604923976357, 0.9985815486102065, 0.6735559103906986]</t>
+          <t>02_090_001700, 02_090_001200, 02_090_001600, 02_090_980000, 02_090_980100, 02_090_001501, 02_090_001902, 02_090_001402, 02_090_001502, 02_090_001401</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>7.151572689721793e-17, 0.24780657736209957, 0.9372476197958335, 0.00043329269307350164, 2.4456032724011763e-16, 0.939866763511668, 0.012668213834240378, 0.14775604923976357, 0.9985815486102065, 0.6735559103906986</t>
         </is>
       </c>
     </row>
@@ -16456,18 +14416,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>['02_240_000100', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_001200', '02_090_001600', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001502', '02_090_001901', '02_290_000100']</t>
-        </is>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>[2.5744766740353944e-17, 0.9756867856972798, 0.7038669675108458, 0.00759734795445441, 0.6701694388379994, 0.05589176609387797, 0.0004086251892132868, 2.1181549183761468e-10, 0.999999999999998, 0.060133236488331986, 0.689771291877632, 0.0014184513897948202, 0.00037275708282897283, 3.9680776060526126e-16]</t>
+          <t>02_240_000100, 02_090_001700, 02_090_001300, 02_090_000600, 02_090_001200, 02_090_001600, 02_090_980000, 02_240_000400, 02_090_980100, 02_090_001501, 02_090_001902, 02_090_001502, 02_090_001901, 02_290_000100</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2.5744766740353944e-17, 0.9756867856972798, 0.7038669675108458, 0.00759734795445441, 0.6701694388379994, 0.05589176609387797, 0.0004086251892132868, 2.1181549183761468e-10, 0.999999999999998, 0.060133236488331986, 0.689771291877632, 0.0014184513897948202, 0.00037275708282897283, 3.9680776060526126e-16</t>
         </is>
       </c>
     </row>
@@ -16506,18 +14460,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>['02_090_000700', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_000200', '02_090_001600', '02_090_000900', '02_090_001000', '02_090_000800', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001402', '02_090_001901', '02_290_000200', '02_068_000100']</t>
-        </is>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>[0.5345792872938175, 0.02431321430270823, 0.25303165268718136, 0.23769511848540026, 0.0, 1.7977278932323967e-14, 1.0000000000000013, 0.9037205437832657, 0.9999999999999696, 0.9814702905469461, 0.0, 8.818336395819544e-16, 0.3129579369462503, 0.2800190897580212, 8.005612271793934e-17, 2.991583098847355e-17]</t>
+          <t>02_090_000700, 02_090_001700, 02_090_001300, 02_090_000600, 02_090_000200, 02_090_001600, 02_090_000900, 02_090_001000, 02_090_000800, 02_090_980000, 02_240_000400, 02_090_980100, 02_090_001402, 02_090_001901, 02_290_000200, 02_068_000100</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>0.5345792872938175, 0.02431321430270823, 0.25303165268718136, 0.23769511848540026, 0.0, 1.7977278932323967e-14, 1.0000000000000013, 0.9037205437832657, 0.9999999999999696, 0.9814702905469461, 0.0, 8.818336395819544e-16, 0.3129579369462503, 0.2800190897580212, 8.005612271793934e-17, 2.991583098847355e-17</t>
         </is>
       </c>
     </row>
@@ -16556,18 +14504,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>['02_180_000100', '02_180_000200', '02_050_000100', '02_158_000100', '02_290_000400', '02_290_000300', '02_188_000100']</t>
-        </is>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>[0.9999999999999938, 0.999999999999985, 3.781249836453254e-17, 0.7903181132887229, 2.5927144865927083e-17, 6.512655212815716e-17, 7.250165898100104e-16]</t>
+          <t>02_180_000100, 02_180_000200, 02_050_000100, 02_158_000100, 02_290_000400, 02_290_000300, 02_188_000100</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>0.9999999999999938, 0.999999999999985, 3.781249836453254e-17, 0.7903181132887229, 2.5927144865927083e-17, 6.512655212815716e-17, 7.250165898100104e-16</t>
         </is>
       </c>
     </row>
@@ -16606,18 +14548,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>['02_195_000200', '02_105_000400', '02_110_000300', '02_110_000400', '02_110_000600', '02_110_000100', '02_110_000200', '02_110_000500']</t>
-        </is>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>[0.0, 9.65329594315776e-08, 0.4493851360517609, 0.9999999999999916, 1.0000000000000004, 7.34121626137386e-15, 0.12424966250439166, 0.9564783531153013]</t>
+          <t>02_195_000200, 02_105_000400, 02_110_000300, 02_110_000400, 02_110_000600, 02_110_000100, 02_110_000200, 02_110_000500</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>0.0, 9.65329594315776e-08, 0.4493851360517609, 0.9999999999999916, 1.0000000000000004, 7.34121626137386e-15, 0.12424966250439166, 0.9564783531153013</t>
         </is>
       </c>
     </row>
@@ -16656,18 +14592,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>['02_063_000300', '02_066_000100', '02_063_000200', '02_020_002900', '02_122_000300', '02_122_000400', '02_122_001200', '02_122_001300', '02_282_000100', '02_150_000100', '02_150_000400', '02_150_000300', '02_150_000500', '02_150_000200']</t>
-        </is>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>[0.639994859535037, 6.582288126471695e-16, 0.9989682641691428, 0.0, 0.00427042805477334, 0.0033754726794943124, 0.12075223349587223, 0.8935162134048636, 0.0, 0.7336729895774584, 1.0000000000000009, 1.0000000000000036, 0.9999999999999977, 0.9999999999999998]</t>
+          <t>02_063_000300, 02_066_000100, 02_063_000200, 02_020_002900, 02_122_000300, 02_122_000400, 02_122_001200, 02_122_001300, 02_282_000100, 02_150_000100, 02_150_000400, 02_150_000300, 02_150_000500, 02_150_000200</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>0.639994859535037, 6.582288126471695e-16, 0.9989682641691428, 0.0, 0.00427042805477334, 0.0033754726794943124, 0.12075223349587223, 0.8935162134048636, 0.0, 0.7336729895774584, 1.0000000000000009, 1.0000000000000036, 0.9999999999999977, 0.9999999999999998</t>
         </is>
       </c>
     </row>
@@ -16706,18 +14636,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>['02_122_000701', '02_122_000702', '02_122_001000', '02_122_000800', '02_122_000100', '02_122_000900', '02_122_001100', '02_122_000400', '02_122_001200', '02_122_001300']</t>
-        </is>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>[0.9497673495591619, 1.447298443550941e-14, 0.9999999999999997, 0.9999999999999954, 5.800744114643637e-16, 1.0000000000000002, 0.9999999999999992, 0.3451238858362741, 0.45221585151822274, 0.0013146659444383498]</t>
+          <t>02_122_000701, 02_122_000702, 02_122_001000, 02_122_000800, 02_122_000100, 02_122_000900, 02_122_001100, 02_122_000400, 02_122_001200, 02_122_001300</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>0.9497673495591619, 1.447298443550941e-14, 0.9999999999999997, 0.9999999999999954, 5.800744114643637e-16, 1.0000000000000002, 0.9999999999999992, 0.3451238858362741, 0.45221585151822274, 0.0013146659444383498</t>
         </is>
       </c>
     </row>
@@ -16756,18 +14680,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>['02_122_000701', '02_122_000702', '02_122_000100', '02_122_000400', '02_122_000500', '02_122_000600', '02_122_000200']</t>
-        </is>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>[0.02287844987680599, 0.9999999999999861, 2.4368859797933716e-16, 0.00023181907915338718, 0.437974234154288, 0.9999999999999926, 2.6122090014420603e-15]</t>
+          <t>02_122_000701, 02_122_000702, 02_122_000100, 02_122_000400, 02_122_000500, 02_122_000600, 02_122_000200</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>0.02287844987680599, 0.9999999999999861, 2.4368859797933716e-16, 0.00023181907915338718, 0.437974234154288, 0.9999999999999926, 2.6122090014420603e-15</t>
         </is>
       </c>
     </row>
@@ -16806,18 +14724,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>['02_020_002813', '02_063_000300', '02_020_000204', '02_020_002812', '02_020_002823', '02_020_000101', '02_020_002822', '02_020_002900', '02_020_980000', '02_020_002713', '02_020_980200', '02_122_000300', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>[0.87943533446792, 0.002555739655435708, 0.0511554058073953, 1.0593459887523495e-13, 0.9999999999999742, 0.09178625023417086, 0.9999999999999952, 0.8830501610235308, 3.625090202615931e-14, 0.15661774858160885, 1.2016870867756113e-14, 1.7018210918910297e-15, 0.9988394304022818]</t>
+          <t>02_020_002813, 02_063_000300, 02_020_000204, 02_020_002812, 02_020_002823, 02_020_000101, 02_020_002822, 02_020_002900, 02_020_980000, 02_020_002713, 02_020_980200, 02_122_000300, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>0.87943533446792, 0.002555739655435708, 0.0511554058073953, 1.0593459887523495e-13, 0.9999999999999742, 0.09178625023417086, 0.9999999999999952, 0.8830501610235308, 3.625090202615931e-14, 0.15661774858160885, 1.2016870867756113e-14, 1.7018210918910297e-15, 0.9988394304022818</t>
         </is>
       </c>
     </row>
@@ -16856,18 +14768,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>['23_005_001500', '23_005_001700', '23_005_001800', '23_005_001900', '23_005_002001', '23_005_002002', '23_005_002102', '23_005_002200']</t>
-        </is>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>[0.27577810952031934, 0.32989948680283926, 0.03182809412306635, 0.857162643230102, 0.00047850737204681304, 0.038772276006230615, 0.0007486142895082741, 2.1670476728596087e-05]</t>
+          <t>23_005_001500, 23_005_001700, 23_005_001800, 23_005_001900, 23_005_002001, 23_005_002002, 23_005_002102, 23_005_002200</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>0.27577810952031934, 0.32989948680283926, 0.03182809412306635, 0.857162643230102, 0.00047850737204681304, 0.038772276006230615, 0.0007486142895082741, 2.1670476728596087e-05</t>
         </is>
       </c>
     </row>
@@ -16906,18 +14812,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>['23_005_004402', '23_005_004600', '23_005_004501', '23_005_004502', '23_005_004202', '23_005_002400', '23_005_011500', '23_005_004401']</t>
-        </is>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>[0.4779810741199127, 0.0005080965628275908, 0.0001452448456830048, 0.0003605573293583259, 0.10613928536909559, 0.052430844535102626, 5.114907880151442e-07, 0.9976249546225959]</t>
+          <t>23_005_004402, 23_005_004600, 23_005_004501, 23_005_004502, 23_005_004202, 23_005_002400, 23_005_011500, 23_005_004401</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>0.4779810741199127, 0.0005080965628275908, 0.0001452448456830048, 0.0003605573293583259, 0.10613928536909559, 0.052430844535102626, 5.114907880151442e-07, 0.9976249546225959</t>
         </is>
       </c>
     </row>
@@ -16956,18 +14856,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>['23_005_011300', '23_001_040000', '23_005_004501', '23_023_970302', '23_023_970301', '23_005_004502', '23_005_011205', '23_005_011204', '23_005_011203', '23_005_011206']</t>
-        </is>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>[0.9785786838680158, 1.4358859957191859e-05, 5.114633085935321e-05, 0.0012294235484422605, 0.00042636719248090354, 0.0005179001083850956, 0.2273542190955924, 0.999419642335076, 0.3773543502297297, 0.3583101597347688]</t>
+          <t>23_005_011300, 23_001_040000, 23_005_004501, 23_023_970302, 23_023_970301, 23_005_004502, 23_005_011205, 23_005_011204, 23_005_011203, 23_005_011206</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>0.9785786838680158, 1.4358859957191859e-05, 5.114633085935321e-05, 0.0012294235484422605, 0.00042636719248090354, 0.0005179001083850956, 0.2273542190955924, 0.999419642335076, 0.3773543502297297, 0.3583101597347688</t>
         </is>
       </c>
     </row>
@@ -17006,18 +14900,12 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>['23_013_971000', '23_015_990000', '23_015_975500', '23_015_975300', '23_015_975600', '23_015_975700', '23_015_975400', '23_015_975200', '23_015_975100']</t>
-        </is>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>[1.3778628640627613e-06, 2.4812534710964504e-05, 8.212648519663212e-05, 0.6235016933267187, 0.726637392170725, 0.1936803898574135, 0.43598503567325386, 0.00020727496894278313, 7.140939220465347e-05]</t>
+          <t>23_013_971000, 23_015_990000, 23_015_975500, 23_015_975300, 23_015_975600, 23_015_975700, 23_015_975400, 23_015_975200, 23_015_975100</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>1.3778628640627613e-06, 2.4812534710964504e-05, 8.212648519663212e-05, 0.6235016933267187, 0.726637392170725, 0.1936803898574135, 0.43598503567325386, 0.00020727496894278313, 7.140939220465347e-05</t>
         </is>
       </c>
     </row>
@@ -17054,8 +14942,6 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -17090,8 +14976,6 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -17130,22 +15014,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -17184,22 +15054,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -17238,22 +15094,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -17292,22 +15134,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -17346,22 +15174,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -17400,22 +15214,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -17454,22 +15254,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I345" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -17508,22 +15294,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I346" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -17562,22 +15334,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I347" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -17616,22 +15374,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I348" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -17670,22 +15414,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I349" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -17724,22 +15454,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I350" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -17778,22 +15494,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I351" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -17832,22 +15534,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -17886,22 +15574,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I353" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -17940,22 +15614,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I354" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -17994,22 +15654,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I355" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -18048,22 +15694,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I356" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -18097,27 +15729,9 @@
       <c r="G357" t="n">
         <v>2022</v>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>oakland_city_council_2022.csv</t>
-        </is>
-      </c>
-      <c r="I357" t="inlineStr">
-        <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>[409000, 426100, 405000, 406000, 407500, 408700, 408800, 407200, 407300, 407400, 407600, 427100, 427200, 406500, 406601, 405600, 406400, 405700, 405800, 404700, 404800, 404900, 406602, 407101, 407102, 406201, 406202, 406300, 406100]</t>
-        </is>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>[0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101]</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -18151,27 +15765,9 @@
       <c r="G358" t="n">
         <v>2022</v>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>oakland_city_council_2022.csv</t>
-        </is>
-      </c>
-      <c r="I358" t="inlineStr">
-        <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>[401400, 401500, 402400, 401600, 402200, 402500, 402600, 402700, 403000, 403100, 403900, 404000, 403600, 406000, 401800, 401000, 401200, 401300, 401100, 402900, 427300, 401700, 983200, 410500, 425104, 981900, 428700, 403701, 982000, 403702, 425101, 403502, 403401, 403402, 403302, 402801, 402802, 403301, 405200, 990000, 990200, 403501]</t>
-        </is>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>[0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759]</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -18212,18 +15808,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>[0.7645935973321921, 0.6051995434386682, 0.9788964128519579, 0.9998619152754435, 0.0004070274593684326, 0.9970452673752833, 0.10464123487881022, 0.01156552989184899, 0.12484092157187544, 0.9997176928528252, 0.22396852451477223, 0.99891819645774, 0.8652205961895646, 0.15661427450695206, 0.0029940024042560283, 0.7949380516082937, 0.2170941280860057, 0.004933188299563975, 0.0011003421866174008, 0.15860436607921663, 0.0006646815243906276, 0.9518975244578656, 0.9999999999999999, 0.03984052360928679, 1.0000000000000002, 0.3743142943374305, 0.9863459607967624, 0.11024574671034577, 1.0000000000000004, 0.013941000447866912]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>0.0010627951810134944, 0.0032080397254399384, 0.993112484386575, 0.0007475180264288983, 0.9768473329237397, 0.0046865704888829724, 0.21643572257431073, 0.15797562042945423, 0.15387895627562354, 1.0000000000000002, 0.8567996227969332, 1.0000000000000016, 0.7949353764356766, 0.999856825323569, 0.9971579848201868, 0.01429700673269928, 0.03994289435815528, 0.9947709841951301, 0.10117740112736485, 7.940893419061824e-06, 0.004739592986611635, 0.3728272133471886, 0.10994418133286858, 0.6065121781936023, 0.7686769910093971, 0.9925747496879975, 0.9528231915931671, 0.2234250900543962, 1.0, 0.1252607257949974</t>
         </is>
       </c>
     </row>
@@ -18266,18 +15856,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>[354001, 401400, 400500, 404501, 403900, 404000, 400600, 400100, 426100, 422000, 400900, 400700, 400800, 400200, 400300, 423902, 404200, 421600, 400400, 401000, 404400, 401200, 401300, 401100, 353001, 423901, 423700, 423800, 424001, 424002, 426200, 425104, 404102, 425103, 404101, 404300, 403501]</t>
-        </is>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>[0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06]</t>
+          <t>06_013_354001, 06_001_401400, 06_001_400500, 06_001_404501, 06_001_403900, 06_001_404000, 06_001_400600, 06_001_400100, 06_001_426100, 06_001_422000, 06_001_400900, 06_001_400700, 06_001_400800, 06_001_400200, 06_001_400300, 06_001_423902, 06_001_404200, 06_001_421600, 06_001_400400, 06_001_401000, 06_001_404400, 06_001_401200, 06_001_401300, 06_001_401100, 06_013_353001, 06_001_423901, 06_001_423700, 06_001_423800, 06_001_424001, 06_001_424002, 06_001_426200, 06_001_425104, 06_001_404102, 06_001_425103, 06_001_404101, 06_001_404300, 06_001_403501</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06</t>
         </is>
       </c>
     </row>
@@ -18320,18 +15904,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>[401400, 401500, 402400, 401600, 402200, 402500, 402600, 402700, 403000, 403100, 403900, 404000, 403600, 406000, 401800, 401000, 401200, 401300, 401100, 402900, 427300, 401700, 983200, 410500, 425104, 981900, 428700, 403701, 982000, 403702, 425101, 403502, 403401, 403402, 403302, 402801, 402802, 403301, 405200, 990000, 990200, 403501]</t>
-        </is>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>[0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759]</t>
+          <t>06_001_401400, 06_001_401500, 06_001_402400, 06_001_401600, 06_001_402200, 06_001_402500, 06_001_402600, 06_001_402700, 06_001_403000, 06_001_403100, 06_001_403900, 06_001_404000, 06_001_403600, 06_001_406000, 06_001_401800, 06_001_401000, 06_001_401200, 06_001_401300, 06_001_401100, 06_001_402900, 06_001_427300, 06_001_401700, 06_001_983200, 06_001_410500, 06_001_425104, 06_001_981900, 06_001_428700, 06_001_403701, 06_001_982000, 06_001_403702, 06_001_425101, 06_001_403502, 06_001_403401, 06_001_403402, 06_001_403302, 06_001_402801, 06_001_402802, 06_001_403301, 06_001_405200, 06_001_990000, 06_075_990200, 06_001_403501</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759</t>
         </is>
       </c>
     </row>
@@ -18374,18 +15952,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>[409000, 426100, 405000, 406000, 407500, 408700, 408800, 407200, 407300, 407400, 407600, 427100, 427200, 406500, 406601, 405600, 406400, 405700, 405800, 404700, 404800, 404900, 406602, 407101, 407102, 406201, 406202, 406300, 406100]</t>
-        </is>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>[0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101]</t>
+          <t>06_001_409000, 06_001_426100, 06_001_405000, 06_001_406000, 06_001_407500, 06_001_408700, 06_001_408800, 06_001_407200, 06_001_407300, 06_001_407400, 06_001_407600, 06_001_427100, 06_001_427200, 06_001_406500, 06_001_406601, 06_001_405600, 06_001_406400, 06_001_405700, 06_001_405800, 06_001_404700, 06_001_404800, 06_001_404900, 06_001_406602, 06_001_407101, 06_001_407102, 06_001_406201, 06_001_406202, 06_001_406300, 06_001_406100</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101</t>
         </is>
       </c>
     </row>
@@ -18428,18 +16000,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>[410000, 432800, 409000, 409800, 408100, 410300, 409900, 408300, 409200, 409300, 408500, 408600, 408800, 408900, 409100, 409400, 409500, 409600, 409700, 410100, 410200, 410400, 407300, 428301, 432100, 430400, 433400, 430102, 432200, 432300, 432700, 432502, 990100, 990000, 432400]</t>
-        </is>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>[0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261]</t>
+          <t>06_001_410000, 06_001_432800, 06_001_409000, 06_001_409800, 06_001_408100, 06_001_410300, 06_001_409900, 06_001_408300, 06_001_409200, 06_001_409300, 06_001_408500, 06_001_408600, 06_001_408800, 06_001_408900, 06_001_409100, 06_001_409400, 06_001_409500, 06_001_409600, 06_001_409700, 06_001_410100, 06_001_410200, 06_001_410400, 06_001_407300, 06_001_428301, 06_001_432100, 06_001_430400, 06_001_433400, 06_001_430102, 06_001_432200, 06_001_432300, 06_001_432700, 06_001_432502, 06_081_990100, 06_001_990000, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261</t>
         </is>
       </c>
     </row>
@@ -18482,18 +16048,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>[402900, 405000, 403300, 405401, 403900, 406100, 405700, 404000, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 406400, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>[0.0004999497275502113, 0.49863585293245516, 0.4858514297698514, 1.0, 0.9987668969721312, 0.004724218362421146, 0.42150372211992154, 0.0016857449174700815, 0.7243164529541289, 0.15792098592982368, 0.0001872956113276651, 0.0027054803100405363, 0.0015957614900758623, 1.0, 0.10648623467539323, 0.9874504505049675, 0.9963304091068981, 0.9971933424007746, 0.9709093150691882, 0.007436566736748314, 0.9999991476924319, 0.011282786161414435, 0.9996797271803898, 0.9999999999999999, 0.9973402770218983, 0.0028439953747610505, 0.005670683863005139, 0.9956559817414493, 0.2151532534283385, 1.0, 4.425473547037609e-09, 0.9964913749893776, 0.00016370775906020236]</t>
+          <t>06_001_405800, 06_001_402900, 06_001_405000, 06_001_405200, 06_001_403702, 06_001_405500, 06_001_403600, 06_001_403800, 06_001_427300, 06_001_403300, 06_001_406300, 06_001_427200, 06_001_405902, 06_001_983200, 06_001_405700, 06_001_405600, 06_001_404900, 06_001_406201, 06_001_403900, 06_001_403000, 06_001_406100, 06_001_403400, 06_001_426100, 06_001_405901, 06_001_405402, 06_001_404000, 06_001_405100, 06_001_405401, 06_001_405302, 06_001_405301, 06_001_426200, 06_001_406000</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
     </row>
@@ -18536,18 +16096,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>[0.7677292811622569, 0.4878513641825002, 0.9875376727646378, 0.9999999999999999, 0.0013002576386151583, 0.9994196817902945, 0.0343692404845977, 0.0036141994136472317, 0.15227970869144272, 0.9946933827419492, 0.45190103534390486, 0.9973412159111323, 0.8653970758995685, 0.0052912416775965105, 0.0034409974255693453, 0.5764479705398784, 0.12378770134065104, 0.0063408794050916865, 0.0015485555719296463, 0.1633593692005633, 0.00014963309253527605, 0.999771354049716, 0.9999999999999999, 0.0796154101334587, 1.0000000000000002, 0.3756858239392752, 0.9884702074019383, 0.11177113229951395, 1.0000000000000004, 4.240015250145095e-06]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
     </row>
@@ -18590,18 +16144,12 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409000, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>[0.9999827045210273, 0.994308186917521, 4.4661900667418554e-05, 0.006075786241988535, 0.2861474234149392, 0.20437778708245594, 0.9999998755945416, 0.6232914417410853, 9.319125075570363e-05, 0.9998436596898741, 0.13460292410043967, 0.9947087583223345, 0.2362410598575429, 0.8762122986592544, 0.9907343149304814, 0.025977144002550884, 0.4363877858902382, 0.0004213552431639612, 1.0000000000000002, 1.984418283882492e-06, 0.3707235533165565, 0.9203795706572192, 0.01061615781161689, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407500, 06_001_409900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
     </row>
@@ -18644,18 +16192,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 403600, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 404502, 401100, 425104, 423800, 422600, 400100, 400800, 401200, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>[8.108544361627887e-05, 0.013812172951728242, 1.0000000000000002, 1.0, 0.9997175244314838, 0.005203684315170878, 0.004312486902487608, 0.0042931082233909615, 0.992062648036296, 0.9980779162368354, 0.0009432222363002836, 0.948870355376314, 0.00015148367872345393, 0.008881876189025983, 0.9982870009037823, 0.0023039623444210864, 0.0028028762152057193, 6.528512258157975e-06, 0.00019656834224763496, 0.7704347310246301, 0.9986627440618165, 0.9964681151240459, 0.0071908945579712965, 0.035903831202976105, 0.9888273767207144, 0.9999999937752034, 0.005498848901854908, 0.01464034145770446, 0.008089361797761764, 0.04604019315987436, 0.8407680826044995, 0.030546016845849767, 0.0028738792749451276, 3.021589114891565e-05, 0.9846245072264328, 0.994449593364898, 0.9085580501752115, 0.9997453284368248, 0.015978863821291548, 0.9958405820623568]</t>
+          <t>06_013_354001, 06_013_353001, 06_001_423800, 06_001_421600, 06_001_404300, 06_001_425103, 06_001_404102, 06_001_404501, 06_001_424001, 06_001_403501, 06_001_403600, 06_001_400500, 06_001_423700, 06_001_425104, 06_001_401300, 06_001_404200, 06_001_403900, 06_001_400600, 06_001_426100, 06_001_400800, 06_001_404000, 06_001_400700, 06_001_400200, 06_001_400300, 06_001_404101, 06_001_401100, 06_001_401400, 06_001_404502, 06_001_426200, 06_001_401000, 06_001_400900, 06_001_400100, 06_001_404400, 06_001_400400, 06_001_401200, 06_001_423902, 06_001_423901, 06_001_424002, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>0.014696611122848353, 0.005030362273846488, 0.0028318223805199327, 0.002684398779517433, 0.994760884632867, 0.007026289953628835, 0.9999999947898024, 0.004493804394021167, 0.017620070334289684, 0.006738376431197547, 0.00018522633118634943, 0.9971116248390315, 0.01618011059289278, 0.022306701564252084, 9.439148932459096e-05, 0.9874644890510079, 0.0064239404802395985, 1.0000000000000007, 0.0024603391880098323, 0.9852659489062447, 0.9434900352039545, 0.9877417101648296, 0.9861028142876566, 0.9999999999999997, 0.9948239859199954, 0.8380022117928736, 0.004561300071685791, 0.045786739079560816, 0.002504211647361193, 0.9993926450405061, 0.9735873844760757, 0.9850083083226198, 0.7701520394635946, 0.9980947826892871, 0.9086246526957307, 0.024036287718993743, 0.010577661024551032, 0.03258096695276012, 0.00017404507978708433, 0.007128817371318812</t>
         </is>
       </c>
     </row>
@@ -18698,18 +16240,12 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 17902, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 0.04925135571359105, 0.9992497039443016, 0.9999999999999998, 0.9999189145562911, 0.5139556780373109, 0.00020075771346711783, 0.994796315684734, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 0.01180872740393969, 1.0, 0.9999999999999998, 0.004452239746500897, 0.9261354929017194, 0.9971971237849557, 0.8768791513738948, 0.9999999999999996, 1.0, 0.2782364560191839, 1.0, 0.03488910086935647, 1.0000000000000002, 0.27417102515272274, 0.21189028298671833, 0.033284627494764935, 0.9997419374624053, 0.15923191739547352, 8.784094243099689e-05, 0.9999999999999996, 0.9474445352016585, 0.09144194982491595, 0.6673724407643923, 0.9999894153231295]</t>
+          <t>06_001_402900, 06_001_402200, 06_001_405200, 06_001_403702, 06_001_403701, 06_001_403502, 06_001_403501, 06_001_428700, 06_001_981900, 06_001_403600, 06_001_427300, 06_001_403100, 06_001_403300, 06_001_425104, 06_001_410500, 06_001_983200, 06_001_982000, 06_001_402500, 06_001_401300, 06_001_402700, 06_001_403000, 06_001_403400, 06_001_401600, 06_001_402400, 06_001_402800, 06_001_401800, 06_001_402600, 06_001_404000, 06_001_401500, 06_001_405302, 06_001_405301, 06_001_990000, 06_001_401100, 06_001_401400, 06_001_406000, 06_001_401000, 06_001_401200, 06_001_401700, 06_075_017902</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>0.9999999999999998, 1.0000000000000007, 0.2152003796668561, 0.9545778515330581, 1.0, 0.9999999999999998, 0.9932616235687987, 0.03777243320466729, 1.0000000000000009, 0.8677574319302781, 0.033560411657890386, 1.0000000000000004, 0.5092270256157329, 0.0042002882635206115, 1.0000000000000002, 0.9999738944280142, 1.0, 1.0000000000000004, 0.9999056085106456, 1.0000000000000002, 0.03252516088801953, 0.9319351520637771, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.006806481329788015, 0.9997867169868059, 0.2704858343756534, 0.6519466849733234, 0.03539559412975538, 0.16199778820715693, 0.9954386999283149, 0.003924654573319967, 0.0004052623256769898, 0.09137534730426908, 0.9677157491620743, 0.04267586814465963</t>
         </is>
       </c>
     </row>
@@ -18752,18 +16288,12 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>[406601, 405000, 406602, 407300, 406100, 405700, 404700, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 428301, 406300, 407600, 406202, 405100, 407400, 405901, 409000, 427200, 407102, 406201, 407101, 405800, 406400]</t>
-        </is>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>[0.23540640266772153, 0.5497024752693102, 0.3948004565615807, 0.4842929423487521, 0.9937533180564817, 0.5728326714061863, 0.0001429729449257285, 0.04609872592682563, 0.9999999999999997, 0.26536022271642684, 0.8949595823096742, 0.00031078166367081003, 0.8751590784281726, 0.01120106976153418, 0.00028230714706211854, 2.5736251112413705e-05, 0.9951578316789268, 0.18779017183963181, 0.9999999999999998, 0.0018644331036478078, 0.4017818747471255, 0.006769203649743787, 0.0018531227793883952, 0.0487733469864914, 0.6256857056625664, 0.9975494698507898, 0.8897542532895898, 0.007412756025164851, 0.9860589995519746]</t>
+          <t>06_001_405800, 06_001_407300, 06_001_405000, 06_001_409000, 06_001_407400, 06_001_427100, 06_001_407600, 06_001_406300, 06_001_427200, 06_001_406202, 06_001_404800, 06_001_406400, 06_001_405700, 06_001_405600, 06_001_404700, 06_001_404900, 06_001_406201, 06_001_406100, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_405901, 06_001_407200, 06_001_406000, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>0.004711937692338354, 0.4887322319766512, 0.5535479150538906, 0.001588352692283609, 0.4018496867158882, 0.009068279544011527, 0.18808779766192243, 1.0000000000000009, 0.04187921326680131, 0.9999999999999997, 0.002842015179801912, 0.9857029932673116, 0.5707212162892621, 0.01268969321880255, 1.2395538817160178e-05, 0.8981779823454001, 1.0000000000000002, 0.9939000792143817, 1.150443299756236e-07, 0.6271727866528022, 0.8900558186671315, 0.3934878218063907, 0.23132300899060138, 0.00475531353127123, 1.0000000000000002, 0.2625112829603036, 0.8747392742050064</t>
         </is>
       </c>
     </row>
@@ -18806,18 +16336,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>[410400, 408300, 409500, 409900, 407300, 409700, 408800, 410200, 432400, 409100, 410000, 410300, 408900, 409200, 410100, 432502, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
-        </is>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>[0.9996644218110333, 0.0059711687749702674, 0.9979682996631221, 0.9918071992521879, 0.025663437479815934, 0.7972950206744407, 0.3732784545355358, 0.9998173882034194, 0.019151235726654867, 1.0, 0.9184047907226011, 1.0000000000000002, 0.993312510263488, 0.9806545207207364, 0.9999196764677503, 0.00705355752482992, 0.021227082233637888, 0.0012241060153903231, 0.9738462270230294, 0.0610951738914894, 0.0012068399726919978, 0.9956131822847882, 0.9702879937328869, 0.6282020037845263, 0.0013771031367038687, 0.000671669394001139, 1.0, 0.0014030294100334838]</t>
+          <t>06_081_990100, 06_001_432200, 06_001_407300, 06_001_430102, 06_001_410300, 06_001_409400, 06_001_409000, 06_001_409700, 06_001_408100, 06_001_428301, 06_001_409100, 06_001_410000, 06_001_410400, 06_001_409900, 06_001_410200, 06_001_432800, 06_001_408900, 06_001_410100, 06_001_432502, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_990000, 06_001_408800, 06_001_409200, 06_001_432300, 06_001_409300, 06_001_408300, 06_001_432400, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>1.3665280109173466e-05, 0.0008407266239658177, 0.02459553982269143, 6.15095392641679e-05, 1.0000000000000004, 1.0000000000000004, 0.9683791755711295, 0.7963967968732273, 6.477941319269415e-06, 0.053393686509186945, 1.0000000000000004, 0.8952271556865586, 0.9999772994042383, 0.979183543644267, 0.9998240965522985, 0.003380754294167634, 0.9933978129215112, 0.9997593509575978, 3.3962346957954694e-05, 0.6321709047320416, 0.9839098346308706, 0.9965923606243321, 0.2684011219594302, 0.3698714763110789, 0.9757785131907507, 0.004487644352867498, 0.9972969991686669, 0.0004804688356651006, 0.018349581497950226, 0.023104188687024983</t>
         </is>
       </c>
     </row>
@@ -18860,18 +16384,12 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>[0.7677292811622569, 0.4878513641825002, 0.9875376727646378, 0.9999999999999999, 0.0013002576386151583, 0.9994196817902945, 0.0343692404845977, 0.0036141994136472317, 0.15227970869144272, 0.9946933827419492, 0.45190103534390486, 0.9973412159111323, 0.8653970758995685, 0.0052912416775965105, 0.0034409974255693453, 0.5764479705398784, 0.12378770134065104, 0.0063408794050916865, 0.0015485555719296463, 0.1633593692005633, 0.00014963309253527605, 0.999771354049716, 0.9999999999999999, 0.0796154101334587, 1.0000000000000002, 0.3756858239392752, 0.9884702074019383, 0.11177113229951395, 1.0000000000000004, 4.240015250145095e-06]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
     </row>
@@ -18914,18 +16432,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409000, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>[0.9999827045210273, 0.994308186917521, 4.4661900667418554e-05, 0.006075786241988535, 0.2861474234149392, 0.20437778708245594, 0.9999998755945416, 0.6232914417410853, 9.319125075570363e-05, 0.9998436596898741, 0.13460292410043967, 0.9947087583223345, 0.2362410598575429, 0.8762122986592544, 0.9907343149304814, 0.025977144002550884, 0.4363877858902382, 0.0004213552431639612, 1.0000000000000002, 1.984418283882492e-06, 0.3707235533165565, 0.9203795706572192, 0.01061615781161689, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407500, 06_001_409900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
     </row>
@@ -18968,18 +16480,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 401100, 425104, 423800, 400100, 400800, 401200, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>[2.656209932681672e-05, 0.01112123489363668, 1.0000000000000002, 1.0, 0.9977244426022931, 0.002952584727418623, 0.00026767918881271286, 0.0019107257353898047, 0.9970257984630003, 0.9992411667912338, 0.003022693754780759, 0.9680351080719733, 0.0004576310444903695, 0.012895325220125693, 0.9991369618634541, 0.004587311345210553, 1.3595576217647143e-08, 2.590665602298652e-05, 0.5470567456152344, 0.9984706035248687, 0.9964772950395623, 0.0013424026365416633, 0.03218910294001414, 0.9958706707417351, 0.9999999999999999, 0.0020897682144825204, 0.007188464292424194, 0.01797643756265914, 0.8342022863835278, 0.006525690020902253, 0.0026608621812159194, 0.9916029318356501, 0.9926343779854776, 0.9062776786431412, 0.999529996946345, 0.015989876772205595, 0.997581286700642]</t>
+          <t>06_013_354001, 06_013_353001, 06_001_423800, 06_001_421600, 06_001_404300, 06_001_425103, 06_001_404102, 06_001_404501, 06_001_424001, 06_001_403501, 06_001_400500, 06_001_423700, 06_001_425104, 06_001_401300, 06_001_404200, 06_001_403900, 06_001_400600, 06_001_426100, 06_001_400800, 06_001_404000, 06_001_400700, 06_001_401500, 06_001_400200, 06_001_400300, 06_001_404101, 06_001_401100, 06_001_401400, 06_001_426200, 06_001_401000, 06_001_400900, 06_001_400100, 06_001_404400, 06_001_400400, 06_001_401200, 06_001_423902, 06_001_423901, 06_001_424002, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>0.0067887205079617055, 0.0015391255728193192, 0.0020552173694893166, 0.002680472593695675, 0.9947700098967562, 0.0013036741774581574, 1.0000000000000002, 0.0005993884095856405, 0.01931626062404116, 2.6182091213769463e-06, 0.9960514126878179, 0.02531315565161337, 0.005634643724556976, 6.991874059631552e-06, 0.9936781052052928, 0.0011873331042474493, 1.0000000000000007, 0.0044628337844955885, 0.981938027986616, 0.9762498585231889, 0.9879093703428604, 2.0664788211457506e-05, 0.9858031592111738, 0.9999999999999997, 0.9976728213953011, 0.8314362094571293, 0.00024251822271030292, 0.004397440709882871, 0.991497511432827, 0.9812135951851498, 0.9918698878032208, 0.5467439193823153, 0.9985930776454361, 0.9064150840599814, 0.036445388889006856, 0.011963736718719427, 0.03215493905107363, 0.004475913618253192, 0.006397957003133912</t>
         </is>
       </c>
     </row>
@@ -19022,18 +16528,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 403900, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>[0.9995000502724857, 1.0, 0.0253306837873711, 0.9996341558474179, 0.9999999999999998, 0.9999734379005675, 0.5141485702300945, 0.0012191281292634267, 0.9970474152727935, 0.9999999999999998, 0.000589477744066462, 1.0, 1.0, 0.9999999999999998, 0.9995900384245058, 0.03027914701030403, 1.0, 0.9999999999999998, 0.0011003194203217295, 0.842079014070031, 0.9999999864044794, 0.893513765324486, 0.999978748455835, 1.0, 0.0036695908932477973, 1.0, 0.02909068493069756, 1.0000000000000002, 8.523077183612521e-07, 0.0030561554299491337, 0.9970874836287933, 0.16579771361665702, 0.0016275722910100705, 0.9999999999999996, 0.7848467465713239, 0.09372232135680356, 0.003508625010712741, 0.9961816118836267]</t>
+          <t>06_001_402900, 06_001_402200, 06_001_405200, 06_001_403702, 06_001_403701, 06_001_403502, 06_001_403501, 06_001_428700, 06_001_981900, 06_001_403600, 06_001_427300, 06_001_403100, 06_001_403300, 06_001_425104, 06_001_410500, 06_001_983200, 06_001_982000, 06_001_402500, 06_001_401300, 06_001_402700, 06_001_403900, 06_001_403000, 06_001_403400, 06_001_401600, 06_001_402400, 06_001_402800, 06_001_401800, 06_001_402600, 06_001_404000, 06_001_401500, 06_001_990000, 06_001_401100, 06_001_401400, 06_001_406000, 06_001_401000, 06_001_401200, 06_001_401700, 06_075_017902</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>0.9999775267963873, 1.0000000000000007, 9.55664440407178e-07, 0.8045967547440328, 1.0, 0.9999999999999998, 0.9999973817908929, 0.019749243196765794, 0.9891519237905889, 0.8859566876617134, 0.003082019355126612, 1.0000000000000004, 0.5105950861278049, 0.004161178477387086, 1.0000000000000002, 0.9782634868157625, 0.9995919690720226, 1.0000000000000004, 0.9999930081259307, 1.0000000000000002, 7.44717627738628e-05, 0.025879207965284697, 0.8403073967360203, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.01827835898736466, 0.999206580894849, 0.03380514233231011, 0.1685637905428793, 0.999757481777288, 0.0011246725436768823, 3.167127921880509e-05, 0.09358491594001864, 0.9631774290340557, 2.221911384119028e-05</t>
         </is>
       </c>
     </row>
@@ -19076,18 +16576,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>[406601, 405000, 406602, 407300, 406100, 405700, 408700, 404700, 408800, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 406300, 407600, 406202, 407400, 405901, 409000, 427200, 407500, 407102, 406201, 407101, 405800, 406400]</t>
-        </is>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>[0.23227071883764688, 0.5010254794742202, 0.5121486358176096, 0.6871348099812029, 0.9919093290425203, 0.5784962778800438, 1.2440552408659218e-07, 0.00014512105496026562, 0.0005224128254900748, 0.00016848831826374484, 0.9999999999999997, 0.2709636051965051, 0.9653726721550996, 3.895245878793784e-05, 0.8477202913086438, 0.012549549495068268, 0.005306617257858696, 0.9925634332629887, 0.18731096960271862, 0.9999999999999998, 0.40025284490916957, 0.002659722978040269, 0.00022690254096742625, 0.013260592417478838, 5.019209249383257e-06, 0.6243141760606364, 0.9943293161372108, 0.8882288677006079, 0.004344018258693942, 0.9999957555592354]</t>
+          <t>06_001_405800, 06_001_407300, 06_001_405000, 06_001_409000, 06_001_408700, 06_001_407400, 06_001_427100, 06_001_407600, 06_001_406300, 06_001_427200, 06_001_406202, 06_001_404800, 06_001_406400, 06_001_405700, 06_001_405600, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_406201, 06_001_406100, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_407200, 06_001_408800, 06_001_406000, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>8.131151498200891e-05, 0.681097803525554, 0.5013290407176527, 0.00014880324660171364, 1.262814850403896e-07, 0.39993838067849724, 2.1792518141814564e-06, 0.18761087952481248, 0.9984885515205657, 0.010751439978086067, 0.9999999999999997, 0.0026978699299492906, 0.9999972886713988, 0.57694024336863, 0.014046258597891277, 0.00010561105151224253, 5.134783543136277e-06, 0.9719253971701786, 0.9975019472717495, 0.9814152136362709, 6.759349948789213e-08, 0.6257852059000748, 0.8885609747819786, 0.5117493707375023, 0.22812829855554553, 1.0000000000000002, 0.0007063584443686103, 0.26352978056923343, 0.847381754678294</t>
         </is>
       </c>
     </row>
@@ -19130,18 +16624,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>[410400, 408600, 408300, 409500, 409900, 407300, 409700, 408800, 430400, 410200, 432400, 409100, 410000, 410300, 408900, 432700, 409200, 410100, 432502, 408500, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
-        </is>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>[0.9999248830771386, 1.7295479037207908e-05, 0.005691813082554984, 0.9999553380992199, 0.9927720174013653, 0.025273013853144483, 0.7956222129176046, 0.37618614543318385, 0.00037014235429576846, 1.0, 0.0027721275430710904, 1.0, 0.9939318350694749, 1.0000000000000002, 0.999906808749302, 1.1449734166373166e-05, 0.9828536924412588, 0.9999999999999993, 0.0074222227939128365, 0.00015634031004601367, 0.002211363708426982, 0.0019577360449498614, 0.9740228559973743, 0.00963000516489857, 0.0004179181992460182, 0.9961274735203688, 0.99767417190505, 0.629276446683574, 0.0017004386052384877, 0.001322049330742177, 1.0, 0.0015856808739012848]</t>
+          <t>06_081_990100, 06_001_432200, 06_001_407300, 06_001_430102, 06_001_410300, 06_001_409400, 06_001_409000, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_428301, 06_001_409100, 06_001_410000, 06_001_410400, 06_001_409900, 06_001_410200, 06_001_430400, 06_001_432800, 06_001_408900, 06_001_410100, 06_001_432502, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_990000, 06_001_408800, 06_001_409200, 06_001_432700, 06_001_432300, 06_001_409300, 06_001_408300, 06_001_432400, 06_001_432100, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>8.423374311592529e-05, 0.00165875609493979, 0.024194917817344657, 0.0004223440120539605, 1.0000000000000004, 1.0000000000000004, 0.9891925664292057, 0.00011690761259118062, 0.794712721211581, 4.999566107763076e-05, 0.06729587734991234, 1.0000000000000004, 0.9580983620613143, 0.9999999999999998, 0.9620559925452943, 0.9999999999999992, 0.0038010496594105122, 0.0034430248701252768, 1.0000000000000002, 0.9998976502178915, 0.0005822471271876824, 0.6318002946917548, 0.9841869995496813, 0.9998747506510213, 0.2755325802534351, 0.3727769004151381, 0.9777668368562132, 7.64377439686442e-06, 0.005047772746822691, 0.997585548744643, 8.559335906251925e-05, 0.005436440140424442, 0.022254206261718857, 3.6348652515142584e-05</t>
         </is>
       </c>
     </row>
@@ -19184,18 +16672,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>[403000, 403800, 403900, 404000, 403600, 426100, 405000, 406000, 402900, 426200, 427200, 427300, 983200, 405902, 405301, 403702, 405901, 403401, 403402, 403302, 403301, 405402, 405302, 405600, 405700, 405800, 405200, 405500, 405100, 404900, 405401, 406201, 406300, 406100]</t>
-        </is>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>[0.9740539494128935, 0.9986423019723067, 0.9987191162893216, 1.7866102372492876e-05, 0.11767435702348632, 8.654212847221973e-05, 0.49198152774429815, 0.7235449484963689, 2.149160546720488e-05, 0.0007207957695661198, 0.0008201125552428128, 0.0001135679180764878, 0.0013956970390052482, 0.9999999999999992, 1.0000000000000002, 0.18702508836876325, 1.0000000000000007, 0.1278353631180432, 0.6127592004138895, 0.3568307237183291, 0.9999458103142709, 1.0, 1.0000000000000002, 0.9859537337167655, 0.4230604541094936, 0.9999186883670997, 0.9999990483773302, 1.0000000000000002, 0.9997504117071532, 2.890145993456415e-05, 1.0000000000000007, 0.0024746928363626086, 0.0015115399453561884, 7.30028101877567e-05]</t>
+          <t>06_001_403000, 06_001_403800, 06_001_403900, 06_001_404000, 06_001_403600, 06_001_426100, 06_001_405000, 06_001_406000, 06_001_402900, 06_001_426200, 06_001_427200, 06_001_427300, 06_001_983200, 06_001_405902, 06_001_405301, 06_001_403702, 06_001_405901, 06_001_403401, 06_001_403402, 06_001_403302, 06_001_403301, 06_001_405402, 06_001_405302, 06_001_405600, 06_001_405700, 06_001_405800, 06_001_405200, 06_001_405500, 06_001_405100, 06_001_404900, 06_001_405401, 06_001_406201, 06_001_406300, 06_001_406100</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>0.9740539494128935, 0.9986423019723067, 0.9987191162893216, 1.7866102372492876e-05, 0.11767435702348632, 8.654212847221973e-05, 0.49198152774429815, 0.7235449484963689, 2.149160546720488e-05, 0.0007207957695661198, 0.0008201125552428128, 0.0001135679180764878, 0.0013956970390052482, 0.9999999999999992, 1.0000000000000002, 0.18702508836876325, 1.0000000000000007, 0.1278353631180432, 0.6127592004138895, 0.3568307237183291, 0.9999458103142709, 1.0, 1.0000000000000002, 0.9859537337167655, 0.4230604541094936, 0.9999186883670997, 0.9999990483773302, 1.0000000000000002, 0.9997504117071532, 2.890145993456415e-05, 1.0000000000000007, 0.0024746928363626086, 0.0015115399453561884, 7.30028101877567e-05</t>
         </is>
       </c>
     </row>
@@ -19238,18 +16720,12 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>[407900, 404501, 426100, 408100, 404502, 406800, 404200, 407500, 404400, 404600, 406700, 352202, 353001, 407800, 407000, 407400, 407600, 407700, 406900, 430102, 406500, 406601, 406400, 404700, 404800, 404900, 406602, 407101, 407102, 408000]</t>
-        </is>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>[0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443]</t>
+          <t>06_001_407900, 06_001_404501, 06_001_426100, 06_001_408100, 06_001_404502, 06_001_406800, 06_001_404200, 06_001_407500, 06_001_404400, 06_001_404600, 06_001_406700, 06_013_352202, 06_013_353001, 06_001_407800, 06_001_407000, 06_001_407400, 06_001_407600, 06_001_407700, 06_001_406900, 06_001_430102, 06_001_406500, 06_001_406601, 06_001_406400, 06_001_404700, 06_001_404800, 06_001_404900, 06_001_406602, 06_001_407101, 06_001_407102, 06_001_408000</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443</t>
         </is>
       </c>
     </row>
@@ -19292,18 +16768,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>[407900, 409800, 408100, 409900, 407500, 408300, 408200, 408400, 408500, 408600, 408700, 408800, 409500, 409600, 409700, 407800, 407300, 407400, 407600, 407700, 430102, 408000]</t>
-        </is>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>[0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05]</t>
+          <t>06_001_407900, 06_001_409800, 06_001_408100, 06_001_409900, 06_001_407500, 06_001_408300, 06_001_408200, 06_001_408400, 06_001_408500, 06_001_408600, 06_001_408700, 06_001_408800, 06_001_409500, 06_001_409600, 06_001_409700, 06_001_407800, 06_001_407300, 06_001_407400, 06_001_407600, 06_001_407700, 06_001_430102, 06_001_408000</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05</t>
         </is>
       </c>
     </row>
@@ -19340,8 +16810,6 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -19372,8 +16840,6 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -19404,8 +16870,6 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -19436,8 +16900,6 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -19468,8 +16930,6 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -19500,8 +16960,6 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -19532,8 +16990,6 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -19564,8 +17020,6 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -19596,8 +17050,6 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -19628,8 +17080,6 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -19660,8 +17110,6 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -19692,8 +17140,6 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -19732,18 +17178,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>['02_130_000400', '02_130_000102', '02_130_000101', '02_100_000100', '02_066_000100', '02_063_000200', '02_275_000300', '02_195_000200', '02_105_000400', '02_130_000200', '02_130_000300', '02_282_000100', '02_110_000600', '02_110_000500', '02_220_000200', '02_220_000100', '02_198_000300', '02_198_940100', '02_198_000100', '02_198_000200']</t>
-        </is>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>[0.9780559068559642, 0.7770836074795211, 0.9178572457810183, 5.4630806256108955e-22, 1.2314385530258742e-07, 6.362508825481e-07, 0.7702502043815671, 0.8013039114234937, 0.5526661874109627, 0.9810920658405352, 0.8731727070378424, 0.8669495794597193, 0.00019743959249441737, 2.283158977882209e-06, 0.33647925665142575, 0.6628183817181398, 0.9999925924988091, 0.5625797938385011, 0.520278899085319, 0.8869153011655176]</t>
+          <t>02_130_000400, 02_130_000102, 02_130_000101, 02_100_000100, 02_066_000100, 02_063_000200, 02_275_000300, 02_195_000200, 02_105_000400, 02_130_000200, 02_130_000300, 02_282_000100, 02_110_000600, 02_110_000500, 02_220_000200, 02_220_000100, 02_198_000300, 02_198_940100, 02_198_000100, 02_198_000200</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>0.9780559068559642, 0.7770836074795211, 0.9178572457810183, 5.4630806256108955e-22, 1.2314385530258742e-07, 6.362508825481e-07, 0.7702502043815671, 0.8013039114234937, 0.5526661874109627, 0.9810920658405352, 0.8731727070378424, 0.8669495794597193, 0.00019743959249441737, 2.283158977882209e-06, 0.33647925665142575, 0.6628183817181398, 0.9999925924988091, 0.5625797938385011, 0.520278899085319, 0.8869153011655176</t>
         </is>
       </c>
     </row>
@@ -19784,18 +17224,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>['02_122_000701', '02_122_000702', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_002900', '02_122_001000', '02_122_000800', '02_122_000900', '02_122_001100', '02_122_000300', '02_122_000400', '02_122_001200', '02_122_001300', '02_282_000100', '02_150_000100', '02_150_000400', '02_150_000300', '02_150_000500', '02_150_000200']</t>
-        </is>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>[0.24521027938565934, 3.3477238458051567e-09, 0.2612134052017336, 7.746463809050289e-06, 0.7538335573181438, 0.0, 0.30432437981727706, 0.5188865077175276, 0.8981365548977667, 0.8787297137468583, 0.0042666379776787385, 0.348503817337518, 0.352567379008241, 0.5827396543052646, 2.3038996321835619e-07, 0.429592282036733, 0.26182139057130527, 0.9886555965530444, 0.8683882272927937, 0.9591117564903244]</t>
+          <t>02_122_000701, 02_122_000702, 02_063_000300, 02_066_000100, 02_063_000200, 02_020_002900, 02_122_001000, 02_122_000800, 02_122_000900, 02_122_001100, 02_122_000300, 02_122_000400, 02_122_001200, 02_122_001300, 02_282_000100, 02_150_000100, 02_150_000400, 02_150_000300, 02_150_000500, 02_150_000200</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>0.24521027938565934, 3.3477238458051567e-09, 0.2612134052017336, 7.746463809050289e-06, 0.7538335573181438, 0.0, 0.30432437981727706, 0.5188865077175276, 0.8981365548977667, 0.8787297137468583, 0.0042666379776787385, 0.348503817337518, 0.352567379008241, 0.5827396543052646, 2.3038996321835619e-07, 0.429592282036733, 0.26182139057130527, 0.9886555965530444, 0.8683882272927937, 0.9591117564903244</t>
         </is>
       </c>
     </row>
@@ -19836,18 +17270,12 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>['02_122_000701', '02_122_000702', '02_063_000300', '02_020_002900', '02_122_000300', '02_122_000400', '02_122_000500', '02_122_000600', '02_122_000200', '02_122_001300']</t>
-        </is>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>[0.0502819701239947, 0.23190249056731935, 6.554251165482017e-08, 3.3929097664994244e-06, 0.9569261158088384, 0.6514961826624829, 0.9999999999999997, 0.39286513010780927, 0.5557336704281627, 0.10507286383995901]</t>
+          <t>02_122_000701, 02_122_000702, 02_063_000300, 02_020_002900, 02_122_000300, 02_122_000400, 02_122_000500, 02_122_000600, 02_122_000200, 02_122_001300</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>0.0502819701239947, 0.23190249056731935, 6.554251165482017e-08, 3.3929097664994244e-06, 0.9569261158088384, 0.6514961826624829, 0.9999999999999997, 0.39286513010780927, 0.5557336704281627, 0.10507286383995901</t>
         </is>
       </c>
     </row>
@@ -19888,18 +17316,12 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>['02_020_002811', '02_020_002813', '02_063_000300', '02_020_002712', '02_020_002711', '02_020_000204', '02_020_002812', '02_020_002823', '02_020_000101', '02_020_002822', '02_020_002900', '02_020_980000', '02_020_002714', '02_020_002713', '02_020_980200', '02_020_002305', '02_122_000300', '02_020_002502', '02_020_002601', '02_020_002501', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>[0.00011349652241317276, 0.8792924427190709, 0.0016315230077775186, 0.9981451221208688, 0.0005550192306712537, 0.05088688958678776, 0.0007492917304567686, 0.8865733261523986, 0.0918215473467712, 0.9999614695284681, 0.8018130037986373, 0.000110417455630574, 0.521389418659589, 0.113983675371878, 3.728200922009275e-05, 0.003909456965862781, 3.2754209399678155e-08, 1.234622689024034e-05, 0.004125414500191761, 0.0002935492024133793, 0.998813601025533]</t>
+          <t>02_020_002811, 02_020_002813, 02_063_000300, 02_020_002712, 02_020_002711, 02_020_000204, 02_020_002812, 02_020_002823, 02_020_000101, 02_020_002822, 02_020_002900, 02_020_980000, 02_020_002714, 02_020_002713, 02_020_980200, 02_020_002305, 02_122_000300, 02_020_002502, 02_020_002601, 02_020_002501, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>0.00011349652241317276, 0.8792924427190709, 0.0016315230077775186, 0.9981451221208688, 0.0005550192306712537, 0.05088688958678776, 0.0007492917304567686, 0.8865733261523986, 0.0918215473467712, 0.9999614695284681, 0.8018130037986373, 0.000110417455630574, 0.521389418659589, 0.113983675371878, 3.728200922009275e-05, 0.003909456965862781, 3.2754209399678155e-08, 1.234622689024034e-05, 0.004125414500191761, 0.0002935492024133793, 0.998813601025533</t>
         </is>
       </c>
     </row>
@@ -19940,18 +17362,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>['02_020_002602', '02_020_002811', '02_020_002813', '02_020_001732', '02_020_002712', '02_020_002812', '02_020_002823', '02_020_002603', '02_020_002822', '02_020_980000', '02_020_002713', '02_020_980200', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001801', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>[0.9972611340235377, 0.9998865034774218, 0.12070382168605569, 0.0003100198887649561, 4.970370876157558e-05, 0.9992507082695424, 4.293772965416458e-07, 1.0000000000000007, 3.8530471531999704e-05, 0.9997965239557738, 0.0, 1.8348477040673664e-05, 0.003785288359616831, 0.9824605852912667, 8.377201524089395e-05, 0.000139297235950782, 4.337612401414285e-05, 0.0011863989744723567]</t>
+          <t>02_020_002602, 02_020_002811, 02_020_002813, 02_020_001732, 02_020_002712, 02_020_002812, 02_020_002823, 02_020_002603, 02_020_002822, 02_020_980000, 02_020_002713, 02_020_980200, 02_020_001802, 02_020_002601, 02_020_001602, 02_020_001701, 02_020_001801, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>0.9972611340235377, 0.9998865034774218, 0.12070382168605569, 0.0003100198887649561, 4.970370876157558e-05, 0.9992507082695424, 4.293772965416458e-07, 1.0000000000000007, 3.8530471531999704e-05, 0.9997965239557738, 0.0, 1.8348477040673664e-05, 0.003785288359616831, 0.9824605852912667, 8.377201524089395e-05, 0.000139297235950782, 4.337612401414285e-05, 0.0011863989744723567</t>
         </is>
       </c>
     </row>
@@ -19992,18 +17408,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_000902', '02_020_002712', '02_020_002711', '02_020_001000', '02_020_001401', '02_020_001402', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_001601', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_002601', '02_020_001602', '02_020_002000', '02_020_002100', '02_020_002400', '02_020_001500', '02_020_002202', '02_020_002501', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>[7.236544247995435e-06, 0.12174648649118253, 0.0003878993669039387, 0.0, 0.0, 0.5636714893235503, 0.006559079846645152, 0.9044566883186003, 2.7990164691175192e-05, 5.42239881847244e-05, 8.921190047391095e-07, 0.9999876537731077, 0.00034744692728121043, 1.0000000000000016, 0.0134140002085417, 4.4488523865131365e-06, 1.0, 0.9079386216930775, 0.6743983469946722, 0.9997278804026153, 0.11921731274302477, 0.9982869548624264, 0.9999517805989615]</t>
+          <t>02_020_001300, 02_020_000902, 02_020_002712, 02_020_002711, 02_020_001000, 02_020_001401, 02_020_001402, 02_020_002305, 02_020_002304, 02_020_002302, 02_020_001601, 02_020_002502, 02_020_001802, 02_020_001900, 02_020_002601, 02_020_001602, 02_020_002000, 02_020_002100, 02_020_002400, 02_020_001500, 02_020_002202, 02_020_002501, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>7.236544247995435e-06, 0.12174648649118253, 0.0003878993669039387, 0.0, 0.0, 0.5636714893235503, 0.006559079846645152, 0.9044566883186003, 2.7990164691175192e-05, 5.42239881847244e-05, 8.921190047391095e-07, 0.9999876537731077, 0.00034744692728121043, 1.0000000000000016, 0.0134140002085417, 4.4488523865131365e-06, 1.0, 0.9079386216930775, 0.6743983469946722, 0.9997278804026153, 0.11921731274302477, 0.9982869548624264, 0.9999517805989615</t>
         </is>
       </c>
     </row>
@@ -20044,18 +17454,12 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_002712', '02_020_002711', '02_020_001200', '02_020_002301', '02_020_002714', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_002100', '02_020_002400', '02_020_002201', '02_020_002202', '02_020_002501']</t>
-        </is>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>[0.17725223294843345, 0.0014172748034957667, 0.1638848030549237, 0.00027246665598662127, 0.18756899772314584, 1.6756904405042444e-05, 0.09163385471569101, 0.9999720098353108, 0.9999457760117907, 0.09206099306563245, 0.3256016530053279, 1.000000000000001, 0.8807826872569751, 0.0014194959351889738]</t>
+          <t>02_020_001300, 02_020_002712, 02_020_002711, 02_020_001200, 02_020_002301, 02_020_002714, 02_020_002305, 02_020_002304, 02_020_002302, 02_020_002100, 02_020_002400, 02_020_002201, 02_020_002202, 02_020_002501</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>0.17725223294843345, 0.0014172748034957667, 0.1638848030549237, 0.00027246665598662127, 0.18756899772314584, 1.6756904405042444e-05, 0.09163385471569101, 0.9999720098353108, 0.9999457760117907, 0.09206099306563245, 0.3256016530053279, 1.000000000000001, 0.8807826872569751, 0.0014194959351889738</t>
         </is>
       </c>
     </row>
@@ -20096,18 +17500,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_000703', '02_020_000801', '02_020_000902', '02_020_000702', '02_020_000901', '02_020_000701', '02_020_000204', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_980100', '02_020_001401', '02_020_000601', '02_020_000602', '02_020_980200', '02_020_001402', '02_020_001601', '02_020_002000', '02_020_002100', '02_020_001500', '02_020_002202', '02_020_000500']</t>
-        </is>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>[0.1179034518854923, 0.6387621217630376, 0.01965478759810082, 0.8782453491536567, 0.07211330850447445, 0.617673291900754, 0.03289883057031926, 0.0020821797699839668, 0.7024233811055804, 1.0, 0.9999999999999998, 0.7425631958829443, 0.43632851067645123, 0.7054106677630186, 0.0005207032000320474, 0.1131186142155708, 0.9934409201533567, 0.0018716405739860485, 0.0, 3.852412887486132e-07, 0.00025876347640056696, 0.0, 0.25453043472569953]</t>
+          <t>02_020_001300, 02_020_000703, 02_020_000801, 02_020_000902, 02_020_000702, 02_020_000901, 02_020_000701, 02_020_000204, 02_020_001200, 02_020_001000, 02_020_001100, 02_020_980100, 02_020_001401, 02_020_000601, 02_020_000602, 02_020_980200, 02_020_001402, 02_020_001601, 02_020_002000, 02_020_002100, 02_020_001500, 02_020_002202, 02_020_000500</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>0.1179034518854923, 0.6387621217630376, 0.01965478759810082, 0.8782453491536567, 0.07211330850447445, 0.617673291900754, 0.03289883057031926, 0.0020821797699839668, 0.7024233811055804, 1.0, 0.9999999999999998, 0.7425631958829443, 0.43632851067645123, 0.7054106677630186, 0.0005207032000320474, 0.1131186142155708, 0.9934409201533567, 0.0018716405739860485, 0.0, 3.852412887486132e-07, 0.00025876347640056696, 0.0, 0.25453043472569953</t>
         </is>
       </c>
     </row>
@@ -20148,18 +17546,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>['02_020_002602', '02_020_000801', '02_020_000802', '02_020_000902', '02_020_000901', '02_020_000701', '02_020_980100', '02_020_980000', '02_020_000601', '02_020_000602', '02_020_001601', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001702', '02_020_001500', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>[0.00273886597646494, 0.4694410172069217, 0.9999795719273364, 8.164355150424025e-06, 0.38232670809924507, 0.0, 0.00013257335961967918, 2.0160432077912508e-05, 0.2945893322369863, 0.9994792967999997, 0.9981274673069724, 0.9958672647130937, 0.0, 0.9999117791323743, 0.49961189179604504, 0.25543739153179024, 1.3356120980360038e-05, 4.843277017515404e-06]</t>
+          <t>02_020_002602, 02_020_000801, 02_020_000802, 02_020_000902, 02_020_000901, 02_020_000701, 02_020_980100, 02_020_980000, 02_020_000601, 02_020_000602, 02_020_001601, 02_020_001802, 02_020_002601, 02_020_001602, 02_020_001701, 02_020_001702, 02_020_001500, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>0.00273886597646494, 0.4694410172069217, 0.9999795719273364, 8.164355150424025e-06, 0.38232670809924507, 0.0, 0.00013257335961967918, 2.0160432077912508e-05, 0.2945893322369863, 0.9994792967999997, 0.9981274673069724, 0.9958672647130937, 0.0, 0.9999117791323743, 0.49961189179604504, 0.25543739153179024, 1.3356120980360038e-05, 4.843277017515404e-06</t>
         </is>
       </c>
     </row>
@@ -20200,18 +17592,12 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_001732', '02_020_000702', '02_020_000701', '02_020_980000', '02_020_000602', '02_020_980200', '02_020_001701', '02_020_001702', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>[0.3611371243913363, 0.5109041951949169, 2.0428072660050975e-05, 0.9996449815548275, 0.9278866914955118, 0.9671011694296805, 7.285285079242914e-05, 0.0, 2.1111755694385585e-06, 0.5002488109679948, 0.74456260846821, 0.9999099334348467]</t>
+          <t>02_020_000703, 02_020_000801, 02_020_000802, 02_020_001732, 02_020_000702, 02_020_000701, 02_020_980000, 02_020_000602, 02_020_980200, 02_020_001701, 02_020_001702, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>0.3611371243913363, 0.5109041951949169, 2.0428072660050975e-05, 0.9996449815548275, 0.9278866914955118, 0.9671011694296805, 7.285285079242914e-05, 0.0, 2.1111755694385585e-06, 0.5002488109679948, 0.74456260846821, 0.9999099334348467</t>
         </is>
       </c>
     </row>
@@ -20252,18 +17638,12 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>['02_020_002813', '02_170_000601', '02_063_000300', '02_020_000703', '02_020_001732', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_002823', '02_020_000101', '02_020_002900', '02_020_980100', '02_020_000205', '02_020_980000', '02_020_000206', '02_020_980200', '02_020_000201', '02_170_000200', '02_170_001300', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>[3.7355948641099807e-06, 1.7804492390722232e-06, 5.018977974721475e-07, 0.00010075384561549065, 4.49985563746508e-05, 0.9232814752101063, 1.0000000000000002, 0.9470309306432275, 0.0, 0.8939308481813236, 0.1169546405246056, 0.0005295605094567181, 0.9999999999999999, 4.530573515570147e-08, 0.9999999999999994, 0.704460225084521, 1.0000000000000004, 5.754766171299071e-11, 4.102294321050164e-06, 9.006656516124007e-05]</t>
+          <t>02_020_002813, 02_170_000601, 02_063_000300, 02_020_000703, 02_020_001732, 02_020_000102, 02_020_000202, 02_020_000204, 02_020_002823, 02_020_000101, 02_020_002900, 02_020_980100, 02_020_000205, 02_020_980000, 02_020_000206, 02_020_980200, 02_020_000201, 02_170_000200, 02_170_001300, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>3.7355948641099807e-06, 1.7804492390722232e-06, 5.018977974721475e-07, 0.00010075384561549065, 4.49985563746508e-05, 0.9232814752101063, 1.0000000000000002, 0.9470309306432275, 0.0, 0.8939308481813236, 0.1169546405246056, 0.0005295605094567181, 0.9999999999999999, 4.530573515570147e-08, 0.9999999999999994, 0.704460225084521, 1.0000000000000004, 5.754766171299071e-11, 4.102294321050164e-06, 9.006656516124007e-05</t>
         </is>
       </c>
     </row>
@@ -20304,18 +17684,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000703', '02_170_000401', '02_170_001201', '02_170_000601', '02_020_000101', '02_170_000501', '02_170_001202', '02_170_000603', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>[0.00033353451278614235, 0.1996364450723334, 0.025803357959531422, 0.00017326066255315706, 1.1727616219096056e-08, 1.0000000000000013, 0.6091684606180532, 1.5119714265847615e-05, 0.06154308545830209, 0.9999999999999978, 0.5760611157668808, 0.7080293747201478, 0.00017009004492637503, 0.9995364909870452, 0.027242036211990665, 0.0006812070372065298]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000604, 02_170_000703, 02_170_000401, 02_170_001201, 02_170_000601, 02_020_000101, 02_170_000501, 02_170_001202, 02_170_000603, 02_170_001100, 02_170_000200, 02_170_001300, 02_170_000300, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>0.00033353451278614235, 0.1996364450723334, 0.025803357959531422, 0.00017326066255315706, 1.1727616219096056e-08, 1.0000000000000013, 0.6091684606180532, 1.5119714265847615e-05, 0.06154308545830209, 0.9999999999999978, 0.5760611157668808, 0.7080293747201478, 0.00017009004492637503, 0.9995364909870452, 0.027242036211990665, 0.0006812070372065298</t>
         </is>
       </c>
     </row>
@@ -20356,18 +17730,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000705', '02_170_000703', '02_170_000402', '02_170_001001', '02_170_000401', '02_170_000706', '02_170_000601', '02_170_000501', '02_170_001003', '02_170_000603', '02_170_001100', '02_170_000800', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>[0.9995623908258221, 0.797978336240241, 2.20024672957866e-06, 0.999994954545299, 0.9991535478898051, 3.04537334513603e-05, 0.00018059207293494184, 0.00012109333083255393, 0.15333436058614947, 0.0006188929528088661, 8.37285640761524e-27, 0.9986992474666987, 0.11471669363948189, 0.13390562711714504, 1.0000000000000002, 0.9993187929627896]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000604, 02_170_000705, 02_170_000703, 02_170_000402, 02_170_001001, 02_170_000401, 02_170_000706, 02_170_000601, 02_170_000501, 02_170_001003, 02_170_000603, 02_170_001100, 02_170_000800, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>0.9995623908258221, 0.797978336240241, 2.20024672957866e-06, 0.999994954545299, 0.9991535478898051, 3.04537334513603e-05, 0.00018059207293494184, 0.00012109333083255393, 0.15333436058614947, 0.0006188929528088661, 8.37285640761524e-27, 0.9986992474666987, 0.11471669363948189, 0.13390562711714504, 1.0000000000000002, 0.9993187929627896</t>
         </is>
       </c>
     </row>
@@ -20408,18 +17776,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000102', '02_170_000604', '02_170_000705', '02_170_000101', '02_170_000703', '02_170_000402', '02_170_001001', '02_170_000401', '02_170_000706', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_000101', '02_020_002900', '02_170_000501', '02_170_001003', '02_170_000603', '02_050_000300', '02_122_000100', '02_090_980000', '02_170_000502', '02_240_000400', '02_290_000400', '02_290_000200', '02_068_000100', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
-        </is>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>[0.00010407466139064442, 0.0023852186874310814, 1.000000000000005, 0.6623608924443993, 5.045454701200519e-06, 0.9909119745234289, 0.0006731914476346631, 0.9999695462665481, 0.9998194079270666, 0.9998788949415485, 0.8466656394138499, 0.30608858831330393, 0.1260871722976367, 0.0010369265659974166, 1.7188817054787498e-06, 5.917096904293654e-06, 0.9384569145416966, 0.0013007525333065808, 0.3092221905936337, 4.619891121814991e-06, 1.128021155127117e-07, 9.944143761835305e-06, 0.8821779235805244, 1.7446750383552326e-06, 6.827326180315658e-07, 6.830887677148375e-07, 0.9999974547339822, 0.1580649981627065, 0.9998292126441309, 0.00045940671863276006, 0.9727579637880105]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000102, 02_170_000604, 02_170_000705, 02_170_000101, 02_170_000703, 02_170_000402, 02_170_001001, 02_170_000401, 02_170_000706, 02_063_000300, 02_066_000100, 02_063_000200, 02_020_000101, 02_020_002900, 02_170_000501, 02_170_001003, 02_170_000603, 02_050_000300, 02_122_000100, 02_090_980000, 02_170_000502, 02_240_000400, 02_290_000400, 02_290_000200, 02_068_000100, 02_170_001100, 02_170_000200, 02_170_001300, 02_170_000300</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>0.00010407466139064442, 0.0023852186874310814, 1.000000000000005, 0.6623608924443993, 5.045454701200519e-06, 0.9909119745234289, 0.0006731914476346631, 0.9999695462665481, 0.9998194079270666, 0.9998788949415485, 0.8466656394138499, 0.30608858831330393, 0.1260871722976367, 0.0010369265659974166, 1.7188817054787498e-06, 5.917096904293654e-06, 0.9384569145416966, 0.0013007525333065808, 0.3092221905936337, 4.619891121814991e-06, 1.128021155127117e-07, 9.944143761835305e-06, 0.8821779235805244, 1.7446750383552326e-06, 6.827326180315658e-07, 6.830887677148375e-07, 0.9999974547339822, 0.1580649981627065, 0.9998292126441309, 0.00045940671863276006, 0.9727579637880105</t>
         </is>
       </c>
     </row>
@@ -20460,18 +17822,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_000700', '02_090_001300', '02_090_000500', '02_090_000600', '02_090_001200', '02_090_000200', '02_090_001600', '02_090_001000', '02_090_000800', '02_090_980000', '02_090_001402', '02_090_001401']</t>
-        </is>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.46437118122112175, 0.03177790252993006, 1.0000000000000009, 0.7518970774447352, 0.08209363315667396, 0.9999551495508604, 0.007474624811244491, 0.0965884964957949, 6.480676319751685e-05, 0.017684204490174733, 0.5390113587576549, 0.3264962194641466]</t>
+          <t>02_090_000100, 02_090_000300, 02_090_000400, 02_090_000700, 02_090_001300, 02_090_000500, 02_090_000600, 02_090_001200, 02_090_000200, 02_090_001600, 02_090_001000, 02_090_000800, 02_090_980000, 02_090_001402, 02_090_001401</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.46437118122112175, 0.03177790252993006, 1.0000000000000009, 0.7518970774447352, 0.08209363315667396, 0.9999551495508604, 0.007474624811244491, 0.0965884964957949, 6.480676319751685e-05, 0.017684204490174733, 0.5390113587576549, 0.3264962194641466</t>
         </is>
       </c>
     </row>
@@ -20512,18 +17868,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>['02_240_000100', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_001200', '02_090_001600', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001402', '02_090_001502', '02_090_001901', '02_090_001401', '02_290_000100']</t>
-        </is>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>[4.155651760364181e-07, 0.9756357325060139, 0.7029361781199882, 0.011078894123691983, 0.9179063668433269, 0.9922641740204475, 0.0008597398440136311, 9.847547498188845e-06, 0.9999942305699692, 0.9999999999999993, 0.702435212387089, 0.14850648089063814, 1.0000000000000004, 0.0003876839890965538, 0.673503780535848, 1.0900159248253424e-06]</t>
+          <t>02_240_000100, 02_090_001700, 02_090_001300, 02_090_000600, 02_090_001200, 02_090_001600, 02_090_980000, 02_240_000400, 02_090_980100, 02_090_001501, 02_090_001902, 02_090_001402, 02_090_001502, 02_090_001901, 02_090_001401, 02_290_000100</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>4.155651760364181e-07, 0.9756357325060139, 0.7029361781199882, 0.011078894123691983, 0.9179063668433269, 0.9922641740204475, 0.0008597398440136311, 9.847547498188845e-06, 0.9999942305699692, 0.9999999999999993, 0.702435212387089, 0.14850648089063814, 1.0000000000000004, 0.0003876839890965538, 0.673503780535848, 1.0900159248253424e-06</t>
         </is>
       </c>
     </row>
@@ -20564,18 +17914,12 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>['02_240_000100', '02_170_000101', '02_180_000100', '02_063_000300', '02_066_000100', '02_063_000200', '02_185_000200', '02_050_000300', '02_090_000700', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_000200', '02_090_001600', '02_090_000900', '02_090_001000', '02_090_000800', '02_090_980000', '02_240_000400', '02_158_000100', '02_282_000100', '02_090_980100', '02_090_001902', '02_090_001402', '02_090_001901', '02_290_000400', '02_290_000100', '02_290_000200', '02_290_000300', '02_068_000100', '02_170_000200', '02_188_000100']</t>
-        </is>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>[0.999998499378834, 6.169030906028319e-07, 2.700830905881833e-07, 4.336987271425662e-07, 0.8739004222581556, 0.0001905119027233178, 1.5987423410659642e-07, 3.451101020410975e-07, 0.5356288187788724, 0.024364267493986777, 0.26528591935008244, 0.23702402843158074, 4.485044914560673e-05, 0.0002612011682998283, 1.0000000000000013, 0.9034115035042094, 0.9999351932367941, 0.9814461115220456, 0.9999884077774589, 2.7644985821968104e-07, 1.2051781957247098e-08, 5.769430030316401e-06, 0.2975647876129079, 0.3124821603517113, 0.9996123160109058, 0.9999987079836017, 0.999992741554536, 0.9999991555480063, 0.9999986697464894, 2.5452660187421014e-06, 6.972533943831184e-07, 4.5667544082283884e-07]</t>
+          <t>02_240_000100, 02_170_000101, 02_180_000100, 02_063_000300, 02_066_000100, 02_063_000200, 02_185_000200, 02_050_000300, 02_090_000700, 02_090_001700, 02_090_001300, 02_090_000600, 02_090_000200, 02_090_001600, 02_090_000900, 02_090_001000, 02_090_000800, 02_090_980000, 02_240_000400, 02_158_000100, 02_282_000100, 02_090_980100, 02_090_001902, 02_090_001402, 02_090_001901, 02_290_000400, 02_290_000100, 02_290_000200, 02_290_000300, 02_068_000100, 02_170_000200, 02_188_000100</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>0.999998499378834, 6.169030906028319e-07, 2.700830905881833e-07, 4.336987271425662e-07, 0.8739004222581556, 0.0001905119027233178, 1.5987423410659642e-07, 3.451101020410975e-07, 0.5356288187788724, 0.024364267493986777, 0.26528591935008244, 0.23702402843158074, 4.485044914560673e-05, 0.0002612011682998283, 1.0000000000000013, 0.9034115035042094, 0.9999351932367941, 0.9814461115220456, 0.9999884077774589, 2.7644985821968104e-07, 1.2051781957247098e-08, 5.769430030316401e-06, 0.2975647876129079, 0.3124821603517113, 0.9996123160109058, 0.9999987079836017, 0.999992741554536, 0.9999991555480063, 0.9999986697464894, 2.5452660187421014e-06, 6.972533943831184e-07, 4.5667544082283884e-07</t>
         </is>
       </c>
     </row>
@@ -20616,18 +17960,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>['02_170_000101', '02_013_000100', '02_050_000200', '02_050_000300', '02_050_000100', '02_122_000100', '02_122_001200', '02_164_000100', '02_016_000200', '02_016_000100', '02_158_000100', '02_070_000200', '02_070_000100', '02_290_000400', '02_150_000100', '02_060_000100']</t>
-        </is>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>[6.101021175696617e-08, 0.4775048649755406, 0.9999999999999991, 0.9999950349987785, 0.8819880982234009, 0.6742375366027425, 0.005443794686462682, 0.7894339566936567, 0.48307468660050434, 0.2898793639420308, 0.1912309953454594, 0.9827007309419336, 0.920791927955111, 1.430448623131718e-07, 0.15251371713858755, 0.6037071202113345]</t>
+          <t>02_170_000101, 02_013_000100, 02_050_000200, 02_050_000300, 02_050_000100, 02_122_000100, 02_122_001200, 02_164_000100, 02_016_000200, 02_016_000100, 02_158_000100, 02_070_000200, 02_070_000100, 02_290_000400, 02_150_000100, 02_060_000100</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>6.101021175696617e-08, 0.4775048649755406, 0.9999999999999991, 0.9999950349987785, 0.8819880982234009, 0.6742375366027425, 0.005443794686462682, 0.7894339566936567, 0.48307468660050434, 0.2898793639420308, 0.1912309953454594, 0.9827007309419336, 0.920791927955111, 1.430448623131718e-07, 0.15251371713858755, 0.6037071202113345</t>
         </is>
       </c>
     </row>
@@ -20666,18 +18004,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>['23_019_003000', '23_019_012000', '23_027_043000', '23_019_002000', '23_013_970200', '23_011_019000', '23_011_020500', '23_009_965300', '23_009_965400', '23_013_970302', '23_013_970301', '23_019_012500', '23_013_971100', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966000', '23_011_021000', '23_011_020000', '23_025_965800', '23_027_046002', '23_027_046001', '23_015_975100']</t>
-        </is>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>[0.00021687912206292182, 4.795566568912738e-06, 0.91337583173091, 7.869788350860788e-05, 8.575411004276487e-06, 0.0, 0.00011104933106020718, 0.00023358880549423225, 0.000130920696640643, 5.572428515925048e-05, 0.0002877434740556635, 0.00032547667645422174, 1.0646074572465026e-08, 0.9999803815759679, 0.9996377187916237, 0.8377655689208792, 0.5469362875402461, 0.9999882774060297, 0.00037404080411872394, 0.00013228831989045046, 4.7992715273655454e-05, 6.40030797434501e-05, 0.9997041423754807, 0.9995899084161568, 1.5936450007206227e-05]</t>
+          <t>23_019_003000, 23_019_012000, 23_027_043000, 23_019_002000, 23_013_970200, 23_011_019000, 23_011_020500, 23_009_965300, 23_009_965400, 23_013_970302, 23_013_970301, 23_019_012500, 23_013_971100, 23_027_045000, 23_027_041000, 23_027_042000, 23_027_044000, 23_027_047000, 23_025_966000, 23_011_021000, 23_011_020000, 23_025_965800, 23_027_046002, 23_027_046001, 23_015_975100</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>0.00021687912206292182, 4.795566568912738e-06, 0.91337583173091, 7.869788350860788e-05, 8.575411004276487e-06, 0.0, 0.00011104933106020718, 0.00023358880549423225, 0.000130920696640643, 5.572428515925048e-05, 0.0002877434740556635, 0.00032547667645422174, 1.0646074572465026e-08, 0.9999803815759679, 0.9996377187916237, 0.8377655689208792, 0.5469362875402461, 0.9999882774060297, 0.00037404080411872394, 0.00013228831989045046, 4.7992715273655454e-05, 6.40030797434501e-05, 0.9997041423754807, 0.9995899084161568, 1.5936450007206227e-05</t>
         </is>
       </c>
     </row>

--- a/acs/elections_with_tracts.xlsx
+++ b/acs/elections_with_tracts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L410"/>
+  <dimension ref="A1:J410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,10 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tract_filename</t>
+          <t>tracts</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>place_code</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tracts</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>percents</t>
         </is>
@@ -532,8 +522,6 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -572,8 +560,6 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -612,8 +598,6 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,8 +636,6 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -692,8 +674,6 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -732,8 +712,6 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -772,8 +750,6 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -808,8 +784,6 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -844,8 +818,6 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,8 +852,6 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -916,8 +886,6 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -952,8 +920,6 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -988,8 +954,6 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1024,8 +988,6 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1060,8 +1022,6 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1096,8 +1056,6 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1132,8 +1090,6 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1168,8 +1124,6 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1204,8 +1158,6 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1240,8 +1192,6 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1276,8 +1226,6 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1312,8 +1260,6 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1348,8 +1294,6 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1384,8 +1328,6 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1420,8 +1362,6 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1456,8 +1396,6 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1492,8 +1430,6 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1528,8 +1464,6 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1564,8 +1498,6 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1600,8 +1532,6 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1640,8 +1570,6 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1676,8 +1604,6 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1712,8 +1638,6 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1748,8 +1672,6 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1784,8 +1706,6 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1820,8 +1740,6 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1856,8 +1774,6 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1892,8 +1808,6 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1928,8 +1842,6 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1964,8 +1876,6 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2000,8 +1910,6 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2036,8 +1944,6 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2072,8 +1978,6 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2108,8 +2012,6 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2144,8 +2046,6 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2180,8 +2080,6 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2216,8 +2114,6 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2252,8 +2148,6 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2288,8 +2182,6 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2324,8 +2216,6 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2360,8 +2250,6 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2396,8 +2284,6 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2432,8 +2318,6 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2468,8 +2352,6 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2504,8 +2386,6 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2540,8 +2420,6 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2576,8 +2454,6 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2612,8 +2488,6 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2648,8 +2522,6 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2684,8 +2556,6 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2720,8 +2590,6 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2756,8 +2624,6 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2792,8 +2658,6 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2828,8 +2692,6 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2864,8 +2726,6 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2900,8 +2760,6 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2936,8 +2794,6 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2972,8 +2828,6 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3014,18 +2868,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>[423000, 423500, 422800, 422900, 423602, 422300, 423400, 422600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>[0.9863959900222339, 0.09954103299477636, 0.10054247023717736, 0.9997932207642696, 0.049897747248389884, 0.0066189297709134875, 0.10402056987177544, 0.005597559190027622, 0.8933613494780847, 0.004809620832461251]</t>
+          <t>06_001_422400, 06_001_422300, 06_001_421700, 06_001_423500, 06_001_422800, 06_001_423602, 06_001_423000, 06_001_422600, 06_001_422900, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0.8959146638358644, 0.007147169403565304, 0.0038906035604100737, 0.0991080754683137, 0.10096369076951611, 0.0508511311382636, 0.9861050019341006, 0.002622810654645276, 1.0000000000000002, 0.10386411144385971</t>
         </is>
       </c>
     </row>
@@ -3068,18 +2916,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>[421800, 420400, 422100, 422200, 422000, 420500, 422300, 421900, 420600, 422400]</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>[0.2897100982447431, 0.001545630906237761, 0.9972029099604585, 0.9959723250126931, 0.4349319718430535, 0.003085476245047053, 0.787353485613182, 0.9152253641990368, 0.0007495792532747299, 0.0011647009147272168]</t>
+          <t>06_001_422200, 06_001_422400, 06_001_422300, 06_001_420400, 06_001_421800, 06_001_422000, 06_001_421900, 06_001_420600, 06_001_422100, 06_001_423100, 06_001_420500</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.9963084989162369, 0.0011620138428508448, 0.7869448616222134, 0.0004236917510046274, 0.29144486762287997, 0.23390667473129956, 0.9146824729841725, 0.00027430077805764983, 0.9976861532928043, 2.3443186173136577e-07, 0.001521216492635183</t>
         </is>
       </c>
     </row>
@@ -3122,18 +2964,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>[421800, 423000, 422200, 423500, 423100, 422800, 422900, 423602, 422300, 423400, 422600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>[0.03766547875700598, 0.990018193296573, 0.001335383787289767, 0.09952548154727754, 0.08428575225240634, 0.15241052796802862, 0.9998840648351452, 0.0006433539244272383, 0.21264651438675752, 0.0020623404833309254, 0.006041975364390522, 0.9031360644959179, 0.21729631332899702]</t>
+          <t>06_001_422200, 06_001_422400, 06_001_422300, 06_001_421800, 06_001_421700, 06_001_423500, 06_001_422800, 06_001_423602, 06_001_423100, 06_001_423000, 06_001_422600, 06_001_422900, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.0011097449135162591, 0.906035199287081, 0.2130551383777924, 0.037757687937505044, 0.21834221275197463, 0.09904919979581206, 0.15233057019801477, 0.00044762156620333464, 0.08427773014604278, 0.9899269999644622, 0.003085901495725873, 1.0000000000000002, 0.0017708485662709696</t>
         </is>
       </c>
     </row>
@@ -3176,18 +3012,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>[422500, 423700, 423601, 422700, 422800, 422900, 423602, 423902, 423800, 422600, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>[0.18267063601353756, 1.4764121624782485e-05, 0.5601823214090599, 0.006182522234422918, 0.8474751920844982, 0.00011593516491620588, 0.8791152551432947, 0.9804720416435485, 0.0033116127266848818, 0.43843519354230975, 0.0018883414303743113, 0.19231297916809995, 0.005600354071843144]</t>
+          <t>06_001_423800, 06_001_422500, 06_001_400500, 06_001_422800, 06_001_423700, 06_001_423602, 06_001_423601, 06_001_400200, 06_001_400400, 06_001_423902, 06_001_423901, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.004859133187055347, 0.17586343954304084, 0.0014465477956200894, 0.8475705329029315, 1.4225699714007913e-05, 0.8791257733118172, 0.5665639293116732, 0.0002666249395750595, 0.0008554545674623952, 0.9715250602107541, 0.19137730904963077, 0.005639516352217708, 0.43610913599677503</t>
         </is>
       </c>
     </row>
@@ -3230,18 +3060,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>[422500, 423700, 423601, 422700, 421600, 400200, 404300, 422800, 423602, 423902, 423800, 422600, 400100]</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>[0.03893056565185746, 0.9976921359659479, 0.22276232862967804, 0.9871225694368537, 0.00435207116584343, 7.557580505410505e-05, 0.0033689845098002916, 0.00011427994776627347, 0.1180785462555539, 0.004132341915334226, 0.9936714845731283, 0.5487333489117697, 0.003951234847034471]</t>
+          <t>06_001_423800, 06_001_422500, 06_001_421600, 06_001_404300, 06_001_422800, 06_001_423700, 06_001_423602, 06_001_423601, 06_001_400200, 06_001_400100, 06_001_423902, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.9923059442255447, 0.03767673404941949, 0.0023337580023792413, 0.005076597223445875, 9.889689907376185e-05, 0.9892311413710079, 0.11918467971309038, 0.22002505671819514, 0.011677357051293212, 0.002772179133831232, 0.0036023918232486267, 0.9943598576590309, 0.5446692901977529</t>
         </is>
       </c>
     </row>
@@ -3284,18 +3108,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>[422000, 423200, 400800, 424001, 423000, 423100, 424002, 423300, 423400, 425103, 422300, 422100, 422200]</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>[0.2878368954962686, 1.0000000000000004, 0.005212022707100119, 0.011406441742543792, 0.01389497827005669, 0.9999999999999989, 0.9994784359921596, 0.9999999999999994, 0.01138816119677284, 1.140386062478224e-05, 8.422101806639886e-05, 0.0040264361355869666, 0.006276571102208835]</t>
+          <t>06_001_422000, 06_001_423200, 06_001_400800, 06_001_424001, 06_001_423000, 06_001_423100, 06_001_424002, 06_001_423300, 06_001_423400, 06_001_425103, 06_001_422300, 06_001_422100, 06_001_422200</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.2878368954962686, 1.0000000000000004, 0.005212022707100119, 0.011406441742543792, 0.01389497827005669, 0.9999999999999989, 0.9994784359921596, 0.9999999999999994, 0.01138816119677284, 1.140386062478224e-05, 8.422101806639886e-05, 0.0040264361355869666, 0.006276571102208835</t>
         </is>
       </c>
     </row>
@@ -3338,18 +3156,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>[400500, 400700, 423902, 423601, 423901, 424001, 423500, 423602, 423400]</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>[0.00041221843616959247, 0.0012312450432862426, 0.0029086676569905854, 0.44460745074459496, 0.6608204638188306, 0.9879741375231399, 0.9009705195683164, 0.3993876667645053, 0.8847523045522253]</t>
+          <t>06_001_400500, 06_001_400700, 06_001_423902, 06_001_423601, 06_001_423901, 06_001_424001, 06_001_423500, 06_001_423602, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.00041221843616959247, 0.0012312450432862426, 0.0029086676569905854, 0.44460745074459496, 0.6608204638188306, 0.9879741375231399, 0.9009705195683164, 0.3993876667645053, 0.8847523045522253</t>
         </is>
       </c>
     </row>
@@ -3392,18 +3204,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>[392000, 421200, 421300, 421500, 421600, 420100, 420600, 421100, 421400, 421700, 421800, 421900, 391000]</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>[0.04209565983963918, 0.999502801722031, 0.9946502004855889, 0.0006323486946706828, 0.0011117431991254914, 0.0017969030304308645, 0.00026547925258680656, 0.0034064385390410452, 0.9985209444625983, 0.9954578838742822, 0.987748704746818, 0.0006567677721536902, 0.0008632332311441118]</t>
+          <t>06_013_392000, 06_001_421200, 06_001_421300, 06_001_421500, 06_001_421600, 06_001_420100, 06_001_420600, 06_001_421100, 06_001_421400, 06_001_421700, 06_001_421800, 06_001_421900, 06_013_391000</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.04209565983963918, 0.999502801722031, 0.9946502004855889, 0.0006323486946706828, 0.0011117431991254914, 0.0017969030304308645, 0.00026547925258680656, 0.0034064385390410452, 0.9985209444625983, 0.9954578838742822, 0.987748704746818, 0.0006567677721536902, 0.0008632332311441118</t>
         </is>
       </c>
     </row>
@@ -3446,18 +3252,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>[392000, 354001, 400100, 421200, 421500, 421600, 356002, 421100, 421400, 421700, 422500, 422400, 982100]</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>[0.00010230158862609476, 2.15657531922014e-05, 6.252465688421987e-06, 0.0004971982779489129, 0.9973029873072885, 0.9976720326001537, 4.023838412316996e-05, 0.9941224938559089, 0.0014790555374287245, 0.0006275641566769379, 0.9997529749549185, 0.09701402095826714, 0.45118834509597144]</t>
+          <t>06_013_392000, 06_013_354001, 06_001_400100, 06_001_421200, 06_001_421500, 06_001_421600, 06_013_356002, 06_001_421100, 06_001_421400, 06_001_421700, 06_001_422500, 06_001_422400, 06_001_982100</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0.00010230158862609476, 2.15657531922014e-05, 6.252465688421987e-06, 0.0004971982779489129, 0.9973029873072885, 0.9976720326001537, 4.023838412316996e-05, 0.9941224938559089, 0.0014790555374287245, 0.0006275641566769379, 0.9997529749549185, 0.09701402095826714, 0.45118834509597144</t>
         </is>
       </c>
     </row>
@@ -3500,18 +3300,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>[421800, 420400, 422100, 422200, 422000, 421300, 420500, 422300, 421900, 420600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>[0.010775661633169162, 0.0013992747743226208, 0.9954841112135374, 0.9933820900587544, 0.4512920936284628, 0.00021560516349355475, 0.004108774128748186, 0.9932971738561023, 0.9888391834264042, 0.0008589497918304983, 0.006757009189299434, 2.3778287885484235e-05]</t>
+          <t>06_001_422200, 06_001_422400, 06_001_422300, 06_001_420400, 06_001_421800, 06_001_421700, 06_001_422000, 06_001_421900, 06_001_420600, 06_001_421300, 06_001_990000, 06_001_422100, 06_001_420500</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.9937216895775107, 0.007068638715127452, 0.9927686100402239, 0.0005884190991710279, 0.012238980435543298, 2.394617712047931e-05, 0.26161794526216, 0.9853660782733938, 0.0005647486955948089, 0.002102814881683834, 3.1651889105736396e-09, 0.9959625316071599, 0.00260859571926889</t>
         </is>
       </c>
     </row>
@@ -3554,18 +3348,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>[422500, 423700, 422700, 422800, 422900, 423602, 422600]</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>[0.005924862829293292, 0.0006545866080766603, 0.44770329298469297, 0.8994575297627502, 0.0002067792357589644, 0.09932804301953294, 0.49078402281654226]</t>
+          <t>06_001_422500, 06_001_422800, 06_001_423700, 06_001_423602, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.0002498119252302383, 0.8990363092304856, 0.0004968649960489796, 0.10005248537029456, 0.4417988912135978, 0.48957841177942607</t>
         </is>
       </c>
     </row>
@@ -3608,18 +3396,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>[423700, 423601, 422700, 423500, 400200, 404300, 423602, 423902, 423800, 422600, 400100, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>[0.9968414118610065, 0.5546035853738653, 0.5497824569257878, 6.61274229941649e-06, 0.0017016470576200037, 0.0030449094100582497, 0.4524172626756326, 0.9917921132621487, 0.9966114367186952, 0.050759454304024704, 0.004413382925512965, 0.011415473912865102, 0.33941553774533745, 0.021492540027039292]</t>
+          <t>06_001_423800, 06_001_404300, 06_001_400500, 06_001_423700, 06_001_423602, 06_001_423601, 06_001_400200, 06_001_400100, 06_001_400400, 06_001_423902, 06_001_423901, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0.9967231635806094, 0.004747540296964618, 0.011090167654152511, 0.9860475994381361, 0.4483553655062628, 0.556550424497035, 0.013547768103955584, 0.00378855178929788, 0.01261084807274042, 0.9913657580239439, 0.34084615399378604, 0.557951134619622, 0.047179483387626335</t>
         </is>
       </c>
     </row>
@@ -3662,18 +3444,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>[400700, 423200, 424001, 423000, 422100, 422200, 422000, 425101, 423100, 424002, 423400, 400800, 423300, 425102]</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>[2.4908117408011718e-05, 1.0, 0.07475599642788022, 0.009981806703419178, 0.0027970900394837534, 0.0026922911998242213, 0.4097571536661698, 2.3730620064121406e-06, 0.9157142477476156, 0.9685718693285961, 0.010762134901689245, 0.0021009379242473408, 1.0, 3.784238385222971e-05]</t>
+          <t>06_001_422200, 06_001_422000, 06_001_425103, 06_001_425102, 06_001_425101, 06_001_424001, 06_001_423300, 06_001_423200, 06_001_400800, 06_001_400700, 06_001_422100, 06_001_424002, 06_001_423100, 06_001_423000, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.0025817561702605346, 0.21587000872284867, 0.009667141486620595, 0.014569842402857823, 0.00046875220153292225, 0.07338059217276566, 0.9999999999999992, 1.0000000000000002, 0.011790990500166496, 0.0009839834255481951, 0.002313846707196774, 0.9700288842320858, 0.9157220354220771, 0.010073000035548618, 0.010815152711590203</t>
         </is>
       </c>
     </row>
@@ -3716,18 +3492,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>[400700, 423601, 424001, 423500, 423602, 423902, 423400, 400500, 423901]</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>[7.865552821718784e-05, 0.21705534996111872, 0.924317969535589, 0.9004745184528531, 0.002162844676673441, 0.0012349093677267663, 0.9871755246149396, 0.00042730057344102424, 0.797884248490942]</t>
+          <t>06_001_423500, 06_001_424001, 06_001_400500, 06_001_423602, 06_001_423601, 06_001_400700, 06_001_423902, 06_001_423901, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.9009508002041845, 0.9076017795446312, 0.004454071357217367, 0.0012419254089018666, 0.21341101397012383, 0.009170427904079518, 0.001222573581633598, 0.8023915773645752, 0.987413998722135</t>
         </is>
       </c>
     </row>
@@ -3770,18 +3540,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>[421800, 421400, 421600, 421300, 421200, 391000, 421100, 421500, 392000, 421900, 420600, 421700]</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>[0.672624422998332, 0.9959110635758839, 0.0010188523436585378, 0.9705094542030309, 0.9730268908913727, 0.0018080223382943449, 0.015442432130887194, 0.0009029615817398704, 0.03459673786875791, 0.07609265861452344, 0.006725497122004688, 0.748925534679396]</t>
+          <t>06_013_392000, 06_013_391000, 06_001_421600, 06_001_421800, 06_001_421700, 06_001_421200, 06_001_421100, 06_001_421900, 06_001_420600, 06_001_421300, 06_001_421500, 06_001_421400</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0.045014856282508516, 0.0011489631841268772, 0.0013367928491419734, 0.670797444439624, 0.7479055367153346, 0.9730184396396856, 0.004749965277075924, 0.0727063642209008, 0.006595530398434199, 0.9703137785411079, 0.001087105666016282, 0.999220656351117</t>
         </is>
       </c>
     </row>
@@ -3824,18 +3588,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>[422500, 421400, 356002, 421600, 421200, 354001, 421100, 421500, 392000, 422600, 400100, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>[0.7783987983347725, 0.004088936424229114, 0.00038187237921470316, 0.9875847578066816, 0.002871186413936858, 9.418035573663646e-05, 0.9779275434548439, 0.9884447809858479, 0.0021336621157689362, 0.004405304184089782, 0.0002108280846854613, 0.09569923458948561, 0.03377815199144563]</t>
+          <t>06_013_392000, 06_013_354001, 06_013_356002, 06_001_422400, 06_001_422500, 06_001_421600, 06_001_421700, 06_001_421200, 06_001_421100, 06_001_421500, 06_001_421400, 06_001_400100, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0.0015863009749991352, 3.980469026499476e-05, 0.0001940194040796686, 0.09280278687005732, 0.7864598264075255, 0.9855574133104584, 0.03375225053269306, 0.00018644211348855386, 0.995121046752875, 0.9943096412228561, 0.0007793436488587031, 1.772862500469658e-05, 0.00693535491980831</t>
         </is>
       </c>
     </row>
@@ -3878,18 +3636,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>[421800, 420400, 422100, 422200, 422000, 421300, 420500, 422300, 421900, 420600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>[0.010775661633169162, 0.0013992747743226208, 0.9954841112135374, 0.9933820900587544, 0.4512920936284628, 0.00021560516349355475, 0.004108774128748186, 0.9932971738561023, 0.9888391834264042, 0.0008589497918304983, 0.006757009189299434, 2.3778287885484235e-05]</t>
+          <t>06_001_422200, 06_001_422400, 06_001_422300, 06_001_420400, 06_001_421800, 06_001_421700, 06_001_422000, 06_001_421900, 06_001_420600, 06_001_421300, 06_001_990000, 06_001_422100, 06_001_420500</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0.9937216895775107, 0.007068638715127452, 0.9927686100402239, 0.0005884190991710279, 0.012238980435543298, 2.394617712047931e-05, 0.26161794526216, 0.9853660782733938, 0.0005647486955948089, 0.002102814881683834, 3.1651889105736396e-09, 0.9959625316071599, 0.00260859571926889</t>
         </is>
       </c>
     </row>
@@ -3932,18 +3684,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>[423000, 423500, 422800, 422900, 423602, 422300, 423400, 422600, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>[0.9863959900222339, 0.09954103299477636, 0.10054247023717736, 0.9997932207642696, 0.049897747248389884, 0.0066189297709134875, 0.10402056987177544, 0.005597559190027622, 0.8933613494780847, 0.004809620832461251]</t>
+          <t>06_001_422400, 06_001_422300, 06_001_421700, 06_001_423500, 06_001_422800, 06_001_423602, 06_001_423000, 06_001_422600, 06_001_422900, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0.8959146638358644, 0.007147169403565304, 0.0038906035604100737, 0.0991080754683137, 0.10096369076951611, 0.0508511311382636, 0.9861050019341006, 0.002622810654645276, 1.0000000000000002, 0.10386411144385971</t>
         </is>
       </c>
     </row>
@@ -3986,18 +3732,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>[422500, 423700, 422700, 422800, 422900, 423602, 422600]</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>[0.005924862829293292, 0.0006545866080766603, 0.44770329298469297, 0.8994575297627502, 0.0002067792357589644, 0.09932804301953294, 0.49078402281654226]</t>
+          <t>06_001_422500, 06_001_422800, 06_001_423700, 06_001_423602, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.0002498119252302383, 0.8990363092304856, 0.0004968649960489796, 0.10005248537029456, 0.4417988912135978, 0.48957841177942607</t>
         </is>
       </c>
     </row>
@@ -4040,18 +3780,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>[423700, 423601, 422700, 423500, 400200, 404300, 423602, 423902, 423800, 422600, 400100, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>[0.9968414118610065, 0.5546035853738653, 0.5497824569257878, 6.61274229941649e-06, 0.0017016470576200037, 0.0030449094100582497, 0.4524172626756326, 0.9917921132621487, 0.9966114367186952, 0.050759454304024704, 0.004413382925512965, 0.011415473912865102, 0.33941553774533745, 0.021492540027039292]</t>
+          <t>06_001_423800, 06_001_404300, 06_001_400500, 06_001_423700, 06_001_423602, 06_001_423601, 06_001_400200, 06_001_400100, 06_001_400400, 06_001_423902, 06_001_423901, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.9967231635806094, 0.004747540296964618, 0.011090167654152511, 0.9860475994381361, 0.4483553655062628, 0.556550424497035, 0.013547768103955584, 0.00378855178929788, 0.01261084807274042, 0.9913657580239439, 0.34084615399378604, 0.557951134619622, 0.047179483387626335</t>
         </is>
       </c>
     </row>
@@ -4094,18 +3828,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>[400700, 423200, 424001, 423000, 422100, 422200, 422000, 423100, 424002, 422300, 423400, 400800, 423300]</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>[9.170065315275849e-05, 1.0, 0.011154976550556738, 0.013604009977769041, 0.004515888786640754, 0.006617909941204123, 0.5156384698994085, 0.9999999999999997, 0.9724135711049054, 8.389637321556544e-05, 0.011334820865688629, 0.00474013993557575, 1.0]</t>
+          <t>06_001_422200, 06_001_422300, 06_001_422000, 06_001_425103, 06_001_425102, 06_001_425101, 06_001_424001, 06_001_423300, 06_001_423200, 06_001_400800, 06_001_400700, 06_001_422100, 06_001_424002, 06_001_423100, 06_001_423000, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.0062783104224957715, 8.422055620631954e-05, 0.28654681152296185, 0.006799394241913022, 0.012068919617232906, 0.0001075718947141168, 0.011212495100212825, 0.9999999999999992, 1.0000000000000002, 0.015140715557606642, 0.00020603719666803974, 0.004037468392834997, 0.9711021429594142, 0.9999999999999997, 0.013894998065898969, 0.011389171522759763</t>
         </is>
       </c>
     </row>
@@ -4148,18 +3876,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>[400700, 423601, 424001, 423500, 423602, 423902, 423400, 400500, 423901]</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>[0.0011869734571975951, 0.4453964146266515, 0.988438243443585, 0.9004523542630186, 0.3983569470557062, 0.002812948422624076, 0.8846446092625608, 0.00039250733193344693, 0.6457175451348884]</t>
+          <t>06_001_423500, 06_001_424001, 06_001_400500, 06_001_423602, 06_001_423601, 06_001_400700, 06_001_423902, 06_001_423901, 06_001_423400</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0.900891924531699, 0.9709322918476826, 0.003004003026937615, 0.4007410179851964, 0.44344957550297187, 0.010664061464825247, 0.002683016895250141, 0.6501773443510077, 0.8847467170333744</t>
         </is>
       </c>
     </row>
@@ -4202,18 +3924,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>[421800, 421400, 421600, 421300, 421200, 391000, 421100, 421500, 392000, 421900, 420600, 421700]</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>[0.9892243383669251, 0.9944101968421052, 0.0007881586693476835, 0.975269685599834, 0.9700753212945364, 0.0012642308486642702, 0.014432384223414746, 0.0006749053683149436, 0.03379813348074526, 0.0013044161922064479, 0.003425869958041171, 0.994202324690198]</t>
+          <t>06_013_392000, 06_013_391000, 06_001_421600, 06_001_421800, 06_001_421700, 06_001_421200, 06_001_421100, 06_001_421900, 06_001_420600, 06_001_421300, 06_001_421500, 06_001_421400</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.04462747285247424, 0.0007514563727584111, 0.0011068694535544931, 0.9877610195644753, 0.995460404917392, 0.9697306733558755, 0.003404270854717997, 0.0006545203145215535, 0.003458918846512755, 0.9730451455314668, 0.0006268197779950728, 0.9985200811087193</t>
         </is>
       </c>
     </row>
@@ -4256,18 +3972,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>berkeley_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>[422500, 421400, 356002, 421600, 421200, 354001, 421100, 421500, 392000, 422600, 400100, 422400, 421700]</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>[0.9940751371709563, 0.0055898031578732665, 0.0002501721326060769, 0.9903113294355118, 0.0032804595522240155, 7.339016681343833e-05, 0.9748256222239584, 0.9837787543304379, 0.0007828209722399846, 0.4520210891035299, 0.0001142232126146144, 0.09988164133264318, 0.0009642761893586075]</t>
+          <t>06_013_392000, 06_013_354001, 06_013_356002, 06_001_422400, 06_001_422500, 06_001_421600, 06_001_421700, 06_001_421200, 06_001_421100, 06_001_421500, 06_001_421400, 06_001_400100, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.00010397652730137419, 1.8374751908700383e-05, 3.874548548911433e-05, 0.09701669744901158, 0.9997501880747678, 0.9858130849893076, 0.0006250453450789477, 0.000482607328527201, 0.9941292446780401, 0.9907142585179556, 0.0014799188913227135, 5.515269198669694e-06, 0.4527541743835135</t>
         </is>
       </c>
     </row>
@@ -4312,18 +4022,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>vermont_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>['50_007_004200', '50_007_004100', '50_007_000600', '50_007_000900', '50_007_000200', '50_007_000300', '50_007_001000']</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>[0.9999509034757865, 0.0005375764716726717, 0.0008325971633641427, 7.412566787142259e-06, 0.0005511885970706353, 0.5517444957441647, 0.2509713639636632]</t>
+          <t>50_007_004200, 50_007_004100, 50_007_000600, 50_007_000900, 50_007_000200, 50_007_000300, 50_007_001000</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.9999509034757865, 0.0005375764716726717, 0.0008325971633641427, 7.412566787142259e-06, 0.0005511885970706353, 0.5517444957441647, 0.2509713639636632</t>
         </is>
       </c>
     </row>
@@ -4368,18 +4072,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>vermont_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>['50_007_004200', '50_007_003600', '50_007_003900', '50_007_002502', '50_007_004100', '50_007_000600', '50_007_000900', '50_007_000300', '50_007_001000']</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>[4.909652422861771e-05, 0.00014918375076293841, 0.31652528498228233, 4.506883624286268e-07, 0.9994624235282912, 0.9579415507525523, 0.23972240717681437, 0.005025640421381913, 0.00014396074504105925]</t>
+          <t>50_007_004200, 50_007_003600, 50_007_003900, 50_007_002502, 50_007_004100, 50_007_000600, 50_007_000900, 50_007_000300, 50_007_001000</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>4.909652422861771e-05, 0.00014918375076293841, 0.31652528498228233, 4.506883624286268e-07, 0.9994624235282912, 0.9579415507525523, 0.23972240717681437, 0.005025640421381913, 0.00014396074504105925</t>
         </is>
       </c>
     </row>
@@ -4424,18 +4122,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>vermont_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>['50_007_003600', '50_007_003900', '50_007_003304', '50_007_000800', '50_007_000900', '50_007_001100', '50_007_001000']</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>[5.45644803373707e-06, 0.6830256774311925, 5.564720647262682e-07, 0.9992883929513514, 0.7602701802564065, 0.7983461048083227, 0.29703785482810496]</t>
+          <t>50_007_003600, 50_007_003900, 50_007_003304, 50_007_000800, 50_007_000900, 50_007_001100, 50_007_001000</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>5.45644803373707e-06, 0.6830256774311925, 5.564720647262682e-07, 0.9992883929513514, 0.7602701802564065, 0.7983461048083227, 0.29703785482810496</t>
         </is>
       </c>
     </row>
@@ -4474,8 +4166,6 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4516,18 +4206,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>new mexico_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>['35_013_001102', '35_013_000700', '35_013_000800', '35_013_000900', '35_013_001000', '35_013_001204', '35_013_001104', '35_013_001103', '35_013_000201', '35_013_001203', '35_013_001205']</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>[0.03432450650109937, 0.0004465548310368344, 1.0000000000000004, 0.7236413927621453, 0.09864540780741832, 0.006333002104559036, 0.14589087680158042, 0.030978703543585978, 0.00016111656337326616, 0.29688494466655835, 0.44287043396290715]</t>
+          <t>35_013_001102, 35_013_000700, 35_013_000800, 35_013_000900, 35_013_001000, 35_013_001204, 35_013_001104, 35_013_001103, 35_013_000201, 35_013_001203, 35_013_001205</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0.03432450650109937, 0.0004465548310368344, 1.0000000000000004, 0.7236413927621453, 0.09864540780741832, 0.006333002104559036, 0.14589087680158042, 0.030978703543585978, 0.00016111656337326616, 0.29688494466655835, 0.44287043396290715</t>
         </is>
       </c>
     </row>
@@ -4570,18 +4254,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>new mexico_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>['35_013_001500', '35_013_001102', '35_013_000300', '35_013_000500', '35_013_000600', '35_013_000202', '35_013_000201', '35_013_000103']</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>[0.03588125647286076, 0.013024755144285123, 0.8201211334752021, 0.8593388425101108, 0.18965634095528836, 0.34530010369429587, 0.9507018722272118, 0.1699240005942059]</t>
+          <t>35_013_001500, 35_013_001102, 35_013_000300, 35_013_000500, 35_013_000600, 35_013_000202, 35_013_000201, 35_013_000103</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0.03588125647286076, 0.013024755144285123, 0.8201211334752021, 0.8593388425101108, 0.18965634095528836, 0.34530010369429587, 0.9507018722272118, 0.1699240005942059</t>
         </is>
       </c>
     </row>
@@ -4624,18 +4302,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>[104400, 105400, 105700, 106200, 105600, 106900, 107500, 126102, 104801, 104802, 125900, 126000, 105204, 106400, 5901, 5902, 8300, 8400, 7801, 106000, 125800]</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>[1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08]</t>
+          <t>27_053_104400, 27_053_105400, 27_053_105700, 27_053_106200, 27_053_105600, 27_053_106900, 27_053_107500, 27_053_126102, 27_053_104801, 27_053_104802, 27_053_125900, 27_053_126000, 27_053_105204, 27_053_106400, 27_053_005901, 27_053_005902, 27_053_008300, 27_053_008400, 27_053_007801, 27_053_106000, 27_053_125800</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08</t>
         </is>
       </c>
     </row>
@@ -4678,18 +4350,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>[100400, 100500, 100900, 102600, 103100, 51400, 51502, 41302, 42002, 30100, 51501, 41103, 104001, 101200, 2400, 101900, 601, 603, 1100, 1700, 20101, 20102, 104002, 102500, 101600, 101800, 41301]</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>[2.65672307536351e-10, 0.9999999644942321, 3.9199195252087325e-09, 0.7728008248651971, 2.4453314125547988e-09, 1.5486159864377615e-09, 8.996000409760285e-09, 1.5758451289549447e-17, 5.36630906745088e-08, 7.686015201859065e-17, 6.149293024089221e-09, 9.339077827417117e-18, 2.6636532188817238e-08, 0.9999999893703201, 4.420604625854762e-08, 0.9999999999999992, 0.9999999918393139, 0.9999999922858397, 0.9999999999999998, 0.9999999824572039, 8.679030114540868e-09, 1.851889824717736e-08, 0.9670472788639843, 0.837615586947614, 1.470418399898923e-09, 0.9999999987580679, 5.165093340494517e-09]</t>
+          <t>27_053_100400, 27_053_100500, 27_053_100900, 27_053_102600, 27_053_103100, 27_003_051400, 27_003_051502, 27_123_041302, 27_123_042002, 27_123_030100, 27_003_051501, 27_123_041103, 27_053_104001, 27_053_101200, 27_053_002400, 27_053_101900, 27_053_000601, 27_053_000603, 27_053_001100, 27_053_001700, 27_053_020101, 27_053_020102, 27_053_104002, 27_053_102500, 27_053_101600, 27_053_101800, 27_123_041301</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2.65672307536351e-10, 0.9999999644942321, 3.9199195252087325e-09, 0.7728008248651971, 2.4453314125547988e-09, 1.5486159864377615e-09, 8.996000409760285e-09, 1.5758451289549447e-17, 5.36630906745088e-08, 7.686015201859065e-17, 6.149293024089221e-09, 9.339077827417117e-18, 2.6636532188817238e-08, 0.9999999893703201, 4.420604625854762e-08, 0.9999999999999992, 0.9999999918393139, 0.9999999922858397, 0.9999999999999998, 0.9999999824572039, 8.679030114540868e-09, 1.851889824717736e-08, 0.9670472788639843, 0.837615586947614, 1.470418399898923e-09, 0.9999999987580679, 5.165093340494517e-09</t>
         </is>
       </c>
     </row>
@@ -4732,18 +4398,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>[105500, 105700, 106500, 105600, 106600, 106900, 107000, 109100, 108000, 109300, 109900, 126000, 106700, 5902, 6800, 7700, 8200, 8300, 8100, 109200, 7801]</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>[9.84311982464558e-10, 3.102161740370261e-08, 4.078214744098905e-11, 4.026222180097482e-08, 4.67410897918868e-12, 0.9999999922734462, 1.0, 0.016288171362965537, 0.897423416718072, 3.6825234970510173e-09, 1.0693062348132424e-08, 0.004239344996607891, 0.999999920013587, 0.007028851747739098, 0.9999999399893614, 0.9999999666036592, 1.1212604291156215e-08, 1.7378417347978326e-08, 0.9999999853081035, 0.6657904680005654, 0.9999999867951449]</t>
+          <t>27_053_105500, 27_053_105700, 27_053_106500, 27_053_105600, 27_053_106600, 27_053_106900, 27_053_107000, 27_053_109100, 27_053_108000, 27_053_109300, 27_053_109900, 27_053_126000, 27_053_106700, 27_053_005902, 27_053_006800, 27_053_007700, 27_053_008200, 27_053_008300, 27_053_008100, 27_053_109200, 27_053_007801</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>9.84311982464558e-10, 3.102161740370261e-08, 4.078214744098905e-11, 4.026222180097482e-08, 4.67410897918868e-12, 0.9999999922734462, 1.0, 0.016288171362965537, 0.897423416718072, 3.6825234970510173e-09, 1.0693062348132424e-08, 0.004239344996607891, 0.999999920013587, 0.007028851747739098, 0.9999999399893614, 0.9999999666036592, 1.1212604291156215e-08, 1.7378417347978326e-08, 0.9999999853081035, 0.6657904680005654, 0.9999999867951449</t>
         </is>
       </c>
     </row>
@@ -4786,18 +4446,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>[111100, 111400, 111500, 111600, 110100, 110800, 24400, 24700, 110900, 11000, 11703, 11704, 11800, 11998, 12003, 12101, 12102, 980000]</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>[0.051881068183430315, 2.008939365257134e-09, 0.9878502324897683, 0.7184182350169863, 3.451168054408146e-10, 0.32126890749003445, 3.65535988055033e-08, 7.532277094289304e-09, 1.3212922179835715e-09, 0.83563724831335, 0.9999999999999999, 0.999999979123597, 0.8511569104913752, 1.8272247164621524e-08, 0.9904113116921094, 0.9999999802212244, 1.8333768306728493e-08, 5.596962499295054e-09]</t>
+          <t>27_053_111100, 27_053_111400, 27_053_111500, 27_053_111600, 27_053_110100, 27_053_110800, 27_053_024400, 27_053_024700, 27_053_110900, 27_053_011000, 27_053_011703, 27_053_011704, 27_053_011800, 27_053_011998, 27_053_012003, 27_053_012101, 27_053_012102, 27_053_980000</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0.051881068183430315, 2.008939365257134e-09, 0.9878502324897683, 0.7184182350169863, 3.451168054408146e-10, 0.32126890749003445, 3.65535988055033e-08, 7.532277094289304e-09, 1.3212922179835715e-09, 0.83563724831335, 0.9999999999999999, 0.999999979123597, 0.8511569104913752, 1.8272247164621524e-08, 0.9904113116921094, 0.9999999802212244, 1.8333768306728493e-08, 5.596962499295054e-09</t>
         </is>
       </c>
     </row>
@@ -4840,18 +4494,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>[111100, 107400, 107500, 107600, 108700, 108800, 108900, 109000, 109700, 110100, 110200, 37601, 110400, 110500, 11800, 11998, 12101, 980100, 43002, 43001, 108600, 12102, 980000, 125600]</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>[0.9481189271810677, 1.251088697352282e-08, 1.3836292887666777e-09, 0.9999999714580048, 0.34975442899832826, 0.1738771111989492, 0.6075270961801343, 0.9999999987045439, 0.30829806762348827, 0.4428504467701779, 0.9999999999999998, 1.2273215409587772e-08, 0.999999992251425, 0.9999999932633977, 0.14884308950862074, 0.9999999785778206, 1.6162030978144286e-09, 1.3709746373003378e-08, 3.3445924766713944e-08, 1.9963379025163132e-08, 2.942738053435113e-08, 0.9999999587289953, 2.4356909634574864e-09, 2.611561293895982e-10]</t>
+          <t>27_053_111100, 27_053_107400, 27_053_107500, 27_053_107600, 27_053_108700, 27_053_108800, 27_053_108900, 27_053_109000, 27_053_109700, 27_053_110100, 27_053_110200, 27_123_037601, 27_053_110400, 27_053_110500, 27_053_011800, 27_053_011998, 27_053_012101, 27_053_980100, 27_123_043002, 27_123_043001, 27_053_108600, 27_053_012102, 27_053_980000, 27_053_125600</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0.9481189271810677, 1.251088697352282e-08, 1.3836292887666777e-09, 0.9999999714580048, 0.34975442899832826, 0.1738771111989492, 0.6075270961801343, 0.9999999987045439, 0.30829806762348827, 0.4428504467701779, 0.9999999999999998, 1.2273215409587772e-08, 0.999999992251425, 0.9999999932633977, 0.14884308950862074, 0.9999999785778206, 1.6162030978144286e-09, 1.3709746373003378e-08, 3.3445924766713944e-08, 1.9963379025163132e-08, 2.942738053435113e-08, 0.9999999587289953, 2.4356909634574864e-09, 2.611561293895982e-10</t>
         </is>
       </c>
     </row>
@@ -4894,18 +4542,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>[111200, 111300, 111400, 111500, 109100, 108000, 109300, 109800, 109900, 110800, 23600, 23802, 24400, 23100, 10700, 10600, 12001, 12003, 24100, 109200]</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>[0.9999999629886981, 0.9999999939721289, 0.9999999979910491, 0.0063601237733431955, 0.2516902872064637, 8.595305316701355e-10, 1.6839971114442424e-08, 0.9999999657797531, 0.7828856921869475, 3.5776585751517184e-08, 1.7820233074556699e-09, 9.07010962996855e-09, 4.573042997887569e-11, 9.907684891925356e-10, 0.9999999999999999, 1.0000000000000002, 0.9999999797641506, 0.009588685851157623, 1.7553728374431327e-08, 0.3342095286577153]</t>
+          <t>27_053_111200, 27_053_111300, 27_053_111400, 27_053_111500, 27_053_109100, 27_053_108000, 27_053_109300, 27_053_109800, 27_053_109900, 27_053_110800, 27_053_023600, 27_053_023802, 27_053_024400, 27_053_023100, 27_053_010700, 27_053_010600, 27_053_012001, 27_053_012003, 27_053_024100, 27_053_109200</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0.9999999629886981, 0.9999999939721289, 0.9999999979910491, 0.0063601237733431955, 0.2516902872064637, 8.595305316701355e-10, 1.6839971114442424e-08, 0.9999999657797531, 0.7828856921869475, 3.5776585751517184e-08, 1.7820233074556699e-09, 9.07010962996855e-09, 4.573042997887569e-11, 9.907684891925356e-10, 0.9999999999999999, 1.0000000000000002, 0.9999999797641506, 0.009588685851157623, 1.7553728374431327e-08, 0.3342095286577153</t>
         </is>
       </c>
     </row>
@@ -4948,18 +4590,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>[106200, 107400, 107500, 107600, 30100, 3802, 104001, 104902, 104901, 104802, 125900, 103900, 106400, 104002, 3801, 43002, 31900, 33200, 125600]</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>[3.742821110394416e-08, 3.830784369208335e-08, 0.8946868164025511, 1.5452316035047996e-08, 3.1729333317726066e-09, 0.9999999996167565, 0.9999999731583631, 1.0, 1.0000000000000002, 0.803849644324828, 0.011624720899950302, 1.0000000000000002, 0.6747992351999, 2.2313018785022456e-09, 0.04298227000976226, 5.941117774128411e-09, 7.729293779276006e-09, 1.0247407277020826e-08, 0.9999999984879654]</t>
+          <t>27_053_106200, 27_053_107400, 27_053_107500, 27_053_107600, 27_123_030100, 27_053_003802, 27_053_104001, 27_053_104902, 27_053_104901, 27_053_104802, 27_053_125900, 27_053_103900, 27_053_106400, 27_053_104002, 27_053_003801, 27_123_043002, 27_123_031900, 27_123_033200, 27_053_125600</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>3.742821110394416e-08, 3.830784369208335e-08, 0.8946868164025511, 1.5452316035047996e-08, 3.1729333317726066e-09, 0.9999999996167565, 0.9999999731583631, 1.0, 1.0000000000000002, 0.803849644324828, 0.011624720899950302, 1.0000000000000002, 0.6747992351999, 2.2313018785022456e-09, 0.04298227000976226, 5.941117774128411e-09, 7.729293779276006e-09, 1.0247407277020826e-08, 0.9999999984879654</t>
         </is>
       </c>
     </row>
@@ -5002,18 +4638,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>[102600, 103000, 103100, 103600, 103700, 105400, 3802, 126202, 126102, 126101, 104001, 104801, 126201, 126300, 104802, 2400, 1700, 5901, 104002, 3801, 102500, 101800]</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>[0.22719915818100966, 0.9999999864031389, 0.9999999975546625, 1.0, 1.0, 0.025939427979661308, 3.832522670909683e-10, 0.9760547299636728, 0.651678203138432, 0.9999999999999996, 7.247162384910879e-11, 3.903579266359728e-08, 0.20095741065596331, 7.890956322205187e-10, 1.929120107491618e-08, 0.9999999260810848, 7.728214242855007e-09, 8.742014251547826e-09, 0.03295271797751822, 0.9570177299902407, 0.16238441305239545, 1.2419364852304886e-09]</t>
+          <t>27_053_102600, 27_053_103000, 27_053_103100, 27_053_103600, 27_053_103700, 27_053_105400, 27_053_003802, 27_053_126202, 27_053_126102, 27_053_126101, 27_053_104001, 27_053_104801, 27_053_126201, 27_053_126300, 27_053_104802, 27_053_002400, 27_053_001700, 27_053_005901, 27_053_104002, 27_053_003801, 27_053_102500, 27_053_101800</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.22719915818100966, 0.9999999864031389, 0.9999999975546625, 1.0, 1.0, 0.025939427979661308, 3.832522670909683e-10, 0.9760547299636728, 0.651678203138432, 0.9999999999999996, 7.247162384910879e-11, 3.903579266359728e-08, 0.20095741065596331, 7.890956322205187e-10, 1.929120107491618e-08, 0.9999999260810848, 7.728214242855007e-09, 8.742014251547826e-09, 0.03295271797751822, 0.9570177299902407, 0.16238441305239545, 1.2419364852304886e-09</t>
         </is>
       </c>
     </row>
@@ -5056,18 +4686,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>[100200, 100400, 100500, 100900, 51206, 21200, 21400, 101300, 101, 102, 300, 20400, 20500, 100700, 100800, 101600, 102000, 125700]</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>[0.9999999851929415, 0.999999999734329, 2.0020679562040147e-08, 0.9999999955337986, 9.479593363031937e-09, 2.4168576442852816e-09, 1.0920271939192761e-09, 0.7629401448646349, 0.9999999757595706, 0.9999999907101639, 0.9999999593870482, 1.8772965770371675e-09, 1.4968241550360494e-08, 0.9999999435932648, 0.9999999967708753, 5.612710357087217e-08, 0.2504521088155292, 2.0236280252869924e-08]</t>
+          <t>27_053_100200, 27_053_100400, 27_053_100500, 27_053_100900, 27_003_051206, 27_053_021200, 27_053_021400, 27_053_101300, 27_053_000101, 27_053_000102, 27_053_000300, 27_053_020400, 27_053_020500, 27_053_100700, 27_053_100800, 27_053_101600, 27_053_102000, 27_053_125700</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0.9999999851929415, 0.999999999734329, 2.0020679562040147e-08, 0.9999999955337986, 9.479593363031937e-09, 2.4168576442852816e-09, 1.0920271939192761e-09, 0.7629401448646349, 0.9999999757595706, 0.9999999907101639, 0.9999999593870482, 1.8772965770371675e-09, 1.4968241550360494e-08, 0.9999999435932648, 0.9999999967708753, 5.612710357087217e-08, 0.2504521088155292, 2.0236280252869924e-08</t>
         </is>
       </c>
     </row>
@@ -5110,18 +4734,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>[100900, 102100, 102800, 103000, 103400, 104100, 104400, 105100, 105500, 126202, 126201, 126300, 21700, 2400, 101300, 1700, 2200, 3200, 3300, 2700, 100700, 100800, 101600, 102000, 125700]</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>[5.463394586603951e-10, 1.0, 1.0, 1.3596905461070904e-08, 0.9999999999999997, 0.9999999707548013, 1.931817428544355e-08, 0.0007449218010132886, 2.8036704935786853e-09, 0.023945270036258036, 0.7911138646082351, 0.9999999992109085, 6.703176394135223e-11, 2.9712909660319662e-08, 0.23705985513543446, 9.81473394316282e-09, 0.9999999999999994, 0.9999999289390616, 1.0000000000000007, 0.9999999559563928, 3.635810083915448e-09, 3.2290674274488673e-09, 0.9999999424023145, 0.7495478327568861, 0.9999999797637382]</t>
+          <t>27_053_100900, 27_053_102100, 27_053_102800, 27_053_103000, 27_053_103400, 27_053_104100, 27_053_104400, 27_053_105100, 27_053_105500, 27_053_126202, 27_053_126201, 27_053_126300, 27_053_021700, 27_053_002400, 27_053_101300, 27_053_001700, 27_053_002200, 27_053_003200, 27_053_003300, 27_053_002700, 27_053_100700, 27_053_100800, 27_053_101600, 27_053_102000, 27_053_125700</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>5.463394586603951e-10, 1.0, 1.0, 1.3596905461070904e-08, 0.9999999999999997, 0.9999999707548013, 1.931817428544355e-08, 0.0007449218010132886, 2.8036704935786853e-09, 0.023945270036258036, 0.7911138646082351, 0.9999999992109085, 6.703176394135223e-11, 2.9712909660319662e-08, 0.23705985513543446, 9.81473394316282e-09, 0.9999999999999994, 0.9999999289390616, 1.0000000000000007, 0.9999999559563928, 3.635810083915448e-09, 3.2290674274488673e-09, 0.9999999424023145, 0.7495478327568861, 0.9999999797637382</t>
         </is>
       </c>
     </row>
@@ -5164,18 +4782,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>[104400, 105400, 105700, 106200, 105600, 106900, 107500, 126102, 104801, 104802, 125900, 126000, 105204, 106400, 5901, 5902, 8300, 8400, 7801, 106000, 125800]</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>[1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08]</t>
+          <t>27_053_104400, 27_053_105400, 27_053_105700, 27_053_106200, 27_053_105600, 27_053_106900, 27_053_107500, 27_053_126102, 27_053_104801, 27_053_104802, 27_053_125900, 27_053_126000, 27_053_105204, 27_053_106400, 27_053_005901, 27_053_005902, 27_053_008300, 27_053_008400, 27_053_007801, 27_053_106000, 27_053_125800</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08</t>
         </is>
       </c>
     </row>
@@ -5218,18 +4830,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>[104100, 104400, 105100, 105400, 105500, 105700, 106500, 105600, 106600, 109100, 108000, 109800, 109900, 126102, 126201, 21800, 105204, 105201, 22801, 22802, 22901, 106700, 5901, 6800, 7700]</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>[1.5282781074562813e-08, 0.9999999796475257, 0.9992550536577351, 9.383399891228525e-08, 0.9999999962120065, 4.435992149747591e-08, 0.999999993763927, 0.9999999284390264, 0.9999999999953268, 0.7320215308206148, 0.10257658242240858, 5.845616745598939e-09, 5.649840765784507e-10, 0.3483217918040256, 0.007928724735848163, 2.3177433234305833e-09, 0.9999999860886701, 1.0000000000000004, 2.0042279279397118e-09, 6.348596709559675e-10, 9.496654083078392e-10, 7.998638763941061e-08, 0.00583421519120463, 6.001064049507356e-08, 6.829560202569462e-09]</t>
+          <t>27_053_104100, 27_053_104400, 27_053_105100, 27_053_105400, 27_053_105500, 27_053_105700, 27_053_106500, 27_053_105600, 27_053_106600, 27_053_109100, 27_053_108000, 27_053_109800, 27_053_109900, 27_053_126102, 27_053_126201, 27_053_021800, 27_053_105204, 27_053_105201, 27_053_022801, 27_053_022802, 27_053_022901, 27_053_106700, 27_053_005901, 27_053_006800, 27_053_007700</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>1.5282781074562813e-08, 0.9999999796475257, 0.9992550536577351, 9.383399891228525e-08, 0.9999999962120065, 4.435992149747591e-08, 0.999999993763927, 0.9999999284390264, 0.9999999999953268, 0.7320215308206148, 0.10257658242240858, 5.845616745598939e-09, 5.649840765784507e-10, 0.3483217918040256, 0.007928724735848163, 2.3177433234305833e-09, 0.9999999860886701, 1.0000000000000004, 2.0042279279397118e-09, 6.348596709559675e-10, 9.496654083078392e-10, 7.998638763941061e-08, 0.00583421519120463, 6.001064049507356e-08, 6.829560202569462e-09</t>
         </is>
       </c>
     </row>
@@ -5272,18 +4878,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>[111100, 111500, 111600, 110000, 109300, 109700, 109900, 110100, 126000, 110800, 110900, 9500, 109400, 7700, 8200, 8300, 8400, 9600, 11000, 8100, 109200]</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>[4.635506977975504e-09, 0.00578964373689796, 0.2815817649830113, 0.9999999999999996, 0.9999999794774398, 9.29008319942337e-09, 0.21711429655501008, 0.5571495386826577, 1.5781095309390754e-11, 0.6787310567333892, 0.9999999986787449, 0.7495510323081138, 0.9999999961749277, 2.6566782677668606e-08, 0.9999999887874695, 0.9999999636541613, 0.3337903827959142, 0.5707453710233967, 0.16436275168662193, 1.4691757151477331e-08, 3.341804170024827e-09]</t>
+          <t>27_053_111100, 27_053_111500, 27_053_111600, 27_053_110000, 27_053_109300, 27_053_109700, 27_053_109900, 27_053_110100, 27_053_126000, 27_053_110800, 27_053_110900, 27_053_009500, 27_053_109400, 27_053_007700, 27_053_008200, 27_053_008300, 27_053_008400, 27_053_009600, 27_053_011000, 27_053_008100, 27_053_109200</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>4.635506977975504e-09, 0.00578964373689796, 0.2815817649830113, 0.9999999999999996, 0.9999999794774398, 9.29008319942337e-09, 0.21711429655501008, 0.5571495386826577, 1.5781095309390754e-11, 0.6787310567333892, 0.9999999986787449, 0.7495510323081138, 0.9999999961749277, 2.6566782677668606e-08, 0.9999999887874695, 0.9999999636541613, 0.3337903827959142, 0.5707453710233967, 0.16436275168662193, 1.4691757151477331e-08, 3.341804170024827e-09</t>
         </is>
       </c>
     </row>
@@ -5326,18 +4926,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>[107400, 107500, 107600, 108700, 108800, 108900, 109700, 110100, 125900, 126000, 110400, 9500, 109400, 5902, 8400, 8500, 9600, 108600, 106000, 125800]</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>[0.9999999491811336, 0.10531315739397427, 3.484528203280683e-09, 0.6502455710016495, 0.8261228888010521, 0.3924729038199026, 0.6917019230865732, 1.4201999817333694e-08, 0.9853732982209444, 6.557367911675107e-10, 7.74856306169997e-09, 0.2504489676918289, 3.825146464390418e-09, 6.248724311394363e-09, 0.6662095805812596, 0.9999999999999999, 0.4292546289765776, 0.9999999705726068, 1.526829009454857e-08, 0.999999958155319]</t>
+          <t>27_053_107400, 27_053_107500, 27_053_107600, 27_053_108700, 27_053_108800, 27_053_108900, 27_053_109700, 27_053_110100, 27_053_125900, 27_053_126000, 27_053_110400, 27_053_009500, 27_053_109400, 27_053_005902, 27_053_008400, 27_053_008500, 27_053_009600, 27_053_108600, 27_053_106000, 27_053_125800</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0.9999999491811336, 0.10531315739397427, 3.484528203280683e-09, 0.6502455710016495, 0.8261228888010521, 0.3924729038199026, 0.6917019230865732, 1.4201999817333694e-08, 0.9853732982209444, 6.557367911675107e-10, 7.74856306169997e-09, 0.2504489676918289, 3.825146464390418e-09, 6.248724311394363e-09, 0.6662095805812596, 0.9999999999999999, 0.4292546289765776, 0.9999999705726068, 1.526829009454857e-08, 0.999999958155319</t>
         </is>
       </c>
     </row>
@@ -5380,18 +4974,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>[20101, 20102, 101900, 103100, 104000, 2400, 100500, 100400, 100900, 101200, 603, 601, 101600, 1100, 102500, 1700, 102600, 101800]</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>[1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351]</t>
+          <t>27_123_041103, 27_123_042002, 27_123_041301, 27_123_030100, 27_053_020101, 27_053_020102, 27_053_101900, 27_053_103100, 27_053_104000, 27_053_002400, 27_053_100500, 27_053_100400, 27_053_100900, 27_053_101200, 27_053_000603, 27_053_000601, 27_053_101600, 27_053_001100, 27_053_102500, 27_053_001700, 27_053_102600, 27_053_101800, 27_003_051400, 27_003_051501, 27_003_051502</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>9.332052281831136e-18, 6.283329947436996e-06, 2.801525883503404e-15, 7.697737560039136e-17, 1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351, 4.400758764229673e-07, 6.149293024089223e-09, 6.983080853799253e-08</t>
         </is>
       </c>
     </row>
@@ -5434,18 +5022,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>[125700, 126200, 103000, 2200, 2400, 104100, 2700, 104400, 103400, 3200, 21700, 21800, 3300, 105100, 105500, 100700, 100900, 100800, 101300, 101600, 102000, 102100, 1700, 102300, 102800, 102900]</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>[0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0]</t>
+          <t>27_053_125700, 27_053_126200, 27_053_103000, 27_053_002200, 27_053_002400, 27_053_104100, 27_053_002700, 27_053_104400, 27_053_103400, 27_053_003200, 27_053_021700, 27_053_021800, 27_053_003300, 27_053_105100, 27_053_105500, 27_053_100700, 27_053_100900, 27_053_100800, 27_053_101300, 27_053_101600, 27_053_102000, 27_053_102100, 27_053_001700, 27_053_102300, 27_053_102800, 27_053_102900</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0</t>
         </is>
       </c>
     </row>
@@ -5488,18 +5070,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>[5902, 125900, 126000, 125800, 108700, 106000, 107500, 107600, 108600, 8400, 8500, 108900, 108800, 109700, 109400, 9500, 9600, 107400, 110100, 110200, 110400]</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>[6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09]</t>
+          <t>27_053_005902, 27_053_125900, 27_053_126000, 27_053_125800, 27_053_108700, 27_053_106000, 27_053_107500, 27_053_107600, 27_053_108600, 27_053_008400, 27_053_008500, 27_053_108900, 27_053_108800, 27_053_109700, 27_053_109400, 27_053_009500, 27_053_009600, 27_053_107400, 27_053_110100, 27_053_110200, 27_053_110400</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09</t>
         </is>
       </c>
     </row>
@@ -5542,18 +5118,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>[109900, 110800, 10700, 106700, 105600, 105500, 106600, 106500, 6800, 108000, 7700, 7801, 7802, 8100, 8200, 8300, 109100, 109200, 109300, 109400, 107000]</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>[0.2647350761742012, 6.1441874698605714e-09, 0.00025658967509615275, 0.960130250441588, 0.0005109770317998618, 0.00014711736686507661, 0.9970785218759535, 0.05372652810744943, 1.2597175986668368e-05, 0.999964942470492, 0.47142537861081946, 7.459274754617497e-05, 6.278434420097036e-07, 0.999999952356196, 0.9998403521441754, 0.4177089081052306, 0.16412275392761533, 0.9992910820063513, 0.49844199246113047, 2.4930986033855932e-08, 6.784659636601718e-05]</t>
+          <t>27_053_109900, 27_053_110800, 27_053_010700, 27_053_106700, 27_053_105600, 27_053_105500, 27_053_106600, 27_053_106500, 27_053_006800, 27_053_108000, 27_053_007700, 27_053_007801, 27_053_007802, 27_053_008100, 27_053_008200, 27_053_008300, 27_053_109100, 27_053_109200, 27_053_109300, 27_053_109400, 27_053_107000</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>0.2647350761742012, 6.1441874698605714e-09, 0.00025658967509615275, 0.960130250441588, 0.0005109770317998618, 0.00014711736686507661, 0.9970785218759535, 0.05372652810744943, 1.2597175986668368e-05, 0.999964942470492, 0.47142537861081946, 7.459274754617497e-05, 6.278434420097036e-07, 0.999999952356196, 0.9998403521441754, 0.4177089081052306, 0.16412275392761533, 0.9992910820063513, 0.49844199246113047, 2.4930986033855932e-08, 6.784659636601718e-05</t>
         </is>
       </c>
     </row>
@@ -5596,18 +5166,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>[109900, 110800, 10700, 11000, 111400, 111500, 11703, 11704, 11800, 11998, 12003, 12001, 12101, 12102, 24901, 110900, 111600]</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>[7.306304144617264e-06, 0.8267770525671131, 0.0002810340678726812, 0.6680113991306332, 0.0004507916477027524, 0.9905510759308098, 0.9998827215173448, 0.7400080424594764, 0.17377390907104723, 3.4929464494600746e-08, 0.9714663355626616, 0.000739524223541885, 0.45800604758199676, 4.736986208665943e-05, 5.991619485987677e-05, 0.0001771144855163568, 0.7137259153575359]</t>
+          <t>27_053_109900, 27_053_110800, 27_053_010700, 27_053_011000, 27_053_111400, 27_053_111500, 27_053_011703, 27_053_011704, 27_053_011800, 27_053_011998, 27_053_012003, 27_053_012001, 27_053_012101, 27_053_012102, 27_053_024901, 27_053_110900, 27_053_111600</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>7.306304144617264e-06, 0.8267770525671131, 0.0002810340678726812, 0.6680113991306332, 0.0004507916477027524, 0.9905510759308098, 0.9998827215173448, 0.7400080424594764, 0.17377390907104723, 3.4929464494600746e-08, 0.9714663355626616, 0.000739524223541885, 0.45800604758199676, 4.736986208665943e-05, 5.991619485987677e-05, 0.0001771144855163568, 0.7137259153575359</t>
         </is>
       </c>
     </row>
@@ -5650,18 +5214,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>[110100, 110200, 110500, 110400, 11000, 11703, 11800, 11998, 12101, 12102, 108700, 107600, 108900, 109000, 108800, 109700, 111100, 25000]</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>[0.41876547412466575, 0.8110882923685143, 0.9768250065202035, 0.9999708771075599, 0.0012295811879718872, 6.015429817909825e-06, 0.8262260909279009, 0.9998725813095533, 5.907007364152216e-05, 0.7106680974371493, 4.364072339299996e-05, 0.5686425082314333, 0.10206236659346427, 0.9713268810541239, 0.0015122118930371103, 6.789422159419015e-05, 0.9999742737186429, 3.459005045576698e-05]</t>
+          <t>27_123_037601, 27_123_034800, 27_053_110100, 27_053_110200, 27_053_110500, 27_053_110400, 27_053_011000, 27_053_011703, 27_053_011800, 27_053_011998, 27_053_012101, 27_053_012102, 27_053_108700, 27_053_107600, 27_053_108900, 27_053_109000, 27_053_108800, 27_053_109700, 27_053_111100, 27_053_025000</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>0.005010502962779569, 0.015000916728777975, 0.41876547412466575, 0.8110882923685143, 0.9768250065202035, 0.9999708771075599, 0.0012295811879718872, 6.015429817909825e-06, 0.8262260909279009, 0.9998725813095533, 5.907007364152216e-05, 0.7106680974371493, 4.364072339299996e-05, 0.5686425082314333, 0.10206236659346427, 0.9713268810541239, 0.0015122118930371103, 6.789422159419015e-05, 0.9999742737186429, 3.459005045576698e-05</t>
         </is>
       </c>
     </row>
@@ -5704,18 +5262,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>[109900, 110800, 10600, 10700, 111200, 111300, 111400, 111500, 12003, 12001, 22802, 22901, 23100, 23600, 23802, 109800, 106500, 108000, 109100]</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>[0.5195383581212006, 9.267827101566871e-05, 1.0, 0.9994623762571285, 0.999918627649069, 1.0000000000000002, 0.9995492083522769, 3.170659860133203e-05, 0.0007989585682034434, 0.9945496459741172, 0.00028720432112145045, 0.00019996240212414446, 0.00016657049749956831, 0.00017975142481258365, 0.00021463999095669407, 0.9999756932482475, 0.018658663896337673, 3.505752948618931e-05, 0.8342581327803321]</t>
+          <t>27_053_109900, 27_053_110800, 27_053_010600, 27_053_010700, 27_053_111200, 27_053_111300, 27_053_111400, 27_053_111500, 27_053_012003, 27_053_012001, 27_053_022802, 27_053_022901, 27_053_023100, 27_053_023600, 27_053_023802, 27_053_109800, 27_053_106500, 27_053_108000, 27_053_109100</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>0.5195383581212006, 9.267827101566871e-05, 1.0, 0.9994623762571285, 0.999918627649069, 1.0000000000000002, 0.9995492083522769, 3.170659860133203e-05, 0.0007989585682034434, 0.9945496459741172, 0.00028720432112145045, 0.00019996240212414446, 0.00016657049749956831, 0.00017975142481258365, 0.00021463999095669407, 0.9999756932482475, 0.018658663896337673, 3.505752948618931e-05, 0.8342581327803321</t>
         </is>
       </c>
     </row>
@@ -5758,18 +5310,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>[20101, 20102, 101900, 103100, 104000, 2400, 102, 100500, 100400, 101200, 603, 601, 1100, 102500, 1700, 102600, 101800, 100900]</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>[0.00035776110801404064, 0.009938463490402791, 1.0000000000000002, 0.0007668122969345709, 0.580532887285699, 0.0002645430290960209, 0.002477190748951489, 0.9906091152882879, 0.006984890030219389, 0.9995585283393706, 0.9998843588382946, 0.9999999659033841, 1.0, 0.8369402768818568, 0.20860303430198496, 0.7578393404249095, 0.9999552107246006, 0.0017627833056351426]</t>
+          <t>27_123_041103, 27_123_042002, 27_123_041301, 27_053_020101, 27_053_020102, 27_053_101900, 27_053_103100, 27_053_104000, 27_053_002400, 27_053_000102, 27_053_100500, 27_053_100400, 27_053_101200, 27_053_000603, 27_053_000601, 27_053_001100, 27_053_102500, 27_053_001700, 27_053_102600, 27_053_101800, 27_053_100900, 27_003_051400, 27_003_051501, 27_003_051502, 27_003_051206</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2.9377389936763162e-09, 0.00040948081600601064, 2.575048048019952e-08, 0.00035776110801404064, 0.009938463490402791, 1.0000000000000002, 0.0007668122969345709, 0.580532887285699, 0.0002645430290960209, 0.002477190748951489, 0.9906091152882879, 0.006984890030219389, 0.9995585283393706, 0.9998843588382946, 0.9999999659033841, 1.0, 0.8369402768818568, 0.20860303430198496, 0.7578393404249095, 0.9999552107246006, 0.0017627833056351426, 0.0006175660316222716, 4.0913652001358766e-05, 0.00037406669758404033, 0.0008900609040012232</t>
         </is>
       </c>
     </row>
@@ -5812,18 +5358,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>[104800, 106400, 103900, 104000, 104700, 104900, 105000, 3800, 106200, 5901, 7301, 107500, 107600, 107400]</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>[0.991785476422288, 0.9999999999999998, 0.00271032304009899, 0.38980821505125274, 0.00022993495427498105, 0.990218579141516, 0.9999812450071236, 0.00023147186028779233, 0.7509472107782058, 0.021099779608845484, 0.005104555220351069, 0.8595258701612734, 0.42844866417379984, 0.09355269549784738]</t>
+          <t>27_123_031900, 27_123_030100, 27_123_042002, 27_123_033200, 27_123_034800, 27_053_104800, 27_053_106400, 27_053_103900, 27_053_104000, 27_053_104700, 27_053_104900, 27_053_105000, 27_053_003800, 27_053_106200, 27_053_005901, 27_053_007301, 27_053_107500, 27_053_107600, 27_053_107400</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>6.640613286733949e-05, 9.496243508378479e-05, 6.9986869693429e-07, 0.00033273685881326674, 0.011281147289210685, 0.991785476422288, 0.9999999999999998, 0.00271032304009899, 0.38980821505125274, 0.00022993495427498105, 0.990218579141516, 0.9999812450071236, 0.00023147186028779233, 0.7509472107782058, 0.021099779608845484, 0.005104555220351069, 0.8595258701612734, 0.42844866417379984, 0.09355269549784738</t>
         </is>
       </c>
     </row>
@@ -5866,18 +5406,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>[104800, 103000, 103100, 103600, 2200, 103900, 104000, 2400, 103700, 104600, 104700, 104900, 3800, 100500, 100400, 3502, 101500, 101600, 102500, 102100, 1700, 102300, 102600, 101800, 102900, 100900]</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>[0.0005581261145794267, 0.9578681961806658, 0.9992331877030844, 0.9993700041884975, 0.999996893999715, 0.9972896769598943, 0.029192651382966697, 0.9997354569708607, 0.9999999999999998, 0.006877310569685033, 0.017507610948956514, 0.009781420858476523, 0.9922999818663085, 0.009327589283072021, 0.0005543642266185046, 0.002923229778590442, 0.12379876549935277, 0.9999895606648831, 0.16305972311818703, 0.0013231378487050002, 0.7913969656980051, 0.4653548326570167, 0.23986022687209974, 4.478927538426933e-05, 0.0004154672130842906, 0.8113765423646023]</t>
+          <t>27_053_104800, 27_053_103000, 27_053_103100, 27_053_103600, 27_053_002200, 27_053_103900, 27_053_104000, 27_053_002400, 27_053_103700, 27_053_104600, 27_053_104700, 27_053_104900, 27_053_003800, 27_053_100500, 27_053_100400, 27_053_003502, 27_053_101500, 27_053_101600, 27_053_102500, 27_053_102100, 27_053_001700, 27_053_102300, 27_053_102600, 27_053_101800, 27_053_102900, 27_053_100900</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>0.0005581261145794267, 0.9578681961806658, 0.9992331877030844, 0.9993700041884975, 0.999996893999715, 0.9972896769598943, 0.029192651382966697, 0.9997354569708607, 0.9999999999999998, 0.006877310569685033, 0.017507610948956514, 0.009781420858476523, 0.9922999818663085, 0.009327589283072021, 0.0005543642266185046, 0.002923229778590442, 0.12379876549935277, 0.9999895606648831, 0.16305972311818703, 0.0013231378487050002, 0.7913969656980051, 0.4653548326570167, 0.23986022687209974, 4.478927538426933e-05, 0.0004154672130842906, 0.8113765423646023</t>
         </is>
       </c>
     </row>
@@ -5920,18 +5454,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>[20400, 20500, 21200, 21400, 100200, 101, 102, 100400, 100700, 300, 101400, 101300, 101500, 101600, 102000, 100900, 100800]</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>[0.0004326173995324472, 0.0005176190441440994, 0.004432626679438356, 2.952051527977461e-05, 0.9790336812568746, 0.9971032635200198, 0.9963949204618711, 0.992460745743176, 0.9995151579717494, 0.9999733058394283, 0.20846724503192451, 0.7988792169839812, 0.0002900439432342934, 7.150508419525628e-08, 0.006685050445588673, 0.18685876303017313, 0.9998985591578106]</t>
+          <t>27_053_020400, 27_053_020500, 27_053_021200, 27_053_021400, 27_053_100200, 27_053_000101, 27_053_000102, 27_053_100400, 27_053_100700, 27_053_000300, 27_053_101400, 27_053_101300, 27_053_101500, 27_053_101600, 27_053_102000, 27_053_100900, 27_053_100800, 27_003_051206</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>0.0004326173995324472, 0.0005176190441440994, 0.004432626679438356, 2.952051527977461e-05, 0.9790336812568746, 0.9971032635200198, 0.9963949204618711, 0.992460745743176, 0.9995151579717494, 0.9999733058394283, 0.20846724503192451, 0.7988792169839812, 0.0002900439432342934, 7.150508419525628e-08, 0.006685050445588673, 0.18685876303017313, 0.9998985591578106, 0.008696273577913416</t>
         </is>
       </c>
     </row>
@@ -5974,18 +5502,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>[21400, 103000, 2200, 3501, 104100, 2700, 21700, 21800, 103400, 3200, 3300, 105100, 105500, 3502, 101400, 101300, 101500, 101600, 102000, 102100, 102300, 102800, 102900, 100900, 100800]</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>[9.656009456474698e-05, 0.02831781302312104, 3.1060004053703284e-06, 0.7103258204426528, 0.9997447822039538, 0.9998414192043245, 0.0004251743773388846, 0.00266873578033898, 1.0000000000000004, 0.997321096866965, 1.0, 0.0020939542723867133, 0.00035594110140465114, 0.0018738477991745736, 0.791532754967912, 0.20112078301602743, 0.8759111905574691, 1.0367830018976e-05, 0.9833848954696155, 0.9986768621512572, 0.5338324766099338, 0.9999999999999999, 0.9995845327868639, 1.911299631051085e-06, 0.00010144084218610473]</t>
+          <t>27_053_021400, 27_053_103000, 27_053_002200, 27_053_003501, 27_053_104100, 27_053_002700, 27_053_021700, 27_053_021800, 27_053_103400, 27_053_003200, 27_053_003300, 27_053_105100, 27_053_105500, 27_053_003502, 27_053_101400, 27_053_101300, 27_053_101500, 27_053_101600, 27_053_102000, 27_053_102100, 27_053_102300, 27_053_102800, 27_053_102900, 27_053_100900, 27_053_100800</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>9.656009456474698e-05, 0.02831781302312104, 3.1060004053703284e-06, 0.7103258204426528, 0.9997447822039538, 0.9998414192043245, 0.0004251743773388846, 0.00266873578033898, 1.0000000000000004, 0.997321096866965, 1.0, 0.0020939542723867133, 0.00035594110140465114, 0.0018738477991745736, 0.791532754967912, 0.20112078301602743, 0.8759111905574691, 1.0367830018976e-05, 0.9833848954696155, 0.9986768621512572, 0.5338324766099338, 0.9999999999999999, 0.9995845327868639, 1.911299631051085e-06, 0.00010144084218610473</t>
         </is>
       </c>
     </row>
@@ -6028,18 +5550,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>[104800, 5902, 105700, 106700, 106900, 105200, 105600, 106200, 107100, 5901, 106000, 6800, 7700, 7801, 7802, 8100, 8200, 8300, 8400, 107200, 107000]</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>[0.0010879957171651773, 0.998345052680997, 0.9999998489191065, 0.0002616349417323619, 1.0, 0.0009169303608413006, 0.4300036153272275, 0.1850363361474291, 0.9965603054130043, 0.020411530341878557, 0.8275131868923191, 0.9999874028238455, 0.5285746213891505, 0.9999254072525815, 0.9986388467148836, 4.764372142584443e-08, 0.00015964785588873075, 1.4372633500996853e-05, 0.00010195542889184476, 0.0005139345141170862, 0.9999321534036012]</t>
+          <t>27_053_104800, 27_053_005902, 27_053_105700, 27_053_106700, 27_053_106900, 27_053_105200, 27_053_105600, 27_053_106200, 27_053_107100, 27_053_005901, 27_053_106000, 27_053_006800, 27_053_007700, 27_053_007801, 27_053_007802, 27_053_008100, 27_053_008200, 27_053_008300, 27_053_008400, 27_053_107200, 27_053_107000</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0.0010879957171651773, 0.998345052680997, 0.9999998489191065, 0.0002616349417323619, 1.0, 0.0009169303608413006, 0.4300036153272275, 0.1850363361474291, 0.9965603054130043, 0.020411530341878557, 0.8275131868923191, 0.9999874028238455, 0.5285746213891505, 0.9999254072525815, 0.9986388467148836, 4.764372142584443e-08, 0.00015964785588873075, 1.4372633500996853e-05, 0.00010195542889184476, 0.0005139345141170862, 0.9999321534036012</t>
         </is>
       </c>
     </row>
@@ -6082,18 +5598,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>[104800, 5902, 22000, 22801, 22802, 105700, 106700, 103000, 103600, 3501, 104100, 21800, 104400, 104600, 104700, 105100, 105200, 3800, 105600, 105400, 105500, 5901, 106000, 106600, 106500, 3502, 102300]</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>[0.006568401746007169, 0.0016537638252877081, 0.0017762733014929516, 0.00637152682867379, 3.78354863690871e-06, 1.510808987247827e-07, 0.03960811461679047, 0.013813990796180139, 0.0006299958114553139, 0.2896741795566813, 0.0002549959498838723, 0.001513276918432413, 1.0, 0.9931226894303126, 0.9822624540967132, 0.9967603588070433, 0.9990830696391574, 0.007468546273446131, 0.5694854076409763, 1.0, 0.9994969415317464, 0.9584886900492045, 0.000515917150453638, 0.0029214781239986173, 0.9275998508767656, 0.9952029224223156, 0.0008126907330654685]</t>
+          <t>27_053_104800, 27_053_005902, 27_053_022000, 27_053_022801, 27_053_022802, 27_053_105700, 27_053_106700, 27_053_103000, 27_053_103600, 27_053_003501, 27_053_104100, 27_053_021800, 27_053_104400, 27_053_104600, 27_053_104700, 27_053_105100, 27_053_105200, 27_053_003800, 27_053_105600, 27_053_105400, 27_053_105500, 27_053_005901, 27_053_106000, 27_053_106600, 27_053_106500, 27_053_003502, 27_053_102300</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0.006568401746007169, 0.0016537638252877081, 0.0017762733014929516, 0.00637152682867379, 3.78354863690871e-06, 1.510808987247827e-07, 0.03960811461679047, 0.013813990796180139, 0.0006299958114553139, 0.2896741795566813, 0.0002549959498838723, 0.001513276918432413, 1.0, 0.9931226894303126, 0.9822624540967132, 0.9967603588070433, 0.9990830696391574, 0.007468546273446131, 0.5694854076409763, 1.0, 0.9994969415317464, 0.9584886900492045, 0.000515917150453638, 0.0029214781239986173, 0.9275998508767656, 0.9952029224223156, 0.0008126907330654685</t>
         </is>
       </c>
     </row>
@@ -6136,18 +5646,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>[109900, 110100, 110800, 11000, 111500, 11703, 110900, 111600, 7900, 7802, 8300, 8400, 8500, 109200, 109300, 109700, 110000, 109400, 9500, 9600, 111100]</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>[0.21571925940044032, 0.5573759224365663, 0.1731302630176538, 0.33075901968136034, 0.009417217470605643, 0.00011126305283701658, 0.9998228855145488, 0.2862740846424642, 7.894418817944553e-05, 0.00019952039005196153, 0.5822767192612059, 0.9998980445712159, 0.6367806823603493, 0.0007089179936055601, 0.5015580075388865, 0.0002623347736774467, 1.0, 0.9999999750690245, 1.0, 0.9998896923769423, 2.5726281346891924e-05]</t>
+          <t>27_053_109900, 27_053_110100, 27_053_110800, 27_053_011000, 27_053_111500, 27_053_011703, 27_053_110900, 27_053_111600, 27_053_007900, 27_053_007802, 27_053_008300, 27_053_008400, 27_053_008500, 27_053_109200, 27_053_109300, 27_053_109700, 27_053_110000, 27_053_109400, 27_053_009500, 27_053_009600, 27_053_111100</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>0.21571925940044032, 0.5573759224365663, 0.1731302630176538, 0.33075901968136034, 0.009417217470605643, 0.00011126305283701658, 0.9998228855145488, 0.2862740846424642, 7.894418817944553e-05, 0.00019952039005196153, 0.5822767192612059, 0.9998980445712159, 0.6367806823603493, 0.0007089179936055601, 0.5015580075388865, 0.0002623347736774467, 1.0, 0.9999999750690245, 1.0, 0.9998896923769423, 2.5726281346891924e-05</t>
         </is>
       </c>
     </row>
@@ -6190,18 +5694,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>[110100, 110200, 110400, 5902, 106200, 107100, 108700, 106000, 7302, 7301, 107500, 107600, 108600, 7900, 7802, 8500, 108900, 108800, 109700, 9600, 107200, 107400]</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>[0.02385860343875202, 0.1889117076315132, 2.9122892447798943e-05, 1.1834937826123378e-06, 0.0640164530743672, 0.0034396945870143144, 0.9999563592766476, 0.17197089595718515, 1.0000000000000002, 0.9948954447795902, 0.14047412983875432, 7.736209347867875e-05, 1.0000000000000004, 0.9999210558118596, 0.0011610050515516292, 0.36321931772043003, 0.8979376334065361, 0.9984877881069549, 0.9996697709116025, 0.00011030762311389733, 0.9994860654859101, 0.9064473045020321]</t>
+          <t>27_053_110100, 27_053_110200, 27_053_110400, 27_053_005902, 27_053_106200, 27_053_107100, 27_053_108700, 27_053_106000, 27_053_007302, 27_053_007301, 27_053_107500, 27_053_107600, 27_053_108600, 27_053_007900, 27_053_007802, 27_053_008500, 27_053_108900, 27_053_108800, 27_053_109700, 27_053_009600, 27_053_107200, 27_053_107400</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>0.02385860343875202, 0.1889117076315132, 2.9122892447798943e-05, 1.1834937826123378e-06, 0.0640164530743672, 0.0034396945870143144, 0.9999563592766476, 0.17197089595718515, 1.0000000000000002, 0.9948954447795902, 0.14047412983875432, 7.736209347867875e-05, 1.0000000000000004, 0.9999210558118596, 0.0011610050515516292, 0.36321931772043003, 0.8979376334065361, 0.9984877881069549, 0.9996697709116025, 0.00011030762311389733, 0.9994860654859101, 0.9064473045020321</t>
         </is>
       </c>
     </row>
@@ -6244,18 +5742,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>[126000, 105700, 106700, 106900, 105600, 105500, 106600, 6800, 108000, 7700, 7801, 8100, 8200, 8300, 109100, 109200, 109300, 107000, 109900]</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>[0.014179958690689842, 1.6372108053021672e-06, 0.995815056453645, 0.9918161533792595, 0.000583625659204062, 0.004020757249915007, 4.634070343042592e-12, 0.9999992277415305, 0.9027527898240132, 0.9999999666036586, 0.9999999999999999, 0.9999999853081041, 1.1212604291156217e-08, 1.737859383771984e-08, 0.014580563534249854, 0.6657904680005656, 3.7183171169526336e-09, 1.0, 0.0006202900391125828]</t>
+          <t>27_053_126000, 27_053_105700, 27_053_106700, 27_053_106900, 27_053_105600, 27_053_105500, 27_053_106600, 27_053_006800, 27_053_108000, 27_053_007700, 27_053_007801, 27_053_008100, 27_053_008200, 27_053_008300, 27_053_109100, 27_053_109200, 27_053_109300, 27_053_107000, 27_053_109900</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>0.014179958690689842, 1.6372108053021672e-06, 0.995815056453645, 0.9918161533792595, 0.000583625659204062, 0.004020757249915007, 4.634070343042592e-12, 0.9999992277415305, 0.9027527898240132, 0.9999999666036586, 0.9999999999999999, 0.9999999853081041, 1.1212604291156217e-08, 1.737859383771984e-08, 0.014580563534249854, 0.6657904680005656, 3.7183171169526336e-09, 1.0, 0.0006202900391125828</t>
         </is>
       </c>
     </row>
@@ -6298,18 +5790,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>[12101, 12102, 24400, 24700, 24901, 110900, 111600, 111100, 110100, 110800, 11000, 111400, 111500, 11703, 11704, 11800, 11998, 12003]</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>[0.4588098693559743, 1.383765934543603e-06, 0.01487209149237685, 0.004960192910503212, 0.00020028637781361575, 1.2999958236364537e-09, 0.7176225522558706, 0.053465854314247475, 3.4511680544081456e-10, 0.3256071972088235, 0.8358933118740979, 2.008939365257134e-09, 0.9935661301010241, 0.9999999999999993, 0.7294885452343802, 0.851189340901316, 1.8842133498017343e-08, 0.9953484748062621]</t>
+          <t>27_053_012101, 27_053_012102, 27_053_024400, 27_053_024700, 27_053_024901, 27_053_110900, 27_053_111600, 27_053_111100, 27_053_110100, 27_053_110800, 27_053_011000, 27_053_111400, 27_053_111500, 27_053_011703, 27_053_011704, 27_053_011800, 27_053_011998, 27_053_012003</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>0.4588098693559743, 1.383765934543603e-06, 0.01487209149237685, 0.004960192910503212, 0.00020028637781361575, 1.2999958236364537e-09, 0.7176225522558706, 0.053465854314247475, 3.4511680544081456e-10, 0.3256071972088235, 0.8358933118740979, 2.008939365257134e-09, 0.9935661301010241, 0.9999999999999993, 0.7294885452343802, 0.851189340901316, 1.8842133498017343e-08, 0.9953484748062621</t>
         </is>
       </c>
     </row>
@@ -6352,18 +5838,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>[12101, 12102, 125600, 108700, 107500, 107600, 108600, 108900, 109000, 108800, 109700, 111100, 107400, 980000, 110100, 110200, 110500, 110400, 11800, 11998]</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>[6.855839339830034e-10, 0.719855325378128, 2.5987169052182894e-10, 0.3504545327784966, 1.3567063425659018e-09, 0.9976982656100741, 2.9427380534351153e-08, 0.6075270961801345, 0.9999993948686094, 0.1735802787004511, 0.30829806762348827, 0.9465341410682032, 1.2766914362653308e-08, 4.810212932634604e-07, 0.4428504467701778, 0.9999994335369431, 0.9980260078080666, 0.9999999922511368, 0.14881065909868055, 0.9999402346796432]</t>
+          <t>27_123_037601, 27_123_043000, 27_053_012101, 27_053_012102, 27_053_125600, 27_053_108700, 27_053_107500, 27_053_107600, 27_053_108600, 27_053_108900, 27_053_109000, 27_053_108800, 27_053_109700, 27_053_111100, 27_053_107400, 27_053_980000, 27_053_110100, 27_053_110200, 27_053_110500, 27_053_110400, 27_053_011800, 27_053_011998</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>0.0036711390100738757, 0.013195573744350448, 6.855839339830034e-10, 0.719855325378128, 2.5987169052182894e-10, 0.3504545327784966, 1.3567063425659018e-09, 0.9976982656100741, 2.9427380534351153e-08, 0.6075270961801345, 0.9999993948686094, 0.1735802787004511, 0.30829806762348827, 0.9465341410682032, 1.2766914362653308e-08, 4.810212932634604e-07, 0.4428504467701778, 0.9999994335369431, 0.9980260078080666, 0.9999999922511368, 0.14881065909868055, 0.9999402346796432</t>
         </is>
       </c>
     </row>
@@ -6406,18 +5886,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>[12001, 24005, 24100, 24400, 22901, 23100, 23600, 23802, 109800, 108000, 109100, 109200, 109300, 109900, 110800, 10600, 10700, 111200, 111300, 111400, 111500, 12003]</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>[0.9998815211214253, 4.931228208563902e-08, 0.010527143597313318, 1.5346460613408615e-10, 7.838771770943674e-07, 6.24175242884272e-07, 1.7979568813487813e-09, 1.0598239304294768e-06, 0.9999988339679441, 8.585998949290797e-10, 0.25318581043149024, 0.3342095286577152, 1.700365330841006e-08, 0.7833358596493739, 3.625984450581948e-08, 1.0, 1.0, 0.9999999629886493, 0.9999999939721244, 0.999999997991049, 0.0026846885104971725, 0.004643168449789377]</t>
+          <t>27_053_012001, 27_053_024005, 27_053_024100, 27_053_024400, 27_053_022901, 27_053_023100, 27_053_023600, 27_053_023802, 27_053_109800, 27_053_108000, 27_053_109100, 27_053_109200, 27_053_109300, 27_053_109900, 27_053_110800, 27_053_010600, 27_053_010700, 27_053_111200, 27_053_111300, 27_053_111400, 27_053_111500, 27_053_012003</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>0.9998815211214253, 4.931228208563902e-08, 0.010527143597313318, 1.5346460613408615e-10, 7.838771770943674e-07, 6.24175242884272e-07, 1.7979568813487813e-09, 1.0598239304294768e-06, 0.9999988339679441, 8.585998949290797e-10, 0.25318581043149024, 0.3342095286577152, 1.700365330841006e-08, 0.7833358596493739, 3.625984450581948e-08, 1.0, 1.0, 0.9999999629886493, 0.9999999939721244, 0.999999997991049, 0.0026846885104971725, 0.004643168449789377</t>
         </is>
       </c>
     </row>
@@ -6460,18 +5934,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>[20101, 20102, 101900, 103100, 104000, 2400, 100500, 100400, 100900, 101200, 603, 601, 101600, 1100, 102500, 1700, 102600, 101800]</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>[1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351]</t>
+          <t>27_123_041103, 27_123_042002, 27_123_041301, 27_123_030100, 27_053_020101, 27_053_020102, 27_053_101900, 27_053_103100, 27_053_104000, 27_053_002400, 27_053_100500, 27_053_100400, 27_053_100900, 27_053_101200, 27_053_000603, 27_053_000601, 27_053_101600, 27_053_001100, 27_053_102500, 27_053_001700, 27_053_102600, 27_053_101800, 27_003_051400, 27_003_051501, 27_003_051502</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>9.332052281831136e-18, 6.283329947436996e-06, 2.801525883503404e-15, 7.697737560039136e-17, 1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351, 4.400758764229673e-07, 6.149293024089223e-09, 6.983080853799253e-08</t>
         </is>
       </c>
     </row>
@@ -6514,18 +5982,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>[126200, 126100, 103000, 103100, 103600, 104000, 2400, 103700, 3800, 105400, 5901, 102500, 1700, 102300, 102600, 101800]</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>[0.4706012240295949, 0.7049673771710893, 0.9999702559323108, 0.9999999975444243, 0.9999999999999997, 0.022414604559121976, 0.9999546125843072, 0.9999999999999998, 0.6255713447736643, 0.02708812499204498, 0.0006626850708305121, 0.16320850177212526, 0.0018965955464723678, 1.429707527115575e-07, 0.23653078708081074, 1.2417688603507542e-09]</t>
+          <t>27_053_126200, 27_053_126100, 27_053_103000, 27_053_103100, 27_053_103600, 27_053_104000, 27_053_002400, 27_053_103700, 27_053_003800, 27_053_105400, 27_053_005901, 27_053_102500, 27_053_001700, 27_053_102300, 27_053_102600, 27_053_101800</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>0.4706012240295949, 0.7049673771710893, 0.9999702559323108, 0.9999999975444243, 0.9999999999999997, 0.022414604559121976, 0.9999546125843072, 0.9999999999999998, 0.6255713447736643, 0.02708812499204498, 0.0006626850708305121, 0.16320850177212526, 0.0018965955464723678, 1.429707527115575e-07, 0.23653078708081074, 1.2417688603507542e-09</t>
         </is>
       </c>
     </row>
@@ -6568,18 +6030,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>[20400, 20500, 21200, 21400, 125700, 100200, 101, 102, 100500, 100400, 100700, 300, 100900, 100800, 101300, 101600, 102000]</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>[3.338906684043667e-07, 2.2503889746546973e-07, 0.0031627525856046403, 0.0005870196935288642, 1.885660953695151e-06, 0.9739829865155292, 0.9973419340752752, 0.999998973640138, 1.9992461082064234e-08, 0.9999999997342626, 0.9997401658627811, 0.9999999593870484, 0.9999993392000328, 0.9999999967708755, 0.7573479735523267, 5.433846545656407e-08, 0.2595041306246351]</t>
+          <t>27_053_020400, 27_053_020500, 27_053_021200, 27_053_021400, 27_053_125700, 27_053_100200, 27_053_000101, 27_053_000102, 27_053_100500, 27_053_100400, 27_053_100700, 27_053_000300, 27_053_100900, 27_053_100800, 27_053_101300, 27_053_101600, 27_053_102000, 27_003_051206</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>3.338906684043667e-07, 2.2503889746546973e-07, 0.0031627525856046403, 0.0005870196935288642, 1.885660953695151e-06, 0.9739829865155292, 0.9973419340752752, 0.999998973640138, 1.9992461082064234e-08, 0.9999999997342626, 0.9997401658627811, 0.9999999593870484, 0.9999993392000328, 0.9999999967708755, 0.7573479735523267, 5.433846545656407e-08, 0.2595041306246351, 9.51384392715401e-09</t>
         </is>
       </c>
     </row>
@@ -6622,18 +6078,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>[125700, 126200, 103000, 2200, 2400, 104100, 2700, 104400, 103400, 3200, 21700, 21800, 3300, 105100, 105500, 100700, 100900, 100800, 101300, 101600, 102000, 102100, 1700, 102300, 102800, 102900]</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>[0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0]</t>
+          <t>27_053_125700, 27_053_126200, 27_053_103000, 27_053_002200, 27_053_002400, 27_053_104100, 27_053_002700, 27_053_104400, 27_053_103400, 27_053_003200, 27_053_021700, 27_053_021800, 27_053_003300, 27_053_105100, 27_053_105500, 27_053_100700, 27_053_100900, 27_053_100800, 27_053_101300, 27_053_101600, 27_053_102000, 27_053_102100, 27_053_001700, 27_053_102300, 27_053_102800, 27_053_102900</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0</t>
         </is>
       </c>
     </row>
@@ -6676,18 +6126,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>[5902, 104800, 105204, 125900, 126000, 125800, 126100, 105700, 106400, 106900, 104400, 104900, 105600, 106200, 105400, 5901, 106000, 107500, 8300, 8400]</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>[0.9999999935088997, 0.37801527861760226, 0.02761701297116706, 0.004208980655993217, 0.985820040643122, 4.1844699378398835e-08, 0.006894369130444439, 0.9999983627892153, 0.32283698984640147, 0.008183846620729195, 0.0003520336994105533, 1.1961038648050838e-10, 3.161190600858937e-08, 0.9891539485474161, 0.9679176180859062, 0.9993373149291909, 0.9999999850049264, 7.087816237805567e-07, 1.8967718487190625e-08, 3.6623314475502e-08]</t>
+          <t>27_053_005902, 27_053_104800, 27_053_105204, 27_053_125900, 27_053_126000, 27_053_125800, 27_053_126100, 27_053_105700, 27_053_106400, 27_053_106900, 27_053_104400, 27_053_104900, 27_053_105600, 27_053_106200, 27_053_105400, 27_053_005901, 27_053_106000, 27_053_107500, 27_053_008300, 27_053_008400</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0.9999999935088997, 0.37801527861760226, 0.02761701297116706, 0.004208980655993217, 0.985820040643122, 4.1844699378398835e-08, 0.006894369130444439, 0.9999983627892153, 0.32283698984640147, 0.008183846620729195, 0.0003520336994105533, 1.1961038648050838e-10, 3.161190600858937e-08, 0.9891539485474161, 0.9679176180859062, 0.9993373149291909, 0.9999999850049264, 7.087816237805567e-07, 1.8967718487190625e-08, 3.6623314475502e-08</t>
         </is>
       </c>
     </row>
@@ -6730,18 +6174,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>[105204, 105201, 22000, 126200, 126100, 22801, 22802, 22901, 106700, 104100, 104400, 21800, 105100, 105600, 105400, 109800, 105500, 106600, 106500, 6800, 108000, 7700, 109100, 109900]</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>[0.9723829870288663, 1.0000000000000004, 0.0012946281508589028, 0.0016658785565436905, 0.28557136667060284, 0.002862347092496932, 0.00015090384061404729, 0.000249940307096157, 0.004184943546382751, 1.6033728150433606e-06, 0.9952630428150456, 0.000640532730533815, 0.997639455900535, 0.9994163427288266, 0.004994256921983121, 1.1447159341154269e-06, 0.9951453165320533, 0.9999999999953678, 0.9993306218112001, 7.722584711086594e-07, 0.09724720931738409, 6.829560202572792e-09, 0.7321398063088419, 0.00030427150485763514]</t>
+          <t>27_053_105204, 27_053_105201, 27_053_022000, 27_053_126200, 27_053_126100, 27_053_022801, 27_053_022802, 27_053_022901, 27_053_106700, 27_053_104100, 27_053_104400, 27_053_021800, 27_053_105100, 27_053_105600, 27_053_105400, 27_053_109800, 27_053_105500, 27_053_106600, 27_053_106500, 27_053_006800, 27_053_108000, 27_053_007700, 27_053_109100, 27_053_109900</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>0.9723829870288663, 1.0000000000000004, 0.0012946281508589028, 0.0016658785565436905, 0.28557136667060284, 0.002862347092496932, 0.00015090384061404729, 0.000249940307096157, 0.004184943546382751, 1.6033728150433606e-06, 0.9952630428150456, 0.000640532730533815, 0.997639455900535, 0.9994163427288266, 0.004994256921983121, 1.1447159341154269e-06, 0.9951453165320533, 0.9999999999953678, 0.9993306218112001, 7.722584711086594e-07, 0.09724720931738409, 6.829560202572792e-09, 0.7321398063088419, 0.00030427150485763514</t>
         </is>
       </c>
     </row>
@@ -6784,18 +6222,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>[126000, 110900, 111600, 7700, 8100, 8200, 8300, 8400, 109200, 109300, 109700, 109400, 9500, 9600, 111100, 110000, 109900, 110100, 110800, 11000, 111500]</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>[1.5654906414310474e-11, 0.9999999987000403, 0.28237744774412854, 2.656678267766859e-08, 1.469175715148594e-08, 0.9999999887874697, 0.9999999636537925, 0.33379491621747676, 3.3418041700248274e-09, 0.9999999792779632, 9.290083199429726e-09, 0.9999999962460414, 0.7495508234521506, 0.5707456456059813, 4.617555282825733e-09, 1.0, 0.2157395788066537, 0.5571495386826579, 0.6743927665313457, 0.16410668812587284, 0.0037491813884818407]</t>
+          <t>27_053_126000, 27_053_110900, 27_053_111600, 27_053_007700, 27_053_008100, 27_053_008200, 27_053_008300, 27_053_008400, 27_053_109200, 27_053_109300, 27_053_109700, 27_053_109400, 27_053_009500, 27_053_009600, 27_053_111100, 27_053_110000, 27_053_109900, 27_053_110100, 27_053_110800, 27_053_011000, 27_053_111500</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>1.5654906414310474e-11, 0.9999999987000403, 0.28237744774412854, 2.656678267766859e-08, 1.469175715148594e-08, 0.9999999887874697, 0.9999999636537925, 0.33379491621747676, 3.3418041700248274e-09, 0.9999999792779632, 9.290083199429726e-09, 0.9999999962460414, 0.7495508234521506, 0.5707456456059813, 4.617555282825733e-09, 1.0, 0.2157395788066537, 0.5571495386826579, 0.6743927665313457, 0.16410668812587284, 0.0037491813884818407</t>
         </is>
       </c>
     </row>
@@ -6838,18 +6270,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>[5902, 125900, 126000, 125800, 108700, 106000, 107500, 107600, 108600, 8400, 8500, 108900, 108800, 109700, 109400, 9500, 9600, 107400, 110100, 110200, 110400]</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>[6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09]</t>
+          <t>27_053_005902, 27_053_125900, 27_053_126000, 27_053_125800, 27_053_108700, 27_053_106000, 27_053_107500, 27_053_107600, 27_053_108600, 27_053_008400, 27_053_008500, 27_053_108900, 27_053_108800, 27_053_109700, 27_053_109400, 27_053_009500, 27_053_009600, 27_053_107400, 27_053_110100, 27_053_110200, 27_053_110400</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09</t>
         </is>
       </c>
     </row>
@@ -6890,22 +6316,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6944,22 +6356,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6998,22 +6396,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7052,22 +6436,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7106,22 +6476,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7160,22 +6516,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7214,22 +6556,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7268,22 +6596,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7322,22 +6636,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7376,22 +6676,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7430,22 +6716,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7484,22 +6756,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7538,22 +6796,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7592,22 +6836,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7646,22 +6876,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7700,22 +6916,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7754,22 +6956,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7808,22 +6996,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7862,22 +7036,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7916,22 +7076,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7970,22 +7116,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8024,22 +7156,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8078,22 +7196,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8132,22 +7236,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8186,22 +7276,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8240,22 +7316,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8294,22 +7356,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8348,22 +7396,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8402,22 +7436,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8456,22 +7476,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8510,22 +7516,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8564,22 +7556,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8618,22 +7596,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8672,22 +7636,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8726,22 +7676,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8780,22 +7716,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8834,22 +7756,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8888,22 +7796,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8942,22 +7836,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8996,22 +7876,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9050,22 +7916,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9104,22 +7956,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9158,22 +7996,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9212,22 +8036,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9266,22 +8076,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9320,22 +8116,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9374,22 +8156,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9428,22 +8196,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9482,22 +8236,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9536,22 +8276,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9590,22 +8316,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9644,22 +8356,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9698,22 +8396,8 @@
           <t>new_york_city_council_2021.csv</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>new york_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9754,18 +8438,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>[405000, 403300, 405401, 403900, 406100, 405700, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>[0.44892901688369646, 0.4860443219627527, 1.0, 0.9614218534734278, 0.006246681943513278, 0.42716732859389106, 0.7301875375370571, 0.07386450709824258, 0.0003558713564433113, 0.00037986518468984925, 0.000816199710589858, 1.0, 0.12292428028382218, 0.9887989302384722, 0.7217635439807267, 0.9917195162230201, 0.965110899130757, 0.004842168321197998, 0.7881097170131135, 0.06995574665824546, 0.9914983863211025, 0.9999999999999999, 0.9932307963502839, 0.12839039219229662, 0.0024505301492987706, 0.9925872439747344, 0.05255546479841337, 1.0, 0.33262755923613835, 1.0584676909892966e-05]</t>
+          <t>06_001_405800, 06_001_405000, 06_001_405200, 06_001_403702, 06_001_405500, 06_001_403600, 06_001_403800, 06_001_427300, 06_001_403300, 06_001_427200, 06_001_405902, 06_001_983200, 06_001_405700, 06_001_405600, 06_001_404900, 06_001_403900, 06_001_403000, 06_001_406100, 06_001_403400, 06_001_426100, 06_001_405901, 06_001_405402, 06_001_405100, 06_001_405401, 06_001_405302, 06_001_405301, 06_001_426200, 06_001_406000</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>0.9952880623076337, 0.4378001181667679, 0.7847996203331418, 0.04542214846687625, 1.0000000000000002, 0.1320573417385416, 0.9850241105829701, 0.06462175558780911, 0.49077297438426537, 0.10091813795598943, 0.9999999999999999, 2.6105571985622473e-05, 0.4292787837107661, 0.9873103067811967, 0.00022522891163629573, 0.9529190044600623, 0.9674748391119764, 0.0020295329905437543, 0.06806484793622208, 3.7036027812494794e-09, 0.9952446864687264, 1.0000000000000002, 0.984850702384667, 0.9999999999999991, 0.7295141656242969, 0.348053315026737, 4.552120587293933e-07, 0.7335640624663884</t>
         </is>
       </c>
     </row>
@@ -9808,18 +8486,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>[0.7645935973321921, 0.6051995434386682, 0.9788964128519579, 0.9998619152754435, 0.0004070274593684326, 0.9970452673752833, 0.10464123487881022, 0.01156552989184899, 0.12484092157187544, 0.9997176928528252, 0.22396852451477223, 0.99891819645774, 0.8652205961895646, 0.15661427450695206, 0.0029940024042560283, 0.7949380516082937, 0.2170941280860057, 0.004933188299563975, 0.0011003421866174008, 0.15860436607921663, 0.0006646815243906276, 0.9518975244578656, 0.9999999999999999, 0.03984052360928679, 1.0000000000000002, 0.3743142943374305, 0.9863459607967624, 0.11024574671034577, 1.0000000000000004, 0.013941000447866912]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>0.0010627951810134944, 0.0032080397254399384, 0.993112484386575, 0.0007475180264288983, 0.9768473329237397, 0.0046865704888829724, 0.21643572257431073, 0.15797562042945423, 0.15387895627562354, 1.0000000000000002, 0.8567996227969332, 1.0000000000000016, 0.7949353764356766, 0.999856825323569, 0.9971579848201868, 0.01429700673269928, 0.03994289435815528, 0.9947709841951301, 0.10117740112736485, 7.940893419061824e-06, 0.004739592986611635, 0.3728272133471886, 0.10994418133286858, 0.6065121781936023, 0.7686769910093971, 0.9925747496879975, 0.9528231915931671, 0.2234250900543962, 1.0, 0.1252607257949974</t>
         </is>
       </c>
     </row>
@@ -9862,18 +8534,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 407000, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9940288312251222, 0.0020317003369639763, 0.0081767422394515, 0.49004362017135744, 0.20270497932548565, 0.00013808472456259066, 1.0, 0.6267215454644371, 0.0066874897365231094, 1.0, 0.13477940381050368, 0.8433857254929633, 0.01727177655208233, 0.7829058719140024, 0.9748511444408519, 0.026153772976961313, 0.43961375917380885, 0.0018219683818578955, 1.0000000000000002, 0.3717979962153727, 0.9601594763905816, 0.01321694128434464, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407000, 06_001_407500, 06_001_409900, 06_001_408900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>0.48476821111441337, 0.004975039697081066, 0.003367581038624064, 0.9999999999999998, 0.9999999999999996, 0.20360320312677593, 0.9774894338168824, 1.0000000000000007, 1.0, 0.7835642774256821, 0.4401746928546635, 0.8461210437243714, 0.14320037720307371, 0.016976825902408243, 0.00014317467643169216, 0.9600571056418401, 0.0037130378989467033, 0.0066021870784924355, 0.36782909526796337, 0.016090165369109077, 0.003407639375664441, 0.6301285236889191, 0.9995195311643544, 0.9999999999999999</t>
         </is>
       </c>
     </row>
@@ -9916,18 +8582,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>[354001, 401400, 400500, 404501, 403900, 404000, 400600, 400100, 426100, 422000, 400900, 400700, 400800, 400200, 400300, 423902, 404200, 421600, 400400, 401000, 404400, 401200, 401300, 401100, 353001, 423901, 423700, 423800, 424001, 424002, 426200, 425104, 404102, 425103, 404101, 404300, 403501]</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>[0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06]</t>
+          <t>06_013_354001, 06_001_401400, 06_001_400500, 06_001_404501, 06_001_403900, 06_001_404000, 06_001_400600, 06_001_400100, 06_001_426100, 06_001_422000, 06_001_400900, 06_001_400700, 06_001_400800, 06_001_400200, 06_001_400300, 06_001_423902, 06_001_404200, 06_001_421600, 06_001_400400, 06_001_401000, 06_001_404400, 06_001_401200, 06_001_401300, 06_001_401100, 06_013_353001, 06_001_423901, 06_001_423700, 06_001_423800, 06_001_424001, 06_001_424002, 06_001_426200, 06_001_425104, 06_001_404102, 06_001_425103, 06_001_404101, 06_001_404300, 06_001_403501</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06</t>
         </is>
       </c>
     </row>
@@ -9970,18 +8630,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>[401400, 401500, 402400, 401600, 402200, 402500, 402600, 402700, 403000, 403100, 403900, 404000, 403600, 406000, 401800, 401000, 401200, 401300, 401100, 402900, 427300, 401700, 983200, 410500, 425104, 981900, 428700, 403701, 982000, 403702, 425101, 403502, 403401, 403402, 403302, 402801, 402802, 403301, 405200, 990000, 990200, 403501]</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>[0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759]</t>
+          <t>06_001_401400, 06_001_401500, 06_001_402400, 06_001_401600, 06_001_402200, 06_001_402500, 06_001_402600, 06_001_402700, 06_001_403000, 06_001_403100, 06_001_403900, 06_001_404000, 06_001_403600, 06_001_406000, 06_001_401800, 06_001_401000, 06_001_401200, 06_001_401300, 06_001_401100, 06_001_402900, 06_001_427300, 06_001_401700, 06_001_983200, 06_001_410500, 06_001_425104, 06_001_981900, 06_001_428700, 06_001_403701, 06_001_982000, 06_001_403702, 06_001_425101, 06_001_403502, 06_001_403401, 06_001_403402, 06_001_403302, 06_001_402801, 06_001_402802, 06_001_403301, 06_001_405200, 06_001_990000, 06_075_990200, 06_001_403501</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759</t>
         </is>
       </c>
     </row>
@@ -10024,18 +8678,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>[409000, 426100, 405000, 406000, 407500, 408700, 408800, 407200, 407300, 407400, 407600, 427100, 427200, 406500, 406601, 405600, 406400, 405700, 405800, 404700, 404800, 404900, 406602, 407101, 407102, 406201, 406202, 406300, 406100]</t>
-        </is>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>[0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101]</t>
+          <t>06_001_409000, 06_001_426100, 06_001_405000, 06_001_406000, 06_001_407500, 06_001_408700, 06_001_408800, 06_001_407200, 06_001_407300, 06_001_407400, 06_001_407600, 06_001_427100, 06_001_427200, 06_001_406500, 06_001_406601, 06_001_405600, 06_001_406400, 06_001_405700, 06_001_405800, 06_001_404700, 06_001_404800, 06_001_404900, 06_001_406602, 06_001_407101, 06_001_407102, 06_001_406201, 06_001_406202, 06_001_406300, 06_001_406100</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101</t>
         </is>
       </c>
     </row>
@@ -10078,18 +8726,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>[410000, 432800, 409000, 409800, 408100, 410300, 409900, 408300, 409200, 409300, 408500, 408600, 408800, 408900, 409100, 409400, 409500, 409600, 409700, 410100, 410200, 410400, 407300, 428301, 432100, 430400, 433400, 430102, 432200, 432300, 432700, 432502, 990100, 990000, 432400]</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>[0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261]</t>
+          <t>06_001_410000, 06_001_432800, 06_001_409000, 06_001_409800, 06_001_408100, 06_001_410300, 06_001_409900, 06_001_408300, 06_001_409200, 06_001_409300, 06_001_408500, 06_001_408600, 06_001_408800, 06_001_408900, 06_001_409100, 06_001_409400, 06_001_409500, 06_001_409600, 06_001_409700, 06_001_410100, 06_001_410200, 06_001_410400, 06_001_407300, 06_001_428301, 06_001_432100, 06_001_430400, 06_001_433400, 06_001_430102, 06_001_432200, 06_001_432300, 06_001_432700, 06_001_432502, 06_081_990100, 06_001_990000, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261</t>
         </is>
       </c>
     </row>
@@ -10132,18 +8774,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>[402900, 405000, 403300, 405401, 403900, 406100, 405700, 404000, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 406400, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>[0.0004999497275502113, 0.49863585293245516, 0.4858514297698514, 1.0, 0.9987668969721312, 0.004724218362421146, 0.42150372211992154, 0.0016857449174700815, 0.7243164529541289, 0.15792098592982368, 0.0001872956113276651, 0.0027054803100405363, 0.0015957614900758623, 1.0, 0.10648623467539323, 0.9874504505049675, 0.9963304091068981, 0.9971933424007746, 0.9709093150691882, 0.007436566736748314, 0.9999991476924319, 0.011282786161414435, 0.9996797271803898, 0.9999999999999999, 0.9973402770218983, 0.0028439953747610505, 0.005670683863005139, 0.9956559817414493, 0.2151532534283385, 1.0, 4.425473547037609e-09, 0.9964913749893776, 0.00016370775906020236]</t>
+          <t>06_001_405800, 06_001_402900, 06_001_405000, 06_001_405200, 06_001_403702, 06_001_405500, 06_001_403600, 06_001_403800, 06_001_427300, 06_001_403300, 06_001_406300, 06_001_427200, 06_001_405902, 06_001_983200, 06_001_405700, 06_001_405600, 06_001_404900, 06_001_406201, 06_001_403900, 06_001_403000, 06_001_406100, 06_001_403400, 06_001_426100, 06_001_405901, 06_001_405402, 06_001_404000, 06_001_405100, 06_001_405401, 06_001_405302, 06_001_405301, 06_001_426200, 06_001_406000</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
     </row>
@@ -10186,18 +8822,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>[0.7677292811622569, 0.4878513641825002, 0.9875376727646378, 0.9999999999999999, 0.0013002576386151583, 0.9994196817902945, 0.0343692404845977, 0.0036141994136472317, 0.15227970869144272, 0.9946933827419492, 0.45190103534390486, 0.9973412159111323, 0.8653970758995685, 0.0052912416775965105, 0.0034409974255693453, 0.5764479705398784, 0.12378770134065104, 0.0063408794050916865, 0.0015485555719296463, 0.1633593692005633, 0.00014963309253527605, 0.999771354049716, 0.9999999999999999, 0.0796154101334587, 1.0000000000000002, 0.3756858239392752, 0.9884702074019383, 0.11177113229951395, 1.0000000000000004, 4.240015250145095e-06]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
     </row>
@@ -10240,18 +8870,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409000, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>[0.9999827045210273, 0.994308186917521, 4.4661900667418554e-05, 0.006075786241988535, 0.2861474234149392, 0.20437778708245594, 0.9999998755945416, 0.6232914417410853, 9.319125075570363e-05, 0.9998436596898741, 0.13460292410043967, 0.9947087583223345, 0.2362410598575429, 0.8762122986592544, 0.9907343149304814, 0.025977144002550884, 0.4363877858902382, 0.0004213552431639612, 1.0000000000000002, 1.984418283882492e-06, 0.3707235533165565, 0.9203795706572192, 0.01061615781161689, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407500, 06_001_409900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
     </row>
@@ -10294,18 +8918,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 403600, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 404502, 401100, 425104, 423800, 422600, 400100, 400800, 401200, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>[8.108544361627887e-05, 0.013812172951728242, 1.0000000000000002, 1.0, 0.9997175244314838, 0.005203684315170878, 0.004312486902487608, 0.0042931082233909615, 0.992062648036296, 0.9980779162368354, 0.0009432222363002836, 0.948870355376314, 0.00015148367872345393, 0.008881876189025983, 0.9982870009037823, 0.0023039623444210864, 0.0028028762152057193, 6.528512258157975e-06, 0.00019656834224763496, 0.7704347310246301, 0.9986627440618165, 0.9964681151240459, 0.0071908945579712965, 0.035903831202976105, 0.9888273767207144, 0.9999999937752034, 0.005498848901854908, 0.01464034145770446, 0.008089361797761764, 0.04604019315987436, 0.8407680826044995, 0.030546016845849767, 0.0028738792749451276, 3.021589114891565e-05, 0.9846245072264328, 0.994449593364898, 0.9085580501752115, 0.9997453284368248, 0.015978863821291548, 0.9958405820623568]</t>
+          <t>06_013_354001, 06_013_353001, 06_001_423800, 06_001_421600, 06_001_404300, 06_001_425103, 06_001_404102, 06_001_404501, 06_001_424001, 06_001_403501, 06_001_403600, 06_001_400500, 06_001_423700, 06_001_425104, 06_001_401300, 06_001_404200, 06_001_403900, 06_001_400600, 06_001_426100, 06_001_400800, 06_001_404000, 06_001_400700, 06_001_400200, 06_001_400300, 06_001_404101, 06_001_401100, 06_001_401400, 06_001_404502, 06_001_426200, 06_001_401000, 06_001_400900, 06_001_400100, 06_001_404400, 06_001_400400, 06_001_401200, 06_001_423902, 06_001_423901, 06_001_424002, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>0.014696611122848353, 0.005030362273846488, 0.0028318223805199327, 0.002684398779517433, 0.994760884632867, 0.007026289953628835, 0.9999999947898024, 0.004493804394021167, 0.017620070334289684, 0.006738376431197547, 0.00018522633118634943, 0.9971116248390315, 0.01618011059289278, 0.022306701564252084, 9.439148932459096e-05, 0.9874644890510079, 0.0064239404802395985, 1.0000000000000007, 0.0024603391880098323, 0.9852659489062447, 0.9434900352039545, 0.9877417101648296, 0.9861028142876566, 0.9999999999999997, 0.9948239859199954, 0.8380022117928736, 0.004561300071685791, 0.045786739079560816, 0.002504211647361193, 0.9993926450405061, 0.9735873844760757, 0.9850083083226198, 0.7701520394635946, 0.9980947826892871, 0.9086246526957307, 0.024036287718993743, 0.010577661024551032, 0.03258096695276012, 0.00017404507978708433, 0.007128817371318812</t>
         </is>
       </c>
     </row>
@@ -10348,18 +8966,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 17902, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 0.04925135571359105, 0.9992497039443016, 0.9999999999999998, 0.9999189145562911, 0.5139556780373109, 0.00020075771346711783, 0.994796315684734, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 0.01180872740393969, 1.0, 0.9999999999999998, 0.004452239746500897, 0.9261354929017194, 0.9971971237849557, 0.8768791513738948, 0.9999999999999996, 1.0, 0.2782364560191839, 1.0, 0.03488910086935647, 1.0000000000000002, 0.27417102515272274, 0.21189028298671833, 0.033284627494764935, 0.9997419374624053, 0.15923191739547352, 8.784094243099689e-05, 0.9999999999999996, 0.9474445352016585, 0.09144194982491595, 0.6673724407643923, 0.9999894153231295]</t>
+          <t>06_001_402900, 06_001_402200, 06_001_405200, 06_001_403702, 06_001_403701, 06_001_403502, 06_001_403501, 06_001_428700, 06_001_981900, 06_001_403600, 06_001_427300, 06_001_403100, 06_001_403300, 06_001_425104, 06_001_410500, 06_001_983200, 06_001_982000, 06_001_402500, 06_001_401300, 06_001_402700, 06_001_403000, 06_001_403400, 06_001_401600, 06_001_402400, 06_001_402800, 06_001_401800, 06_001_402600, 06_001_404000, 06_001_401500, 06_001_405302, 06_001_405301, 06_001_990000, 06_001_401100, 06_001_401400, 06_001_406000, 06_001_401000, 06_001_401200, 06_001_401700, 06_075_017902</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>0.9999999999999998, 1.0000000000000007, 0.2152003796668561, 0.9545778515330581, 1.0, 0.9999999999999998, 0.9932616235687987, 0.03777243320466729, 1.0000000000000009, 0.8677574319302781, 0.033560411657890386, 1.0000000000000004, 0.5092270256157329, 0.0042002882635206115, 1.0000000000000002, 0.9999738944280142, 1.0, 1.0000000000000004, 0.9999056085106456, 1.0000000000000002, 0.03252516088801953, 0.9319351520637771, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.006806481329788015, 0.9997867169868059, 0.2704858343756534, 0.6519466849733234, 0.03539559412975538, 0.16199778820715693, 0.9954386999283149, 0.003924654573319967, 0.0004052623256769898, 0.09137534730426908, 0.9677157491620743, 0.04267586814465963</t>
         </is>
       </c>
     </row>
@@ -10402,18 +9014,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>[406601, 405000, 406602, 407300, 406100, 405700, 404700, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 428301, 406300, 407600, 406202, 405100, 407400, 405901, 409000, 427200, 407102, 406201, 407101, 405800, 406400]</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>[0.23540640266772153, 0.5497024752693102, 0.3948004565615807, 0.4842929423487521, 0.9937533180564817, 0.5728326714061863, 0.0001429729449257285, 0.04609872592682563, 0.9999999999999997, 0.26536022271642684, 0.8949595823096742, 0.00031078166367081003, 0.8751590784281726, 0.01120106976153418, 0.00028230714706211854, 2.5736251112413705e-05, 0.9951578316789268, 0.18779017183963181, 0.9999999999999998, 0.0018644331036478078, 0.4017818747471255, 0.006769203649743787, 0.0018531227793883952, 0.0487733469864914, 0.6256857056625664, 0.9975494698507898, 0.8897542532895898, 0.007412756025164851, 0.9860589995519746]</t>
+          <t>06_001_405800, 06_001_407300, 06_001_405000, 06_001_409000, 06_001_407400, 06_001_427100, 06_001_407600, 06_001_406300, 06_001_427200, 06_001_406202, 06_001_404800, 06_001_406400, 06_001_405700, 06_001_405600, 06_001_404700, 06_001_404900, 06_001_406201, 06_001_406100, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_405901, 06_001_407200, 06_001_406000, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>0.004711937692338354, 0.4887322319766512, 0.5535479150538906, 0.001588352692283609, 0.4018496867158882, 0.009068279544011527, 0.18808779766192243, 1.0000000000000009, 0.04187921326680131, 0.9999999999999997, 0.002842015179801912, 0.9857029932673116, 0.5707212162892621, 0.01268969321880255, 1.2395538817160178e-05, 0.8981779823454001, 1.0000000000000002, 0.9939000792143817, 1.150443299756236e-07, 0.6271727866528022, 0.8900558186671315, 0.3934878218063907, 0.23132300899060138, 0.00475531353127123, 1.0000000000000002, 0.2625112829603036, 0.8747392742050064</t>
         </is>
       </c>
     </row>
@@ -10456,18 +9062,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>[410400, 408300, 409500, 409900, 407300, 409700, 408800, 410200, 432400, 409100, 410000, 410300, 408900, 409200, 410100, 432502, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>[0.9996644218110333, 0.0059711687749702674, 0.9979682996631221, 0.9918071992521879, 0.025663437479815934, 0.7972950206744407, 0.3732784545355358, 0.9998173882034194, 0.019151235726654867, 1.0, 0.9184047907226011, 1.0000000000000002, 0.993312510263488, 0.9806545207207364, 0.9999196764677503, 0.00705355752482992, 0.021227082233637888, 0.0012241060153903231, 0.9738462270230294, 0.0610951738914894, 0.0012068399726919978, 0.9956131822847882, 0.9702879937328869, 0.6282020037845263, 0.0013771031367038687, 0.000671669394001139, 1.0, 0.0014030294100334838]</t>
+          <t>06_081_990100, 06_001_432200, 06_001_407300, 06_001_430102, 06_001_410300, 06_001_409400, 06_001_409000, 06_001_409700, 06_001_408100, 06_001_428301, 06_001_409100, 06_001_410000, 06_001_410400, 06_001_409900, 06_001_410200, 06_001_432800, 06_001_408900, 06_001_410100, 06_001_432502, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_990000, 06_001_408800, 06_001_409200, 06_001_432300, 06_001_409300, 06_001_408300, 06_001_432400, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>1.3665280109173466e-05, 0.0008407266239658177, 0.02459553982269143, 6.15095392641679e-05, 1.0000000000000004, 1.0000000000000004, 0.9683791755711295, 0.7963967968732273, 6.477941319269415e-06, 0.053393686509186945, 1.0000000000000004, 0.8952271556865586, 0.9999772994042383, 0.979183543644267, 0.9998240965522985, 0.003380754294167634, 0.9933978129215112, 0.9997593509575978, 3.3962346957954694e-05, 0.6321709047320416, 0.9839098346308706, 0.9965923606243321, 0.2684011219594302, 0.3698714763110789, 0.9757785131907507, 0.004487644352867498, 0.9972969991686669, 0.0004804688356651006, 0.018349581497950226, 0.023104188687024983</t>
         </is>
       </c>
     </row>
@@ -10510,18 +9110,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>[402900, 405000, 403300, 405401, 403900, 406100, 405700, 404000, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 406400, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>[0.0004999497275502113, 0.49863585293245516, 0.4858514297698514, 1.0, 0.9987668969721312, 0.004724218362421146, 0.42150372211992154, 0.0016857449174700815, 0.7243164529541289, 0.15792098592982368, 0.0001872956113276651, 0.0027054803100405363, 0.0015957614900758623, 1.0, 0.10648623467539323, 0.9874504505049675, 0.9963304091068981, 0.9971933424007746, 0.9709093150691882, 0.007436566736748314, 0.9999991476924319, 0.011282786161414435, 0.9996797271803898, 0.9999999999999999, 0.9973402770218983, 0.0028439953747610505, 0.005670683863005139, 0.9956559817414493, 0.2151532534283385, 1.0, 4.425473547037609e-09, 0.9964913749893776, 0.00016370775906020236]</t>
+          <t>06_001_405800, 06_001_402900, 06_001_405000, 06_001_405200, 06_001_403702, 06_001_405500, 06_001_403600, 06_001_403800, 06_001_427300, 06_001_403300, 06_001_406300, 06_001_427200, 06_001_405902, 06_001_983200, 06_001_405700, 06_001_405600, 06_001_404900, 06_001_406201, 06_001_403900, 06_001_403000, 06_001_406100, 06_001_403400, 06_001_426100, 06_001_405901, 06_001_405402, 06_001_404000, 06_001_405100, 06_001_405401, 06_001_405302, 06_001_405301, 06_001_426200, 06_001_406000</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
     </row>
@@ -10564,18 +9158,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>[0.7677292811622569, 0.4878513641825002, 0.9875376727646378, 0.9999999999999999, 0.0013002576386151583, 0.9994196817902945, 0.0343692404845977, 0.0036141994136472317, 0.15227970869144272, 0.9946933827419492, 0.45190103534390486, 0.9973412159111323, 0.8653970758995685, 0.0052912416775965105, 0.0034409974255693453, 0.5764479705398784, 0.12378770134065104, 0.0063408794050916865, 0.0015485555719296463, 0.1633593692005633, 0.00014963309253527605, 0.999771354049716, 0.9999999999999999, 0.0796154101334587, 1.0000000000000002, 0.3756858239392752, 0.9884702074019383, 0.11177113229951395, 1.0000000000000004, 4.240015250145095e-06]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
     </row>
@@ -10618,18 +9206,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409000, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>[0.9999827045210273, 0.994308186917521, 4.4661900667418554e-05, 0.006075786241988535, 0.2861474234149392, 0.20437778708245594, 0.9999998755945416, 0.6232914417410853, 9.319125075570363e-05, 0.9998436596898741, 0.13460292410043967, 0.9947087583223345, 0.2362410598575429, 0.8762122986592544, 0.9907343149304814, 0.025977144002550884, 0.4363877858902382, 0.0004213552431639612, 1.0000000000000002, 1.984418283882492e-06, 0.3707235533165565, 0.9203795706572192, 0.01061615781161689, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407500, 06_001_409900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
     </row>
@@ -10672,18 +9254,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 401100, 425104, 423800, 400100, 400800, 401200, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>[2.656209932681672e-05, 0.01112123489363668, 1.0000000000000002, 1.0, 0.9977244426022931, 0.002952584727418623, 0.00026767918881271286, 0.0019107257353898047, 0.9970257984630003, 0.9992411667912338, 0.003022693754780759, 0.9680351080719733, 0.0004576310444903695, 0.012895325220125693, 0.9991369618634541, 0.004587311345210553, 1.3595576217647143e-08, 2.590665602298652e-05, 0.5470567456152344, 0.9984706035248687, 0.9964772950395623, 0.0013424026365416633, 0.03218910294001414, 0.9958706707417351, 0.9999999999999999, 0.0020897682144825204, 0.007188464292424194, 0.01797643756265914, 0.8342022863835278, 0.006525690020902253, 0.0026608621812159194, 0.9916029318356501, 0.9926343779854776, 0.9062776786431412, 0.999529996946345, 0.015989876772205595, 0.997581286700642]</t>
+          <t>06_013_354001, 06_013_353001, 06_001_423800, 06_001_421600, 06_001_404300, 06_001_425103, 06_001_404102, 06_001_404501, 06_001_424001, 06_001_403501, 06_001_400500, 06_001_423700, 06_001_425104, 06_001_401300, 06_001_404200, 06_001_403900, 06_001_400600, 06_001_426100, 06_001_400800, 06_001_404000, 06_001_400700, 06_001_401500, 06_001_400200, 06_001_400300, 06_001_404101, 06_001_401100, 06_001_401400, 06_001_426200, 06_001_401000, 06_001_400900, 06_001_400100, 06_001_404400, 06_001_400400, 06_001_401200, 06_001_423902, 06_001_423901, 06_001_424002, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>0.0067887205079617055, 0.0015391255728193192, 0.0020552173694893166, 0.002680472593695675, 0.9947700098967562, 0.0013036741774581574, 1.0000000000000002, 0.0005993884095856405, 0.01931626062404116, 2.6182091213769463e-06, 0.9960514126878179, 0.02531315565161337, 0.005634643724556976, 6.991874059631552e-06, 0.9936781052052928, 0.0011873331042474493, 1.0000000000000007, 0.0044628337844955885, 0.981938027986616, 0.9762498585231889, 0.9879093703428604, 2.0664788211457506e-05, 0.9858031592111738, 0.9999999999999997, 0.9976728213953011, 0.8314362094571293, 0.00024251822271030292, 0.004397440709882871, 0.991497511432827, 0.9812135951851498, 0.9918698878032208, 0.5467439193823153, 0.9985930776454361, 0.9064150840599814, 0.036445388889006856, 0.011963736718719427, 0.03215493905107363, 0.004475913618253192, 0.006397957003133912</t>
         </is>
       </c>
     </row>
@@ -10726,18 +9302,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 403900, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>[0.9995000502724857, 1.0, 0.0253306837873711, 0.9996341558474179, 0.9999999999999998, 0.9999734379005675, 0.5141485702300945, 0.0012191281292634267, 0.9970474152727935, 0.9999999999999998, 0.000589477744066462, 1.0, 1.0, 0.9999999999999998, 0.9995900384245058, 0.03027914701030403, 1.0, 0.9999999999999998, 0.0011003194203217295, 0.842079014070031, 0.9999999864044794, 0.893513765324486, 0.999978748455835, 1.0, 0.0036695908932477973, 1.0, 0.02909068493069756, 1.0000000000000002, 8.523077183612521e-07, 0.0030561554299491337, 0.9970874836287933, 0.16579771361665702, 0.0016275722910100705, 0.9999999999999996, 0.7848467465713239, 0.09372232135680356, 0.003508625010712741, 0.9961816118836267]</t>
+          <t>06_001_402900, 06_001_402200, 06_001_405200, 06_001_403702, 06_001_403701, 06_001_403502, 06_001_403501, 06_001_428700, 06_001_981900, 06_001_403600, 06_001_427300, 06_001_403100, 06_001_403300, 06_001_425104, 06_001_410500, 06_001_983200, 06_001_982000, 06_001_402500, 06_001_401300, 06_001_402700, 06_001_403900, 06_001_403000, 06_001_403400, 06_001_401600, 06_001_402400, 06_001_402800, 06_001_401800, 06_001_402600, 06_001_404000, 06_001_401500, 06_001_990000, 06_001_401100, 06_001_401400, 06_001_406000, 06_001_401000, 06_001_401200, 06_001_401700, 06_075_017902</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>0.9999775267963873, 1.0000000000000007, 9.55664440407178e-07, 0.8045967547440328, 1.0, 0.9999999999999998, 0.9999973817908929, 0.019749243196765794, 0.9891519237905889, 0.8859566876617134, 0.003082019355126612, 1.0000000000000004, 0.5105950861278049, 0.004161178477387086, 1.0000000000000002, 0.9782634868157625, 0.9995919690720226, 1.0000000000000004, 0.9999930081259307, 1.0000000000000002, 7.44717627738628e-05, 0.025879207965284697, 0.8403073967360203, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.01827835898736466, 0.999206580894849, 0.03380514233231011, 0.1685637905428793, 0.999757481777288, 0.0011246725436768823, 3.167127921880509e-05, 0.09358491594001864, 0.9631774290340557, 2.221911384119028e-05</t>
         </is>
       </c>
     </row>
@@ -10780,18 +9350,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>[406601, 405000, 406602, 407300, 406100, 405700, 408700, 404700, 408800, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 406300, 407600, 406202, 407400, 405901, 409000, 427200, 407500, 407102, 406201, 407101, 405800, 406400]</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>[0.23227071883764688, 0.5010254794742202, 0.5121486358176096, 0.6871348099812029, 0.9919093290425203, 0.5784962778800438, 1.2440552408659218e-07, 0.00014512105496026562, 0.0005224128254900748, 0.00016848831826374484, 0.9999999999999997, 0.2709636051965051, 0.9653726721550996, 3.895245878793784e-05, 0.8477202913086438, 0.012549549495068268, 0.005306617257858696, 0.9925634332629887, 0.18731096960271862, 0.9999999999999998, 0.40025284490916957, 0.002659722978040269, 0.00022690254096742625, 0.013260592417478838, 5.019209249383257e-06, 0.6243141760606364, 0.9943293161372108, 0.8882288677006079, 0.004344018258693942, 0.9999957555592354]</t>
+          <t>06_001_405800, 06_001_407300, 06_001_405000, 06_001_409000, 06_001_408700, 06_001_407400, 06_001_427100, 06_001_407600, 06_001_406300, 06_001_427200, 06_001_406202, 06_001_404800, 06_001_406400, 06_001_405700, 06_001_405600, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_406201, 06_001_406100, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_407200, 06_001_408800, 06_001_406000, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>8.131151498200891e-05, 0.681097803525554, 0.5013290407176527, 0.00014880324660171364, 1.262814850403896e-07, 0.39993838067849724, 2.1792518141814564e-06, 0.18761087952481248, 0.9984885515205657, 0.010751439978086067, 0.9999999999999997, 0.0026978699299492906, 0.9999972886713988, 0.57694024336863, 0.014046258597891277, 0.00010561105151224253, 5.134783543136277e-06, 0.9719253971701786, 0.9975019472717495, 0.9814152136362709, 6.759349948789213e-08, 0.6257852059000748, 0.8885609747819786, 0.5117493707375023, 0.22812829855554553, 1.0000000000000002, 0.0007063584443686103, 0.26352978056923343, 0.847381754678294</t>
         </is>
       </c>
     </row>
@@ -10834,18 +9398,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>[410400, 408600, 408300, 409500, 409900, 407300, 409700, 408800, 430400, 410200, 432400, 409100, 410000, 410300, 408900, 432700, 409200, 410100, 432502, 408500, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>[0.9999248830771386, 1.7295479037207908e-05, 0.005691813082554984, 0.9999553380992199, 0.9927720174013653, 0.025273013853144483, 0.7956222129176046, 0.37618614543318385, 0.00037014235429576846, 1.0, 0.0027721275430710904, 1.0, 0.9939318350694749, 1.0000000000000002, 0.999906808749302, 1.1449734166373166e-05, 0.9828536924412588, 0.9999999999999993, 0.0074222227939128365, 0.00015634031004601367, 0.002211363708426982, 0.0019577360449498614, 0.9740228559973743, 0.00963000516489857, 0.0004179181992460182, 0.9961274735203688, 0.99767417190505, 0.629276446683574, 0.0017004386052384877, 0.001322049330742177, 1.0, 0.0015856808739012848]</t>
+          <t>06_081_990100, 06_001_432200, 06_001_407300, 06_001_430102, 06_001_410300, 06_001_409400, 06_001_409000, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_428301, 06_001_409100, 06_001_410000, 06_001_410400, 06_001_409900, 06_001_410200, 06_001_430400, 06_001_432800, 06_001_408900, 06_001_410100, 06_001_432502, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_990000, 06_001_408800, 06_001_409200, 06_001_432700, 06_001_432300, 06_001_409300, 06_001_408300, 06_001_432400, 06_001_432100, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>8.423374311592529e-05, 0.00165875609493979, 0.024194917817344657, 0.0004223440120539605, 1.0000000000000004, 1.0000000000000004, 0.9891925664292057, 0.00011690761259118062, 0.794712721211581, 4.999566107763076e-05, 0.06729587734991234, 1.0000000000000004, 0.9580983620613143, 0.9999999999999998, 0.9620559925452943, 0.9999999999999992, 0.0038010496594105122, 0.0034430248701252768, 1.0000000000000002, 0.9998976502178915, 0.0005822471271876824, 0.6318002946917548, 0.9841869995496813, 0.9998747506510213, 0.2755325802534351, 0.3727769004151381, 0.9777668368562132, 7.64377439686442e-06, 0.005047772746822691, 0.997585548744643, 8.559335906251925e-05, 0.005436440140424442, 0.022254206261718857, 3.6348652515142584e-05</t>
         </is>
       </c>
     </row>
@@ -10888,18 +9446,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>[407900, 404501, 426100, 408100, 404502, 406800, 404200, 407500, 404400, 404600, 406700, 352202, 353001, 407800, 407000, 407400, 407600, 407700, 406900, 430102, 406500, 406601, 406400, 404700, 404800, 404900, 406602, 407101, 407102, 408000]</t>
-        </is>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>[0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443]</t>
+          <t>06_001_407900, 06_001_404501, 06_001_426100, 06_001_408100, 06_001_404502, 06_001_406800, 06_001_404200, 06_001_407500, 06_001_404400, 06_001_404600, 06_001_406700, 06_013_352202, 06_013_353001, 06_001_407800, 06_001_407000, 06_001_407400, 06_001_407600, 06_001_407700, 06_001_406900, 06_001_430102, 06_001_406500, 06_001_406601, 06_001_406400, 06_001_404700, 06_001_404800, 06_001_404900, 06_001_406602, 06_001_407101, 06_001_407102, 06_001_408000</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443</t>
         </is>
       </c>
     </row>
@@ -10942,18 +9494,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>[407900, 409800, 408100, 409900, 407500, 408300, 408200, 408400, 408500, 408600, 408700, 408800, 409500, 409600, 409700, 407800, 407300, 407400, 407600, 407700, 430102, 408000]</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>[0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05]</t>
+          <t>06_001_407900, 06_001_409800, 06_001_408100, 06_001_409900, 06_001_407500, 06_001_408300, 06_001_408200, 06_001_408400, 06_001_408500, 06_001_408600, 06_001_408700, 06_001_408800, 06_001_409500, 06_001_409600, 06_001_409700, 06_001_407800, 06_001_407300, 06_001_407400, 06_001_407600, 06_001_407700, 06_001_430102, 06_001_408000</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05</t>
         </is>
       </c>
     </row>
@@ -10996,18 +9542,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>[17101, 30102, 17000, 20300, 20900, 21800, 20700, 16900, 21200, 25403, 21700, 30700, 16700, 30600, 25500, 21000, 16802, 21600, 20600, 20100, 20200, 21300, 20500, 21100, 31100, 25300, 20800, 16600, 20401, 20402, 25401, 30500, 16801, 21400, 21500]</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>[0.3503896735514401, 0.023008799123136213, 1.0000000000000002, 0.9999999999999998, 2.6537000532297432e-08, 0.9990469733472814, 0.99998701777258, 0.9999999999999999, 1.0, 0.1005635634034962, 0.990273589398339, 0.047264554352751974, 0.5346540103522195, 0.0017623741855611035, 0.22960506959774646, 0.9992741999348456, 0.04609084787675142, 0.9999999999999998, 0.9999999999999998, 9.181000456505437e-05, 0.9767428083557762, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.10475204081545338, 0.07430764571091997, 3.0140319011620847e-05, 0.002619477700113977, 0.9971881854967231, 0.9629085355436405, 0.11916578525990915, 0.022888378719583543, 0.3797904090267644, 0.9999999999999998, 0.9841075073642729]</t>
+          <t>06_075_020402, 06_075_020401, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_031100, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030102, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_025403, 06_075_025300, 06_075_021800, 06_075_021700, 06_075_021600, 06_075_021500, 06_075_021400, 06_075_021300, 06_075_021200, 06_075_021100, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700, 06_075_020600, 06_075_020500, 06_075_020300, 06_075_020200, 06_075_020100, 06_075_017000, 06_075_016900, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>0.9999999442528883, 0.9999999927053078, 0.3692399307331839, 0.05274866631508789, 0.38979016136921685, 0.10476621348265346, 0.04217690321425691, 3.079395909939545e-09, 2.3094663320158384e-08, 0.025604998450001103, 4.689493804718978e-10, 0.22781070652827204, 0.12098433403733597, 0.09836804764151758, 0.07156972729952414, 0.9999999940858396, 0.9999999827998205, 1.0000000000000007, 0.9821714184844458, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999889698798, 2.9424547925814018e-08, 1.738590239859295e-08, 0.9999999644538484, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.9754794582051448, 2.1743388005457102e-08, 1.0000000000000002, 1.0000000000000004, 0.5384893405878782, 3.398841643592467e-09</t>
         </is>
       </c>
     </row>
@@ -11050,18 +9590,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>[26303, 26302, 26301, 26200, 31400, 26004, 31300, 26003, 26100, 60501, 33202, 31200, 26001, 26002, 25600, 31100, 25500, 31000, 25403, 30900, 25700, 25402]</t>
-        </is>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>[0.9999998285458631, 0.7972642961315073, 1.0000000000000004, 0.9999998376285542, 1.0000000000000004, 1.0, 0.7967023586771204, 0.9999993763127057, 0.9999999978950804, 1.1253327639875116e-07, 2.4038283984622432e-08, 0.9999996214481146, 1.0, 0.9999996905769362, 0.4376433219387634, 0.009206813304101261, 0.8143924706417089, 9.690141796811057e-09, 0.04177515626747946, 8.065851824374495e-08, 2.7510241803787617e-08, 6.582203262406357e-09]</t>
+          <t>06_081_600400, 06_081_600900, 06_081_600300, 06_075_026302, 06_081_600700, 06_075_060501, 06_075_033202, 06_075_031400, 06_075_031300, 06_075_031200, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_026303, 06_075_026200, 06_075_026100, 06_075_026003, 06_075_026301, 06_075_026004, 06_075_026001, 06_075_025700, 06_075_025600, 06_075_025500, 06_075_026002, 06_075_025403</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>0.0005602061175329288, 3.8444063437472435e-07, 0.0005586086056338702, 0.7842263095208227, 0.004022931670598173, 0.0023485870422829407, 1.562701010514177e-07, 0.9999999999999998, 0.7820194961950478, 0.9941797363290262, 0.017220601657677814, 0.000317398755831252, 1.1799689587402985e-05, 0.9860917642195737, 0.9982929502053794, 0.9998639559120752, 0.9999779635110253, 1.0000000000000002, 1.0000000000000004, 1.0, 7.826328143038642e-08, 0.4477733210016135, 0.8006185696434037, 0.998118870472423, 0.011804791402687215</t>
         </is>
       </c>
     </row>
@@ -11104,18 +9638,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>[15600, 15700, 15800, 15900, 16000, 15400, 42700, 42600, 15500, 15300, 40200, 15100, 42800, 15200, 40100, 13300, 13400, 11100, 13500, 13200, 11000, 13100, 13000, 10900, 12800, 12900, 10300, 12700, 12600, 10100, 60100, 10200]</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>[3.227321802937716e-07, 0.2594549027593552, 0.05223648319264765, 2.992598955828577e-08, 0.04699887448032189, 0.978839373749286, 0.09432257793474577, 5.313105298553834e-10, 0.050687714810928104, 0.06740386956372953, 0.36268924271503983, 0.9999973136791364, 0.9597625247663688, 8.491718716308437e-07, 0.4722050958912371, 0.9999999999999072, 0.9999998661942128, 5.498051945112921e-08, 0.9999998197912605, 1.0000000000000002, 1.3999336027600456e-08, 0.9999993490206444, 0.9999997530789335, 0.1841522632764399, 0.9999999999999996, 1.0000000000000004, 2.322695262066221e-07, 0.9999992948202432, 0.999999147779305, 3.382108227860237e-09, 0.9999999459693532, 0.9086609297330719]</t>
+          <t>06_075_012800, 06_075_012700, 06_075_012600, 06_075_012200, 06_075_012000, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010300, 06_075_010200, 06_075_060200, 06_075_060100, 06_075_042800, 06_075_042700, 06_075_042600, 06_075_040200, 06_075_040100, 06_075_016000, 06_075_015900, 06_075_015800, 06_075_015700, 06_075_015600, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013300, 06_075_013200, 06_075_013100, 06_075_013000, 06_075_012900</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>1.0000000000000002, 0.6867040819702476, 0.5895727322533277, 0.002922180399366483, 0.013524923666608393, 0.01378269598886616, 0.013669417879382402, 0.1985152695173839, 2.548763778191257e-05, 0.5837973125437702, 0.0022705329942490893, 0.22421655807031263, 0.621595238865661, 0.09584046991557975, 3.302127563200247e-05, 0.3594472607344193, 0.47582031966612637, 0.04795291927723393, 9.820116855877749e-08, 0.0535476764072527, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999985855508108, 0.9999999704312119, 1.0</t>
         </is>
       </c>
     </row>
@@ -11158,18 +9686,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>[12200, 12300, 12000, 12100, 15100, 11900, 11100, 17602, 11800, 11700, 11200, 11000, 11300, 13100, 11400, 11500, 10800, 13000, 10900, 10600, 10700, 10400, 10500, 10300, 10100, 10200]</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>[8.485739349921681e-07, 0.08355283625534811, 0.9999998567081017, 0.999999627475922, 1.404406145579764e-06, 1.0000000000000002, 0.9999999450195615, 2.4021171893647554e-07, 0.9999999999999999, 0.8572473643369581, 1.0000000000000004, 0.9999999860005161, 0.9999999999999997, 4.855624528508222e-07, 1.0, 0.9999999999999998, 1.0000000000000002, 2.4692103988865795e-07, 0.8158477367237896, 0.9999999999999994, 0.9999999999999997, 1.0, 0.999999455911033, 0.9999997677305855, 0.9947897248816817, 0.08068209747911617]</t>
+          <t>06_075_012300, 06_075_012200, 06_075_012100, 06_075_012000, 06_075_011900, 06_075_011800, 06_075_011700, 06_075_011500, 06_075_011400, 06_075_011300, 06_075_011200, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010800, 06_075_010700, 06_075_010600, 06_075_010500, 06_075_010400, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_017602, 06_075_015100, 06_075_013100, 06_075_013000</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>0.08355767118207177, 5.2826552385443266e-05, 0.9999820832863671, 0.9864732080552313, 1.0, 0.9999999999999996, 0.8608793360406464, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9862173040109711, 0.9863305821208065, 0.8014847304825179, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.5801636941237702, 0.9999999999999994, 0.9999745123621877, 0.05158677853637685, 0.5374008645960721, 0.007476291705122512, 9.666433859826426e-09, 2.6660324483794444e-08, 2.9568769163473905e-08</t>
         </is>
       </c>
     </row>
@@ -11212,18 +9734,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>[30500, 30301, 30102, 32600, 30201, 30202, 30101, 17100, 20200, 16600, 16700, 20100, 16500, 60300, 16800, 16400, 16300, 16200, 16100, 15700, 15800, 15900, 15400, 15500, 15300, 15100, 15200, 13400, 13500, 13100]</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>[1.2886007445635226e-09, 1.5325712343551347e-08, 0.14992287087894646, 4.022728456034608e-08, 0.6697619448446712, 0.7785687904394742, 0.9601627998617767, 0.8097631366468561, 5.370796547771715e-08, 0.9999999089834879, 0.46153751800100756, 1.2663330947888727e-10, 0.8746890588771665, 0.038282807170180115, 0.5013426831023877, 1.0, 0.9999999999999998, 0.4444421027109083, 0.7497290240920965, 0.1692138184524163, 0.9477635168073593, 0.6688158916528681, 0.02116050286425601, 0.9493122443669669, 0.932596130436176, 4.5568878412553214e-07, 0.9999991508281477, 1.3380580312598096e-07, 1.8020885426464244e-07, 1.654167904037796e-07]</t>
+          <t>06_075_060300, 06_075_016200, 06_075_032600, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020400, 06_075_020200, 06_075_020100, 06_075_017100, 06_075_016800, 06_075_016700, 06_075_016600, 06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_015900, 06_075_015800, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013100</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>0.018702469473304527, 0.45006430073764064, 0.0023304507041978805, 1.2553460605282223e-06, 2.514664070173659e-06, 0.7735093668677678, 0.15025012894624332, 0.9574990617506335, 0.6657529107595235, 4.4210189342696106e-06, 0.0011016441477576734, 0.0008848163156563995, 0.8097292189801456, 0.5046965486929511, 0.46154576309990397, 0.9999727890897248, 0.8747037267243013, 1.0000000000000002, 0.9999999999999999, 0.7496957822723437, 0.6772490944111489, 0.9464523235927322, 0.168145053194678, 0.9502125976412075, 0.021405124783285337, 0.9325223050505831, 0.9999343448530771, 5.349063532834948e-05, 2.4861156312483876e-05, 2.9994121425208322e-05, 1.3877889293075367e-06</t>
         </is>
       </c>
     </row>
@@ -11266,18 +9782,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>[26200, 31300, 26100, 33202, 31200, 33201, 31100, 25500, 31000, 33100, 30900, 30700, 33000, 30800, 21700, 30600, 35400, 35300, 30400, 32800, 30302, 30500, 30301, 20400, 30102, 32600, 30201, 30202, 30101, 60400]</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>[4.8175489469451924e-08, 0.2032976277698168, 2.1049888293806834e-09, 0.9999999759617535, 3.785518457329771e-07, 1.0000000000000002, 0.8195958061002814, 0.045287102738888384, 0.9999999903098641, 0.999999919941768, 0.9999999193415163, 0.9472021198682262, 3.2283181568237644e-08, 0.999999985112401, 1.315088623012906e-07, 0.9999998525717294, 3.201646058280927e-08, 1.8496748679183465e-08, 0.9999999662802401, 2.7946617348636494e-08, 0.9999999974180489, 0.9999994191416189, 0.999999984542378, 3.6697333301785003e-07, 0.8244816790515784, 1.3297134245066057e-08, 0.3302377213617389, 0.2214308070450242, 0.0398367185220966, 0.9195440622197754]</t>
+          <t>06_081_600900, 06_075_060400, 06_081_600700, 06_075_035400, 06_075_035300, 06_075_033202, 06_075_033100, 06_075_033000, 06_075_032800, 06_075_032600, 06_075_031300, 06_075_031200, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_030800, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030400, 06_075_030302, 06_075_033201, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_026200, 06_075_026100, 06_075_025500, 06_075_021700, 06_075_020400, 06_075_017100</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>0.003678513223257328, 0.020815619205977375, 6.244765122744792e-05, 0.00014861927837297128, 1.073994613515223e-05, 0.999999843729889, 0.9853576828881371, 1.8454555898348927e-06, 1.36909290265415e-08, 0.0014572093437458405, 0.21798048163494232, 0.005820263670967138, 0.7990180898125481, 0.9996826012441752, 0.9999882001013296, 0.9955154919632166, 0.946328515526617, 0.999997837320424, 0.9999675091014878, 0.9968384273367843, 0.9928130222574598, 1.0000000000000002, 0.9966726583545342, 0.2204044555299451, 0.8241495906958175, 0.03990147474782368, 0.32748162015985327, 0.00010887338374777711, 0.0001360440879429569, 0.06800251115377277, 0.001041804000941857, 5.814808714126219e-05, 1.193459805538256e-05</t>
         </is>
       </c>
     </row>
@@ -11320,18 +9830,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>[60501, 25900, 26002, 22902, 25600, 31100, 22903, 25500, 25403, 25700, 23001, 21000, 25402, 25401, 21800, 20900, 21500, 25300, 25200, 25100, 22901, 22803, 22802, 20700, 20800, 22801]</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>[2.0958043040974636e-07, 0.28985378711169135, 2.755394178252792e-07, 0.9999999999999998, 0.5623566498168437, 1.269449679936128e-08, 0.5475845695711888, 0.13127991639526548, 0.9582248434306532, 0.7525987397773185, 2.34598615088221e-08, 0.34261020241636575, 0.9999999934178107, 0.9999999508863092, 6.266968133305152e-07, 0.9999999999999998, 0.029993483184697998, 0.9999998199881471, 0.9999999999999996, 0.7814778698136435, 1.0, 1.0000000000000002, 0.15619768516277607, 5.556435572227905e-07, 0.8192835192665154, 0.3629449210112297]</t>
+          <t>06_075_060501, 06_075_031100, 06_075_025900, 06_075_025700, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_026002, 06_075_025403, 06_075_025300, 06_075_025200, 06_075_025100, 06_075_025402, 06_075_022903, 06_075_022902, 06_075_023001, 06_075_022802, 06_075_022803, 06_075_022901, 06_075_022801, 06_075_021800, 06_075_021500, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>0.001783850156906822, 0.002643023130547252, 0.28854135581563006, 0.7553313559977397, 0.5522265585579604, 0.1271546136721747, 0.9776456772271344, 3.3720807063464685e-05, 0.9796588550147642, 0.9856558837844838, 0.9999999999999996, 0.8105765700498042, 1.0000000000000002, 0.5496634730287496, 1.0000000000000002, 0.001226511936716951, 0.1563138256962083, 0.9999999999999999, 0.9999999999999999, 0.36295625213942495, 0.002007124740964328, 0.031476993989880686, 0.3436607974404455, 1.0000000000000004, 0.8192279812381297, 4.431504297410721e-05</t>
         </is>
       </c>
     </row>
@@ -11374,18 +9878,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>[26002, 980900, 25900, 22702, 23300, 26402, 22704, 25600, 25100, 18000, 25702, 26403, 60502, 26401, 61000, 23003, 17700, 23001, 26302, 26003, 17902, 23200, 23102, 61400, 22802, 23400, 23103, 22600, 980600, 60700, 61200, 25800, 26404, 22903, 600300, 980501, 25701]</t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>[0.0018036598845970206, 0.9323473324154401, 0.7186327541727144, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 1.9668228128328185e-09, 0.20299183780576027, 0.0005310455248790997, 0.5479230190884743, 0.9954786867185914, 0.9849617267990038, 1.0, 0.9436972153645737, 0.9999999999999998, 0.14656028264912285, 0.994109111670189, 0.21061505989374535, 7.505299015746078e-05, 0.0005882175603211977, 0.9999999999999999, 1.0, 0.9999999999999999, 0.671927130452813, 0.9999999997722205, 0.9652946554947305, 0.7592632877072937, 0.7240665502974807, 0.16648522066003735, 0.9999999999999997, 1.0, 0.9796158024252836, 0.45308979178412684, 0.0009424319698369979, 0.9865845789286146, 0.002558982867425936]</t>
+          <t>06_081_600300, 06_081_600200, 06_075_980600, 06_075_980501, 06_075_980900, 06_075_061400, 06_075_061200, 06_075_025702, 06_075_025701, 06_075_022704, 06_075_023103, 06_075_023003, 06_075_061000, 06_075_060700, 06_075_060502, 06_075_026404, 06_075_026403, 06_075_026401, 06_075_026302, 06_075_026402, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025600, 06_075_026002, 06_075_025100, 06_075_023400, 06_075_023300, 06_075_023200, 06_075_023102, 06_075_022903, 06_075_023001, 06_075_022802, 06_075_022702, 06_075_022600, 06_075_018000, 06_075_017902, 06_075_017700</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>0.0009473703160673454, 5.0843150249553224e-05, 0.5162919599382572, 0.9958421268834251, 0.9152485981682388, 1.000000000000001, 0.9999999999999997, 0.5310943136871525, 4.28378153967726e-06, 0.9999999999999996, 0.9997821500072693, 0.9999999999999996, 0.7243893683303861, 0.15549114875740488, 0.985806147470016, 0.9814132073917041, 0.9891182293311891, 1.0000000000000002, 0.2082235256651318, 1.0000000000000002, 2.203648895755565e-05, 0.7114586441843345, 0.9999999999999993, 1.204405741768022e-07, 0.0018474087202782123, 0.19020520525548792, 0.9999999985128273, 1.0, 0.999998179570648, 1.0, 0.45035676637988803, 0.9987734880631961, 0.6707140488070455, 1.0, 0.7040073441290113, 1.1804898920888583e-06, 1.3996638192843645e-06, 0.1457330174530293</t>
         </is>
       </c>
     </row>
@@ -11428,18 +9926,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>[12902, 13102, 15400, 12602, 15900, 13000, 15500, 15300, 12601, 11100, 13500, 15600, 42800, 15100, 12901, 10900, 13101, 16000, 11000, 12800, 40200, 13300, 13200, 10200, 15700, 10300, 42700, 42601, 15802, 60100, 42602, 12000, 15801, 40100, 12700, 15200, 12202, 980200, 13400]</t>
-        </is>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9999977677233484, 0.9766872291926934, 0.6505881272403039, 1.6165321486879198e-06, 1.0000000000000002, 0.04871727835058228, 0.06741020095054094, 0.9999999999999998, 0.015247792806129368, 0.9999934895768813, 0.01115681333491451, 0.9325018280864694, 0.9942132104755486, 1.0, 0.1984452467329439, 0.9999999999999998, 0.04921878998399779, 0.012579411539554842, 0.9999999999999999, 0.3623119209274478, 1.0, 1.0000000000000002, 0.6430813226836065, 0.2610731235339033, 5.5945992719349474e-05, 0.09544684965951533, 0.0006384138395602992, 6.985976526120924e-08, 0.9846567896579081, 9.742232932906607e-05, 0.010360886259670708, 0.0789184120008444, 0.47696937141651624, 0.8415789048671987, 8.240110258391754e-05, 0.0020152401334098944, 8.072175139240467e-06, 0.9999597747914097]</t>
+          <t>06_075_016000, 06_075_015900, 06_075_015700, 06_075_015600, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013300, 06_075_013200, 06_075_013000, 06_075_012800, 06_075_012700, 06_075_012000, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_980200, 06_075_010300, 06_075_010200, 06_075_042602, 06_075_042601, 06_075_015802, 06_075_015801, 06_075_013102, 06_075_013101, 06_075_012902, 06_075_012901, 06_075_012602, 06_075_012601, 06_075_012202, 06_075_060100, 06_075_042800, 06_075_042700, 06_075_040200, 06_075_040100</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>0.04795291927723393, 9.820116855877749e-08, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999999704312119, 1.0, 0.6868642235394803, 0.013524923666608393, 0.01378269598886616, 0.01364256373757466, 0.1988899002584167, 0.0022705329942490893, 2.548763778191257e-05, 0.5837973125437702, 1.322334025784424e-05, 5.5434532209227696e-05, 1.036043019815659e-05, 0.08014930114739369, 0.9999976025083366, 0.9999999380273352, 1.0000000000000004, 1.0000000000000002, 0.5298747876147453, 0.9999999999999998, 0.0058212306754607335, 0.23233594936138177, 0.621595238865661, 0.09584046991557975, 0.3594472607344193, 0.47582031966612637</t>
         </is>
       </c>
     </row>
@@ -11482,18 +9974,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>[15900, 12502, 12301, 20700, 15100, 12501, 22801, 18000, 12302, 12402, 16000, 16802, 16100, 17601, 20100, 17700, 20200, 12100, 17802, 20800, 17902, 124200, 16200, 12201, 12401, 61500, 22802, 17801, 10500, 12000, 22600, 11700, 60700, 12202]</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>[0.325460447994506, 0.9999999999999999, 0.9999850546877732, 2.203083028722285e-06, 0.003949724545432595, 1.0, 0.6369076514690094, 0.9994689544751567, 0.83332264827743, 1.0, 0.9507812100158946, 0.18163423146493649, 0.25031204299345766, 0.9999999999999996, 0.9993571271208755, 0.8534397173509475, 0.543610441659675, 1.2069632966376836e-05, 1.0, 0.181142070793377, 0.8365775280384712, 1.6482027011629049e-06, 0.5493252070543557, 0.9999641949715842, 1.0, 0.8477250020643776, 0.16941768763746318, 1.0, 0.003805891728419423, 0.00011850568465871276, 0.005486039417038175, 0.13100067556779144, 0.5817783301994891, 0.9979836337334496]</t>
+          <t>06_041_124200, 06_001_428700, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015100, 06_075_012100, 06_075_012000, 06_075_011700, 06_075_012502, 06_075_012302, 06_075_012301, 06_075_010500, 06_075_061500, 06_075_017802, 06_075_017801, 06_075_016802, 06_075_012501, 06_075_012402, 06_075_012401, 06_075_012202, 06_075_012201, 06_075_060700, 06_075_016200, 06_075_022802, 06_075_022801, 06_075_022600, 06_075_020800, 06_075_020700, 06_075_020200, 06_075_018000, 06_075_017902, 06_075_017700, 06_075_020100, 06_075_017601</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2.7272035703410395e-06, 4.69133582885777e-06, 0.25030421772761796, 0.9520470807225342, 0.3227508073877951, 0.0049589398181131075, 1.791671365328498e-05, 1.8682785283884724e-06, 0.13899679911096022, 0.9999999999999999, 0.8333428750281314, 0.9999941014629681, 0.0011707142259919545, 0.788212197155555, 1.0000000000000002, 1.0, 0.17702003327762347, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 0.9941070506754337, 0.9999662162746694, 0.5457828750825512, 0.5499356992624037, 0.17297212549667756, 0.637043747860637, 0.001421298114768862, 0.18072694064746342, 5.577998845456339e-06, 0.5452401559827512, 0.999998819510081, 0.02019985256500383, 0.854266982546996, 0.9991151836843436, 0.9999999999999998</t>
         </is>
       </c>
     </row>
@@ -11536,18 +10022,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>[17101, 30102, 17000, 20300, 21800, 20700, 16900, 21200, 25403, 21700, 30700, 16700, 30600, 25500, 21000, 16802, 21600, 20600, 20200, 21300, 20500, 21100, 31100, 25300, 20800, 16600, 20401, 20402, 25401, 30500, 16801, 21400, 21500]</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>[0.3504317373016723, 0.02300467924909543, 1.0000000000000002, 0.9999999999999998, 0.9983002968235121, 0.9999494549944786, 0.9999999999999999, 1.0, 0.008604954524285491, 0.9895444054923278, 0.0586750437663736, 0.5346426504410579, 0.0012292394220253854, 0.004719706890287985, 0.6549148191929639, 0.1397302765416583, 0.9999999999999998, 0.9999999999999998, 0.4556325251341306, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.18075663626437427, 0.013418640598351995, 5.9383074001873955e-05, 0.0026059979233639787, 0.9971761742263193, 0.9628894881589326, 0.024566861198264612, 0.02287406198191177, 0.6417524734121831, 0.9999999999999998, 0.9717434259705673]</t>
+          <t>06_075_020402, 06_075_020401, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_031100, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030102, 06_075_025500, 06_075_025401, 06_075_025403, 06_075_025300, 06_075_021800, 06_075_021700, 06_075_021600, 06_075_021500, 06_075_021400, 06_075_021300, 06_075_021200, 06_075_021100, 06_075_021000, 06_075_020800, 06_075_020700, 06_075_020600, 06_075_020500, 06_075_020300, 06_075_020200, 06_075_017000, 06_075_016900, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>0.9999120887316741, 0.9999832483873673, 0.3692923122045043, 0.1442490540790922, 0.6607035791313025, 0.18112057262784806, 0.0536714844733811, 2.1626795759445063e-06, 3.123555236327859e-05, 0.02560028035799882, 0.004224252134100763, 0.02235432277285865, 0.007855843463863536, 0.01434411621552429, 0.9979928752590292, 0.9989581959990711, 1.0000000000000007, 0.9685230060101149, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.6563392025595292, 4.507811446792069e-05, 0.9999501069580897, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.45365819986958006, 1.0000000000000002, 1.0000000000000004, 0.5384542369000975, 4.286303031858021e-06</t>
         </is>
       </c>
     </row>
@@ -11590,18 +10070,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>[13102, 10700, 11902, 10800, 11100, 11200, 12301, 11300, 11800, 11901, 15100, 12501, 10900, 12302, 13101, 11000, 10100, 17601, 10200, 12100, 10600, 10300, 12201, 61500, 10500, 12000, 11700, 61100, 12202, 10400]</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>[0.00027889680098904933, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 0.9841988219164414, 1.0, 0.427081771797297, 1.0000000000000002, 0.9999999999999999, 1.0, 0.0005465517098994035, 0.14036703744231765, 0.7297623587154082, 0.6650121515820437, 0.0033018358280516597, 0.9987927579038667, 0.6964049196993827, 0.002750421563841411, 0.0013075667969283898, 1.0, 0.9999999999999998, 0.6955034541789076, 5.2208881236875836e-05, 0.0037364364281560433, 0.6677396228847994, 0.977262597633914, 1.0000000000000004, 1.0, 0.07779829804748979, 1.0000000000000002]</t>
+          <t>06_075_015100, 06_075_013000, 06_075_012100, 06_075_012000, 06_075_011800, 06_075_011700, 06_075_011300, 06_075_011200, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010800, 06_075_010700, 06_075_010600, 06_075_012302, 06_075_012301, 06_075_010500, 06_075_010400, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_061500, 06_075_061100, 06_075_013102, 06_075_013101, 06_075_012501, 06_075_012202, 06_075_012201, 06_075_011902, 06_075_011901, 06_075_017601</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>1.39384295802706e-09, 1.1823193442196314e-15, 0.9999999999999999, 0.972207407787741, 0.9999999999999996, 0.9999999698220089, 1.0000000000000002, 0.9999999999999998, 0.9859783305284809, 0.9999999843968951, 0.7289175586644654, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.6649915637320186, 0.4264521644748218, 0.5813202305512056, 0.9999999999999994, 0.6877021601394369, 6.688963103740043e-09, 0.5451383485364958, 0.0007419192886877325, 0.9999999999999998, 1.132282085195434e-09, 1.9639044161724208e-08, 0.13639051636410718, 0.07838925617155307, 6.012959914298065e-08, 1.0, 1.0, 7.192665466775722e-09</t>
         </is>
       </c>
     </row>
@@ -11644,18 +10118,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>[15600, 47802, 47902, 32700, 47903, 42700, 47902, 47801, 15401, 15401, 47701, 47902, 45100, 47902, 45100, 32700, 47702, 47903, 42800, 47801, 980300, 47902, 42700, 47702, 42601, 47600, 32602, 40200, 32700, 15702, 15600, 15702, 42602, 15600, 47902, 42602, 40100, 40100, 32601, 42602, 40200, 47903, 47600, 47904, 42602, 35201, 47902, 42700, 45100, 47701, 47902, 47600, 15701, 47902, 32601, 15402, 980300, 47902, 42601, 40200, 40200, 980300, 47702, 42602, 15702, 42602, 40200, 47600, 15600, 47801, 16500, 40200, 47902, 42700, 15702, 47904, 42601, 980300, 16500, 47802, 47903, 45201, 40100, 42800, 15600, 45201, 15401, 47802, 47801, 47802, 47701, 47701, 47904, 47600, 47801, 42602, 45100, 47701, 47801, 32602, 47802, 47600, 47701, 40200, 47902, 40200, 47802, 47802, 47702, 47701, 47600, 15600, 980300, 35202, 35101, 47801, 47801, 40200, 15701, 980300, 40200, 47802, 35202, 47902, 47702, 47701, 47600, 47701, 40200, 47903, 45202, 15600, 47902, 45201, 47904, 42700, 40200, 45201, 15401, 15701, 42602, 42602, 42602, 40200, 15600, 47600, 15701, 15701, 47600, 35101, 45202, 45201, 47600, 980300, 47802, 45202, 15702, 47600, 980300, 47702, 40100, 40100, 40200, 45202, 47902, 40200, 47702, 47801, 40200, 42700, 42800, 980300, 47600, 42602, 980300, 15701, 47802, 32700, 32601, 47904, 47801, 15701, 40200, 47701, 15401, 42601, 980300, 42601, 980200, 47802, 45100, 42700, 47801, 45201, 47702, 47701, 47902, 45100, 40100, 40200, 45202, 47903, 47903, 16500, 15701, 45201, 42601, 47600, 47801, 42602, 42700, 42700, 47801, 45100, 47903, 47904, 45100, 42800, 980300, 47701, 47903, 15600, 980300, 42602, 47600, 40200, 47802, 15701, 42700, 47903, 40100, 45100, 45201, 47902, 47903, 45202, 45100, 16500, 47801, 47701, 15701, 42601, 47902, 47902, 45202, 45100, 47802, 47600, 45100, 980300, 980300, 45201, 47902, 47600, 15600, 35202, 40100, 47903, 980200, 47600, 45202, 16500, 15401, 15701, 15701, 47903, 47903, 47802, 40100, 47701, 42700, 47701, 47600, 16500, 47903, 42602, 15401, 47904, 47600, 15600, 15701, 47902, 40100, 15600, 47902, 47902, 47802, 42800, 42800, 45202, 47702, 980300, 40200, 15401, 42602, 15600, 47600, 15702, 15701, 40100, 32700, 15701, 47802, 15401, 42601, 47904, 45201, 15701, 47904, 45100, 47702, 45100, 32601, 40200, 980300, 980300, 42700, 42700, 42800, 15701, 15701, 47904, 47802, 40200, 35101, 47702, 35201, 15701, 47904, 47802, 980300, 40100, 40100, 45201, 42601, 16500, 47903, 980300, 980300, 980200, 980300, 980300, 47702, 980300, 45100, 42800, 42700, 40200, 15600, 42601, 42602, 47902, 47904, 32700, 40100, 42601, 45201, 47801, 42700, 45100, 40100, 45202, 35202, 35202, 47904, 47903, 47903, 16500, 42800, 47600, 40100, 42800, 980300, 15701, 980300, 42602, 45201, 980300, 45202, 42700, 47702, 15701, 47902, 47903, 45201, 35101, 42602, 980300, 47702, 47702, 15701, 45100, 42700, 15600, 47702, 47802, 15600, 47600, 47600, 15701, 980300, 980300, 32601, 980300, 980300, 980300, 980300, 47701, 15701, 45100, 47701, 980300, 47600, 47702, 47600, 47903, 45100, 47904, 32700, 47802, 40100, 40100, 42700, 40200, 47702, 15600, 15401, 15401, 47904, 47904, 35101, 42601, 32700, 42700, 42800, 32601, 47903, 40200, 42601, 15600, 47701, 42601, 980300, 47801, 42700, 47600, 32601, 45201, 980300, 35101, 42602, 45201, 42602, 47600, 47902, 980300, 32700, 15701, 980200, 35202, 45201, 42800, 16500, 45201, 47802, 35101, 40100, 47902, 47600, 47903, 35202, 45201, 45100, 40100, 42700, 47801, 47600, 47801, 45201, 45202, 980300, 42602, 47600, 42601, 47801, 15701, 42800, 47904, 47801, 47600, 47801]</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9999999999999998, 1.0000000000000002, 0.0017615661684235169, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 6.558442427247715e-11, 0.0006272468152074726, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 0.0022129634640223827, 1.0, 0.9999999999999998, 1.0803298504794796e-07, 1.0, 0.9999998434146714, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.002459219389270603, 0.9999999397585119, 0.0026180473130144066, 2.2319785763068441e-10, 1.0000000000000002, 0.04198039217066763, 0.9999998958208812, 0.9941847198747636, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.0025689599693886097, 1.0, 0.9999999645327742, 1.0, 1.0, 0.9999999999999998, 1.0, 0.0015485011021140749, 0.9999999999999999, 1.0, 1.0, 1.0000000000000004, 1.0, 0.9999999999999994, 1.0, 1.0, 0.05531628618786227, 1.7323289046120743e-07, 0.9999992198540559, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 5.891227177642673e-08, 0.9999999333447501, 1.0, 1.0000000000000004, 1.0, 0.9999999999999998, 0.999728334087048, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 0.025706339365864868, 1.0000000000000002, 1.0000000000000002, 0.9999857153336978, 2.6688228470838024e-09, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999862646468, 0.0009515331756580007, 1.0000000000000002, 1.0, 0.0006810668260652581, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.0021028532285178227, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 0.9999999999999997, 1.0000000000000002, 0.0024351851135789838, 0.0021937651692231787, 0.9999999999999998, 1.0, 0.9999999195944669, 0.9981392915322143, 0.999292923809778, 0.9999424660973657, 1.0, 0.0045775976040682825, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 1.0, 2.6860781791957285e-08, 1.0, 0.0004424440108789925, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999912668908337, 1.0, 0.003222952776143444, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999930626544, 0.9999999999999999, 0.9999999999999998, 0.9675268851193146, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000009908, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 0.000137486556366056, 0.9999999434962651, 1.0, 0.9999999999569967, 4.998122493222805e-05, 1.0, 1.0000000000000002, 0.0017524406943404968, 0.0015264286161361424, 0.9999999226611855, 1.0, 1.0, 0.9999999623020134, 1.0, 5.167933215247088e-08, 1.0, 1.0000000000000002, 1.0, 0.9999999999999994, 1.0, 1.0, 0.9999999970071596, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9998997231042723, 0.9999246957322809, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999566695912, 0.9999999910651618, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 4.762872262603144e-08, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999245331377, 1.0, 0.9999996496811852, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 5.251714425462733e-09, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9931463432271034, 3.361914724821137e-08, 1.0, 1.0, 0.9999999999999998, 1.0, 0.0019006921875212275, 0.9999998387353494, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.999728997700471, 0.004315499546426032, 0.9999999449302193, 0.9999998894234481, 1.0, 1.0, 1.0, 1.2146736447402813e-07, 0.9999999999999998, 0.999999992903657, 1.0000000000000002, 0.9999999999999998, 4.3960102542542417e-14, 1.0, 1.0, 4.196412494456901e-08, 1.0, 1.0, 1.0, 0.9955352998953644, 1.0000000000000002, 2.4425055890219623e-08, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 0.9999999999999999, 8.643361072064027e-08, 0.0003770694811864942, 1.0, 1.0, 1.0, 0.9999999999999998, 0.004971160566163645, 1.0, 1.0, 1.0, 3.9616415333840684e-08, 0.9999999999999999, 1.5921464938962095e-07, 0.0016924896174097192, 0.9950708611527102, 1.0, 8.865644723341957e-13, 1.0, 0.9999999999999996, 1.0000000000000002, 0.9999999999992362, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 0.0029290440120317974, 0.9999998150438894, 0.9999998721369963, 1.0, 1.0, 1.0000000000000002, 3.981513861497315e-07, 1.0000000000000002, 0.9999999999999996, 1.0000000000000002, 0.9999999999999998, 0.9999998498056085, 0.0027764250848314564, 1.0000000000000002, 0.0026177830863570004, 0.9999999999999999, 1.0, 1.0000000000000002, 1.3747919882663854e-08, 5.5560767342649734e-08, 0.9999999999999998, 1.0, 0.9999999999999998, 7.796581435350279e-08, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.999999952975723, 1.0, 0.9998945282597502, 1.0000000000000002, 1.2667428591154936e-08, 0.9999998428193734, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 0.0023236920475595163, 0.9999999091051216, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.0018898676138504648, 0.0020230521006213203, 1.0, 1.0, 1.0, 3.480108533510581e-09, 0.00037961635182892395, 0.9999999999999999, 0.9999999999999998, 5.874714251524107e-14, 0.9999999882068578, 1.0, 0.9999999999999997, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999997916018958, 1.0, 0.9958183786506352, 1.0, 1.0, 1.0, 0.0018996269196322644, 0.9999999255667164, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 0.9965825738798016, 0.0001842261416944202, 1.0, 0.002386797529036654, 1.0000000000000004, 1.0000000000000002, 0.9999999999999997, 0.9999999950065, 1.0, 1.0, 1.0, 1.0, 0.9999999487366122, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.0022871120176106412, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999998329862784, 0.9999998051287721, 1.0, 0.9969711033714359, 0.0011310543693749035, 0.0021704778116431473, 1.0000000000000002, 1.0, 0.0017647424255749086, 0.999999884350756, 0.002951410413425959, 1.0, 5.017720080259981e-08, 0.0022505571154546188, 0.9999999999999998, 0.9999999999999999, 1.0, 0.9914815337520411, 1.0, 1.0, 1.0000000000000004, 1.0, 2.0908881868618235e-07, 0.9999999999999999, 0.002577085363000514, 0.9999999999999998, 0.9999999999999993, 0.0019290765723354057, 0.9999954323989704, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 6.552924478079786e-08, 0.001916231730821984, 1.0000000000000002, 0.9999998788547324, 0.0023044111623653986, 1.0, 3.4160675623450014e-08, 2.9267041957787496e-07, 1.0000000000000002, 0.9999999999999998, 0.001890557345438128, 1.2187384221402948e-07, 1.0, 0.9999999999999997, 1.0, 0.00266912548001432, 1.0, 1.0000000000000002, 1.0, 0.9999999259929698, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 0.999999931450407, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 6.4971170640141e-08, 0.9999999999999996, 0.9999999999999998, 1.0, 0.9999999999999998]</t>
+          <t>06_075_032602, 06_075_042601, 06_075_042602, 06_075_047801, 06_075_980300, 06_075_980200, 06_075_047702, 06_075_035202, 06_075_016500, 06_075_045100, 06_075_015600, 06_075_032601, 06_075_047802, 06_075_047701, 06_075_032700, 06_075_035201, 06_075_040100, 06_075_040200, 06_075_042700, 06_075_042800, 06_075_047600, 06_075_047902, 06_075_045201, 06_075_015701, 06_075_015402, 06_075_015702, 06_075_047904, 06_075_047903, 06_075_035101, 06_075_045202, 06_075_015401</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>0.00019606476091163242, 0.9999999922935916, 0.9999998303662034, 0.9999999999999999, 0.7514594292600965, 0.5665588993306157, 0.9999999999999998, 0.0008111706281571227, 0.12527478208633902, 1.0, 0.9984416093598913, 0.0008299118777242553, 1.0, 1.0, 0.000440450178096436, 0.0005525362134017973, 0.5236534811408179, 0.8200989918979252, 0.9525677696476097, 9.239920317298804e-05, 1.0000000000000004, 1.0, 1.0000000000000002, 0.9994189671588307, 1.1093189443350076e-08, 0.010594443071258453, 0.15433763527285146, 1.0, 0.000734214679100972, 1.0000000000000002, 0.0009458615383339103</t>
         </is>
       </c>
     </row>
@@ -11698,18 +10166,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>[26004, 31402, 31401, 26303, 26002, 26201, 26201, 25501, 25501, 26302, 980501, 26302, 26100, 26201, 26302, 25501, 26302, 25501, 31302, 26201, 26303, 31401, 25501, 25501, 26004, 26301, 26004, 26003, 25501, 26202, 25502, 26302, 31302, 26202, 31202, 25600, 31202, 26202, 26100, 25502, 25502, 26003, 26100, 31202, 26302, 980501, 25502, 31301, 26201, 26100, 26202, 26001, 26004, 31302, 26001, 31401, 31402, 25501, 31302, 31201, 26002, 25600, 31201, 26302, 26303, 26004, 30900, 26001, 26004, 31202, 31301, 31402, 26100, 26302, 26301, 25502, 26301, 26001, 31201, 31302, 26003, 26001, 26202, 60502, 26301, 25502, 31202, 25403, 31202, 26302, 25502, 26202, 30900, 26302, 26201, 26100, 26301, 26100, 25600, 26100, 26004, 31301, 26100, 25502, 26001, 26004, 26001, 31302, 31302, 26303, 25502, 26100, 26100, 980501, 25501, 26303, 26202, 26303, 26100, 26002, 26303, 26100, 25600, 26001, 25502, 26001, 31302, 31301, 26001, 26302, 26004, 26303, 26100, 25502, 31401, 26202, 25502, 25502, 31302, 31301, 26302, 31202, 26100, 26004, 31202, 25600, 26100, 31301, 26201, 26100, 25501, 26100, 26100, 26100, 26002, 26301, 31402, 26301, 26100, 26202, 31302, 31301, 31401, 31202, 26303, 26100, 26100, 26201, 30900, 26201, 26303, 31201, 31202, 26202, 26001, 25502, 26004, 26002, 31201, 25501, 26001, 25600, 26100, 31401, 26100, 25501, 25501, 26302, 26301, 26001, 31201, 31402, 26301, 31302, 30900, 31201, 26100, 26302, 31301, 31301, 26302, 26301, 31301, 26303, 25502, 31301, 26301, 31302, 26201, 31202, 31202, 26302, 31402, 25600, 25600, 26302, 31302, 31201, 26003, 25502, 26100, 26303, 25501, 26301, 25502, 26302, 31401, 31402, 31301, 26302, 31402, 26201, 31402, 26002, 31201, 26301, 26001, 25600, 26004, 31301, 25501, 26202, 31301, 26302, 26004, 31201, 26003, 980501, 26004, 26301, 30900, 25501, 25501, 26301, 26003, 26302, 26303, 25502, 25502, 26202, 25502, 31302, 26201, 26001, 26201, 26301, 26003, 26303, 31402, 26201, 26303, 26301, 26002, 26303, 26003, 31302, 25501, 26302, 31301, 26002, 26202, 26202, 31302, 31301, 26302, 31301, 31202, 25600, 26202, 26004, 31301, 26002, 31202, 31301, 25600, 30900, 26100, 25501, 26303, 31201, 26001, 26202, 26100, 26301, 26302, 26002, 31201, 31402, 26202, 26002, 31302, 26100, 31401, 25501, 31302, 26302, 26004, 31402, 26003, 31201, 26201, 26100, 31302, 26004, 26303, 26100, 26301, 26002, 26004, 26001, 26100, 26100, 31301, 26001, 26002, 26301, 26301, 25600, 26100, 31402, 26003, 25501, 31201, 31401, 26002, 26303, 26003, 26202, 25502, 31301, 26004, 26100, 31301, 31202, 31202, 26003, 26201, 31301, 26201, 26201, 26100, 26201, 31202, 26002, 26003, 26302, 31302, 26202, 26302, 26302, 26303, 26100, 31201, 31301, 26202, 31402, 26004, 26002, 26004, 26301, 26002, 30900, 26003, 26003, 30900, 26001, 31301, 26302, 26303, 31201, 26301, 26301, 26301, 26301, 26201, 26100, 31202, 25502, 25600, 26201, 26201, 31402, 26003, 25501, 25403, 26100, 31201, 26302, 26301, 26303, 26100, 25600, 31402, 26001, 31402, 980501, 25502, 26302, 26004, 60502, 26002, 26201, 25501, 26303, 25502, 26302, 26100, 30900, 26003, 31201, 26301, 26003, 26004, 26303, 25600, 25502, 25501, 26202, 26303, 31202, 31302, 26002, 25600, 25600, 26003, 25501, 31301, 26301, 31201, 26201, 31301, 26001, 26003, 26001, 26100, 26002, 26301, 31401, 31302, 26201, 26100, 26301, 26100, 26004, 26003, 26301, 31402, 26100, 31302, 26202, 26201, 26303, 26201, 26004, 25600, 26001, 26001, 26302, 26302, 31301, 26301, 31100, 25502, 26003, 31302, 31201, 26302, 31401, 25600, 31302, 26302, 26301, 30900, 26301, 26100, 31202, 31401, 26001, 26003, 26201, 26002, 25501, 25600, 26100, 26100, 26302, 25600, 26301, 26002, 26301, 25600, 31201, 26201, 26302, 31301, 25600, 31302, 31201, 26303, 25502, 25502]</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 0.00011042917764200951, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.1010286232746043e-07, 0.9999999107554587, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 1.0, 0.9999898359524041, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999998, 0.8309225682224969, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 0.9999999999999997, 1.5619080921760186e-07, 2.622882492835265e-14, 1.0, 1.0, 1.0, 1.0, 0.9999709100133303, 1.0, 1.0, 0.9997458022870492, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 4.0695271850663005e-08, 4.831268448865626e-05, 0.9999998030839138, 0.0032798502968023075, 0.9998006936486455, 0.9999114724704934, 0.9999999999999998, 3.055008347089911e-07, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 0.15943516609908356, 1.0, 1.0, 0.9801763866036526, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 8.338885742808457e-07, 0.9999999999999999, 0.1713038373293271, 1.0, 1.190713568850018e-08, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 1.0, 6.608264832473748e-08, 0.9997609164676302, 0.9999402344031945, 1.0, 0.9999999999999996, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.14237569809602058, 0.999847742555267, 0.6645587010231704, 1.0, 0.9999999999999998, 0.3327167491852249, 0.9999999999999997, 0.9999999999999999, 0.9999999999999999, 0.9961807121575809, 1.0, 0.9999999999999999, 0.9999800949979024, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 0.9953984217558902, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999802777190533, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999997, 0.20746078316996963, 1.0, 0.9999999999999999, 0.9489314554525967, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 8.366202979094295e-08, 0.9999999999999999, 0.9999999983022201, 0.9998692380213162, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999798905544, 5.959762218002801e-05, 0.9998878793520498, 0.9998358640829703, 0.9998962813449758, 0.38143833538925886, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.999999947245367, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.8824452995228136, 0.000132746469853595, 0.9999997917971414, 1.0, 0.9880562156898484, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.8891688395105577, 0.9999999570758327, 1.0, 0.9999998943670776, 0.9999999999999999, 1.0, 0.9995355021718417, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 9.052564141402454e-09, 1.0, 1.0, 0.000621336723454542, 0.9999998204304118, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9177868209795778, 0.5849884466697175, 0.9999999999999992, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.0006228013324562727, 1.0, 1.0000000000000002, 1.2393490565081467e-07, 1.0, 0.7610865224120612, 1.0, 1.0, 0.7845748667458683, 0.9999999999999999, 1.0, 0.9999999429531188, 0.9999999999999999, 9.11039890502887e-09, 1.0000000000000002, 1.0000000000000004, 1.5424512117872586e-08, 0.9999999603640678, 0.9999999999999997, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999998359736888, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.9999999999999997, 1.0, 1.0, 0.9999999615844696, 1.0, 0.9999991005013504, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000013, 1.00000000000119, 0.9999999999999999, 2.0952906885805624e-07, 1.0, 1.0, 1.0, 0.9999998980737693, 1.0000000000000002, 0.9999998600968079, 0.9999999601713231, 9.917832298980381e-08, 0.9999999999999997, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999620163355, 0.9999999999999999, 0.006803810133670177, 1.0000000000000002, 1.0, 0.9999999765571642, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 2.282503442748705e-11, 0.9999999999999999, 1.0, 1.0, 0.9904737438381351, 0.9999999960315241, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 1.0, 0.9997315663030975, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9965000341756869, 1.0, 2.8917120392327568e-05, 1.0000000000000002, 1.0, 0.682642005126023, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 0.9999999492323639, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999991246, 1.0, 0.9999999999999999, 0.9999999709205444, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.999999940662463, 0.9998033909020537, 1.0, 1.0000000000000002, 0.9999999006671565, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 0.7847382002405624, 1.0, 1.0, 1.0000000000000002, 0.9997099912572419, 0.9999999999999998, 4.351105552740031e-08, 1.0, 0.9999999999999999, 1.0, 1.0, 0.00017693486663703656, 1.0, 0.9999999999999999, 0.9999998440694545, 2.0415722900686576e-07, 0.9999939982153883, 1.0000000000000002, 1.671950449577909e-05, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999998162233253, 0.9999999999999996, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999995703896396, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9999997920392759, 1.0, 1.0000000000000002, 1.0, 0.9615343117079578, 1.0000000000000002, 1.3914221146847046e-07, 1.0000000000000002, 0.9999999317015593, 1.0, 0.9999999999999999, 0.99999997502878, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.0036927249398919443, 0.9999996322226836, 0.9999999588607502, 1.0, 0.12433213719900428, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0000000000000004, 0.0003791130102614738, 1.0000000000000002, 0.999999935155616, 0.9999999999999999, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 0.9999998363198986, 1.0, 1.0000000000000002, 0.9999999994782027, 1.0000000000000002, 4.598451494402262e-08, 0.9999974832902426, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999998, 1.1245533467507775e-07, 1.0, 0.9999999999999999, 0.016268450614050568, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 2.405960177179617e-07, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 7.255150419827522e-08, 0.9999916460651658, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9543476303453485, 1.0, 1.0, 9.967395625564883e-09, 1.0, 0.9999999556697912, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 1.177975617293375e-05, 1.0000000000000002, 1.0, 0.9999999724958711, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999998003206619, 0.9999999999999999, 1.0, 0.9999999457922333, 1.36668950201876e-05, 1.0, 4.1044064899682226e-08, 0.9980210228570221, 0.5936486371313571, 1.6597466451035212e-07]</t>
+          <t>06_075_980501, 06_081_600701, 06_075_031201, 06_075_031202, 06_075_025403, 06_075_025600, 06_075_026002, 06_075_026004, 06_075_026001, 06_075_026003, 06_075_060502, 06_075_031301, 06_075_031302, 06_081_600402, 06_081_600401, 06_075_030900, 06_075_031100, 06_081_600300, 06_075_026100, 06_075_026301, 06_075_026302, 06_075_026303, 06_075_026201, 06_075_026202, 06_075_031401, 06_075_025501, 06_075_025502, 06_075_031402</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>0.0468831683624687, 5.856712034652565e-06, 0.5488997782404826, 0.9251329600297425, 3.727503339114578e-09, 0.4491124224701535, 0.9138553351607864, 1.0, 1.0000000000000002, 0.9987482731348012, 0.006564594054421796, 0.9806861021014225, 0.6376664069531052, 3.369098170447348e-08, 1.1526108749960796e-08, 5.579580140962745e-06, 9.853849569835398e-09, 1.3067590561369628e-07, 0.9999999969590873, 0.9999999999999997, 0.9411309839127501, 0.9999000450661315, 0.9999653187805547, 1.0000000000000004, 1.0, 0.9894338582663031, 0.5113847365656466, 1.0000000000000002</t>
         </is>
       </c>
     </row>
@@ -11752,18 +10214,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>[61101, 10800, 11700, 10102, 10300, 10800, 61501, 10800, 11700, 11902, 11700, 11102, 10902, 10500, 10702, 12204, 11700, 10800, 61101, 61101, 12302, 11700, 10600, 11700, 10300, 10600, 12302, 10702, 10500, 11700, 10500, 10401, 11002, 61101, 12100, 10300, 61101, 11101, 11002, 10600, 12302, 10902, 11300, 11902, 10402, 61101, 61507, 11001, 10300, 10101, 11902, 11102, 12301, 12302, 10701, 12001, 10300, 11101, 61501, 11700, 61101, 10201, 10600, 11700, 10500, 10300, 11300, 10500, 10902, 10702, 10300, 10300, 10500, 11800, 10800, 11700, 10600, 10702, 12002, 12001, 10101, 13101, 10402, 10600, 10500, 10500, 10500, 12001, 10901, 11901, 10500, 10600, 11700, 10701, 10300, 10701, 10402, 17602, 61501, 10901, 12503, 10600, 10901, 10500, 11700, 10402, 12100, 10402, 10902, 11901, 11102, 10300, 10101, 10600, 12002, 10500, 10500, 10101, 11800, 11800, 11700, 10202, 10800, 12503, 10800, 10402, 12302, 10500, 11200, 11101, 10901, 11700, 11700, 10500, 10702, 10800, 10101, 10701, 10702, 61102, 11300, 11102, 10800, 61101, 10902, 10102, 61507, 61101, 12100, 10101, 12002, 10500, 10600, 11200, 10402, 10402, 11200, 61101, 11700, 11300, 10701, 10600, 10701, 11700, 10500, 10800, 10102, 11902, 10401, 11102, 17602, 10500, 10800, 10101, 11700, 11700, 11700, 11700, 61507, 10402, 61102, 10101, 10101, 10101, 10300, 10101, 61101, 11700, 10600, 10401, 12301, 10901, 10300, 10800, 10600, 10401, 61507, 10300, 12503, 11002, 61101, 10800, 11700, 61101, 10600, 11102, 10500, 10800, 12100, 11200, 10702, 11800, 11700, 11901, 12302, 10402, 13101, 10300, 10500, 10101, 61101, 12202, 10101, 11700, 12204, 10500, 12001, 10901, 61101, 10401, 11200, 10300, 12001, 10500, 61101, 12100, 12302, 61101, 10101, 11300, 11700, 10401, 11200, 10702, 10500, 10101, 10500, 10800, 11700, 10101, 10500, 12100, 11800, 11700, 11800, 11102, 10300, 12001, 12002, 11300, 11102, 10600, 12002, 10901, 12302, 11700, 10800, 10500, 61101, 10902, 10902, 10300, 12302, 11700, 12100, 11001, 61101, 61101, 61101, 10101, 10401, 10101, 11200, 61507, 11102, 11700, 11001, 61101, 11700, 11700, 10101, 11700, 12503, 11300, 11200, 61101, 10202, 11001, 10202, 10600, 12203, 10600, 10300, 11200, 10800, 61101, 10500, 11002, 10401, 10500, 11902, 11700, 13101, 10600, 11101, 10901, 61501, 11700, 11902, 10800, 11700, 11002, 12002, 10800, 61102, 11001, 10701, 12301, 11001, 11102, 10701, 11700, 61101, 11200, 10901, 10800, 12002, 10401, 11700, 10101, 61101, 10101, 10101, 12002, 12503, 11700, 11700, 10402, 12302, 10600, 12001, 12301, 12100, 11902, 10101, 10300, 10701, 10101, 11300, 10401, 11101, 12202, 10101, 10102, 10901, 10500, 10500, 10300, 61101, 61501, 11700, 11002, 61101, 10102, 10300, 10600, 61101, 13101, 10901, 11700, 10800, 11200, 10101, 61102, 10402, 10901, 10800, 11700, 11200, 11002, 10401, 10401, 61101, 10500, 10701, 10401, 11200, 11200, 12202, 12302, 11700, 11002, 11200, 10600, 11901, 10901, 11800, 11700, 10702, 61501, 10600, 11300, 10102, 11002, 61101, 10101, 11002, 61101, 61102, 11102, 11300, 10101, 10800, 10500, 11300, 11700, 12301, 11101, 10101, 10500, 10500, 10402, 10102, 11002, 10600, 11700, 10402, 12202, 61101, 10402, 11102, 61102, 11200, 10600, 11700, 61101, 61102, 61501, 10600, 11700, 13101, 11700, 11700, 10902, 10300, 11700, 10101, 11001, 11200, 10300, 11200, 11700, 11101, 12001, 10500, 10102, 10800, 61102, 11001, 10702, 11200, 12302, 11300, 10101, 11902, 10500, 11102, 11700, 10101, 11101, 10300, 11300, 10600, 11200, 10800, 10300, 11700, 61102, 10101, 10701, 10600, 10800, 11700, 10300]</t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 0.9999997221071625, 1.0, 1.0, 1.0000000000000002, 0.001958136154495171, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.00010998813127595666, 0.9999999999999999, 1.0, 8.84560796144534e-15, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999995593421799, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 6.356336174177037e-08, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 0.997248427309968, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.8883141725831556, 1.0, 1.0, 1.0, 1.0, 1.695733114950322e-08, 1.0000000000000002, 0.035809018854748666, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999996797225863, 2.7219072395814736e-15, 1.0, 1.0, 2.2979561866395913e-07, 0.9938887474911942, 0.0239049213351073, 1.0, 1.0, 2.7833698866200187e-08, 0.9999999999999997, 0.9999999999383439, 0.9999999999999999, 0.9999998140679421, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.0454834875178867, 0.9989473510374428, 1.0, 0.021429207638356613, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999998170232793, 9.246138543057478e-05, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 0.999999794919488, 1.0000000000000002, 0.9999999999999999, 0.02891518602698679, 0.0019573273463266132, 0.9999999999999999, 4.016288509286023e-11, 0.9999999999999999, 5.1685320956688845e-08, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.0923118671191614, 1.1275488053727348e-07, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999995897961635, 2.0152212648614286e-07, 1.0, 0.9999194727473314, 1.0, 1.0, 0.9999997794314903, 1.0, 1.0, 0.9939074021971154, 0.9999997249493228, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 0.8907373558908459, 1.0, 0.0019072588345583543, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999976281, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000022906, 9.795789706189235e-08, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.00010273646126643081, 1.0, 0.9999999999999999, 0.9659040797783093, 1.0, 0.9999999999999999, 2.9190821617447286e-07, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999997773629344, 0.9999999694889355, 0.9999997431488316, 0.9999999999999998, 1.0, 1.0000000000000002, 1.1645442937028495e-07, 1.3961596265680081e-08, 1.0000000000000515, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 2.213679496904421e-10, 1.0, 1.0000000000000002, 1.0, 1.0, 9.67988888691344e-08, 1.0, 1.0, 7.210024190456745e-05, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 2.380150294490075e-09, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999680269821916, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999859995673, 1.0000000000000002, 1.0000000000000002, 0.999999692359557, 0.9999999999999999, 0.14138516219561428, 1.0, 0.04674535969417971, 0.9999999326844222, 1.0, 1.0, 1.0, 1.0, 0.9999997296116687, 1.5195785164383645e-07, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.8887354302410756, 2.4609305389593344e-07, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 0.0073151663714259565, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999998214388186, 1.0, 1.0, 1.0, 3.162317369402713e-07, 1.0, 1.0114511376095105e-07, 0.9999999999999999, 5.049687015409142e-09, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0000000000000004, 0.999999847843971, 1.0000000000000002, 1.0, 8.422657429051076e-09, 0.9999999999999998, 1.0, 1.0, 0.04862193571703052, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0, 0.059878758555680894, 1.0, 1.0000000000000004, 0.9941097920126769, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999994240308651, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9990937724345098, 1.0879694732387329e-07, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 6.821539570775636e-08, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999999999999997, 1.0000000000000002, 0.9999999999999999, 0.9999999242369525, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 0.9997466087353255, 0.9999998098350662, 1.0, 0.0019219521147562776, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 6.289308855143444e-08, 6.951437487451606e-08, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 2.0532074218064715e-07, 0.999737564541719, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999994, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9374524396225642, 0.9999999999999999, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 0.9964665307400685, 1.0, 1.0, 0.04716728983009875, 1.0, 1.0000000000000002, 0.9999999999999997, 0.9998957835916014, 1.0000000000000002, 1.0, 0.9999996011801, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999999, 0.03692106168794594, 1.0000000000000002, 1.0, 0.9999999995291945, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.003269183803418866, 0.9999999999999999, 1.0, 0.014498705042696897, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999997632489362, 1.0, 0.999999992671239, 1.0, 0.04616639613290404, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 0.9936067236203509, 1.0, 1.0000000000000002, 1.0000000000005622, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9999999732792542, 1.0000000000000002, 1.0000000000027771, 0.9999999999999998, 1.0, 0.9999999999999996, 1.0, 0.9999999999985114, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999996, 0.9999999999999997, 1.0]</t>
+          <t>06_075_012302, 06_075_011902, 06_075_012202, 06_075_013101, 06_075_010300, 06_075_010500, 06_075_010600, 06_075_010800, 06_075_011200, 06_075_011300, 06_075_011700, 06_075_011800, 06_075_012100, 06_075_011901, 06_075_012301, 06_075_012503, 06_075_017602, 06_075_012001, 06_075_010101, 06_075_010102, 06_075_010202, 06_075_061507, 06_075_010402, 06_075_061101, 06_075_061102, 06_075_061501, 06_075_010901, 06_075_012204, 06_075_010902, 06_075_011001, 06_075_011102, 06_075_012002, 06_075_010401, 06_075_010701, 06_075_010702, 06_075_011002, 06_075_012203, 06_075_010201, 06_075_011101</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>0.6649553250525312, 1.0, 0.07673669654047693, 0.0029823381520410514, 0.6877263738830216, 0.5812790493395131, 0.9999999999999997, 1.0, 1.0, 0.9999999999999999, 0.9999999845370723, 1.0, 1.0000000000000002, 1.0, 0.426472956543704, 0.1671435012977322, 0.0051162284949151145, 0.9697633542865904, 0.518211654594882, 0.9999999999999998, 7.966005717556141e-09, 0.0003223230603252624, 0.9999999999999998, 0.9999999999999998, 1.0, 0.01115427901509165, 0.7486295309419768, 2.4101957255307212e-05, 0.7090556675380066, 0.9983980512453096, 0.9704549786222264, 0.9708066985768877, 1.0, 1.0000000000000004, 1.0, 0.9991990450396493, 1.6852956621537207e-09, 2.272453827653987e-09, 0.9984135267531726</t>
         </is>
       </c>
     </row>
@@ -11806,18 +10262,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>[16000, 16802, 16400, 15900, 16102, 15500, 16200, 30500, 15802, 15201, 20101, 17102, 16102, 15801, 15702, 16200, 30102, 15201, 17102, 16400, 16300, 16700, 16602, 15801, 30101, 16200, 15500, 15702, 20101, 30102, 30202, 16700, 30202, 30102, 15801, 20101, 30101, 20401, 15500, 15500, 16200, 16801, 16801, 16400, 17101, 30202, 16802, 16500, 30201, 16000, 15801, 32601, 16802, 16300, 980300, 16101, 30101, 16700, 16602, 15900, 16400, 16000, 16101, 15802, 15702, 16700, 30101, 30101, 16102, 16500, 15702, 16601, 17102, 16400, 16200, 16802, 15702, 15801, 30102, 980300, 15300, 16500, 16801, 30102, 16802, 16700, 16101, 17102, 17102, 15802, 17101, 16602, 16101, 17101, 16400, 16300, 16400, 15702, 17101, 15702, 16802, 15300, 30102, 16200, 15900, 16102, 16601, 17101, 16801, 16801, 30201, 17700, 16400, 30202, 15702, 16200, 16802, 15500, 980300, 16801, 17102, 15900, 15300, 15401, 15300, 16200, 12405, 16700, 12406, 16102, 16700, 16700, 980300, 16400, 15100, 30102, 12405, 16602, 15802, 16500, 16300, 12202, 17102, 30202, 30202, 30102, 16400, 15702, 16400, 15701, 16300, 15300, 30201, 17101, 15900, 30101, 15201, 980300, 980300, 16200, 15202, 15802, 12405, 30102, 16300, 16801, 30101, 16300, 15900, 16300, 30201, 16802, 12202, 15802, 17102, 30101, 30101, 980300, 30101, 17102, 980300, 16300, 15900, 16700, 30202, 16802, 15202, 16200, 12406, 16000, 20202, 15801, 980300, 17101, 15202, 16601, 15900, 16101, 16102, 17102, 30102, 17102, 16000, 16300, 16602, 15202, 30102, 16602, 16500, 15802, 16200, 16500, 16300, 15701, 16700, 16802, 16400, 16601, 16801, 16801, 15202, 16802, 16500, 15202, 16200, 15401, 30102, 980300, 16601, 15202, 30102, 15702, 15500, 15500, 15300, 16200, 16801, 16200, 15801, 16700, 16400, 30102, 15500, 16801, 16101, 16000, 15201, 16300, 16700, 15801, 15802, 16801, 16300, 15802, 16500, 15801, 15100, 16801, 16602, 12406, 16300, 16300, 16602, 16400, 16802, 30101, 17102, 30102, 16000, 15300, 15202, 15900, 16400, 16700, 15300, 16300, 20202, 980300, 980300, 16000, 17102, 16500, 30202, 16602, 16500, 15801, 16200, 15702, 15802, 30102, 15500, 30101, 16500, 17102, 15701, 12405, 16300, 16500, 15500, 30202, 15100, 16300, 16102, 16601, 16500, 30102, 30201, 15100, 15801, 12405, 30102, 15801, 30101, 15500, 30101, 16801, 16802, 30102, 17101, 15801, 20101, 16500, 15801, 16500, 17101, 15100, 16200, 16200, 15900, 15300, 16101, 16801, 15801, 13500, 30102, 15702, 16300, 16400, 15100, 16700, 30101, 16200, 16802, 30201, 30201, 16200, 15201, 16000, 15900, 12002, 15201, 30301, 16200, 16200, 16700, 15802, 17102, 17102, 15202, 16802, 980300, 30202, 30202, 16500, 15202, 15802, 16200, 16200, 16601, 16700, 16102, 16700, 16802, 30202, 17102, 30102, 16602, 16000, 16601, 12202, 15500, 15401, 16802, 16000, 16400, 30101, 15801, 17101, 16500, 16300, 16101, 16000, 15702, 17102, 17101, 16000, 30202, 16500, 16200, 16102, 15500, 980300, 17102, 15802, 16802, 16802, 30101, 15500, 15202, 16400, 30102, 16101, 12202, 30301, 16601, 15202, 16601, 16601, 16500, 17102, 16500, 16000, 15201, 15500, 30101, 30102, 15801, 15802, 30102, 30101, 15500, 16802, 15202, 17101, 980300, 17101, 980300, 30202, 980300, 16601, 15802, 16801, 15801, 15801, 15500, 15900, 15801, 12202, 15900, 15401, 15201, 30202, 15801, 30202, 30102, 30201, 16500, 16200, 16000, 15100, 17102, 15500, 30201, 15801, 16102, 17101, 16500, 16200, 16000, 17101, 16802, 16801, 15702, 16500, 15100, 16801, 980300, 15500, 30102, 15202, 30202, 15900, 16601, 16802, 16802, 16500, 16700, 15900, 30101, 16400, 30201, 30201, 15802, 15500, 12405, 30101, 12202, 16601, 30201, 30201, 30201, 16300, 16700, 15900, 15802, 15801, 15801, 30101, 30202, 16801, 15401, 17101, 16101, 16200, 16802, 12202, 30101, 16700]</t>
-        </is>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 0.9821826773963463, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 7.086141972960283e-08, 0.9999999999999999, 0.9999997635330204, 0.009810646790113165, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 0.9999997863019282, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 7.082665762818818e-07, 0.99999990657405, 1.0000000000000002, 0.9999999999457906, 0.999999999776173, 0.004491635040880893, 0.9999996530426556, 1.0000000000001275, 6.387408845937357e-05, 0.03754623993925838, 1.0, 0.9999999999999998, 0.0027461123988144318, 1.0000000000000002, 1.2495163487105501e-08, 0.9999999999999999, 0.9999998563533441, 0.9878684258227344, 0.9999999999999999, 4.702991785970501e-08, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.04166769476973968, 1.0, 0.9999999999999999, 0.010079086742362598, 1.0, 0.9999999999999998, 7.801458484307129e-07, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999996, 1.0, 0.9962715112359116, 1.0, 1.0000000000000002, 0.9999999410849674, 1.0, 1.0, 0.9999999999999998, 1.0, 0.0002716659152549929, 1.0000000000000004, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999998823042466, 0.9999999999999999, 3.7940868120410165e-11, 0.9999999999999997, 1.0, 1.4284666258418679e-05, 0.00015413346944759962, 0.9999999973315508, 0.9999999208057365, 0.018283205098092326, 0.9999999929433504, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999798112564, 1.0, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0, 5.768075543434934e-08, 1.0, 6.369635043697035e-06, 8.473065297055706e-08, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999961919, 1.000000000003777, 1.0, 0.999870623012395, 0.007587044510721531, 1.0, 0.9999999999999998, 1.963946623432331e-10, 0.9999999999999999, 1.0000000000000002, 1.0, 0.000707068144782575, 0.9999998997368746, 1.0000000000000002, 1.0, 0.9999998402268525, 1.3201048101345533e-07, 1.5872268192497625e-07, 1.0000000000000002, 0.0006695949922895027, 1.0000000000000002, 0.010548842251263603, 1.0000000000000002, 7.799109281464286e-08, 1.0000000000000002, 1.0000000000000002, 1.0, 0.98267003255423, 0.9999999528402443, 0.054898858420849794, 0.9999999999999999, 1.0, 1.0, 1.0, 0.0796063416806939, 1.0, 0.9999997357272999, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 8.733108853602961e-06, 0.9999999999999999, 2.749839538024609e-07, 1.0000000000000004, 9.838311170536133e-09, 1.0, 1.0, 0.9999999999999998, 1.0, 6.937193011496372e-09, 0.9990799043189648, 0.9999998005233807, 1.0, 0.052741816841754906, 4.281836642185206e-08, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 0.8092819324377929, 1.6418462316971853e-05, 0.08039175189597463, 0.9999999999999998, 1.0, 0.9999999595436794, 1.0, 5.6503760367107696e-08, 1.0, 0.9999999999999999, 0.9999500187750576, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999993925437839, 1.0000000000000002, 0.004003884617451101, 0.999999999996953, 0.017318249301770696, 1.0000000000000002, 1.0, 0.9999997546043651, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9157592678017089, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999997161, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 0.00010027689568863945, 1.0000000000000002, 7.530426954018478e-05, 0.0002983139624223812, 1.0000000000000002, 1.0, 1.0, 0.9999996541657626, 1.0000000000000002, 1.1233346727291923e-07, 0.9999999999965081, 1.0, 0.9999997477166668, 1.0, 1.2574817492030695e-07, 8.885841561935452e-08, 1.0, 0.9999999999999999, 0.9999999996030414, 0.9999999778604324, 0.9999996976518625, 1.0, 0.9999980794244612, 2.006010793525525e-07, 1.0000000000000002, 0.9999999999997832, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999995697821027, 0.99999994735441, 1.0, 1.0, 1.0, 0.9999998558489778, 1.0, 1.2070541655626916e-09, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 0.9999999947462372, 1.0, 1.0, 8.046404390245169e-08, 1.0, 0.006824358765560427, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999998958586607, 1.0, 0.9999999999999999, 1.0, 0.9999999999983082, 1.8313376549928304e-07, 1.0000000000000002, 0.001840203754862112, 0.006853656772894728, 0.9999999663808485, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 0.8471579730337065, 1.0000000000000002, 1.0, 0.0002710022972342742, 1.0000000000000002, 5.506940518008553e-08, 0.2131340879234728, 1.0000000000000002, 1.0000000000004379, 0.9999998864861969, 0.037687344392197876, 5.5843799929141816e-11, 1.0, 1.0, 1.0, 1.0, 0.9999997255496069, 0.9999999999999998, 0.00014792530963326494, 5.104457691149522e-07, 0.03014742374276212, 1.0000000000000002, 0.9999999966429395, 1.0, 1.0, 0.9999999999999998, 0.9999996982606316, 1.0000000000000002, 0.9999999794359117, 2.516764114898788e-08, 1.0, 0.0016623833756346897, 0.9999999999999998, 1.0, 1.0, 4.3919070501363354e-07, 0.00027809784944416127, 1.0, 1.0, 1.0, 1.1313133087667103e-07, 1.0, 0.9999996489921407, 1.0, 3.170561639616784e-08, 3.09632976378808e-07, 0.9999998427974025, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999430901, 0.9999999131729478, 1.0000000000000002, 1.0, 1.0, 0.819885769795932, 0.9687869317053651, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.00048411191287207536, 1.0, 1.976791581063822e-15, 1.0, 0.9999999999999999, 0.9999999075535377, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 0.9999999862520274, 1.0, 1.0, 0.9999999220354528, 4.7069988826952417e-08, 1.0, 1.0, 0.9999999999999999, 0.9999997843638733, 1.0, 1.0, 2.1718952385733252e-07, 0.9718597677033073, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.1934566031196892e-11, 3.138951413860934e-07, 4.140778384470907e-08, 1.0, 0.9999999153328156, 0.9999999999999999, 0.9999999999999998, 0.564789620173636, 0.9999999839499588, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 5.072479577410712e-08, 1.0000000000000002, 0.03955779288434414, 0.9999999965213284, 1.0, 1.0, 1.0, 1.1792989289651218e-08, 1.0000000000000002, 0.9999999323150012, 0.9739478408491364, 1.0000000000000002, 1.0, 1.0, 0.999999999999095, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 0.0020805440654138646, 8.446965845777356e-08, 1.0, 0.9999997877802593, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999997433489409, 0.9999999999969507, 1.0000000000000002, 0.8605464217149229, 1.0000000000000002, 1.0000000000000002, 9.16152767613352e-09, 1.0, 1.0, 1.0, 1.0, 1.9301056744986902e-07, 0.9998157720067694, 0.9999993939791293, 4.993528859908765e-09, 1.0, 5.1263293133937705e-08, 0.9999999999999999, 1.0, 0.999999962243166, 1.0000000000000002, 2.1718278619809764e-07, 0.999999981360785, 1.0, 1.0, 0.9386712408399583, 1.0, 0.9999995412928919, 4.409135761710549e-07, 0.04095852389869052, 1.0000000000000002, 1.0, 1.0000000000000002, 0.002857324010628168, 0.9999999999999999, 0.9722123486582274, 1.0, 0.00030088931593618714, 1.0, 1.0, 0.7947675721357017, 0.9999999979604197, 1.0, 0.9999999834515525, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999507456111, 0.9999996950573683, 1.0, 0.9999997442791165, 1.0000000000000002, 0.999999970158805, 2.411026388908178e-07, 0.9999999344707294, 0.9999977732952635, 0.009181535572113072, 1.0, 1.0000000000000004, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9991082540691668, 0.999999707330881, 0.9999999940956622, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.0019327026409726223, 1.0, 1.0, 0.04655008402686448, 1.0, 0.0805423524383442, 0.9999999797553826, 0.9999999999231892, 1.0, 1.0, 1.0, 0.9999997988879188, 1.0, 1.00000000000034, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999156251347, 6.920055593082217e-08, 0.9999999956661719, 0.9999999995211815, 1.0000000000000002, 1.0, 0.9999999999999999, 0.07801663159614956, 1.0, 0.9999998990458459]</t>
+          <t>06_075_017102, 06_075_016801, 06_075_012202, 06_075_015801, 06_075_016802, 06_075_017101, 06_075_980300, 06_075_030202, 06_075_016500, 06_075_015300, 06_075_013500, 06_075_015100, 06_075_015900, 06_075_016000, 06_075_016200, 06_075_016300, 06_075_016400, 06_075_015500, 06_075_016700, 06_075_015802, 06_075_032601, 06_075_017700, 06_075_020401, 06_075_030101, 06_075_030102, 06_075_030201, 06_075_030301, 06_075_030500, 06_075_012405, 06_075_020101, 06_075_015701, 06_075_015702, 06_075_016602, 06_075_016601, 06_075_016101, 06_075_016102, 06_075_012406, 06_075_015401, 06_075_015202, 06_075_015201, 06_075_012002, 06_075_020202</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>0.9999999999999999, 0.6110547993985652, 0.045600034260255794, 0.9197076940493801, 0.9469467893361851, 0.6307897446345837, 0.18799713347162383, 0.7849368541257905, 0.8747252179137829, 0.13147070594173743, 2.060593090130075e-09, 0.21751483401356558, 0.9999999999999996, 0.9996522702658136, 0.9976154356130925, 0.9999999999999999, 1.0, 0.950655495550452, 0.4615130525448093, 0.9999999938259896, 2.547864988161464e-05, 2.8760987514004142e-05, 5.519397589203856e-10, 0.9605746503847863, 0.31907139579070937, 0.45737217252766166, 2.1938961541869e-09, 4.13920518212435e-09, 0.0025863665705420573, 0.0007852731852930123, 5.472500917490268e-06, 0.39348987982562866, 1.0000000000000002, 0.9999999942877545, 0.9999999999999999, 1.0000000000000004, 0.00309596917204823, 0.0726943741991946, 0.7458021157054827, 0.8308013643084596, 7.39936818234793e-06, 0.0005569587021135835</t>
         </is>
       </c>
     </row>
@@ -11860,18 +10310,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>[30900, 30301, 33201, 31100, 30900, 30700, 33204, 30700, 35300, 30301, 30500, 30500, 30301, 30302, 30301, 31000, 30800, 60400, 30600, 31000, 30800, 31100, 30400, 33203, 31100, 30400, 30800, 31100, 30900, 30900, 33100, 33001, 30102, 33100, 30800, 30500, 30400, 30301, 30800, 30600, 30302, 30800, 30600, 30800, 30600, 30101, 30301, 30700, 30800, 31100, 25501, 30102, 30400, 30700, 30600, 30900, 30301, 30700, 30302, 30301, 30600, 30202, 33100, 30202, 30800, 30400, 31100, 31000, 30900, 33204, 31100, 33204, 30600, 31201, 31100, 30600, 31100, 30900, 31000, 30800, 30800, 60400, 30900, 25502, 60400, 30201, 30102, 30900, 30900, 31100, 30900, 30400, 30302, 30900, 31100, 30302, 31000, 30900, 31100, 31100, 33201, 30900, 30900, 30900, 33001, 30102, 30800, 31100, 30101, 33204, 31201, 31000, 30900, 30400, 33100, 30700, 30900, 31201, 31100, 30900, 30302, 30301, 30400, 30700, 30700, 30400, 30900, 30800, 30900, 30600, 30102, 60400, 30900, 30301, 30102, 30400, 31000, 30600, 33100, 30800, 31201, 30900, 30700, 30800, 30400, 30900, 33203, 30301, 30800, 30800, 30600, 30800, 30900, 30800, 31100, 31100, 30900, 30900, 35400, 31302, 31100, 30900, 30102, 30400, 30302, 35300, 33201, 30700, 33204, 30302, 30900, 30302, 30900, 30302, 30400, 30900, 21700, 33100, 30900, 30700, 32601, 30500, 33204, 30301, 33100, 30102, 30900, 33100, 30800, 20402, 30102, 33100, 30900, 30400, 30800, 31302, 25502, 31302, 30102, 30700, 31100, 30600, 30900, 33203, 30900, 31000, 31000, 30800, 30700, 30302, 30600, 31000, 30600, 31201, 30600, 30900, 33100, 30202, 33100, 30301, 30800, 31100, 31000, 35400, 30301, 33203, 30900, 33100, 30102, 33100, 33001, 30600, 30800, 35400, 30800, 31100, 30500, 30301, 33203, 30400, 31000, 30700, 33100, 31302, 31201, 30800, 30900, 30900, 31100, 30900, 30302, 30700, 31000, 30600, 33001, 30600, 30400, 30400, 31100, 30900, 30201, 33100, 33100, 31201, 30800, 30800, 31000, 30500, 33204, 30201, 30600, 21700, 30102, 30900, 30900, 33203, 30900, 30101, 30600, 33204, 33201, 30900, 30301, 30700, 31100, 31100, 30900, 30800, 31301, 30400, 33201, 30500, 30900, 30302, 30900, 30301, 30600, 30800, 30301, 30900, 30500, 30800, 30400, 33100, 31100, 31302, 33203, 30700, 33204, 33100, 30900, 33204, 60400, 32602, 30800, 33100, 30302, 33100, 31100, 33203, 30600, 33100, 33100, 33203, 25502, 31201, 30301, 30900, 31000, 31100, 30400, 30700, 30900, 30900, 31201, 31202, 31000, 30900, 30400, 30102, 31302, 31100, 30800, 31100, 30400, 30302, 31100, 33204, 31000, 30800, 30800, 32602, 30700, 31000, 30102, 35300, 31100, 30301, 30400, 30800, 30700, 31000, 30900, 30800, 30301, 30900, 30600, 33100, 30301, 31302, 33100, 30900, 31201, 31100, 30700, 30400, 30102, 30600, 30302, 30302, 30302, 30102, 30102, 30700, 31000, 30900, 31100, 31301, 31301, 30900, 21700, 30301, 33201, 30301, 30900, 25502, 60400, 30700, 30900, 30900, 31302, 31201, 21700, 30900, 30900, 25502, 30700, 30302, 21700, 30600, 33204, 30600, 30600, 30900, 30900, 31100, 30900, 30700, 30400, 30700, 31000, 31000, 30900, 31201, 30700, 20402, 31301, 30400, 33100, 35400, 30800, 31301, 32801, 30500, 33204, 30500, 30900, 31201, 30301, 33100, 33204, 33001, 30700, 30900, 32802, 30201, 30400, 30900, 30900, 30800, 25501, 30800, 30800, 30900, 30500, 30302, 33100, 30400, 33100, 30700, 30800, 30800, 30400, 30400, 30102, 30800, 33203, 30400, 30900, 33100, 30700, 33203, 30400, 33100, 30600, 30302, 30900, 30900, 30700, 30900, 30302, 33201, 30301, 31100, 31301, 33204, 30400, 30202, 30800, 30102, 60400, 30302, 30102, 31301, 30900, 30400, 31000, 31000, 30800, 30301, 31000, 31100, 30800, 30700, 30302, 33001, 30900, 30900, 30900, 30900, 31000, 30900, 33001, 30301, 30500, 33201, 30800, 31100, 33100, 33100, 33100, 33100, 30400, 30900, 30302, 31100, 31201, 30201, 30600, 30800, 30700, 33201, 31302, 30900, 30302, 33100, 30101, 30900, 30301, 31201, 30700, 30201, 33204, 31100, 30400, 30302, 30500, 30700, 30600, 31000, 30900, 30800, 31301, 31000, 30900, 30900, 33100, 30900, 30302, 30301, 30400, 30700, 30700, 30700, 33100, 30900, 30302, 30301, 31201, 30600, 30900, 30301, 30302, 30301, 31000, 30900, 31000, 30301, 30700, 31100, 31301, 31000, 31302, 30700, 30800, 30700, 30400, 31100, 30700, 33100, 30800, 30301, 30900, 30800, 30900, 30400, 30600, 30400, 35300, 31301, 33100, 30102, 30400, 30302, 33100, 30500, 26201, 31000, 31000, 30800, 31100, 30900, 31302, 30700, 30900, 33203, 30600, 30400, 30301, 30800, 30900, 30900, 30800, 30800, 31201, 30800, 30900, 30800, 30800, 31100, 31100, 33204, 30900, 30400, 30600, 33100, 33204, 30600, 30900, 31000, 31302, 30900, 30302, 30900, 30302, 33100, 30500, 30301, 33201, 33100, 33100, 31000, 30700, 60400, 30700, 31201, 33100, 30301, 30102, 30700, 30302, 30900, 30800, 31100, 30800, 31100, 33100, 30800, 31100, 30302, 30202, 30700, 31100, 30900, 30900, 30700, 30302, 30301, 30700, 30302, 30800, 30301, 31201, 31100, 30201, 33100, 30301, 30301, 30900, 30301, 30301, 31000, 33100, 30900, 33201, 30900, 30700, 30102, 30900, 30700, 33203, 33204, 30102, 31302, 30900, 30800, 30900, 30800, 30900, 31100, 31201, 33002, 33001, 30800, 30400, 30900, 30900, 30102, 30500, 30800, 30900, 30500, 60400, 30800, 30800, 30900, 30301, 31100, 30400, 31000, 33201, 33203, 30500, 31302, 31000, 33002, 33100, 31201, 30800, 31100, 30400, 30400, 31000, 30800, 30400, 31302, 30302, 33203, 30301, 30500, 31000, 30800, 31100, 30900, 30202, 30201, 31100, 31301, 30302, 30400, 30400, 31201, 30600, 30900, 33201, 33001, 30302, 30400, 31100, 30900, 30900, 33203, 30201, 21700, 30800, 31100, 31000, 30500, 30301, 30800, 31100, 30800, 30800, 31100, 30900, 30800, 31100, 33204, 30700, 31000, 60400, 30500, 30700, 30301, 31302, 30800, 33100, 30400, 30700, 33100, 35400, 33201, 30102, 33100, 31100, 30800, 31000, 33203, 30400, 30400, 30700, 30600, 30102, 30900, 30900, 30700, 30700, 30400, 31100, 30800, 30400, 30400, 31000, 31000, 30400, 30600, 30302, 35300, 30800, 31302, 30900, 33204, 30700, 26100, 20401, 30600, 30900, 31000, 33100, 31000, 33100, 33203, 33203, 30900, 30400, 30302, 31100, 31201, 30800, 30900, 30202, 31201, 30900, 30900, 31301, 30800, 31201, 31000, 31000, 31100, 31100]</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9950700781620313, 0.9999999999999996, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 3.7421313162152446e-08, 0.9999999999999999, 0.9999998927510406, 0.9999311454671919, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9579026415830247, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0, 3.1791919609859005e-08, 0.9999999999999998, 0.9999999999999982, 0.9999999999999998, 1.0, 1.0, 0.9882346389265216, 9.024174650516814e-12, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999998950805923, 1.0, 1.0, 1.0000000000000002, 1.0, 0.8397045442161519, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 9.342441112449403e-08, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 5.4237605696973314e-08, 0.16907743177749332, 1.0, 0.9999999999999998, 0.9999958501055662, 1.0000000000000007, 1.0, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 1.0, 1.0000000000000009, 1.5459926056115603e-14, 0.9975582546817408, 0.962453760060773, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9987320171997178, 1.0, 0.9122929828309123, 0.9843941019392713, 0.9583323052303327, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999996, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 0.9999999999999999, 1.0, 1.9308937480627562e-07, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999593010077, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9989815912012768, 1.0000000000000007, 0.9967201497036952, 1.0, 1.0, 0.9701998140731158, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999996945000604, 1.0, 1.0, 1.0, 0.981716794901916, 0.9992442881794633, 1.0, 1.000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9959342960447278, 1.0000000000000002, 0.0198236133957852, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999988, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 1.0, 0.9999999999999997, 0.9999999339179094, 2.9960449056999033e-09, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0000000000000002, 1.0, 1.0, 2.318518784198026e-08, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 0.008781511544652848, 1.0, 1.0000000000000002, 1.0000000000000002, 0.0013559169869757936, 0.9999598812162709, 0.9999999999999999, 1.0, 0.9999999999999997, 0.9999999999999997, 1.0, 0.9926832275779043, 0.9999999999999997, 1.7065142924436467e-07, 0.9999999999999997, 1.0, 1.0, 1.0000000000000002, 1.0, 0.8576242958262885, 0.335441298976893, 1.0, 4.715816152337253e-08, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 2.642741357132135e-07, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.1484288473265436e-07, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 1.0, 0.00010938321589070064, 1.0, 0.9075724460798216, 0.0031705567219688143, 1.0, 1.0, 0.9999999999999994, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999988777261567, 1.0, 0.0046015782458742865, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000004, 0.0020678465623997218, 0.9999999999999994, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000004, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999456145068, 0.9999999999999999, 0.1907180675603398, 1.0000000000000002, 0.005448244540851761, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999999999999, 4.045912424542513e-08, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 3.088984427675077e-08, 0.9999999999999998, 1.0000000000000002, 1.6953519536295516e-09, 1.0000000000000002, 1.0, 0.9999999999999996, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999999, 0.9999998896419713, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 0.9999999999999996, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.8193290572053454, 0.034785801298809094, 1.0000000000000004, 0.9999999999999998, 0.841478953198314, 0.9999999999999997, 1.0, 0.9999999999999997, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 9.103572942725349e-09, 1.0000000000000002, 0.9999999999999998, 0.9999404023777646, 1.0, 1.0000000000000002, 0.9999999999999977, 1.0, 0.9999999999999998, 0.9999999999999999, 0.0001037186525197718, 0.6185616646112571, 1.0, 1.0000000000000002, 1.0, 0.08424073219894523, 0.9999999999999999, 1.0000000000000004, 0.9102405637120381, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999998868373039, 0.9999999999999997, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.032785537538835355, 0.9999999999999998, 1.0000000000000002, 1.0, 6.642473390753778e-08, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 0.11755470047713555, 1.0, 0.9998672535303782, 2.0820785942992976e-07, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999111409438, 1.0000000000000004, 0.7873658746712229, 0.9999999999999997, 0.9999999999999999, 1.0000000000000002, 2.2139239948543358e-08, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999327304114, 0.11083116048905821, 1.0563794368272462e-07, 0.9999999999999999, 0.08003822583745608, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.4323125326782722, 1.0000000000000029, 0.9999999999999999, 1.0, 1.0, 0.9993786632765873, 1.7956735203827968e-07, 0.0002504773378148053, 0.9999999999999999, 0.9999999999999996, 3.2001634315401833e-07, 7.078523912239845e-08, 1.0, 0.9856673315790205, 0.9999999999999999, 1.0000000000000004, 0.9999999999999998, 0.9871615974376623, 1.0000000000000002, 1.0, 1.0, 0.9999999999999997, 1.0, 1.0, 0.9999999993893137, 1.0, 1.0000000000000002, 1.0, 0.9993771986678996, 1.0, 1.3367845708727415e-07, 0.23891347758800788, 0.9999999999999998, 0.9999999999999992, 8.837730381139398e-08, 0.9999999999999998, 0.21542513325432572, 1.1825414448226129e-06, 1.0000000000000002, 1.0, 1.0, 1.0, 5.704501762871558e-08, 1.0000000000000009, 0.9968362336806521, 0.9999999999999999, 3.908756206445482e-08, 0.9999999999999998, 1.0, 0.0021006536526568136, 1.0, 1.0, 0.9999999999999998, 0.9999999845758147, 1.0000000000000002, 3.9636014992566134e-08, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9773436232401854, 0.8071044223487224, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.15284202696639926, 1.0, 0.9999999999999999, 1.0, 1.0, 0.977920359135282, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 1.0, 1.0, 1.0, 3.677859730043804e-13, 1.0000000000000002, 1.0, 0.9623126556077741, 1.0, 0.9999999999999999, 0.983131114636627, 1.0, 2.7444790213703774e-07, 1.3989758848019384e-07, 0.9999999008217443, 1.0000000000000002, 0.9999999999999993, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 1.808151923909492e-08, 1.0000000000000004, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.4212433140867158e-07, 1.0, 0.9999999246475076, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9961015236759078, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000007, 1.0000000000000002, 0.9931961898676402, 0.9270382399957522, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999800023368, 1.0, 1.0000000000000004, 0.9808152962622583, 8.682680014482092e-08, 0.9999999999999998, 1.0000000000000004, 3.96947139908993e-09, 0.9999999999999999, 0.18006195653930884, 1.0000000000000002, 0.999999882056209, 0.9999999999999996, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.0034999658243380443, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999987774, 1.0, 1.0000000000000002, 0.9999997516992389, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 5.077028334818747e-08, 1.0000000000000002, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 2.9077591861866128e-08, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0000000000000007, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.7926179670859993e-09, 5.934028140406394e-08, 0.9999999801628238, 1.0000000000000004, 1.0000000000000004, 1.0000000000000002, 0.9999999173225372, 1.0000000000000002, 6.51998671982811e-08, 1.0000000000000002, 0.9999999999999996, 0.009633202511460296, 1.0, 1.0, 0.21526179975945967, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 1.0000000000000002, 0.9999999564915673, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999997958427721, 0.9999999999999998, 1.0, 0.9999832804941929, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.999998544570213, 0.9999999999999999, 1.8377651485630952e-07, 1.0, 1.0, 0.9999999999999998, 8.514732348005472e-07, 0.9999999999999997, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 0.9604422071155618, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 6.829620658217113e-08, 1.0000000000000002, 1.0, 0.9973805952371493, 1.0, 0.9999999155322744, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 0.1394535782850494, 1.0000000000000002, 0.9999999999999973, 1.0000000000000002, 1.0, 4.925171503030872e-09, 0.9878818835917478, 0.9999999999999998, 1.0, 0.9996208869896767, 0.9999999999999998, 1.0, 0.9999999999999999, 6.484368709496941e-08, 3.6793028447922944e-05, 3.873618099030288e-08, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999982935169455, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 2.3537032260773402e-07, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999994, 1.0, 1.0, 9.381987634819572e-05, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999998, 0.999999967269544, 1.0000000000000002, 0.7760585632628764, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 1.0000000000000002, 0.9999461662140225, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 0.9590414760974453, 0.9589696062376917, 1.0, 5.218010603325825e-10, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999540132867, 1.0, 0.9999999999999998, 1.0000000000000002, 4.172618459914201e-08, 1.0, 0.9999999999999999, 0.9999997246854218, 0.9999999999999999, 0.9880971867342927, 1.0000000000000007, 0.20523242786564122, 0.5615830291046573, 0.9999999999999999, 1.0, 1.0, 0.9999999999999334, 0.9999999999999999, 0.9999999999999999, 0.9999996427750568, 0.9666937091057889, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.1850994226240834e-07, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 0.9999999999999992, 0.9883951930714667, 0.9837315493867739, 1.0, 1.0000000000000002, 0.015806191734686618, 1.0000000000000004, 0.9977455159487019, 8.132922283831604e-09, 1.0000000000000002, 0.9908184644284949, 0.9980663816015599, 1.0, 1.0, 1.0000000000000002, 1.0, 0.7501921886725376, 1.0, 1.0000000000000002, 0.9800817232185144, 1.0, 0.9999999999999999, 1.0, 0.9999999471677647, 1.0257922521365352e-07, 1.0, 0.9999999274483986, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 1.1451867732730453e-07, 1.0, 0.045652369654639806, 0.9999999900319477, 0.9999999999999999, 1.0, 4.4329808630860516e-08, 9.213910245432108e-08, 1.0, 1.0, 1.0, 0.9378552311544152, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999991, 8.437809417645046e-08, 1.9968211848448183e-07, 1.0, 1.0, 5.4207080407580756e-08, 1.0000000000000002, 0.999999958957316, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 6.764133879896346e-08]</t>
+          <t>06_075_032801, 06_075_031201, 06_075_031202, 06_075_032602, 06_075_032802, 06_075_033203, 06_075_033204, 06_075_030202, 06_075_020402, 06_075_031301, 06_075_031302, 06_075_032601, 06_075_030900, 06_075_031100, 06_075_031000, 06_075_033100, 06_075_033201, 06_075_035300, 06_075_035400, 06_075_021700, 06_081_600900, 06_075_026100, 06_075_060400, 06_075_020401, 06_075_030101, 06_075_030102, 06_075_030201, 06_075_030301, 06_075_030302, 06_075_030400, 06_075_030500, 06_075_030600, 06_075_030700, 06_075_030800, 06_075_026201, 06_075_033001, 06_075_033002, 06_075_025501, 06_075_025502</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>3.853084924803317e-08, 0.45110022175953535, 0.07486703997036837, 0.002851486057129346, 6.249969176587883e-05, 0.9999999999999996, 1.0000000000000002, 0.21506314587425146, 5.364562674172068e-08, 0.01931389789856373, 0.3621675120532764, 6.732448645964522e-05, 0.9999722893809505, 0.8998326755823369, 1.0, 0.997632005834956, 1.0000000000000002, 3.191824268866986e-09, 9.47461703964722e-06, 0.0026207888175786976, 2.9621258527246663e-09, 3.0408657277025467e-09, 0.8310232542246073, 6.731478009755762e-09, 0.03942534961516738, 0.6553075449194238, 0.3198522891902081, 0.9999546449753585, 0.9979567049673386, 0.9957575658583232, 0.9999828346127062, 0.9990685113138076, 0.9586424973438393, 0.9965820761761954, 1.1146315696691826e-08, 3.1553924936454346e-05, 2.9591130971242883e-05, 0.010566141733724081, 0.03471282218211583</t>
         </is>
       </c>
     </row>
@@ -11914,18 +10358,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>[25100, 25702, 17700, 25702, 25402, 22901, 26002, 25300, 25701, 22901, 23300, 22901, 25800, 17700, 25402, 22803, 25402, 25100, 25900, 25100, 25701, 25300, 25200, 20701, 20900, 25100, 20102, 20900, 25900, 20801, 22803, 20900, 25800, 25600, 22901, 17700, 25702, 17700, 20802, 20802, 20202, 25403, 22801, 25701, 22902, 25701, 25200, 25200, 25701, 25401, 25502, 20702, 25200, 25402, 980501, 25702, 20201, 20101, 25300, 25401, 22802, 17700, 22801, 22801, 25800, 25402, 22903, 25100, 25900, 22803, 25401, 20101, 25300, 25200, 20900, 25900, 17700, 25900, 26002, 25600, 20101, 20102, 25702, 25200, 22902, 25702, 25600, 17700, 25600, 17700, 22901, 25701, 20101, 25403, 22803, 20101, 25800, 25403, 25600, 25300, 25100, 17700, 25401, 25100, 25100, 25403, 20101, 20900, 22801, 22801, 22801, 25402, 25200, 22901, 20900, 25401, 25702, 25900, 25900, 25701, 25701, 25300, 25300, 25403, 25200, 22902, 25900, 20102, 20101, 25200, 25701, 25402, 20900, 22801, 22802, 25401, 25300, 25403, 25900, 20900, 20202, 980501, 25701, 25401, 25600, 22802, 17700, 25403, 25100, 25100, 25200, 25402, 25200, 20802, 20801, 22801, 17700, 20101, 20202, 22801, 17700, 25300, 25403, 25702, 25300, 25300, 20900, 25100, 25900, 25100, 20701, 25900, 25100, 25600, 25702, 20101, 22801, 20900, 25402, 25200, 20900, 17700, 22803, 25701, 25401, 22901, 25702, 22801, 17700, 17700, 21500, 25702, 25600, 20900, 20801, 25600, 25200, 22901, 22903, 25600, 25401, 20900, 22801, 22801, 17700, 25200, 25402, 25200, 25402, 25100, 20102, 22902, 23300, 25702, 20702, 20801, 25402, 20202, 25701, 22903, 22801, 20102, 25200, 20900, 21000, 20201, 25401, 25701, 25401, 21000, 22801, 17700, 22801, 25702, 25403, 25402, 20802, 25300, 22901, 25200, 25600, 980900, 25900, 25402, 25702, 25600, 25300, 25900, 25402, 25701, 25403, 25701, 25701, 17700, 17700, 20801, 25600, 25800, 25900, 22901, 25300, 25702, 25200, 22801, 25701, 25800, 25900, 25702, 22903, 25401, 25701, 25900, 22902, 20900, 20102, 25100, 25600, 25100, 25800, 20900, 20102, 980900, 25402, 25402, 25100, 22801, 22803, 25100, 25600, 20802, 25300, 25800, 25200, 25100, 25100, 25200, 25900, 25403, 25402, 20900, 25200, 17700, 25702, 25702, 25701, 22801, 22902, 22903, 25300, 25600, 25300, 25702, 25701, 20102, 20101, 17700, 20900, 17700, 20802, 17700, 22903, 22901, 25100, 25100, 25702, 23001, 22801, 20102, 25701, 25402, 25403, 25100, 25300, 25702, 22802, 25402, 20101, 25300, 25402, 25702, 25900, 25403, 22901, 25600, 26002, 25401, 25403, 25701, 22903, 25900, 25300, 22903, 20101, 20102, 25600, 17700, 26002, 25401, 25100, 25401, 20802, 25403, 25702, 25702, 20801, 25403, 25600, 22902, 25600, 25600, 20801, 25702, 25600, 20101, 22801, 25800, 25403, 25702, 25100, 25900, 25702, 22902, 22803, 25300, 20201, 25100, 25200, 26002, 20202, 980900, 22903, 25401, 25800, 25402, 22803, 26003, 25701, 25300, 22801, 20101, 25401, 25300, 25402, 25403, 25200, 25200, 25701, 26002, 25900, 25702, 21000, 20101, 21800, 22901, 22901, 22801, 25200, 20900, 26002, 25702, 25600, 25402, 20701, 25403, 17700, 25300, 25100, 25401, 25300, 22803, 25200, 20801, 22903, 25100, 21000, 26003, 25200, 22801, 25300, 25701, 25300, 20801, 22901, 22801, 25702, 22803, 22803, 25402, 25200, 980900, 25403, 20701, 20801, 22801, 25401, 25402, 25701, 25402, 25800, 25200, 20900, 25300, 25300, 26002, 25100, 22901, 25702, 25300, 26002, 25600, 22901, 22801, 25401, 25200, 25403, 22902, 25200, 25401, 25702, 25100, 20802, 22903, 22801, 22801, 25200, 17700, 22801, 25300, 25200, 25701, 25402, 25600, 25701, 25701, 25200, 25701, 25300, 25403, 22901, 20900, 25900, 25100, 25402, 25402, 25403, 25402, 25100, 25100, 20101, 25701, 20900, 25100, 25100, 20802, 20900, 20102, 20900, 25200, 980501, 25403, 22802, 25200, 22801, 25502, 22803, 20801, 22803, 22803, 25100, 20101, 25100, 25402, 25900, 25402, 25900, 25900, 25300, 20900, 25200, 20802, 17700, 980501, 25401, 25300, 25300, 20801, 25600, 20102, 25300, 22803, 22801, 17700, 22802, 25402, 25702, 25900, 25401, 25100, 25600, 22901, 25702, 25403, 25403, 25200, 20900, 25900, 25200, 22901, 22902, 25403, 26002, 17700, 25402, 25200, 25100, 20102, 22902, 20900, 25403, 25200, 17700, 22801, 20900, 25403, 25900, 22801, 25100, 22901, 20801, 20802, 25100, 22902, 25600, 25200, 22901, 25900, 25702, 25300, 22803, 25200, 25600, 25402, 25701, 25701, 25300, 25300, 25402, 980900, 22903, 22901, 25701, 25800, 25401, 25403, 22801, 25401, 20801, 20102, 25600, 25600, 17700, 25701, 22803, 23001, 20701, 17700, 25200, 25100, 20802, 22801, 25600, 25402, 22803, 25402]</t>
-        </is>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 0.999889570819182, 1.0, 1.0, 0.9999999999999999, 9.269918251358382e-08, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.892726605239721e-07, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.12180448627236196, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.9025755506499764e-07, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 4.280332057701156e-08, 3.021745644147031e-09, 1.0, 1.0000000000000002, 1.288074035981698e-05, 0.9999998782259284, 3.4005439631284266e-07, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.03193702572610818, 0.6232253832691725, 1.0, 0.9999999999999999, 0.7363237410898017, 1.0, 1.0000000000000002, 1.0, 0.939065451001597, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999997066523529, 1.0, 1.0000000000000002, 1.0, 0.9999516873156793, 1.9691452047902444e-07, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.00024178628264847558, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 0.9999999077166214, 1.0, 1.0, 0.2411861378168901, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999473509618, 0.9999998440335808, 0.9999998727870432, 1.0, 0.9999999146960722, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0, 2.832420370408036e-11, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.2672065808751035e-07, 1.0000000000000002, 0.9999909299619928, 1.0, 1.0, 1.0, 3.7864746248735374e-08, 0.014618337716282716, 1.0, 1.0000000000000002, 1.0, 0.9999999999981642, 0.02517737898864551, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999999999997, 1.0, 1.0, 0.9999999945783589, 1.0000000000000002, 0.9999999239644858, 0.8037999131988497, 9.927501965338593e-05, 0.9999996338604248, 1.0000000000000002, 0.6442406011543249, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999996, 0.9999999999999999, 1.0, 4.16801280962789e-08, 0.8416720392121928, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999992050613, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999999, 0.9999999933424468, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999556066105, 0.006082546825920852, 1.0, 0.999999916334402, 0.9999999999999999, 0.9999999951158165, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 2.4990199863117532e-08, 0.9999997984586148, 0.9999998751523416, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.6839209928055264e-15, 1.0, 5.91872028313891e-08, 1.0, 1.0, 1.0808869203560487e-05, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0, 1.3563789825360105e-09, 2.444387792008663e-05, 0.9999999999999999, 1.0, 2.0890159186299994e-07, 0.007021199982792458, 1.0000000000000002, 1.0000000000000004, 0.9999999992729716, 4.874303179447847e-07, 1.0000000000000004, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 7.571483430084041e-07, 4.3255971969071867e-10, 0.9999999999999998, 1.0, 5.2754558523597515e-08, 4.823800019663215e-08, 0.838745106399486, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9905437604568766, 0.9999998989612516, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 5.623572031401952e-07, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.15177797689258918, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999909466116, 0.9999999717751791, 0.9986863903816761, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999047781428, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.2351232666521345e-07, 1.0, 0.9999998760719124, 1.0, 1.0, 1.0, 0.9999999980427728, 0.0007863294255281444, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.256052474489288e-08, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 0.0013160395362608506, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999981553, 0.9999999999999999, 1.0, 0.9999999999999999, 0.0004337525769650257, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 8.994883095230765e-07, 1.2617309491451826e-07, 0.9999999999999998, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999984071053951, 0.9999998433039438, 1.0, 0.999999790469262, 0.9999999999999999, 1.0192631774495102e-07, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.3332447716942263, 1.0, 0.04455344126748974, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999997874248813, 0.9999999999999998, 0.34762870062003703, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 2.4488525350828724e-05, 1.0000000000000002, 1.0000000000000002, 2.3442800167253143e-08, 2.8884181771165434e-08, 0.13631440503363657, 0.9999999535320583, 0.9999999999999999, 0.9969683711784839, 1.0, 1.0, 0.00952625615963822, 1.0, 1.0, 8.459021898781714e-06, 0.3760389972494354, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000004, 0.00026843369662816026, 1.0000000000000002, 1.0, 2.6318068175585555e-07, 1.0, 3.39237862858843e-07, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999710828801703, 0.9999999999999999, 0.3173579948737996, 1.0, 8.009002241044973e-08, 0.9999999999999998, 1.3326795554568445e-08, 1.0, 1.0000000000000002, 0.9999999666522057, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 0.01042785116672547, 0.9999999999999999, 7.465336974046214e-08, 5.73232844292678e-14, 1.0, 0.00013486891034806138, 1.0, 0.9999999999999999, 0.9999997870510856, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 0.16888254996099272, 1.0, 6.023239578187271e-08, 1.0000000000000002, 0.999999994019955, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.9999998976275399, 1.0, 0.9999999999999998, 0.9998230651338851, 0.8671333096734012, 0.9999999999999999, 1.0000000000000002, 0.9707860483482027, 1.5593124514845633e-07, 0.9999999999999999, 1.0, 1.0, 0.9999999639347106, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 5.46794889396554e-09, 1.0, 0.9999998541863584, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0000000000000007, 0.9997235207255324, 1.0, 2.0796003613267709e-07, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999998608579808, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0000000000000002, 9.964295058326392e-14, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999997, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 0.9963072637177558, 1.0, 0.018336601215121363, 1.0, 0.9999999999999999, 8.799181041935182e-05, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999998757, 0.3256744849660471, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.00012654788954785123, 0.9999999999999999, 0.9999999999999997, 1.0, 0.9999999999999999, 0.9734125943721273, 1.0000000000000002, 0.9815726713148718, 0.00013450242975860972, 1.0, 1.0, 0.9999999999999999, 0.06159959775249111, 1.0000000000000002, 1.0, 0.9685155236422177, 0.9999999994297537, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.6368239651671964e-07, 0.9999999999999997, 0.9999999895816147, 1.0000000000000002, 1.0000000000000004, 1.0, 1.0, 0.0025516199123022183, 1.0, 1.0, 0.9999999999999999, 0.9984600950158533, 0.9999998875517006, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 2.3991396936848556e-08, 0.9999999999981746, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999997594035552, 1.0, 1.0000000000000002, 1.0000000000000002, 0.999678086327095, 1.0, 1.0, 0.002088974644649243, 0.999999701147618, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000004, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999882202441216, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.09110782631455656, 1.8847660722904166e-07, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 0.9999997318448688, 5.1500839633434946e-09, 0.9999863331051498, 0.9999999999999998, 1.0, 1.0000000000000002]</t>
+          <t>06_075_980501, 06_075_025702, 06_075_025701, 06_075_023300, 06_075_022901, 06_075_022803, 06_075_025403, 06_075_025200, 06_075_025300, 06_075_025402, 06_075_025600, 06_075_025800, 06_075_025900, 06_075_026002, 06_075_026003, 06_075_025401, 06_075_022801, 06_075_980900, 06_075_025100, 06_075_017700, 06_075_020900, 06_075_021000, 06_075_021500, 06_075_021800, 06_075_022802, 06_075_022902, 06_075_022903, 06_075_023001, 06_075_020101, 06_075_020102, 06_075_020802, 06_075_020801, 06_075_020702, 06_075_025502, 06_075_020701, 06_075_020202, 06_075_020201</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>0.4150921558583796, 0.8383276594316736, 0.999957235579097, 4.524892978368659e-10, 1.0, 1.0, 0.9008829528348343, 0.9999999999999998, 0.9036340961452826, 1.0000000000000002, 0.5508875770726624, 0.5392275365814369, 0.8790015811290667, 0.0861446648391349, 0.0002500574154398565, 0.8789069553587342, 0.8315747352693293, 0.004912667137202665, 0.9927467821032201, 0.4288447187831393, 0.9999999742846046, 0.0003686400838029496, 0.00015585274086618803, 5.7465157284266015e-09, 0.16731850411902469, 1.0000000000000002, 0.536866927712505, 0.0028644574610266977, 0.4897753013577819, 0.9999999998427965, 0.9999999664135797, 0.9999999934077876, 9.062264052088303e-09, 1.5510832393625675e-06, 5.335793718326368e-08, 5.112423292082677e-06, 2.723629326209748e-06</t>
         </is>
       </c>
     </row>
@@ -11968,18 +10406,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>[47702, 35202, 35201, 35100, 32700, 32600, 30201, 30202, 30101, 16500, 60300, 47701, 47600, 45200, 45100, 15600, 47902, 47800, 15700, 15400, 47901, 42700, 42600, 40200, 42800, 60200, 40100, 13300]</t>
-        </is>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.9791729466821483e-07, 1.0672831390308583e-07, 1.242745281842515e-07, 7.285795556988959e-08, 2.1551332459054945e-07, 2.4552993764463875e-07, 4.0251567330001987e-07, 4.816161612689539e-07, 0.12531094112284305, 0.9617171470783074, 1.0, 1.0, 1.0, 0.9999999999999998, 0.99999967726781, 1.0, 1.0000000000000002, 0.5713312787882094, 1.2338654626664707e-07, 0.9799683677138581, 0.9056774220652511, 0.9999999994687471, 0.637310757284968, 0.040237358372764404, 0.9999998637746467, 0.5277949041086405, 5.916691748509399e-14]</t>
+          <t>06_075_060300, 06_075_060200, 06_075_047901, 06_075_047800, 06_075_047702, 06_075_047902, 06_075_047600, 06_075_045200, 06_075_045100, 06_075_042800, 06_075_042700, 06_075_042600, 06_075_040200, 06_075_040100, 06_075_035201, 06_075_047701, 06_075_035100, 06_075_035202, 06_075_032700, 06_075_032600, 06_075_030202, 06_075_030101, 06_075_030201, 06_075_017100, 06_075_016600, 06_075_016500, 06_075_015700, 06_075_015600, 06_075_015400</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>0.46183249925665054, 0.5652964101704423, 0.03337201134930216, 0.9999999999999997, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 0.02385337613755366, 0.9041595300844872, 0.9999669787244155, 0.6405527392654806, 0.5241796803340776, 4.740962335156381e-05, 1.0000000000000004, 0.0029846319625312307, 0.007223585739261771, 0.004059901095816842, 0.003897939391780687, 0.00608617760206481, 0.0025994635015389373, 0.00676545002829536, 2.8877222585445968e-08, 2.292460714537566e-05, 0.12529627327572837, 0.5677539621508799, 0.9898848095795153, 2.078809553941499e-05</t>
         </is>
       </c>
     </row>
@@ -12022,18 +10454,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>[26303, 26302, 26301, 26200, 31400, 26004, 31300, 26003, 26100, 60501, 33202, 31200, 26001, 26002, 25600, 31100, 25500, 31000, 25403, 30900, 25700, 25402]</t>
-        </is>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>[0.9999998285458631, 0.7972642961315073, 1.0000000000000004, 0.9999998376285542, 1.0000000000000004, 1.0, 0.7967023586771204, 0.9999993763127057, 0.9999999978950804, 1.1253327639875116e-07, 2.4038283984622432e-08, 0.9999996214481146, 1.0, 0.9999996905769362, 0.4376433219387634, 0.009206813304101261, 0.8143924706417089, 9.690141796811057e-09, 0.04177515626747946, 8.065851824374495e-08, 2.7510241803787617e-08, 6.582203262406357e-09]</t>
+          <t>06_081_600400, 06_081_600900, 06_081_600300, 06_075_026302, 06_081_600700, 06_075_060501, 06_075_033202, 06_075_031400, 06_075_031300, 06_075_031200, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_026303, 06_075_026200, 06_075_026100, 06_075_026003, 06_075_026301, 06_075_026004, 06_075_026001, 06_075_025700, 06_075_025600, 06_075_025500, 06_075_026002, 06_075_025403</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>0.0005602061175329288, 3.8444063437472435e-07, 0.0005586086056338702, 0.7842263095208227, 0.004022931670598173, 0.0023485870422829407, 1.562701010514177e-07, 0.9999999999999998, 0.7820194961950478, 0.9941797363290262, 0.017220601657677814, 0.000317398755831252, 1.1799689587402985e-05, 0.9860917642195737, 0.9982929502053794, 0.9998639559120752, 0.9999779635110253, 1.0000000000000002, 1.0000000000000004, 1.0, 7.826328143038642e-08, 0.4477733210016135, 0.8006185696434037, 0.998118870472423, 0.011804791402687215</t>
         </is>
       </c>
     </row>
@@ -12076,18 +10502,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>[12200, 12300, 12000, 12100, 15100, 11900, 11100, 17602, 11800, 11700, 11200, 11000, 11300, 13100, 11400, 11500, 10800, 13000, 10900, 10600, 10700, 10400, 10500, 10300, 10100, 10200]</t>
-        </is>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>[8.485739349921681e-07, 0.08355283625534811, 0.9999998567081017, 0.999999627475922, 1.404406145579764e-06, 1.0000000000000002, 0.9999999450195615, 2.4021171893647554e-07, 0.9999999999999999, 0.8572473643369581, 1.0000000000000004, 0.9999999860005161, 0.9999999999999997, 4.855624528508222e-07, 1.0, 0.9999999999999998, 1.0000000000000002, 2.4692103988865795e-07, 0.8158477367237896, 0.9999999999999994, 0.9999999999999997, 1.0, 0.999999455911033, 0.9999997677305855, 0.9947897248816817, 0.08068209747911617]</t>
+          <t>06_075_012300, 06_075_012200, 06_075_012100, 06_075_012000, 06_075_011900, 06_075_011800, 06_075_011700, 06_075_011500, 06_075_011400, 06_075_011300, 06_075_011200, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010800, 06_075_010700, 06_075_010600, 06_075_010500, 06_075_010400, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_017602, 06_075_015100, 06_075_013100, 06_075_013000</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>0.08355767118207177, 5.2826552385443266e-05, 0.9999820832863671, 0.9864732080552313, 1.0, 0.9999999999999996, 0.8608793360406464, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9862173040109711, 0.9863305821208065, 0.8014847304825179, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.5801636941237702, 0.9999999999999994, 0.9999745123621877, 0.05158677853637685, 0.5374008645960721, 0.007476291705122512, 9.666433859826426e-09, 2.6660324483794444e-08, 2.9568769163473905e-08</t>
         </is>
       </c>
     </row>
@@ -12130,18 +10550,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>[33100, 33000, 30800, 35400, 35300, 30400, 32900, 32800, 30302, 35202, 30301, 35201, 35100, 32700, 32600, 30201, 60300, 60400]</t>
-        </is>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>[8.00582885335393e-08, 0.9999999677168215, 1.4887570496155803e-08, 0.9999999265867084, 0.9999999815032304, 3.3719693364476575e-08, 1.0000000000000002, 0.9999999720533819, 2.582010391976267e-09, 0.9999998020827292, 1.3194792432927332e-10, 0.9999998021698749, 0.9999998757254915, 0.9999999271419879, 0.9999997309622313, 8.826352380394594e-08, 3.326199008659661e-08, 5.2961727721790056e-09]</t>
+          <t>06_075_060400, 06_075_060300, 06_075_035400, 06_075_035300, 06_075_035201, 06_075_035100, 06_075_035202, 06_075_033100, 06_075_033000, 06_075_032900, 06_075_032800, 06_075_032700, 06_075_032600, 06_075_030900, 06_075_030800, 06_075_030400, 06_075_030302, 06_075_030301, 06_075_030201</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>3.492938156577059e-05, 0.0003440494961896735, 0.0990319169837985, 0.999989260053867, 0.08125616401140826, 0.9970153680374659, 0.9927764142607594, 0.014642317111853398, 0.9999981545444211, 1.0, 0.9999999863090635, 0.9959400989041888, 0.9923144005602594, 2.090775948011001e-10, 0.004484508036782533, 0.003161572663221444, 0.007186977742549558, 0.00332482698137748, 1.905251887626598e-08</t>
         </is>
       </c>
     </row>
@@ -12184,18 +10598,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>[30500, 30301, 30102, 32600, 30201, 30202, 30101, 17100, 20200, 16600, 16700, 20100, 16500, 60300, 16800, 16400, 16300, 16200, 16100, 15700, 15800, 15900, 15400, 15500, 15300, 15100, 15200, 13400, 13500, 13100]</t>
-        </is>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>[1.2886007445635226e-09, 1.5325712343551347e-08, 0.14992287087894646, 4.022728456034608e-08, 0.6697619448446712, 0.7785687904394742, 0.9601627998617767, 0.8097631366468561, 5.370796547771715e-08, 0.9999999089834879, 0.46153751800100756, 1.2663330947888727e-10, 0.8746890588771665, 0.038282807170180115, 0.5013426831023877, 1.0, 0.9999999999999998, 0.4444421027109083, 0.7497290240920965, 0.1692138184524163, 0.9477635168073593, 0.6688158916528681, 0.02116050286425601, 0.9493122443669669, 0.932596130436176, 4.5568878412553214e-07, 0.9999991508281477, 1.3380580312598096e-07, 1.8020885426464244e-07, 1.654167904037796e-07]</t>
+          <t>06_075_060300, 06_075_016200, 06_075_032600, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020400, 06_075_020200, 06_075_020100, 06_075_017100, 06_075_016800, 06_075_016700, 06_075_016600, 06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_015900, 06_075_015800, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013100</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>0.018702469473304527, 0.45006430073764064, 0.0023304507041978805, 1.2553460605282223e-06, 2.514664070173659e-06, 0.7735093668677678, 0.15025012894624332, 0.9574990617506335, 0.6657529107595235, 4.4210189342696106e-06, 0.0011016441477576734, 0.0008848163156563995, 0.8097292189801456, 0.5046965486929511, 0.46154576309990397, 0.9999727890897248, 0.8747037267243013, 1.0000000000000002, 0.9999999999999999, 0.7496957822723437, 0.6772490944111489, 0.9464523235927322, 0.168145053194678, 0.9502125976412075, 0.021405124783285337, 0.9325223050505831, 0.9999343448530771, 5.349063532834948e-05, 2.4861156312483876e-05, 2.9994121425208322e-05, 1.3877889293075367e-06</t>
         </is>
       </c>
     </row>
@@ -12238,18 +10646,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>[26200, 31300, 26100, 33202, 31200, 33201, 31100, 25500, 31000, 33100, 30900, 30700, 33000, 30800, 21700, 30600, 35400, 35300, 30400, 32800, 30302, 30500, 30301, 20400, 30102, 32600, 30201, 30202, 30101, 60400]</t>
-        </is>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>[4.8175489469451924e-08, 0.2032976277698168, 2.1049888293806834e-09, 0.9999999759617535, 3.785518457329771e-07, 1.0000000000000002, 0.8195958061002814, 0.045287102738888384, 0.9999999903098641, 0.999999919941768, 0.9999999193415163, 0.9472021198682262, 3.2283181568237644e-08, 0.999999985112401, 1.315088623012906e-07, 0.9999998525717294, 3.201646058280927e-08, 1.8496748679183465e-08, 0.9999999662802401, 2.7946617348636494e-08, 0.9999999974180489, 0.9999994191416189, 0.999999984542378, 3.6697333301785003e-07, 0.8244816790515784, 1.3297134245066057e-08, 0.3302377213617389, 0.2214308070450242, 0.0398367185220966, 0.9195440622197754]</t>
+          <t>06_081_600900, 06_075_060400, 06_081_600700, 06_075_035400, 06_075_035300, 06_075_033202, 06_075_033100, 06_075_033000, 06_075_032800, 06_075_032600, 06_075_031300, 06_075_031200, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_030800, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030400, 06_075_030302, 06_075_033201, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_026200, 06_075_026100, 06_075_025500, 06_075_021700, 06_075_020400, 06_075_017100</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>0.003678513223257328, 0.020815619205977375, 6.244765122744792e-05, 0.00014861927837297128, 1.073994613515223e-05, 0.999999843729889, 0.9853576828881371, 1.8454555898348927e-06, 1.36909290265415e-08, 0.0014572093437458405, 0.21798048163494232, 0.005820263670967138, 0.7990180898125481, 0.9996826012441752, 0.9999882001013296, 0.9955154919632166, 0.946328515526617, 0.999997837320424, 0.9999675091014878, 0.9968384273367843, 0.9928130222574598, 1.0000000000000002, 0.9966726583545342, 0.2204044555299451, 0.8241495906958175, 0.03990147474782368, 0.32748162015985327, 0.00010887338374777711, 0.0001360440879429569, 0.06800251115377277, 0.001041804000941857, 5.814808714126219e-05, 1.193459805538256e-05</t>
         </is>
       </c>
     </row>
@@ -12292,18 +10694,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>[60501, 25900, 26002, 22902, 25600, 31100, 22903, 25500, 25403, 25700, 23001, 21000, 25402, 25401, 21800, 20900, 21500, 25300, 25200, 25100, 22901, 22803, 22802, 20700, 20800, 22801]</t>
-        </is>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>[2.0958043040974636e-07, 0.28985378711169135, 2.755394178252792e-07, 0.9999999999999998, 0.5623566498168437, 1.269449679936128e-08, 0.5475845695711888, 0.13127991639526548, 0.9582248434306532, 0.7525987397773185, 2.34598615088221e-08, 0.34261020241636575, 0.9999999934178107, 0.9999999508863092, 6.266968133305152e-07, 0.9999999999999998, 0.029993483184697998, 0.9999998199881471, 0.9999999999999996, 0.7814778698136435, 1.0, 1.0000000000000002, 0.15619768516277607, 5.556435572227905e-07, 0.8192835192665154, 0.3629449210112297]</t>
+          <t>06_075_060501, 06_075_031100, 06_075_025900, 06_075_025700, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_026002, 06_075_025403, 06_075_025300, 06_075_025200, 06_075_025100, 06_075_025402, 06_075_022903, 06_075_022902, 06_075_023001, 06_075_022802, 06_075_022803, 06_075_022901, 06_075_022801, 06_075_021800, 06_075_021500, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>0.001783850156906822, 0.002643023130547252, 0.28854135581563006, 0.7553313559977397, 0.5522265585579604, 0.1271546136721747, 0.9776456772271344, 3.3720807063464685e-05, 0.9796588550147642, 0.9856558837844838, 0.9999999999999996, 0.8105765700498042, 1.0000000000000002, 0.5496634730287496, 1.0000000000000002, 0.001226511936716951, 0.1563138256962083, 0.9999999999999999, 0.9999999999999999, 0.36295625213942495, 0.002007124740964328, 0.031476993989880686, 0.3436607974404455, 1.0000000000000004, 0.8192279812381297, 4.431504297410721e-05</t>
         </is>
       </c>
     </row>
@@ -12346,18 +10742,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>[980900, 25900, 22702, 23300, 26402, 22704, 25100, 22801, 18000, 25702, 26403, 60502, 26401, 61000, 23003, 17700, 23001, 26302, 600200, 26003, 17902, 23200, 23102, 61400, 22802, 23400, 23103, 22600, 980600, 60700, 600100, 61200, 25800, 26404, 22903, 600300, 980501, 25701]</t>
-        </is>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>[0.9541337047096656, 0.08205340222252351, 0.9973152582351738, 0.9998446840769719, 1.0, 0.9999999999999999, 0.015593055248312036, 0.168387444435099, 0.000533535997422388, 0.15022637236538885, 0.9999999999995897, 0.9987122440634052, 1.0, 0.9348537494012299, 0.9999999999999998, 0.31419567605251625, 0.9999971667616924, 0.06791337228904139, 0.00246952868186794, 5.493292718125376e-14, 0.0371378859460394, 0.9999999999999999, 1.0, 0.9999999999999999, 0.8311686956084939, 1.0, 0.985909581792332, 0.7033361196279405, 0.9099364677408528, 0.16812158632633975, 6.206975306268883e-05, 0.9999999999999997, 0.43600279076131926, 0.9953351903418999, 0.46281101421878845, 2.9035889082891546e-06, 0.5689536749005686, 0.008520695567292935]</t>
+          <t>06_081_600300, 06_081_600100, 06_081_990100, 06_081_600200, 06_001_428700, 06_075_980600, 06_075_980501, 06_075_980900, 06_075_061400, 06_075_061200, 06_075_025702, 06_075_025701, 06_075_022704, 06_075_023103, 06_075_023003, 06_075_061000, 06_075_060700, 06_075_060502, 06_075_026404, 06_075_026403, 06_075_026401, 06_075_026302, 06_075_026402, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025100, 06_075_023400, 06_075_023300, 06_075_023200, 06_075_023102, 06_075_022903, 06_075_023001, 06_075_022802, 06_075_022801, 06_075_022702, 06_075_022600, 06_075_018000, 06_075_017902, 06_075_017700</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>7.82608375236971e-10, 5.150266095558116e-10, 1.5839352327020704e-19, 1.8072136925279527e-08, 5.464441751786319e-10, 0.8301472587517849, 0.5682577760838867, 0.9352586148479021, 1.000000000000001, 0.9999999999999997, 0.161672612619973, 4.592013543867641e-09, 0.9999999999999996, 0.9999999812651014, 0.9999999999999996, 0.714900583997029, 0.15700829807939118, 0.9999999829592576, 0.9999999727476271, 0.9999999894956436, 1.0000000000000002, 0.06080487915946273, 1.0000000000000002, 6.897293387591404e-09, 0.08187895311895288, 0.44018483376348794, 0.010596904623180282, 1.0000000000000004, 0.9999999995498952, 0.9999999999999993, 1.0, 0.45959495820175067, 0.9973890942506592, 0.8337640588829556, 0.16835207564557408, 0.9999999999237039, 0.652307490015752, 1.6900784319730027e-08, 0.002322938598844952, 0.3115380846452916</t>
         </is>
       </c>
     </row>
@@ -12400,18 +10790,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>[47702, 35202, 35201, 35100, 32700, 32600, 30201, 30202, 30101, 16500, 60300, 47701, 47600, 45200, 45100, 15600, 47902, 47800, 15700, 15400, 47901, 42700, 42600, 40200, 42800, 60200, 40100, 13300]</t>
-        </is>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.9791729466821483e-07, 1.0672831390308583e-07, 1.242745281842515e-07, 7.285795556988959e-08, 2.1551332459054945e-07, 2.4552993764463875e-07, 4.0251567330001987e-07, 4.816161612689539e-07, 0.12531094112284305, 0.9617171470783074, 1.0, 1.0, 1.0, 0.9999999999999998, 0.99999967726781, 1.0, 1.0000000000000002, 0.5713312787882094, 1.2338654626664707e-07, 0.9799683677138581, 0.9056774220652511, 0.9999999994687471, 0.637310757284968, 0.040237358372764404, 0.9999998637746467, 0.5277949041086405, 5.916691748509399e-14]</t>
+          <t>06_075_060300, 06_075_060200, 06_075_047901, 06_075_047800, 06_075_047702, 06_075_047902, 06_075_047600, 06_075_045200, 06_075_045100, 06_075_042800, 06_075_042700, 06_075_042600, 06_075_040200, 06_075_040100, 06_075_035201, 06_075_047701, 06_075_035100, 06_075_035202, 06_075_032700, 06_075_032600, 06_075_030202, 06_075_030101, 06_075_030201, 06_075_017100, 06_075_016600, 06_075_016500, 06_075_015700, 06_075_015600, 06_075_015400</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>0.46183249925665054, 0.5652964101704423, 0.03337201134930216, 0.9999999999999997, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 0.02385337613755366, 0.9041595300844872, 0.9999669787244155, 0.6405527392654806, 0.5241796803340776, 4.740962335156381e-05, 1.0000000000000004, 0.0029846319625312307, 0.007223585739261771, 0.004059901095816842, 0.003897939391780687, 0.00608617760206481, 0.0025994635015389373, 0.00676545002829536, 2.8877222585445968e-08, 2.292460714537566e-05, 0.12529627327572837, 0.5677539621508799, 0.9898848095795153, 2.078809553941499e-05</t>
         </is>
       </c>
     </row>
@@ -12454,18 +10838,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>[15400, 15900, 15500, 15300, 17101, 30102, 15100, 16700, 12402, 16000, 16802, 16300, 16100, 20100, 20200, 30301, 30201, 15700, 32601, 16600, 20401, 15802, 16200, 980300, 30202, 16500, 15801, 15200, 30500, 30101, 12202, 16801, 17102, 16400]</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>[0.039249406236476735, 1.0, 0.9513550180918946, 0.13149945240993816, 0.6496103264485782, 0.31811631870640245, 0.22397547196828924, 0.46534598964780766, 0.0027915213975890476, 0.9979134414228938, 0.9523763492704165, 1.0000000000000002, 1.0, 0.0023135267718168815, 0.0005038482861706632, 2.344831993305904e-06, 0.4572617200881441, 0.16936574286054476, 2.5054847213869786e-05, 0.9973805223001853, 0.0012394114630412635, 0.9999999999998359, 0.9986384376252717, 0.20276752737010867, 0.7828678778792417, 0.8746111583440483, 0.9212817116361691, 0.7741005560198502, 2.3212106047801395e-14, 0.9630294577951277, 0.024792107315557407, 0.6202095909730109, 0.9999999999999998, 1.0]</t>
+          <t>06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_980300, 06_075_020401, 06_075_017102, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_015802, 06_075_015801, 06_075_012402, 06_075_012202, 06_075_016200, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020200, 06_075_020100, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
     </row>
@@ -12508,18 +10886,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>[15400, 15900, 15500, 15300, 17101, 30102, 15100, 16700, 12402, 16000, 16802, 16300, 16100, 20100, 20200, 30301, 30201, 15700, 32601, 16600, 20401, 15802, 16200, 980300, 30202, 16500, 15801, 15200, 30500, 30101, 12202, 16801, 17102, 16400]</t>
-        </is>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>[0.039249406236476735, 1.0, 0.9513550180918946, 0.13149945240993816, 0.6496103264485782, 0.31811631870640245, 0.22397547196828924, 0.46534598964780766, 0.0027915213975890476, 0.9979134414228938, 0.9523763492704165, 1.0000000000000002, 1.0, 0.0023135267718168815, 0.0005038482861706632, 2.344831993305904e-06, 0.4572617200881441, 0.16936574286054476, 2.5054847213869786e-05, 0.9973805223001853, 0.0012394114630412635, 0.9999999999998359, 0.9986384376252717, 0.20276752737010867, 0.7828678778792417, 0.8746111583440483, 0.9212817116361691, 0.7741005560198502, 2.3212106047801395e-14, 0.9630294577951277, 0.024792107315557407, 0.6202095909730109, 0.9999999999999998, 1.0]</t>
+          <t>06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_980300, 06_075_020401, 06_075_017102, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_015802, 06_075_015801, 06_075_012402, 06_075_012202, 06_075_016200, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020200, 06_075_020100, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
     </row>
@@ -12562,18 +10934,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>[30800, 30400, 33201, 32801, 33203, 30102, 30900, 31201, 31000, 21700, 30700, 30600, 31301, 25500, 35400, 30301, 32602, 31100, 30201, 31202, 32601, 20401, 600900, 30302, 20402, 31302, 30202, 33204, 26100, 30500, 30101, 33000, 60400, 35300, 32802, 600700, 33100]</t>
-        </is>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>[0.9968624625577887, 0.9957479989963995, 1.0000000000000002, 3.853410446004411e-08, 1.0, 0.6588748821704932, 0.9999805585648691, 0.4467441872620379, 0.9999890666895423, 0.00972641060172156, 0.9527354456471615, 0.9982376258144131, 0.022055927023985383, 0.02208938602727872, 0.0005850826769853205, 0.9999522175055976, 0.0028521429117076428, 0.8889785382545498, 0.3199281973420035, 0.07481250766039427, 6.731478170152874e-05, 0.001572403040117181, 0.0010393110885090853, 0.9990482051773661, 0.03709146445642281, 0.3557190179864703, 0.2171321221204138, 1.0, 2.1073886435715068e-14, 0.9771116212803466, 0.036970542204975934, 0.0029197468901213455, 0.9986940469882599, 0.000779304100451451, 0.0005184392419698907, 3.207420202880103e-10, 0.9988581317582322]</t>
+          <t>06_081_600900, 06_081_600700, 06_075_033204, 06_075_033203, 06_075_032802, 06_075_032801, 06_075_032602, 06_075_032601, 06_075_031302, 06_075_031301, 06_075_031202, 06_075_031201, 06_075_020402, 06_075_020401, 06_075_060400, 06_075_035400, 06_075_035300, 06_075_033100, 06_075_033000, 06_075_031400, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_030800, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030400, 06_075_030302, 06_075_033201, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_026200, 06_075_026100, 06_075_025500, 06_075_021700</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>1.23080216240313e-08, 6.174778222291653e-11, 1.0, 0.9999999999999795, 1.6440364284765158e-09, 8.519572020152519e-09, 1.2454262395433648e-09, 1.1856539078974096e-09, 0.361932849771584, 0.018779744304839623, 0.0745922813692526, 0.4502216002556249, 5.574707535133124e-08, 6.74190795843121e-09, 0.8341991836556645, 0.0015002848337283578, 4.593250961738084e-09, 0.9999999719710455, 1.5997966526947506e-08, 1.0008836792875836e-15, 0.8952337767162254, 1.0000000000000009, 0.9999999920384115, 0.9980439959457964, 0.9578230967857638, 0.9999999969206312, 0.9999999727714125, 0.9977687986812899, 0.9999999812134479, 1.0000000000000002, 0.9999999888615884, 0.2158684833804301, 0.6555233770743977, 0.03986175558868292, 0.3207171205216631, 6.291338887688731e-09, 3.0412681569947005e-09, 0.02225933382048277, 1.720017219139685e-08</t>
         </is>
       </c>
     </row>
@@ -12616,18 +10982,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>[980900, 25900, 22702, 23300, 26402, 22704, 25100, 22801, 18000, 25702, 26403, 60502, 26401, 61000, 23003, 17700, 23001, 26302, 600200, 26003, 17902, 23200, 23102, 61400, 22802, 23400, 23103, 22600, 980600, 60700, 600100, 61200, 25800, 26404, 22903, 600300, 980501, 25701]</t>
-        </is>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>[0.9541337047096656, 0.08205340222252351, 0.9973152582351738, 0.9998446840769719, 1.0, 0.9999999999999999, 0.015593055248312036, 0.168387444435099, 0.000533535997422388, 0.15022637236538885, 0.9999999999995897, 0.9987122440634052, 1.0, 0.9348537494012299, 0.9999999999999998, 0.31419567605251625, 0.9999971667616924, 0.06791337228904139, 0.00246952868186794, 5.493292718125376e-14, 0.0371378859460394, 0.9999999999999999, 1.0, 0.9999999999999999, 0.8311686956084939, 1.0, 0.985909581792332, 0.7033361196279405, 0.9099364677408528, 0.16812158632633975, 6.206975306268883e-05, 0.9999999999999997, 0.43600279076131926, 0.9953351903418999, 0.46281101421878845, 2.9035889082891546e-06, 0.5689536749005686, 0.008520695567292935]</t>
+          <t>06_081_600300, 06_081_600100, 06_081_990100, 06_081_600200, 06_001_428700, 06_075_980600, 06_075_980501, 06_075_980900, 06_075_061400, 06_075_061200, 06_075_025702, 06_075_025701, 06_075_022704, 06_075_023103, 06_075_023003, 06_075_061000, 06_075_060700, 06_075_060502, 06_075_026404, 06_075_026403, 06_075_026401, 06_075_026302, 06_075_026402, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025100, 06_075_023400, 06_075_023300, 06_075_023200, 06_075_023102, 06_075_022903, 06_075_023001, 06_075_022802, 06_075_022801, 06_075_022702, 06_075_022600, 06_075_018000, 06_075_017902, 06_075_017700</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>7.82608375236971e-10, 5.150266095558116e-10, 1.5839352327020704e-19, 1.8072136925279527e-08, 5.464441751786319e-10, 0.8301472587517849, 0.5682577760838867, 0.9352586148479021, 1.000000000000001, 0.9999999999999997, 0.161672612619973, 4.592013543867641e-09, 0.9999999999999996, 0.9999999812651014, 0.9999999999999996, 0.714900583997029, 0.15700829807939118, 0.9999999829592576, 0.9999999727476271, 0.9999999894956436, 1.0000000000000002, 0.06080487915946273, 1.0000000000000002, 6.897293387591404e-09, 0.08187895311895288, 0.44018483376348794, 0.010596904623180282, 1.0000000000000004, 0.9999999995498952, 0.9999999999999993, 1.0, 0.45959495820175067, 0.9973890942506592, 0.8337640588829556, 0.16835207564557408, 0.9999999999237039, 0.652307490015752, 1.6900784319730027e-08, 0.002322938598844952, 0.3115380846452916</t>
         </is>
       </c>
     </row>
@@ -12670,18 +11030,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>[12902, 13102, 15400, 12602, 13000, 15500, 15300, 12601, 11100, 13500, 15600, 42800, 15100, 12901, 10900, 13101, 11000, 12800, 40200, 10100, 13300, 13200, 10200, 15700, 10300, 42700, 42601, 15802, 60100, 42602, 12000, 15801, 40100, 12700, 15200, 980200, 13400]</t>
-        </is>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9997211031989386, 0.9521243664109622, 0.6620699426053496, 1.0000000000000002, 0.048644981908121984, 0.8685005475900018, 0.9999999999999998, 0.01580117808424216, 1.0000000000000002, 0.001612557180920563, 0.9742165222409146, 0.7754058044205872, 1.0, 0.27023764128458205, 0.9966981641717495, 0.001207242095655827, 0.9999999999999999, 0.18257542004291344, 0.0012440976880340102, 1.0, 1.0000000000000002, 0.7040946653846224, 0.2570442024645387, 0.30449654582152164, 0.04740733045155976, 0.000585206603528466, 1.7418896797287724e-13, 0.9820927388144628, 0.00011280256135516822, 0.022659835757704257, 0.07871828836370218, 0.47695153279201763, 0.8587113864701957, 0.22589944398023395, 0.00014297288204123985, 1.0000000000000002]</t>
+          <t>06_075_015700, 06_075_015600, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013300, 06_075_013200, 06_075_013000, 06_075_012800, 06_075_012700, 06_075_012000, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_980200, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_042602, 06_075_042601, 06_075_015802, 06_075_015801, 06_075_013102, 06_075_013101, 06_075_012902, 06_075_012901, 06_075_012602, 06_075_012601, 06_075_012202, 06_075_060100, 06_075_042800, 06_075_042700, 06_075_040200, 06_075_040100</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>0.25463819044508834, 1.6825920088282957e-08, 0.049709177179209425, 0.960380482016589, 0.8685395011131354, 0.22587348616935124, 0.77499231001648, 0.9999999979392749, 1.0000000000000007, 1.0000000000000004, 0.9999999999999996, 1.0000000000000375, 1.0, 0.7002163487990717, 0.02779258399037725, 0.014021669471574495, 1.5603182654003104e-08, 0.2710824413355344, 0.004760348155603582, 0.31229783986054277, 0.6419060435390419, 0.00036741684942847777, 1.853810266465584e-08, 7.690631572211525e-09, 6.1737614984724005e-09, 0.07995787940013144, 0.9999999988676777, 0.9999999803607477, 1.0000000000000004, 1.0000000000000002, 0.5368176901769761, 0.9999999999999998, 2.029612933700371e-14, 0.23171113021253092, 0.6455526989136756, 0.0475868390296002, 0.17958033219172934, 0.4757870037113913</t>
         </is>
       </c>
     </row>
@@ -12724,18 +11078,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>[30800, 32901, 30400, 32801, 35100, 35400, 30301, 32902, 32602, 32700, 30201, 32601, 30302, 35201, 980300, 33000, 60400, 35300, 32802, 33100, 35202]</t>
-        </is>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>[0.003137537442156936, 1.0000000000000004, 0.004252001003593022, 0.9999999614659099, 0.9994364250424136, 0.9937455641064341, 4.5437662400211246e-05, 1.0000000000000002, 0.996997183418587, 0.9995029748200308, 0.2228100825699032, 0.9986077122128451, 0.000951794822712365, 0.9972807636807056, 0.0001434860463707882, 0.9970802531098729, 0.00037811205542686834, 0.9992206958995438, 0.9994815607580634, 0.0011418682416765046, 0.9960805328055136]</t>
+          <t>06_075_980300, 06_075_032902, 06_075_032901, 06_075_032802, 06_075_032801, 06_075_032602, 06_075_032601, 06_075_060400, 06_075_035400, 06_075_035300, 06_075_035201, 06_075_035100, 06_075_035202, 06_075_033100, 06_075_033000, 06_075_032700, 06_075_030800, 06_075_030400, 06_075_030302, 06_075_030301, 06_075_030201</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>6.0720712007671886e-09, 0.9999999999999999, 1.0000000000000004, 0.9999999983559021, 0.9999999914804492, 0.9999999920875406, 0.9999999743385498, 2.2371248923666546e-09, 0.6482262993187362, 0.9999999954067027, 0.5984183522877564, 0.9999999957252708, 0.9999999867098602, 2.8028960620429124e-08, 0.999999984002066, 0.9999999883699774, 0.0019560040541877067, 0.0022312013187347694, 1.878656647410079e-08, 8.944576897171723e-09, 0.22147526302559659</t>
         </is>
       </c>
     </row>
@@ -12778,18 +11126,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>[22702, 12502, 12301, 15100, 12501, 18000, 12302, 12402, 16000, 16802, 17601, 20100, 17700, 20200, 17802, 17902, 16200, 12201, 12401, 61500, 17801, 10500, 12000, 22600, 60700, 12202]</t>
-        </is>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>[0.002684741764952483, 0.9999999999999999, 0.5729182282020362, 7.217190160643546e-05, 0.8596329625579682, 0.999466464002512, 0.33498784841830104, 0.997208478602172, 0.0020865585773687436, 0.0015328028522301833, 0.9972495784360855, 0.3572915262955247, 0.252675775599801, 0.02271991628788309, 1.0, 0.7843833164783205, 0.0013615623751226354, 0.9999477911194119, 1.0, 0.8479499129067045, 1.0, 0.0028084583689574304, 7.756660847200089e-05, 0.08592049272023533, 0.6283856269718294, 0.897409594635605]</t>
+          <t>06_075_016000, 06_075_012000, 06_075_011700, 06_075_012502, 06_075_012302, 06_075_012301, 06_075_010500, 06_075_061500, 06_075_017802, 06_075_017801, 06_075_016802, 06_075_012501, 06_075_012402, 06_075_012401, 06_075_012202, 06_075_012201, 06_075_060700, 06_075_016200, 06_075_022702, 06_075_022600, 06_075_020200, 06_075_018000, 06_075_017902, 06_075_017700, 06_075_020100, 06_075_017601</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>3.540543567446052e-08, 8.222037307764334e-09, 3.0177966012030266e-08, 0.9999999999999999, 0.3350084362682432, 0.5735478355248408, 2.0259044240701145e-09, 0.7900946108628609, 1.0000000000000002, 1.0, 1.0513288790601469e-08, 0.8636094836359111, 0.999999971813381, 0.9999999999999998, 0.8956295218890403, 0.9999999398705108, 0.5893110375948764, 1.6533421624521877e-08, 7.629249144794464e-11, 0.07561533573391449, 0.024520499003874457, 0.9999999830991595, 0.021166430333464895, 0.259277318780501, 0.34997702612594966, 0.9999999928073215</t>
         </is>
       </c>
     </row>
@@ -12832,18 +11174,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>[17101, 30102, 17000, 20300, 20900, 21800, 20700, 16900, 21200, 25403, 21700, 30700, 16700, 30600, 25500, 21000, 16802, 21600, 20600, 20100, 20200, 21300, 20500, 21100, 31100, 25300, 20800, 16600, 20401, 20402, 25401, 30500, 16801, 21400, 21500]</t>
-        </is>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>[0.3503896735514401, 0.023008799123136213, 1.0000000000000002, 0.9999999999999998, 2.6537000532297432e-08, 0.9990469733472814, 0.99998701777258, 0.9999999999999999, 1.0, 0.1005635634034962, 0.990273589398339, 0.047264554352751974, 0.5346540103522195, 0.0017623741855611035, 0.22960506959774646, 0.9992741999348456, 0.04609084787675142, 0.9999999999999998, 0.9999999999999998, 9.181000456505437e-05, 0.9767428083557762, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.10475204081545338, 0.07430764571091997, 3.0140319011620847e-05, 0.002619477700113977, 0.9971881854967231, 0.9629085355436405, 0.11916578525990915, 0.022888378719583543, 0.3797904090267644, 0.9999999999999998, 0.9841075073642729]</t>
+          <t>06_075_020402, 06_075_020401, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_031100, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030102, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_025403, 06_075_025300, 06_075_021800, 06_075_021700, 06_075_021600, 06_075_021500, 06_075_021400, 06_075_021300, 06_075_021200, 06_075_021100, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700, 06_075_020600, 06_075_020500, 06_075_020300, 06_075_020200, 06_075_020100, 06_075_017000, 06_075_016900, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>0.9999999442528883, 0.9999999927053078, 0.3692399307331839, 0.05274866631508789, 0.38979016136921685, 0.10476621348265346, 0.04217690321425691, 3.079395909939545e-09, 2.3094663320158384e-08, 0.025604998450001103, 4.689493804718978e-10, 0.22781070652827204, 0.12098433403733597, 0.09836804764151758, 0.07156972729952414, 0.9999999940858396, 0.9999999827998205, 1.0000000000000007, 0.9821714184844458, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999889698798, 2.9424547925814018e-08, 1.738590239859295e-08, 0.9999999644538484, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.9754794582051448, 2.1743388005457102e-08, 1.0000000000000002, 1.0000000000000004, 0.5384893405878782, 3.398841643592467e-09</t>
         </is>
       </c>
     </row>
@@ -12886,18 +11222,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>[26404, 60502, 26403, 26401, 26302, 26402, 61000, 23003, 26003, 60501, 25800, 23400, 25900, 26002, 23300, 25600, 60600, 23200, 22903, 25700, 23002, 23001, 23102, 23101, 23103, 25100, 22702, 60900, 22802, 22703, 22701, 22600, 17700, 18000, 60700]</t>
-        </is>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>[0.9999997843435608, 0.9999999974578859, 0.9999998784208393, 0.9999999999999998, 0.20273561913273563, 1.0000000000000002, 0.999999832860487, 0.9999999999999999, 6.236873384906382e-07, 0.9999996778862711, 1.0000000000000002, 0.9999999568617461, 0.710146212888362, 3.388360384065689e-08, 1.0, 2.8244560817408987e-08, 0.9999996034667435, 0.9999999742922895, 0.4524154304288397, 0.24740123501636477, 1.0000000000000002, 0.9999999765401505, 1.0000000000000002, 0.9999999999999997, 0.9999994591236624, 0.21852213074985177, 0.9999999999999999, 0.9363835322791788, 0.6709280014746979, 1.0, 1.0, 0.9950599670014846, 0.14623119919470096, 1.7961903326208063e-07, 0.22152350324266656]</t>
+          <t>06_081_600200, 06_081_600300, 06_075_026302, 06_075_023103, 06_075_023003, 06_075_022701, 06_075_061000, 06_075_060900, 06_075_060700, 06_075_060501, 06_075_060600, 06_075_060502, 06_075_026404, 06_075_026403, 06_075_026401, 06_075_026402, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025700, 06_075_025600, 06_075_026002, 06_075_025100, 06_075_023400, 06_075_023300, 06_075_023200, 06_075_023102, 06_075_023101, 06_075_023002, 06_075_022903, 06_075_023001, 06_075_022802, 06_075_022703, 06_075_022702, 06_075_022600, 06_075_018000, 06_075_017902, 06_075_017700</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>5.073828226923904e-05, 0.0009464932948255446, 0.20821757575967023, 0.9997821500072693, 0.9999999999999996, 1.0, 0.7242088808271367, 0.9152606736695402, 0.1553693738903094, 0.9958675628008427, 0.5162919599382572, 0.985806147470016, 0.9820223049511797, 0.9888147679737231, 1.0, 1.0000000000000002, 2.203648895755565e-05, 0.7114586441843345, 0.9999999999999996, 0.24466856574390236, 1.204405741768022e-07, 0.0018474087202782123, 0.1894234352658154, 0.9999999985128273, 1.0000000000000002, 0.999998179570648, 1.0, 1.0, 0.9999999999999999, 0.45033652697126264, 0.9987734880631961, 0.6707140488070455, 1.000000000000001, 1.0, 0.7040073441290113, 1.1804898920888583e-06, 1.3996638192843645e-06, 0.1457330174530293</t>
         </is>
       </c>
     </row>
@@ -12940,18 +11270,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>[15600, 15700, 15800, 15900, 16000, 15400, 42700, 42600, 15500, 15300, 40200, 15100, 42800, 15200, 40100, 13300, 13400, 11100, 13500, 13200, 11000, 13100, 13000, 10900, 12800, 12900, 10300, 12700, 12600, 10100, 60100, 10200]</t>
-        </is>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>[3.227321802937716e-07, 0.2594549027593552, 0.05223648319264765, 2.992598955828577e-08, 0.04699887448032189, 0.978839373749286, 0.09432257793474577, 5.313105298553834e-10, 0.050687714810928104, 0.06740386956372953, 0.36268924271503983, 0.9999973136791364, 0.9597625247663688, 8.491718716308437e-07, 0.4722050958912371, 0.9999999999999072, 0.9999998661942128, 5.498051945112921e-08, 0.9999998197912605, 1.0000000000000002, 1.3999336027600456e-08, 0.9999993490206444, 0.9999997530789335, 0.1841522632764399, 0.9999999999999996, 1.0000000000000004, 2.322695262066221e-07, 0.9999992948202432, 0.999999147779305, 3.382108227860237e-09, 0.9999999459693532, 0.9086609297330719]</t>
+          <t>06_075_012800, 06_075_012700, 06_075_012600, 06_075_012200, 06_075_012000, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010300, 06_075_010200, 06_075_060200, 06_075_060100, 06_075_042800, 06_075_042700, 06_075_042600, 06_075_040200, 06_075_040100, 06_075_016000, 06_075_015900, 06_075_015800, 06_075_015700, 06_075_015600, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_013400, 06_075_013300, 06_075_013200, 06_075_013100, 06_075_013000, 06_075_012900</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>1.0000000000000002, 0.6867040819702476, 0.5895727322533277, 0.002922180399366483, 0.013524923666608393, 0.01378269598886616, 0.013669417879382402, 0.1985152695173839, 2.548763778191257e-05, 0.5837973125437702, 0.0022705329942490893, 0.22421655807031263, 0.621595238865661, 0.09584046991557975, 3.302127563200247e-05, 0.3594472607344193, 0.47582031966612637, 0.04795291927723393, 9.820116855877749e-08, 0.0535476764072527, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999985855508108, 0.9999999704312119, 1.0</t>
         </is>
       </c>
     </row>
@@ -12994,18 +11318,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>[33100, 33000, 30800, 35400, 35300, 30400, 32900, 32800, 30302, 35202, 30301, 35201, 35100, 32700, 32600, 30201, 60300, 60400]</t>
-        </is>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>[8.00582885335393e-08, 0.9999999677168215, 1.4887570496155803e-08, 0.9999999265867084, 0.9999999815032304, 3.3719693364476575e-08, 1.0000000000000002, 0.9999999720533819, 2.582010391976267e-09, 0.9999998020827292, 1.3194792432927332e-10, 0.9999998021698749, 0.9999998757254915, 0.9999999271419879, 0.9999997309622313, 8.826352380394594e-08, 3.326199008659661e-08, 5.2961727721790056e-09]</t>
+          <t>06_075_060400, 06_075_060300, 06_075_035400, 06_075_035300, 06_075_035201, 06_075_035100, 06_075_035202, 06_075_033100, 06_075_033000, 06_075_032900, 06_075_032800, 06_075_032700, 06_075_032600, 06_075_030900, 06_075_030800, 06_075_030400, 06_075_030302, 06_075_030301, 06_075_030201</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>3.492938156577059e-05, 0.0003440494961896735, 0.0990319169837985, 0.999989260053867, 0.08125616401140826, 0.9970153680374659, 0.9927764142607594, 0.014642317111853398, 0.9999981545444211, 1.0, 0.9999999863090635, 0.9959400989041888, 0.9923144005602594, 2.090775948011001e-10, 0.004484508036782533, 0.003161572663221444, 0.007186977742549558, 0.00332482698137748, 1.905251887626598e-08</t>
         </is>
       </c>
     </row>
@@ -13048,18 +11366,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>[17902, 12200, 22802, 20700, 20800, 22801, 22600, 20200, 20100, 16800, 17700, 16200, 18000, 17901, 60700, 16100, 12400, 17800, 12500, 15900, 16000, 17601, 12300, 15500, 12000, 12100, 15100, 17602, 11700, 10500]</t>
-        </is>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>[0.9999997128013355, 0.9999991514261519, 0.1728743133625883, 1.8757732280891174e-07, 0.18071628862190364, 0.6370550789887279, 1.1815627771935368e-07, 0.5412983072541794, 0.9999999998733551, 0.08922590200324786, 0.8537688008052672, 0.5555578972891386, 0.9999998203810383, 0.9978673026433493, 0.7784760873145722, 0.25027097590775566, 0.9999999999999996, 1.0000000000000002, 1.0000000000000002, 0.3311840784211066, 0.9530011255198583, 1.0, 0.9164471637445738, 4.082212085800909e-08, 1.43291762671182e-07, 3.725241827345968e-07, 8.262258805351708e-07, 0.9999996961266184, 0.14275263566313734, 1.4840505986026708e-07]</t>
+          <t>06_041_124200, 06_001_427500, 06_075_012500, 06_075_012400, 06_075_012300, 06_075_012200, 06_075_012100, 06_075_012000, 06_075_011700, 06_075_010500, 06_075_060700, 06_075_016200, 06_075_022802, 06_075_022801, 06_075_022600, 06_075_020800, 06_075_020700, 06_075_020200, 06_075_018000, 06_075_017902, 06_075_017901, 06_075_017800, 06_075_017700, 06_075_020100, 06_075_017601, 06_075_017602, 06_075_016800, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015100</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>1.9624489541486458e-06, 3.722047252574471e-06, 1.0000000000000002, 1.0000000000000002, 0.9164423288180478, 0.9970249930479257, 1.791671365328498e-05, 1.8682785283884724e-06, 0.1391206639593229, 0.0011707142259919545, 0.5461386009901761, 0.5499356992624037, 0.17297212549667756, 0.637043747860637, 0.001421298114768862, 0.18072694064746342, 5.577998845456339e-06, 0.5452401559827512, 0.999998819510081, 0.02019985256500383, 0.744092939647741, 1.0, 0.854266982546996, 0.9991151836843436, 0.9999999999999998, 0.8917967138141932, 0.08625857666528208, 0.25030421772761796, 0.9520470807225342, 0.3227508073877951, 0.0049589398181131075</t>
         </is>
       </c>
     </row>
@@ -13102,18 +11414,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2000.csv</t>
-        </is>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>[31100, 25500, 25403, 21000, 25401, 21800, 30700, 21700, 30600, 21500, 25300, 21600, 21200, 21300, 21400, 21100, 30500, 20400, 20500, 20600, 20700, 20800, 30102, 20300, 17000, 16900, 17100, 20200, 16600, 16700, 16800]</t>
-        </is>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>[0.17119736790112886, 0.009040510224056317, 3.018277239073729e-10, 0.6573897975836624, 4.911367307678139e-08, 0.9999993733031873, 0.052797880131814016, 0.9999998684911139, 1.4742824716939408e-07, 0.9700065168153092, 1.800119331964403e-07, 0.9999999999999996, 1.0000000000000002, 0.9999999999999998, 1.0000000000000007, 1.0000000000000002, 5.795697598556511e-07, 0.999999633026678, 1.0, 1.0000000000000004, 0.9999992567792718, 1.9211148482577846e-07, 0.025595450069457452, 0.9999999999999999, 0.9999999999999997, 0.9999999999999998, 0.19023686335310427, 0.458701639037813, 9.101650074891728e-08, 0.53846248199904, 0.4094314148944013]</t>
+          <t>06_075_031100, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030102, 06_075_025500, 06_075_025401, 06_075_025403, 06_075_025300, 06_075_021800, 06_075_021700, 06_075_021600, 06_075_021500, 06_075_021400, 06_075_021300, 06_075_021200, 06_075_021100, 06_075_021000, 06_075_020800, 06_075_020700, 06_075_020600, 06_075_020500, 06_075_020400, 06_075_020300, 06_075_020200, 06_075_017100, 06_075_017000, 06_075_016900, 06_075_016800, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>0.18111828539920496, 0.0536714844733811, 2.1626795759445063e-06, 3.123555236327859e-05, 0.02560028035799882, 0.004224305530641646, 0.02235432277285865, 0.008536353582491654, 0.01434411621552429, 0.9979928752590292, 0.9989581959990711, 1.0000000000000007, 0.9685230060101149, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.6563392025595292, 4.507811446792069e-05, 0.9999501069580897, 0.9999999999999994, 1.0000000000000002, 0.9999374308939697, 1.0000000000000004, 0.45365819986958006, 0.1902588175446095, 1.0000000000000002, 1.0000000000000004, 0.4090448746417062, 0.5384542369000975, 4.286303031858021e-06</t>
         </is>
       </c>
     </row>
@@ -13156,18 +11462,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>[15400, 47701, 45100, 15600, 42800, 35100, 47901, 47702, 45200, 40200, 47802, 32602, 32700, 15700, 42700, 32601, 42601, 47600, 35201, 980300, 16500, 42602, 40100, 47902, 47801, 980200, 35202]</t>
-        </is>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>[0.008626227352576923, 1.0, 1.0, 0.9983874428194933, 0.00014466641835344347, 0.0005635749575310478, 0.9766803471390583, 1.0, 1.0000000000000002, 0.8174245799572591, 1.0000000000000004, 0.00015067366979157684, 0.0004970251799885492, 0.573590054674836, 0.9525926695483729, 0.0012999181581304117, 0.9994147933964368, 1.0000000000000002, 9.072711825450593e-05, 0.797088986583568, 0.12538884165574163, 0.9998871974386809, 0.5230484672076363, 1.0, 1.0, 0.9781988782080754, 0.003919467194233107]</t>
+          <t>06_075_016500, 06_075_015700, 06_075_015600, 06_075_015400, 06_075_980200, 06_075_980300, 06_075_047802, 06_075_047801, 06_075_042602, 06_075_042601, 06_075_032602, 06_075_032601, 06_075_047901, 06_075_047702, 06_075_047902, 06_075_047600, 06_075_045200, 06_075_045100, 06_075_042800, 06_075_042700, 06_075_040200, 06_075_040100, 06_075_035201, 06_075_047701, 06_075_035100, 06_075_035202, 06_075_032700</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>0.12530141940039907, 0.5772190736098574, 0.9999999831741031, 2.197721220934028e-08, 0.5628130343595993, 0.7507276274931243, 0.9999999999999996, 1.0000000000000004, 0.999999981461788, 0.9999999923094957, 6.6671570907729515e-09, 2.447594417307049e-08, 0.2173338633692003, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 1.3516351858918917e-08, 0.952413160970442, 0.8204196678081741, 0.5242129962888987, 2.394184788349008e-10, 1.0000000000000004, 4.2747242855328626e-09, 1.329019860952305e-08, 1.1630024341210757e-08</t>
         </is>
       </c>
     </row>
@@ -13210,18 +11510,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>[600402, 26002, 30900, 26303, 31201, 25600, 31000, 25403, 31400, 31301, 25500, 26200, 60502, 31100, 26301, 26302, 31202, 26003, 31302, 600401, 26001, 26100, 600700, 26004, 600300, 980501, 25701]</t>
-        </is>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>[0.00018029051748552668, 0.9135081705091144, 1.9441435181186303e-05, 0.9942307457469325, 0.5532558127378162, 0.4614252283135491, 1.0933310535376212e-05, 3.842687257795206e-14, 0.9999999999999998, 0.9779440729759717, 0.748305544374891, 0.9989738399302789, 0.0012877559366089083, 0.006269420930143888, 1.0000000000000004, 0.9320788723045402, 0.9251874923396057, 0.9999950504827623, 0.644280981689629, 0.0006974117221687217, 1.0, 0.999999999999901, 0.002226878336297157, 0.9999999999999998, 0.0001645485150187959, 0.04970081714775639, 3.3999726716434097e-16]</t>
+          <t>06_081_600300, 06_081_600401, 06_081_600402, 06_081_600700, 06_075_980501, 06_075_033203, 06_075_031302, 06_075_031301, 06_075_031202, 06_075_031201, 06_075_025701, 06_075_060502, 06_075_031400, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_026303, 06_075_026302, 06_075_026200, 06_075_026100, 06_075_026003, 06_075_026301, 06_075_026004, 06_075_026001, 06_075_025600, 06_075_025500, 06_075_026002, 06_075_025403</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>6.4445784386910725e-09, 2.756346831251103e-08, 1.14538521603769e-09, 1.7518723733033037e-08, 0.04546421850383271, 3.821357670568186e-15, 0.638067148809159, 0.9812202556951443, 0.9254077186309255, 0.5497783997443514, 1.356702760105693e-09, 5.3607371513563965e-09, 1.0000000000000082, 9.80106985358536e-09, 4.2807910088825806e-17, 7.961589292139455e-09, 0.9999996075926446, 0.9391951051567823, 0.9999999753148883, 0.9999999969586851, 0.9999999931026581, 1.0000000000000002, 1.0000000000000004, 1.0, 0.46099744267420534, 0.7499299587951711, 0.9138920294210329, 3.7021102283031094e-09</t>
         </is>
       </c>
     </row>
@@ -13264,18 +11558,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>[13102, 10700, 11902, 10800, 11100, 11200, 12301, 11300, 11800, 11901, 15100, 12501, 10900, 12302, 13101, 11000, 10100, 17601, 10200, 12100, 10600, 10300, 12201, 61500, 10500, 12000, 11700, 61100, 12202, 10400]</t>
-        </is>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>[0.00027889680098904933, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 0.9841988219164414, 1.0, 0.427081771797297, 1.0000000000000002, 0.9999999999999999, 1.0, 0.0005465517098994035, 0.14036703744231765, 0.7297623587154082, 0.6650121515820437, 0.0033018358280516597, 0.9987927579038667, 0.6964049196993827, 0.002750421563841411, 0.0013075667969283898, 1.0, 0.9999999999999998, 0.6955034541789076, 5.2208881236875836e-05, 0.0037364364281560433, 0.6677396228847994, 0.977262597633914, 1.0000000000000004, 1.0, 0.07779829804748979, 1.0000000000000002]</t>
+          <t>06_075_015100, 06_075_013000, 06_075_012100, 06_075_012000, 06_075_011800, 06_075_011700, 06_075_011300, 06_075_011200, 06_075_011100, 06_075_011000, 06_075_010900, 06_075_010800, 06_075_010700, 06_075_010600, 06_075_012302, 06_075_012301, 06_075_010500, 06_075_010400, 06_075_010300, 06_075_010200, 06_075_010100, 06_075_061500, 06_075_061100, 06_075_013102, 06_075_013101, 06_075_012501, 06_075_012202, 06_075_012201, 06_075_011902, 06_075_011901, 06_075_017601</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>1.39384295802706e-09, 1.1823193442196314e-15, 0.9999999999999999, 0.972207407787741, 0.9999999999999996, 0.9999999698220089, 1.0000000000000002, 0.9999999999999998, 0.9859783305284809, 0.9999999843968951, 0.7289175586644654, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.6649915637320186, 0.4264521644748218, 0.5813202305512056, 0.9999999999999994, 0.6877021601394369, 6.688963103740043e-09, 0.5451383485364958, 0.0007419192886877325, 0.9999999999999998, 1.132282085195434e-09, 1.9639044161724208e-08, 0.13639051636410718, 0.07838925617155307, 6.012959914298065e-08, 1.0, 1.0, 7.192665466775722e-09</t>
         </is>
       </c>
     </row>
@@ -13318,18 +11606,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>[15400, 15900, 15500, 15300, 17101, 30102, 15100, 16700, 12402, 16000, 16802, 16300, 16100, 20100, 20200, 30301, 30201, 15700, 32601, 16600, 20401, 15802, 16200, 980300, 30202, 16500, 15801, 15200, 30500, 30101, 12202, 16801, 17102, 16400]</t>
-        </is>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>[0.039249406236476735, 1.0, 0.9513550180918946, 0.13149945240993816, 0.6496103264485782, 0.31811631870640245, 0.22397547196828924, 0.46534598964780766, 0.0027915213975890476, 0.9979134414228938, 0.9523763492704165, 1.0000000000000002, 1.0, 0.0023135267718168815, 0.0005038482861706632, 2.344831993305904e-06, 0.4572617200881441, 0.16936574286054476, 2.5054847213869786e-05, 0.9973805223001853, 0.0012394114630412635, 0.9999999999998359, 0.9986384376252717, 0.20276752737010867, 0.7828678778792417, 0.8746111583440483, 0.9212817116361691, 0.7741005560198502, 2.3212106047801395e-14, 0.9630294577951277, 0.024792107315557407, 0.6202095909730109, 0.9999999999999998, 1.0]</t>
+          <t>06_075_016500, 06_075_016400, 06_075_016300, 06_075_016100, 06_075_016000, 06_075_015900, 06_075_015700, 06_075_015500, 06_075_015400, 06_075_015300, 06_075_015200, 06_075_015100, 06_075_013500, 06_075_980300, 06_075_020401, 06_075_017102, 06_075_017101, 06_075_016802, 06_075_016801, 06_075_015802, 06_075_015801, 06_075_012402, 06_075_012202, 06_075_016200, 06_075_030500, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_020200, 06_075_020100, 06_075_016700, 06_075_016600</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
     </row>
@@ -13372,18 +11654,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>[30800, 30400, 33201, 32801, 33203, 30102, 30900, 31201, 31000, 21700, 30700, 30600, 31301, 25500, 35400, 30301, 32602, 31100, 30201, 31202, 32601, 20401, 600900, 30302, 20402, 31302, 30202, 33204, 26100, 30500, 30101, 33000, 60400, 35300, 32802, 600700, 33100]</t>
-        </is>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>[0.9968624625577887, 0.9957479989963995, 1.0000000000000002, 3.853410446004411e-08, 1.0, 0.6588748821704932, 0.9999805585648691, 0.4467441872620379, 0.9999890666895423, 0.00972641060172156, 0.9527354456471615, 0.9982376258144131, 0.022055927023985383, 0.02208938602727872, 0.0005850826769853205, 0.9999522175055976, 0.0028521429117076428, 0.8889785382545498, 0.3199281973420035, 0.07481250766039427, 6.731478170152874e-05, 0.001572403040117181, 0.0010393110885090853, 0.9990482051773661, 0.03709146445642281, 0.3557190179864703, 0.2171321221204138, 1.0, 2.1073886435715068e-14, 0.9771116212803466, 0.036970542204975934, 0.0029197468901213455, 0.9986940469882599, 0.000779304100451451, 0.0005184392419698907, 3.207420202880103e-10, 0.9988581317582322]</t>
+          <t>06_081_600900, 06_081_600700, 06_075_033204, 06_075_033203, 06_075_032802, 06_075_032801, 06_075_032602, 06_075_032601, 06_075_031302, 06_075_031301, 06_075_031202, 06_075_031201, 06_075_020402, 06_075_020401, 06_075_060400, 06_075_035400, 06_075_035300, 06_075_033100, 06_075_033000, 06_075_031400, 06_075_031100, 06_075_031000, 06_075_030900, 06_075_030800, 06_075_030700, 06_075_030600, 06_075_030500, 06_075_030400, 06_075_030302, 06_075_033201, 06_075_030301, 06_075_030202, 06_075_030102, 06_075_030101, 06_075_030201, 06_075_026200, 06_075_026100, 06_075_025500, 06_075_021700</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>1.23080216240313e-08, 6.174778222291653e-11, 1.0, 0.9999999999999795, 1.6440364284765158e-09, 8.519572020152519e-09, 1.2454262395433648e-09, 1.1856539078974096e-09, 0.361932849771584, 0.018779744304839623, 0.0745922813692526, 0.4502216002556249, 5.574707535133124e-08, 6.74190795843121e-09, 0.8341991836556645, 0.0015002848337283578, 4.593250961738084e-09, 0.9999999719710455, 1.5997966526947506e-08, 1.0008836792875836e-15, 0.8952337767162254, 1.0000000000000009, 0.9999999920384115, 0.9980439959457964, 0.9578230967857638, 0.9999999969206312, 0.9999999727714125, 0.9977687986812899, 0.9999999812134479, 1.0000000000000002, 0.9999999888615884, 0.2158684833804301, 0.6555233770743977, 0.03986175558868292, 0.3207171205216631, 6.291338887688731e-09, 3.0412681569947005e-09, 0.02225933382048277, 1.720017219139685e-08</t>
         </is>
       </c>
     </row>
@@ -13426,18 +11702,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>[26002, 980900, 25900, 22803, 23300, 20900, 25600, 25100, 21800, 20700, 25403, 22801, 25500, 21000, 25702, 20100, 17700, 20200, 23001, 25300, 20800, 26003, 22902, 25200, 22802, 22901, 25401, 25402, 25800, 22903, 980501, 21500, 25701]</t>
-        </is>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>[0.08649182949066445, 0.0030345805989809094, 0.9179465977773891, 1.0000000000000002, 0.00015531592295446887, 0.9999999734631793, 0.5385747716864131, 0.9844069447517783, 0.0009530266527328824, 1.298222777155273e-05, 0.8994364365962783, 0.8316125555647039, 6.795122573550258e-15, 0.0007258000649407885, 0.8497736276344792, 0.6403031369280235, 0.4331285483479583, 3.3427070219455464e-05, 2.833238328773556e-06, 0.9256923542893116, 0.9999698596807062, 4.9495173206653214e-06, 0.9999999999999998, 1.0000000000000002, 0.1688313043916307, 0.9999999999999998, 0.8808342147402644, 0.9999999999999997, 0.5639972092391777, 0.537188985781263, 0.38134550795164945, 0.015892492635525387, 0.9914793044328567]</t>
+          <t>06_075_980501, 06_075_980900, 06_075_025702, 06_075_025701, 06_075_026003, 06_075_025900, 06_075_025800, 06_075_025600, 06_075_025500, 06_075_025401, 06_075_026002, 06_075_025403, 06_075_025300, 06_075_025200, 06_075_025100, 06_075_023300, 06_075_025402, 06_075_022903, 06_075_022902, 06_075_023001, 06_075_022802, 06_075_022803, 06_075_022901, 06_075_022801, 06_075_021800, 06_075_021500, 06_075_021000, 06_075_020900, 06_075_020800, 06_075_020700, 06_075_020200, 06_075_017700, 06_075_020100</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>0.3862780054123279, 0.004241637181312673, 0.8383273873800532, 0.9999999940512277, 1.2492223901074526e-14, 0.9181210468810728, 0.5598151662365514, 0.5390025568568767, 8.561284399205526e-10, 0.8790156659627197, 0.0861079705788287, 0.9016319486562788, 0.9284302727006385, 0.9999999999999996, 0.9894030953767958, 4.5007352160841604e-10, 1.0000000000000002, 0.5404050417982472, 1.0000000000000002, 0.0026109057493458993, 0.16623594111703902, 0.9999999999999999, 0.9999999999999999, 0.8316479243544003, 5.914104869222674e-09, 0.017828581515534913, 1.1030122238193852e-08, 0.9999999705753733, 0.999999982613939, 3.554634914373174e-08, 3.750780995772918e-08, 0.4291845965741962, 0.6500229394834417</t>
         </is>
       </c>
     </row>
@@ -13480,18 +11750,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>[23001, 26401, 61200, 61000, 26403, 23003, 23001, 61000, 60702, 60702, 26403, 23001, 23300, 61401, 23300, 26404, 61000, 23001, 980501, 23103, 980600, 17700, 26401, 26404, 26302, 22702, 25100, 23200, 23200, 980900, 22704, 980600, 25800, 61401, 26402, 980900, 22704, 60502, 22704, 23103, 980600, 980600, 22704, 61200, 61200, 22704, 22600, 980900, 22802, 980600, 22704, 23400, 23102, 61200, 23200, 26402, 980501, 60502, 980900, 61200, 980600, 23200, 25800, 23001, 22600, 22802, 22600, 25800, 61000, 61402, 25900, 22600, 26401, 60502, 980600, 61200, 23001, 22600, 26403, 60502, 26401, 23001, 23200, 61000, 980900, 23300, 60702, 22702, 22702, 17700, 26402, 23200, 23001, 61200, 980900, 61000, 22600, 22702, 17700, 23001, 61000, 22600, 22600, 22600, 22600, 23400, 23001, 22802, 26402, 25800, 61401, 61000, 61000, 17700, 26402, 23001, 60502, 61401, 23103, 23200, 22702, 25702, 23200, 61200, 26401, 22704, 980600, 23400, 22704, 980900, 61402, 26404, 980600, 23300, 22702, 61200, 26404, 23300, 26402, 23200, 22600, 23001, 25900, 26403, 980600, 61000, 23200, 61000, 23400, 22704, 61200, 980900, 61401, 23400, 60702, 60702, 980900, 23300, 23001, 22704, 22702, 22702, 61000, 23200, 26402, 980900, 23003, 61000, 23400, 22704, 26403, 980501, 26402, 23003, 980600, 22704, 22802, 23003, 980900, 23003, 23200, 980600, 60702, 23400, 61200, 26402, 23103, 60502, 23003, 26403, 23400, 23200, 980900, 26404, 22600, 61000, 23102, 22802, 22600, 23400, 60502, 25100, 23200, 23400, 61000, 22600, 25900, 61000, 22704, 26402, 61200, 60702, 61402, 23102, 26404, 61000, 23400, 23200, 23400, 23400, 23102, 25800, 61000, 61200, 980900, 980900, 25800, 60701, 980900, 26402, 23001, 61401, 22702, 23400, 980600, 61402, 23003, 61200, 23300, 22704, 61200, 22903, 26402, 980900, 23200, 61000, 23102, 26403, 22702, 22802, 23103, 980900, 980900, 22704, 26402, 60502, 980600, 26403, 61000, 980600, 22704, 22802, 25702, 23102, 980900, 61000, 60702, 980900, 980900, 25900, 23103, 23200, 22704, 61401, 23003, 23200, 25900, 22702, 60702, 61000, 61200, 26401, 61000, 22600, 22702, 23001, 61000, 26402, 61401, 25800, 26403, 26401, 23003, 23001, 26402, 26401, 26401, 23001, 23102, 26302, 61000, 61000, 980900, 980600, 23300, 26402, 980900, 26403, 980900, 26403, 980600, 26402, 61402, 26401, 61401, 23400, 26403, 25800, 23200, 22903, 23103, 61000, 26302, 980600, 23003, 980900, 980900, 23001, 61401, 23001, 26402, 23300, 23200, 23200, 23300, 26401, 23103, 22600, 980900, 61200, 61200, 23102, 61200, 980900, 980501, 22903, 60702, 17700, 23001, 22600, 61000, 980900, 22600, 23001, 22702, 980900, 980900, 23200, 23200, 23400, 980501, 23400, 23300, 61000, 23001, 23200, 26401, 23001, 980900, 23001, 23200, 23400, 23200, 22704, 60502, 26401, 22704, 23200, 23102, 26401, 22802, 61000, 60702, 26402, 980600, 61401, 980900, 980900, 22600, 60702, 22903, 980900, 23400, 26402, 980900, 61200, 23102, 23200, 26302, 60702, 23400, 22600, 980900, 22802, 61000, 980900, 23400, 980600, 22702, 980900, 23300, 61402, 23300, 23003, 25900, 61401, 25702, 23003, 61401, 22702, 980600, 22702, 23400, 61200, 22702, 23300, 23001, 25800, 980900, 61401, 22600, 980900, 23300, 23400, 61000, 980900, 60702, 61200, 980900, 22702, 26403, 61000, 980900, 23400, 22903, 25900, 980900, 23300, 980600, 23001, 23001, 26404, 23200, 23103, 61000, 23200, 22704, 23001, 22600, 22702, 61200, 26401, 26404, 980600, 60702, 61401, 23103, 61402, 22702, 980900, 980900, 26402, 23400, 23200, 61000, 23001, 61402, 23400, 26402, 25800, 23102, 23200, 26402, 23400, 61200, 23102, 23400, 22903, 22704, 980600, 980600, 23200, 980900, 22600, 23003, 23003, 61401, 22600, 22704, 22600, 60702, 26403, 61401, 22704, 23102, 60701, 23003, 980900, 26401, 26404, 980600, 61401, 61401, 61401, 22704, 61200, 26402, 61401, 23001, 23003, 22600, 22702, 23001, 60702, 980900, 980900, 23400, 22704, 22600, 23300, 26403, 980900, 25100, 23400, 23003, 22802, 61200, 980600, 23400, 25900, 23200, 26003, 22600, 23102, 25702, 22802, 980900, 22600, 22704, 980900, 26402, 26403, 23001, 25701, 61000, 23400, 23200, 23200, 26003, 23300, 23103, 61000, 23102, 22600, 23001, 61401, 22903, 26401, 23300, 26402, 23001, 980900, 61000, 23200, 23103, 980900, 22802, 980900, 22600, 23200, 23300, 26401, 980501, 23200, 22600, 23001, 26404, 980900, 980900, 60702, 22802, 23200, 23300, 23001, 60502, 22704, 25100, 980900, 22702, 23200, 23300, 23003, 22903, 22600, 980900, 61402, 23300, 23200, 61200, 61000, 61200, 22903, 980501, 23003, 23003, 26404, 61000, 980600, 26401, 23400, 26403, 22704, 61401, 980900, 22600, 22704, 22600, 61200, 23300, 61401, 61401, 23400, 23400, 26404, 25702, 26403, 61402, 23400, 980900, 23200, 22704, 980900, 26402, 25900, 22600, 23300, 23102, 23003, 22903, 22600, 60502, 980600, 17700, 980600, 61401, 23102, 26403, 61000, 22903, 980600, 26402, 22702, 980900, 23102, 980900, 61000, 980900, 61402, 23300, 23003, 22704, 23003, 980600, 61000, 61200, 22704, 22702, 23103, 61200, 26404, 980900, 980600, 25900, 26402, 26402, 23001, 980600, 26401, 23001, 23001, 980900, 22600, 22903, 61200, 980600, 980900, 980900, 26402, 61200, 23400, 23001, 26404, 22704, 23200, 22704, 23001, 61200, 980501, 61401, 26404, 23300, 22802]</t>
-        </is>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>[0.9999999999999999, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999997, 0.9999999360955796, 0.999999939259456, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999907241461, 1.0, 1.0000000000000002, 0.9999999314516137, 1.0000000000000002, 1.0000000000000002, 1.0760376728987073e-08, 1.0, 0.9999999999999999, 2.4211014788374947e-09, 1.0, 1.4493718520692693e-07, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999957476553, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9535183750801504, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999817475255, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 4.7434729467483655e-08, 0.9622092440343321, 0.9999999999999997, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 0.9999999221380224, 0.9999999999999998, 1.3965342536353354e-07, 1.0000000000000002, 0.9999999999999999, 2.1311616963824725e-08, 0.9999999999999999, 1.0, 1.0, 0.9999999999999997, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9471621990261575, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0000000000000004, 1.2441008037743525e-07, 1.0, 0.9999999999999999, 0.9999997017160065, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0818601731791596e-08, 0.9999999600838974, 0.8537058685484383, 0.9980444555157306, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999621771206, 1.0000000000000002, 0.9999999942414064, 0.9999999999999998, 0.9999999999999999, 0.9999999999999997, 0.9999999438007108, 1.0, 1.0000000000000002, 0.9931716669339427, 1.0000000000000002, 1.0, 1.0, 1.0, 1.9468434375348525e-07, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000004, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999934682021, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9978936367662951, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999996997946734, 1.0, 1.0000000000000002, 0.9796399263046144, 1.0, 7.97622040179389e-08, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 5.3369375158141415e-09, 1.0, 1.0000000000000002, 1.0, 0.9999993944191609, 0.9534564670913548, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.9999999904045861, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 3.4027932677005764e-08, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.1697092036273896e-08, 1.0, 1.0, 1.0, 0.9999999999999996, 6.39008099419737e-08, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000013, 0.9736281217180132, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 6.147552312424986e-09, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.999999986517367, 1.0000000000000004, 1.0, 0.9999999205971687, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999993, 1.0, 1.0, 0.9999999725867692, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999999999999999, 0.9999999999999998, 1.0000000000000004, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 9.94338645409775e-09, 0.9999999999999997, 0.8691129438820361, 1.0000000000000002, 0.9999998139745577, 1.0, 0.9999999999999997, 1.0000000000017917, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 3.7271294612412935e-09, 1.0000000000000002, 0.9999998636906686, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999985898520091, 1.0, 1.0000000000000002, 0.9999999999999997, 4.0018114971716374e-08, 1.0, 0.9999999999999999, 1.0000000000000009, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 1.0, 0.9999999999999993, 1.322997437448678e-07, 1.0, 0.9999999999999996, 1.0, 1.0000000000000004, 0.9999999999999996, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 0.9999999729914651, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999799104788, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.49561511682144427, 1.0, 2.0520518487091817e-09, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.9999999999997999, 1.0, 1.0000000000000002, 0.999977326713574, 3.533591208201435e-08, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 3.264361852450886e-07, 0.9999999607712836, 0.9999999999999998, 0.9999999788878225, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999971523168, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999175957319, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999991, 1.0000000000000002, 4.458876576613244e-09, 1.0000000000000004, 0.9999999501003797, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9999999999999999, 8.83761648431987e-08, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999994, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 1.1806356390645409e-07, 1.29805038178878e-08, 1.0, 0.999999997619889, 0.9999999999999998, 6.024507782866006e-08, 1.0000000000000004, 1.0, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 2.479367336771023e-08, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0000000000000007, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.9999999181024609, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999869862911, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.999999954971636, 1.0, 9.998613903309136e-09, 0.9999994557222583, 0.9939661026538219, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 0.9999999999999998, 0.9999999999999999, 1.0, 0.9999999835804846, 1.0, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 4.6900568953824025e-09, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999918475643, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999440286842, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 3.0354584957503834e-08, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 0.999999945205182, 0.8801240934826698, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 3.286200392304772e-09, 1.0000000000000004, 0.9999999634354112, 0.9999999999999999, 0.9610536715033624, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.2612792867812392e-07, 1.0, 1.0, 0.9999999760195402, 1.0, 1.0, 1.0000000000000002, 0.9613893727939844, 1.0000000000000002, 5.600484416375149e-08, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999681896112, 1.0000000000000002, 4.6750025203835894e-09, 1.0, 0.9999999999999999, 4.879917414606863e-07, 1.0, 1.0, 2.4510373029264825e-08, 1.0, 0.9999999625118142, 1.0, 1.0, 1.0000000000000002, 5.116244045913097e-08, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 3.1463713549037363e-07, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999953841747219, 0.8690723126590035, 1.0, 1.0, 1.0, 5.019670746394368e-08, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 1.9523963452965498e-08, 1.0000000000000002, 1.0, 1.0000000000000002, 1.1531224286022783e-09, 0.9999999999999998, 1.0000000000000004, 4.44190624155345e-08, 0.9999999653745215, 1.0, 1.0000000000000002, 1.0, 0.9999998119350433, 1.0000000000000002, 6.337105422167252e-08, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 0.8869190517179185, 0.9999999999999996, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.9823276337048729, 0.9999999999999998, 0.9999998977311647, 3.627058942301258e-08, 1.0000000000000002, 1.0000000000000002, 0.8823199847936114, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9793310292146141, 2.2837641812779908e-08, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999994, 0.9999999999999998, 1.0, 1.0, 0.9999997949563643, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000007, 1.0, 1.0265467417921296e-07, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 0.9999999999999997, 0.999999823935494, 1.0, 0.9999999999999997, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 1.0, 0.9999999999999998, 1.0, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9591581370508147, 1.0, 0.9999992091995742, 1.0, 1.0, 0.9999999999999997, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 0.9999999978570809, 1.0, 1.6509910242183349e-07, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.9999999762506208, 0.9947822159195697, 1.0, 1.0, 0.9999999999999998, 0.9999999646044346, 1.0, 0.9999999960890724, 1.0000000000000002, 0.9972394867302489, 1.0, 1.9209583619479636e-07]</t>
+          <t>06_075_980501, 06_075_025702, 06_075_022704, 06_075_025701, 06_075_061200, 06_075_023102, 06_075_023200, 06_075_023300, 06_075_022702, 06_075_025800, 06_075_061000, 06_075_025900, 06_075_026003, 06_075_026404, 06_075_060502, 06_075_023103, 06_075_980900, 06_075_023400, 06_075_025100, 06_081_600200, 06_075_017700, 06_075_022600, 06_075_022802, 06_075_022903, 06_075_023001, 06_075_023003, 06_075_026302, 06_075_026401, 06_075_026402, 06_075_026403, 06_075_061402, 06_075_980600, 06_081_600100, 06_075_061401, 06_075_060702, 06_075_060701, 06_075_990200</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>0.5296448579769638, 2.6254678775358282e-08, 0.9999999999999998, 7.913630067302182e-09, 0.9999999999999996, 1.0000000000000002, 0.9999999999999796, 0.9999999958983022, 0.9999999936056178, 0.5219253190666969, 0.7128243619216079, 0.1057581644981432, 8.824992074380399e-09, 0.9817294814247994, 0.9419600582523978, 0.7508544777993751, 0.9344974748040086, 0.9999999972573774, 2.3571682368261797e-08, 0.0013335149636708975, 0.04106796678417421, 0.6140668038060986, 0.6702792209681512, 0.3187006347322847, 0.9999999892885812, 0.9999999999999997, 2.3603353446125804e-09, 1.0000000000000007, 1.0, 0.9865808333768226, 0.9999999999999998, 0.526661397174801, 1.6160232970360707e-06, 0.9999999989810482, 0.24794401142272657, 3.434927456165515e-10, 4.2299987544390704e-13</t>
         </is>
       </c>
     </row>
@@ -13534,18 +11798,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>[35300, 30301, 35102, 32700, 32801, 35400, 35300, 32901, 35101, 32801, 35400, 35400, 32901, 32602, 33002, 32700, 35400, 32802, 35102, 35400, 33100, 33001, 33100, 33001, 33001, 980300, 35400, 30302, 33002, 32700, 35102, 32601, 32602, 32602, 33002, 32700, 32801, 32802, 35300, 32902, 32801, 32802, 32700, 35201, 32700, 32700, 32902, 33100, 32801, 32601, 33002, 32802, 32801, 32901, 35201, 35300, 35201, 60400, 33002, 35201, 35400, 32601, 35300, 32902, 980300, 35400, 35400, 35201, 30900, 980300, 33201, 35102, 35400, 32700, 33001, 33002, 32801, 32601, 35201, 32902, 33100, 33002, 35300, 33001, 32801, 32901, 30302, 33002, 33001, 32901, 32902, 980300, 35201, 35201, 32601, 32700, 30900, 60400, 35300, 35102, 33001, 35300, 32602, 32602, 33100, 35102, 32801, 35101, 35201, 32602, 35400, 32602, 32902, 32901, 32902, 35300, 33201, 35300, 35102, 32902, 33001, 32802, 33100, 32601, 35300, 980300, 35202, 35101, 32602, 35102, 33002, 33100, 980300, 32601, 35400, 32700, 33002, 33100, 32901, 33001, 33002, 35202, 33100, 35300, 35300, 32801, 35400, 32602, 33002, 35400, 35300, 32700, 33100, 33002, 33100, 33001, 35201, 32602, 35400, 35300, 33100, 35201, 33100, 33001, 30800, 35101, 35400, 35101, 35300, 35300, 33100, 32602, 33002, 35300, 35400, 32901, 32601, 35300, 32901, 32802, 33001, 32802, 33002, 35400, 33001, 32601, 35400, 33100, 33100, 32901, 35300, 32901, 35101, 32801, 32601, 32700, 33002, 35300, 35201, 35400, 32700, 32700, 33002, 35400, 32601, 47904, 35202, 33001, 33100, 32901, 35400, 33100, 33002, 980300, 35300, 35101, 32602, 32602, 35300, 32601, 32901, 33100, 35102, 30302, 33100, 33002, 32700, 33100, 33100, 35102, 35201, 32901, 32700, 32901, 980401, 30800, 33001, 32602, 32902, 32801, 35400, 32902, 35300, 35300, 32700, 32901, 35102, 32902, 35400, 35201, 980401, 35201, 33100, 35300, 32901, 35300, 32802, 32802, 32901, 33100, 33002, 32902, 35300, 980300, 30302, 35400, 35201, 32801, 32901, 33002, 32700, 32901, 32601, 35400, 35102, 35102, 32700, 32700, 32902, 35400, 32902, 35101, 32601, 35400, 35101, 35102, 35300, 35202, 32902, 35400, 32602, 33100, 35400, 33001, 32902, 32802, 32902, 32700, 35300, 32801, 33002, 32901, 32700, 33002, 33100, 33001, 33002, 35102, 35400, 32802, 32700, 32901, 32700, 33002, 35400, 32802, 35201, 33100, 33002, 33100, 35202, 32801, 32601, 35300, 35101, 33001, 32802, 33100, 35102, 35102, 33100, 35102, 32700, 35300, 32700, 35300, 35201, 32901, 35102, 35300, 32700, 35201, 32902, 32901, 33001, 33001, 35300, 35400, 35201, 32801, 33001, 32802, 32802, 33201, 33100, 33100, 33100, 33100, 35300, 35102, 32901, 35202, 35202, 30201, 32901, 980300, 35201, 33001, 33201, 32700, 32700, 35300, 32801, 33100, 32601, 35102, 35201, 35300, 32601, 980300, 35300, 980300, 32700, 33100, 33001, 35201, 33001, 32801, 32802, 32601, 33100, 35101, 35102, 35300, 35300, 33001, 35101, 32700, 32802, 32801, 32902, 35201, 35400, 32700, 35101, 35102, 33001, 35202, 33100, 32700, 35300, 32602, 33100, 33100, 32601, 33001, 30800, 35102, 35300, 33002, 980300, 35102, 35400, 35400, 32700, 33002, 35400, 35300, 35102, 980300, 32700, 32801, 32802, 32602, 33001, 32901, 35102, 33100, 32700, 32802, 33001, 33100, 35102, 33100, 33100, 35300, 32700, 35400, 33100, 35202, 35202, 35300, 35202, 33100, 32902, 980300, 35202, 33100, 32602, 32902, 33001, 32602, 32700, 35101, 33100, 35201, 32602, 35300, 35202, 35101, 32901, 980300, 32802, 33001, 32602, 32801, 35400, 32700, 32902, 35202, 32602, 35202, 35201, 33002, 32902, 33001, 32602, 35201, 32602, 980300, 60400, 32601, 35201, 980300, 35300, 32802, 980300, 980300, 33002, 33201, 33002, 33100, 35400, 30800, 33001, 32902, 32700, 32902, 35101, 35300, 32801, 33002, 32700, 35101, 35201, 32700, 32601, 33001, 30201, 30900, 35102, 33001, 32700, 32802, 32901, 35400, 32901, 32801, 33001, 35300, 32601, 35400, 35101, 980300, 35101, 33001, 35201, 35202, 33002, 30301, 33100, 30400, 32700, 33100, 35400, 35400, 35300, 33201, 32801, 32902, 35202, 33100, 32901, 32901, 35202, 33001, 30400, 32901, 32901, 35101, 33001, 35202, 32801, 32802, 32801, 30201, 35300, 32700, 35202, 35300, 33001, 35101, 33100, 35201, 32802, 33100, 32700, 35400, 35400, 32901, 35102, 32802, 32802, 32901, 980300, 32902, 33002, 32602, 35201]</t>
-        </is>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 6.112321265476542e-07, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999381549559, 1.0, 1.0, 0.9999998705186139, 1.0, 1.0, 1.0000000000000002, 1.0000000000000004, 0.999999999999999, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999996, 0.9999999999999998, 1.6478775238200876e-06, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000004, 1.7938451284532892e-08, 1.0, 1.0000000000000002, 1.0, 0.9999999607934266, 1.0, 1.0, 0.9999998992852341, 0.9999999999999998, 1.0, 1.0, 4.372362778381716e-07, 2.955451871051201e-08, 1.7469519071498963e-08, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 2.0954594320275894e-08, 1.0, 1.0, 1.0, 1.0, 4.7919271567855134e-08, 1.0, 1.0, 1.0, 1.0000000000000002, 6.280553941350992e-07, 6.855221065643906e-09, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999925520314, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999971359042, 8.669208319525604e-08, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999997764878036, 1.0, 0.9999999714061512, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.9999997483111328, 0.9999999774310592, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 0.9999998419929115, 0.9999999999999997, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999436717989, 0.9999999999999998, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 0.9999998653387294, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999752401669, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0662255728223749e-07, 1.0000000000000002, 0.999999523535272, 1.0, 1.0, 1.0000000000000002, 0.9999998985500832, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999999999999998, 1.3421848778876385e-10, 0.9999999999999998, 1.0000000000000004, 0.9999999999999998, 1.0, 0.9999998603280011, 1.0, 1.0, 4.256061200144271e-08, 1.0, 0.9999999999999998, 1.0, 0.9999999922774169, 0.9999999999999998, 1.0, 1.0, 0.9999999618702639, 0.9999999999999998, 1.0524423120305464e-08, 0.9999998949357273, 1.0, 1.0, 0.9999999605833161, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 8.215623728478951e-08, 1.0000000000000002, 0.9999998620237989, 1.0000000000000002, 0.9999998729668039, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 3.402252611024536e-07, 2.606863786847607e-06, 1.0000000000000002, 1.0000000000000002, 0.999999604480888, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999104483769, 1.0, 0.9999999587096086, 0.9999999760473787, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.999999806281663, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999953939627, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000004, 0.9999999083589806, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999301186221, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.5894344664251184e-07, 1.0, 4.7410609960223645e-08, 1.0, 0.9999999999999998, 2.196090679411575e-08, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999969702534, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 0.9999999746114858, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 0.9999998912623776, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999996, 1.0, 1.0000000000000002, 0.9999999202630842, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 2.9165657315973132e-08, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999877781732, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0000000000000009, 1.0, 1.0, 1.0, 1.0, 1.0, 1.3044168689197625e-07, 5.823049398067438e-09, 1.0, 0.9999999999999998, 3.7769971975457344e-08, 1.0000000000000002, 1.0, 1.568563786432398e-08, 0.9999999795169711, 1.0, 9.193188467897888e-11, 0.999999987272646, 0.9999999707096706, 1.0, 6.224859229299993e-08, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 0.9999998498763671, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 1.0, 1.5466194747759527e-07, 5.332371171127226e-07, 0.9999999999999996, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0000000000000004, 1.0, 1.0000000000000002, 1.219903991616331e-08, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999996, 2.8588798028920543e-07, 1.0000000000000002, 3.325319704471108e-07, 1.0, 1.0, 0.9999996305426775, 1.0, 1.0000000000000002, 0.9999998306850247, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9999999949279901, 1.0, 0.9999999999999998, 1.0, 1.0, 3.5434807301621464e-07, 0.9999999999999998, 1.0, 0.9999999999999993, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0, 3.593974155829662e-07, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0, 0.999999963052735, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 0.9999998936634459, 0.9999999999999998, 1.0, 1.0, 1.0]</t>
+          <t>06_075_032801, 06_075_032602, 06_075_032802, 06_075_032901, 06_075_980300, 06_075_980401, 06_075_035202, 06_075_032601, 06_075_032902, 06_075_030900, 06_075_032700, 06_075_033100, 06_075_033201, 06_075_035201, 06_075_035300, 06_075_035400, 06_075_060400, 06_075_030201, 06_075_030301, 06_075_030302, 06_075_030400, 06_075_030800, 06_075_035102, 06_075_033001, 06_075_033002, 06_075_047904, 06_075_035101</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>0.9999999726008113, 0.9999999938584451, 0.9999999931291227, 1.0000000000000009, 0.3508607661934953, 0.9999999974528508, 1.0, 0.999999997281031, 0.9999999999999996, 2.7771417711087996e-09, 1.0000000000000002, 0.9999999792655473, 0.24625245011586014, 0.5986396509934473, 0.9999999978293214, 0.6489383309658736, 4.736827092069486e-09, 3.645694550768815e-08, 2.4863117353818128e-09, 1.4978817059680594e-08, 2.0230349031240954e-09, 6.383727484500913e-10, 1.0000000000000002, 0.9999999999999999, 0.9999999873838338, 7.771780016896535e-12, 0.9999999999999998</t>
         </is>
       </c>
     </row>
@@ -13588,18 +11846,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>[61501, 17903, 11700, 16802, 61501, 60702, 60702, 17801, 60701, 61502, 20101, 60703, 61507, 18000, 12405, 61501, 17903, 60701, 17804, 17804, 61501, 60702, 17700, 12405, 17700, 17903, 60703, 61508, 17700, 20101, 18000, 17804, 60703, 61504, 17700, 17700, 61501, 61501, 11700, 18000, 17804, 17700, 20101, 18000, 60702, 22600, 17700, 61501, 17602, 61507, 17903, 60702, 60701, 16802, 20101, 60701, 17700, 17804, 17603, 17700, 17804, 20101, 17903, 60702, 17700, 17903, 17603, 61501, 16802, 18000, 60702, 17903, 61508, 17700, 11700, 61506, 12405, 17700, 17602, 17700, 60701, 17903, 61501, 11700, 61501, 17700, 17903, 17903, 12405, 17801, 61503, 61503, 60703, 17602, 16802, 17903, 61501, 12503, 17801, 61502, 61503, 17700, 61502, 60701, 18000, 16802, 17603, 60702, 17803, 18000, 17803, 17903, 61501, 17604, 60702, 12405, 17903, 17903, 17804, 61508, 11700, 60701, 12503, 18000, 17700, 61501, 61507, 61506, 60702, 20101, 17602, 61501, 17700, 60702, 61502, 20101, 20202, 61503, 17700, 17903, 60703, 22600, 60701, 17903, 60701, 61501, 18000, 17602, 17903, 17700, 61506, 60701, 12405, 17603, 60701, 20101, 61507, 60702, 17603, 17903, 60702, 18000, 17603, 60701, 18000, 17700, 18000, 61502, 17700, 12504, 17903, 61501, 60701, 17803, 17801, 61506, 61502, 60703, 60703, 17602, 60702, 61504, 17602, 12405, 20202, 18000, 17903, 18000, 17700, 61508, 17603, 61507, 61507, 61507, 17903, 17803, 17903, 17700, 61501, 12503, 17700, 60702, 60701, 61503, 12503, 17903, 60701, 60702, 20101, 61507, 17603, 17700, 16802, 17803, 17801, 61503, 17903, 17903, 17804, 17602, 60701, 17803, 17801, 18000, 60703, 17903, 61508, 17602, 18000, 17700, 17602, 18000, 60703, 17700, 17903, 17604, 17903, 12504, 22600, 17700, 61502, 17602, 17700, 17804, 17700, 12405, 61501, 20101, 17903, 16802, 61508, 17700, 60701, 60702, 17903, 61501, 60702, 20202, 10500, 17903, 11700, 61503, 17903, 20101, 60702, 18000, 17804, 60702, 17903, 17903, 18000, 18000, 18000, 17804, 17602, 60702, 17803, 22600, 61502, 18000, 17804, 18000, 12405, 61507, 17804, 17903, 17903, 17903, 60701, 60702, 17804, 20101, 17903, 17602, 60703, 17903, 16200, 60702, 17903, 18000, 12405, 61501, 17804, 60703, 18000, 18000, 17903, 61507, 61508, 60701, 17903, 16802, 61501, 60702, 60701, 16200, 20101, 17801, 61508, 61504, 11700, 17801, 61507, 20101, 61502, 60702, 60701, 60702, 11700, 17803, 17602, 60701, 17602, 17700, 60701, 61501, 18000, 17903, 17602, 17801, 17903, 18000, 17903, 16802, 61501, 20101, 18000, 61503, 17903, 17903, 60702, 17602, 18000, 18000, 60701, 18000, 61503, 17603, 61507, 17602, 16802, 60701, 17700, 61503, 60702, 60703, 17603, 10500, 17804, 61506, 60701, 61507, 61501, 16802, 60701, 60701, 61502, 17700, 20101, 22600, 61501, 60701, 60701, 18000, 60701, 17700, 60702, 17903, 16802, 17700, 61501, 60701, 17603, 17903, 61502, 61508, 61503, 18000, 17903, 60702, 61501, 17804, 17903, 17801, 20101, 17603, 17801, 16802, 18000, 17603, 17603, 22600, 10500, 17801, 18000, 61501, 60702, 60702, 17604, 17903, 17804, 17803, 61501, 17903, 17700, 18000, 17903, 16200, 18000, 60703, 17903, 18000, 17803, 61501, 17804, 17804, 17603, 17603, 60702, 17700, 61501, 61506, 17603, 17804, 17700, 18000, 18000, 17903, 22702, 60703, 17602, 17602, 61507, 17804, 12405, 18000, 18000, 61505, 16802, 11700, 17700, 61507, 61502, 61502, 60701, 18000, 17804, 60701, 18000, 17604, 61506, 17803, 17903, 17700, 61502, 61501, 18000, 18000, 17604, 61503, 18000, 20101, 12405]</t>
-        </is>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.0, 6.378054003083808e-07, 0.9999999773362211, 0.9999999929332032, 6.390409255789365e-08, 6.074259866010184e-08, 1.0, 0.7614829541505057, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999997938074529, 1.0, 0.9999999999662952, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0982005586678513e-07, 0.9999998669906432, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 0.9999999999999998, 0.9999999999999999, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9999999999999998, 1.0, 1.0, 1.5133112607193075e-07, 0.9999999999999998, 1.0, 8.161001610785569e-11, 0.9999999999999999, 1.0, 0.9999999999999999, 1.8252622495570268e-08, 0.9999999999999999, 1.0, 1.0, 0.9999994233313398, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999260860343, 5.385776133856551e-07, 1.0, 0.9999999416418207, 1.0000000000000002, 1.0, 1.0, 1.0, 1.1832163901362472e-07, 1.0, 1.0, 7.107745014907464e-08, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 6.697704803052412e-08, 1.0000000000000002, 0.9999998755897899, 1.0, 0.8229500895727038, 5.4937157517234566e-08, 1.984669652075564e-07, 1.0000000000000002, 5.7098600861710895e-08, 0.999999993223067, 1.0, 0.9999999891838194, 0.9999999999999999, 1.0, 1.0, 5.4728089323607676e-14, 1.0, 5.620000366826424e-08, 1.0, 0.9999999999999998, 0.999999940289829, 1.0000000000000002, 1.0, 1.0, 0.999999998395071, 0.9999999503918644, 2.0276101852727003e-07, 0.8792682326399773, 0.9999999996573593, 1.1397262608752824e-10, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 3.719190659552578e-14, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999602364, 6.533902471944338e-09, 0.9999999999183677, 0.9164512201380531, 0.9999999999999998, 1.0, 1.0, 5.624147390841334e-07, 1.0000000000000004, 7.321706159085502e-09, 1.0000000000000004, 0.9999992376257968, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999946631474, 1.0000000000000002, 1.0, 1.0, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 0.9999994221778191, 4.213432282092998e-14, 0.9999999999999998, 1.1173539801757706e-07, 0.9999999999999999, 0.9999999999999999, 9.595583595879772e-09, 1.0, 0.9999999999999997, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9999999999999998, 0.9999997828831403, 1.0000000000000002, 0.9999999999999999, 2.9849513405948523e-07, 0.9999999999999997, 0.9999999361017822, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999938530973, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.2641529225040174e-08, 4.037561042833199e-07, 1.0, 1.0, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 0.9999999999999998, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999998673051501, 3.406263547751479e-07, 3.814896549375835e-07, 1.0000000000000002, 0.9992245534696945, 0.9999999999999998, 0.9999999671615197, 0.9999999999999998, 0.9999999999999998, 0.9999996887126488, 0.9999999972918766, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999987728356293, 0.9999999999999999, 5.06930944114751e-10, 1.0000000000000002, 1.8602519125901649e-07, 1.0000000000000002, 1.0, 4.562698185241645e-08, 0.9999999999999996, 1.0000000000000002, 1.363086529429758e-07, 0.9999999999999999, 0.9999999660183028, 1.0000000000000002, 3.584981984401767e-07, 9.085918732351757e-09, 0.9999999999999999, 0.9999999999999999, 1.0, 0.999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 0.9999998052602415, 0.9999999999999999, 2.492382359476056e-07, 0.9999999646641514, 2.111029098206375e-08, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.8674479402644253e-07, 5.43294423265438e-08, 1.0, 1.0, 0.9876155889381947, 0.99999997389487, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999998, 0.9999999999999999, 0.9999999999999997, 1.0, 0.9999999282521521, 2.8847544283947967e-07, 0.8709204445849603, 1.490240715470912e-07, 1.0000000000000002, 1.0, 1.0000000000000004, 4.9898611480888306e-08, 1.0, 1.0, 0.9999999116234299, 0.9999999999999997, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999870219586, 1.0000000000000002, 2.3792692919979317e-09, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 1.582052915776235e-08, 0.9999999989825947, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000004, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.6284980397386665e-08, 1.3013220356577535e-08, 0.9999999999999998, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999996, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0, 0.9999999836931961, 1.0, 1.0, 0.9999998087213164, 0.9999999983634765, 1.0, 0.9999999999999998, 1.0, 8.153132348114943e-10, 1.0, 0.9999999999999999, 1.7032096796018344e-07, 0.9999999999999998, 0.9999999953096828, 1.0, 0.9999999999999998, 2.922339980029634e-07, 0.9999999999999999, 1.0, 0.9999999999999999, 1.0, 6.342615547253896e-08, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999996, 0.999999840475357, 1.0, 1.0000000000018505, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 5.4793832635550976e-08, 1.0, 0.9999999999999999, 1.0, 0.9999999967137151, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999257357051, 1.0000000000000002, 0.9999999999999996, 1.0, 0.9999998738686591, 1.0000000000000002, 1.0, 1.1286528684934616e-07, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999982347547, 3.772667247885005e-07, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 0.9999999754884958, 1.0, 0.9999999999999993, 0.9999999999999998, 1.0, 1.0, 0.9999999822508935, 1.0000000000000002, 0.90992347757221, 5.606937574655236e-07, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 0.9999999555789015, 0.9999995716276756, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999995687638372, 1.0, 1.0, 0.9999998724236284, 0.9999999999999999, 1.0, 1.0, 2.9017651142958938e-09, 6.743712778434319e-10, 1.0, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 3.2206044788180735e-07, 0.9999999999991795, 0.9999999999999994, 0.9999996060558057, 1.0000000000000002, 1.0, 1.0, 1.0000000000000004, 1.0, 0.99999997107813, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 0.9999998973474983, 1.0, 1.0, 1.0, 1.0000000000000002, 3.825187759452194e-09, 1.0000000000000002, 0.9999999999999997, 1.0, 1.760652862164886e-07, 1.0, 1.0, 1.0, 0.9999999999999998, 1.0, 3.980976131175485e-14, 1.0000000000000002, 0.9999999999999999, 1.0, 0.9999999999999998, 1.126698443190967e-07, 1.0, 0.9999999999999996, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999846131195, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999504, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999988045283]</t>
+          <t>06_041_124200, 06_075_016802, 06_075_017801, 06_075_022702, 06_075_018000, 06_075_010500, 06_075_011700, 06_075_016200, 06_001_428700, 06_075_017700, 06_075_022600, 06_075_012405, 06_075_020101, 06_075_017603, 06_075_017803, 06_075_012503, 06_075_017804, 06_075_017602, 06_075_061503, 06_075_060703, 06_075_061502, 06_075_017903, 06_075_012504, 06_075_060702, 06_075_060701, 06_075_061504, 06_075_061507, 06_075_990200, 06_075_061501, 06_075_061506, 06_075_061505, 06_075_017604, 06_075_020202, 06_075_061508</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>5.60910274738587e-17, 0.29774108567938523, 1.0000000000000004, 6.3944231940780735e-09, 0.9999999999999939, 3.974627211686486e-09, 3.5579405432373345e-08, 0.055215427353061536, 2.3656784119826415e-08, 0.4012396850647824, 0.07440925631117028, 0.24281836650066424, 0.5204123652536593, 1.0, 1.0, 4.801560280441653e-09, 0.9999999999999993, 0.9999999807040596, 1.0, 0.9999999998445662, 0.9999999999999997, 0.4928998246630482, 1.443150602786804e-07, 0.7520559885772353, 0.5920508875334386, 0.9999999999999997, 0.5318038051292602, 4.310311585690832e-08, 0.9999999951576324, 0.9999999999999997, 1.0000000000000002, 0.9999999627599756, 0.03572367067246711, 0.5658483420411731</t>
         </is>
       </c>
     </row>
@@ -13642,18 +11894,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>san francisco_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>[25403, 17101, 20300, 21700, 21700, 20300, 16900, 21800, 16900, 30500, 21700, 30500, 21400, 21800, 21500, 20702, 20401, 25502, 21700, 17102, 20601, 16900, 21400, 21400, 17000, 31100, 21800, 30102, 17102, 20401, 30500, 21000, 20601, 21800, 21700, 21400, 20500, 21000, 21400, 31100, 30102, 21300, 25502, 30700, 20401, 20602, 16700, 30102, 20401, 21700, 20401, 21300, 21400, 20500, 20401, 20202, 21300, 20701, 16801, 21600, 21100, 17101, 20402, 21800, 17000, 21400, 25502, 16802, 20601, 21400, 20402, 20702, 20401, 25403, 21700, 20202, 20500, 20300, 20401, 20702, 21700, 20300, 25401, 21500, 21800, 20402, 16601, 17102, 21100, 21100, 30700, 20402, 20401, 30102, 25502, 21800, 16801, 20402, 20500, 20401, 25502, 16802, 21100, 21100, 21100, 17102, 21700, 17102, 16900, 21400, 21800, 21200, 17101, 16602, 17101, 25403, 20101, 21200, 21000, 20300, 16900, 16900, 21500, 21800, 21600, 21700, 21400, 21200, 21600, 21300, 17101, 21800, 25401, 21300, 20401, 21800, 30102, 21400, 21700, 16900, 20201, 20202, 21100, 21400, 21100, 20601, 17000, 17101, 20601, 30500, 20601, 21000, 21800, 21700, 20401, 21200, 20402, 16801, 17102, 21700, 20402, 20602, 20402, 17000, 16900, 17000, 25300, 21100, 21800, 21800, 16700, 21300, 20401, 20602, 21200, 20202, 17000, 20300, 21000, 21500, 21600, 17101, 20602, 20401, 17102, 20500, 21000, 21600, 17000, 21600, 21100, 21200, 20602, 20202, 30102, 21700, 21300, 20402, 25300, 21400, 21800, 20500, 20401, 17101, 30101, 30700, 21500, 17000, 17000, 21500, 20701, 21000, 21400, 30102, 21300, 21400, 20101, 20402, 20300, 17000, 30101, 20401, 20402, 20702, 21600, 21000, 16802, 25401, 21700, 21400, 17102, 21500, 25502, 17000, 17000, 21500, 21600, 16900, 31100, 21500, 17000, 20300, 20601, 20202, 21700, 30101, 17102, 980300, 17000, 20701, 20300, 21700, 21700, 21100, 21100, 20402, 30500, 21800, 21500, 21800, 21600, 20402, 20401, 21800, 20202, 21500, 21400, 21500, 21000, 20601, 17101, 20900, 21000, 25502, 25502, 20401, 25401, 21400, 20500, 21000, 20201, 20701, 20602, 17102, 21400, 21800, 20300, 30102, 21800, 17102, 20500, 20201, 31100, 30102, 21500, 20402, 21800, 20601, 21800, 21800, 21100, 21100, 21400, 21000, 21100, 16700, 21400, 17000, 20702, 16801, 25502, 21400, 21500, 21300, 21400, 30102, 20401, 20500, 20500, 17000, 31100, 21600, 21400, 21700, 21200, 21200, 20401, 25502, 21100, 30102, 25300, 21000, 21700, 20602, 20401, 30700, 21300, 21700, 21100, 30600, 16700, 21500, 20401, 20402, 20500, 20601, 21500, 20500, 16801, 21500, 20402, 21400, 20300, 21100, 21600, 20602, 21400, 21300, 17000, 25502, 17102, 30102, 20401, 20300, 21200, 16900, 21600, 16700, 21500, 20601, 21200, 21200, 16801, 20202, 21500, 20300, 17102, 21800, 21500, 20402, 30102, 21500, 20601, 25401, 17102, 16900, 17000, 17000, 20602, 20401, 17000, 20602, 21600, 21600, 16801, 21200, 21700, 21800, 21400, 21500, 21700, 21300, 17000, 21700, 25300, 20402, 30102, 21800, 21600, 21200, 20201, 20402, 25403, 16801, 20401, 20601, 30102, 17101, 30700, 17000, 21600, 17101, 30500, 20601, 20500, 21800, 20701, 16801, 20300, 21600, 21700, 21600, 30102, 21500, 20202, 20202, 20601, 21600, 25502, 16700, 25502, 20500, 31100, 25502, 16900, 20201, 21100, 21700, 20701, 21200, 21800, 17000, 21400, 21600, 21300, 21500, 21200, 20300, 21200, 20602, 21700, 20201, 30700, 20701, 17000, 21700, 31100, 20401, 20401, 16700, 17102, 17102, 20601, 21000, 21800, 20101, 21100, 20401, 20202, 16601, 21800, 21000, 20601, 16900, 20701, 21400, 21500, 21100, 16700, 16802, 21800, 17000, 20402, 17102, 21300, 21200, 30102, 21200, 20402, 20401, 21600, 21100, 21700, 21700, 21800, 21700, 21600, 21600, 21200, 16900, 20402, 25300, 20602, 21800, 20602, 20401, 21200, 17101, 21500, 20300, 17000, 30700, 21700, 21300, 17102, 17101, 20300, 17000, 20300, 20602, 20202, 21100, 21500, 21800, 16700, 17102, 20602, 25300, 25403, 16802, 21200, 20402, 21100, 30102, 20201, 21700, 21200, 21000, 20602, 17102, 21700, 25502, 21000, 21300, 25502, 16900, 20500, 21100, 20300, 30101, 21000, 21500, 30102, 21100, 31100, 21400, 25502, 21700, 30102, 17000, 30101, 20101, 20300, 21800, 16802, 21500, 20701, 20402, 21100, 17101, 21100, 20402, 16700, 17101, 20401, 21000, 30500, 20401, 25300, 31100, 20900, 21700, 20601, 21600, 16601, 25300, 20300, 17000, 20401, 25300, 21700, 20500, 20300, 25300, 31100, 30500, 25502, 21400, 16900, 21700, 21100, 20702, 30102, 21200, 20300, 21800, 21300, 31100, 20602, 17102, 20500, 21200, 25403, 21500, 21700, 21700, 21400, 21600, 31100, 17101, 20402, 17000, 25401, 31100, 21100, 16802, 21100, 21100, 21400, 16801, 20402, 21100, 21500, 20202, 30102, 21800, 21600, 21100, 20500, 20402, 21300, 21000, 30600, 21000, 30700, 21000, 21800, 30101, 21400, 21500, 21400, 21300, 21600, 20402, 20402, 25502, 16601, 17000, 20401, 20202, 20401, 21500, 20500, 21700, 17101, 16700, 21700, 20202, 21400, 21800, 21300, 21500, 21600, 21500, 20701, 30101, 16801, 20701, 21400, 17101, 21500, 20701, 21800, 31100, 21600, 16700, 21600, 25502]</t>
-        </is>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>[0.9999999999999999, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 1.0, 1.0, 1.0, 4.1927764046888615e-08, 1.0, 7.816892166594268e-08, 1.0000000000000002, 1.0, 1.0, 0.999999923140208, 1.0, 7.052401929794126e-07, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999998763674176, 1.0000000000000007, 0.9999998339751787, 1.0, 1.0000000000000002, 8.822493603305426e-08, 0.9999999999999999, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0, 8.98757663252369e-08, 1.0, 0.9999999689602408, 1.0000000000000002, 1.0, 0.999999933875629, 6.55693229009119e-08, 1.0, 1.0, 0.9999997967949389, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999994, 0.9999999999999998, 0.9999999999999998, 1.0, 8.609302502493672e-08, 0.9999999999999999, 0.9999999829353944, 0.9999998918349962, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.9999999999999998, 0.99999997438582, 3.391017761239847e-08, 0.9999999999999998, 0.9999999999999999, 1.0, 8.987495368914676e-10, 1.0000000000000002, 1.0000000000000002, 0.9999999999999997, 0.99999987921061, 1.0, 0.9999999999999999, 0.9999999999999996, 7.07746846791532e-08, 0.9999999999999989, 1.0, 5.2703883038457704e-08, 1.0, 1.0, 1.0, 8.673248526544081e-08, 0.9999999999999998, 1.0, 1.0, 1.5350372069226485e-07, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000004, 1.0000000000000002, 1.9727487825526673e-08, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.999999888910309, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.2936549663026342e-07, 1.0476253267941032e-07, 0.9999998719920693, 6.435677408713131e-08, 6.891733947779701e-15, 1.0, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 0.9999999999999998, 0.9999999999980916, 1.0000000000000002, 1.0, 1.0, 1.0, 0.9999999999999999, 0.9999992953893649, 1.0, 1.5618911920493086e-07, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 3.041101867744267e-08, 1.0, 3.2854268016184067e-09, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 1.408688468304078e-07, 0.9999999526186935, 0.9999999999999993, 0.9999999999999999, 1.0000000000000002, 0.9999998872788406, 1.0000000000000002, 1.0000000000000002, 0.9999999999999993, 8.596150645504236e-08, 1.0, 1.0, 1.0000000000000002, 0.999999985978335, 1.0, 1.0, 1.0, 0.9999999999999999, 1.5038003925110933e-07, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999998488133299, 0.9999999752625657, 0.9999999999999998, 0.9999999999999998, 1.0000000000000007, 0.9999985965238865, 1.0, 0.9999999999999997, 0.9999999999999999, 1.0, 1.0, 6.885785721555533e-08, 7.871923514580352e-08, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999999999999999, 4.166269516482172e-09, 0.9999998191924745, 1.0, 1.0000000000000004, 1.0000000000000002, 0.9999999999999998, 6.8542211130525e-09, 1.0000000000000002, 1.0, 1.0000000000000002, 0.999999916374827, 1.0, 0.9999999999999999, 1.0, 1.0, 1.4369306685141702e-07, 1.0000000000000002, 1.0060541286340835e-07, 0.9999989011728128, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0399048835699891e-07, 1.0000000000000004, 0.9999999999999998, 1.0, 1.0, 1.0, 0.9999999297140162, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999998, 1.0000000000000002, 1.0000000000000007, 4.8605581822706274e-08, 0.9999999118269012, 3.975673835644896e-08, 0.9999999999999999, 0.9999996073873538, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 3.62953214620752e-08, 1.0, 1.0, 1.0, 1.0000000000000007, 1.0000000000000004, 0.9999999999999998, 1.0, 0.9999996185098009, 1.0, 1.0, 0.9999999999999999, 1.0000000000000002, 0.9999999999999999, 0.9999999989400744, 7.830032088689629e-08, 0.9999996636360113, 0.9999997690644913, 0.9999999731915322, 0.9999999999999998, 0.9999998049247858, 1.0, 1.0, 0.9999998882934844, 1.0000000000000002, 0.9999999489003722, 1.0, 1.0000000000000002, 1.0, 0.9999999999999997, 1.0, 6.288924582735148e-08, 1.0, 0.9999997795911734, 1.0000000000000002, 4.0523277375142626e-07, 9.039434298805972e-09, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999809356992, 0.9999999999999998, 0.9999998718857531, 1.0, 0.9999999999999998, 0.9999998869776554, 8.428346874634245e-08, 1.0000000000000004, 1.0, 0.9999999999999998, 0.9999999999999997, 0.9999999999999999, 0.9999997493511508, 1.0000000000000004, 1.0000000000000002, 1.0, 1.0, 5.3290583996587487e-08, 0.9999999999999998, 0.9999999999999999, 0.9999991908413083, 1.0, 1.0, 1.0, 7.119119828361564e-07, 0.9999999999999999, 0.9999999999999997, 3.227424401864104e-08, 0.9999999999999999, 0.9999999976239935, 1.0000000000000002, 1.0000000000000002, 0.9999998091527404, 1.0000000000000002, 0.9999992542390036, 1.0, 9.491603868563215e-08, 0.9999999645003074, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999998981120254, 1.0000000000000002, 0.9999999287006969, 0.9999999999999998, 0.9999998556090378, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 1.0, 1.676735417058279e-07, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 1.5024607016157574e-14, 1.0, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 7.174700774101703e-08, 1.0, 1.0, 0.9999999999999999, 0.9999999999999996, 0.9999999999999999, 0.9999999999999998, 0.9999998857595566, 0.9999999999999998, 1.0000000000000002, 0.9999998452726215, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 0.9999999999999996, 0.999999913485365, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0, 1.0, 0.9999999999999996, 0.9999999999999999, 1.0, 1.0, 2.45475977293141e-07, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999999999999, 1.8910411431980678e-07, 1.0, 0.999999915720199, 1.4423267718509505e-07, 1.0000000000000002, 0.9999999999999999, 1.0000000000000182, 0.9999999131490087, 1.0, 1.0000000000000002, 1.0, 0.9999999999999999, 1.5005403188647875e-07, 1.0000000000000002, 1.0000000000000002, 1.0, 0.9999999432598414, 2.996944665697481e-07, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999999999996, 0.9999999565848888, 9.562943949129105e-08, 2.142269178342684e-08, 1.0000000000000002, 1.0000000000000009, 1.0, 5.843331019903761e-10, 1.0, 1.0000000000000002, 1.3989105100391143e-08, 1.0000000000000007, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 1.0, 0.9999999999999999, 0.9999999999999997, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.999999997983776, 1.429811864178644e-07, 7.392887750813282e-08, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 6.113291234263856e-08, 1.0000000000000002, 0.9999997166059288, 1.0, 0.9999999694460346, 1.0000000000000002, 1.5283332764486676e-14, 1.0000000000000002, 1.0, 2.1843972033249924e-07, 3.645772691664813e-07, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 2.0006829682275735e-08, 1.0000000000000002, 1.0, 1.0000000000000002, 0.9999999065869166, 7.42638129654191e-08, 1.0000000000000002, 1.0, 1.0000000000000007, 0.9999999999999998, 0.9999999999999998, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999999999996, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0000000000000002, 0.9999989291840156, 1.0, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9999997754115256, 1.0000000000000002, 1.0, 0.999999905742911, 0.9999999178594456, 0.9999999999999997, 0.9999999999999998, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0000000000000002, 1.073815780576949e-07, 0.9999997740772905, 0.9999994393099813, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 2.3029842776920478e-07, 0.9999999999999997, 0.9999999999999999, 1.0, 1.0, 1.0, 1.0000000000000002, 4.0032955822589873e-07, 1.0000000000000002, 1.0, 0.9999999999999997, 0.9999999999999999, 1.0, 0.9999999999999996, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 5.251576917722762e-08, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.9999999990631089, 0.9999999999999998, 0.9999998846653063, 1.0000000000000002, 0.9999998964915855, 3.175364283994326e-07, 0.9999999999999998, 1.0, 1.2581689549388134e-08, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999999999999997, 0.9999999999999999, 0.9999995564329699, 1.0, 1.0000000000000002, 4.091489966996581e-08, 1.0000000000000002, 0.9999992117150658, 0.9999996543435545, 9.841919626615885e-08, 1.0, 1.0, 0.9999999999999999, 7.847852332569169e-08, 2.6611157916967855e-08, 1.0, 1.0, 0.9999999999999998, 4.4536918384998534e-08, 0.9999999999999997, 1.0, 1.0, 0.9999990295009972, 1.0, 1.7071017340455216e-07, 1.0, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.9999999986359644, 0.9999998528744921, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 4.5692176820211774e-08, 1.0, 1.0, 1.0000000000000002, 1.0, 1.7369845121125742e-07, 0.9999999999999999, 0.9999988222374312, 1.0000000000000002, 1.0, 1.0000000000000002, 6.01456524520254e-08, 9.58731077449107e-08, 0.9999999999999999, 0.9999999999999999, 1.0000000000000002, 0.9999999816780818, 0.9999999999999998, 3.8401446852980625e-08, 1.0, 1.0, 0.9999999999999998, 0.9999998433595109, 1.0, 1.0000000000000002, 0.9999999999999998, 0.9999999660500049, 1.2160220552737828e-09, 0.9999999999999998, 1.0, 1.0, 1.0, 1.0, 1.0000000000000002, 1.0, 5.5928426133559394e-08, 1.0000000000000002, 0.9999999825512101, 3.0498590821828067e-07, 1.0000000000000002, 0.9999999744611887, 1.0, 0.9999999999999999, 1.0, 1.0, 1.000000000000001, 0.9999999999999999, 1.0000000000000004, 0.9999999698434167, 2.583486805097943e-07, 1.0000000000000002, 0.9999999291628066, 1.0, 1.0000000000000002, 1.0000000000000004, 1.0, 0.9999999999999999, 0.9999999999999992, 4.800216475991692e-08, 1.0, 0.9999999655965552, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9999999999999993, 0.9999999999999999, 2.9702376557289566e-08, 1.6420830116961966e-07, 0.9999996602861627, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0000000000000002, 0.9999999999999999, 0.9999998857215978, 1.0, 1.0253537440182202e-07, 1.0, 6.565566720629862e-07]</t>
+          <t>06_075_017102, 06_075_016801, 06_075_016802, 06_075_017101, 06_075_980300, 06_075_025403, 06_075_025300, 06_075_020500, 06_075_025401, 06_075_016700, 06_075_020402, 06_075_031100, 06_075_020300, 06_075_020900, 06_075_021000, 06_075_021100, 06_075_021200, 06_075_021300, 06_075_021400, 06_075_021500, 06_075_021600, 06_075_021700, 06_075_021800, 06_075_020602, 06_075_016900, 06_075_017000, 06_075_020401, 06_075_030101, 06_075_030102, 06_075_030500, 06_075_030600, 06_075_030700, 06_075_020101, 06_075_016602, 06_075_016601, 06_075_020702, 06_075_025502, 06_075_020701, 06_075_020202, 06_075_020601, 06_075_020201</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>0.9999999613217856, 0.3889451651638642, 0.1296132314514425, 0.8049242454119978, 1.0855822496783398e-09, 0.10127338279258809, 0.02139387355785361, 0.9999999999999999, 0.12109304446521692, 0.5384942482028349, 0.999999959251646, 0.10016730295468634, 0.9999999999999997, 4.9071712670249856e-09, 0.7810812428260658, 0.9999999999999999, 1.0000000000000002, 1.0000000000000004, 0.9999999999999997, 0.9999999951231366, 1.0000000000000007, 0.9999999883488183, 1.0000000000000002, 0.9999999999999996, 1.0000000000000002, 1.0, 0.9999999948248055, 0.24400698359191395, 0.2154010765572063, 1.757609074745589e-08, 2.8536994187391266e-09, 0.04133637042024577, 1.4527350812545293e-09, 1.179832281854025e-08, 3.914800165766859e-08, 0.48557675444651166, 0.23890140929613637, 0.4964476060508153, 0.6051248595472776, 1.0000000000000007, 0.5075834828373995</t>
         </is>
       </c>
     </row>
@@ -13696,18 +11942,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>[432800, 433700, 433200, 433000, 433102, 433600, 433104, 433801, 433802, 432700, 433103]</t>
-        </is>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>[6.159201370597147e-05, 0.0035482507016996586, 0.16750813740997203, 0.9755085499063275, 0.9841408420141058, 4.134602672609955e-05, 0.11472506429058199, 0.005307951930600092, 0.1038241727792592, 0.006111591857263106, 0.9867076599378362]</t>
+          <t>06_001_432800, 06_001_433700, 06_001_433200, 06_001_433000, 06_001_433102, 06_001_433600, 06_001_433104, 06_001_433801, 06_001_433802, 06_001_432700, 06_001_433103</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>6.159201370597147e-05, 0.0035482507016996586, 0.16750813740997203, 0.9755085499063275, 0.9841408420141058, 4.134602672609955e-05, 0.11472506429058199, 0.005307951930600092, 0.1038241727792592, 0.006111591857263106, 0.9867076599378362</t>
         </is>
       </c>
     </row>
@@ -13750,18 +11990,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>[433700, 433200, 433300, 433400, 433500, 435800, 435900, 433600]</t>
-        </is>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>[2.0293740325646934e-05, 0.0017291521440315322, 0.10133786990793338, 0.390755362959512, 0.9983138784060183, 0.005595431490497871, 0.0011247217041280234, 0.9946359789295568]</t>
+          <t>06_001_433700, 06_001_433200, 06_001_433300, 06_001_433400, 06_001_433500, 06_001_435800, 06_001_435900, 06_001_433600</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2.0293740325646934e-05, 0.0017291521440315322, 0.10133786990793338, 0.390755362959512, 0.9983138784060183, 0.005595431490497871, 0.0011247217041280234, 0.9946359789295568</t>
         </is>
       </c>
     </row>
@@ -13800,8 +12034,6 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -13838,8 +12070,6 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13876,8 +12106,6 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -13916,8 +12144,6 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -13956,8 +12182,6 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -13991,11 +12215,13 @@
       <c r="G275" t="n">
         <v>2022</v>
       </c>
-      <c r="H275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14029,11 +12255,13 @@
       <c r="G276" t="n">
         <v>2022</v>
       </c>
-      <c r="H276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14067,11 +12295,13 @@
       <c r="G277" t="n">
         <v>2022</v>
       </c>
-      <c r="H277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14105,11 +12335,13 @@
       <c r="G278" t="n">
         <v>2022</v>
       </c>
-      <c r="H278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14146,18 +12378,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>maine_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>['23_003_952900', '23_003_950900', '23_003_952100', '23_003_952300', '23_003_951200', '23_003_951300', '23_003_951400', '23_003_951100', '23_003_950100', '23_003_952700', '23_003_950700', '23_003_951700', '23_003_950600', '23_003_950400', '23_003_950200', '23_003_952600', '23_003_952400', '23_003_952500', '23_003_951600', '23_003_950300', '23_003_951000', '23_003_951800', '23_003_951900', '23_003_952000', '23_029_956300', '23_029_956400', '23_029_955300', '23_029_955400', '23_029_955900', '23_029_955500', '23_029_956500', '23_029_955100', '23_029_955800', '23_029_956100', '23_029_955700', '23_029_956200', '23_029_955600', '23_029_990000', '23_009_965100', '23_009_965900', '23_009_966300', '23_009_966500', '23_009_965300', '23_009_966400', '23_009_966100', '23_009_965200', '23_009_966600', '23_019_021500', '23_019_000200', '23_019_000300', '23_019_000400', '23_019_000500', '23_019_000600', '23_019_000700', '23_019_000900', '23_019_020500', '23_019_008001', '23_019_004100', '23_019_004200', '23_019_004300', '23_019_027000', '23_019_011000', '23_019_025500', '23_019_026500', '23_019_009000', '23_019_014000', '23_019_015000', '23_019_012500', '23_019_031000', '23_019_028000', '23_019_013500', '23_019_015500', '23_019_022500', '23_019_002000', '23_019_010000', '23_019_012000', '23_019_028500', '23_019_024500', '23_019_018000', '23_019_029000', '23_019_030000', '23_019_013000', '23_019_007100', '23_019_007200', '23_019_006200', '23_019_006100', '23_019_006300', '23_019_003000', '23_019_005000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965800', '23_009_966000', '23_009_965504', '23_009_965503', '23_009_990000', '23_009_966700', '23_027_046001', '23_027_046002', '23_027_041000', '23_027_044000', '23_027_047000', '23_027_045000', '23_027_043000', '23_027_042000', '23_031_022500', '23_007_970601', '23_007_970101', '23_007_970602', '23_007_970102', '23_007_971200', '23_007_971400', '23_007_971300', '23_007_971000', '23_007_971100', '23_025_965301', '23_025_965302', '23_025_966700', '23_025_966600', '23_025_966000', '23_025_966900', '23_025_967000', '23_025_966500', '23_025_965900', '23_025_966800', '23_025_965800', '23_025_966300', '23_025_966100', '23_025_965700', '23_025_966200', '23_025_965600', '23_025_966400', '23_017_966100', '23_017_966900', '23_017_966200', '23_017_966300', '23_017_966500', '23_017_965600', '23_017_966400', '23_017_965800', '23_017_965900', '23_017_966600', '23_017_965500', '23_017_966800', '23_017_966000', '23_017_965700', '23_017_965100', '23_017_966700', '23_017_965400', '23_011_018000', '23_011_017000', '23_011_025000', '23_011_015500', '23_011_013000', '23_011_014000', '23_011_012000', '23_011_011000', '23_011_015000', '23_011_014500', '23_011_010900', '23_011_021000', '23_011_020000', '23_011_010600', '23_011_022000', '23_011_016000', '23_011_023002', '23_011_010801', '23_011_020500', '23_023_970301', '23_023_970100', '23_023_970200', '23_021_960302', '23_021_960301', '23_021_960600', '23_021_960700', '23_021_960900', '23_021_960400', '23_021_960800', '23_021_960500', '23_013_970300', '23_001_042000', '23_001_043000', '23_001_020500', '23_001_040000', '23_001_044000', '23_001_041500', '23_001_020800', '23_001_020700', '23_001_041000', '23_001_020300', '23_001_020400', '23_001_046000', '23_001_020600', '23_001_045000', '23_001_030100', '23_001_020200', '23_001_020900', '23_001_010800', '23_001_010100', '23_001_010400', '23_001_010200', '23_001_010700', '23_001_010500', '23_001_030200', '23_001_010600', '23_001_010300', '23_001_046500', '23_001_020100', '23_005_011500', '23_005_014000', '23_005_013000', '23_005_016500', '23_005_016000', '23_005_015000', '23_011_010802', '23_011_024200']</t>
-        </is>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>[0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334]</t>
+          <t>23_003_952900, 23_003_950900, 23_003_952100, 23_003_952300, 23_003_951200, 23_003_951300, 23_003_951400, 23_003_951100, 23_003_950100, 23_003_952700, 23_003_950700, 23_003_951700, 23_003_950600, 23_003_950400, 23_003_950200, 23_003_952600, 23_003_952400, 23_003_952500, 23_003_951600, 23_003_950300, 23_003_951000, 23_003_951800, 23_003_951900, 23_003_952000, 23_029_956300, 23_029_956400, 23_029_955300, 23_029_955400, 23_029_955900, 23_029_955500, 23_029_956500, 23_029_955100, 23_029_955800, 23_029_956100, 23_029_955700, 23_029_956200, 23_029_955600, 23_029_990000, 23_009_965100, 23_009_965900, 23_009_966300, 23_009_966500, 23_009_965300, 23_009_966400, 23_009_966100, 23_009_965200, 23_009_966600, 23_019_021500, 23_019_000200, 23_019_000300, 23_019_000400, 23_019_000500, 23_019_000600, 23_019_000700, 23_019_000900, 23_019_020500, 23_019_008001, 23_019_004100, 23_019_004200, 23_019_004300, 23_019_027000, 23_019_011000, 23_019_025500, 23_019_026500, 23_019_009000, 23_019_014000, 23_019_015000, 23_019_012500, 23_019_031000, 23_019_028000, 23_019_013500, 23_019_015500, 23_019_022500, 23_019_002000, 23_019_010000, 23_019_012000, 23_019_028500, 23_019_024500, 23_019_018000, 23_019_029000, 23_019_030000, 23_019_013000, 23_019_007100, 23_019_007200, 23_019_006200, 23_019_006100, 23_019_006300, 23_019_003000, 23_019_005000, 23_019_940000, 23_019_031300, 23_019_031100, 23_019_031200, 23_009_965700, 23_009_965400, 23_009_966200, 23_009_965800, 23_009_966000, 23_009_965504, 23_009_965503, 23_009_990000, 23_009_966700, 23_027_046001, 23_027_046002, 23_027_041000, 23_027_044000, 23_027_047000, 23_027_045000, 23_027_043000, 23_027_042000, 23_031_022500, 23_007_970601, 23_007_970101, 23_007_970602, 23_007_970102, 23_007_971200, 23_007_971400, 23_007_971300, 23_007_971000, 23_007_971100, 23_025_965301, 23_025_965302, 23_025_966700, 23_025_966600, 23_025_966000, 23_025_966900, 23_025_967000, 23_025_966500, 23_025_965900, 23_025_966800, 23_025_965800, 23_025_966300, 23_025_966100, 23_025_965700, 23_025_966200, 23_025_965600, 23_025_966400, 23_017_966100, 23_017_966900, 23_017_966200, 23_017_966300, 23_017_966500, 23_017_965600, 23_017_966400, 23_017_965800, 23_017_965900, 23_017_966600, 23_017_965500, 23_017_966800, 23_017_966000, 23_017_965700, 23_017_965100, 23_017_966700, 23_017_965400, 23_011_018000, 23_011_017000, 23_011_025000, 23_011_015500, 23_011_013000, 23_011_014000, 23_011_012000, 23_011_011000, 23_011_015000, 23_011_014500, 23_011_010900, 23_011_021000, 23_011_020000, 23_011_010600, 23_011_022000, 23_011_016000, 23_011_023002, 23_011_010801, 23_011_020500, 23_023_970301, 23_023_970100, 23_023_970200, 23_021_960302, 23_021_960301, 23_021_960600, 23_021_960700, 23_021_960900, 23_021_960400, 23_021_960800, 23_021_960500, 23_013_970300, 23_001_042000, 23_001_043000, 23_001_020500, 23_001_040000, 23_001_044000, 23_001_041500, 23_001_020800, 23_001_020700, 23_001_041000, 23_001_020300, 23_001_020400, 23_001_046000, 23_001_020600, 23_001_045000, 23_001_030100, 23_001_020200, 23_001_020900, 23_001_010800, 23_001_010100, 23_001_010400, 23_001_010200, 23_001_010700, 23_001_010500, 23_001_030200, 23_001_010600, 23_001_010300, 23_001_046500, 23_001_020100, 23_005_011500, 23_005_014000, 23_005_013000, 23_005_016500, 23_005_016000, 23_005_015000, 23_011_010802, 23_011_024200</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334</t>
         </is>
       </c>
     </row>
@@ -14196,18 +12422,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>['23_019_003000', '23_019_004100', '23_019_004300', '23_019_005000', '23_019_006100', '23_019_006300', '23_019_011000', '23_019_012000', '23_027_043000', '23_019_013000', '23_019_018000', '23_019_009000', '23_019_020500', '23_019_002000', '23_019_008001', '23_019_013500', '23_019_022500', '23_019_029000', '23_021_960800', '23_021_960700', '23_021_960600', '23_021_960400', '23_021_960500', '23_021_960900', '23_017_966800', '23_017_966600', '23_017_965800', '23_017_966900', '23_017_965100', '23_017_965600', '23_017_966100', '23_017_966300', '23_017_965500', '23_017_966700', '23_017_965400', '23_017_965700', '23_017_966402', '23_017_966002', '23_017_966401', '23_017_966001', '23_023_970200', '23_017_966500', '23_011_011000', '23_019_024500', '23_019_031000', '23_019_000400', '23_019_000500', '23_019_000600', '23_011_020500', '23_011_022000', '23_009_965300', '23_009_965100', '23_009_965800', '23_009_966300', '23_009_966400', '23_009_966600', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965900', '23_017_965900', '23_017_966200', '23_009_966100', '23_001_040000', '23_001_046000', '23_001_046500', '23_029_990000', '23_001_010100', '23_001_010300', '23_001_010400', '23_013_970302', '23_013_970301', '23_001_010500', '23_001_020100', '23_001_020200', '23_001_020500', '23_001_020600', '23_001_020900', '23_001_045000', '23_001_041000', '23_001_043000', '23_001_041500', '23_001_030200', '23_001_010600', '23_001_042000', '23_001_030100', '23_001_020700', '23_001_010700', '23_001_010200', '23_001_010800', '23_007_970101', '23_007_970601', '23_023_970301', '23_023_970100', '23_031_022500', '23_011_014500', '23_011_018000', '23_019_028500', '23_019_028000', '23_019_000300', '23_011_010900', '23_019_027000', '23_019_015500', '23_019_006200', '23_019_000700', '23_019_015000', '23_019_014000', '23_019_012500', '23_019_007100', '23_019_004200', '23_019_026500', '23_019_000900', '23_019_007200', '23_019_030000', '23_019_021500', '23_019_025500', '23_019_010000', '23_019_000200', '23_009_965504', '23_009_965503', '23_009_966700', '23_009_966000', '23_009_966500', '23_029_956200', '23_029_956400', '23_029_955400', '23_029_955900', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966100', '23_007_970102', '23_025_965700', '23_025_966702', '23_025_966601', '23_025_966602', '23_025_966701', '23_025_966802', '23_025_966801', '23_025_966900', '23_007_971202', '23_007_971201', '23_001_020303', '23_001_020301', '23_001_020802', '23_001_020801', '23_001_020402', '23_001_020302', '23_001_020401', '23_011_015000', '23_003_952700', '23_003_952600', '23_003_952900', '23_003_952300', '23_003_950400', '23_003_951400', '23_003_950700', '23_003_950600', '23_003_950100', '23_003_951800', '23_003_952000', '23_003_951900', '23_003_951200', '23_003_950300', '23_007_970602', '23_003_950900', '23_003_951000', '23_003_951100', '23_025_965900', '23_025_965600', '23_025_966200', '23_025_966000', '23_025_967000', '23_003_951600', '23_003_951700', '23_011_013000', '23_011_021000', '23_011_016000', '23_011_012000', '23_011_017000', '23_011_010801', '23_011_020000', '23_011_015500', '23_003_952400', '23_003_952500', '23_003_950200', '23_003_951300', '23_003_952100', '23_005_016001', '23_005_014001', '23_005_013001', '23_025_966400', '23_009_965200', '23_025_965800', '23_025_966500', '23_029_955100', '23_029_955500', '23_029_955800', '23_029_956100', '23_029_956500', '23_029_955700', '23_029_955600', '23_029_956300', '23_029_955300', '23_001_044000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_025_966300', '23_011_023002', '23_011_014002', '23_011_014001', '23_011_010601', '23_011_025001', '23_011_025002', '23_011_010804', '23_011_010803', '23_011_024202', '23_011_010602', '23_007_971000', '23_007_971300', '23_007_971100', '23_007_971400', '23_027_046002', '23_027_046001', '23_021_960301', '23_021_960302', '23_005_011500', '23_005_015000', '23_005_016500', '23_025_965302', '23_025_965301', '23_009_990000']</t>
-        </is>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>[0.9663043363306808, 0.7505667873082772, 0.9713212000512369, 0.9742808081011962, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.8966338060296479, 1.0000000000000002, 0.999999999999999, 0.9997928462628966, 1.0, 0.9814662501737864, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999863514315134, 0.9999473617774237, 0.9999999999999998, 0.9998674278533124, 0.9999551397770621, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999698062837823, 1.0000000000000049, 1.0, 0.9999999999999998, 0.9999933789351425, 0.9999015192595667, 0.9999999999999999, 7.793106370309182e-06, 0.9999874507966937, 0.9580126270432264, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 0.9999494775436094, 0.9998776979433256, 0.9537854673767906, 0.9999982455153932, 0.5466976552833144, 0.748651282128489, 0.7369470014825773, 0.24339072976529533, 0.8193807408788655, 0.933571216986734, 0.25436743245608184, 0.6874527023686692, 1.0000000000000004, 0.9999999999999984, 0.4403379262053426, 0.9998462973420816, 0.9999999999999998, 0.9999844466768819, 0.0003536797635059751, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.8239883676988308e-06, 1.6030596955131596e-06, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9998916885317355, 1.0000000000000018, 0.9999999999999977, 0.9997837462718513, 0.9999252432249954, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999422232978118, 0.9999999999999989, 1.0000000000000027, 1.0000000000000007, 1.0000000000000013, 3.197435675244247e-05, 1.4078938663692692e-06, 3.554523700937084e-06, 0.9999702038389309, 1.936421954469073e-06, 0.9999999999999978, 1.0000000000000013, 0.9362797956720695, 0.9862897210637414, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 0.9867195826263704, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.940391273598292, 0.9998860167270581, 0.9517669875262196, 0.7190546782663371, 0.7118296092781069, 0.6315290956512366, 0.9832293067374841, 0.6775838956437111, 0.9999902371417246, 0.9788752497224295, 0.9999595823388986, 0.9595587896946338, 0.7781288816718219, 0.527709586844627, 1.0, 0.9999999999999978, 0.999897367332977, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999999, 0.999976395973493, 0.9999046272921395, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.9856235302128006e-05, 1.0000000000000002, 1.0000000000000004, 0.9999792007719922, 0.99998595592735, 0.9999929032211285, 1.0, 0.9999842042505085, 0.9996092531062535, 0.9999582326413597, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 1.0000000000000004, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999998, 1.0000000000000007, 0.9999072073638232, 0.9995403495636942, 0.9999976012707188, 0.9999999999999986, 0.9999720663580904, 0.9998818278881358, 0.9998772783086501, 5.108519163014025e-05, 3.550275317742141e-05, 0.9999605103140785, 0.9996334613211372, 1.0, 0.9999990057691701, 1.000000000000001, 0.9999903972711457, 0.00010289574513866717, 1.1319258523951266e-05, 2.1497909970001796e-06, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999945128918512, 0.9112695117019104, 0.6458237214734136, 0.6697330400382036, 0.7707977349942895, 0.29523149278700483, 0.8036013508437112, 0.6141182314145707, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 1.7729043780334337e-05, 0.00015042456329505187, 7.238443916308097e-05, 0.058863853428445856, 0.9999927961619122, 0.9929985459246862, 0.9999046345578845, 0.00030500504881935807, 0.0001792602069238537, 6.626736435495618e-05, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999986, 0.9999442078354388, 0.9999999999999981, 1.0000000000000067, 2.028212656568091e-06, 5.51583658899966e-05, 2.6188035576468984e-05, 0.9999546091306126, 1.0000000000000004, 3.682874222910186e-05]</t>
+          <t>23_019_003000, 23_019_004100, 23_019_004300, 23_019_005000, 23_019_006100, 23_019_006300, 23_019_011000, 23_019_012000, 23_027_043000, 23_019_013000, 23_019_018000, 23_019_009000, 23_019_020500, 23_019_002000, 23_019_008001, 23_019_013500, 23_019_022500, 23_019_029000, 23_021_960800, 23_021_960700, 23_021_960600, 23_021_960400, 23_021_960500, 23_021_960900, 23_017_966800, 23_017_966600, 23_017_965800, 23_017_966900, 23_017_965100, 23_017_965600, 23_017_966100, 23_017_966300, 23_017_965500, 23_017_966700, 23_017_965400, 23_017_965700, 23_017_966402, 23_017_966002, 23_017_966401, 23_017_966001, 23_023_970200, 23_017_966500, 23_011_011000, 23_019_024500, 23_019_031000, 23_019_000400, 23_019_000500, 23_019_000600, 23_011_020500, 23_011_022000, 23_009_965300, 23_009_965100, 23_009_965800, 23_009_966300, 23_009_966400, 23_009_966600, 23_009_965700, 23_009_965400, 23_009_966200, 23_009_965900, 23_017_965900, 23_017_966200, 23_009_966100, 23_001_040000, 23_001_046000, 23_001_046500, 23_029_990000, 23_001_010100, 23_001_010300, 23_001_010400, 23_013_970302, 23_013_970301, 23_001_010500, 23_001_020100, 23_001_020200, 23_001_020500, 23_001_020600, 23_001_020900, 23_001_045000, 23_001_041000, 23_001_043000, 23_001_041500, 23_001_030200, 23_001_010600, 23_001_042000, 23_001_030100, 23_001_020700, 23_001_010700, 23_001_010200, 23_001_010800, 23_007_970101, 23_007_970601, 23_023_970301, 23_023_970100, 23_031_022500, 23_011_014500, 23_011_018000, 23_019_028500, 23_019_028000, 23_019_000300, 23_011_010900, 23_019_027000, 23_019_015500, 23_019_006200, 23_019_000700, 23_019_015000, 23_019_014000, 23_019_012500, 23_019_007100, 23_019_004200, 23_019_026500, 23_019_000900, 23_019_007200, 23_019_030000, 23_019_021500, 23_019_025500, 23_019_010000, 23_019_000200, 23_009_965504, 23_009_965503, 23_009_966700, 23_009_966000, 23_009_966500, 23_029_956200, 23_029_956400, 23_029_955400, 23_029_955900, 23_027_045000, 23_027_041000, 23_027_042000, 23_027_044000, 23_027_047000, 23_025_966100, 23_007_970102, 23_025_965700, 23_025_966702, 23_025_966601, 23_025_966602, 23_025_966701, 23_025_966802, 23_025_966801, 23_025_966900, 23_007_971202, 23_007_971201, 23_001_020303, 23_001_020301, 23_001_020802, 23_001_020801, 23_001_020402, 23_001_020302, 23_001_020401, 23_011_015000, 23_003_952700, 23_003_952600, 23_003_952900, 23_003_952300, 23_003_950400, 23_003_951400, 23_003_950700, 23_003_950600, 23_003_950100, 23_003_951800, 23_003_952000, 23_003_951900, 23_003_951200, 23_003_950300, 23_007_970602, 23_003_950900, 23_003_951000, 23_003_951100, 23_025_965900, 23_025_965600, 23_025_966200, 23_025_966000, 23_025_967000, 23_003_951600, 23_003_951700, 23_011_013000, 23_011_021000, 23_011_016000, 23_011_012000, 23_011_017000, 23_011_010801, 23_011_020000, 23_011_015500, 23_003_952400, 23_003_952500, 23_003_950200, 23_003_951300, 23_003_952100, 23_005_016001, 23_005_014001, 23_005_013001, 23_025_966400, 23_009_965200, 23_025_965800, 23_025_966500, 23_029_955100, 23_029_955500, 23_029_955800, 23_029_956100, 23_029_956500, 23_029_955700, 23_029_955600, 23_029_956300, 23_029_955300, 23_001_044000, 23_019_940000, 23_019_031300, 23_019_031100, 23_019_031200, 23_025_966300, 23_011_023002, 23_011_014002, 23_011_014001, 23_011_010601, 23_011_025001, 23_011_025002, 23_011_010804, 23_011_010803, 23_011_024202, 23_011_010602, 23_007_971000, 23_007_971300, 23_007_971100, 23_007_971400, 23_027_046002, 23_027_046001, 23_021_960301, 23_021_960302, 23_005_011500, 23_005_015000, 23_005_016500, 23_025_965302, 23_025_965301, 23_009_990000</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>0.9663043363306808, 0.7505667873082772, 0.9713212000512369, 0.9742808081011962, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.8966338060296479, 1.0000000000000002, 0.999999999999999, 0.9997928462628966, 1.0, 0.9814662501737864, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999863514315134, 0.9999473617774237, 0.9999999999999998, 0.9998674278533124, 0.9999551397770621, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999698062837823, 1.0000000000000049, 1.0, 0.9999999999999998, 0.9999933789351425, 0.9999015192595667, 0.9999999999999999, 7.793106370309182e-06, 0.9999874507966937, 0.9580126270432264, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 0.9999494775436094, 0.9998776979433256, 0.9537854673767906, 0.9999982455153932, 0.5466976552833144, 0.748651282128489, 0.7369470014825773, 0.24339072976529533, 0.8193807408788655, 0.933571216986734, 0.25436743245608184, 0.6874527023686692, 1.0000000000000004, 0.9999999999999984, 0.4403379262053426, 0.9998462973420816, 0.9999999999999998, 0.9999844466768819, 0.0003536797635059751, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.8239883676988308e-06, 1.6030596955131596e-06, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9998916885317355, 1.0000000000000018, 0.9999999999999977, 0.9997837462718513, 0.9999252432249954, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999422232978118, 0.9999999999999989, 1.0000000000000027, 1.0000000000000007, 1.0000000000000013, 3.197435675244247e-05, 1.4078938663692692e-06, 3.554523700937084e-06, 0.9999702038389309, 1.936421954469073e-06, 0.9999999999999978, 1.0000000000000013, 0.9362797956720695, 0.9862897210637414, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 0.9867195826263704, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.940391273598292, 0.9998860167270581, 0.9517669875262196, 0.7190546782663371, 0.7118296092781069, 0.6315290956512366, 0.9832293067374841, 0.6775838956437111, 0.9999902371417246, 0.9788752497224295, 0.9999595823388986, 0.9595587896946338, 0.7781288816718219, 0.527709586844627, 1.0, 0.9999999999999978, 0.999897367332977, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999999, 0.999976395973493, 0.9999046272921395, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.9856235302128006e-05, 1.0000000000000002, 1.0000000000000004, 0.9999792007719922, 0.99998595592735, 0.9999929032211285, 1.0, 0.9999842042505085, 0.9996092531062535, 0.9999582326413597, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 1.0000000000000004, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999998, 1.0000000000000007, 0.9999072073638232, 0.9995403495636942, 0.9999976012707188, 0.9999999999999986, 0.9999720663580904, 0.9998818278881358, 0.9998772783086501, 5.108519163014025e-05, 3.550275317742141e-05, 0.9999605103140785, 0.9996334613211372, 1.0, 0.9999990057691701, 1.000000000000001, 0.9999903972711457, 0.00010289574513866717, 1.1319258523951266e-05, 2.1497909970001796e-06, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999945128918512, 0.9112695117019104, 0.6458237214734136, 0.6697330400382036, 0.7707977349942895, 0.29523149278700483, 0.8036013508437112, 0.6141182314145707, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 1.7729043780334337e-05, 0.00015042456329505187, 7.238443916308097e-05, 0.058863853428445856, 0.9999927961619122, 0.9929985459246862, 0.9999046345578845, 0.00030500504881935807, 0.0001792602069238537, 6.626736435495618e-05, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999986, 0.9999442078354388, 0.9999999999999981, 1.0000000000000067, 2.028212656568091e-06, 5.51583658899966e-05, 2.6188035576468984e-05, 0.9999546091306126, 1.0000000000000004, 3.682874222910186e-05</t>
         </is>
       </c>
     </row>
@@ -14246,18 +12466,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>maine_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>['23_003_952900', '23_003_950900', '23_003_952100', '23_003_952300', '23_003_951200', '23_003_951300', '23_003_951400', '23_003_951100', '23_003_950100', '23_003_952700', '23_003_950700', '23_003_951700', '23_003_950600', '23_003_950400', '23_003_950200', '23_003_952600', '23_003_952400', '23_003_952500', '23_003_951600', '23_003_950300', '23_003_951000', '23_003_951800', '23_003_951900', '23_003_952000', '23_029_956300', '23_029_956400', '23_029_955300', '23_029_955400', '23_029_955900', '23_029_955500', '23_029_956500', '23_029_955100', '23_029_955800', '23_029_956100', '23_029_955700', '23_029_956200', '23_029_955600', '23_029_990000', '23_009_965100', '23_009_965900', '23_009_966300', '23_009_966500', '23_009_965300', '23_009_966400', '23_009_966100', '23_009_965200', '23_009_966600', '23_019_021500', '23_019_000200', '23_019_000300', '23_019_000400', '23_019_000500', '23_019_000600', '23_019_000700', '23_019_000900', '23_019_020500', '23_019_008001', '23_019_004100', '23_019_004200', '23_019_004300', '23_019_027000', '23_019_011000', '23_019_025500', '23_019_026500', '23_019_009000', '23_019_014000', '23_019_015000', '23_019_012500', '23_019_031000', '23_019_028000', '23_019_013500', '23_019_015500', '23_019_022500', '23_019_002000', '23_019_010000', '23_019_012000', '23_019_028500', '23_019_024500', '23_019_018000', '23_019_029000', '23_019_030000', '23_019_013000', '23_019_007100', '23_019_007200', '23_019_006200', '23_019_006100', '23_019_006300', '23_019_003000', '23_019_005000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965800', '23_009_966000', '23_009_965504', '23_009_965503', '23_009_990000', '23_009_966700', '23_027_046001', '23_027_046002', '23_027_041000', '23_027_044000', '23_027_047000', '23_027_045000', '23_027_043000', '23_027_042000', '23_031_022500', '23_007_970601', '23_007_970101', '23_007_970602', '23_007_970102', '23_007_971200', '23_007_971400', '23_007_971300', '23_007_971000', '23_007_971100', '23_025_965301', '23_025_965302', '23_025_966700', '23_025_966600', '23_025_966000', '23_025_966900', '23_025_967000', '23_025_966500', '23_025_965900', '23_025_966800', '23_025_965800', '23_025_966300', '23_025_966100', '23_025_965700', '23_025_966200', '23_025_965600', '23_025_966400', '23_017_966100', '23_017_966900', '23_017_966200', '23_017_966300', '23_017_966500', '23_017_965600', '23_017_966400', '23_017_965800', '23_017_965900', '23_017_966600', '23_017_965500', '23_017_966800', '23_017_966000', '23_017_965700', '23_017_965100', '23_017_966700', '23_017_965400', '23_011_018000', '23_011_017000', '23_011_025000', '23_011_015500', '23_011_013000', '23_011_014000', '23_011_012000', '23_011_011000', '23_011_015000', '23_011_014500', '23_011_010900', '23_011_021000', '23_011_020000', '23_011_010600', '23_011_022000', '23_011_016000', '23_011_023002', '23_011_010801', '23_011_020500', '23_023_970301', '23_023_970100', '23_023_970200', '23_021_960302', '23_021_960301', '23_021_960600', '23_021_960700', '23_021_960900', '23_021_960400', '23_021_960800', '23_021_960500', '23_013_970300', '23_001_042000', '23_001_043000', '23_001_020500', '23_001_040000', '23_001_044000', '23_001_041500', '23_001_020800', '23_001_020700', '23_001_041000', '23_001_020300', '23_001_020400', '23_001_046000', '23_001_020600', '23_001_045000', '23_001_030100', '23_001_020200', '23_001_020900', '23_001_010800', '23_001_010100', '23_001_010400', '23_001_010200', '23_001_010700', '23_001_010500', '23_001_030200', '23_001_010600', '23_001_010300', '23_001_046500', '23_001_020100', '23_005_011500', '23_005_014000', '23_005_013000', '23_005_016500', '23_005_016000', '23_005_015000', '23_011_010802', '23_011_024200']</t>
-        </is>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>[0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334]</t>
+          <t>23_003_952900, 23_003_950900, 23_003_952100, 23_003_952300, 23_003_951200, 23_003_951300, 23_003_951400, 23_003_951100, 23_003_950100, 23_003_952700, 23_003_950700, 23_003_951700, 23_003_950600, 23_003_950400, 23_003_950200, 23_003_952600, 23_003_952400, 23_003_952500, 23_003_951600, 23_003_950300, 23_003_951000, 23_003_951800, 23_003_951900, 23_003_952000, 23_029_956300, 23_029_956400, 23_029_955300, 23_029_955400, 23_029_955900, 23_029_955500, 23_029_956500, 23_029_955100, 23_029_955800, 23_029_956100, 23_029_955700, 23_029_956200, 23_029_955600, 23_029_990000, 23_009_965100, 23_009_965900, 23_009_966300, 23_009_966500, 23_009_965300, 23_009_966400, 23_009_966100, 23_009_965200, 23_009_966600, 23_019_021500, 23_019_000200, 23_019_000300, 23_019_000400, 23_019_000500, 23_019_000600, 23_019_000700, 23_019_000900, 23_019_020500, 23_019_008001, 23_019_004100, 23_019_004200, 23_019_004300, 23_019_027000, 23_019_011000, 23_019_025500, 23_019_026500, 23_019_009000, 23_019_014000, 23_019_015000, 23_019_012500, 23_019_031000, 23_019_028000, 23_019_013500, 23_019_015500, 23_019_022500, 23_019_002000, 23_019_010000, 23_019_012000, 23_019_028500, 23_019_024500, 23_019_018000, 23_019_029000, 23_019_030000, 23_019_013000, 23_019_007100, 23_019_007200, 23_019_006200, 23_019_006100, 23_019_006300, 23_019_003000, 23_019_005000, 23_019_940000, 23_019_031300, 23_019_031100, 23_019_031200, 23_009_965700, 23_009_965400, 23_009_966200, 23_009_965800, 23_009_966000, 23_009_965504, 23_009_965503, 23_009_990000, 23_009_966700, 23_027_046001, 23_027_046002, 23_027_041000, 23_027_044000, 23_027_047000, 23_027_045000, 23_027_043000, 23_027_042000, 23_031_022500, 23_007_970601, 23_007_970101, 23_007_970602, 23_007_970102, 23_007_971200, 23_007_971400, 23_007_971300, 23_007_971000, 23_007_971100, 23_025_965301, 23_025_965302, 23_025_966700, 23_025_966600, 23_025_966000, 23_025_966900, 23_025_967000, 23_025_966500, 23_025_965900, 23_025_966800, 23_025_965800, 23_025_966300, 23_025_966100, 23_025_965700, 23_025_966200, 23_025_965600, 23_025_966400, 23_017_966100, 23_017_966900, 23_017_966200, 23_017_966300, 23_017_966500, 23_017_965600, 23_017_966400, 23_017_965800, 23_017_965900, 23_017_966600, 23_017_965500, 23_017_966800, 23_017_966000, 23_017_965700, 23_017_965100, 23_017_966700, 23_017_965400, 23_011_018000, 23_011_017000, 23_011_025000, 23_011_015500, 23_011_013000, 23_011_014000, 23_011_012000, 23_011_011000, 23_011_015000, 23_011_014500, 23_011_010900, 23_011_021000, 23_011_020000, 23_011_010600, 23_011_022000, 23_011_016000, 23_011_023002, 23_011_010801, 23_011_020500, 23_023_970301, 23_023_970100, 23_023_970200, 23_021_960302, 23_021_960301, 23_021_960600, 23_021_960700, 23_021_960900, 23_021_960400, 23_021_960800, 23_021_960500, 23_013_970300, 23_001_042000, 23_001_043000, 23_001_020500, 23_001_040000, 23_001_044000, 23_001_041500, 23_001_020800, 23_001_020700, 23_001_041000, 23_001_020300, 23_001_020400, 23_001_046000, 23_001_020600, 23_001_045000, 23_001_030100, 23_001_020200, 23_001_020900, 23_001_010800, 23_001_010100, 23_001_010400, 23_001_010200, 23_001_010700, 23_001_010500, 23_001_030200, 23_001_010600, 23_001_010300, 23_001_046500, 23_001_020100, 23_005_011500, 23_005_014000, 23_005_013000, 23_005_016500, 23_005_016000, 23_005_015000, 23_011_010802, 23_011_024200</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334</t>
         </is>
       </c>
     </row>
@@ -14296,18 +12510,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>['23_005_011300', '23_019_003000', '23_019_004100', '23_019_004300', '23_019_005000', '23_019_006100', '23_019_006300', '23_019_011000', '23_019_012000', '23_027_043000', '23_019_013000', '23_019_018000', '23_019_009000', '23_019_020500', '23_019_002000', '23_019_008001', '23_019_013500', '23_019_022500', '23_019_029000', '23_021_960800', '23_021_960700', '23_021_960600', '23_021_960400', '23_021_960500', '23_021_960900', '23_017_966800', '23_017_966600', '23_017_965800', '23_017_966900', '23_017_965100', '23_017_965600', '23_017_966100', '23_017_966300', '23_017_965500', '23_017_966700', '23_017_965400', '23_017_965700', '23_017_966402', '23_017_966002', '23_017_966401', '23_017_966001', '23_023_970200', '23_017_966500', '23_011_011000', '23_011_023001', '23_011_024101', '23_013_970200', '23_019_024500', '23_019_031000', '23_019_000400', '23_019_000500', '23_019_000600', '23_011_019000', '23_011_020500', '23_011_022000', '23_009_965300', '23_009_965100', '23_009_965800', '23_009_966300', '23_009_966400', '23_009_966600', '23_009_965700', '23_009_965400', '23_009_966200', '23_009_965900', '23_017_965900', '23_017_966200', '23_009_966100', '23_001_040000', '23_001_046000', '23_001_046500', '23_029_990000', '23_001_010100', '23_001_010300', '23_001_010400', '23_013_970302', '23_013_970301', '23_001_010500', '23_001_020100', '23_001_020200', '23_001_020500', '23_001_020600', '23_001_020900', '23_001_045000', '23_001_041000', '23_001_043000', '23_001_041500', '23_001_030200', '23_001_010600', '23_001_042000', '23_001_030100', '23_001_020700', '23_001_010700', '23_001_010200', '23_001_010800', '23_005_004501', '23_007_970101', '23_007_970601', '23_023_970301', '23_023_970100', '23_031_022500', '23_011_024102', '23_011_014500', '23_011_018000', '23_019_028500', '23_019_028000', '23_019_000300', '23_011_010900', '23_019_027000', '23_019_015500', '23_019_006200', '23_019_000700', '23_019_015000', '23_019_014000', '23_019_012500', '23_019_007100', '23_019_004200', '23_019_026500', '23_019_000900', '23_019_007200', '23_019_030000', '23_019_021500', '23_019_025500', '23_019_010000', '23_019_000200', '23_009_965504', '23_009_965503', '23_009_966700', '23_013_971100', '23_009_966000', '23_009_966500', '23_029_956200', '23_029_956400', '23_029_955400', '23_029_955900', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966100', '23_007_970102', '23_025_965700', '23_025_966702', '23_025_966601', '23_025_966602', '23_025_966701', '23_025_966802', '23_025_966801', '23_025_966900', '23_007_971202', '23_007_971201', '23_001_020303', '23_001_020301', '23_001_020802', '23_001_020801', '23_001_020402', '23_001_020302', '23_001_020401', '23_011_015000', '23_003_952700', '23_003_952600', '23_003_952900', '23_003_952300', '23_003_950400', '23_003_951400', '23_003_950700', '23_003_950600', '23_003_950100', '23_003_951800', '23_003_952000', '23_003_951900', '23_003_951200', '23_003_950300', '23_007_970602', '23_003_950900', '23_003_951000', '23_003_951100', '23_025_965900', '23_025_965600', '23_025_966200', '23_025_966000', '23_025_967000', '23_003_951600', '23_003_951700', '23_011_010300', '23_011_013000', '23_011_021000', '23_011_016000', '23_011_010200', '23_011_012000', '23_011_010500', '23_011_017000', '23_011_010801', '23_011_010100', '23_011_020000', '23_011_015500', '23_011_010700', '23_003_952400', '23_003_952500', '23_003_950200', '23_003_951300', '23_003_952100', '23_005_016002', '23_005_016001', '23_005_012001', '23_005_014001', '23_005_013001', '23_025_966400', '23_009_965200', '23_025_965800', '23_025_966500', '23_029_955100', '23_029_955500', '23_029_955800', '23_029_956100', '23_029_956500', '23_029_955700', '23_029_955600', '23_029_956300', '23_029_955300', '23_001_044000', '23_019_940000', '23_019_031300', '23_019_031100', '23_019_031200', '23_025_966300', '23_011_023002', '23_011_014002', '23_011_014001', '23_011_010601', '23_011_025001', '23_011_025002', '23_011_010804', '23_011_010803', '23_011_024202', '23_011_010602', '23_007_971000', '23_007_971300', '23_007_971100', '23_007_971400', '23_027_046002', '23_027_046001', '23_021_960301', '23_021_960302', '23_013_990000', '23_005_011500', '23_005_015000', '23_005_016500', '23_011_010400', '23_025_965302', '23_025_965301', '23_015_975100', '23_009_990000']</t>
-        </is>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>[0.0, 0.9999999999999979, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.9999999999999997, 1.0000000000000002, 0.999999999999999, 1.0000000000000016, 1.0, 0.9999999999999996, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999999999999859, 0.9999999999999805, 0.9999999999999998, 0.9999999999999385, 0.9999999999999982, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999999999999862, 1.0000000000000049, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999698, 0.9999999999999999, 6.986550796260793e-08, 0.9999999999999989, 0.9999999999999057, 0.0, 2.3682750738558972e-14, 6.5149369379307136e-15, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 3.5032408379114745e-15, 4.708837146703246e-14, 6.476372311317856e-16, 0.9999999999999991, 1.000000000000003, 1.0, 1.0000000000000004, 1.000000000000001, 0.9999999999999848, 1.0000000000000016, 1.000000000000001, 0.9999999999999997, 0.9999999999999994, 1.0000000000000004, 0.9999999999999984, 0.9999999999999999, 0.9999999999999352, 0.9999999999999998, 0.9999999999999677, 0.9999999999999456, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 4.733890918853177e-15, 1.2833968757635731e-14, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9999999999999707, 1.0000000000000018, 0.9999999999999977, 0.9999999999998529, 0.999999999999992, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999999999999898, 0.9999999999999989, 1.0000000000000027, 7.718452531328538e-15, 1.0000000000000007, 1.0000000000000013, 7.813816734827614e-15, 3.841802682698125e-15, 3.559230499005212e-15, 0.0, 1.0000000000000016, 1.2543960329895892e-14, 0.9999999999999978, 1.0000000000000013, 1.0000000000000009, 0.999999999999953, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 1.0, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.9999999999999988, 1.0000000000000004, 1.000000000000001, 0.9999999999999987, 1.9918692883156888e-16, 0.9999999999999993, 0.9999999999999982, 1.0000000000000018, 0.9999999999999999, 0.9999999999999669, 1.0000000000000027, 0.9999999999999883, 0.9999999999999999, 1.0000000000000004, 0.9999999999999929, 1.0, 0.9999999999999836, 0.9999999999999973, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999915, 0.9999999999999869, 0.9999999999998983, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 0.9999999999999919, 0.999999999999997, 0.9999999999999958, 1.0, 0.9999999999999957, 0.999999999999999, 1.000000000000001, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 0.9999999999999952, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999959, 1.0000000000000007, 0.9999999999999885, 0.9999999999999751, 1.0000000000000004, 0.9999999999999638, 3.067981643821837e-14, 1.0000000000000016, 0.9999999999999993, 4.496744806460998e-15, 0.9999999999999811, 0.9999999999999575, 0.999999999999993, 0.9999999999999746, 2.8405876691725625e-14, 0.9999999999999978, 1.0000000000000002, 0.999999999999968, 1.0, 0.9999999999999819, 1.000000000000001, 0.9999999999999809, 4.209596544835508e-16, 2.2234568146072795e-14, 5.346000322144643e-15, 2.3394757908147327e-14, 1.358241184757557e-14, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999999999999928, 0.9999999999999843, 0.999999999999998, 1.0000000000000013, 0.9999999999999989, 0.9999999999998983, 0.9999999999999648, 1.0000000000000029, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 0.0, 0.9999999999999957, 1.0000000000000018, 0.0626129824716832, 0.9999999999999971, 0.9999999999997929, 4.603027704102831e-14, 0.9999999999998938, 3.4705500367340843e-14, 0.9999999999999774, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999915, 0.9999999999999852, 0.9999999999999981, 1.0000000000000067, 2.3118531826965038e-15, 1.556899117489692e-14, 5.1266680654109904e-14, 6.7609728920660174e-15, 0.9999999999999998, 1.0000000000000022, 1.0000000000000004, 7.522545041801663e-16, 0.9999999999999546]</t>
+          <t>23_005_011300, 23_019_003000, 23_019_004100, 23_019_004300, 23_019_005000, 23_019_006100, 23_019_006300, 23_019_011000, 23_019_012000, 23_027_043000, 23_019_013000, 23_019_018000, 23_019_009000, 23_019_020500, 23_019_002000, 23_019_008001, 23_019_013500, 23_019_022500, 23_019_029000, 23_021_960800, 23_021_960700, 23_021_960600, 23_021_960400, 23_021_960500, 23_021_960900, 23_017_966800, 23_017_966600, 23_017_965800, 23_017_966900, 23_017_965100, 23_017_965600, 23_017_966100, 23_017_966300, 23_017_965500, 23_017_966700, 23_017_965400, 23_017_965700, 23_017_966402, 23_017_966002, 23_017_966401, 23_017_966001, 23_023_970200, 23_017_966500, 23_011_011000, 23_011_023001, 23_011_024101, 23_013_970200, 23_019_024500, 23_019_031000, 23_019_000400, 23_019_000500, 23_019_000600, 23_011_019000, 23_011_020500, 23_011_022000, 23_009_965300, 23_009_965100, 23_009_965800, 23_009_966300, 23_009_966400, 23_009_966600, 23_009_965700, 23_009_965400, 23_009_966200, 23_009_965900, 23_017_965900, 23_017_966200, 23_009_966100, 23_001_040000, 23_001_046000, 23_001_046500, 23_029_990000, 23_001_010100, 23_001_010300, 23_001_010400, 23_013_970302, 23_013_970301, 23_001_010500, 23_001_020100, 23_001_020200, 23_001_020500, 23_001_020600, 23_001_020900, 23_001_045000, 23_001_041000, 23_001_043000, 23_001_041500, 23_001_030200, 23_001_010600, 23_001_042000, 23_001_030100, 23_001_020700, 23_001_010700, 23_001_010200, 23_001_010800, 23_005_004501, 23_007_970101, 23_007_970601, 23_023_970301, 23_023_970100, 23_031_022500, 23_011_024102, 23_011_014500, 23_011_018000, 23_019_028500, 23_019_028000, 23_019_000300, 23_011_010900, 23_019_027000, 23_019_015500, 23_019_006200, 23_019_000700, 23_019_015000, 23_019_014000, 23_019_012500, 23_019_007100, 23_019_004200, 23_019_026500, 23_019_000900, 23_019_007200, 23_019_030000, 23_019_021500, 23_019_025500, 23_019_010000, 23_019_000200, 23_009_965504, 23_009_965503, 23_009_966700, 23_013_971100, 23_009_966000, 23_009_966500, 23_029_956200, 23_029_956400, 23_029_955400, 23_029_955900, 23_027_045000, 23_027_041000, 23_027_042000, 23_027_044000, 23_027_047000, 23_025_966100, 23_007_970102, 23_025_965700, 23_025_966702, 23_025_966601, 23_025_966602, 23_025_966701, 23_025_966802, 23_025_966801, 23_025_966900, 23_007_971202, 23_007_971201, 23_001_020303, 23_001_020301, 23_001_020802, 23_001_020801, 23_001_020402, 23_001_020302, 23_001_020401, 23_011_015000, 23_003_952700, 23_003_952600, 23_003_952900, 23_003_952300, 23_003_950400, 23_003_951400, 23_003_950700, 23_003_950600, 23_003_950100, 23_003_951800, 23_003_952000, 23_003_951900, 23_003_951200, 23_003_950300, 23_007_970602, 23_003_950900, 23_003_951000, 23_003_951100, 23_025_965900, 23_025_965600, 23_025_966200, 23_025_966000, 23_025_967000, 23_003_951600, 23_003_951700, 23_011_010300, 23_011_013000, 23_011_021000, 23_011_016000, 23_011_010200, 23_011_012000, 23_011_010500, 23_011_017000, 23_011_010801, 23_011_010100, 23_011_020000, 23_011_015500, 23_011_010700, 23_003_952400, 23_003_952500, 23_003_950200, 23_003_951300, 23_003_952100, 23_005_016002, 23_005_016001, 23_005_012001, 23_005_014001, 23_005_013001, 23_025_966400, 23_009_965200, 23_025_965800, 23_025_966500, 23_029_955100, 23_029_955500, 23_029_955800, 23_029_956100, 23_029_956500, 23_029_955700, 23_029_955600, 23_029_956300, 23_029_955300, 23_001_044000, 23_019_940000, 23_019_031300, 23_019_031100, 23_019_031200, 23_025_966300, 23_011_023002, 23_011_014002, 23_011_014001, 23_011_010601, 23_011_025001, 23_011_025002, 23_011_010804, 23_011_010803, 23_011_024202, 23_011_010602, 23_007_971000, 23_007_971300, 23_007_971100, 23_007_971400, 23_027_046002, 23_027_046001, 23_021_960301, 23_021_960302, 23_013_990000, 23_005_011500, 23_005_015000, 23_005_016500, 23_011_010400, 23_025_965302, 23_025_965301, 23_015_975100, 23_009_990000</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>0.0, 0.9999999999999979, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.9999999999999997, 1.0000000000000002, 0.999999999999999, 1.0000000000000016, 1.0, 0.9999999999999996, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999999999999859, 0.9999999999999805, 0.9999999999999998, 0.9999999999999385, 0.9999999999999982, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999999999999862, 1.0000000000000049, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999698, 0.9999999999999999, 6.986550796260793e-08, 0.9999999999999989, 0.9999999999999057, 0.0, 2.3682750738558972e-14, 6.5149369379307136e-15, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 3.5032408379114745e-15, 4.708837146703246e-14, 6.476372311317856e-16, 0.9999999999999991, 1.000000000000003, 1.0, 1.0000000000000004, 1.000000000000001, 0.9999999999999848, 1.0000000000000016, 1.000000000000001, 0.9999999999999997, 0.9999999999999994, 1.0000000000000004, 0.9999999999999984, 0.9999999999999999, 0.9999999999999352, 0.9999999999999998, 0.9999999999999677, 0.9999999999999456, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 4.733890918853177e-15, 1.2833968757635731e-14, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9999999999999707, 1.0000000000000018, 0.9999999999999977, 0.9999999999998529, 0.999999999999992, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999999999999898, 0.9999999999999989, 1.0000000000000027, 7.718452531328538e-15, 1.0000000000000007, 1.0000000000000013, 7.813816734827614e-15, 3.841802682698125e-15, 3.559230499005212e-15, 0.0, 1.0000000000000016, 1.2543960329895892e-14, 0.9999999999999978, 1.0000000000000013, 1.0000000000000009, 0.999999999999953, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 1.0, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.9999999999999988, 1.0000000000000004, 1.000000000000001, 0.9999999999999987, 1.9918692883156888e-16, 0.9999999999999993, 0.9999999999999982, 1.0000000000000018, 0.9999999999999999, 0.9999999999999669, 1.0000000000000027, 0.9999999999999883, 0.9999999999999999, 1.0000000000000004, 0.9999999999999929, 1.0, 0.9999999999999836, 0.9999999999999973, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999915, 0.9999999999999869, 0.9999999999998983, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 0.9999999999999919, 0.999999999999997, 0.9999999999999958, 1.0, 0.9999999999999957, 0.999999999999999, 1.000000000000001, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 0.9999999999999952, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999959, 1.0000000000000007, 0.9999999999999885, 0.9999999999999751, 1.0000000000000004, 0.9999999999999638, 3.067981643821837e-14, 1.0000000000000016, 0.9999999999999993, 4.496744806460998e-15, 0.9999999999999811, 0.9999999999999575, 0.999999999999993, 0.9999999999999746, 2.8405876691725625e-14, 0.9999999999999978, 1.0000000000000002, 0.999999999999968, 1.0, 0.9999999999999819, 1.000000000000001, 0.9999999999999809, 4.209596544835508e-16, 2.2234568146072795e-14, 5.346000322144643e-15, 2.3394757908147327e-14, 1.358241184757557e-14, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999999999999928, 0.9999999999999843, 0.999999999999998, 1.0000000000000013, 0.9999999999999989, 0.9999999999998983, 0.9999999999999648, 1.0000000000000029, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 0.0, 0.9999999999999957, 1.0000000000000018, 0.0626129824716832, 0.9999999999999971, 0.9999999999997929, 4.603027704102831e-14, 0.9999999999998938, 3.4705500367340843e-14, 0.9999999999999774, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999915, 0.9999999999999852, 0.9999999999999981, 1.0000000000000067, 2.3118531826965038e-15, 1.556899117489692e-14, 5.1266680654109904e-14, 6.7609728920660174e-15, 0.9999999999999998, 1.0000000000000022, 1.0000000000000004, 7.522545041801663e-16, 0.9999999999999546</t>
         </is>
       </c>
     </row>
@@ -14344,8 +12552,6 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -14380,8 +12586,6 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -14416,8 +12620,6 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -14456,22 +12658,8 @@
           <t>pierce_county_council_2002.csv</t>
         </is>
       </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>washington_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14512,18 +12700,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>[432501, 430400, 433104, 410000, 432700, 433000, 432600, 432100, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>[0.005544905161868597, 0.0013039090472615562, 0.8634348033974911, 0.0038228392297908784, 0.9913519286340088, 0.01662298576586445, 0.7924231146357251, 0.0045114765142064885, 0.014334773237405268, 0.43043568759516365]</t>
+          <t>06_001_410000, 06_001_433104, 06_001_430400, 06_001_432800, 06_001_433103, 06_001_432501, 06_001_433000, 06_001_432700, 06_001_432600, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
     </row>
@@ -14566,18 +12748,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>[410400, 410200, 410000, 432700, 409200, 410100, 432502, 432600, 432100, 409300, 432300, 432200]</t>
-        </is>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>[0.0003256444881375276, 4.247353688978054e-05, 0.00018104671855711155, 0.005980203591215113, 0.005405397052643691, 5.084661999645565e-05, 0.015687113405229006, 0.202268825783068, 0.9860520862169958, 0.004714458696468333, 0.9986394042041989, 0.9993528785267684]</t>
+          <t>06_001_432200, 06_001_410000, 06_001_410400, 06_001_410200, 06_001_410100, 06_001_432502, 06_001_409200, 06_001_432700, 06_001_432600, 06_001_432300, 06_001_409300, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
     </row>
@@ -14620,18 +12796,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>[432501, 430400, 433104, 410000, 432700, 433000, 432600, 432100, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>[0.005544905161868597, 0.0013039090472615562, 0.8634348033974911, 0.0038228392297908784, 0.9913519286340088, 0.01662298576586445, 0.7924231146357251, 0.0045114765142064885, 0.014334773237405268, 0.43043568759516365]</t>
+          <t>06_001_410000, 06_001_433104, 06_001_430400, 06_001_432800, 06_001_433103, 06_001_432501, 06_001_433000, 06_001_432700, 06_001_432600, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
     </row>
@@ -14674,18 +12844,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>[433400, 432501, 433104, 432400, 433200, 432502, 433102, 432600, 433300, 433103]</t>
-        </is>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>[0.1405611517171908, 0.637280465424566, 0.015156188966695442, 0.1171419528314025, 0.8255667321425231, 0.0016587129129447653, 0.01293025688345191, 0.00530805958106821, 0.9013211058884908, 0.0114472797456758]</t>
+          <t>06_001_433400, 06_001_433200, 06_001_433104, 06_001_433103, 06_001_432502, 06_001_432501, 06_001_433300, 06_001_433102, 06_001_432600, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>0.10904871380141931, 0.8241916863443685, 0.015511211814849404, 0.011580707686451992, 0.0029253464453381155, 0.6348227812712134, 0.8980882159143337, 0.01306144917213371, 0.005530939353932098, 0.10797729699763957</t>
         </is>
       </c>
     </row>
@@ -14728,18 +12892,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>[410400, 410200, 410000, 432700, 409200, 410100, 432502, 432600, 432100, 409300, 432300, 432200]</t>
-        </is>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>[0.0003256444881375276, 4.247353688978054e-05, 0.00018104671855711155, 0.005980203591215113, 0.005405397052643691, 5.084661999645565e-05, 0.015687113405229006, 0.202268825783068, 0.9860520862169958, 0.004714458696468333, 0.9986394042041989, 0.9993528785267684]</t>
+          <t>06_001_432200, 06_001_410000, 06_001_410400, 06_001_410200, 06_001_410100, 06_001_432502, 06_001_409200, 06_001_432700, 06_001_432600, 06_001_432300, 06_001_409300, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
     </row>
@@ -14782,18 +12940,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>[433700, 433800, 433104, 433200, 432700, 433000, 433102, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>[0.005588870087866759, 0.10596707456802083, 0.12140900763565411, 0.16660758444912868, 0.002664375324994108, 0.9760944751073387, 0.9833414829392908, 0.97421794701705, 0.00011859214779143585]</t>
+          <t>06_001_433800, 06_001_433200, 06_001_433700, 06_001_433104, 06_001_432800, 06_001_433103, 06_001_433000, 06_001_432700, 06_001_433102</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>0.10418773207773581, 0.16713590061875666, 0.00420936050936455, 0.11472506429058199, 6.52186811334703e-05, 0.9866671973437536, 0.9756273536634036, 0.006111804431154338, 0.9831541207108767</t>
         </is>
       </c>
     </row>
@@ -14836,18 +12988,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>[433400, 435900, 433700, 435800, 433500, 433200, 433300, 433600]</t>
-        </is>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>[0.591937771045043, 0.007986121857065301, 0.0002020379028304976, 0.007574522252646808, 0.9979108934720566, 0.006891739616530451, 0.0986788941114862, 0.9923762576585452]</t>
+          <t>06_001_433500, 06_001_435900, 06_001_433400, 06_001_433200, 06_001_433700, 06_001_435800, 06_001_433300, 06_001_433600</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>0.9982930687730528, 0.0017496448715522382, 0.4668515499120042, 0.007733394077361819, 0.00017202025946795794, 0.0031520715190233137, 0.10191178408566515, 0.9887174329920856</t>
         </is>
       </c>
     </row>
@@ -14890,18 +13036,12 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>[433400, 432501, 432400, 409200, 432502, 409000]</t>
-        </is>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>[0.24889332920922216, 0.3571746294136652, 0.8426957848286628, 0.012939785818287817, 0.9756086763423168, 0.001022795767493851]</t>
+          <t>06_001_433400, 06_001_409000, 06_001_432502, 06_001_432501, 06_001_409200, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>0.19753415510080718, 0.0027385031079892887, 0.9814315759237271, 0.3597614793264385, 0.014204771302103309, 0.7808972989047726</t>
         </is>
       </c>
     </row>
@@ -14944,18 +13084,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>[432501, 430400, 433104, 410000, 432700, 433000, 432600, 432100, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>[0.005544905161868597, 0.0013039090472615562, 0.8634348033974911, 0.0038228392297908784, 0.9913519286340088, 0.01662298576586445, 0.7924231146357251, 0.0045114765142064885, 0.014334773237405268, 0.43043568759516365]</t>
+          <t>06_001_410000, 06_001_433104, 06_001_430400, 06_001_432800, 06_001_433103, 06_001_432501, 06_001_433000, 06_001_432700, 06_001_432600, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
     </row>
@@ -14998,18 +13132,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>[433400, 432501, 433104, 432400, 433200, 432502, 433102, 432600, 433300, 433103]</t>
-        </is>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>[0.1405611517171908, 0.637280465424566, 0.015156188966695442, 0.1171419528314025, 0.8255667321425231, 0.0016587129129447653, 0.01293025688345191, 0.00530805958106821, 0.9013211058884908, 0.0114472797456758]</t>
+          <t>06_001_433400, 06_001_433200, 06_001_433104, 06_001_433103, 06_001_432502, 06_001_432501, 06_001_433300, 06_001_433102, 06_001_432600, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>0.10904871380141931, 0.8241916863443685, 0.015511211814849404, 0.011580707686451992, 0.0029253464453381155, 0.6348227812712134, 0.8980882159143337, 0.01306144917213371, 0.005530939353932098, 0.10797729699763957</t>
         </is>
       </c>
     </row>
@@ -15052,18 +13180,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>[410400, 410200, 410000, 432700, 409200, 410100, 432502, 432600, 432100, 409300, 432300, 432200]</t>
-        </is>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>[0.0003256444881375276, 4.247353688978054e-05, 0.00018104671855711155, 0.005980203591215113, 0.005405397052643691, 5.084661999645565e-05, 0.015687113405229006, 0.202268825783068, 0.9860520862169958, 0.004714458696468333, 0.9986394042041989, 0.9993528785267684]</t>
+          <t>06_001_432200, 06_001_410000, 06_001_410400, 06_001_410200, 06_001_410100, 06_001_432502, 06_001_409200, 06_001_432700, 06_001_432600, 06_001_432300, 06_001_409300, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
     </row>
@@ -15106,18 +13228,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>san leandro_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>[433700, 433800, 433104, 433200, 432700, 433000, 433102, 433103, 432800]</t>
-        </is>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>[0.005588870087866759, 0.10596707456802083, 0.12140900763565411, 0.16660758444912868, 0.002664375324994108, 0.9760944751073387, 0.9833414829392908, 0.97421794701705, 0.00011859214779143585]</t>
+          <t>06_001_433800, 06_001_433200, 06_001_433700, 06_001_433104, 06_001_432800, 06_001_433103, 06_001_433000, 06_001_432700, 06_001_433102</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>0.10418773207773581, 0.16713590061875666, 0.00420936050936455, 0.11472506429058199, 6.52186811334703e-05, 0.9866671973437536, 0.9756273536634036, 0.006111804431154338, 0.9831541207108767</t>
         </is>
       </c>
     </row>
@@ -15156,18 +13272,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>['02_130_000400', '02_130_000102', '02_130_000101', '02_275_000300', '02_195_000200', '02_130_000200', '02_130_000300', '02_198_000300', '02_198_940100', '02_198_000100']</t>
-        </is>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>[0.9999999999999997, 0.9999999931285483, 1.0000000000000044, 0.9999992921568132, 3.696719279810121e-10, 1.0000000000000007, 1.0000000000000007, 0.9999967358406063, 1.0000000000000002, 0.0166736680005695]</t>
+          <t>02_130_000400, 02_130_000102, 02_130_000101, 02_275_000300, 02_195_000200, 02_130_000200, 02_130_000300, 02_198_000300, 02_198_940100, 02_198_000100</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>0.9999999999999997, 0.9999999931285483, 1.0000000000000044, 0.9999992921568132, 3.696719279810121e-10, 1.0000000000000007, 1.0000000000000007, 0.9999967358406063, 1.0000000000000002, 0.0166736680005695</t>
         </is>
       </c>
     </row>
@@ -15206,18 +13316,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>['02_020_002811', '02_020_002712', '02_020_002711', '02_020_002812', '02_020_002823', '02_020_002822', '02_020_002714', '02_020_002713', '02_020_002305', '02_122_000300', '02_122_000200', '02_020_002502', '02_020_002601', '02_020_002501', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>[0.0, 0.9999999999999347, 6.779763853104436e-14, 2.510483247297599e-15, 6.839156761223688e-16, 1.5631695767342513e-15, 0.9999999999999908, 0.8433822514183643, 9.817946380059217e-14, 0.0, 1.1158724429087465e-16, 5.944535742869982e-14, 0.004114356548918011, 0.00022555208877358227, 4.828793468082754e-14]</t>
+          <t>02_020_002811, 02_020_002712, 02_020_002711, 02_020_002812, 02_020_002823, 02_020_002822, 02_020_002714, 02_020_002713, 02_020_002305, 02_122_000300, 02_122_000200, 02_020_002502, 02_020_002601, 02_020_002501, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>0.0, 0.9999999999999347, 6.779763853104436e-14, 2.510483247297599e-15, 6.839156761223688e-16, 1.5631695767342513e-15, 0.9999999999999908, 0.8433822514183643, 9.817946380059217e-14, 0.0, 1.1158724429087465e-16, 5.944535742869982e-14, 0.004114356548918011, 0.00022555208877358227, 4.828793468082754e-14</t>
         </is>
       </c>
     </row>
@@ -15256,18 +13360,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>['02_020_002811', '02_020_002813', '02_020_002712', '02_020_002812', '02_020_002823', '02_020_002603', '02_020_002822', '02_020_980000', '02_020_002713', '02_020_002601', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>[0.9999999999999672, 0.12056466553206284, 5.4667213161670604e-14, 0.8253793411867443, 0.0, 2.128375784237673e-13, 2.847901418021467e-15, 3.356888626843005e-14, 0.0, 2.094934713247383e-14, 0.0011605695976699489]</t>
+          <t>02_020_002811, 02_020_002813, 02_020_002712, 02_020_002812, 02_020_002823, 02_020_002603, 02_020_002822, 02_020_980000, 02_020_002713, 02_020_002601, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>0.9999999999999672, 0.12056466553206284, 5.4667213161670604e-14, 0.8253793411867443, 0.0, 2.128375784237673e-13, 2.847901418021467e-15, 3.356888626843005e-14, 0.0, 2.094934713247383e-14, 0.0011605695976699489</t>
         </is>
       </c>
     </row>
@@ -15306,18 +13404,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>['02_020_002602', '02_020_002811', '02_020_002813', '02_020_001732', '02_020_002812', '02_020_002603', '02_020_980000', '02_020_980200', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>[1.0000000000000013, 8.096701601358873e-15, 6.402565370822275e-16, 3.271444141972544e-13, 0.1746206588131474, 0.9999999999997876, 0.9999999999999086, 2.9122844725185043e-16, 0.003330274979037435, 0.9841698079539918, 1.0533907163482417e-13, 2.562430747400834e-13, 8.946330526330108e-14]</t>
+          <t>02_020_002602, 02_020_002811, 02_020_002813, 02_020_001732, 02_020_002812, 02_020_002603, 02_020_980000, 02_020_980200, 02_020_001802, 02_020_002601, 02_020_001602, 02_020_001701, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>1.0000000000000013, 8.096701601358873e-15, 6.402565370822275e-16, 3.271444141972544e-13, 0.1746206588131474, 0.9999999999997876, 0.9999999999999086, 2.9122844725185043e-16, 0.003330274979037435, 0.9841698079539918, 1.0533907163482417e-13, 2.562430747400834e-13, 8.946330526330108e-14</t>
         </is>
       </c>
     </row>
@@ -15356,18 +13448,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>['02_020_002712', '02_020_002711', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_002601', '02_020_002400', '02_020_001500', '02_020_002501', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>[7.563915917903973e-18, 0.0, 0.9085851627015096, 1.351297300479528e-13, 2.040296974351561e-13, 0.9999999999999404, 3.2397849824902e-14, 0.25254309502119526, 0.011715835497069676, 2.363474153672371e-13, 7.984878640546991e-14, 0.9997744479112183, 0.999999999999792]</t>
+          <t>02_020_002712, 02_020_002711, 02_020_002305, 02_020_002304, 02_020_002302, 02_020_002502, 02_020_001802, 02_020_001900, 02_020_002601, 02_020_002400, 02_020_001500, 02_020_002501, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>7.563915917903973e-18, 0.0, 0.9085851627015096, 1.351297300479528e-13, 2.040296974351561e-13, 0.9999999999999404, 3.2397849824902e-14, 0.25254309502119526, 0.011715835497069676, 2.363474153672371e-13, 7.984878640546991e-14, 0.9997744479112183, 0.999999999999792</t>
         </is>
       </c>
     </row>
@@ -15406,18 +13492,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_000902', '02_020_001000', '02_020_001401', '02_020_001402', '02_020_002302', '02_020_001601', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_001602', '02_020_002000', '02_020_002100', '02_020_002400', '02_020_001500', '02_020_002202', '02_020_002501', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>[2.6160809096794118e-14, 0.11847262473047523, 0.0, 0.5649866791767769, 9.646730048865098e-13, 1.5585452073794385e-15, 2.8180061645569387e-14, 0.0, 1.7530550457121424e-16, 0.7474569049788103, 6.582128184947375e-15, 1.0, 0.9126455348526529, 0.6749766546931687, 0.99999999999974, 0.11823708366426153, 3.724621214111093e-17, 1.462413060639627e-16]</t>
+          <t>02_020_001300, 02_020_000902, 02_020_001000, 02_020_001401, 02_020_001402, 02_020_002302, 02_020_001601, 02_020_002502, 02_020_001802, 02_020_001900, 02_020_001602, 02_020_002000, 02_020_002100, 02_020_002400, 02_020_001500, 02_020_002202, 02_020_002501, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>2.6160809096794118e-14, 0.11847262473047523, 0.0, 0.5649866791767769, 9.646730048865098e-13, 1.5585452073794385e-15, 2.8180061645569387e-14, 0.0, 1.7530550457121424e-16, 0.7474569049788103, 6.582128184947375e-15, 1.0, 0.9126455348526529, 0.6749766546931687, 0.99999999999974, 0.11823708366426153, 3.724621214111093e-17, 1.462413060639627e-16</t>
         </is>
       </c>
     </row>
@@ -15456,18 +13536,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>['02_020_002712', '02_020_002711', '02_020_002301', '02_020_002714', '02_020_002713', '02_020_002305', '02_020_002304', '02_122_000200', '02_020_002302']</t>
-        </is>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>[1.5801406647388543e-14, 0.9999999999999114, 0.01811690891338983, 3.170987323835905e-14, 0.0, 0.0914148372983976, 0.9999999999998611, 2.6713853255212207e-17, 1.349241399352795e-13]</t>
+          <t>02_020_002712, 02_020_002711, 02_020_002301, 02_020_002714, 02_020_002713, 02_020_002305, 02_020_002304, 02_122_000200, 02_020_002302</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>1.5801406647388543e-14, 0.9999999999999114, 0.01811690891338983, 3.170987323835905e-14, 0.0, 0.0914148372983976, 0.9999999999998611, 2.6713853255212207e-17, 1.349241399352795e-13</t>
         </is>
       </c>
     </row>
@@ -15506,18 +13580,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>['02_170_000604', '02_020_001300', '02_020_002711', '02_020_001200', '02_020_001100', '02_020_002301', '02_020_002305', '02_020_002304', '02_122_000200', '02_170_000502', '02_020_002302', '02_020_002100', '02_020_002400', '02_020_002201', '02_020_002202', '02_020_002501', '02_020_000500']</t>
-        </is>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>[7.768016064013373e-15, 0.8813093784067558, 0.0, 0.3320120758756879, 0.0, 0.981883091086593, 0.0, 0.0, 1.8696777122168437e-16, 2.5191366197104766e-15, 0.9999999999996627, 0.08735446514734686, 0.325023345306591, 1.000000000000001, 0.8817629163357388, 6.606520751809835e-15, 6.5286366408926e-14]</t>
+          <t>02_170_000604, 02_020_001300, 02_020_002711, 02_020_001200, 02_020_001100, 02_020_002301, 02_020_002305, 02_020_002304, 02_122_000200, 02_170_000502, 02_020_002302, 02_020_002100, 02_020_002400, 02_020_002201, 02_020_002202, 02_020_002501, 02_020_000500</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>7.768016064013373e-15, 0.8813093784067558, 0.0, 0.3320120758756879, 0.0, 0.981883091086593, 0.0, 0.0, 1.8696777122168437e-16, 2.5191366197104766e-15, 0.9999999999996627, 0.08735446514734686, 0.325023345306591, 1.000000000000001, 0.8817629163357388, 6.606520751809835e-15, 6.5286366408926e-14</t>
         </is>
       </c>
     </row>
@@ -15556,18 +13624,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_000902', '02_020_000901', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_001401', '02_020_001402', '02_020_001601', '02_020_002000', '02_020_002100', '02_020_001500', '02_020_002202']</t>
-        </is>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>[0.11869062159321583, 0.8815273752695287, 0.5448664101885903, 0.6679879241242521, 0.9587800235930151, 0.6046333390626247, 0.43501332082322236, 0.9999999999991511, 1.0819523219574484e-16, 0.0, 0.0, 4.128969865585293e-16, 0.0]</t>
+          <t>02_020_001300, 02_020_000902, 02_020_000901, 02_020_001200, 02_020_001000, 02_020_001100, 02_020_001401, 02_020_001402, 02_020_001601, 02_020_002000, 02_020_002100, 02_020_001500, 02_020_002202</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>0.11869062159321583, 0.8815273752695287, 0.5448664101885903, 0.6679879241242521, 0.9587800235930151, 0.6046333390626247, 0.43501332082322236, 0.9999999999991511, 1.0819523219574484e-16, 0.0, 0.0, 4.128969865585293e-16, 0.0</t>
         </is>
       </c>
     </row>
@@ -15606,18 +13668,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>['02_170_000604', '02_020_001300', '02_020_000703', '02_020_000801', '02_020_000702', '02_020_000901', '02_020_000701', '02_020_000204', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_980100', '02_020_000601', '02_020_000602', '02_020_980200', '02_020_000500']</t>
-        </is>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>[9.3316756226602e-15, 1.2565046064506582e-15, 0.6384164150297452, 0.019394972920743415, 0.0720430951530303, 0.07491360210541509, 0.03318075538927135, 0.0021128584923866744, 5.864164453589073e-14, 0.041219976406984965, 0.3953666609373748, 0.9999999999999877, 0.7023647448968876, 4.7931532267390197e-14, 0.11314854148146254, 0.9999999999999356]</t>
+          <t>02_170_000604, 02_020_001300, 02_020_000703, 02_020_000801, 02_020_000702, 02_020_000901, 02_020_000701, 02_020_000204, 02_020_001200, 02_020_001000, 02_020_001100, 02_020_980100, 02_020_000601, 02_020_000602, 02_020_980200, 02_020_000500</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>9.3316756226602e-15, 1.2565046064506582e-15, 0.6384164150297452, 0.019394972920743415, 0.0720430951530303, 0.07491360210541509, 0.03318075538927135, 0.0021128584923866744, 5.864164453589073e-14, 0.041219976406984965, 0.3953666609373748, 0.9999999999999877, 0.7023647448968876, 4.7931532267390197e-14, 0.11314854148146254, 0.9999999999999356</t>
         </is>
       </c>
     </row>
@@ -15656,18 +13712,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>['02_020_000801', '02_020_000802', '02_020_000902', '02_020_000901', '02_020_980100', '02_020_000601', '02_020_000602', '02_020_001601', '02_020_001602', '02_020_001500']</t>
-        </is>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>[0.4698744454970508, 0.1990536600722746, 0.0, 0.38021998770599463, 8.624950679645991e-15, 0.29763525510311256, 0.9999999999999469, 0.9527798201591077, 1.9081958944266102e-15, 6.496397213079174e-14]</t>
+          <t>02_020_000801, 02_020_000802, 02_020_000902, 02_020_000901, 02_020_980100, 02_020_000601, 02_020_000602, 02_020_001601, 02_020_001602, 02_020_001500</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>0.4698744454970508, 0.1990536600722746, 0.0, 0.38021998770599463, 8.624950679645991e-15, 0.29763525510311256, 0.9999999999999469, 0.9527798201591077, 1.9081958944266102e-15, 6.496397213079174e-14</t>
         </is>
       </c>
     </row>
@@ -15706,18 +13756,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>['02_130_000102', '02_100_000100', '02_066_000100', '02_063_000200', '02_275_000300', '02_195_000200', '02_105_000400', '02_282_000100', '02_110_000600', '02_110_000100', '02_110_000500', '02_220_000200', '02_220_000100', '02_198_000100', '02_198_000200']</t>
-        </is>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>[5.170071621586615e-16, 1.0677518253802163e-15, 1.142698169075141e-16, 1.7517255523101062e-15, 9.873399096108837e-16, 0.9999869254798902, 0.7919502091670534, 0.9999862103625182, 0.0, 3.3397261339608898e-15, 3.659969371930428e-15, 1.0000000000000002, 0.9999999999999949, 0.9833263319994279, 1.0000000000000029]</t>
+          <t>02_130_000102, 02_100_000100, 02_066_000100, 02_063_000200, 02_275_000300, 02_195_000200, 02_105_000400, 02_282_000100, 02_110_000600, 02_110_000100, 02_110_000500, 02_220_000200, 02_220_000100, 02_198_000100, 02_198_000200</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>5.170071621586615e-16, 1.0677518253802163e-15, 1.142698169075141e-16, 1.7517255523101062e-15, 9.873399096108837e-16, 0.9999869254798902, 0.7919502091670534, 0.9999862103625182, 0.0, 3.3397261339608898e-15, 3.659969371930428e-15, 1.0000000000000002, 0.9999999999999949, 0.9833263319994279, 1.0000000000000029</t>
         </is>
       </c>
     </row>
@@ -15756,18 +13800,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>['02_020_002602', '02_020_000801', '02_020_000802', '02_020_000701', '02_020_980000', '02_020_001601', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001702', '02_020_001500', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>[6.422330949344263e-17, 7.9443902821104e-14, 0.8009463399277259, 0.0, 3.618598704441686e-17, 0.04722017984086448, 0.9966697250209166, 0.0, 0.9999999999998841, 0.4997589173860252, 0.2549643259460965, 7.950781729490365e-14, 1.1815111447666696e-13]</t>
+          <t>02_020_002602, 02_020_000801, 02_020_000802, 02_020_000701, 02_020_980000, 02_020_001601, 02_020_001802, 02_020_002601, 02_020_001602, 02_020_001701, 02_020_001702, 02_020_001500, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>6.422330949344263e-17, 7.9443902821104e-14, 0.8009463399277259, 0.0, 3.618598704441686e-17, 0.04722017984086448, 0.9966697250209166, 0.0, 0.9999999999998841, 0.4997589173860252, 0.2549643259460965, 7.950781729490365e-14, 1.1815111447666696e-13</t>
         </is>
       </c>
     </row>
@@ -15806,18 +13844,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_001732', '02_020_000702', '02_020_000701', '02_020_980000', '02_020_980200', '02_020_001701', '02_020_001702', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>[0.029385931395816908, 0.0, 0.0, 0.9999999999996183, 1.8501318518346816e-13, 1.2159501947720193e-13, 2.0226559269517739e-16, 5.928580674736622e-18, 0.5002410826137191, 0.745035674053916, 0.9999999999997957]</t>
+          <t>02_020_000703, 02_020_000801, 02_020_000802, 02_020_001732, 02_020_000702, 02_020_000701, 02_020_980000, 02_020_980200, 02_020_001701, 02_020_001702, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>0.029385931395816908, 0.0, 0.0, 0.9999999999996183, 1.8501318518346816e-13, 1.2159501947720193e-13, 2.0226559269517739e-16, 5.928580674736622e-18, 0.5002410826137191, 0.745035674053916, 0.9999999999997957</t>
         </is>
       </c>
     </row>
@@ -15856,18 +13888,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_000702', '02_020_000701', '02_020_000602', '02_020_980200', '02_020_001702', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>[0.33219765357433095, 0.5107305815821267, 0.0, 0.9279569048467848, 0.9668192446105905, 0.0, 7.952841797024768e-18, 2.4405194747119865e-19, 9.273818046500048e-17]</t>
+          <t>02_020_000703, 02_020_000801, 02_020_000802, 02_020_000702, 02_020_000701, 02_020_000602, 02_020_980200, 02_020_001702, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>0.33219765357433095, 0.5107305815821267, 0.0, 0.9279569048467848, 0.9668192446105905, 0.0, 7.952841797024768e-18, 2.4405194747119865e-19, 9.273818046500048e-17</t>
         </is>
       </c>
     </row>
@@ -15906,18 +13932,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>['02_020_002813', '02_020_000703', '02_020_001732', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_002823', '02_020_000101', '02_020_002900', '02_020_000205', '02_020_980000', '02_020_000206', '02_020_980200', '02_020_000201', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>[2.0536043560632786e-14, 9.316307870735097e-14, 4.6488023831501805e-14, 3.475371956341428e-14, 0.31231526277688576, 0.9467317357002065, 0.0, 1.0765671932596768e-15, 0.11694983897645601, 0.9999999999999999, 2.2973738555650582e-14, 0.5473291333166664, 0.41213091695899245, 0.16862755284967687, 2.0327341450454188e-13]</t>
+          <t>02_020_002813, 02_020_000703, 02_020_001732, 02_020_000102, 02_020_000202, 02_020_000204, 02_020_002823, 02_020_000101, 02_020_002900, 02_020_000205, 02_020_980000, 02_020_000206, 02_020_980200, 02_020_000201, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>2.0536043560632786e-14, 9.316307870735097e-14, 4.6488023831501805e-14, 3.475371956341428e-14, 0.31231526277688576, 0.9467317357002065, 0.0, 1.0765671932596768e-15, 0.11694983897645601, 0.9999999999999999, 2.2973738555650582e-14, 0.5473291333166664, 0.41213091695899245, 0.16862755284967687, 2.0327341450454188e-13</t>
         </is>
       </c>
     </row>
@@ -15956,18 +13976,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>['02_170_000604', '02_170_000601', '02_063_000300', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_000101', '02_020_002900', '02_020_980100', '02_020_000206', '02_020_980200', '02_020_000201', '02_170_000200', '02_170_001300']</t>
-        </is>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>[2.7890912269404463e-15, 2.2008921559810908e-14, 6.598907606417912e-17, 0.9999999999999684, 0.6876847372231152, 1.1569075445207169e-14, 0.9082137497658274, 0.0, 5.45771329907272e-15, 0.45267086668333656, 0.47472054155953, 0.8313724471503244, 3.77648784380618e-17, 2.7054197051178567e-14]</t>
+          <t>02_170_000604, 02_170_000601, 02_063_000300, 02_020_000102, 02_020_000202, 02_020_000204, 02_020_000101, 02_020_002900, 02_020_980100, 02_020_000206, 02_020_980200, 02_020_000201, 02_170_000200, 02_170_001300</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>2.7890912269404463e-15, 2.2008921559810908e-14, 6.598907606417912e-17, 0.9999999999999684, 0.6876847372231152, 1.1569075445207169e-14, 0.9082137497658274, 0.0, 5.45771329907272e-15, 0.45267086668333656, 0.47472054155953, 0.8313724471503244, 3.77648784380618e-17, 2.7054197051178567e-14</t>
         </is>
       </c>
     </row>
@@ -16006,18 +14020,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>['02_170_001201', '02_170_000601', '02_020_000101', '02_170_001202', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
-        </is>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>[0.9935401014233817, 1.6824100510478304e-15, 6.946434748000058e-16, 0.7872802728814088, 0.09570240809888833, 0.00015756558770533205, 0.9999999999999559, 0.027320380237243078]</t>
+          <t>02_170_001201, 02_170_000601, 02_020_000101, 02_170_001202, 02_170_001100, 02_170_000200, 02_170_001300, 02_170_000300</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>0.9935401014233817, 1.6824100510478304e-15, 6.946434748000058e-16, 0.7872802728814088, 0.09570240809888833, 0.00015756558770533205, 0.9999999999999559, 0.027320380237243078</t>
         </is>
       </c>
     </row>
@@ -16056,18 +14064,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000703', '02_170_000401', '02_170_001201', '02_170_000601', '02_020_000102', '02_020_000101', '02_020_980200', '02_170_000501', '02_170_001202', '02_170_000603', '02_170_001100', '02_170_001300', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>[4.314408299348218e-14, 0.19944842127175852, 0.02749590130700152, 5.588628330772135e-15, 4.917986425980879e-15, 0.00645989857662021, 0.9994077621746533, 0.0, 0.0, 0.0, 0.061547124451694496, 0.21271972711859063, 0.5766760420568411, 0.612467658383614, 6.487026647259754e-16, 1.5551938368206332e-13]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000604, 02_170_000703, 02_170_000401, 02_170_001201, 02_170_000601, 02_020_000102, 02_020_000101, 02_020_980200, 02_170_000501, 02_170_001202, 02_170_000603, 02_170_001100, 02_170_001300, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>4.314408299348218e-14, 0.19944842127175852, 0.02749590130700152, 5.588628330772135e-15, 4.917986425980879e-15, 0.00645989857662021, 0.9994077621746533, 0.0, 0.0, 0.0, 0.061547124451694496, 0.21271972711859063, 0.5766760420568411, 0.612467658383614, 6.487026647259754e-16, 1.5551938368206332e-13</t>
         </is>
       </c>
     </row>
@@ -16106,18 +14108,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000705', '02_170_000703', '02_170_000402', '02_170_000401', '02_170_000706', '02_170_000601', '02_170_000501', '02_170_001003', '02_170_000603', '02_170_000800', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>[0.022125636160567626, 0.8005515787282085, 0.0, 0.05961735232825232, 0.999999999999979, 1.1460194768339564e-15, 7.080517753438292e-15, 0.024098708760131673, 0.000592237825316174, 5.895014095717637e-16, 1.2200236379774772e-14, 0.11445524751106048, 0.9998361878552425, 0.9999999999998264]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000604, 02_170_000705, 02_170_000703, 02_170_000402, 02_170_000401, 02_170_000706, 02_170_000601, 02_170_000501, 02_170_001003, 02_170_000603, 02_170_000800, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>0.022125636160567626, 0.8005515787282085, 0.0, 0.05961735232825232, 0.999999999999979, 1.1460194768339564e-15, 7.080517753438292e-15, 0.024098708760131673, 0.000592237825316174, 5.895014095717637e-16, 1.2200236379774772e-14, 0.11445524751106048, 0.9998361878552425, 0.9999999999998264</t>
         </is>
       </c>
     </row>
@@ -16156,18 +14152,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000705', '02_170_000703', '02_170_001001', '02_170_000706', '02_170_000601', '02_170_001003', '02_170_001100', '02_170_000800', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>[0.9778743638393887, 0.9403826476717478, 1.2204882720220887e-14, 9.287171805527289e-14, 0.12908398834675308, 0.0, 0.9999999999999887, 0.13388202215699926, 0.0001638121447570509, 1.621765485704958e-14]</t>
+          <t>02_170_001004, 02_170_000705, 02_170_000703, 02_170_001001, 02_170_000706, 02_170_000601, 02_170_001003, 02_170_001100, 02_170_000800, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>0.9778743638393887, 0.9403826476717478, 1.2204882720220887e-14, 9.287171805527289e-14, 0.12908398834675308, 0.0, 0.9999999999999887, 0.13388202215699926, 0.0001638121447570509, 1.621765485704958e-14</t>
         </is>
       </c>
     </row>
@@ -16206,18 +14196,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000102', '02_170_000705', '02_170_000101', '02_170_000402', '02_170_001001', '02_170_000706', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_000101', '02_020_002900', '02_170_001003', '02_240_000400', '02_068_000100', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
-        </is>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>[0.0, 0.8055873674466489, 7.231585513522465e-17, 0.2780218223472537, 5.131271390108449e-15, 0.999999999999907, 0.15698856948878992, 0.3574494008095216, 0.12607036948554465, 0.0010317358308498967, 8.299183208895974e-16, 6.269800448302538e-15, 4.520462338239662e-16, 4.83699926263995e-16, 1.0022495340064277e-15, 0.15794791136049885, 0.9998424344122918, 1.5473765052647264e-14, 0.9726796197627554]</t>
+          <t>02_170_001004, 02_170_000102, 02_170_000705, 02_170_000101, 02_170_000402, 02_170_001001, 02_170_000706, 02_063_000300, 02_066_000100, 02_063_000200, 02_020_000101, 02_020_002900, 02_170_001003, 02_240_000400, 02_068_000100, 02_170_001100, 02_170_000200, 02_170_001300, 02_170_000300</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>0.0, 0.8055873674466489, 7.231585513522465e-17, 0.2780218223472537, 5.131271390108449e-15, 0.999999999999907, 0.15698856948878992, 0.3574494008095216, 0.12607036948554465, 0.0010317358308498967, 8.299183208895974e-16, 6.269800448302538e-15, 4.520462338239662e-16, 4.83699926263995e-16, 1.0022495340064277e-15, 0.15794791136049885, 0.9998424344122918, 1.5473765052647264e-14, 0.9726796197627554</t>
         </is>
       </c>
     </row>
@@ -16256,18 +14240,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>['02_170_000701', '02_170_000102', '02_170_000604', '02_170_000101', '02_170_000703', '02_170_000402', '02_170_000401', '02_170_000706', '02_170_000601', '02_020_001300', '02_020_002301', '02_020_980100', '02_020_980200', '02_170_000501', '02_170_000603', '02_050_000300', '02_122_000100', '02_122_000200', '02_090_980000', '02_170_000502', '02_240_000400', '02_290_000400', '02_290_000200', '02_068_000100', '02_170_000300', '02_020_000500']</t>
-        </is>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>[2.954262257985173e-14, 0.19441263255335656, 0.9725040986929793, 0.7219781776527462, 5.566084397943012e-15, 0.9999999999999937, 0.9999999999999891, 0.6898287334043239, 7.375457410951723e-15, 0.0, 0.0, 0.0, 0.0, 0.9384528755483036, 0.3088687104320975, 5.2701182292987535e-17, 1.0258262431437238e-16, 0.0, 7.126536690564203e-15, 0.9999999999999968, 1.2662116468459005e-19, 7.076021537407795e-16, 6.568495257431327e-16, 0.9999999999999979, 1.9697128452062837e-15, 0.0]</t>
+          <t>02_170_000701, 02_170_000102, 02_170_000604, 02_170_000101, 02_170_000703, 02_170_000402, 02_170_000401, 02_170_000706, 02_170_000601, 02_020_001300, 02_020_002301, 02_020_980100, 02_020_980200, 02_170_000501, 02_170_000603, 02_050_000300, 02_122_000100, 02_122_000200, 02_090_980000, 02_170_000502, 02_240_000400, 02_290_000400, 02_290_000200, 02_068_000100, 02_170_000300, 02_020_000500</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>2.954262257985173e-14, 0.19441263255335656, 0.9725040986929793, 0.7219781776527462, 5.566084397943012e-15, 0.9999999999999937, 0.9999999999999891, 0.6898287334043239, 7.375457410951723e-15, 0.0, 0.0, 0.0, 0.0, 0.9384528755483036, 0.3088687104320975, 5.2701182292987535e-17, 1.0258262431437238e-16, 0.0, 7.126536690564203e-15, 0.9999999999999968, 1.2662116468459005e-19, 7.076021537407795e-16, 6.568495257431327e-16, 0.9999999999999979, 1.9697128452062837e-15, 0.0</t>
         </is>
       </c>
     </row>
@@ -16306,18 +14284,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_000700', '02_090_001300', '02_090_000500', '02_090_000600', '02_090_001200', '02_090_000200', '02_090_001000', '02_090_000800', '02_090_980000']</t>
-        </is>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>[0.9248944034447876, 0.985905235474897, 0.0, 0.4654207127061782, 0.03182422356279333, 0.999999999999936, 0.7547075335601432, 1.4509424582911622e-15, 1.0000000000000004, 0.0823742691327421, 2.852685829369444e-14, 5.078184995264309e-17]</t>
+          <t>02_090_000100, 02_090_000300, 02_090_000400, 02_090_000700, 02_090_001300, 02_090_000500, 02_090_000600, 02_090_001200, 02_090_000200, 02_090_001000, 02_090_000800, 02_090_980000</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>0.9248944034447876, 0.985905235474897, 0.0, 0.4654207127061782, 0.03182422356279333, 0.999999999999936, 0.7547075335601432, 1.4509424582911622e-15, 1.0000000000000004, 0.0823742691327421, 2.852685829369444e-14, 5.078184995264309e-17</t>
         </is>
       </c>
     </row>
@@ -16356,18 +14328,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_001300', '02_090_000500', '02_090_001200', '02_090_001600', '02_090_001000', '02_090_980000', '02_090_001402', '02_090_001401']</t>
-        </is>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>[0.07510559655521225, 0.014094764525103156, 1.0000000000000004, 7.193548252196579e-15, 6.451709787124933e-14, 0.08202398379989954, 0.006860614110264715, 0.013905187083993652, 0.01768779157075195, 0.5392860138139894, 0.3264440896093007]</t>
+          <t>02_090_000100, 02_090_000300, 02_090_000400, 02_090_001300, 02_090_000500, 02_090_001200, 02_090_001600, 02_090_001000, 02_090_980000, 02_090_001402, 02_090_001401</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>0.07510559655521225, 0.014094764525103156, 1.0000000000000004, 7.193548252196579e-15, 6.451709787124933e-14, 0.08202398379989954, 0.006860614110264715, 0.013905187083993652, 0.01768779157075195, 0.5392860138139894, 0.3264440896093007</t>
         </is>
       </c>
     </row>
@@ -16406,18 +14372,12 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>['02_090_001700', '02_090_001200', '02_090_001600', '02_090_980000', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001402', '02_090_001502', '02_090_001401']</t>
-        </is>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>[7.151572689721793e-17, 0.24780657736209957, 0.9372476197958335, 0.00043329269307350164, 2.4456032724011763e-16, 0.939866763511668, 0.012668213834240378, 0.14775604923976357, 0.9985815486102065, 0.6735559103906986]</t>
+          <t>02_090_001700, 02_090_001200, 02_090_001600, 02_090_980000, 02_090_980100, 02_090_001501, 02_090_001902, 02_090_001402, 02_090_001502, 02_090_001401</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>7.151572689721793e-17, 0.24780657736209957, 0.9372476197958335, 0.00043329269307350164, 2.4456032724011763e-16, 0.939866763511668, 0.012668213834240378, 0.14775604923976357, 0.9985815486102065, 0.6735559103906986</t>
         </is>
       </c>
     </row>
@@ -16456,18 +14416,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>['02_240_000100', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_001200', '02_090_001600', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001502', '02_090_001901', '02_290_000100']</t>
-        </is>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>[2.5744766740353944e-17, 0.9756867856972798, 0.7038669675108458, 0.00759734795445441, 0.6701694388379994, 0.05589176609387797, 0.0004086251892132868, 2.1181549183761468e-10, 0.999999999999998, 0.060133236488331986, 0.689771291877632, 0.0014184513897948202, 0.00037275708282897283, 3.9680776060526126e-16]</t>
+          <t>02_240_000100, 02_090_001700, 02_090_001300, 02_090_000600, 02_090_001200, 02_090_001600, 02_090_980000, 02_240_000400, 02_090_980100, 02_090_001501, 02_090_001902, 02_090_001502, 02_090_001901, 02_290_000100</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2.5744766740353944e-17, 0.9756867856972798, 0.7038669675108458, 0.00759734795445441, 0.6701694388379994, 0.05589176609387797, 0.0004086251892132868, 2.1181549183761468e-10, 0.999999999999998, 0.060133236488331986, 0.689771291877632, 0.0014184513897948202, 0.00037275708282897283, 3.9680776060526126e-16</t>
         </is>
       </c>
     </row>
@@ -16506,18 +14460,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>['02_090_000700', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_000200', '02_090_001600', '02_090_000900', '02_090_001000', '02_090_000800', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001402', '02_090_001901', '02_290_000200', '02_068_000100']</t>
-        </is>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>[0.5345792872938175, 0.02431321430270823, 0.25303165268718136, 0.23769511848540026, 0.0, 1.7977278932323967e-14, 1.0000000000000013, 0.9037205437832657, 0.9999999999999696, 0.9814702905469461, 0.0, 8.818336395819544e-16, 0.3129579369462503, 0.2800190897580212, 8.005612271793934e-17, 2.991583098847355e-17]</t>
+          <t>02_090_000700, 02_090_001700, 02_090_001300, 02_090_000600, 02_090_000200, 02_090_001600, 02_090_000900, 02_090_001000, 02_090_000800, 02_090_980000, 02_240_000400, 02_090_980100, 02_090_001402, 02_090_001901, 02_290_000200, 02_068_000100</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>0.5345792872938175, 0.02431321430270823, 0.25303165268718136, 0.23769511848540026, 0.0, 1.7977278932323967e-14, 1.0000000000000013, 0.9037205437832657, 0.9999999999999696, 0.9814702905469461, 0.0, 8.818336395819544e-16, 0.3129579369462503, 0.2800190897580212, 8.005612271793934e-17, 2.991583098847355e-17</t>
         </is>
       </c>
     </row>
@@ -16556,18 +14504,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>['02_180_000100', '02_180_000200', '02_050_000100', '02_158_000100', '02_290_000400', '02_290_000300', '02_188_000100']</t>
-        </is>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>[0.9999999999999938, 0.999999999999985, 3.781249836453254e-17, 0.7903181132887229, 2.5927144865927083e-17, 6.512655212815716e-17, 7.250165898100104e-16]</t>
+          <t>02_180_000100, 02_180_000200, 02_050_000100, 02_158_000100, 02_290_000400, 02_290_000300, 02_188_000100</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>0.9999999999999938, 0.999999999999985, 3.781249836453254e-17, 0.7903181132887229, 2.5927144865927083e-17, 6.512655212815716e-17, 7.250165898100104e-16</t>
         </is>
       </c>
     </row>
@@ -16606,18 +14548,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>['02_195_000200', '02_105_000400', '02_110_000300', '02_110_000400', '02_110_000600', '02_110_000100', '02_110_000200', '02_110_000500']</t>
-        </is>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>[0.0, 9.65329594315776e-08, 0.4493851360517609, 0.9999999999999916, 1.0000000000000004, 7.34121626137386e-15, 0.12424966250439166, 0.9564783531153013]</t>
+          <t>02_195_000200, 02_105_000400, 02_110_000300, 02_110_000400, 02_110_000600, 02_110_000100, 02_110_000200, 02_110_000500</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>0.0, 9.65329594315776e-08, 0.4493851360517609, 0.9999999999999916, 1.0000000000000004, 7.34121626137386e-15, 0.12424966250439166, 0.9564783531153013</t>
         </is>
       </c>
     </row>
@@ -16656,18 +14592,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>['02_063_000300', '02_066_000100', '02_063_000200', '02_020_002900', '02_122_000300', '02_122_000400', '02_122_001200', '02_122_001300', '02_282_000100', '02_150_000100', '02_150_000400', '02_150_000300', '02_150_000500', '02_150_000200']</t>
-        </is>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>[0.639994859535037, 6.582288126471695e-16, 0.9989682641691428, 0.0, 0.00427042805477334, 0.0033754726794943124, 0.12075223349587223, 0.8935162134048636, 0.0, 0.7336729895774584, 1.0000000000000009, 1.0000000000000036, 0.9999999999999977, 0.9999999999999998]</t>
+          <t>02_063_000300, 02_066_000100, 02_063_000200, 02_020_002900, 02_122_000300, 02_122_000400, 02_122_001200, 02_122_001300, 02_282_000100, 02_150_000100, 02_150_000400, 02_150_000300, 02_150_000500, 02_150_000200</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>0.639994859535037, 6.582288126471695e-16, 0.9989682641691428, 0.0, 0.00427042805477334, 0.0033754726794943124, 0.12075223349587223, 0.8935162134048636, 0.0, 0.7336729895774584, 1.0000000000000009, 1.0000000000000036, 0.9999999999999977, 0.9999999999999998</t>
         </is>
       </c>
     </row>
@@ -16706,18 +14636,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>['02_122_000701', '02_122_000702', '02_122_001000', '02_122_000800', '02_122_000100', '02_122_000900', '02_122_001100', '02_122_000400', '02_122_001200', '02_122_001300']</t>
-        </is>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>[0.9497673495591619, 1.447298443550941e-14, 0.9999999999999997, 0.9999999999999954, 5.800744114643637e-16, 1.0000000000000002, 0.9999999999999992, 0.3451238858362741, 0.45221585151822274, 0.0013146659444383498]</t>
+          <t>02_122_000701, 02_122_000702, 02_122_001000, 02_122_000800, 02_122_000100, 02_122_000900, 02_122_001100, 02_122_000400, 02_122_001200, 02_122_001300</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>0.9497673495591619, 1.447298443550941e-14, 0.9999999999999997, 0.9999999999999954, 5.800744114643637e-16, 1.0000000000000002, 0.9999999999999992, 0.3451238858362741, 0.45221585151822274, 0.0013146659444383498</t>
         </is>
       </c>
     </row>
@@ -16756,18 +14680,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>['02_122_000701', '02_122_000702', '02_122_000100', '02_122_000400', '02_122_000500', '02_122_000600', '02_122_000200']</t>
-        </is>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>[0.02287844987680599, 0.9999999999999861, 2.4368859797933716e-16, 0.00023181907915338718, 0.437974234154288, 0.9999999999999926, 2.6122090014420603e-15]</t>
+          <t>02_122_000701, 02_122_000702, 02_122_000100, 02_122_000400, 02_122_000500, 02_122_000600, 02_122_000200</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>0.02287844987680599, 0.9999999999999861, 2.4368859797933716e-16, 0.00023181907915338718, 0.437974234154288, 0.9999999999999926, 2.6122090014420603e-15</t>
         </is>
       </c>
     </row>
@@ -16806,18 +14724,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>['02_020_002813', '02_063_000300', '02_020_000204', '02_020_002812', '02_020_002823', '02_020_000101', '02_020_002822', '02_020_002900', '02_020_980000', '02_020_002713', '02_020_980200', '02_122_000300', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>[0.87943533446792, 0.002555739655435708, 0.0511554058073953, 1.0593459887523495e-13, 0.9999999999999742, 0.09178625023417086, 0.9999999999999952, 0.8830501610235308, 3.625090202615931e-14, 0.15661774858160885, 1.2016870867756113e-14, 1.7018210918910297e-15, 0.9988394304022818]</t>
+          <t>02_020_002813, 02_063_000300, 02_020_000204, 02_020_002812, 02_020_002823, 02_020_000101, 02_020_002822, 02_020_002900, 02_020_980000, 02_020_002713, 02_020_980200, 02_122_000300, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>0.87943533446792, 0.002555739655435708, 0.0511554058073953, 1.0593459887523495e-13, 0.9999999999999742, 0.09178625023417086, 0.9999999999999952, 0.8830501610235308, 3.625090202615931e-14, 0.15661774858160885, 1.2016870867756113e-14, 1.7018210918910297e-15, 0.9988394304022818</t>
         </is>
       </c>
     </row>
@@ -16856,18 +14768,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>['23_005_001500', '23_005_001700', '23_005_001800', '23_005_001900', '23_005_002001', '23_005_002002', '23_005_002102', '23_005_002200']</t>
-        </is>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>[0.27577810952031934, 0.32989948680283926, 0.03182809412306635, 0.857162643230102, 0.00047850737204681304, 0.038772276006230615, 0.0007486142895082741, 2.1670476728596087e-05]</t>
+          <t>23_005_001500, 23_005_001700, 23_005_001800, 23_005_001900, 23_005_002001, 23_005_002002, 23_005_002102, 23_005_002200</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>0.27577810952031934, 0.32989948680283926, 0.03182809412306635, 0.857162643230102, 0.00047850737204681304, 0.038772276006230615, 0.0007486142895082741, 2.1670476728596087e-05</t>
         </is>
       </c>
     </row>
@@ -16906,18 +14812,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>['23_005_004402', '23_005_004600', '23_005_004501', '23_005_004502', '23_005_004202', '23_005_002400', '23_005_011500', '23_005_004401']</t>
-        </is>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>[0.4779810741199127, 0.0005080965628275908, 0.0001452448456830048, 0.0003605573293583259, 0.10613928536909559, 0.052430844535102626, 5.114907880151442e-07, 0.9976249546225959]</t>
+          <t>23_005_004402, 23_005_004600, 23_005_004501, 23_005_004502, 23_005_004202, 23_005_002400, 23_005_011500, 23_005_004401</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>0.4779810741199127, 0.0005080965628275908, 0.0001452448456830048, 0.0003605573293583259, 0.10613928536909559, 0.052430844535102626, 5.114907880151442e-07, 0.9976249546225959</t>
         </is>
       </c>
     </row>
@@ -16956,18 +14856,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>['23_005_011300', '23_001_040000', '23_005_004501', '23_023_970302', '23_023_970301', '23_005_004502', '23_005_011205', '23_005_011204', '23_005_011203', '23_005_011206']</t>
-        </is>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>[0.9785786838680158, 1.4358859957191859e-05, 5.114633085935321e-05, 0.0012294235484422605, 0.00042636719248090354, 0.0005179001083850956, 0.2273542190955924, 0.999419642335076, 0.3773543502297297, 0.3583101597347688]</t>
+          <t>23_005_011300, 23_001_040000, 23_005_004501, 23_023_970302, 23_023_970301, 23_005_004502, 23_005_011205, 23_005_011204, 23_005_011203, 23_005_011206</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>0.9785786838680158, 1.4358859957191859e-05, 5.114633085935321e-05, 0.0012294235484422605, 0.00042636719248090354, 0.0005179001083850956, 0.2273542190955924, 0.999419642335076, 0.3773543502297297, 0.3583101597347688</t>
         </is>
       </c>
     </row>
@@ -17006,18 +14900,12 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>['23_013_971000', '23_015_990000', '23_015_975500', '23_015_975300', '23_015_975600', '23_015_975700', '23_015_975400', '23_015_975200', '23_015_975100']</t>
-        </is>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>[1.3778628640627613e-06, 2.4812534710964504e-05, 8.212648519663212e-05, 0.6235016933267187, 0.726637392170725, 0.1936803898574135, 0.43598503567325386, 0.00020727496894278313, 7.140939220465347e-05]</t>
+          <t>23_013_971000, 23_015_990000, 23_015_975500, 23_015_975300, 23_015_975600, 23_015_975700, 23_015_975400, 23_015_975200, 23_015_975100</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>1.3778628640627613e-06, 2.4812534710964504e-05, 8.212648519663212e-05, 0.6235016933267187, 0.726637392170725, 0.1936803898574135, 0.43598503567325386, 0.00020727496894278313, 7.140939220465347e-05</t>
         </is>
       </c>
     </row>
@@ -17054,8 +14942,6 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -17090,8 +14976,6 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -17130,22 +15014,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -17184,22 +15054,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -17238,22 +15094,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -17292,22 +15134,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -17346,22 +15174,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -17400,22 +15214,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -17454,22 +15254,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I345" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -17508,22 +15294,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I346" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -17562,22 +15334,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I347" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -17616,22 +15374,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I348" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -17670,22 +15414,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I349" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -17724,22 +15454,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I350" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2000.csv</t>
-        </is>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -17778,22 +15494,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I351" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -17832,22 +15534,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -17886,22 +15574,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I353" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -17940,22 +15614,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I354" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -17994,22 +15654,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I355" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -18048,22 +15694,8 @@
           <t>minneapolis_park_commissioner_2012.csv</t>
         </is>
       </c>
-      <c r="I356" t="inlineStr">
-        <is>
-          <t>minneapolis_tracts_2010.csv</t>
-        </is>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -18086,9 +15718,7 @@
           <t>school board district</t>
         </is>
       </c>
-      <c r="E357" t="n">
-        <v>5</v>
-      </c>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
           <t>Board of education</t>
@@ -18097,27 +15727,9 @@
       <c r="G357" t="n">
         <v>2022</v>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>oakland_city_council_2022.csv</t>
-        </is>
-      </c>
-      <c r="I357" t="inlineStr">
-        <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>[409000, 426100, 405000, 406000, 407500, 408700, 408800, 407200, 407300, 407400, 407600, 427100, 427200, 406500, 406601, 405600, 406400, 405700, 405800, 404700, 404800, 404900, 406602, 407101, 407102, 406201, 406202, 406300, 406100]</t>
-        </is>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>[0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101]</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -18140,9 +15752,7 @@
           <t>school board district</t>
         </is>
       </c>
-      <c r="E358" t="n">
-        <v>3</v>
-      </c>
+      <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
           <t>Board of education</t>
@@ -18151,27 +15761,9 @@
       <c r="G358" t="n">
         <v>2022</v>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>oakland_city_council_2022.csv</t>
-        </is>
-      </c>
-      <c r="I358" t="inlineStr">
-        <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>[401400, 401500, 402400, 401600, 402200, 402500, 402600, 402700, 403000, 403100, 403900, 404000, 403600, 406000, 401800, 401000, 401200, 401300, 401100, 402900, 427300, 401700, 983200, 410500, 425104, 981900, 428700, 403701, 982000, 403702, 425101, 403502, 403401, 403402, 403302, 402801, 402802, 403301, 405200, 990000, 990200, 403501]</t>
-        </is>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>[0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759]</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -18212,18 +15804,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>[0.7645935973321921, 0.6051995434386682, 0.9788964128519579, 0.9998619152754435, 0.0004070274593684326, 0.9970452673752833, 0.10464123487881022, 0.01156552989184899, 0.12484092157187544, 0.9997176928528252, 0.22396852451477223, 0.99891819645774, 0.8652205961895646, 0.15661427450695206, 0.0029940024042560283, 0.7949380516082937, 0.2170941280860057, 0.004933188299563975, 0.0011003421866174008, 0.15860436607921663, 0.0006646815243906276, 0.9518975244578656, 0.9999999999999999, 0.03984052360928679, 1.0000000000000002, 0.3743142943374305, 0.9863459607967624, 0.11024574671034577, 1.0000000000000004, 0.013941000447866912]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>0.0010627951810134944, 0.0032080397254399384, 0.993112484386575, 0.0007475180264288983, 0.9768473329237397, 0.0046865704888829724, 0.21643572257431073, 0.15797562042945423, 0.15387895627562354, 1.0000000000000002, 0.8567996227969332, 1.0000000000000016, 0.7949353764356766, 0.999856825323569, 0.9971579848201868, 0.01429700673269928, 0.03994289435815528, 0.9947709841951301, 0.10117740112736485, 7.940893419061824e-06, 0.004739592986611635, 0.3728272133471886, 0.10994418133286858, 0.6065121781936023, 0.7686769910093971, 0.9925747496879975, 0.9528231915931671, 0.2234250900543962, 1.0, 0.1252607257949974</t>
         </is>
       </c>
     </row>
@@ -18266,18 +15852,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>[354001, 401400, 400500, 404501, 403900, 404000, 400600, 400100, 426100, 422000, 400900, 400700, 400800, 400200, 400300, 423902, 404200, 421600, 400400, 401000, 404400, 401200, 401300, 401100, 353001, 423901, 423700, 423800, 424001, 424002, 426200, 425104, 404102, 425103, 404101, 404300, 403501]</t>
-        </is>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>[0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06]</t>
+          <t>06_013_354001, 06_001_401400, 06_001_400500, 06_001_404501, 06_001_403900, 06_001_404000, 06_001_400600, 06_001_400100, 06_001_426100, 06_001_422000, 06_001_400900, 06_001_400700, 06_001_400800, 06_001_400200, 06_001_400300, 06_001_423902, 06_001_404200, 06_001_421600, 06_001_400400, 06_001_401000, 06_001_404400, 06_001_401200, 06_001_401300, 06_001_401100, 06_013_353001, 06_001_423901, 06_001_423700, 06_001_423800, 06_001_424001, 06_001_424002, 06_001_426200, 06_001_425104, 06_001_404102, 06_001_425103, 06_001_404101, 06_001_404300, 06_001_403501</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06</t>
         </is>
       </c>
     </row>
@@ -18320,18 +15900,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>[401400, 401500, 402400, 401600, 402200, 402500, 402600, 402700, 403000, 403100, 403900, 404000, 403600, 406000, 401800, 401000, 401200, 401300, 401100, 402900, 427300, 401700, 983200, 410500, 425104, 981900, 428700, 403701, 982000, 403702, 425101, 403502, 403401, 403402, 403302, 402801, 402802, 403301, 405200, 990000, 990200, 403501]</t>
-        </is>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>[0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759]</t>
+          <t>06_001_401400, 06_001_401500, 06_001_402400, 06_001_401600, 06_001_402200, 06_001_402500, 06_001_402600, 06_001_402700, 06_001_403000, 06_001_403100, 06_001_403900, 06_001_404000, 06_001_403600, 06_001_406000, 06_001_401800, 06_001_401000, 06_001_401200, 06_001_401300, 06_001_401100, 06_001_402900, 06_001_427300, 06_001_401700, 06_001_983200, 06_001_410500, 06_001_425104, 06_001_981900, 06_001_428700, 06_001_403701, 06_001_982000, 06_001_403702, 06_001_425101, 06_001_403502, 06_001_403401, 06_001_403402, 06_001_403302, 06_001_402801, 06_001_402802, 06_001_403301, 06_001_405200, 06_001_990000, 06_075_990200, 06_001_403501</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759</t>
         </is>
       </c>
     </row>
@@ -18374,18 +15948,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>[409000, 426100, 405000, 406000, 407500, 408700, 408800, 407200, 407300, 407400, 407600, 427100, 427200, 406500, 406601, 405600, 406400, 405700, 405800, 404700, 404800, 404900, 406602, 407101, 407102, 406201, 406202, 406300, 406100]</t>
-        </is>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>[0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101]</t>
+          <t>06_001_409000, 06_001_426100, 06_001_405000, 06_001_406000, 06_001_407500, 06_001_408700, 06_001_408800, 06_001_407200, 06_001_407300, 06_001_407400, 06_001_407600, 06_001_427100, 06_001_427200, 06_001_406500, 06_001_406601, 06_001_405600, 06_001_406400, 06_001_405700, 06_001_405800, 06_001_404700, 06_001_404800, 06_001_404900, 06_001_406602, 06_001_407101, 06_001_407102, 06_001_406201, 06_001_406202, 06_001_406300, 06_001_406100</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101</t>
         </is>
       </c>
     </row>
@@ -18428,18 +15996,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>[410000, 432800, 409000, 409800, 408100, 410300, 409900, 408300, 409200, 409300, 408500, 408600, 408800, 408900, 409100, 409400, 409500, 409600, 409700, 410100, 410200, 410400, 407300, 428301, 432100, 430400, 433400, 430102, 432200, 432300, 432700, 432502, 990100, 990000, 432400]</t>
-        </is>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>[0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261]</t>
+          <t>06_001_410000, 06_001_432800, 06_001_409000, 06_001_409800, 06_001_408100, 06_001_410300, 06_001_409900, 06_001_408300, 06_001_409200, 06_001_409300, 06_001_408500, 06_001_408600, 06_001_408800, 06_001_408900, 06_001_409100, 06_001_409400, 06_001_409500, 06_001_409600, 06_001_409700, 06_001_410100, 06_001_410200, 06_001_410400, 06_001_407300, 06_001_428301, 06_001_432100, 06_001_430400, 06_001_433400, 06_001_430102, 06_001_432200, 06_001_432300, 06_001_432700, 06_001_432502, 06_081_990100, 06_001_990000, 06_001_432400</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261</t>
         </is>
       </c>
     </row>
@@ -18482,18 +16044,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>[402900, 405000, 403300, 405401, 403900, 406100, 405700, 404000, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 406400, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>[0.0004999497275502113, 0.49863585293245516, 0.4858514297698514, 1.0, 0.9987668969721312, 0.004724218362421146, 0.42150372211992154, 0.0016857449174700815, 0.7243164529541289, 0.15792098592982368, 0.0001872956113276651, 0.0027054803100405363, 0.0015957614900758623, 1.0, 0.10648623467539323, 0.9874504505049675, 0.9963304091068981, 0.9971933424007746, 0.9709093150691882, 0.007436566736748314, 0.9999991476924319, 0.011282786161414435, 0.9996797271803898, 0.9999999999999999, 0.9973402770218983, 0.0028439953747610505, 0.005670683863005139, 0.9956559817414493, 0.2151532534283385, 1.0, 4.425473547037609e-09, 0.9964913749893776, 0.00016370775906020236]</t>
+          <t>06_001_405800, 06_001_402900, 06_001_405000, 06_001_405200, 06_001_403702, 06_001_405500, 06_001_403600, 06_001_403800, 06_001_427300, 06_001_403300, 06_001_406300, 06_001_427200, 06_001_405902, 06_001_983200, 06_001_405700, 06_001_405600, 06_001_404900, 06_001_406201, 06_001_403900, 06_001_403000, 06_001_406100, 06_001_403400, 06_001_426100, 06_001_405901, 06_001_405402, 06_001_404000, 06_001_405100, 06_001_405401, 06_001_405302, 06_001_405301, 06_001_426200, 06_001_406000</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
     </row>
@@ -18536,18 +16092,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>[0.7677292811622569, 0.4878513641825002, 0.9875376727646378, 0.9999999999999999, 0.0013002576386151583, 0.9994196817902945, 0.0343692404845977, 0.0036141994136472317, 0.15227970869144272, 0.9946933827419492, 0.45190103534390486, 0.9973412159111323, 0.8653970758995685, 0.0052912416775965105, 0.0034409974255693453, 0.5764479705398784, 0.12378770134065104, 0.0063408794050916865, 0.0015485555719296463, 0.1633593692005633, 0.00014963309253527605, 0.999771354049716, 0.9999999999999999, 0.0796154101334587, 1.0000000000000002, 0.3756858239392752, 0.9884702074019383, 0.11177113229951395, 1.0000000000000004, 4.240015250145095e-06]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
     </row>
@@ -18590,18 +16140,12 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409000, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>[0.9999827045210273, 0.994308186917521, 4.4661900667418554e-05, 0.006075786241988535, 0.2861474234149392, 0.20437778708245594, 0.9999998755945416, 0.6232914417410853, 9.319125075570363e-05, 0.9998436596898741, 0.13460292410043967, 0.9947087583223345, 0.2362410598575429, 0.8762122986592544, 0.9907343149304814, 0.025977144002550884, 0.4363877858902382, 0.0004213552431639612, 1.0000000000000002, 1.984418283882492e-06, 0.3707235533165565, 0.9203795706572192, 0.01061615781161689, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407500, 06_001_409900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
     </row>
@@ -18644,18 +16188,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 403600, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 404502, 401100, 425104, 423800, 422600, 400100, 400800, 401200, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>[8.108544361627887e-05, 0.013812172951728242, 1.0000000000000002, 1.0, 0.9997175244314838, 0.005203684315170878, 0.004312486902487608, 0.0042931082233909615, 0.992062648036296, 0.9980779162368354, 0.0009432222363002836, 0.948870355376314, 0.00015148367872345393, 0.008881876189025983, 0.9982870009037823, 0.0023039623444210864, 0.0028028762152057193, 6.528512258157975e-06, 0.00019656834224763496, 0.7704347310246301, 0.9986627440618165, 0.9964681151240459, 0.0071908945579712965, 0.035903831202976105, 0.9888273767207144, 0.9999999937752034, 0.005498848901854908, 0.01464034145770446, 0.008089361797761764, 0.04604019315987436, 0.8407680826044995, 0.030546016845849767, 0.0028738792749451276, 3.021589114891565e-05, 0.9846245072264328, 0.994449593364898, 0.9085580501752115, 0.9997453284368248, 0.015978863821291548, 0.9958405820623568]</t>
+          <t>06_013_354001, 06_013_353001, 06_001_423800, 06_001_421600, 06_001_404300, 06_001_425103, 06_001_404102, 06_001_404501, 06_001_424001, 06_001_403501, 06_001_403600, 06_001_400500, 06_001_423700, 06_001_425104, 06_001_401300, 06_001_404200, 06_001_403900, 06_001_400600, 06_001_426100, 06_001_400800, 06_001_404000, 06_001_400700, 06_001_400200, 06_001_400300, 06_001_404101, 06_001_401100, 06_001_401400, 06_001_404502, 06_001_426200, 06_001_401000, 06_001_400900, 06_001_400100, 06_001_404400, 06_001_400400, 06_001_401200, 06_001_423902, 06_001_423901, 06_001_424002, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>0.014696611122848353, 0.005030362273846488, 0.0028318223805199327, 0.002684398779517433, 0.994760884632867, 0.007026289953628835, 0.9999999947898024, 0.004493804394021167, 0.017620070334289684, 0.006738376431197547, 0.00018522633118634943, 0.9971116248390315, 0.01618011059289278, 0.022306701564252084, 9.439148932459096e-05, 0.9874644890510079, 0.0064239404802395985, 1.0000000000000007, 0.0024603391880098323, 0.9852659489062447, 0.9434900352039545, 0.9877417101648296, 0.9861028142876566, 0.9999999999999997, 0.9948239859199954, 0.8380022117928736, 0.004561300071685791, 0.045786739079560816, 0.002504211647361193, 0.9993926450405061, 0.9735873844760757, 0.9850083083226198, 0.7701520394635946, 0.9980947826892871, 0.9086246526957307, 0.024036287718993743, 0.010577661024551032, 0.03258096695276012, 0.00017404507978708433, 0.007128817371318812</t>
         </is>
       </c>
     </row>
@@ -18698,18 +16236,12 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 17902, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 0.04925135571359105, 0.9992497039443016, 0.9999999999999998, 0.9999189145562911, 0.5139556780373109, 0.00020075771346711783, 0.994796315684734, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 0.01180872740393969, 1.0, 0.9999999999999998, 0.004452239746500897, 0.9261354929017194, 0.9971971237849557, 0.8768791513738948, 0.9999999999999996, 1.0, 0.2782364560191839, 1.0, 0.03488910086935647, 1.0000000000000002, 0.27417102515272274, 0.21189028298671833, 0.033284627494764935, 0.9997419374624053, 0.15923191739547352, 8.784094243099689e-05, 0.9999999999999996, 0.9474445352016585, 0.09144194982491595, 0.6673724407643923, 0.9999894153231295]</t>
+          <t>06_001_402900, 06_001_402200, 06_001_405200, 06_001_403702, 06_001_403701, 06_001_403502, 06_001_403501, 06_001_428700, 06_001_981900, 06_001_403600, 06_001_427300, 06_001_403100, 06_001_403300, 06_001_425104, 06_001_410500, 06_001_983200, 06_001_982000, 06_001_402500, 06_001_401300, 06_001_402700, 06_001_403000, 06_001_403400, 06_001_401600, 06_001_402400, 06_001_402800, 06_001_401800, 06_001_402600, 06_001_404000, 06_001_401500, 06_001_405302, 06_001_405301, 06_001_990000, 06_001_401100, 06_001_401400, 06_001_406000, 06_001_401000, 06_001_401200, 06_001_401700, 06_075_017902</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>0.9999999999999998, 1.0000000000000007, 0.2152003796668561, 0.9545778515330581, 1.0, 0.9999999999999998, 0.9932616235687987, 0.03777243320466729, 1.0000000000000009, 0.8677574319302781, 0.033560411657890386, 1.0000000000000004, 0.5092270256157329, 0.0042002882635206115, 1.0000000000000002, 0.9999738944280142, 1.0, 1.0000000000000004, 0.9999056085106456, 1.0000000000000002, 0.03252516088801953, 0.9319351520637771, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.006806481329788015, 0.9997867169868059, 0.2704858343756534, 0.6519466849733234, 0.03539559412975538, 0.16199778820715693, 0.9954386999283149, 0.003924654573319967, 0.0004052623256769898, 0.09137534730426908, 0.9677157491620743, 0.04267586814465963</t>
         </is>
       </c>
     </row>
@@ -18752,18 +16284,12 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>[406601, 405000, 406602, 407300, 406100, 405700, 404700, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 428301, 406300, 407600, 406202, 405100, 407400, 405901, 409000, 427200, 407102, 406201, 407101, 405800, 406400]</t>
-        </is>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>[0.23540640266772153, 0.5497024752693102, 0.3948004565615807, 0.4842929423487521, 0.9937533180564817, 0.5728326714061863, 0.0001429729449257285, 0.04609872592682563, 0.9999999999999997, 0.26536022271642684, 0.8949595823096742, 0.00031078166367081003, 0.8751590784281726, 0.01120106976153418, 0.00028230714706211854, 2.5736251112413705e-05, 0.9951578316789268, 0.18779017183963181, 0.9999999999999998, 0.0018644331036478078, 0.4017818747471255, 0.006769203649743787, 0.0018531227793883952, 0.0487733469864914, 0.6256857056625664, 0.9975494698507898, 0.8897542532895898, 0.007412756025164851, 0.9860589995519746]</t>
+          <t>06_001_405800, 06_001_407300, 06_001_405000, 06_001_409000, 06_001_407400, 06_001_427100, 06_001_407600, 06_001_406300, 06_001_427200, 06_001_406202, 06_001_404800, 06_001_406400, 06_001_405700, 06_001_405600, 06_001_404700, 06_001_404900, 06_001_406201, 06_001_406100, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_405901, 06_001_407200, 06_001_406000, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>0.004711937692338354, 0.4887322319766512, 0.5535479150538906, 0.001588352692283609, 0.4018496867158882, 0.009068279544011527, 0.18808779766192243, 1.0000000000000009, 0.04187921326680131, 0.9999999999999997, 0.002842015179801912, 0.9857029932673116, 0.5707212162892621, 0.01268969321880255, 1.2395538817160178e-05, 0.8981779823454001, 1.0000000000000002, 0.9939000792143817, 1.150443299756236e-07, 0.6271727866528022, 0.8900558186671315, 0.3934878218063907, 0.23132300899060138, 0.00475531353127123, 1.0000000000000002, 0.2625112829603036, 0.8747392742050064</t>
         </is>
       </c>
     </row>
@@ -18806,18 +16332,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>[410400, 408300, 409500, 409900, 407300, 409700, 408800, 410200, 432400, 409100, 410000, 410300, 408900, 409200, 410100, 432502, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
-        </is>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>[0.9996644218110333, 0.0059711687749702674, 0.9979682996631221, 0.9918071992521879, 0.025663437479815934, 0.7972950206744407, 0.3732784545355358, 0.9998173882034194, 0.019151235726654867, 1.0, 0.9184047907226011, 1.0000000000000002, 0.993312510263488, 0.9806545207207364, 0.9999196764677503, 0.00705355752482992, 0.021227082233637888, 0.0012241060153903231, 0.9738462270230294, 0.0610951738914894, 0.0012068399726919978, 0.9956131822847882, 0.9702879937328869, 0.6282020037845263, 0.0013771031367038687, 0.000671669394001139, 1.0, 0.0014030294100334838]</t>
+          <t>06_081_990100, 06_001_432200, 06_001_407300, 06_001_430102, 06_001_410300, 06_001_409400, 06_001_409000, 06_001_409700, 06_001_408100, 06_001_428301, 06_001_409100, 06_001_410000, 06_001_410400, 06_001_409900, 06_001_410200, 06_001_432800, 06_001_408900, 06_001_410100, 06_001_432502, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_990000, 06_001_408800, 06_001_409200, 06_001_432300, 06_001_409300, 06_001_408300, 06_001_432400, 06_001_432100</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>1.3665280109173466e-05, 0.0008407266239658177, 0.02459553982269143, 6.15095392641679e-05, 1.0000000000000004, 1.0000000000000004, 0.9683791755711295, 0.7963967968732273, 6.477941319269415e-06, 0.053393686509186945, 1.0000000000000004, 0.8952271556865586, 0.9999772994042383, 0.979183543644267, 0.9998240965522985, 0.003380754294167634, 0.9933978129215112, 0.9997593509575978, 3.3962346957954694e-05, 0.6321709047320416, 0.9839098346308706, 0.9965923606243321, 0.2684011219594302, 0.3698714763110789, 0.9757785131907507, 0.004487644352867498, 0.9972969991686669, 0.0004804688356651006, 0.018349581497950226, 0.023104188687024983</t>
         </is>
       </c>
     </row>
@@ -18860,18 +16380,12 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
-        </is>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>[0.7677292811622569, 0.4878513641825002, 0.9875376727646378, 0.9999999999999999, 0.0013002576386151583, 0.9994196817902945, 0.0343692404845977, 0.0036141994136472317, 0.15227970869144272, 0.9946933827419492, 0.45190103534390486, 0.9973412159111323, 0.8653970758995685, 0.0052912416775965105, 0.0034409974255693453, 0.5764479705398784, 0.12378770134065104, 0.0063408794050916865, 0.0015485555719296463, 0.1633593692005633, 0.00014963309253527605, 0.999771354049716, 0.9999999999999999, 0.0796154101334587, 1.0000000000000002, 0.3756858239392752, 0.9884702074019383, 0.11177113229951395, 1.0000000000000004, 4.240015250145095e-06]</t>
+          <t>06_013_353001, 06_013_352202, 06_001_408000, 06_001_430102, 06_001_404501, 06_001_408100, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_406900, 06_001_407900, 06_001_406800, 06_001_407600, 06_001_407000, 06_001_404800, 06_001_406400, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_404200, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_404600, 06_001_404502, 06_001_404400, 06_001_406700, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
     </row>
@@ -18914,18 +16428,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>[408600, 408300, 409500, 409900, 407300, 409700, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409000, 409600, 407500, 408000, 408200]</t>
-        </is>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>[0.9999827045210273, 0.994308186917521, 4.4661900667418554e-05, 0.006075786241988535, 0.2861474234149392, 0.20437778708245594, 0.9999998755945416, 0.6232914417410853, 9.319125075570363e-05, 0.9998436596898741, 0.13460292410043967, 0.9947087583223345, 0.2362410598575429, 0.8762122986592544, 0.9907343149304814, 0.025977144002550884, 0.4363877858902382, 0.0004213552431639612, 1.0000000000000002, 1.984418283882492e-06, 0.3707235533165565, 0.9203795706572192, 0.01061615781161689, 0.9999999999999999]</t>
+          <t>06_001_407300, 06_001_408000, 06_001_430102, 06_001_408400, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_408200, 06_001_408700, 06_001_407700, 06_001_407400, 06_001_407800, 06_001_407900, 06_001_407600, 06_001_407500, 06_001_409900, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_408800, 06_001_408300, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
     </row>
@@ -18968,18 +16476,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 401100, 425104, 423800, 400100, 400800, 401200, 400500, 423901, 400400]</t>
-        </is>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>[2.656209932681672e-05, 0.01112123489363668, 1.0000000000000002, 1.0, 0.9977244426022931, 0.002952584727418623, 0.00026767918881271286, 0.0019107257353898047, 0.9970257984630003, 0.9992411667912338, 0.003022693754780759, 0.9680351080719733, 0.0004576310444903695, 0.012895325220125693, 0.9991369618634541, 0.004587311345210553, 1.3595576217647143e-08, 2.590665602298652e-05, 0.5470567456152344, 0.9984706035248687, 0.9964772950395623, 0.0013424026365416633, 0.03218910294001414, 0.9958706707417351, 0.9999999999999999, 0.0020897682144825204, 0.007188464292424194, 0.01797643756265914, 0.8342022863835278, 0.006525690020902253, 0.0026608621812159194, 0.9916029318356501, 0.9926343779854776, 0.9062776786431412, 0.999529996946345, 0.015989876772205595, 0.997581286700642]</t>
+          <t>06_013_354001, 06_013_353001, 06_001_423800, 06_001_421600, 06_001_404300, 06_001_425103, 06_001_404102, 06_001_404501, 06_001_424001, 06_001_403501, 06_001_400500, 06_001_423700, 06_001_425104, 06_001_401300, 06_001_404200, 06_001_403900, 06_001_400600, 06_001_426100, 06_001_400800, 06_001_404000, 06_001_400700, 06_001_401500, 06_001_400200, 06_001_400300, 06_001_404101, 06_001_401100, 06_001_401400, 06_001_426200, 06_001_401000, 06_001_400900, 06_001_400100, 06_001_404400, 06_001_400400, 06_001_401200, 06_001_423902, 06_001_423901, 06_001_424002, 06_001_422700, 06_001_422600</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>0.0067887205079617055, 0.0015391255728193192, 0.0020552173694893166, 0.002680472593695675, 0.9947700098967562, 0.0013036741774581574, 1.0000000000000002, 0.0005993884095856405, 0.01931626062404116, 2.6182091213769463e-06, 0.9960514126878179, 0.02531315565161337, 0.005634643724556976, 6.991874059631552e-06, 0.9936781052052928, 0.0011873331042474493, 1.0000000000000007, 0.0044628337844955885, 0.981938027986616, 0.9762498585231889, 0.9879093703428604, 2.0664788211457506e-05, 0.9858031592111738, 0.9999999999999997, 0.9976728213953011, 0.8314362094571293, 0.00024251822271030292, 0.004397440709882871, 0.991497511432827, 0.9812135951851498, 0.9918698878032208, 0.5467439193823153, 0.9985930776454361, 0.9064150840599814, 0.036445388889006856, 0.011963736718719427, 0.03215493905107363, 0.004475913618253192, 0.006397957003133912</t>
         </is>
       </c>
     </row>
@@ -19022,18 +16524,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 403900, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
-        </is>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>[0.9995000502724857, 1.0, 0.0253306837873711, 0.9996341558474179, 0.9999999999999998, 0.9999734379005675, 0.5141485702300945, 0.0012191281292634267, 0.9970474152727935, 0.9999999999999998, 0.000589477744066462, 1.0, 1.0, 0.9999999999999998, 0.9995900384245058, 0.03027914701030403, 1.0, 0.9999999999999998, 0.0011003194203217295, 0.842079014070031, 0.9999999864044794, 0.893513765324486, 0.999978748455835, 1.0, 0.0036695908932477973, 1.0, 0.02909068493069756, 1.0000000000000002, 8.523077183612521e-07, 0.0030561554299491337, 0.9970874836287933, 0.16579771361665702, 0.0016275722910100705, 0.9999999999999996, 0.7848467465713239, 0.09372232135680356, 0.003508625010712741, 0.9961816118836267]</t>
+          <t>06_001_402900, 06_001_402200, 06_001_405200, 06_001_403702, 06_001_403701, 06_001_403502, 06_001_403501, 06_001_428700, 06_001_981900, 06_001_403600, 06_001_427300, 06_001_403100, 06_001_403300, 06_001_425104, 06_001_410500, 06_001_983200, 06_001_982000, 06_001_402500, 06_001_401300, 06_001_402700, 06_001_403900, 06_001_403000, 06_001_403400, 06_001_401600, 06_001_402400, 06_001_402800, 06_001_401800, 06_001_402600, 06_001_404000, 06_001_401500, 06_001_990000, 06_001_401100, 06_001_401400, 06_001_406000, 06_001_401000, 06_001_401200, 06_001_401700, 06_075_017902</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>0.9999775267963873, 1.0000000000000007, 9.55664440407178e-07, 0.8045967547440328, 1.0, 0.9999999999999998, 0.9999973817908929, 0.019749243196765794, 0.9891519237905889, 0.8859566876617134, 0.003082019355126612, 1.0000000000000004, 0.5105950861278049, 0.004161178477387086, 1.0000000000000002, 0.9782634868157625, 0.9995919690720226, 1.0000000000000004, 0.9999930081259307, 1.0000000000000002, 7.44717627738628e-05, 0.025879207965284697, 0.8403073967360203, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.01827835898736466, 0.999206580894849, 0.03380514233231011, 0.1685637905428793, 0.999757481777288, 0.0011246725436768823, 3.167127921880509e-05, 0.09358491594001864, 0.9631774290340557, 2.221911384119028e-05</t>
         </is>
       </c>
     </row>
@@ -19076,18 +16572,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>[406601, 405000, 406602, 407300, 406100, 405700, 408700, 404700, 408800, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 406300, 407600, 406202, 407400, 405901, 409000, 427200, 407500, 407102, 406201, 407101, 405800, 406400]</t>
-        </is>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>[0.23227071883764688, 0.5010254794742202, 0.5121486358176096, 0.6871348099812029, 0.9919093290425203, 0.5784962778800438, 1.2440552408659218e-07, 0.00014512105496026562, 0.0005224128254900748, 0.00016848831826374484, 0.9999999999999997, 0.2709636051965051, 0.9653726721550996, 3.895245878793784e-05, 0.8477202913086438, 0.012549549495068268, 0.005306617257858696, 0.9925634332629887, 0.18731096960271862, 0.9999999999999998, 0.40025284490916957, 0.002659722978040269, 0.00022690254096742625, 0.013260592417478838, 5.019209249383257e-06, 0.6243141760606364, 0.9943293161372108, 0.8882288677006079, 0.004344018258693942, 0.9999957555592354]</t>
+          <t>06_001_405800, 06_001_407300, 06_001_405000, 06_001_409000, 06_001_408700, 06_001_407400, 06_001_427100, 06_001_407600, 06_001_406300, 06_001_427200, 06_001_406202, 06_001_404800, 06_001_406400, 06_001_405700, 06_001_405600, 06_001_407500, 06_001_404700, 06_001_404900, 06_001_406201, 06_001_406100, 06_001_426100, 06_001_407102, 06_001_407101, 06_001_406602, 06_001_406601, 06_001_407200, 06_001_408800, 06_001_406000, 06_001_406500</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>8.131151498200891e-05, 0.681097803525554, 0.5013290407176527, 0.00014880324660171364, 1.262814850403896e-07, 0.39993838067849724, 2.1792518141814564e-06, 0.18761087952481248, 0.9984885515205657, 0.010751439978086067, 0.9999999999999997, 0.0026978699299492906, 0.9999972886713988, 0.57694024336863, 0.014046258597891277, 0.00010561105151224253, 5.134783543136277e-06, 0.9719253971701786, 0.9975019472717495, 0.9814152136362709, 6.759349948789213e-08, 0.6257852059000748, 0.8885609747819786, 0.5117493707375023, 0.22812829855554553, 1.0000000000000002, 0.0007063584443686103, 0.26352978056923343, 0.847381754678294</t>
         </is>
       </c>
     </row>
@@ -19130,18 +16620,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>oakland_tracts_2010.csv</t>
-        </is>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>[410400, 408600, 408300, 409500, 409900, 407300, 409700, 408800, 430400, 410200, 432400, 409100, 410000, 410300, 408900, 432700, 409200, 410100, 432502, 408500, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
-        </is>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>[0.9999248830771386, 1.7295479037207908e-05, 0.005691813082554984, 0.9999553380992199, 0.9927720174013653, 0.025273013853144483, 0.7956222129176046, 0.37618614543318385, 0.00037014235429576846, 1.0, 0.0027721275430710904, 1.0, 0.9939318350694749, 1.0000000000000002, 0.999906808749302, 1.1449734166373166e-05, 0.9828536924412588, 0.9999999999999993, 0.0074222227939128365, 0.00015634031004601367, 0.002211363708426982, 0.0019577360449498614, 0.9740228559973743, 0.00963000516489857, 0.0004179181992460182, 0.9961274735203688, 0.99767417190505, 0.629276446683574, 0.0017004386052384877, 0.001322049330742177, 1.0, 0.0015856808739012848]</t>
+          <t>06_081_990100, 06_001_432200, 06_001_407300, 06_001_430102, 06_001_410300, 06_001_409400, 06_001_409000, 06_001_408500, 06_001_409700, 06_001_408100, 06_001_428301, 06_001_409100, 06_001_410000, 06_001_410400, 06_001_409900, 06_001_410200, 06_001_430400, 06_001_432800, 06_001_408900, 06_001_410100, 06_001_432502, 06_001_409600, 06_001_409800, 06_001_409500, 06_001_990000, 06_001_408800, 06_001_409200, 06_001_432700, 06_001_432300, 06_001_409300, 06_001_408300, 06_001_432400, 06_001_432100, 06_001_408600</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>8.423374311592529e-05, 0.00165875609493979, 0.024194917817344657, 0.0004223440120539605, 1.0000000000000004, 1.0000000000000004, 0.9891925664292057, 0.00011690761259118062, 0.794712721211581, 4.999566107763076e-05, 0.06729587734991234, 1.0000000000000004, 0.9580983620613143, 0.9999999999999998, 0.9620559925452943, 0.9999999999999992, 0.0038010496594105122, 0.0034430248701252768, 1.0000000000000002, 0.9998976502178915, 0.0005822471271876824, 0.6318002946917548, 0.9841869995496813, 0.9998747506510213, 0.2755325802534351, 0.3727769004151381, 0.9777668368562132, 7.64377439686442e-06, 0.005047772746822691, 0.997585548744643, 8.559335906251925e-05, 0.005436440140424442, 0.022254206261718857, 3.6348652515142584e-05</t>
         </is>
       </c>
     </row>
@@ -19184,18 +16668,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>[403000, 403800, 403900, 404000, 403600, 426100, 405000, 406000, 402900, 426200, 427200, 427300, 983200, 405902, 405301, 403702, 405901, 403401, 403402, 403302, 403301, 405402, 405302, 405600, 405700, 405800, 405200, 405500, 405100, 404900, 405401, 406201, 406300, 406100]</t>
-        </is>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>[0.9740539494128935, 0.9986423019723067, 0.9987191162893216, 1.7866102372492876e-05, 0.11767435702348632, 8.654212847221973e-05, 0.49198152774429815, 0.7235449484963689, 2.149160546720488e-05, 0.0007207957695661198, 0.0008201125552428128, 0.0001135679180764878, 0.0013956970390052482, 0.9999999999999992, 1.0000000000000002, 0.18702508836876325, 1.0000000000000007, 0.1278353631180432, 0.6127592004138895, 0.3568307237183291, 0.9999458103142709, 1.0, 1.0000000000000002, 0.9859537337167655, 0.4230604541094936, 0.9999186883670997, 0.9999990483773302, 1.0000000000000002, 0.9997504117071532, 2.890145993456415e-05, 1.0000000000000007, 0.0024746928363626086, 0.0015115399453561884, 7.30028101877567e-05]</t>
+          <t>06_001_403000, 06_001_403800, 06_001_403900, 06_001_404000, 06_001_403600, 06_001_426100, 06_001_405000, 06_001_406000, 06_001_402900, 06_001_426200, 06_001_427200, 06_001_427300, 06_001_983200, 06_001_405902, 06_001_405301, 06_001_403702, 06_001_405901, 06_001_403401, 06_001_403402, 06_001_403302, 06_001_403301, 06_001_405402, 06_001_405302, 06_001_405600, 06_001_405700, 06_001_405800, 06_001_405200, 06_001_405500, 06_001_405100, 06_001_404900, 06_001_405401, 06_001_406201, 06_001_406300, 06_001_406100</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>0.9740539494128935, 0.9986423019723067, 0.9987191162893216, 1.7866102372492876e-05, 0.11767435702348632, 8.654212847221973e-05, 0.49198152774429815, 0.7235449484963689, 2.149160546720488e-05, 0.0007207957695661198, 0.0008201125552428128, 0.0001135679180764878, 0.0013956970390052482, 0.9999999999999992, 1.0000000000000002, 0.18702508836876325, 1.0000000000000007, 0.1278353631180432, 0.6127592004138895, 0.3568307237183291, 0.9999458103142709, 1.0, 1.0000000000000002, 0.9859537337167655, 0.4230604541094936, 0.9999186883670997, 0.9999990483773302, 1.0000000000000002, 0.9997504117071532, 2.890145993456415e-05, 1.0000000000000007, 0.0024746928363626086, 0.0015115399453561884, 7.30028101877567e-05</t>
         </is>
       </c>
     </row>
@@ -19238,18 +16716,12 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>[407900, 404501, 426100, 408100, 404502, 406800, 404200, 407500, 404400, 404600, 406700, 352202, 353001, 407800, 407000, 407400, 407600, 407700, 406900, 430102, 406500, 406601, 406400, 404700, 404800, 404900, 406602, 407101, 407102, 408000]</t>
-        </is>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>[0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443]</t>
+          <t>06_001_407900, 06_001_404501, 06_001_426100, 06_001_408100, 06_001_404502, 06_001_406800, 06_001_404200, 06_001_407500, 06_001_404400, 06_001_404600, 06_001_406700, 06_013_352202, 06_013_353001, 06_001_407800, 06_001_407000, 06_001_407400, 06_001_407600, 06_001_407700, 06_001_406900, 06_001_430102, 06_001_406500, 06_001_406601, 06_001_406400, 06_001_404700, 06_001_404800, 06_001_404900, 06_001_406602, 06_001_407101, 06_001_407102, 06_001_408000</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443</t>
         </is>
       </c>
     </row>
@@ -19292,18 +16764,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>oakland_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>[407900, 409800, 408100, 409900, 407500, 408300, 408200, 408400, 408500, 408600, 408700, 408800, 409500, 409600, 409700, 407800, 407300, 407400, 407600, 407700, 430102, 408000]</t>
-        </is>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>[0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05]</t>
+          <t>06_001_407900, 06_001_409800, 06_001_408100, 06_001_409900, 06_001_407500, 06_001_408300, 06_001_408200, 06_001_408400, 06_001_408500, 06_001_408600, 06_001_408700, 06_001_408800, 06_001_409500, 06_001_409600, 06_001_409700, 06_001_407800, 06_001_407300, 06_001_407400, 06_001_407600, 06_001_407700, 06_001_430102, 06_001_408000</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05</t>
         </is>
       </c>
     </row>
@@ -19340,8 +16806,6 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -19372,8 +16836,6 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -19404,8 +16866,6 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -19436,8 +16896,6 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -19468,8 +16926,6 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -19500,8 +16956,6 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -19532,8 +16986,6 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -19564,8 +17016,6 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -19596,8 +17046,6 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -19628,8 +17076,6 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -19660,8 +17106,6 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -19692,8 +17136,6 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -19732,18 +17174,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>['02_130_000400', '02_130_000102', '02_130_000101', '02_100_000100', '02_066_000100', '02_063_000200', '02_275_000300', '02_195_000200', '02_105_000400', '02_130_000200', '02_130_000300', '02_282_000100', '02_110_000600', '02_110_000500', '02_220_000200', '02_220_000100', '02_198_000300', '02_198_940100', '02_198_000100', '02_198_000200']</t>
-        </is>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>[0.9780559068559642, 0.7770836074795211, 0.9178572457810183, 5.4630806256108955e-22, 1.2314385530258742e-07, 6.362508825481e-07, 0.7702502043815671, 0.8013039114234937, 0.5526661874109627, 0.9810920658405352, 0.8731727070378424, 0.8669495794597193, 0.00019743959249441737, 2.283158977882209e-06, 0.33647925665142575, 0.6628183817181398, 0.9999925924988091, 0.5625797938385011, 0.520278899085319, 0.8869153011655176]</t>
+          <t>02_130_000400, 02_130_000102, 02_130_000101, 02_100_000100, 02_066_000100, 02_063_000200, 02_275_000300, 02_195_000200, 02_105_000400, 02_130_000200, 02_130_000300, 02_282_000100, 02_110_000600, 02_110_000500, 02_220_000200, 02_220_000100, 02_198_000300, 02_198_940100, 02_198_000100, 02_198_000200</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>0.9780559068559642, 0.7770836074795211, 0.9178572457810183, 5.4630806256108955e-22, 1.2314385530258742e-07, 6.362508825481e-07, 0.7702502043815671, 0.8013039114234937, 0.5526661874109627, 0.9810920658405352, 0.8731727070378424, 0.8669495794597193, 0.00019743959249441737, 2.283158977882209e-06, 0.33647925665142575, 0.6628183817181398, 0.9999925924988091, 0.5625797938385011, 0.520278899085319, 0.8869153011655176</t>
         </is>
       </c>
     </row>
@@ -19784,18 +17220,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>['02_122_000701', '02_122_000702', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_002900', '02_122_001000', '02_122_000800', '02_122_000900', '02_122_001100', '02_122_000300', '02_122_000400', '02_122_001200', '02_122_001300', '02_282_000100', '02_150_000100', '02_150_000400', '02_150_000300', '02_150_000500', '02_150_000200']</t>
-        </is>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>[0.24521027938565934, 3.3477238458051567e-09, 0.2612134052017336, 7.746463809050289e-06, 0.7538335573181438, 0.0, 0.30432437981727706, 0.5188865077175276, 0.8981365548977667, 0.8787297137468583, 0.0042666379776787385, 0.348503817337518, 0.352567379008241, 0.5827396543052646, 2.3038996321835619e-07, 0.429592282036733, 0.26182139057130527, 0.9886555965530444, 0.8683882272927937, 0.9591117564903244]</t>
+          <t>02_122_000701, 02_122_000702, 02_063_000300, 02_066_000100, 02_063_000200, 02_020_002900, 02_122_001000, 02_122_000800, 02_122_000900, 02_122_001100, 02_122_000300, 02_122_000400, 02_122_001200, 02_122_001300, 02_282_000100, 02_150_000100, 02_150_000400, 02_150_000300, 02_150_000500, 02_150_000200</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>0.24521027938565934, 3.3477238458051567e-09, 0.2612134052017336, 7.746463809050289e-06, 0.7538335573181438, 0.0, 0.30432437981727706, 0.5188865077175276, 0.8981365548977667, 0.8787297137468583, 0.0042666379776787385, 0.348503817337518, 0.352567379008241, 0.5827396543052646, 2.3038996321835619e-07, 0.429592282036733, 0.26182139057130527, 0.9886555965530444, 0.8683882272927937, 0.9591117564903244</t>
         </is>
       </c>
     </row>
@@ -19836,18 +17266,12 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>['02_122_000701', '02_122_000702', '02_063_000300', '02_020_002900', '02_122_000300', '02_122_000400', '02_122_000500', '02_122_000600', '02_122_000200', '02_122_001300']</t>
-        </is>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>[0.0502819701239947, 0.23190249056731935, 6.554251165482017e-08, 3.3929097664994244e-06, 0.9569261158088384, 0.6514961826624829, 0.9999999999999997, 0.39286513010780927, 0.5557336704281627, 0.10507286383995901]</t>
+          <t>02_122_000701, 02_122_000702, 02_063_000300, 02_020_002900, 02_122_000300, 02_122_000400, 02_122_000500, 02_122_000600, 02_122_000200, 02_122_001300</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>0.0502819701239947, 0.23190249056731935, 6.554251165482017e-08, 3.3929097664994244e-06, 0.9569261158088384, 0.6514961826624829, 0.9999999999999997, 0.39286513010780927, 0.5557336704281627, 0.10507286383995901</t>
         </is>
       </c>
     </row>
@@ -19888,18 +17312,12 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>['02_020_002811', '02_020_002813', '02_063_000300', '02_020_002712', '02_020_002711', '02_020_000204', '02_020_002812', '02_020_002823', '02_020_000101', '02_020_002822', '02_020_002900', '02_020_980000', '02_020_002714', '02_020_002713', '02_020_980200', '02_020_002305', '02_122_000300', '02_020_002502', '02_020_002601', '02_020_002501', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>[0.00011349652241317276, 0.8792924427190709, 0.0016315230077775186, 0.9981451221208688, 0.0005550192306712537, 0.05088688958678776, 0.0007492917304567686, 0.8865733261523986, 0.0918215473467712, 0.9999614695284681, 0.8018130037986373, 0.000110417455630574, 0.521389418659589, 0.113983675371878, 3.728200922009275e-05, 0.003909456965862781, 3.2754209399678155e-08, 1.234622689024034e-05, 0.004125414500191761, 0.0002935492024133793, 0.998813601025533]</t>
+          <t>02_020_002811, 02_020_002813, 02_063_000300, 02_020_002712, 02_020_002711, 02_020_000204, 02_020_002812, 02_020_002823, 02_020_000101, 02_020_002822, 02_020_002900, 02_020_980000, 02_020_002714, 02_020_002713, 02_020_980200, 02_020_002305, 02_122_000300, 02_020_002502, 02_020_002601, 02_020_002501, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>0.00011349652241317276, 0.8792924427190709, 0.0016315230077775186, 0.9981451221208688, 0.0005550192306712537, 0.05088688958678776, 0.0007492917304567686, 0.8865733261523986, 0.0918215473467712, 0.9999614695284681, 0.8018130037986373, 0.000110417455630574, 0.521389418659589, 0.113983675371878, 3.728200922009275e-05, 0.003909456965862781, 3.2754209399678155e-08, 1.234622689024034e-05, 0.004125414500191761, 0.0002935492024133793, 0.998813601025533</t>
         </is>
       </c>
     </row>
@@ -19940,18 +17358,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>['02_020_002602', '02_020_002811', '02_020_002813', '02_020_001732', '02_020_002712', '02_020_002812', '02_020_002823', '02_020_002603', '02_020_002822', '02_020_980000', '02_020_002713', '02_020_980200', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001801', '02_020_002821']</t>
-        </is>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>[0.9972611340235377, 0.9998865034774218, 0.12070382168605569, 0.0003100198887649561, 4.970370876157558e-05, 0.9992507082695424, 4.293772965416458e-07, 1.0000000000000007, 3.8530471531999704e-05, 0.9997965239557738, 0.0, 1.8348477040673664e-05, 0.003785288359616831, 0.9824605852912667, 8.377201524089395e-05, 0.000139297235950782, 4.337612401414285e-05, 0.0011863989744723567]</t>
+          <t>02_020_002602, 02_020_002811, 02_020_002813, 02_020_001732, 02_020_002712, 02_020_002812, 02_020_002823, 02_020_002603, 02_020_002822, 02_020_980000, 02_020_002713, 02_020_980200, 02_020_001802, 02_020_002601, 02_020_001602, 02_020_001701, 02_020_001801, 02_020_002821</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>0.9972611340235377, 0.9998865034774218, 0.12070382168605569, 0.0003100198887649561, 4.970370876157558e-05, 0.9992507082695424, 4.293772965416458e-07, 1.0000000000000007, 3.8530471531999704e-05, 0.9997965239557738, 0.0, 1.8348477040673664e-05, 0.003785288359616831, 0.9824605852912667, 8.377201524089395e-05, 0.000139297235950782, 4.337612401414285e-05, 0.0011863989744723567</t>
         </is>
       </c>
     </row>
@@ -19992,18 +17404,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_000902', '02_020_002712', '02_020_002711', '02_020_001000', '02_020_001401', '02_020_001402', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_001601', '02_020_002502', '02_020_001802', '02_020_001900', '02_020_002601', '02_020_001602', '02_020_002000', '02_020_002100', '02_020_002400', '02_020_001500', '02_020_002202', '02_020_002501', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>[7.236544247995435e-06, 0.12174648649118253, 0.0003878993669039387, 0.0, 0.0, 0.5636714893235503, 0.006559079846645152, 0.9044566883186003, 2.7990164691175192e-05, 5.42239881847244e-05, 8.921190047391095e-07, 0.9999876537731077, 0.00034744692728121043, 1.0000000000000016, 0.0134140002085417, 4.4488523865131365e-06, 1.0, 0.9079386216930775, 0.6743983469946722, 0.9997278804026153, 0.11921731274302477, 0.9982869548624264, 0.9999517805989615]</t>
+          <t>02_020_001300, 02_020_000902, 02_020_002712, 02_020_002711, 02_020_001000, 02_020_001401, 02_020_001402, 02_020_002305, 02_020_002304, 02_020_002302, 02_020_001601, 02_020_002502, 02_020_001802, 02_020_001900, 02_020_002601, 02_020_001602, 02_020_002000, 02_020_002100, 02_020_002400, 02_020_001500, 02_020_002202, 02_020_002501, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>7.236544247995435e-06, 0.12174648649118253, 0.0003878993669039387, 0.0, 0.0, 0.5636714893235503, 0.006559079846645152, 0.9044566883186003, 2.7990164691175192e-05, 5.42239881847244e-05, 8.921190047391095e-07, 0.9999876537731077, 0.00034744692728121043, 1.0000000000000016, 0.0134140002085417, 4.4488523865131365e-06, 1.0, 0.9079386216930775, 0.6743983469946722, 0.9997278804026153, 0.11921731274302477, 0.9982869548624264, 0.9999517805989615</t>
         </is>
       </c>
     </row>
@@ -20044,18 +17450,12 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_002712', '02_020_002711', '02_020_001200', '02_020_002301', '02_020_002714', '02_020_002305', '02_020_002304', '02_020_002302', '02_020_002100', '02_020_002400', '02_020_002201', '02_020_002202', '02_020_002501']</t>
-        </is>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>[0.17725223294843345, 0.0014172748034957667, 0.1638848030549237, 0.00027246665598662127, 0.18756899772314584, 1.6756904405042444e-05, 0.09163385471569101, 0.9999720098353108, 0.9999457760117907, 0.09206099306563245, 0.3256016530053279, 1.000000000000001, 0.8807826872569751, 0.0014194959351889738]</t>
+          <t>02_020_001300, 02_020_002712, 02_020_002711, 02_020_001200, 02_020_002301, 02_020_002714, 02_020_002305, 02_020_002304, 02_020_002302, 02_020_002100, 02_020_002400, 02_020_002201, 02_020_002202, 02_020_002501</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>0.17725223294843345, 0.0014172748034957667, 0.1638848030549237, 0.00027246665598662127, 0.18756899772314584, 1.6756904405042444e-05, 0.09163385471569101, 0.9999720098353108, 0.9999457760117907, 0.09206099306563245, 0.3256016530053279, 1.000000000000001, 0.8807826872569751, 0.0014194959351889738</t>
         </is>
       </c>
     </row>
@@ -20096,18 +17496,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>['02_020_001300', '02_020_000703', '02_020_000801', '02_020_000902', '02_020_000702', '02_020_000901', '02_020_000701', '02_020_000204', '02_020_001200', '02_020_001000', '02_020_001100', '02_020_980100', '02_020_001401', '02_020_000601', '02_020_000602', '02_020_980200', '02_020_001402', '02_020_001601', '02_020_002000', '02_020_002100', '02_020_001500', '02_020_002202', '02_020_000500']</t>
-        </is>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>[0.1179034518854923, 0.6387621217630376, 0.01965478759810082, 0.8782453491536567, 0.07211330850447445, 0.617673291900754, 0.03289883057031926, 0.0020821797699839668, 0.7024233811055804, 1.0, 0.9999999999999998, 0.7425631958829443, 0.43632851067645123, 0.7054106677630186, 0.0005207032000320474, 0.1131186142155708, 0.9934409201533567, 0.0018716405739860485, 0.0, 3.852412887486132e-07, 0.00025876347640056696, 0.0, 0.25453043472569953]</t>
+          <t>02_020_001300, 02_020_000703, 02_020_000801, 02_020_000902, 02_020_000702, 02_020_000901, 02_020_000701, 02_020_000204, 02_020_001200, 02_020_001000, 02_020_001100, 02_020_980100, 02_020_001401, 02_020_000601, 02_020_000602, 02_020_980200, 02_020_001402, 02_020_001601, 02_020_002000, 02_020_002100, 02_020_001500, 02_020_002202, 02_020_000500</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>0.1179034518854923, 0.6387621217630376, 0.01965478759810082, 0.8782453491536567, 0.07211330850447445, 0.617673291900754, 0.03289883057031926, 0.0020821797699839668, 0.7024233811055804, 1.0, 0.9999999999999998, 0.7425631958829443, 0.43632851067645123, 0.7054106677630186, 0.0005207032000320474, 0.1131186142155708, 0.9934409201533567, 0.0018716405739860485, 0.0, 3.852412887486132e-07, 0.00025876347640056696, 0.0, 0.25453043472569953</t>
         </is>
       </c>
     </row>
@@ -20148,18 +17542,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>['02_020_002602', '02_020_000801', '02_020_000802', '02_020_000902', '02_020_000901', '02_020_000701', '02_020_980100', '02_020_980000', '02_020_000601', '02_020_000602', '02_020_001601', '02_020_001802', '02_020_002601', '02_020_001602', '02_020_001701', '02_020_001702', '02_020_001500', '02_020_001801']</t>
-        </is>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>[0.00273886597646494, 0.4694410172069217, 0.9999795719273364, 8.164355150424025e-06, 0.38232670809924507, 0.0, 0.00013257335961967918, 2.0160432077912508e-05, 0.2945893322369863, 0.9994792967999997, 0.9981274673069724, 0.9958672647130937, 0.0, 0.9999117791323743, 0.49961189179604504, 0.25543739153179024, 1.3356120980360038e-05, 4.843277017515404e-06]</t>
+          <t>02_020_002602, 02_020_000801, 02_020_000802, 02_020_000902, 02_020_000901, 02_020_000701, 02_020_980100, 02_020_980000, 02_020_000601, 02_020_000602, 02_020_001601, 02_020_001802, 02_020_002601, 02_020_001602, 02_020_001701, 02_020_001702, 02_020_001500, 02_020_001801</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>0.00273886597646494, 0.4694410172069217, 0.9999795719273364, 8.164355150424025e-06, 0.38232670809924507, 0.0, 0.00013257335961967918, 2.0160432077912508e-05, 0.2945893322369863, 0.9994792967999997, 0.9981274673069724, 0.9958672647130937, 0.0, 0.9999117791323743, 0.49961189179604504, 0.25543739153179024, 1.3356120980360038e-05, 4.843277017515404e-06</t>
         </is>
       </c>
     </row>
@@ -20200,18 +17588,12 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>['02_020_000703', '02_020_000801', '02_020_000802', '02_020_001732', '02_020_000702', '02_020_000701', '02_020_980000', '02_020_000602', '02_020_980200', '02_020_001701', '02_020_001702', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>[0.3611371243913363, 0.5109041951949169, 2.0428072660050975e-05, 0.9996449815548275, 0.9278866914955118, 0.9671011694296805, 7.285285079242914e-05, 0.0, 2.1111755694385585e-06, 0.5002488109679948, 0.74456260846821, 0.9999099334348467]</t>
+          <t>02_020_000703, 02_020_000801, 02_020_000802, 02_020_001732, 02_020_000702, 02_020_000701, 02_020_980000, 02_020_000602, 02_020_980200, 02_020_001701, 02_020_001702, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>0.3611371243913363, 0.5109041951949169, 2.0428072660050975e-05, 0.9996449815548275, 0.9278866914955118, 0.9671011694296805, 7.285285079242914e-05, 0.0, 2.1111755694385585e-06, 0.5002488109679948, 0.74456260846821, 0.9999099334348467</t>
         </is>
       </c>
     </row>
@@ -20252,18 +17634,12 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>['02_020_002813', '02_170_000601', '02_063_000300', '02_020_000703', '02_020_001732', '02_020_000102', '02_020_000202', '02_020_000204', '02_020_002823', '02_020_000101', '02_020_002900', '02_020_980100', '02_020_000205', '02_020_980000', '02_020_000206', '02_020_980200', '02_020_000201', '02_170_000200', '02_170_001300', '02_020_001731']</t>
-        </is>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>[3.7355948641099807e-06, 1.7804492390722232e-06, 5.018977974721475e-07, 0.00010075384561549065, 4.49985563746508e-05, 0.9232814752101063, 1.0000000000000002, 0.9470309306432275, 0.0, 0.8939308481813236, 0.1169546405246056, 0.0005295605094567181, 0.9999999999999999, 4.530573515570147e-08, 0.9999999999999994, 0.704460225084521, 1.0000000000000004, 5.754766171299071e-11, 4.102294321050164e-06, 9.006656516124007e-05]</t>
+          <t>02_020_002813, 02_170_000601, 02_063_000300, 02_020_000703, 02_020_001732, 02_020_000102, 02_020_000202, 02_020_000204, 02_020_002823, 02_020_000101, 02_020_002900, 02_020_980100, 02_020_000205, 02_020_980000, 02_020_000206, 02_020_980200, 02_020_000201, 02_170_000200, 02_170_001300, 02_020_001731</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>3.7355948641099807e-06, 1.7804492390722232e-06, 5.018977974721475e-07, 0.00010075384561549065, 4.49985563746508e-05, 0.9232814752101063, 1.0000000000000002, 0.9470309306432275, 0.0, 0.8939308481813236, 0.1169546405246056, 0.0005295605094567181, 0.9999999999999999, 4.530573515570147e-08, 0.9999999999999994, 0.704460225084521, 1.0000000000000004, 5.754766171299071e-11, 4.102294321050164e-06, 9.006656516124007e-05</t>
         </is>
       </c>
     </row>
@@ -20304,18 +17680,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000703', '02_170_000401', '02_170_001201', '02_170_000601', '02_020_000101', '02_170_000501', '02_170_001202', '02_170_000603', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>[0.00033353451278614235, 0.1996364450723334, 0.025803357959531422, 0.00017326066255315706, 1.1727616219096056e-08, 1.0000000000000013, 0.6091684606180532, 1.5119714265847615e-05, 0.06154308545830209, 0.9999999999999978, 0.5760611157668808, 0.7080293747201478, 0.00017009004492637503, 0.9995364909870452, 0.027242036211990665, 0.0006812070372065298]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000604, 02_170_000703, 02_170_000401, 02_170_001201, 02_170_000601, 02_020_000101, 02_170_000501, 02_170_001202, 02_170_000603, 02_170_001100, 02_170_000200, 02_170_001300, 02_170_000300, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>0.00033353451278614235, 0.1996364450723334, 0.025803357959531422, 0.00017326066255315706, 1.1727616219096056e-08, 1.0000000000000013, 0.6091684606180532, 1.5119714265847615e-05, 0.06154308545830209, 0.9999999999999978, 0.5760611157668808, 0.7080293747201478, 0.00017009004492637503, 0.9995364909870452, 0.027242036211990665, 0.0006812070372065298</t>
         </is>
       </c>
     </row>
@@ -20356,18 +17726,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000604', '02_170_000705', '02_170_000703', '02_170_000402', '02_170_001001', '02_170_000401', '02_170_000706', '02_170_000601', '02_170_000501', '02_170_001003', '02_170_000603', '02_170_001100', '02_170_000800', '02_170_000900']</t>
-        </is>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>[0.9995623908258221, 0.797978336240241, 2.20024672957866e-06, 0.999994954545299, 0.9991535478898051, 3.04537334513603e-05, 0.00018059207293494184, 0.00012109333083255393, 0.15333436058614947, 0.0006188929528088661, 8.37285640761524e-27, 0.9986992474666987, 0.11471669363948189, 0.13390562711714504, 1.0000000000000002, 0.9993187929627896]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000604, 02_170_000705, 02_170_000703, 02_170_000402, 02_170_001001, 02_170_000401, 02_170_000706, 02_170_000601, 02_170_000501, 02_170_001003, 02_170_000603, 02_170_001100, 02_170_000800, 02_170_000900</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>0.9995623908258221, 0.797978336240241, 2.20024672957866e-06, 0.999994954545299, 0.9991535478898051, 3.04537334513603e-05, 0.00018059207293494184, 0.00012109333083255393, 0.15333436058614947, 0.0006188929528088661, 8.37285640761524e-27, 0.9986992474666987, 0.11471669363948189, 0.13390562711714504, 1.0000000000000002, 0.9993187929627896</t>
         </is>
       </c>
     </row>
@@ -20408,18 +17772,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>['02_170_001004', '02_170_000701', '02_170_000102', '02_170_000604', '02_170_000705', '02_170_000101', '02_170_000703', '02_170_000402', '02_170_001001', '02_170_000401', '02_170_000706', '02_063_000300', '02_066_000100', '02_063_000200', '02_020_000101', '02_020_002900', '02_170_000501', '02_170_001003', '02_170_000603', '02_050_000300', '02_122_000100', '02_090_980000', '02_170_000502', '02_240_000400', '02_290_000400', '02_290_000200', '02_068_000100', '02_170_001100', '02_170_000200', '02_170_001300', '02_170_000300']</t>
-        </is>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>[0.00010407466139064442, 0.0023852186874310814, 1.000000000000005, 0.6623608924443993, 5.045454701200519e-06, 0.9909119745234289, 0.0006731914476346631, 0.9999695462665481, 0.9998194079270666, 0.9998788949415485, 0.8466656394138499, 0.30608858831330393, 0.1260871722976367, 0.0010369265659974166, 1.7188817054787498e-06, 5.917096904293654e-06, 0.9384569145416966, 0.0013007525333065808, 0.3092221905936337, 4.619891121814991e-06, 1.128021155127117e-07, 9.944143761835305e-06, 0.8821779235805244, 1.7446750383552326e-06, 6.827326180315658e-07, 6.830887677148375e-07, 0.9999974547339822, 0.1580649981627065, 0.9998292126441309, 0.00045940671863276006, 0.9727579637880105]</t>
+          <t>02_170_001004, 02_170_000701, 02_170_000102, 02_170_000604, 02_170_000705, 02_170_000101, 02_170_000703, 02_170_000402, 02_170_001001, 02_170_000401, 02_170_000706, 02_063_000300, 02_066_000100, 02_063_000200, 02_020_000101, 02_020_002900, 02_170_000501, 02_170_001003, 02_170_000603, 02_050_000300, 02_122_000100, 02_090_980000, 02_170_000502, 02_240_000400, 02_290_000400, 02_290_000200, 02_068_000100, 02_170_001100, 02_170_000200, 02_170_001300, 02_170_000300</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>0.00010407466139064442, 0.0023852186874310814, 1.000000000000005, 0.6623608924443993, 5.045454701200519e-06, 0.9909119745234289, 0.0006731914476346631, 0.9999695462665481, 0.9998194079270666, 0.9998788949415485, 0.8466656394138499, 0.30608858831330393, 0.1260871722976367, 0.0010369265659974166, 1.7188817054787498e-06, 5.917096904293654e-06, 0.9384569145416966, 0.0013007525333065808, 0.3092221905936337, 4.619891121814991e-06, 1.128021155127117e-07, 9.944143761835305e-06, 0.8821779235805244, 1.7446750383552326e-06, 6.827326180315658e-07, 6.830887677148375e-07, 0.9999974547339822, 0.1580649981627065, 0.9998292126441309, 0.00045940671863276006, 0.9727579637880105</t>
         </is>
       </c>
     </row>
@@ -20460,18 +17818,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>['02_090_000100', '02_090_000300', '02_090_000400', '02_090_000700', '02_090_001300', '02_090_000500', '02_090_000600', '02_090_001200', '02_090_000200', '02_090_001600', '02_090_001000', '02_090_000800', '02_090_980000', '02_090_001402', '02_090_001401']</t>
-        </is>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>[1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.46437118122112175, 0.03177790252993006, 1.0000000000000009, 0.7518970774447352, 0.08209363315667396, 0.9999551495508604, 0.007474624811244491, 0.0965884964957949, 6.480676319751685e-05, 0.017684204490174733, 0.5390113587576549, 0.3264962194641466]</t>
+          <t>02_090_000100, 02_090_000300, 02_090_000400, 02_090_000700, 02_090_001300, 02_090_000500, 02_090_000600, 02_090_001200, 02_090_000200, 02_090_001600, 02_090_001000, 02_090_000800, 02_090_980000, 02_090_001402, 02_090_001401</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.46437118122112175, 0.03177790252993006, 1.0000000000000009, 0.7518970774447352, 0.08209363315667396, 0.9999551495508604, 0.007474624811244491, 0.0965884964957949, 6.480676319751685e-05, 0.017684204490174733, 0.5390113587576549, 0.3264962194641466</t>
         </is>
       </c>
     </row>
@@ -20512,18 +17864,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>['02_240_000100', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_001200', '02_090_001600', '02_090_980000', '02_240_000400', '02_090_980100', '02_090_001501', '02_090_001902', '02_090_001402', '02_090_001502', '02_090_001901', '02_090_001401', '02_290_000100']</t>
-        </is>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>[4.155651760364181e-07, 0.9756357325060139, 0.7029361781199882, 0.011078894123691983, 0.9179063668433269, 0.9922641740204475, 0.0008597398440136311, 9.847547498188845e-06, 0.9999942305699692, 0.9999999999999993, 0.702435212387089, 0.14850648089063814, 1.0000000000000004, 0.0003876839890965538, 0.673503780535848, 1.0900159248253424e-06]</t>
+          <t>02_240_000100, 02_090_001700, 02_090_001300, 02_090_000600, 02_090_001200, 02_090_001600, 02_090_980000, 02_240_000400, 02_090_980100, 02_090_001501, 02_090_001902, 02_090_001402, 02_090_001502, 02_090_001901, 02_090_001401, 02_290_000100</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>4.155651760364181e-07, 0.9756357325060139, 0.7029361781199882, 0.011078894123691983, 0.9179063668433269, 0.9922641740204475, 0.0008597398440136311, 9.847547498188845e-06, 0.9999942305699692, 0.9999999999999993, 0.702435212387089, 0.14850648089063814, 1.0000000000000004, 0.0003876839890965538, 0.673503780535848, 1.0900159248253424e-06</t>
         </is>
       </c>
     </row>
@@ -20564,18 +17910,12 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>['02_240_000100', '02_170_000101', '02_180_000100', '02_063_000300', '02_066_000100', '02_063_000200', '02_185_000200', '02_050_000300', '02_090_000700', '02_090_001700', '02_090_001300', '02_090_000600', '02_090_000200', '02_090_001600', '02_090_000900', '02_090_001000', '02_090_000800', '02_090_980000', '02_240_000400', '02_158_000100', '02_282_000100', '02_090_980100', '02_090_001902', '02_090_001402', '02_090_001901', '02_290_000400', '02_290_000100', '02_290_000200', '02_290_000300', '02_068_000100', '02_170_000200', '02_188_000100']</t>
-        </is>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>[0.999998499378834, 6.169030906028319e-07, 2.700830905881833e-07, 4.336987271425662e-07, 0.8739004222581556, 0.0001905119027233178, 1.5987423410659642e-07, 3.451101020410975e-07, 0.5356288187788724, 0.024364267493986777, 0.26528591935008244, 0.23702402843158074, 4.485044914560673e-05, 0.0002612011682998283, 1.0000000000000013, 0.9034115035042094, 0.9999351932367941, 0.9814461115220456, 0.9999884077774589, 2.7644985821968104e-07, 1.2051781957247098e-08, 5.769430030316401e-06, 0.2975647876129079, 0.3124821603517113, 0.9996123160109058, 0.9999987079836017, 0.999992741554536, 0.9999991555480063, 0.9999986697464894, 2.5452660187421014e-06, 6.972533943831184e-07, 4.5667544082283884e-07]</t>
+          <t>02_240_000100, 02_170_000101, 02_180_000100, 02_063_000300, 02_066_000100, 02_063_000200, 02_185_000200, 02_050_000300, 02_090_000700, 02_090_001700, 02_090_001300, 02_090_000600, 02_090_000200, 02_090_001600, 02_090_000900, 02_090_001000, 02_090_000800, 02_090_980000, 02_240_000400, 02_158_000100, 02_282_000100, 02_090_980100, 02_090_001902, 02_090_001402, 02_090_001901, 02_290_000400, 02_290_000100, 02_290_000200, 02_290_000300, 02_068_000100, 02_170_000200, 02_188_000100</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>0.999998499378834, 6.169030906028319e-07, 2.700830905881833e-07, 4.336987271425662e-07, 0.8739004222581556, 0.0001905119027233178, 1.5987423410659642e-07, 3.451101020410975e-07, 0.5356288187788724, 0.024364267493986777, 0.26528591935008244, 0.23702402843158074, 4.485044914560673e-05, 0.0002612011682998283, 1.0000000000000013, 0.9034115035042094, 0.9999351932367941, 0.9814461115220456, 0.9999884077774589, 2.7644985821968104e-07, 1.2051781957247098e-08, 5.769430030316401e-06, 0.2975647876129079, 0.3124821603517113, 0.9996123160109058, 0.9999987079836017, 0.999992741554536, 0.9999991555480063, 0.9999986697464894, 2.5452660187421014e-06, 6.972533943831184e-07, 4.5667544082283884e-07</t>
         </is>
       </c>
     </row>
@@ -20616,18 +17956,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>alaska_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>['02_170_000101', '02_013_000100', '02_050_000200', '02_050_000300', '02_050_000100', '02_122_000100', '02_122_001200', '02_164_000100', '02_016_000200', '02_016_000100', '02_158_000100', '02_070_000200', '02_070_000100', '02_290_000400', '02_150_000100', '02_060_000100']</t>
-        </is>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>[6.101021175696617e-08, 0.4775048649755406, 0.9999999999999991, 0.9999950349987785, 0.8819880982234009, 0.6742375366027425, 0.005443794686462682, 0.7894339566936567, 0.48307468660050434, 0.2898793639420308, 0.1912309953454594, 0.9827007309419336, 0.920791927955111, 1.430448623131718e-07, 0.15251371713858755, 0.6037071202113345]</t>
+          <t>02_170_000101, 02_013_000100, 02_050_000200, 02_050_000300, 02_050_000100, 02_122_000100, 02_122_001200, 02_164_000100, 02_016_000200, 02_016_000100, 02_158_000100, 02_070_000200, 02_070_000100, 02_290_000400, 02_150_000100, 02_060_000100</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>6.101021175696617e-08, 0.4775048649755406, 0.9999999999999991, 0.9999950349987785, 0.8819880982234009, 0.6742375366027425, 0.005443794686462682, 0.7894339566936567, 0.48307468660050434, 0.2898793639420308, 0.1912309953454594, 0.9827007309419336, 0.920791927955111, 1.430448623131718e-07, 0.15251371713858755, 0.6037071202113345</t>
         </is>
       </c>
     </row>
@@ -20666,18 +18000,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>maine_tracts_2020.csv</t>
-        </is>
-      </c>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>['23_019_003000', '23_019_012000', '23_027_043000', '23_019_002000', '23_013_970200', '23_011_019000', '23_011_020500', '23_009_965300', '23_009_965400', '23_013_970302', '23_013_970301', '23_019_012500', '23_013_971100', '23_027_045000', '23_027_041000', '23_027_042000', '23_027_044000', '23_027_047000', '23_025_966000', '23_011_021000', '23_011_020000', '23_025_965800', '23_027_046002', '23_027_046001', '23_015_975100']</t>
-        </is>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>[0.00021687912206292182, 4.795566568912738e-06, 0.91337583173091, 7.869788350860788e-05, 8.575411004276487e-06, 0.0, 0.00011104933106020718, 0.00023358880549423225, 0.000130920696640643, 5.572428515925048e-05, 0.0002877434740556635, 0.00032547667645422174, 1.0646074572465026e-08, 0.9999803815759679, 0.9996377187916237, 0.8377655689208792, 0.5469362875402461, 0.9999882774060297, 0.00037404080411872394, 0.00013228831989045046, 4.7992715273655454e-05, 6.40030797434501e-05, 0.9997041423754807, 0.9995899084161568, 1.5936450007206227e-05]</t>
+          <t>23_019_003000, 23_019_012000, 23_027_043000, 23_019_002000, 23_013_970200, 23_011_019000, 23_011_020500, 23_009_965300, 23_009_965400, 23_013_970302, 23_013_970301, 23_019_012500, 23_013_971100, 23_027_045000, 23_027_041000, 23_027_042000, 23_027_044000, 23_027_047000, 23_025_966000, 23_011_021000, 23_011_020000, 23_025_965800, 23_027_046002, 23_027_046001, 23_015_975100</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>0.00021687912206292182, 4.795566568912738e-06, 0.91337583173091, 7.869788350860788e-05, 8.575411004276487e-06, 0.0, 0.00011104933106020718, 0.00023358880549423225, 0.000130920696640643, 5.572428515925048e-05, 0.0002877434740556635, 0.00032547667645422174, 1.0646074572465026e-08, 0.9999803815759679, 0.9996377187916237, 0.8377655689208792, 0.5469362875402461, 0.9999882774060297, 0.00037404080411872394, 0.00013228831989045046, 4.7992715273655454e-05, 6.40030797434501e-05, 0.9997041423754807, 0.9995899084161568, 1.5936450007206227e-05</t>
         </is>
       </c>
     </row>
